--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="391">
   <si>
     <t>Doi</t>
   </si>
@@ -1500,6 +1500,235 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%1,      Lihua%Zhu%NULL%1,      Jingjing%Cai%NULL%1,      Fang%Lei%NULL%1,      Juan-Juan%Qin%NULL%1,      Jing%Xie%NULL%1,      Ye-Mao%Liu%NULL%1,      Yan-Ci%Zhao%NULL%1,      Xuewei%Huang%NULL%1,      Lijin%Lin%NULL%1,      Meng%Xia%NULL%1,      Ming-Ming%Chen%NULL%1,      Xu%Cheng%NULL%1,      Xiao%Zhang%NULL%1,      Deliang%Guo%NULL%1,      Yuanyuan%Peng%NULL%1,      Yan-Xiao%Ji%NULL%1,      Jing%Chen%NULL%1,      Zhi-Gang%She%NULL%1,      Yibin%Wang%NULL%0,      Qingbo%Xu%NULL%1,      Renfu%Tan%NULL%1,      Haitao%Wang%NULL%1,      Jun%Lin%NULL%1,      Pengcheng%Luo%NULL%1,      Shouzhi%Fu%NULL%1,      Hongbin%Cai%NULL%1,      Ping%Ye%NULL%1,      Bing%Xiao%NULL%1,      Weiming%Mao%NULL%1,      Liming%Liu%NULL%1,      Youqin%Yan%NULL%1,      Mingyu%Liu%NULL%1,      Manhua%Chen%NULL%1,      Xiao-Jing%Zhang%NULL%1,      Xinghuan%Wang%NULL%1,      Rhian M.%Touyz%NULL%1,      Jiahong%Xia%NULL%1,      Bing-Hong%Zhang%NULL%1,      Xiaodong%Huang%NULL%1,      Yufeng%Yuan%NULL%1,      Rohit%Loomba%NULL%1,      Peter P.%Liu%NULL%1,      Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of this study was to investigate the possible relationship between worse clinical outcomes and the use of angiotensin-converting enzyme inhibitors (ACEIs) or angiotensin receptor blockers (ARBs) in hospitalized COVID-19 patients.
+ A total of 247 adult patients (154 males, 93 females; mean age: 51.3 ± 14.2 years) hospitalized for COVID-19 as confirmed by polymerase chain reaction (PCR) were retrospectively reviewed.
+ Demographic and clinical characteristics and laboratory parameters were analyzed using various statistical modeling.
+ Primary outcomes were defined as the need for intensive care unit (ICU), mechanical ventilation, or occurrence of death.
+ Of the patients, 48 were treated in the ICU with a high flow oxygen/noninvasive mechanical ventilation (NIMV, n = 12) or mechanical ventilation (n = 36).
+ Median length of ICU stay was 13 (range, 7–18) days.
+ Mortality was seen in four of the ICU patients.
+ Other patients were followed in the COVID-19 services for a median of 7 days.
+ There was no significant correlation between the primary outcomes and use of ACEIs/ARBs (frequentist OR = 0.82, 95% confidence interval (CI) 0.29–2.34, p = 0.715 and Bayesian posterior median OR = 0.80, 95% CI 0.31–2.02) and presence of hypertension (frequentist OR = 1.23, 95% CI 0.52–2.92, p = 0.631 and Bayesian posterior median OR = 1.25, 95% CI 0.58–2.60).
+ Neutrophil-to-lymphocyte ratio (NLR) and D-dimer levels were strongly associated with primary outcomes.
+ In conclusion, the presence of hypertension and use of ACEIs/ARBs were not significantly associated with poor primary clinical outcomes; however, NLR and D-dimer levels were strong predictors of clinical worsening.
+</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,       Erkan%Ekicibasi%NULL%1,       Aleks%Degirmencioglu%NULL%1,       Ashok%Paudel%NULL%1,       Refik%Erdim%NULL%1,       Hilal Kurtoglu%Gumusel%NULL%1,       Elif%Eroglu%NULL%1,       Ibrahim Halil%Tanboga%NULL%1,       Sinan%Dagdelen%NULL%1,       Nevin%Sariguzel%NULL%1,       Ceyda Erel%Kirisoglu%NULL%1,       Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+id="Par2"&gt;In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,       Ju-Hyun%Kim%NULL%1,       Jin-Sung%Park%NULL%1,       Min Cheol%Chang%wheel633@ynu.ac.kr%1,       Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
+ There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
+ Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
+ On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
+Objective
+id="Par2"&gt;The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
+Methods
+id="Par3"&gt;This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
+ Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
+ All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
+ Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
+Results
+id="Par4"&gt;Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
+ When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
+ However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
+ Sensitivity and subgroup analyses confirmed our main findings.
+Conclusions
+id="Par5"&gt;ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
+ The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
+Electronic supplementary material
+The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,       Marco%Massari%NULL%3,       Marco%Massari%NULL%0,       Roberto%Da Cas%NULL%2,       Francesca%Menniti Ippolito%NULL%2,       Janet%Sultana%NULL%2,       Salvatore%Crisafulli%NULL%2,       Paolo%Giorgi Rossi%NULL%2,       Massimiliano%Marino%NULL%0,       Manuel%Zorzi%NULL%2,       Emanuela%Bovo%NULL%2,       Olivia%Leoni%NULL%2,       Monica%Ludergnani%NULL%0,       Stefania%Spila Alegiani%stefania.spila@iss.it%2,       Stefania%Spila Alegiani%NULL%0,       Francesca%Menniti Ippolito%NULL%0,       Roberto%Da Cas%NULL%0,       Marco%Massari%NULL%0,       Giuseppe%Traversa%NULL%1,       Graziano%Onder%NULL%1,       Gianluca%Trifirò%NULL%1,       Janet%Sultana%NULL%0,       Valentina%Ientile%NULL%1,       Salvatore%Crisafulli%NULL%0,       Paolo%Giorgi Rossi%NULL%0,       Roberto%Grilli%NULL%0,       Giulio%Formoso%NULL%1,       Massimiliano%Marino%NULL%0,       Massimo%Vicentini%NULL%0,       Olivia%Leoni%NULL%0,       Monica%Ludergnani%NULL%0,       Danilo%Cereda%NULL%1,       Eliana%Ferroni%NULL%1,       Stefano%Guzzinati%NULL%1,       Emanuela%Bovo%NULL%0,       Manuel%Zorzi%NULL%0,       Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,        Ju-Hyun%Kim%NULL%1,        Jin-Sung%Park%NULL%1,        Min Cheol%Chang%wheel633@ynu.ac.kr%1,        Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
+ There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
+ Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
+ On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
+Objective
+The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
+Methods
+id="Par3"&gt;This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
+ Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
+ All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
+ Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
+Results
+id="Par4"&gt;Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
+ When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
+ However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
+ Sensitivity and subgroup analyses confirmed our main findings.
+Conclusions
+id="Par5"&gt;ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
+ The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
+Electronic supplementary material
+The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,        Marco%Massari%NULL%3,        Marco%Massari%NULL%0,        Roberto%Da Cas%NULL%2,        Francesca%Menniti Ippolito%NULL%2,        Janet%Sultana%NULL%2,        Salvatore%Crisafulli%NULL%2,        Paolo%Giorgi Rossi%NULL%2,        Massimiliano%Marino%NULL%2,        Manuel%Zorzi%NULL%2,        Emanuela%Bovo%NULL%2,        Olivia%Leoni%NULL%2,        Monica%Ludergnani%NULL%2,        Stefania%Spila Alegiani%stefania.spila@iss.it%2,        Stefania%Spila Alegiani%NULL%0,        Francesca%Menniti Ippolito%NULL%0,        Roberto%Da Cas%NULL%0,        Marco%Massari%NULL%0,        Giuseppe%Traversa%NULL%1,        Graziano%Onder%NULL%1,        Gianluca%Trifirò%NULL%1,        Janet%Sultana%NULL%0,        Valentina%Ientile%NULL%1,        Salvatore%Crisafulli%NULL%0,        Paolo%Giorgi Rossi%NULL%0,        Roberto%Grilli%NULL%1,        Giulio%Formoso%NULL%1,        Massimiliano%Marino%NULL%0,        Massimo%Vicentini%NULL%1,        Olivia%Leoni%NULL%0,        Monica%Ludergnani%NULL%0,        Danilo%Cereda%NULL%1,        Eliana%Ferroni%NULL%1,        Stefano%Guzzinati%NULL%1,        Emanuela%Bovo%NULL%0,        Manuel%Zorzi%NULL%0,        Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,         Ju-Hyun%Kim%NULL%1,         Jin-Sung%Park%NULL%1,         Min Cheol%Chang%wheel633@ynu.ac.kr%1,         Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
+ There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
+ Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
+ On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
+Objective
+The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
+Methods
+This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
+ Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
+ All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
+ Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
+Results
+id="Par4"&gt;Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
+ When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
+ However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
+ Sensitivity and subgroup analyses confirmed our main findings.
+Conclusions
+id="Par5"&gt;ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
+ The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
+Electronic supplementary material
+The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,         Marco%Massari%NULL%3,         Marco%Massari%NULL%0,         Roberto%Da Cas%NULL%2,         Francesca%Menniti Ippolito%NULL%2,         Janet%Sultana%NULL%2,         Salvatore%Crisafulli%NULL%2,         Paolo%Giorgi Rossi%NULL%2,         Massimiliano%Marino%NULL%2,         Manuel%Zorzi%NULL%2,         Emanuela%Bovo%NULL%2,         Olivia%Leoni%NULL%2,         Monica%Ludergnani%NULL%2,         Stefania%Spila Alegiani%stefania.spila@iss.it%2,         Stefania%Spila Alegiani%NULL%0,         Francesca%Menniti Ippolito%NULL%0,         Roberto%Da Cas%NULL%0,         Marco%Massari%NULL%0,         Giuseppe%Traversa%NULL%1,         Graziano%Onder%NULL%1,         Gianluca%Trifirò%NULL%1,         Janet%Sultana%NULL%0,         Valentina%Ientile%NULL%1,         Salvatore%Crisafulli%NULL%0,         Paolo%Giorgi Rossi%NULL%0,         Roberto%Grilli%NULL%1,         Giulio%Formoso%NULL%1,         Massimiliano%Marino%NULL%0,         Massimo%Vicentini%NULL%1,         Olivia%Leoni%NULL%0,         Monica%Ludergnani%NULL%0,         Danilo%Cereda%NULL%1,         Eliana%Ferroni%NULL%1,         Stefano%Guzzinati%NULL%1,         Emanuela%Bovo%NULL%0,         Manuel%Zorzi%NULL%0,         Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,          Ju-Hyun%Kim%NULL%1,          Jin-Sung%Park%NULL%1,          Min Cheol%Chang%wheel633@ynu.ac.kr%1,          Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
+ There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
+ Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
+ On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
+Objective
+The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
+Methods
+This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
+ Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
+ All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
+ Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
+Results
+Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
+ When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
+ However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
+ Sensitivity and subgroup analyses confirmed our main findings.
+Conclusions
+id="Par5"&gt;ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
+ The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
+Electronic supplementary material
+The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,          Marco%Massari%NULL%3,          Marco%Massari%NULL%0,          Roberto%Da Cas%NULL%2,          Francesca%Menniti Ippolito%NULL%2,          Janet%Sultana%NULL%2,          Salvatore%Crisafulli%NULL%2,          Paolo%Giorgi Rossi%NULL%2,          Massimiliano%Marino%NULL%2,          Manuel%Zorzi%NULL%2,          Emanuela%Bovo%NULL%2,          Olivia%Leoni%NULL%2,          Monica%Ludergnani%NULL%2,          Stefania%Spila Alegiani%stefania.spila@iss.it%2,          Stefania%Spila Alegiani%NULL%0,          Francesca%Menniti Ippolito%NULL%0,          Roberto%Da Cas%NULL%0,          Marco%Massari%NULL%0,          Giuseppe%Traversa%NULL%1,          Graziano%Onder%NULL%1,          Gianluca%Trifirò%NULL%1,          Janet%Sultana%NULL%0,          Valentina%Ientile%NULL%1,          Salvatore%Crisafulli%NULL%0,          Paolo%Giorgi Rossi%NULL%0,          Roberto%Grilli%NULL%1,          Giulio%Formoso%NULL%1,          Massimiliano%Marino%NULL%0,          Massimo%Vicentini%NULL%1,          Olivia%Leoni%NULL%0,          Monica%Ludergnani%NULL%0,          Danilo%Cereda%NULL%1,          Eliana%Ferroni%NULL%1,          Stefano%Guzzinati%NULL%1,          Emanuela%Bovo%NULL%0,          Manuel%Zorzi%NULL%0,          Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
+ There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
+ Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
+ On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
+Objective
+The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
+Methods
+This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
+ Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
+ All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
+ Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
+Results
+Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
+ When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
+ However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
+ Sensitivity and subgroup analyses confirmed our main findings.
+Conclusions
+ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
+ The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
+Electronic supplementary material
+The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,           Marco%Massari%NULL%3,           Marco%Massari%NULL%0,           Roberto%Da Cas%NULL%2,           Francesca%Menniti Ippolito%NULL%2,           Janet%Sultana%NULL%2,           Salvatore%Crisafulli%NULL%2,           Paolo%Giorgi Rossi%NULL%2,           Massimiliano%Marino%NULL%2,           Manuel%Zorzi%NULL%2,           Emanuela%Bovo%NULL%2,           Olivia%Leoni%NULL%2,           Monica%Ludergnani%NULL%2,           Stefania%Spila Alegiani%stefania.spila@iss.it%2,           Stefania%Spila Alegiani%NULL%0,           Francesca%Menniti Ippolito%NULL%0,           Roberto%Da Cas%NULL%0,           Marco%Massari%NULL%0,           Giuseppe%Traversa%NULL%1,           Graziano%Onder%NULL%1,           Gianluca%Trifirò%NULL%1,           Janet%Sultana%NULL%0,           Valentina%Ientile%NULL%1,           Salvatore%Crisafulli%NULL%0,           Paolo%Giorgi Rossi%NULL%0,           Roberto%Grilli%NULL%1,           Giulio%Formoso%NULL%1,           Massimiliano%Marino%NULL%0,           Massimo%Vicentini%NULL%1,           Olivia%Leoni%NULL%0,           Monica%Ludergnani%NULL%0,           Danilo%Cereda%NULL%1,           Eliana%Ferroni%NULL%1,           Stefano%Guzzinati%NULL%1,           Emanuela%Bovo%NULL%0,           Manuel%Zorzi%NULL%0,           Massimo%Gion%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2407,10 +2636,10 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>371</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -2583,10 +2812,10 @@
         <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>385</v>
       </c>
       <c r="E17" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -3639,10 +3868,10 @@
         <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>389</v>
       </c>
       <c r="E41" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="371">
   <si>
     <t>Doi</t>
   </si>
@@ -1500,235 +1500,6 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%1,      Lihua%Zhu%NULL%1,      Jingjing%Cai%NULL%1,      Fang%Lei%NULL%1,      Juan-Juan%Qin%NULL%1,      Jing%Xie%NULL%1,      Ye-Mao%Liu%NULL%1,      Yan-Ci%Zhao%NULL%1,      Xuewei%Huang%NULL%1,      Lijin%Lin%NULL%1,      Meng%Xia%NULL%1,      Ming-Ming%Chen%NULL%1,      Xu%Cheng%NULL%1,      Xiao%Zhang%NULL%1,      Deliang%Guo%NULL%1,      Yuanyuan%Peng%NULL%1,      Yan-Xiao%Ji%NULL%1,      Jing%Chen%NULL%1,      Zhi-Gang%She%NULL%1,      Yibin%Wang%NULL%0,      Qingbo%Xu%NULL%1,      Renfu%Tan%NULL%1,      Haitao%Wang%NULL%1,      Jun%Lin%NULL%1,      Pengcheng%Luo%NULL%1,      Shouzhi%Fu%NULL%1,      Hongbin%Cai%NULL%1,      Ping%Ye%NULL%1,      Bing%Xiao%NULL%1,      Weiming%Mao%NULL%1,      Liming%Liu%NULL%1,      Youqin%Yan%NULL%1,      Mingyu%Liu%NULL%1,      Manhua%Chen%NULL%1,      Xiao-Jing%Zhang%NULL%1,      Xinghuan%Wang%NULL%1,      Rhian M.%Touyz%NULL%1,      Jiahong%Xia%NULL%1,      Bing-Hong%Zhang%NULL%1,      Xiaodong%Huang%NULL%1,      Yufeng%Yuan%NULL%1,      Rohit%Loomba%NULL%1,      Peter P.%Liu%NULL%1,      Hongliang%Li%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The aim of this study was to investigate the possible relationship between worse clinical outcomes and the use of angiotensin-converting enzyme inhibitors (ACEIs) or angiotensin receptor blockers (ARBs) in hospitalized COVID-19 patients.
- A total of 247 adult patients (154 males, 93 females; mean age: 51.3 ± 14.2 years) hospitalized for COVID-19 as confirmed by polymerase chain reaction (PCR) were retrospectively reviewed.
- Demographic and clinical characteristics and laboratory parameters were analyzed using various statistical modeling.
- Primary outcomes were defined as the need for intensive care unit (ICU), mechanical ventilation, or occurrence of death.
- Of the patients, 48 were treated in the ICU with a high flow oxygen/noninvasive mechanical ventilation (NIMV, n = 12) or mechanical ventilation (n = 36).
- Median length of ICU stay was 13 (range, 7–18) days.
- Mortality was seen in four of the ICU patients.
- Other patients were followed in the COVID-19 services for a median of 7 days.
- There was no significant correlation between the primary outcomes and use of ACEIs/ARBs (frequentist OR = 0.82, 95% confidence interval (CI) 0.29–2.34, p = 0.715 and Bayesian posterior median OR = 0.80, 95% CI 0.31–2.02) and presence of hypertension (frequentist OR = 1.23, 95% CI 0.52–2.92, p = 0.631 and Bayesian posterior median OR = 1.25, 95% CI 0.58–2.60).
- Neutrophil-to-lymphocyte ratio (NLR) and D-dimer levels were strongly associated with primary outcomes.
- In conclusion, the presence of hypertension and use of ACEIs/ARBs were not significantly associated with poor primary clinical outcomes; however, NLR and D-dimer levels were strong predictors of clinical worsening.
-</t>
-  </si>
-  <si>
-    <t>[Selcuk%Gormez%NULL%1,       Erkan%Ekicibasi%NULL%1,       Aleks%Degirmencioglu%NULL%1,       Ashok%Paudel%NULL%1,       Refik%Erdim%NULL%1,       Hilal Kurtoglu%Gumusel%NULL%1,       Elif%Eroglu%NULL%1,       Ibrahim Halil%Tanboga%NULL%1,       Sinan%Dagdelen%NULL%1,       Nevin%Sariguzel%NULL%1,       Ceyda Erel%Kirisoglu%NULL%1,       Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-id="Par2"&gt;In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%4,       Ju-Hyun%Kim%NULL%1,       Jin-Sung%Park%NULL%1,       Min Cheol%Chang%wheel633@ynu.ac.kr%1,       Donghwi%Park%bdome@hanmail.net%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
- There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
- Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
- On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
-Objective
-id="Par2"&gt;The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
-Methods
-id="Par3"&gt;This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
- Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
- All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
- Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
-Results
-id="Par4"&gt;Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
- When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
- However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
- Sensitivity and subgroup analyses confirmed our main findings.
-Conclusions
-id="Par5"&gt;ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
- The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
-Electronic supplementary material
-The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Gianluca%Trifirò%NULL%1,       Marco%Massari%NULL%3,       Marco%Massari%NULL%0,       Roberto%Da Cas%NULL%2,       Francesca%Menniti Ippolito%NULL%2,       Janet%Sultana%NULL%2,       Salvatore%Crisafulli%NULL%2,       Paolo%Giorgi Rossi%NULL%2,       Massimiliano%Marino%NULL%0,       Manuel%Zorzi%NULL%2,       Emanuela%Bovo%NULL%2,       Olivia%Leoni%NULL%2,       Monica%Ludergnani%NULL%0,       Stefania%Spila Alegiani%stefania.spila@iss.it%2,       Stefania%Spila Alegiani%NULL%0,       Francesca%Menniti Ippolito%NULL%0,       Roberto%Da Cas%NULL%0,       Marco%Massari%NULL%0,       Giuseppe%Traversa%NULL%1,       Graziano%Onder%NULL%1,       Gianluca%Trifirò%NULL%1,       Janet%Sultana%NULL%0,       Valentina%Ientile%NULL%1,       Salvatore%Crisafulli%NULL%0,       Paolo%Giorgi Rossi%NULL%0,       Roberto%Grilli%NULL%0,       Giulio%Formoso%NULL%1,       Massimiliano%Marino%NULL%0,       Massimo%Vicentini%NULL%0,       Olivia%Leoni%NULL%0,       Monica%Ludergnani%NULL%0,       Danilo%Cereda%NULL%1,       Eliana%Ferroni%NULL%1,       Stefano%Guzzinati%NULL%1,       Emanuela%Bovo%NULL%0,       Manuel%Zorzi%NULL%0,       Massimo%Gion%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-id="Par3"&gt;In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%4,        Ju-Hyun%Kim%NULL%1,        Jin-Sung%Park%NULL%1,        Min Cheol%Chang%wheel633@ynu.ac.kr%1,        Donghwi%Park%bdome@hanmail.net%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
- There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
- Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
- On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
-Objective
-The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
-Methods
-id="Par3"&gt;This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
- Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
- All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
- Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
-Results
-id="Par4"&gt;Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
- When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
- However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
- Sensitivity and subgroup analyses confirmed our main findings.
-Conclusions
-id="Par5"&gt;ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
- The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
-Electronic supplementary material
-The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Gianluca%Trifirò%NULL%1,        Marco%Massari%NULL%3,        Marco%Massari%NULL%0,        Roberto%Da Cas%NULL%2,        Francesca%Menniti Ippolito%NULL%2,        Janet%Sultana%NULL%2,        Salvatore%Crisafulli%NULL%2,        Paolo%Giorgi Rossi%NULL%2,        Massimiliano%Marino%NULL%2,        Manuel%Zorzi%NULL%2,        Emanuela%Bovo%NULL%2,        Olivia%Leoni%NULL%2,        Monica%Ludergnani%NULL%2,        Stefania%Spila Alegiani%stefania.spila@iss.it%2,        Stefania%Spila Alegiani%NULL%0,        Francesca%Menniti Ippolito%NULL%0,        Roberto%Da Cas%NULL%0,        Marco%Massari%NULL%0,        Giuseppe%Traversa%NULL%1,        Graziano%Onder%NULL%1,        Gianluca%Trifirò%NULL%1,        Janet%Sultana%NULL%0,        Valentina%Ientile%NULL%1,        Salvatore%Crisafulli%NULL%0,        Paolo%Giorgi Rossi%NULL%0,        Roberto%Grilli%NULL%1,        Giulio%Formoso%NULL%1,        Massimiliano%Marino%NULL%0,        Massimo%Vicentini%NULL%1,        Olivia%Leoni%NULL%0,        Monica%Ludergnani%NULL%0,        Danilo%Cereda%NULL%1,        Eliana%Ferroni%NULL%1,        Stefano%Guzzinati%NULL%1,        Emanuela%Bovo%NULL%0,        Manuel%Zorzi%NULL%0,        Massimo%Gion%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-id="Par4"&gt;Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%4,         Ju-Hyun%Kim%NULL%1,         Jin-Sung%Park%NULL%1,         Min Cheol%Chang%wheel633@ynu.ac.kr%1,         Donghwi%Park%bdome@hanmail.net%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
- There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
- Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
- On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
-Objective
-The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
-Methods
-This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
- Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
- All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
- Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
-Results
-id="Par4"&gt;Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
- When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
- However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
- Sensitivity and subgroup analyses confirmed our main findings.
-Conclusions
-id="Par5"&gt;ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
- The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
-Electronic supplementary material
-The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Gianluca%Trifirò%NULL%1,         Marco%Massari%NULL%3,         Marco%Massari%NULL%0,         Roberto%Da Cas%NULL%2,         Francesca%Menniti Ippolito%NULL%2,         Janet%Sultana%NULL%2,         Salvatore%Crisafulli%NULL%2,         Paolo%Giorgi Rossi%NULL%2,         Massimiliano%Marino%NULL%2,         Manuel%Zorzi%NULL%2,         Emanuela%Bovo%NULL%2,         Olivia%Leoni%NULL%2,         Monica%Ludergnani%NULL%2,         Stefania%Spila Alegiani%stefania.spila@iss.it%2,         Stefania%Spila Alegiani%NULL%0,         Francesca%Menniti Ippolito%NULL%0,         Roberto%Da Cas%NULL%0,         Marco%Massari%NULL%0,         Giuseppe%Traversa%NULL%1,         Graziano%Onder%NULL%1,         Gianluca%Trifirò%NULL%1,         Janet%Sultana%NULL%0,         Valentina%Ientile%NULL%1,         Salvatore%Crisafulli%NULL%0,         Paolo%Giorgi Rossi%NULL%0,         Roberto%Grilli%NULL%1,         Giulio%Formoso%NULL%1,         Massimiliano%Marino%NULL%0,         Massimo%Vicentini%NULL%1,         Olivia%Leoni%NULL%0,         Monica%Ludergnani%NULL%0,         Danilo%Cereda%NULL%1,         Eliana%Ferroni%NULL%1,         Stefano%Guzzinati%NULL%1,         Emanuela%Bovo%NULL%0,         Manuel%Zorzi%NULL%0,         Massimo%Gion%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
- In addition, we studied whether underlying neurological diseases are risk factors for death.
-Methods
-In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
- We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
-Results
-In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
- However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
- The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
-Conclusions
-Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
-</t>
-  </si>
-  <si>
-    <t>[Jong-moon%Hwang%NULL%4,          Ju-Hyun%Kim%NULL%1,          Jin-Sung%Park%NULL%1,          Min Cheol%Chang%wheel633@ynu.ac.kr%1,          Donghwi%Park%bdome@hanmail.net%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
- There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
- Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
- On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
-Objective
-The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
-Methods
-This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
- Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
- All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
- Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
-Results
-Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
- When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
- However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
- Sensitivity and subgroup analyses confirmed our main findings.
-Conclusions
-id="Par5"&gt;ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
- The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
-Electronic supplementary material
-The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Gianluca%Trifirò%NULL%1,          Marco%Massari%NULL%3,          Marco%Massari%NULL%0,          Roberto%Da Cas%NULL%2,          Francesca%Menniti Ippolito%NULL%2,          Janet%Sultana%NULL%2,          Salvatore%Crisafulli%NULL%2,          Paolo%Giorgi Rossi%NULL%2,          Massimiliano%Marino%NULL%2,          Manuel%Zorzi%NULL%2,          Emanuela%Bovo%NULL%2,          Olivia%Leoni%NULL%2,          Monica%Ludergnani%NULL%2,          Stefania%Spila Alegiani%stefania.spila@iss.it%2,          Stefania%Spila Alegiani%NULL%0,          Francesca%Menniti Ippolito%NULL%0,          Roberto%Da Cas%NULL%0,          Marco%Massari%NULL%0,          Giuseppe%Traversa%NULL%1,          Graziano%Onder%NULL%1,          Gianluca%Trifirò%NULL%1,          Janet%Sultana%NULL%0,          Valentina%Ientile%NULL%1,          Salvatore%Crisafulli%NULL%0,          Paolo%Giorgi Rossi%NULL%0,          Roberto%Grilli%NULL%1,          Giulio%Formoso%NULL%1,          Massimiliano%Marino%NULL%0,          Massimo%Vicentini%NULL%1,          Olivia%Leoni%NULL%0,          Monica%Ludergnani%NULL%0,          Danilo%Cereda%NULL%1,          Eliana%Ferroni%NULL%1,          Stefano%Guzzinati%NULL%1,          Emanuela%Bovo%NULL%0,          Manuel%Zorzi%NULL%0,          Massimo%Gion%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction
-The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
- There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
- Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
- On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
-Objective
-The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
-Methods
-This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
- Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
- All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
- Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
-Results
-Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
- When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
- However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
- Sensitivity and subgroup analyses confirmed our main findings.
-Conclusions
-ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
- The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
-Electronic supplementary material
-The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Gianluca%Trifirò%NULL%1,           Marco%Massari%NULL%3,           Marco%Massari%NULL%0,           Roberto%Da Cas%NULL%2,           Francesca%Menniti Ippolito%NULL%2,           Janet%Sultana%NULL%2,           Salvatore%Crisafulli%NULL%2,           Paolo%Giorgi Rossi%NULL%2,           Massimiliano%Marino%NULL%2,           Manuel%Zorzi%NULL%2,           Emanuela%Bovo%NULL%2,           Olivia%Leoni%NULL%2,           Monica%Ludergnani%NULL%2,           Stefania%Spila Alegiani%stefania.spila@iss.it%2,           Stefania%Spila Alegiani%NULL%0,           Francesca%Menniti Ippolito%NULL%0,           Roberto%Da Cas%NULL%0,           Marco%Massari%NULL%0,           Giuseppe%Traversa%NULL%1,           Graziano%Onder%NULL%1,           Gianluca%Trifirò%NULL%1,           Janet%Sultana%NULL%0,           Valentina%Ientile%NULL%1,           Salvatore%Crisafulli%NULL%0,           Paolo%Giorgi Rossi%NULL%0,           Roberto%Grilli%NULL%1,           Giulio%Formoso%NULL%1,           Massimiliano%Marino%NULL%0,           Massimo%Vicentini%NULL%1,           Olivia%Leoni%NULL%0,           Monica%Ludergnani%NULL%0,           Danilo%Cereda%NULL%1,           Eliana%Ferroni%NULL%1,           Stefano%Guzzinati%NULL%1,           Emanuela%Bovo%NULL%0,           Manuel%Zorzi%NULL%0,           Massimo%Gion%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2636,10 +2407,10 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>371</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -2812,10 +2583,10 @@
         <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>385</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -3868,10 +3639,10 @@
         <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>389</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="408">
   <si>
     <t>Doi</t>
   </si>
@@ -1500,6 +1500,117 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%1,      Lihua%Zhu%NULL%1,      Jingjing%Cai%NULL%1,      Fang%Lei%NULL%1,      Juan-Juan%Qin%NULL%1,      Jing%Xie%NULL%1,      Ye-Mao%Liu%NULL%1,      Yan-Ci%Zhao%NULL%1,      Xuewei%Huang%NULL%1,      Lijin%Lin%NULL%1,      Meng%Xia%NULL%1,      Ming-Ming%Chen%NULL%1,      Xu%Cheng%NULL%1,      Xiao%Zhang%NULL%1,      Deliang%Guo%NULL%1,      Yuanyuan%Peng%NULL%1,      Yan-Xiao%Ji%NULL%1,      Jing%Chen%NULL%1,      Zhi-Gang%She%NULL%1,      Yibin%Wang%NULL%0,      Qingbo%Xu%NULL%1,      Renfu%Tan%NULL%1,      Haitao%Wang%NULL%1,      Jun%Lin%NULL%1,      Pengcheng%Luo%NULL%1,      Shouzhi%Fu%NULL%1,      Hongbin%Cai%NULL%1,      Ping%Ye%NULL%1,      Bing%Xiao%NULL%1,      Weiming%Mao%NULL%1,      Liming%Liu%NULL%1,      Youqin%Yan%NULL%1,      Mingyu%Liu%NULL%1,      Manhua%Chen%NULL%1,      Xiao-Jing%Zhang%NULL%1,      Xinghuan%Wang%NULL%1,      Rhian M.%Touyz%NULL%1,      Jiahong%Xia%NULL%1,      Bing-Hong%Zhang%NULL%1,      Xiaodong%Huang%NULL%1,      Yufeng%Yuan%NULL%1,      Rohit%Loomba%NULL%1,      Peter P.%Liu%NULL%1,      Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,       Sandra%Santos-Martinez%NULL%1,       Diego%López-Otero%NULL%1,       Luis%Nombela-Franco%NULL%1,       Enrique%Gutiérrez-Ibanes%NULL%1,       Raquel%Del Valle%NULL%1,       Erika%Muñoz-García%NULL%1,       Víctor A.%Jiménez-Diaz%NULL%1,       Ander%Regueiro%NULL%1,       Rocío%González-Ferreiro%NULL%1,       Tomás%Benito%NULL%1,       Xoan Carlos%Sanmartin-Pena%NULL%1,       Pablo%Catalá%NULL%1,       Tania%Rodríguez-Gabella%NULL%1,       Jose Raúl%Delgado-Arana%NULL%1,       Manuel%Carrasco-Moraleja%NULL%1,       Borja%Ibañez%NULL%1,       J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,       David M.%Tehrani%NULL%1,       Soniya V.%Rabadia%NULL%1,       Marlene%Frost%NULL%1,       Rushi V.%Parikh%NULL%1,       Marcella%Calfon-Press%NULL%1,       Olcay%Aksoy%NULL%1,       Soban%Umar%NULL%1,       Reza%Ardehali%NULL%1,       Amir%Rabbani%NULL%1,       Pooya%Bokhoor%NULL%1,       Ali%Nsair%NULL%1,       Jesse%Currier%NULL%1,       Jonathan%Tobis%NULL%1,       Gregg C.%Fonarow%NULL%1,       Ravi%Dave%NULL%1,       Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,       Zeljko%Kraljevic%NULL%1,       Thomas%Searle%NULL%1,       Rebecca%Bendayan%NULL%1,       O'Gallagher%Kevin%NULL%1,       Andrew%Pickles%NULL%1,       Amos%Folarin%NULL%1,       Lukasz%Roguski%NULL%1,       Kawsar%Noor%NULL%1,       Anthony%Shek%NULL%1,       Rosita%Zakeri%NULL%1,       Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,       James T.H.%Teo%jamesteo@nhs.net%1,       Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,       Mauro%Chiarito%NULL%1,       Bernhard%Reimers%NULL%2,       Bernhard%Reimers%NULL%0,       Elena%Azzolini%NULL%1,       Giuseppe%Ferrante%NULL%1,       Ilaria%My%NULL%1,       Giacomo%Viggiani%NULL%1,       Cristina%Panico%NULL%1,       Damiano%Regazzoli%NULL%1,       Michele%Ciccarelli%NULL%1,       Antonio%Voza%NULL%1,       Alessio%Aghemo%NULL%1,       Hongliang%Li%NULL%2,       Yibin%Wang%NULL%2,       Gianluigi%Condorelli%NULL%1,       Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,       Feng%Wang%NULL%1,       Peng%Chen%NULL%1,       Jiangang%Jiang%NULL%1,       Guanglin%Cui%NULL%1,       Ning%Zhou%NULL%2,       Francesco%Moroni%NULL%1,       Javid J.%Moslehi%NULL%1,       Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,       Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,       Ming%Zhong%NULL%1,       Ya%Liu%NULL%1,       Yi%Zhang%NULL%2,       Kai%Zhang%NULL%1,       De-zhen%Su%NULL%1,       Xiao%Meng%NULL%1,       Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,       Duncan%Young%NULL%2,       Duncan%Young%NULL%0,       Carol%Coupland%NULL%1,       Keith M%Channon%NULL%1,       Pui San%Tan%NULL%1,       David A%Harrison%NULL%1,       Kathryn%Rowan%NULL%2,       Kathryn%Rowan%NULL%0,       Paul%Aveyard%NULL%1,       Ian D%Pavord%NULL%1,       Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,       Yue%Cai%NULL%1,       Kan%Zhang%NULL%2,       Kan%Zhang%NULL%0,       Lei%Zhou%NULL%1,       Yao%Zhang%NULL%1,       Xijing%Zhang%NULL%1,       Qi%Li%NULL%1,       Weiqin%Li%NULL%1,       Shiming%Yang%NULL%1,       Xiaoyan%Zhao%NULL%1,       Yuying%Zhao%NULL%1,       Hui%Wang%NULL%1,       Yi%Liu%NULL%2,       Zhiyong%Yin%NULL%1,       Ruining%Zhang%NULL%1,       Rutao%Wang%NULL%1,       Ming%Yang%NULL%1,       Chen%Hui%NULL%1,       William%Wijns%NULL%1,       J William%McEvoy%NULL%1,       Osama%Soliman%NULL%2,       Osama%Soliman%NULL%0,       Yoshinobu%Onuma%NULL%2,       Yoshinobu%Onuma%NULL%0,       Patrick W%Serruys%NULL%1,       Ling%Tao%lingtao@fmmu.edu.cn%1,       Fei%Li%lifei01@fmmu.edu.cn%2,       Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,       Erkan%Ekicibasi%NULL%1,       Aleks%Degirmencioglu%NULL%1,       Ashok%Paudel%NULL%1,       Refik%Erdim%NULL%1,       Hilal Kurtoglu%Gumusel%NULL%1,       Elif%Eroglu%NULL%1,       Ibrahim Halil%Tanboga%NULL%1,       Sinan%Dagdelen%NULL%1,       Nevin%Sariguzel%NULL%1,       Ceyda Erel%Kirisoglu%NULL%1,       Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,       Jiatian%Cao%NULL%1,       Yumeng%Yao%NULL%1,       Xuejuan%Jin%NULL%1,       Zhe%Luo%NULL%1,       Yuan%Xue%NULL%1,       Chouwen%Zhu%NULL%1,       Yanan%Song%NULL%1,       Ying%Wang%NULL%1,       Yunzeng%Zou%NULL%1,       Juying%Qian%NULL%1,       Kaihuan%Yu%NULL%1,       Hui%Gong%NULL%1,       Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,       Ju-Hyun%Kim%NULL%1,       Jin-Sung%Park%NULL%1,       Min Cheol%Chang%wheel633@ynu.ac.kr%1,       Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,       Raphael Romano%Bruno%NULL%1,       Bernhard%Wernly%NULL%1,       Michael%Joannidis%NULL%1,       Sandra%Oeyen%NULL%1,       Tilemachos%Zafeiridis%NULL%1,       Brian%Marsh%NULL%1,       Finn H%Andersen%NULL%1,       Rui%Moreno%NULL%1,       Ana Margarida%Fernandes%NULL%1,       Antonio%Artigas%NULL%1,       Bernardo Bollen%Pinto%NULL%1,       Joerg%Schefold%NULL%1,       Georg%Wolff%NULL%1,       Malte%Kelm%NULL%2,       Malte%Kelm%NULL%0,       Dylan W%De Lange%NULL%1,       Bertrand%Guidet%NULL%1,       Hans%Flaatten%NULL%1,       Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,       Jae Chol%Choi%NULL%1,       Seung-Hun%You%NULL%1,       Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,       Hamish%Reed-Embleton%NULL%2,       Hamish%Reed-Embleton%NULL%0,       Jen%Lewis%NULL%2,       Jen%Lewis%NULL%0,       Pamela%Bain%NULL%1,       Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,       Kenneth W%Chow%NULL%1,       Jonathan%Vo%NULL%1,       Wei%Hou%NULL%1,       Haifang%Li%NULL%1,       Paul S%Richman%NULL%1,       Sandeep K%Mallipattu%NULL%1,       Hal A%Skopicki%NULL%1,       Adam J%Singer%NULL%1,       Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,       Julien%Moragny%NULL%2,       Julien%Moragny%NULL%0,       Youssef%Bennis%NULL%1,       Benjamin%Batteux%NULL%1,       Etienne%Brochot%NULL%1,       Jean Luc%Schmit%NULL%1,       Jean-Philippe%Lanoix%NULL%1,       Claire%Andrejak%NULL%1,       Olivier%Ganry%NULL%1,       Michel%Slama%NULL%1,       Julien%Maizel%NULL%1,       Yazine%Mahjoub%NULL%1,       Kamel%Masmoudi%NULL%1,       Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,       Yi%Liu%NULL%0,       Keliang%Chen%NULL%1,       Suying%Yan%NULL%1,       Xiangrong%Bai%NULL%1,       Juan%Li%947281063@qq.com%1,       Dong%Liu%ld2069@outlook.com%2,       Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,       Javier%López-Pais%NULL%1,       Carla Eugenia%Cacho-Antonio%NULL%1,       Pablo José%Antúnez-Muiños%NULL%1,       Teba%González-Ferrero%NULL%1,       Marta%Pérez-Poza%NULL%1,       Óscar%Otero-García%NULL%1,       Brais%Díaz-Fernández%NULL%1,       María%Bastos-Fernández%NULL%1,       Noelia%Bouzas-Cruz%NULL%1,       Xoan Carlos%Sanmartín-Pena%NULL%1,       Alfonso%Varela-Román%NULL%1,       Manuel%Portela-Romero%NULL%1,       Luis%Valdés-Cuadrado%NULL%1,       Antonio%Pose-Reino%NULL%1,       José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,       Federico%Rea%NULL%1,       Monica%Ludergnani%NULL%4,       Monica%Ludergnani%NULL%0,       Giovanni%Apolone%NULL%1,       Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%3,        Hisao%Ogawa%null%1,        Kazuo%Kimura%null%1,        Masaaki%Konishi%null%1,        Jin%Kirigaya%null%1,        Kazuki%Fukui%null%1,        Kengo%Tsukahara%null%1,        Hiroyuki%Shimizu%null%1,        Keisuke%Iwabuchi%null%1,        Yu%Yamada%null%1,        Kenichiro%Saka%null%1,        Ichiro%Takeuchi%null%1,        Toshio%Hirano%null%1,        Kouichi%Tamura%null%1,  Yasushi%Matsuzawa%null%0,  Hisao%Ogawa%null%1,  Kazuo%Kimura%null%1,  Masaaki%Konishi%null%1,  Jin%Kirigaya%null%1,  Kazuki%Fukui%null%1,  Kengo%Tsukahara%null%1,  Hiroyuki%Shimizu%null%1,  Keisuke%Iwabuchi%null%1,  Yu%Yamada%null%1,  Kenichiro%Saka%null%1,  Ichiro%Takeuchi%null%1,  Toshio%Hirano%null%1,  Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,       Guohui%Xiao%NULL%1,       Juanjuan%Zhang%NULL%1,       Xing%He%NULL%1,       Min%Ou%NULL%1,       Jing%Bi%NULL%1,       Rongqing%Yang%NULL%1,       Wencheng%Di%NULL%1,       Zhaoqin%Wang%NULL%1,       Zigang%Li%NULL%1,       Hong%Gao%NULL%1,       Lei%Liu%NULL%1,       Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,       Francisca%García-Iglesias%NULL%1,       Teresa%González-Alegre%NULL%1,       Francisco%Blanco%NULL%1,       Marta%Varas%NULL%1,       Clara%Hernández-Blanco%NULL%1,       Victor%Hontañón%NULL%1,       María J.%Jaras-Hernández%NULL%1,       Mónica%Martínez-Prieto%NULL%1,       Araceli%Menéndez-Saldaña%NULL%1,       María L.%Cachán%NULL%1,       Eva%Estirado%NULL%1,       Carlos%Lahoz%NULL%1,       Rosa%de Miguel%NULL%1,       Miriam%Romero%NULL%1,       Mar%Lago%NULL%1,       Cristina%García-Quero%NULL%1,       Cristina%Plaza%NULL%1,       Talía%Sainz-Costa%NULL%1,       Susana%Rivas-Vila%NULL%1,       Blanca%Sánchez%NULL%1,       Celia García%Torres%NULL%1,       Lucía%Martínez-Tobar%NULL%1,       María%Hernandez-Pérez%NULL%1,       Pablo%Racionero%NULL%1,       Patricia%Mir-Ihara%NULL%1,       Jesús%Peña-López%NULL%1,       Marta%Bautista-Barea%NULL%1,       Alexa P.%Benítez%NULL%1,       Pablo%Rodríguez-Merlos%NULL%1,       María%Barcenilla%NULL%1,       María San%Basilio%NULL%1,       María%Valencia%NULL%1,       Ricardo%Romero-Martín%NULL%1,       Ana%Boto de los Bueis%NULL%1,       Adriana%de la Hoz-Polo%NULL%1,       María%del Pino-Cidad%NULL%1,       Javier%Coca-Robinot%NULL%1,       Bárbara%González-Ferrer%NULL%1,       Pedro%Fernández-Pérez%NULL%1,       Isabel%Mogollón%NULL%1,       María S.%Montoro-Romero%NULL%1,       Isabel%Villalaín%NULL%1,       Almudena%del Hierro-Zarzuelo%NULL%1,       Irene%Hernández-Martín%NULL%1,       Javier%Domínguez%NULL%1,       Alberto%Luna%NULL%1,       Soledad%Montoro%NULL%1,       Margarita%Sánchez-Orgaz%NULL%1,       Gloria%Amorena%NULL%1,       Cosme%Lavín-Dapena%NULL%1,       Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,       Stanislas%Gleye%NULL%1,       Isabelle%Clerc Urmes%NULL%1,       Elodie%Laugel%NULL%1,       Jonas%Callet%NULL%1,       Françoise%Barbé%NULL%1,       Sophie%Orlowski%NULL%1,       Catherine%Malaplate%NULL%1,       Isabelle%Aimone-Gastin%NULL%1,       Beatrice Maatem%Caillierez%NULL%1,       Marc%Merten%NULL%1,       Elise%Jeannesson%NULL%1,       Raphaël%Kormann%NULL%1,       Jean-Luc%Olivier%NULL%1,       Rosa-Maria%Rodriguez-Guéant%NULL%1,       Farès%Namour%NULL%1,       Sybille%Bevilacqua%NULL%1,       Marie-Reine%Losser%NULL%1,       Bruno%Levy%NULL%1,       Antoine%Kimmoun%NULL%1,       Sébastien%Gibot%NULL%1,       Nathalie%Thilly%NULL%1,       Luc%Frimat%NULL%1,       Evelyne%Schvoerer%NULL%1,       Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,       Samrachana%Adhikari%NULL%1,       Claudia%Pulgarin%NULL%1,       Andrea B.%Troxel%NULL%1,       Eduardo%Iturrate%NULL%1,       Stephen B.%Johnson%NULL%1,       Anaïs%Hausvater%NULL%1,       Jonathan D.%Newman%NULL%1,       Jeffrey S.%Berger%NULL%1,       Sripal%Bangalore%NULL%1,       Stuart D.%Katz%NULL%1,       Glenn I.%Fishman%NULL%1,       Dennis%Kunichoff%NULL%1,       Yu%Chen%NULL%1,       Gbenga%Ogedegbe%NULL%1,       Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,       Massimiliano%Marino%NULL%3,       Debora%Formisano%NULL%1,       Francesco%Venturelli%NULL%1,       Massimo%Vicentini%NULL%3,       Massimo%Vicentini%NULL%0,       Roberto%Grilli%NULL%2,       NULL%NULL%NULL%0,       Gianluigi%Forloni%NULL%8,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,       Paolo%Maggi%NULL%2,       Paolo%Maggi%NULL%0,       Vincenzo%Messina%NULL%1,       Pasquale%Iuliano%NULL%2,       Pasquale%Iuliano%NULL%0,       Antonio%Sardu%NULL%1,       Vincenzo%Iovinella%NULL%1,       Giuseppe%Paolisso%NULL%1,       Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,       Rasimcan%Meral%NULL%1,       Alpay%Medetalibeyoğlu%NULL%1,       Hilal%Konyaoğlu%NULL%1,       Murat%Köse%NULL%1,       Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,       Yun%Qiu%NULL%1,       Xiang-Bin%Xing%NULL%1,       Subrata%Ghosh%NULL%1,       Min-Hu%Chen%NULL%1,       Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,       Maddalena%Giannella%NULL%1,       Michele%Bartoletti%NULL%1,       Filippo%Trapani%NULL%1,       Marina%Tadolini%NULL%1,       Claudio%Borghi%NULL%1,       Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,       Marco%Massari%NULL%3,       Marco%Massari%NULL%0,       Roberto%Da Cas%NULL%2,       Francesca%Menniti Ippolito%NULL%2,       Janet%Sultana%NULL%2,       Salvatore%Crisafulli%NULL%2,       Paolo%Giorgi Rossi%NULL%2,       Massimiliano%Marino%NULL%0,       Manuel%Zorzi%NULL%2,       Emanuela%Bovo%NULL%2,       Olivia%Leoni%NULL%2,       Monica%Ludergnani%NULL%0,       Stefania%Spila Alegiani%stefania.spila@iss.it%2,       Stefania%Spila Alegiani%NULL%0,       Francesca%Menniti Ippolito%NULL%0,       Roberto%Da Cas%NULL%0,       Marco%Massari%NULL%0,       Giuseppe%Traversa%NULL%1,       Graziano%Onder%NULL%1,       Gianluca%Trifirò%NULL%1,       Janet%Sultana%NULL%0,       Valentina%Ientile%NULL%1,       Salvatore%Crisafulli%NULL%0,       Paolo%Giorgi Rossi%NULL%0,       Roberto%Grilli%NULL%0,       Giulio%Formoso%NULL%1,       Massimiliano%Marino%NULL%0,       Massimo%Vicentini%NULL%0,       Olivia%Leoni%NULL%0,       Monica%Ludergnani%NULL%0,       Danilo%Cereda%NULL%1,       Eliana%Ferroni%NULL%1,       Stefano%Guzzinati%NULL%1,       Emanuela%Bovo%NULL%0,       Manuel%Zorzi%NULL%0,       Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,       Chaolin%Huang%NULL%1,       Guohui%Fan%NULL%1,       Zhibo%Liu%NULL%1,       Lianhan%Shang%NULL%1,       Fei%Zhou%NULL%1,       Yeming%Wang%NULL%1,       Jiapei%Yu%NULL%1,       Luning%Yang%NULL%1,       Ke%Xie%NULL%1,       Zhisheng%Huang%NULL%1,       Lixue%Huang%NULL%1,       Xiaoying%Gu%NULL%1,       Hui%Li%NULL%1,       Yi%Zhang%NULL%0,       Yimin%Wang%NULL%1,       Frederick G.%Hayden%NULL%1,       Peter W.%Horby%NULL%1,       Bin%Cao%caobin_ben@163.com%1,       Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,       Dan%Liu%NULL%1,       Shaoqing%Zeng%NULL%1,       Siyuan%Wang%NULL%1,       Sen%Xu%NULL%1,       Ya%Wang%NULL%1,       Ruidi%Yu%NULL%1,       Yue%Gao%NULL%1,       Huayi%Li%NULL%1,       Xinxia%Feng%NULL%1,       Ning%Zhou%NULL%0,       Chunxia%Zhao%NULL%1,       Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,       Lihua%Zhu%NULL%1,       Jingjing%Cai%NULL%1,       Fang%Lei%NULL%1,       Juan-Juan%Qin%NULL%1,       Jing%Xie%NULL%1,       Ye-Mao%Liu%NULL%1,       Yan-Ci%Zhao%NULL%1,       Xuewei%Huang%NULL%1,       Lijin%Lin%NULL%1,       Meng%Xia%NULL%1,       Ming-Ming%Chen%NULL%1,       Xu%Cheng%NULL%1,       Xiao%Zhang%NULL%1,       Deliang%Guo%NULL%1,       Yuanyuan%Peng%NULL%1,       Yan-Xiao%Ji%NULL%1,       Jing%Chen%NULL%1,       Zhi-Gang%She%NULL%1,       Yibin%Wang%NULL%0,       Qingbo%Xu%NULL%1,       Renfu%Tan%NULL%1,       Haitao%Wang%NULL%1,       Jun%Lin%NULL%1,       Pengcheng%Luo%NULL%1,       Shouzhi%Fu%NULL%1,       Hongbin%Cai%NULL%1,       Ping%Ye%NULL%1,       Bing%Xiao%NULL%1,       Weiming%Mao%NULL%1,       Liming%Liu%NULL%1,       Youqin%Yan%NULL%1,       Mingyu%Liu%NULL%1,       Manhua%Chen%NULL%1,       Xiao-Jing%Zhang%NULL%1,       Xinghuan%Wang%NULL%1,       Rhian M.%Touyz%NULL%1,       Jiahong%Xia%NULL%1,       Bing-Hong%Zhang%NULL%1,       Xiaodong%Huang%NULL%1,       Yufeng%Yuan%NULL%1,       Rohit%Loomba%NULL%1,       Peter P.%Liu%NULL%1,       Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +2004,9 @@
       <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" t="s">
+        <v>371</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1926,7 +2039,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -1937,7 +2050,9 @@
       <c r="H2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" t="s">
+        <v>373</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1981,7 +2096,9 @@
       <c r="H3" t="s">
         <v>63</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -2014,7 +2131,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -2025,7 +2142,9 @@
       <c r="H4" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" t="s">
+        <v>373</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2058,7 +2177,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -2069,7 +2188,9 @@
       <c r="H5" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" t="s">
+        <v>376</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2102,7 +2223,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -2113,7 +2234,9 @@
       <c r="H6" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" t="s">
+        <v>376</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -2146,7 +2269,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -2157,7 +2280,9 @@
       <c r="H7" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" t="s">
+        <v>376</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2190,7 +2315,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -2201,7 +2326,9 @@
       <c r="H8" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" t="s">
+        <v>373</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2245,7 +2372,9 @@
       <c r="H9" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -2278,7 +2407,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -2289,7 +2418,9 @@
       <c r="H10" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" t="s">
+        <v>376</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -2333,7 +2464,9 @@
       <c r="H11" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2366,7 +2499,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -2377,7 +2510,9 @@
       <c r="H12" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" t="s">
+        <v>376</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2410,7 +2545,7 @@
         <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -2421,7 +2556,9 @@
       <c r="H13" t="s">
         <v>99</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" t="s">
+        <v>383</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -2465,7 +2602,9 @@
       <c r="H14" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2509,7 +2648,9 @@
       <c r="H15" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="2"/>
+      <c r="I15" t="s">
+        <v>74</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -2542,7 +2683,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -2553,7 +2694,9 @@
       <c r="H16" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" t="s">
+        <v>376</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -2586,7 +2729,7 @@
         <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -2597,7 +2740,9 @@
       <c r="H17" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" t="s">
+        <v>383</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -2641,7 +2786,9 @@
       <c r="H18" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2674,7 +2821,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2685,7 +2832,9 @@
       <c r="H19" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" t="s">
+        <v>376</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -2718,7 +2867,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -2729,7 +2878,9 @@
       <c r="H20" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" t="s">
+        <v>376</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -2762,7 +2913,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2773,7 +2924,9 @@
       <c r="H21" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" t="s">
+        <v>376</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -2806,7 +2959,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -2817,7 +2970,9 @@
       <c r="H22" t="s">
         <v>126</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" t="s">
+        <v>376</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -2861,7 +3016,9 @@
       <c r="H23" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" t="s">
+        <v>74</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -2894,7 +3051,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -2905,7 +3062,9 @@
       <c r="H24" t="s">
         <v>131</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" t="s">
+        <v>376</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -2938,7 +3097,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -2949,7 +3108,9 @@
       <c r="H25" t="s">
         <v>136</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" t="s">
+        <v>376</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -2982,7 +3143,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -2993,7 +3154,9 @@
       <c r="H26" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="2"/>
+      <c r="I26" t="s">
+        <v>373</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -3026,7 +3189,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -3037,7 +3200,9 @@
       <c r="H27" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="2"/>
+      <c r="I27" t="s">
+        <v>376</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -3070,7 +3235,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -3081,7 +3246,9 @@
       <c r="H28" t="s">
         <v>149</v>
       </c>
-      <c r="I28" s="2"/>
+      <c r="I28" t="s">
+        <v>74</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -3114,7 +3281,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -3125,7 +3292,9 @@
       <c r="H29" t="s">
         <v>154</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" t="s">
+        <v>376</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -3158,7 +3327,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -3169,7 +3338,9 @@
       <c r="H30" t="s">
         <v>159</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" t="s">
+        <v>373</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -3202,7 +3373,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -3213,7 +3384,9 @@
       <c r="H31" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="2"/>
+      <c r="I31" t="s">
+        <v>376</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -3257,7 +3430,9 @@
       <c r="H32" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="2"/>
+      <c r="I32" t="s">
+        <v>74</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -3290,7 +3465,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3301,7 +3476,9 @@
       <c r="H33" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="2"/>
+      <c r="I33" t="s">
+        <v>376</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -3345,7 +3522,9 @@
       <c r="H34" t="s">
         <v>63</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -3378,7 +3557,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -3389,7 +3568,9 @@
       <c r="H35" t="s">
         <v>172</v>
       </c>
-      <c r="I35" s="2"/>
+      <c r="I35" t="s">
+        <v>376</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -3422,7 +3603,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -3433,7 +3614,9 @@
       <c r="H36" t="s">
         <v>113</v>
       </c>
-      <c r="I36" s="2"/>
+      <c r="I36" t="s">
+        <v>376</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3466,7 +3649,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -3477,7 +3660,9 @@
       <c r="H37" t="s">
         <v>181</v>
       </c>
-      <c r="I37" s="2"/>
+      <c r="I37" t="s">
+        <v>376</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -3521,7 +3706,9 @@
       <c r="H38" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="2"/>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -3554,7 +3741,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -3565,7 +3752,9 @@
       <c r="H39" t="s">
         <v>63</v>
       </c>
-      <c r="I39" s="2"/>
+      <c r="I39" t="s">
+        <v>373</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -3598,7 +3787,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -3609,7 +3798,9 @@
       <c r="H40" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="2"/>
+      <c r="I40" t="s">
+        <v>376</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -3642,7 +3833,7 @@
         <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -3653,7 +3844,9 @@
       <c r="H41" t="s">
         <v>63</v>
       </c>
-      <c r="I41" s="2"/>
+      <c r="I41" t="s">
+        <v>383</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -3686,7 +3879,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -3697,7 +3890,9 @@
       <c r="H42" t="s">
         <v>196</v>
       </c>
-      <c r="I42" s="2"/>
+      <c r="I42" t="s">
+        <v>383</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -3741,7 +3936,9 @@
       <c r="H43" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="2"/>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -3774,7 +3971,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -3785,7 +3982,9 @@
       <c r="H44" t="s">
         <v>200</v>
       </c>
-      <c r="I44" s="2"/>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -3818,7 +4017,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>
@@ -3829,7 +4028,9 @@
       <c r="H45" t="s">
         <v>205</v>
       </c>
-      <c r="I45" s="2"/>
+      <c r="I45" t="s">
+        <v>376</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="558">
   <si>
     <t>Doi</t>
   </si>
@@ -1611,6 +1611,489 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,       Lihua%Zhu%NULL%1,       Jingjing%Cai%NULL%1,       Fang%Lei%NULL%1,       Juan-Juan%Qin%NULL%1,       Jing%Xie%NULL%1,       Ye-Mao%Liu%NULL%1,       Yan-Ci%Zhao%NULL%1,       Xuewei%Huang%NULL%1,       Lijin%Lin%NULL%1,       Meng%Xia%NULL%1,       Ming-Ming%Chen%NULL%1,       Xu%Cheng%NULL%1,       Xiao%Zhang%NULL%1,       Deliang%Guo%NULL%1,       Yuanyuan%Peng%NULL%1,       Yan-Xiao%Ji%NULL%1,       Jing%Chen%NULL%1,       Zhi-Gang%She%NULL%1,       Yibin%Wang%NULL%0,       Qingbo%Xu%NULL%1,       Renfu%Tan%NULL%1,       Haitao%Wang%NULL%1,       Jun%Lin%NULL%1,       Pengcheng%Luo%NULL%1,       Shouzhi%Fu%NULL%1,       Hongbin%Cai%NULL%1,       Ping%Ye%NULL%1,       Bing%Xiao%NULL%1,       Weiming%Mao%NULL%1,       Liming%Liu%NULL%1,       Youqin%Yan%NULL%1,       Mingyu%Liu%NULL%1,       Manhua%Chen%NULL%1,       Xiao-Jing%Zhang%NULL%1,       Xinghuan%Wang%NULL%1,       Rhian M.%Touyz%NULL%1,       Jiahong%Xia%NULL%1,       Bing-Hong%Zhang%NULL%1,       Xiaodong%Huang%NULL%1,       Yufeng%Yuan%NULL%1,       Rohit%Loomba%NULL%1,       Peter P.%Liu%NULL%1,       Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,        Sandra%Santos-Martinez%NULL%1,        Diego%López-Otero%NULL%1,        Luis%Nombela-Franco%NULL%1,        Enrique%Gutiérrez-Ibanes%NULL%1,        Raquel%Del Valle%NULL%1,        Erika%Muñoz-García%NULL%1,        Víctor A.%Jiménez-Diaz%NULL%1,        Ander%Regueiro%NULL%1,        Rocío%González-Ferreiro%NULL%1,        Tomás%Benito%NULL%1,        Xoan Carlos%Sanmartin-Pena%NULL%1,        Pablo%Catalá%NULL%1,        Tania%Rodríguez-Gabella%NULL%1,        Jose Raúl%Delgado-Arana%NULL%1,        Manuel%Carrasco-Moraleja%NULL%1,        Borja%Ibañez%NULL%1,        J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,        David M.%Tehrani%NULL%1,        Soniya V.%Rabadia%NULL%1,        Marlene%Frost%NULL%1,        Rushi V.%Parikh%NULL%1,        Marcella%Calfon-Press%NULL%1,        Olcay%Aksoy%NULL%1,        Soban%Umar%NULL%1,        Reza%Ardehali%NULL%1,        Amir%Rabbani%NULL%1,        Pooya%Bokhoor%NULL%1,        Ali%Nsair%NULL%1,        Jesse%Currier%NULL%1,        Jonathan%Tobis%NULL%1,        Gregg C.%Fonarow%NULL%1,        Ravi%Dave%NULL%1,        Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,        Zeljko%Kraljevic%NULL%1,        Thomas%Searle%NULL%1,        Rebecca%Bendayan%NULL%1,        O'Gallagher%Kevin%NULL%1,        Andrew%Pickles%NULL%1,        Amos%Folarin%NULL%1,        Lukasz%Roguski%NULL%1,        Kawsar%Noor%NULL%1,        Anthony%Shek%NULL%1,        Rosita%Zakeri%NULL%1,        Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,        James T.H.%Teo%jamesteo@nhs.net%1,        Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,        Mauro%Chiarito%NULL%1,        Bernhard%Reimers%NULL%2,        Bernhard%Reimers%NULL%0,        Elena%Azzolini%NULL%1,        Giuseppe%Ferrante%NULL%1,        Ilaria%My%NULL%1,        Giacomo%Viggiani%NULL%1,        Cristina%Panico%NULL%1,        Damiano%Regazzoli%NULL%1,        Michele%Ciccarelli%NULL%1,        Antonio%Voza%NULL%1,        Alessio%Aghemo%NULL%1,        Hongliang%Li%NULL%2,        Yibin%Wang%NULL%2,        Gianluigi%Condorelli%NULL%1,        Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,        Feng%Wang%NULL%1,        Peng%Chen%NULL%1,        Jiangang%Jiang%NULL%1,        Guanglin%Cui%NULL%1,        Ning%Zhou%NULL%2,        Francesco%Moroni%NULL%1,        Javid J.%Moslehi%NULL%1,        Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,        Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,        Ming%Zhong%NULL%1,        Ya%Liu%NULL%1,        Yi%Zhang%NULL%2,        Kai%Zhang%NULL%1,        De-zhen%Su%NULL%1,        Xiao%Meng%NULL%1,        Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,        Duncan%Young%NULL%2,        Duncan%Young%NULL%0,        Carol%Coupland%NULL%1,        Keith M%Channon%NULL%1,        Pui San%Tan%NULL%1,        David A%Harrison%NULL%1,        Kathryn%Rowan%NULL%2,        Kathryn%Rowan%NULL%0,        Paul%Aveyard%NULL%1,        Ian D%Pavord%NULL%1,        Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>Association of Angiotensin-Converting Enzyme Inhibitor or Angiotensin Receptor Blocker Use With COVID-19 Diagnosis and Mortality</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1, Butt%Jawad H%coreGivesNoEmail%1, Fosb\u00f8l%Emil L%coreGivesNoEmail%1, Gerds%Thomas A%coreGivesNoEmail%1, Gislason%Gunnar H%coreGivesNoEmail%1, Kragholm%Kristian%coreGivesNoEmail%1, K\u00f8ber%Lars%coreGivesNoEmail%1, Phelps%Matthew%coreGivesNoEmail%1, Schou%Morten%coreGivesNoEmail%1, Selmer%Christian%coreGivesNoEmail%1, Torp-Pedersen%Christian%coreGivesNoEmail%1, \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,        Yue%Cai%NULL%1,        Kan%Zhang%NULL%2,        Kan%Zhang%NULL%0,        Lei%Zhou%NULL%1,        Yao%Zhang%NULL%1,        Xijing%Zhang%NULL%1,        Qi%Li%NULL%1,        Weiqin%Li%NULL%1,        Shiming%Yang%NULL%1,        Xiaoyan%Zhao%NULL%1,        Yuying%Zhao%NULL%1,        Hui%Wang%NULL%1,        Yi%Liu%NULL%2,        Zhiyong%Yin%NULL%1,        Ruining%Zhang%NULL%1,        Rutao%Wang%NULL%1,        Ming%Yang%NULL%1,        Chen%Hui%NULL%1,        William%Wijns%NULL%1,        J William%McEvoy%NULL%1,        Osama%Soliman%NULL%2,        Osama%Soliman%NULL%0,        Yoshinobu%Onuma%NULL%2,        Yoshinobu%Onuma%NULL%0,        Patrick W%Serruys%NULL%1,        Ling%Tao%lingtao@fmmu.edu.cn%1,        Fei%Li%lifei01@fmmu.edu.cn%2,        Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,        Erkan%Ekicibasi%NULL%1,        Aleks%Degirmencioglu%NULL%1,        Ashok%Paudel%NULL%1,        Refik%Erdim%NULL%1,        Hilal Kurtoglu%Gumusel%NULL%1,        Elif%Eroglu%NULL%1,        Ibrahim Halil%Tanboga%NULL%1,        Sinan%Dagdelen%NULL%1,        Nevin%Sariguzel%NULL%1,        Ceyda Erel%Kirisoglu%NULL%1,        Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>Risk Factors Associated with Mortality among Patients with COVID-19 in Intensive Care Units in Lombardy, Italy</t>
+  </si>
+  <si>
+    <t>Importance: Many patients with coronavirus disease 2019 (COVID-19) are critically ill and require care in the intensive care unit (ICU).
+ Objective: To evaluate the independent risk factors associated with mortality of patients with COVID-19 requiring treatment in ICUs in the Lombardy region of Italy.
+ Design, Setting, and Participants: This retrospective, observational cohort study included 3988 consecutive critically ill patients with laboratory-confirmed COVID-19 referred for ICU admission to the coordinating center (Fondazione IRCCS [Istituto di Ricovero e Cura a Carattere Scientifico] Ca\u0027 Granda Ospedale Maggiore Policlinico, Milan, Italy) of the COVID-19 Lombardy ICU Network from February 20 to April 22, 2020. Infection with severe acute respiratory syndrome coronavirus 2 was confirmed by real-time reverse transcriptase-polymerase chain reaction assay of nasopharyngeal swabs.
+ Follow-up was completed on May 30, 2020. Exposures: Baseline characteristics, comorbidities, long-term medications, and ventilatory support at ICU admission.
+ Main Outcomes and Measures: Time to death in days from ICU admission to hospital discharge.
+ The independent risk factors associated with mortality were evaluated with a multivariable Cox proportional hazards regression.
+ Results: Of the 3988 patients included in this cohort study, the median age was 63 (interquartile range [IQR] 56-69) years; 3188 (79.9%; 95% CI, 78.7%-81.1%) were men, and 1998 of 3300 (60.5%; 95% CI, 58.9%-62.2%) had at least 1 comorbidity.
+ At ICU admission, 2929 patients (87.3%; 95% CI, 86.1%-88.4%) required invasive mechanical ventilation (IMV).
+ The median follow-up was 44 (95% CI, 40-47; IQR, 11-69; range, 0-100) days; median time from symptoms onset to ICU admission was 10 (95% CI, 9-10; IQR, 6-14) days; median length of ICU stay was 12 (95% CI, 12-13; IQR, 6-21) days; and median length of IMV was 10 (95% CI, 10-11; IQR, 6-17) days.
+ Cumulative observation time was 164305 patient-days.
+ Hospital and ICU mortality rates were 12 (95% CI, 11-12) and 27 (95% CI, 26-29) per 1000 patients-days, respectively.
+ In the subgroup of the first 1715 patients, as of May 30, 2020, 865 (50.4%) had been discharged from the ICU, 836 (48.7%) had died in the ICU, and 14 (0.8%) were still in the ICU; overall, 915 patients (53.4%) died in the hospital.
+ Independent risk factors associated with mortality included older age (hazard ratio [HR], 1.75; 95% CI, 1.60-1.92), male sex (HR, 1.57; 95% CI, 1.31-1.88), high fraction of inspired oxygen (Fio2) (HR, 1.14; 95% CI, 1.10-1.19), high positive end-expiratory pressure (HR, 1.04; 95% CI, 1.01-1.06) or low Pao2:Fio2 ratio (HR, 0.80; 95% CI, 0.74-0.87) on ICU admission, and history of chronic obstructive pulmonary disease (HR, 1.68; 95% CI, 1.28-2.19), hypercholesterolemia (HR, 1.25; 95% CI, 1.02-1.52), and type 2 diabetes (HR, 1.18; 95% CI, 1.01-1.39).
+ No medication was independently associated with mortality (angiotensin-converting enzyme inhibitors HR, 1.17; 95% CI, 0.97-1.42; angiotensin receptor blockers HR, 1.05; 95% CI, 0.85-1.29).
+ Conclusions and Relevance: In this retrospective cohort study of critically ill patients admitted to ICUs in Lombardy, Italy, with laboratory-confirmed COVID-19, most patients required IMV.
+ The mortality rate and absolute mortality were high</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%0, Antonelli%M.%coreGivesNoEmail%2, Bellani%G.%coreGivesNoEmail%2, Bonanomi%E.%coreGivesNoEmail%2, Cabrini%L.%coreGivesNoEmail%2, Carlesso%E.%coreGivesNoEmail%2, Castelli%G.%coreGivesNoEmail%2, Cattaneo%S.%coreGivesNoEmail%2, Cecconi%M.%coreGivesNoEmail%2, Cereda%D.%coreGivesNoEmail%2, Colombo%S.%coreGivesNoEmail%2, Coluccello%A.%coreGivesNoEmail%2, Crescini%G.%coreGivesNoEmail%2, Forastieri%Molinari A.%coreGivesNoEmail%2, Foti%G.%coreGivesNoEmail%2, Fumagalli%R.%coreGivesNoEmail%2, Grasselli%G.%coreGivesNoEmail%2, Greco%M.%coreGivesNoEmail%2, Iotti%G. A.%coreGivesNoEmail%2, Langer%T.%coreGivesNoEmail%2, Latronico%N.%coreGivesNoEmail%2, Lorini%F. L.%coreGivesNoEmail%2, Mojoli%F.%coreGivesNoEmail%2, Natalini%G.%coreGivesNoEmail%2, Pesenti%A.%coreGivesNoEmail%2, Pessina%C. M.%coreGivesNoEmail%2, Ranieri%V. M.%coreGivesNoEmail%2, Rech%R.%coreGivesNoEmail%2, Rosano%A.%coreGivesNoEmail%2, Scudeller%L.%coreGivesNoEmail%2, Storti%E.%coreGivesNoEmail%2, Thompson%B. T.%coreGivesNoEmail%2, Tirani%M.%coreGivesNoEmail%2, Villani%P. G.%coreGivesNoEmail%2, Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,        Jiatian%Cao%NULL%1,        Yumeng%Yao%NULL%1,        Xuejuan%Jin%NULL%1,        Zhe%Luo%NULL%1,        Yuan%Xue%NULL%1,        Chouwen%Zhu%NULL%1,        Yanan%Song%NULL%1,        Ying%Wang%NULL%1,        Yunzeng%Zou%NULL%1,        Juying%Qian%NULL%1,        Kaihuan%Yu%NULL%1,        Hui%Gong%NULL%1,        Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,        Ju-Hyun%Kim%NULL%1,        Jin-Sung%Park%NULL%1,        Min Cheol%Chang%wheel633@ynu.ac.kr%1,        Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,        Raphael Romano%Bruno%NULL%1,        Bernhard%Wernly%NULL%1,        Michael%Joannidis%NULL%1,        Sandra%Oeyen%NULL%1,        Tilemachos%Zafeiridis%NULL%1,        Brian%Marsh%NULL%1,        Finn H%Andersen%NULL%1,        Rui%Moreno%NULL%1,        Ana Margarida%Fernandes%NULL%1,        Antonio%Artigas%NULL%1,        Bernardo Bollen%Pinto%NULL%1,        Joerg%Schefold%NULL%1,        Georg%Wolff%NULL%1,        Malte%Kelm%NULL%2,        Malte%Kelm%NULL%0,        Dylan W%De Lange%NULL%1,        Bertrand%Guidet%NULL%1,        Hans%Flaatten%NULL%1,        Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,        Jae Chol%Choi%NULL%1,        Seung-Hun%You%NULL%1,        Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,        Hamish%Reed-Embleton%NULL%2,        Hamish%Reed-Embleton%NULL%0,        Jen%Lewis%NULL%2,        Jen%Lewis%NULL%0,        Pamela%Bain%NULL%1,        Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,        Kenneth W%Chow%NULL%1,        Jonathan%Vo%NULL%1,        Wei%Hou%NULL%1,        Haifang%Li%NULL%1,        Paul S%Richman%NULL%1,        Sandeep K%Mallipattu%NULL%1,        Hal A%Skopicki%NULL%1,        Adam J%Singer%NULL%1,        Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,        Julien%Moragny%NULL%2,        Julien%Moragny%NULL%0,        Youssef%Bennis%NULL%1,        Benjamin%Batteux%NULL%1,        Etienne%Brochot%NULL%1,        Jean Luc%Schmit%NULL%1,        Jean-Philippe%Lanoix%NULL%1,        Claire%Andrejak%NULL%1,        Olivier%Ganry%NULL%1,        Michel%Slama%NULL%1,        Julien%Maizel%NULL%1,        Yazine%Mahjoub%NULL%1,        Kamel%Masmoudi%NULL%1,        Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,        Yi%Liu%NULL%0,        Keliang%Chen%NULL%1,        Suying%Yan%NULL%1,        Xiangrong%Bai%NULL%1,        Juan%Li%947281063@qq.com%1,        Dong%Liu%ld2069@outlook.com%2,        Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,        Javier%López-Pais%NULL%1,        Carla Eugenia%Cacho-Antonio%NULL%1,        Pablo José%Antúnez-Muiños%NULL%1,        Teba%González-Ferrero%NULL%1,        Marta%Pérez-Poza%NULL%1,        Óscar%Otero-García%NULL%1,        Brais%Díaz-Fernández%NULL%1,        María%Bastos-Fernández%NULL%1,        Noelia%Bouzas-Cruz%NULL%1,        Xoan Carlos%Sanmartín-Pena%NULL%1,        Alfonso%Varela-Román%NULL%1,        Manuel%Portela-Romero%NULL%1,        Luis%Valdés-Cuadrado%NULL%1,        Antonio%Pose-Reino%NULL%1,        José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,        Federico%Rea%NULL%1,        Monica%Ludergnani%NULL%4,        Monica%Ludergnani%NULL%0,        Giovanni%Apolone%NULL%1,        Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,         Hisao%Ogawa%null%1,         Kazuo%Kimura%null%1,         Masaaki%Konishi%null%1,         Jin%Kirigaya%null%1,         Kazuki%Fukui%null%1,         Kengo%Tsukahara%null%1,         Hiroyuki%Shimizu%null%1,         Keisuke%Iwabuchi%null%1,         Yu%Yamada%null%1,         Kenichiro%Saka%null%1,         Ichiro%Takeuchi%null%1,         Toshio%Hirano%null%1,         Kouichi%Tamura%null%1,   Yasushi%Matsuzawa%null%2,   Hisao%Ogawa%null%3,   Kazuo%Kimura%null%2,   Masaaki%Konishi%null%2,   Jin%Kirigaya%null%2,   Kazuki%Fukui%null%2,   Kengo%Tsukahara%null%2,   Hiroyuki%Shimizu%null%2,   Keisuke%Iwabuchi%null%2,   Yu%Yamada%null%2,   Kenichiro%Saka%null%2,   Ichiro%Takeuchi%null%2,   Toshio%Hirano%null%2,   Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,        Guohui%Xiao%NULL%1,        Juanjuan%Zhang%NULL%1,        Xing%He%NULL%1,        Min%Ou%NULL%1,        Jing%Bi%NULL%1,        Rongqing%Yang%NULL%1,        Wencheng%Di%NULL%1,        Zhaoqin%Wang%NULL%1,        Zigang%Li%NULL%1,        Hong%Gao%NULL%1,        Lei%Liu%NULL%1,        Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,        Francisca%García-Iglesias%NULL%1,        Teresa%González-Alegre%NULL%1,        Francisco%Blanco%NULL%1,        Marta%Varas%NULL%1,        Clara%Hernández-Blanco%NULL%1,        Victor%Hontañón%NULL%1,        María J.%Jaras-Hernández%NULL%1,        Mónica%Martínez-Prieto%NULL%1,        Araceli%Menéndez-Saldaña%NULL%1,        María L.%Cachán%NULL%1,        Eva%Estirado%NULL%1,        Carlos%Lahoz%NULL%1,        Rosa%de Miguel%NULL%1,        Miriam%Romero%NULL%1,        Mar%Lago%NULL%1,        Cristina%García-Quero%NULL%1,        Cristina%Plaza%NULL%1,        Talía%Sainz-Costa%NULL%1,        Susana%Rivas-Vila%NULL%1,        Blanca%Sánchez%NULL%1,        Celia García%Torres%NULL%1,        Lucía%Martínez-Tobar%NULL%1,        María%Hernandez-Pérez%NULL%1,        Pablo%Racionero%NULL%1,        Patricia%Mir-Ihara%NULL%1,        Jesús%Peña-López%NULL%1,        Marta%Bautista-Barea%NULL%1,        Alexa P.%Benítez%NULL%1,        Pablo%Rodríguez-Merlos%NULL%1,        María%Barcenilla%NULL%1,        María San%Basilio%NULL%1,        María%Valencia%NULL%1,        Ricardo%Romero-Martín%NULL%1,        Ana%Boto de los Bueis%NULL%1,        Adriana%de la Hoz-Polo%NULL%1,        María%del Pino-Cidad%NULL%1,        Javier%Coca-Robinot%NULL%1,        Bárbara%González-Ferrer%NULL%1,        Pedro%Fernández-Pérez%NULL%1,        Isabel%Mogollón%NULL%1,        María S.%Montoro-Romero%NULL%1,        Isabel%Villalaín%NULL%1,        Almudena%del Hierro-Zarzuelo%NULL%1,        Irene%Hernández-Martín%NULL%1,        Javier%Domínguez%NULL%1,        Alberto%Luna%NULL%1,        Soledad%Montoro%NULL%1,        Margarita%Sánchez-Orgaz%NULL%1,        Gloria%Amorena%NULL%1,        Cosme%Lavín-Dapena%NULL%1,        Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,        Stanislas%Gleye%NULL%1,        Isabelle%Clerc Urmes%NULL%1,        Elodie%Laugel%NULL%1,        Jonas%Callet%NULL%1,        Françoise%Barbé%NULL%1,        Sophie%Orlowski%NULL%1,        Catherine%Malaplate%NULL%1,        Isabelle%Aimone-Gastin%NULL%1,        Beatrice Maatem%Caillierez%NULL%1,        Marc%Merten%NULL%1,        Elise%Jeannesson%NULL%1,        Raphaël%Kormann%NULL%1,        Jean-Luc%Olivier%NULL%1,        Rosa-Maria%Rodriguez-Guéant%NULL%1,        Farès%Namour%NULL%1,        Sybille%Bevilacqua%NULL%1,        Marie-Reine%Losser%NULL%1,        Bruno%Levy%NULL%1,        Antoine%Kimmoun%NULL%1,        Sébastien%Gibot%NULL%1,        Nathalie%Thilly%NULL%1,        Luc%Frimat%NULL%1,        Evelyne%Schvoerer%NULL%1,        Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,        Samrachana%Adhikari%NULL%1,        Claudia%Pulgarin%NULL%1,        Andrea B.%Troxel%NULL%1,        Eduardo%Iturrate%NULL%1,        Stephen B.%Johnson%NULL%1,        Anaïs%Hausvater%NULL%1,        Jonathan D.%Newman%NULL%1,        Jeffrey S.%Berger%NULL%1,        Sripal%Bangalore%NULL%1,        Stuart D.%Katz%NULL%1,        Glenn I.%Fishman%NULL%1,        Dennis%Kunichoff%NULL%1,        Yu%Chen%NULL%1,        Gbenga%Ogedegbe%NULL%1,        Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>Presenting characteristics, comorbidities, and outcomes among 5700 patients hospitalized with COVID-19 in the New York City area</t>
+  </si>
+  <si>
+    <t>Importance:  There is limited information describing the presenting characteristics and outcomes of US patients requiring hospitalization for coronavirus disease 2019 (COVID-19).
+\n\n\n\n\n\n\n\nObjective:  To describe the clinical characteristics and outcomes of patients with COVID-19 hospitalized in a US health care system.
+\n\n\n\n\n\n\n\nDesign, Setting, and Participants:  Case series of patients with COVID-19 admitted to 12 hospitals in New York City, Long Island, and Westchester County, New York, within the Northwell Health system.
+ The study included all sequentially hospitalized patients between March 1, 2020, and April 4, 2020, inclusive of these dates.
+\n\n\n\n\n\n\n\nExposures:  Confirmed severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection by positive result on polymerase chain reaction testing of a nasopharyngeal sample among patients requiring admission.
+\n\n\n\n\n\n\n\nMain Outcomes and Measures:  Clinical outcomes during hospitalization, such as invasive mechanical ventilation, kidney replacement therapy, and death.
+ Demographics, baseline comorbidities, presenting vital signs, and test results were also collected.
+\n\n\n\n\n\n\n\nResults:  A total of 5700 patients were included (median age, 63 years [interquartile range {IQR}, 52-75; range, 0-107 years]; 39.7% female).
+ The most common comorbidities were hypertension (3026; 56.6%), obesity (1737; 41.7%), and diabetes (1808; 33.8%).
+ At triage, 30.7% of patients were febrile, 17.3% had a respiratory rate greater than 24 breaths\/min, and 27.8% received supplemental oxygen.
+ The rate of respiratory virus co-infection was 2.1%.
+ Outcomes were assessed for 2634 patients who were discharged or had died at the study end point.
+ During hospitalization, 373 patients (14.2%) (median age, 68 years [IQR, 56-78]; 33.5% female) were treated in the intensive care unit care, 320 (12.2%) received invasive mechanical ventilation, 81 (3.2%) were treated with kidney replacement therapy, and 553 (21%) died.
+ As of April 4, 2020, for patients requiring mechanical ventilation (n\u2009=\u20091151, 20.2%), 38 (3.3%) were discharged alive, 282 (24.5%) died, and 831 (72.2%) remained in hospital.
+ The median postdischarge follow-up time was 4.4 days (IQR, 2.2-9.3).
+ A total of 45 patients (2.2%) were readmitted during the study period.
+ The median time to readmission was 3 days (IQR, 1.0-4.5) for readmitted patients.
+ Among the 3066 patients who remained hospitalized at the final study follow-up date (median age, 65 years [IQR, 54-75]), the median follow-up at time of censoring was 4.5 days (IQR, 2.4-8.1).
+\n\n\n\n\n\n\n\nConclusions and Relevance:  This case series provides characteristics and early outcomes of sequentially hospitalized patients with confirmed COVID-19 in the New York City area</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0, Becker%L.B.%coreGivesNoEmail%3, Chelico%J.D.%coreGivesNoEmail%3, Cohen%S.L.%coreGivesNoEmail%3, Cookingham%J.%coreGivesNoEmail%3, Coppa%K.%coreGivesNoEmail%3, Crawford%J.M.%coreGivesNoEmail%3, Davidson%K.W.%coreGivesNoEmail%3, Diefenbach%M.A.%coreGivesNoEmail%3, Dominello%A.J.%coreGivesNoEmail%3, Duer-Hefele%J.%coreGivesNoEmail%3, Falzon%L.%coreGivesNoEmail%3, Gitlin%J.%coreGivesNoEmail%3, Hajizadeh%N.%coreGivesNoEmail%3, Harvin%T.G.%coreGivesNoEmail%3, Hirsch%J.S.%coreGivesNoEmail%3, Hirschwerk%D.A.%coreGivesNoEmail%3, Kim%E.J.%coreGivesNoEmail%3, Kozel%Z.M.%coreGivesNoEmail%3, Marrast%L.M.%coreGivesNoEmail%3, McGinn%T.%coreGivesNoEmail%3, Mogavero%J.N.%coreGivesNoEmail%3, Narasimhan%M.%coreGivesNoEmail%3, Osorio%G.A.%coreGivesNoEmail%3, Qiu%M.%coreGivesNoEmail%3, Richardson%S.%coreGivesNoEmail%3, Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,        Massimiliano%Marino%NULL%3,        Debora%Formisano%NULL%1,        Francesco%Venturelli%NULL%1,        Massimo%Vicentini%NULL%3,        Massimo%Vicentini%NULL%0,        Roberto%Grilli%NULL%2,        NULL%NULL%NULL%0,        Gianluigi%Forloni%NULL%8,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,        Paolo%Maggi%NULL%2,        Paolo%Maggi%NULL%0,        Vincenzo%Messina%NULL%1,        Pasquale%Iuliano%NULL%2,        Pasquale%Iuliano%NULL%0,        Antonio%Sardu%NULL%1,        Vincenzo%Iovinella%NULL%1,        Giuseppe%Paolisso%NULL%1,        Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,        Rasimcan%Meral%NULL%1,        Alpay%Medetalibeyoğlu%NULL%1,        Hilal%Konyaoğlu%NULL%1,        Murat%Köse%NULL%1,        Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,        Yun%Qiu%NULL%1,        Xiang-Bin%Xing%NULL%1,        Subrata%Ghosh%NULL%1,        Min-Hu%Chen%NULL%1,        Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,        Maddalena%Giannella%NULL%1,        Michele%Bartoletti%NULL%1,        Filippo%Trapani%NULL%1,        Marina%Tadolini%NULL%1,        Claudio%Borghi%NULL%1,        Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,        Marco%Massari%NULL%3,        Marco%Massari%NULL%0,        Roberto%Da Cas%NULL%2,        Francesca%Menniti Ippolito%NULL%2,        Janet%Sultana%NULL%2,        Salvatore%Crisafulli%NULL%2,        Paolo%Giorgi Rossi%NULL%2,        Massimiliano%Marino%NULL%0,        Manuel%Zorzi%NULL%2,        Emanuela%Bovo%NULL%2,        Olivia%Leoni%NULL%2,        Monica%Ludergnani%NULL%0,        Stefania%Spila Alegiani%stefania.spila@iss.it%2,        Stefania%Spila Alegiani%NULL%0,        Francesca%Menniti Ippolito%NULL%0,        Roberto%Da Cas%NULL%0,        Marco%Massari%NULL%0,        Giuseppe%Traversa%NULL%1,        Graziano%Onder%NULL%1,        Gianluca%Trifirò%NULL%1,        Janet%Sultana%NULL%0,        Valentina%Ientile%NULL%1,        Salvatore%Crisafulli%NULL%0,        Paolo%Giorgi Rossi%NULL%0,        Roberto%Grilli%NULL%0,        Giulio%Formoso%NULL%1,        Massimiliano%Marino%NULL%0,        Massimo%Vicentini%NULL%0,        Olivia%Leoni%NULL%0,        Monica%Ludergnani%NULL%0,        Danilo%Cereda%NULL%1,        Eliana%Ferroni%NULL%1,        Stefano%Guzzinati%NULL%1,        Emanuela%Bovo%NULL%0,        Manuel%Zorzi%NULL%0,        Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,        Chaolin%Huang%NULL%1,        Guohui%Fan%NULL%1,        Zhibo%Liu%NULL%1,        Lianhan%Shang%NULL%1,        Fei%Zhou%NULL%1,        Yeming%Wang%NULL%1,        Jiapei%Yu%NULL%1,        Luning%Yang%NULL%1,        Ke%Xie%NULL%1,        Zhisheng%Huang%NULL%1,        Lixue%Huang%NULL%1,        Xiaoying%Gu%NULL%1,        Hui%Li%NULL%1,        Yi%Zhang%NULL%0,        Yimin%Wang%NULL%1,        Frederick G.%Hayden%NULL%1,        Peter W.%Horby%NULL%1,        Bin%Cao%caobin_ben@163.com%1,        Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,        Dan%Liu%NULL%1,        Shaoqing%Zeng%NULL%1,        Siyuan%Wang%NULL%1,        Sen%Xu%NULL%1,        Ya%Wang%NULL%1,        Ruidi%Yu%NULL%1,        Yue%Gao%NULL%1,        Huayi%Li%NULL%1,        Xinxia%Feng%NULL%1,        Ning%Zhou%NULL%0,        Chunxia%Zhao%NULL%1,        Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,        Lihua%Zhu%NULL%1,        Jingjing%Cai%NULL%1,        Fang%Lei%NULL%1,        Juan-Juan%Qin%NULL%1,        Jing%Xie%NULL%1,        Ye-Mao%Liu%NULL%1,        Yan-Ci%Zhao%NULL%1,        Xuewei%Huang%NULL%1,        Lijin%Lin%NULL%1,        Meng%Xia%NULL%1,        Ming-Ming%Chen%NULL%1,        Xu%Cheng%NULL%1,        Xiao%Zhang%NULL%1,        Deliang%Guo%NULL%1,        Yuanyuan%Peng%NULL%1,        Yan-Xiao%Ji%NULL%1,        Jing%Chen%NULL%1,        Zhi-Gang%She%NULL%1,        Yibin%Wang%NULL%0,        Qingbo%Xu%NULL%1,        Renfu%Tan%NULL%1,        Haitao%Wang%NULL%1,        Jun%Lin%NULL%1,        Pengcheng%Luo%NULL%1,        Shouzhi%Fu%NULL%1,        Hongbin%Cai%NULL%1,        Ping%Ye%NULL%1,        Bing%Xiao%NULL%1,        Weiming%Mao%NULL%1,        Liming%Liu%NULL%1,        Youqin%Yan%NULL%1,        Mingyu%Liu%NULL%1,        Manhua%Chen%NULL%1,        Xiao-Jing%Zhang%NULL%1,        Xinghuan%Wang%NULL%1,        Rhian M.%Touyz%NULL%1,        Jiahong%Xia%NULL%1,        Bing-Hong%Zhang%NULL%1,        Xiaodong%Huang%NULL%1,        Yufeng%Yuan%NULL%1,        Rohit%Loomba%NULL%1,        Peter P.%Liu%NULL%1,        Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,         Sandra%Santos-Martinez%NULL%1,         Diego%López-Otero%NULL%1,         Luis%Nombela-Franco%NULL%1,         Enrique%Gutiérrez-Ibanes%NULL%1,         Raquel%Del Valle%NULL%1,         Erika%Muñoz-García%NULL%1,         Víctor A.%Jiménez-Diaz%NULL%1,         Ander%Regueiro%NULL%1,         Rocío%González-Ferreiro%NULL%1,         Tomás%Benito%NULL%1,         Xoan Carlos%Sanmartin-Pena%NULL%1,         Pablo%Catalá%NULL%1,         Tania%Rodríguez-Gabella%NULL%1,         Jose Raúl%Delgado-Arana%NULL%1,         Manuel%Carrasco-Moraleja%NULL%1,         Borja%Ibañez%NULL%1,         J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,         David M.%Tehrani%NULL%1,         Soniya V.%Rabadia%NULL%1,         Marlene%Frost%NULL%1,         Rushi V.%Parikh%NULL%1,         Marcella%Calfon-Press%NULL%1,         Olcay%Aksoy%NULL%1,         Soban%Umar%NULL%1,         Reza%Ardehali%NULL%1,         Amir%Rabbani%NULL%1,         Pooya%Bokhoor%NULL%1,         Ali%Nsair%NULL%1,         Jesse%Currier%NULL%1,         Jonathan%Tobis%NULL%1,         Gregg C.%Fonarow%NULL%1,         Ravi%Dave%NULL%1,         Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,         Zeljko%Kraljevic%NULL%1,         Thomas%Searle%NULL%1,         Rebecca%Bendayan%NULL%1,         O'Gallagher%Kevin%NULL%1,         Andrew%Pickles%NULL%1,         Amos%Folarin%NULL%1,         Lukasz%Roguski%NULL%1,         Kawsar%Noor%NULL%1,         Anthony%Shek%NULL%1,         Rosita%Zakeri%NULL%1,         Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,         James T.H.%Teo%jamesteo@nhs.net%1,         Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,         Mauro%Chiarito%NULL%1,         Bernhard%Reimers%NULL%2,         Bernhard%Reimers%NULL%0,         Elena%Azzolini%NULL%1,         Giuseppe%Ferrante%NULL%1,         Ilaria%My%NULL%1,         Giacomo%Viggiani%NULL%1,         Cristina%Panico%NULL%1,         Damiano%Regazzoli%NULL%1,         Michele%Ciccarelli%NULL%1,         Antonio%Voza%NULL%1,         Alessio%Aghemo%NULL%1,         Hongliang%Li%NULL%2,         Yibin%Wang%NULL%2,         Gianluigi%Condorelli%NULL%1,         Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,         Feng%Wang%NULL%1,         Peng%Chen%NULL%1,         Jiangang%Jiang%NULL%1,         Guanglin%Cui%NULL%1,         Ning%Zhou%NULL%2,         Francesco%Moroni%NULL%1,         Javid J.%Moslehi%NULL%1,         Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,         Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,         Ming%Zhong%NULL%1,         Ya%Liu%NULL%1,         Yi%Zhang%NULL%2,         Kai%Zhang%NULL%1,         De-zhen%Su%NULL%1,         Xiao%Meng%NULL%1,         Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,         Duncan%Young%NULL%2,         Duncan%Young%NULL%0,         Carol%Coupland%NULL%1,         Keith M%Channon%NULL%1,         Pui San%Tan%NULL%1,         David A%Harrison%NULL%1,         Kathryn%Rowan%NULL%2,         Kathryn%Rowan%NULL%0,         Paul%Aveyard%NULL%1,         Ian D%Pavord%NULL%1,         Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,  Butt%Jawad H%coreGivesNoEmail%1,  Fosb\u00f8l%Emil L%coreGivesNoEmail%1,  Gerds%Thomas A%coreGivesNoEmail%1,  Gislason%Gunnar H%coreGivesNoEmail%1,  Kragholm%Kristian%coreGivesNoEmail%1,  K\u00f8ber%Lars%coreGivesNoEmail%1,  Phelps%Matthew%coreGivesNoEmail%1,  Schou%Morten%coreGivesNoEmail%1,  Selmer%Christian%coreGivesNoEmail%1,  Torp-Pedersen%Christian%coreGivesNoEmail%1,  \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,         Yue%Cai%NULL%1,         Kan%Zhang%NULL%2,         Kan%Zhang%NULL%0,         Lei%Zhou%NULL%1,         Yao%Zhang%NULL%1,         Xijing%Zhang%NULL%1,         Qi%Li%NULL%1,         Weiqin%Li%NULL%1,         Shiming%Yang%NULL%1,         Xiaoyan%Zhao%NULL%1,         Yuying%Zhao%NULL%1,         Hui%Wang%NULL%1,         Yi%Liu%NULL%2,         Zhiyong%Yin%NULL%1,         Ruining%Zhang%NULL%1,         Rutao%Wang%NULL%1,         Ming%Yang%NULL%1,         Chen%Hui%NULL%1,         William%Wijns%NULL%1,         J William%McEvoy%NULL%1,         Osama%Soliman%NULL%2,         Osama%Soliman%NULL%0,         Yoshinobu%Onuma%NULL%2,         Yoshinobu%Onuma%NULL%0,         Patrick W%Serruys%NULL%1,         Ling%Tao%lingtao@fmmu.edu.cn%1,         Fei%Li%lifei01@fmmu.edu.cn%2,         Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,         Erkan%Ekicibasi%NULL%1,         Aleks%Degirmencioglu%NULL%1,         Ashok%Paudel%NULL%1,         Refik%Erdim%NULL%1,         Hilal Kurtoglu%Gumusel%NULL%1,         Elif%Eroglu%NULL%1,         Ibrahim Halil%Tanboga%NULL%1,         Sinan%Dagdelen%NULL%1,         Nevin%Sariguzel%NULL%1,         Ceyda Erel%Kirisoglu%NULL%1,         Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,  Antonelli%M.%coreGivesNoEmail%2,  Bellani%G.%coreGivesNoEmail%2,  Bonanomi%E.%coreGivesNoEmail%2,  Cabrini%L.%coreGivesNoEmail%2,  Carlesso%E.%coreGivesNoEmail%2,  Castelli%G.%coreGivesNoEmail%2,  Cattaneo%S.%coreGivesNoEmail%2,  Cecconi%M.%coreGivesNoEmail%2,  Cereda%D.%coreGivesNoEmail%2,  Colombo%S.%coreGivesNoEmail%2,  Coluccello%A.%coreGivesNoEmail%2,  Crescini%G.%coreGivesNoEmail%2,  Forastieri%Molinari A.%coreGivesNoEmail%2,  Foti%G.%coreGivesNoEmail%2,  Fumagalli%R.%coreGivesNoEmail%2,  Grasselli%G.%coreGivesNoEmail%2,  Greco%M.%coreGivesNoEmail%2,  Iotti%G. A.%coreGivesNoEmail%2,  Langer%T.%coreGivesNoEmail%2,  Latronico%N.%coreGivesNoEmail%2,  Lorini%F. L.%coreGivesNoEmail%2,  Mojoli%F.%coreGivesNoEmail%2,  Natalini%G.%coreGivesNoEmail%2,  Pesenti%A.%coreGivesNoEmail%2,  Pessina%C. M.%coreGivesNoEmail%2,  Ranieri%V. M.%coreGivesNoEmail%2,  Rech%R.%coreGivesNoEmail%2,  Rosano%A.%coreGivesNoEmail%2,  Scudeller%L.%coreGivesNoEmail%2,  Storti%E.%coreGivesNoEmail%2,  Thompson%B. T.%coreGivesNoEmail%2,  Tirani%M.%coreGivesNoEmail%2,  Villani%P. G.%coreGivesNoEmail%2,  Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,         Jiatian%Cao%NULL%1,         Yumeng%Yao%NULL%1,         Xuejuan%Jin%NULL%1,         Zhe%Luo%NULL%1,         Yuan%Xue%NULL%1,         Chouwen%Zhu%NULL%1,         Yanan%Song%NULL%1,         Ying%Wang%NULL%1,         Yunzeng%Zou%NULL%1,         Juying%Qian%NULL%1,         Kaihuan%Yu%NULL%1,         Hui%Gong%NULL%1,         Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,         Ju-Hyun%Kim%NULL%1,         Jin-Sung%Park%NULL%1,         Min Cheol%Chang%wheel633@ynu.ac.kr%1,         Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,         Raphael Romano%Bruno%NULL%1,         Bernhard%Wernly%NULL%1,         Michael%Joannidis%NULL%1,         Sandra%Oeyen%NULL%1,         Tilemachos%Zafeiridis%NULL%1,         Brian%Marsh%NULL%1,         Finn H%Andersen%NULL%1,         Rui%Moreno%NULL%1,         Ana Margarida%Fernandes%NULL%1,         Antonio%Artigas%NULL%1,         Bernardo Bollen%Pinto%NULL%1,         Joerg%Schefold%NULL%1,         Georg%Wolff%NULL%1,         Malte%Kelm%NULL%2,         Malte%Kelm%NULL%0,         Dylan W%De Lange%NULL%1,         Bertrand%Guidet%NULL%1,         Hans%Flaatten%NULL%1,         Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,         Jae Chol%Choi%NULL%1,         Seung-Hun%You%NULL%1,         Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,         Hamish%Reed-Embleton%NULL%2,         Hamish%Reed-Embleton%NULL%0,         Jen%Lewis%NULL%2,         Jen%Lewis%NULL%0,         Pamela%Bain%NULL%1,         Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,         Kenneth W%Chow%NULL%1,         Jonathan%Vo%NULL%1,         Wei%Hou%NULL%1,         Haifang%Li%NULL%1,         Paul S%Richman%NULL%1,         Sandeep K%Mallipattu%NULL%1,         Hal A%Skopicki%NULL%1,         Adam J%Singer%NULL%1,         Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,         Julien%Moragny%NULL%2,         Julien%Moragny%NULL%0,         Youssef%Bennis%NULL%1,         Benjamin%Batteux%NULL%1,         Etienne%Brochot%NULL%1,         Jean Luc%Schmit%NULL%1,         Jean-Philippe%Lanoix%NULL%1,         Claire%Andrejak%NULL%1,         Olivier%Ganry%NULL%1,         Michel%Slama%NULL%1,         Julien%Maizel%NULL%1,         Yazine%Mahjoub%NULL%1,         Kamel%Masmoudi%NULL%1,         Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,         Yi%Liu%NULL%0,         Keliang%Chen%NULL%1,         Suying%Yan%NULL%1,         Xiangrong%Bai%NULL%1,         Juan%Li%947281063@qq.com%1,         Dong%Liu%ld2069@outlook.com%2,         Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,         Javier%López-Pais%NULL%1,         Carla Eugenia%Cacho-Antonio%NULL%1,         Pablo José%Antúnez-Muiños%NULL%1,         Teba%González-Ferrero%NULL%1,         Marta%Pérez-Poza%NULL%1,         Óscar%Otero-García%NULL%1,         Brais%Díaz-Fernández%NULL%1,         María%Bastos-Fernández%NULL%1,         Noelia%Bouzas-Cruz%NULL%1,         Xoan Carlos%Sanmartín-Pena%NULL%1,         Alfonso%Varela-Román%NULL%1,         Manuel%Portela-Romero%NULL%1,         Luis%Valdés-Cuadrado%NULL%1,         Antonio%Pose-Reino%NULL%1,         José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,         Federico%Rea%NULL%1,         Monica%Ludergnani%NULL%4,         Monica%Ludergnani%NULL%0,         Giovanni%Apolone%NULL%1,         Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,          Hisao%Ogawa%null%1,          Kazuo%Kimura%null%1,          Masaaki%Konishi%null%1,          Jin%Kirigaya%null%1,          Kazuki%Fukui%null%1,          Kengo%Tsukahara%null%1,          Hiroyuki%Shimizu%null%1,          Keisuke%Iwabuchi%null%1,          Yu%Yamada%null%1,          Kenichiro%Saka%null%1,          Ichiro%Takeuchi%null%1,          Toshio%Hirano%null%1,          Kouichi%Tamura%null%1,    Yasushi%Matsuzawa%null%1,    Hisao%Ogawa%null%1,    Kazuo%Kimura%null%1,    Masaaki%Konishi%null%1,    Jin%Kirigaya%null%1,    Kazuki%Fukui%null%1,    Kengo%Tsukahara%null%1,    Hiroyuki%Shimizu%null%1,    Keisuke%Iwabuchi%null%1,    Yu%Yamada%null%1,    Kenichiro%Saka%null%1,    Ichiro%Takeuchi%null%1,    Toshio%Hirano%null%1,    Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,         Guohui%Xiao%NULL%1,         Juanjuan%Zhang%NULL%1,         Xing%He%NULL%1,         Min%Ou%NULL%1,         Jing%Bi%NULL%1,         Rongqing%Yang%NULL%1,         Wencheng%Di%NULL%1,         Zhaoqin%Wang%NULL%1,         Zigang%Li%NULL%1,         Hong%Gao%NULL%1,         Lei%Liu%NULL%1,         Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,         Francisca%García-Iglesias%NULL%1,         Teresa%González-Alegre%NULL%1,         Francisco%Blanco%NULL%1,         Marta%Varas%NULL%1,         Clara%Hernández-Blanco%NULL%1,         Victor%Hontañón%NULL%1,         María J.%Jaras-Hernández%NULL%1,         Mónica%Martínez-Prieto%NULL%1,         Araceli%Menéndez-Saldaña%NULL%1,         María L.%Cachán%NULL%1,         Eva%Estirado%NULL%1,         Carlos%Lahoz%NULL%1,         Rosa%de Miguel%NULL%1,         Miriam%Romero%NULL%1,         Mar%Lago%NULL%1,         Cristina%García-Quero%NULL%1,         Cristina%Plaza%NULL%1,         Talía%Sainz-Costa%NULL%1,         Susana%Rivas-Vila%NULL%1,         Blanca%Sánchez%NULL%1,         Celia García%Torres%NULL%1,         Lucía%Martínez-Tobar%NULL%1,         María%Hernandez-Pérez%NULL%1,         Pablo%Racionero%NULL%1,         Patricia%Mir-Ihara%NULL%1,         Jesús%Peña-López%NULL%1,         Marta%Bautista-Barea%NULL%1,         Alexa P.%Benítez%NULL%1,         Pablo%Rodríguez-Merlos%NULL%1,         María%Barcenilla%NULL%1,         María San%Basilio%NULL%1,         María%Valencia%NULL%1,         Ricardo%Romero-Martín%NULL%1,         Ana%Boto de los Bueis%NULL%1,         Adriana%de la Hoz-Polo%NULL%1,         María%del Pino-Cidad%NULL%1,         Javier%Coca-Robinot%NULL%1,         Bárbara%González-Ferrer%NULL%1,         Pedro%Fernández-Pérez%NULL%1,         Isabel%Mogollón%NULL%1,         María S.%Montoro-Romero%NULL%1,         Isabel%Villalaín%NULL%1,         Almudena%del Hierro-Zarzuelo%NULL%1,         Irene%Hernández-Martín%NULL%1,         Javier%Domínguez%NULL%1,         Alberto%Luna%NULL%1,         Soledad%Montoro%NULL%1,         Margarita%Sánchez-Orgaz%NULL%1,         Gloria%Amorena%NULL%1,         Cosme%Lavín-Dapena%NULL%1,         Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,         Stanislas%Gleye%NULL%1,         Isabelle%Clerc Urmes%NULL%1,         Elodie%Laugel%NULL%1,         Jonas%Callet%NULL%1,         Françoise%Barbé%NULL%1,         Sophie%Orlowski%NULL%1,         Catherine%Malaplate%NULL%1,         Isabelle%Aimone-Gastin%NULL%1,         Beatrice Maatem%Caillierez%NULL%1,         Marc%Merten%NULL%1,         Elise%Jeannesson%NULL%1,         Raphaël%Kormann%NULL%1,         Jean-Luc%Olivier%NULL%1,         Rosa-Maria%Rodriguez-Guéant%NULL%1,         Farès%Namour%NULL%1,         Sybille%Bevilacqua%NULL%1,         Marie-Reine%Losser%NULL%1,         Bruno%Levy%NULL%1,         Antoine%Kimmoun%NULL%1,         Sébastien%Gibot%NULL%1,         Nathalie%Thilly%NULL%1,         Luc%Frimat%NULL%1,         Evelyne%Schvoerer%NULL%1,         Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,         Samrachana%Adhikari%NULL%1,         Claudia%Pulgarin%NULL%1,         Andrea B.%Troxel%NULL%1,         Eduardo%Iturrate%NULL%1,         Stephen B.%Johnson%NULL%1,         Anaïs%Hausvater%NULL%1,         Jonathan D.%Newman%NULL%1,         Jeffrey S.%Berger%NULL%1,         Sripal%Bangalore%NULL%1,         Stuart D.%Katz%NULL%1,         Glenn I.%Fishman%NULL%1,         Dennis%Kunichoff%NULL%1,         Yu%Chen%NULL%1,         Gbenga%Ogedegbe%NULL%1,         Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,  Becker%L.B.%coreGivesNoEmail%3,  Chelico%J.D.%coreGivesNoEmail%3,  Cohen%S.L.%coreGivesNoEmail%3,  Cookingham%J.%coreGivesNoEmail%3,  Coppa%K.%coreGivesNoEmail%3,  Crawford%J.M.%coreGivesNoEmail%3,  Davidson%K.W.%coreGivesNoEmail%3,  Diefenbach%M.A.%coreGivesNoEmail%3,  Dominello%A.J.%coreGivesNoEmail%3,  Duer-Hefele%J.%coreGivesNoEmail%3,  Falzon%L.%coreGivesNoEmail%3,  Gitlin%J.%coreGivesNoEmail%3,  Hajizadeh%N.%coreGivesNoEmail%3,  Harvin%T.G.%coreGivesNoEmail%3,  Hirsch%J.S.%coreGivesNoEmail%3,  Hirschwerk%D.A.%coreGivesNoEmail%3,  Kim%E.J.%coreGivesNoEmail%3,  Kozel%Z.M.%coreGivesNoEmail%3,  Marrast%L.M.%coreGivesNoEmail%3,  McGinn%T.%coreGivesNoEmail%3,  Mogavero%J.N.%coreGivesNoEmail%3,  Narasimhan%M.%coreGivesNoEmail%3,  Osorio%G.A.%coreGivesNoEmail%3,  Qiu%M.%coreGivesNoEmail%3,  Richardson%S.%coreGivesNoEmail%3,  Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,         Massimiliano%Marino%NULL%3,         Debora%Formisano%NULL%1,         Francesco%Venturelli%NULL%1,         Massimo%Vicentini%NULL%3,         Massimo%Vicentini%NULL%0,         Roberto%Grilli%NULL%2,         NULL%NULL%NULL%0,         Gianluigi%Forloni%NULL%8,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,         Paolo%Maggi%NULL%2,         Paolo%Maggi%NULL%0,         Vincenzo%Messina%NULL%1,         Pasquale%Iuliano%NULL%2,         Pasquale%Iuliano%NULL%0,         Antonio%Sardu%NULL%1,         Vincenzo%Iovinella%NULL%1,         Giuseppe%Paolisso%NULL%1,         Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,         Rasimcan%Meral%NULL%1,         Alpay%Medetalibeyoğlu%NULL%1,         Hilal%Konyaoğlu%NULL%1,         Murat%Köse%NULL%1,         Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,         Yun%Qiu%NULL%1,         Xiang-Bin%Xing%NULL%1,         Subrata%Ghosh%NULL%1,         Min-Hu%Chen%NULL%1,         Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,         Maddalena%Giannella%NULL%1,         Michele%Bartoletti%NULL%1,         Filippo%Trapani%NULL%1,         Marina%Tadolini%NULL%1,         Claudio%Borghi%NULL%1,         Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,         Marco%Massari%NULL%3,         Marco%Massari%NULL%0,         Roberto%Da Cas%NULL%2,         Francesca%Menniti Ippolito%NULL%2,         Janet%Sultana%NULL%2,         Salvatore%Crisafulli%NULL%2,         Paolo%Giorgi Rossi%NULL%2,         Massimiliano%Marino%NULL%0,         Manuel%Zorzi%NULL%2,         Emanuela%Bovo%NULL%2,         Olivia%Leoni%NULL%2,         Monica%Ludergnani%NULL%0,         Stefania%Spila Alegiani%stefania.spila@iss.it%2,         Stefania%Spila Alegiani%NULL%0,         Francesca%Menniti Ippolito%NULL%0,         Roberto%Da Cas%NULL%0,         Marco%Massari%NULL%0,         Giuseppe%Traversa%NULL%1,         Graziano%Onder%NULL%1,         Gianluca%Trifirò%NULL%1,         Janet%Sultana%NULL%0,         Valentina%Ientile%NULL%1,         Salvatore%Crisafulli%NULL%0,         Paolo%Giorgi Rossi%NULL%0,         Roberto%Grilli%NULL%0,         Giulio%Formoso%NULL%1,         Massimiliano%Marino%NULL%0,         Massimo%Vicentini%NULL%0,         Olivia%Leoni%NULL%0,         Monica%Ludergnani%NULL%0,         Danilo%Cereda%NULL%1,         Eliana%Ferroni%NULL%1,         Stefano%Guzzinati%NULL%1,         Emanuela%Bovo%NULL%0,         Manuel%Zorzi%NULL%0,         Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,         Chaolin%Huang%NULL%1,         Guohui%Fan%NULL%1,         Zhibo%Liu%NULL%1,         Lianhan%Shang%NULL%1,         Fei%Zhou%NULL%1,         Yeming%Wang%NULL%1,         Jiapei%Yu%NULL%1,         Luning%Yang%NULL%1,         Ke%Xie%NULL%1,         Zhisheng%Huang%NULL%1,         Lixue%Huang%NULL%1,         Xiaoying%Gu%NULL%1,         Hui%Li%NULL%1,         Yi%Zhang%NULL%0,         Yimin%Wang%NULL%1,         Frederick G.%Hayden%NULL%1,         Peter W.%Horby%NULL%1,         Bin%Cao%caobin_ben@163.com%1,         Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,         Dan%Liu%NULL%1,         Shaoqing%Zeng%NULL%1,         Siyuan%Wang%NULL%1,         Sen%Xu%NULL%1,         Ya%Wang%NULL%1,         Ruidi%Yu%NULL%1,         Yue%Gao%NULL%1,         Huayi%Li%NULL%1,         Xinxia%Feng%NULL%1,         Ning%Zhou%NULL%0,         Chunxia%Zhao%NULL%1,         Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,         Lihua%Zhu%NULL%1,         Jingjing%Cai%NULL%1,         Fang%Lei%NULL%1,         Juan-Juan%Qin%NULL%1,         Jing%Xie%NULL%1,         Ye-Mao%Liu%NULL%1,         Yan-Ci%Zhao%NULL%1,         Xuewei%Huang%NULL%1,         Lijin%Lin%NULL%1,         Meng%Xia%NULL%1,         Ming-Ming%Chen%NULL%1,         Xu%Cheng%NULL%1,         Xiao%Zhang%NULL%1,         Deliang%Guo%NULL%1,         Yuanyuan%Peng%NULL%1,         Yan-Xiao%Ji%NULL%1,         Jing%Chen%NULL%1,         Zhi-Gang%She%NULL%1,         Yibin%Wang%NULL%0,         Qingbo%Xu%NULL%1,         Renfu%Tan%NULL%1,         Haitao%Wang%NULL%1,         Jun%Lin%NULL%1,         Pengcheng%Luo%NULL%1,         Shouzhi%Fu%NULL%1,         Hongbin%Cai%NULL%1,         Ping%Ye%NULL%1,         Bing%Xiao%NULL%1,         Weiming%Mao%NULL%1,         Liming%Liu%NULL%1,         Youqin%Yan%NULL%1,         Mingyu%Liu%NULL%1,         Manhua%Chen%NULL%1,         Xiao-Jing%Zhang%NULL%1,         Xinghuan%Wang%NULL%1,         Rhian M.%Touyz%NULL%1,         Jiahong%Xia%NULL%1,         Bing-Hong%Zhang%NULL%1,         Xiaodong%Huang%NULL%1,         Yufeng%Yuan%NULL%1,         Rohit%Loomba%NULL%1,         Peter P.%Liu%NULL%1,         Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,          Sandra%Santos-Martinez%NULL%1,          Diego%López-Otero%NULL%1,          Luis%Nombela-Franco%NULL%1,          Enrique%Gutiérrez-Ibanes%NULL%1,          Raquel%Del Valle%NULL%1,          Erika%Muñoz-García%NULL%1,          Víctor A.%Jiménez-Diaz%NULL%1,          Ander%Regueiro%NULL%1,          Rocío%González-Ferreiro%NULL%1,          Tomás%Benito%NULL%1,          Xoan Carlos%Sanmartin-Pena%NULL%1,          Pablo%Catalá%NULL%1,          Tania%Rodríguez-Gabella%NULL%1,          Jose Raúl%Delgado-Arana%NULL%1,          Manuel%Carrasco-Moraleja%NULL%1,          Borja%Ibañez%NULL%1,          J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,          David M.%Tehrani%NULL%1,          Soniya V.%Rabadia%NULL%1,          Marlene%Frost%NULL%1,          Rushi V.%Parikh%NULL%1,          Marcella%Calfon-Press%NULL%1,          Olcay%Aksoy%NULL%1,          Soban%Umar%NULL%1,          Reza%Ardehali%NULL%1,          Amir%Rabbani%NULL%1,          Pooya%Bokhoor%NULL%1,          Ali%Nsair%NULL%1,          Jesse%Currier%NULL%1,          Jonathan%Tobis%NULL%1,          Gregg C.%Fonarow%NULL%1,          Ravi%Dave%NULL%1,          Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,          Zeljko%Kraljevic%NULL%1,          Thomas%Searle%NULL%1,          Rebecca%Bendayan%NULL%1,          O'Gallagher%Kevin%NULL%1,          Andrew%Pickles%NULL%1,          Amos%Folarin%NULL%1,          Lukasz%Roguski%NULL%1,          Kawsar%Noor%NULL%1,          Anthony%Shek%NULL%1,          Rosita%Zakeri%NULL%1,          Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,          James T.H.%Teo%jamesteo@nhs.net%1,          Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,          Mauro%Chiarito%NULL%1,          Bernhard%Reimers%NULL%2,          Bernhard%Reimers%NULL%0,          Elena%Azzolini%NULL%1,          Giuseppe%Ferrante%NULL%1,          Ilaria%My%NULL%1,          Giacomo%Viggiani%NULL%1,          Cristina%Panico%NULL%1,          Damiano%Regazzoli%NULL%1,          Michele%Ciccarelli%NULL%1,          Antonio%Voza%NULL%1,          Alessio%Aghemo%NULL%1,          Hongliang%Li%NULL%2,          Yibin%Wang%NULL%2,          Gianluigi%Condorelli%NULL%1,          Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,          Feng%Wang%NULL%1,          Peng%Chen%NULL%1,          Jiangang%Jiang%NULL%1,          Guanglin%Cui%NULL%1,          Ning%Zhou%NULL%2,          Francesco%Moroni%NULL%1,          Javid J.%Moslehi%NULL%1,          Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,          Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,          Ming%Zhong%NULL%1,          Ya%Liu%NULL%1,          Yi%Zhang%NULL%2,          Kai%Zhang%NULL%1,          De-zhen%Su%NULL%1,          Xiao%Meng%NULL%1,          Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,          Duncan%Young%NULL%2,          Duncan%Young%NULL%0,          Carol%Coupland%NULL%1,          Keith M%Channon%NULL%1,          Pui San%Tan%NULL%1,          David A%Harrison%NULL%1,          Kathryn%Rowan%NULL%2,          Kathryn%Rowan%NULL%0,          Paul%Aveyard%NULL%1,          Ian D%Pavord%NULL%1,          Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,   Butt%Jawad H%coreGivesNoEmail%1,   Fosb\u00f8l%Emil L%coreGivesNoEmail%1,   Gerds%Thomas A%coreGivesNoEmail%1,   Gislason%Gunnar H%coreGivesNoEmail%1,   Kragholm%Kristian%coreGivesNoEmail%1,   K\u00f8ber%Lars%coreGivesNoEmail%1,   Phelps%Matthew%coreGivesNoEmail%1,   Schou%Morten%coreGivesNoEmail%1,   Selmer%Christian%coreGivesNoEmail%1,   Torp-Pedersen%Christian%coreGivesNoEmail%1,   \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,          Yue%Cai%NULL%1,          Kan%Zhang%NULL%2,          Kan%Zhang%NULL%0,          Lei%Zhou%NULL%1,          Yao%Zhang%NULL%1,          Xijing%Zhang%NULL%1,          Qi%Li%NULL%1,          Weiqin%Li%NULL%1,          Shiming%Yang%NULL%1,          Xiaoyan%Zhao%NULL%1,          Yuying%Zhao%NULL%1,          Hui%Wang%NULL%1,          Yi%Liu%NULL%2,          Zhiyong%Yin%NULL%1,          Ruining%Zhang%NULL%1,          Rutao%Wang%NULL%1,          Ming%Yang%NULL%1,          Chen%Hui%NULL%1,          William%Wijns%NULL%1,          J William%McEvoy%NULL%1,          Osama%Soliman%NULL%2,          Osama%Soliman%NULL%0,          Yoshinobu%Onuma%NULL%2,          Yoshinobu%Onuma%NULL%0,          Patrick W%Serruys%NULL%1,          Ling%Tao%lingtao@fmmu.edu.cn%1,          Fei%Li%lifei01@fmmu.edu.cn%2,          Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,          Erkan%Ekicibasi%NULL%1,          Aleks%Degirmencioglu%NULL%1,          Ashok%Paudel%NULL%1,          Refik%Erdim%NULL%1,          Hilal Kurtoglu%Gumusel%NULL%1,          Elif%Eroglu%NULL%1,          Ibrahim Halil%Tanboga%NULL%1,          Sinan%Dagdelen%NULL%1,          Nevin%Sariguzel%NULL%1,          Ceyda Erel%Kirisoglu%NULL%1,          Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,   Antonelli%M.%coreGivesNoEmail%2,   Bellani%G.%coreGivesNoEmail%2,   Bonanomi%E.%coreGivesNoEmail%2,   Cabrini%L.%coreGivesNoEmail%2,   Carlesso%E.%coreGivesNoEmail%2,   Castelli%G.%coreGivesNoEmail%2,   Cattaneo%S.%coreGivesNoEmail%2,   Cecconi%M.%coreGivesNoEmail%2,   Cereda%D.%coreGivesNoEmail%2,   Colombo%S.%coreGivesNoEmail%2,   Coluccello%A.%coreGivesNoEmail%2,   Crescini%G.%coreGivesNoEmail%2,   Forastieri%Molinari A.%coreGivesNoEmail%2,   Foti%G.%coreGivesNoEmail%2,   Fumagalli%R.%coreGivesNoEmail%2,   Grasselli%G.%coreGivesNoEmail%2,   Greco%M.%coreGivesNoEmail%2,   Iotti%G. A.%coreGivesNoEmail%2,   Langer%T.%coreGivesNoEmail%2,   Latronico%N.%coreGivesNoEmail%2,   Lorini%F. L.%coreGivesNoEmail%2,   Mojoli%F.%coreGivesNoEmail%2,   Natalini%G.%coreGivesNoEmail%2,   Pesenti%A.%coreGivesNoEmail%2,   Pessina%C. M.%coreGivesNoEmail%2,   Ranieri%V. M.%coreGivesNoEmail%2,   Rech%R.%coreGivesNoEmail%2,   Rosano%A.%coreGivesNoEmail%2,   Scudeller%L.%coreGivesNoEmail%2,   Storti%E.%coreGivesNoEmail%2,   Thompson%B. T.%coreGivesNoEmail%2,   Tirani%M.%coreGivesNoEmail%2,   Villani%P. G.%coreGivesNoEmail%2,   Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,          Jiatian%Cao%NULL%1,          Yumeng%Yao%NULL%1,          Xuejuan%Jin%NULL%1,          Zhe%Luo%NULL%1,          Yuan%Xue%NULL%1,          Chouwen%Zhu%NULL%1,          Yanan%Song%NULL%1,          Ying%Wang%NULL%1,          Yunzeng%Zou%NULL%1,          Juying%Qian%NULL%1,          Kaihuan%Yu%NULL%1,          Hui%Gong%NULL%1,          Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,          Ju-Hyun%Kim%NULL%1,          Jin-Sung%Park%NULL%1,          Min Cheol%Chang%wheel633@ynu.ac.kr%1,          Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,          Raphael Romano%Bruno%NULL%1,          Bernhard%Wernly%NULL%1,          Michael%Joannidis%NULL%1,          Sandra%Oeyen%NULL%1,          Tilemachos%Zafeiridis%NULL%1,          Brian%Marsh%NULL%1,          Finn H%Andersen%NULL%1,          Rui%Moreno%NULL%1,          Ana Margarida%Fernandes%NULL%1,          Antonio%Artigas%NULL%1,          Bernardo Bollen%Pinto%NULL%1,          Joerg%Schefold%NULL%1,          Georg%Wolff%NULL%1,          Malte%Kelm%NULL%2,          Malte%Kelm%NULL%0,          Dylan W%De Lange%NULL%1,          Bertrand%Guidet%NULL%1,          Hans%Flaatten%NULL%1,          Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,          Jae Chol%Choi%NULL%1,          Seung-Hun%You%NULL%1,          Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,          Hamish%Reed-Embleton%NULL%2,          Hamish%Reed-Embleton%NULL%0,          Jen%Lewis%NULL%2,          Jen%Lewis%NULL%0,          Pamela%Bain%NULL%1,          Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,          Kenneth W%Chow%NULL%1,          Jonathan%Vo%NULL%1,          Wei%Hou%NULL%1,          Haifang%Li%NULL%1,          Paul S%Richman%NULL%1,          Sandeep K%Mallipattu%NULL%1,          Hal A%Skopicki%NULL%1,          Adam J%Singer%NULL%1,          Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,          Julien%Moragny%NULL%2,          Julien%Moragny%NULL%0,          Youssef%Bennis%NULL%1,          Benjamin%Batteux%NULL%1,          Etienne%Brochot%NULL%1,          Jean Luc%Schmit%NULL%1,          Jean-Philippe%Lanoix%NULL%1,          Claire%Andrejak%NULL%1,          Olivier%Ganry%NULL%1,          Michel%Slama%NULL%1,          Julien%Maizel%NULL%1,          Yazine%Mahjoub%NULL%1,          Kamel%Masmoudi%NULL%1,          Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,          Yi%Liu%NULL%0,          Keliang%Chen%NULL%1,          Suying%Yan%NULL%1,          Xiangrong%Bai%NULL%1,          Juan%Li%947281063@qq.com%1,          Dong%Liu%ld2069@outlook.com%2,          Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,          Javier%López-Pais%NULL%1,          Carla Eugenia%Cacho-Antonio%NULL%1,          Pablo José%Antúnez-Muiños%NULL%1,          Teba%González-Ferrero%NULL%1,          Marta%Pérez-Poza%NULL%1,          Óscar%Otero-García%NULL%1,          Brais%Díaz-Fernández%NULL%1,          María%Bastos-Fernández%NULL%1,          Noelia%Bouzas-Cruz%NULL%1,          Xoan Carlos%Sanmartín-Pena%NULL%1,          Alfonso%Varela-Román%NULL%1,          Manuel%Portela-Romero%NULL%1,          Luis%Valdés-Cuadrado%NULL%1,          Antonio%Pose-Reino%NULL%1,          José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,          Federico%Rea%NULL%1,          Monica%Ludergnani%NULL%4,          Monica%Ludergnani%NULL%0,          Giovanni%Apolone%NULL%1,          Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,           Hisao%Ogawa%null%1,           Kazuo%Kimura%null%1,           Masaaki%Konishi%null%1,           Jin%Kirigaya%null%1,           Kazuki%Fukui%null%1,           Kengo%Tsukahara%null%1,           Hiroyuki%Shimizu%null%1,           Keisuke%Iwabuchi%null%1,           Yu%Yamada%null%1,           Kenichiro%Saka%null%1,           Ichiro%Takeuchi%null%1,           Toshio%Hirano%null%1,           Kouichi%Tamura%null%1,     Yasushi%Matsuzawa%null%1,     Hisao%Ogawa%null%1,     Kazuo%Kimura%null%1,     Masaaki%Konishi%null%1,     Jin%Kirigaya%null%1,     Kazuki%Fukui%null%1,     Kengo%Tsukahara%null%1,     Hiroyuki%Shimizu%null%1,     Keisuke%Iwabuchi%null%1,     Yu%Yamada%null%1,     Kenichiro%Saka%null%1,     Ichiro%Takeuchi%null%2,     Toshio%Hirano%null%1,     Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,          Guohui%Xiao%NULL%1,          Juanjuan%Zhang%NULL%1,          Xing%He%NULL%1,          Min%Ou%NULL%1,          Jing%Bi%NULL%1,          Rongqing%Yang%NULL%1,          Wencheng%Di%NULL%1,          Zhaoqin%Wang%NULL%1,          Zigang%Li%NULL%1,          Hong%Gao%NULL%1,          Lei%Liu%NULL%1,          Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,          Francisca%García-Iglesias%NULL%1,          Teresa%González-Alegre%NULL%1,          Francisco%Blanco%NULL%1,          Marta%Varas%NULL%1,          Clara%Hernández-Blanco%NULL%1,          Victor%Hontañón%NULL%1,          María J.%Jaras-Hernández%NULL%1,          Mónica%Martínez-Prieto%NULL%1,          Araceli%Menéndez-Saldaña%NULL%1,          María L.%Cachán%NULL%1,          Eva%Estirado%NULL%1,          Carlos%Lahoz%NULL%1,          Rosa%de Miguel%NULL%1,          Miriam%Romero%NULL%1,          Mar%Lago%NULL%1,          Cristina%García-Quero%NULL%1,          Cristina%Plaza%NULL%1,          Talía%Sainz-Costa%NULL%1,          Susana%Rivas-Vila%NULL%1,          Blanca%Sánchez%NULL%1,          Celia García%Torres%NULL%1,          Lucía%Martínez-Tobar%NULL%1,          María%Hernandez-Pérez%NULL%1,          Pablo%Racionero%NULL%1,          Patricia%Mir-Ihara%NULL%1,          Jesús%Peña-López%NULL%1,          Marta%Bautista-Barea%NULL%1,          Alexa P.%Benítez%NULL%1,          Pablo%Rodríguez-Merlos%NULL%1,          María%Barcenilla%NULL%1,          María San%Basilio%NULL%1,          María%Valencia%NULL%1,          Ricardo%Romero-Martín%NULL%1,          Ana%Boto de los Bueis%NULL%1,          Adriana%de la Hoz-Polo%NULL%1,          María%del Pino-Cidad%NULL%1,          Javier%Coca-Robinot%NULL%1,          Bárbara%González-Ferrer%NULL%1,          Pedro%Fernández-Pérez%NULL%1,          Isabel%Mogollón%NULL%1,          María S.%Montoro-Romero%NULL%1,          Isabel%Villalaín%NULL%1,          Almudena%del Hierro-Zarzuelo%NULL%1,          Irene%Hernández-Martín%NULL%1,          Javier%Domínguez%NULL%1,          Alberto%Luna%NULL%1,          Soledad%Montoro%NULL%1,          Margarita%Sánchez-Orgaz%NULL%1,          Gloria%Amorena%NULL%1,          Cosme%Lavín-Dapena%NULL%1,          Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,          Stanislas%Gleye%NULL%1,          Isabelle%Clerc Urmes%NULL%1,          Elodie%Laugel%NULL%1,          Jonas%Callet%NULL%1,          Françoise%Barbé%NULL%1,          Sophie%Orlowski%NULL%1,          Catherine%Malaplate%NULL%1,          Isabelle%Aimone-Gastin%NULL%1,          Beatrice Maatem%Caillierez%NULL%1,          Marc%Merten%NULL%1,          Elise%Jeannesson%NULL%1,          Raphaël%Kormann%NULL%1,          Jean-Luc%Olivier%NULL%1,          Rosa-Maria%Rodriguez-Guéant%NULL%1,          Farès%Namour%NULL%1,          Sybille%Bevilacqua%NULL%1,          Marie-Reine%Losser%NULL%1,          Bruno%Levy%NULL%1,          Antoine%Kimmoun%NULL%1,          Sébastien%Gibot%NULL%1,          Nathalie%Thilly%NULL%1,          Luc%Frimat%NULL%1,          Evelyne%Schvoerer%NULL%1,          Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,          Samrachana%Adhikari%NULL%1,          Claudia%Pulgarin%NULL%1,          Andrea B.%Troxel%NULL%1,          Eduardo%Iturrate%NULL%1,          Stephen B.%Johnson%NULL%1,          Anaïs%Hausvater%NULL%1,          Jonathan D.%Newman%NULL%1,          Jeffrey S.%Berger%NULL%1,          Sripal%Bangalore%NULL%1,          Stuart D.%Katz%NULL%1,          Glenn I.%Fishman%NULL%1,          Dennis%Kunichoff%NULL%1,          Yu%Chen%NULL%1,          Gbenga%Ogedegbe%NULL%1,          Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,   Becker%L.B.%coreGivesNoEmail%3,   Chelico%J.D.%coreGivesNoEmail%3,   Cohen%S.L.%coreGivesNoEmail%3,   Cookingham%J.%coreGivesNoEmail%3,   Coppa%K.%coreGivesNoEmail%3,   Crawford%J.M.%coreGivesNoEmail%3,   Davidson%K.W.%coreGivesNoEmail%3,   Diefenbach%M.A.%coreGivesNoEmail%3,   Dominello%A.J.%coreGivesNoEmail%3,   Duer-Hefele%J.%coreGivesNoEmail%3,   Falzon%L.%coreGivesNoEmail%3,   Gitlin%J.%coreGivesNoEmail%3,   Hajizadeh%N.%coreGivesNoEmail%3,   Harvin%T.G.%coreGivesNoEmail%3,   Hirsch%J.S.%coreGivesNoEmail%3,   Hirschwerk%D.A.%coreGivesNoEmail%3,   Kim%E.J.%coreGivesNoEmail%3,   Kozel%Z.M.%coreGivesNoEmail%3,   Marrast%L.M.%coreGivesNoEmail%3,   McGinn%T.%coreGivesNoEmail%3,   Mogavero%J.N.%coreGivesNoEmail%3,   Narasimhan%M.%coreGivesNoEmail%3,   Osorio%G.A.%coreGivesNoEmail%3,   Qiu%M.%coreGivesNoEmail%3,   Richardson%S.%coreGivesNoEmail%3,   Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,          Massimiliano%Marino%NULL%3,          Debora%Formisano%NULL%1,          Francesco%Venturelli%NULL%1,          Massimo%Vicentini%NULL%3,          Massimo%Vicentini%NULL%0,          Roberto%Grilli%NULL%2,          NULL%NULL%NULL%0,          Gianluigi%Forloni%NULL%8,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,          Paolo%Maggi%NULL%2,          Paolo%Maggi%NULL%0,          Vincenzo%Messina%NULL%1,          Pasquale%Iuliano%NULL%2,          Pasquale%Iuliano%NULL%0,          Antonio%Sardu%NULL%1,          Vincenzo%Iovinella%NULL%1,          Giuseppe%Paolisso%NULL%1,          Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,          Rasimcan%Meral%NULL%1,          Alpay%Medetalibeyoğlu%NULL%1,          Hilal%Konyaoğlu%NULL%1,          Murat%Köse%NULL%1,          Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,          Yun%Qiu%NULL%1,          Xiang-Bin%Xing%NULL%1,          Subrata%Ghosh%NULL%1,          Min-Hu%Chen%NULL%1,          Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,          Maddalena%Giannella%NULL%1,          Michele%Bartoletti%NULL%1,          Filippo%Trapani%NULL%1,          Marina%Tadolini%NULL%1,          Claudio%Borghi%NULL%1,          Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,          Marco%Massari%NULL%3,          Marco%Massari%NULL%0,          Roberto%Da Cas%NULL%2,          Francesca%Menniti Ippolito%NULL%2,          Janet%Sultana%NULL%2,          Salvatore%Crisafulli%NULL%2,          Paolo%Giorgi Rossi%NULL%2,          Massimiliano%Marino%NULL%0,          Manuel%Zorzi%NULL%2,          Emanuela%Bovo%NULL%2,          Olivia%Leoni%NULL%2,          Monica%Ludergnani%NULL%0,          Stefania%Spila Alegiani%stefania.spila@iss.it%2,          Stefania%Spila Alegiani%NULL%0,          Francesca%Menniti Ippolito%NULL%0,          Roberto%Da Cas%NULL%0,          Marco%Massari%NULL%0,          Giuseppe%Traversa%NULL%1,          Graziano%Onder%NULL%1,          Gianluca%Trifirò%NULL%1,          Janet%Sultana%NULL%0,          Valentina%Ientile%NULL%1,          Salvatore%Crisafulli%NULL%0,          Paolo%Giorgi Rossi%NULL%0,          Roberto%Grilli%NULL%0,          Giulio%Formoso%NULL%1,          Massimiliano%Marino%NULL%0,          Massimo%Vicentini%NULL%0,          Olivia%Leoni%NULL%0,          Monica%Ludergnani%NULL%0,          Danilo%Cereda%NULL%1,          Eliana%Ferroni%NULL%1,          Stefano%Guzzinati%NULL%1,          Emanuela%Bovo%NULL%0,          Manuel%Zorzi%NULL%0,          Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,          Chaolin%Huang%NULL%1,          Guohui%Fan%NULL%1,          Zhibo%Liu%NULL%1,          Lianhan%Shang%NULL%1,          Fei%Zhou%NULL%1,          Yeming%Wang%NULL%1,          Jiapei%Yu%NULL%1,          Luning%Yang%NULL%1,          Ke%Xie%NULL%1,          Zhisheng%Huang%NULL%1,          Lixue%Huang%NULL%1,          Xiaoying%Gu%NULL%1,          Hui%Li%NULL%1,          Yi%Zhang%NULL%0,          Yimin%Wang%NULL%1,          Frederick G.%Hayden%NULL%1,          Peter W.%Horby%NULL%1,          Bin%Cao%caobin_ben@163.com%1,          Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,          Dan%Liu%NULL%1,          Shaoqing%Zeng%NULL%1,          Siyuan%Wang%NULL%1,          Sen%Xu%NULL%1,          Ya%Wang%NULL%1,          Ruidi%Yu%NULL%1,          Yue%Gao%NULL%1,          Huayi%Li%NULL%1,          Xinxia%Feng%NULL%1,          Ning%Zhou%NULL%0,          Chunxia%Zhao%NULL%1,          Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,          Lihua%Zhu%NULL%1,          Jingjing%Cai%NULL%1,          Fang%Lei%NULL%1,          Juan-Juan%Qin%NULL%1,          Jing%Xie%NULL%1,          Ye-Mao%Liu%NULL%1,          Yan-Ci%Zhao%NULL%1,          Xuewei%Huang%NULL%1,          Lijin%Lin%NULL%1,          Meng%Xia%NULL%1,          Ming-Ming%Chen%NULL%1,          Xu%Cheng%NULL%1,          Xiao%Zhang%NULL%1,          Deliang%Guo%NULL%1,          Yuanyuan%Peng%NULL%1,          Yan-Xiao%Ji%NULL%1,          Jing%Chen%NULL%1,          Zhi-Gang%She%NULL%1,          Yibin%Wang%NULL%0,          Qingbo%Xu%NULL%1,          Renfu%Tan%NULL%1,          Haitao%Wang%NULL%1,          Jun%Lin%NULL%1,          Pengcheng%Luo%NULL%1,          Shouzhi%Fu%NULL%1,          Hongbin%Cai%NULL%1,          Ping%Ye%NULL%1,          Bing%Xiao%NULL%1,          Weiming%Mao%NULL%1,          Liming%Liu%NULL%1,          Youqin%Yan%NULL%1,          Mingyu%Liu%NULL%1,          Manhua%Chen%NULL%1,          Xiao-Jing%Zhang%NULL%1,          Xinghuan%Wang%NULL%1,          Rhian M.%Touyz%NULL%1,          Jiahong%Xia%NULL%1,          Bing-Hong%Zhang%NULL%1,          Xiaodong%Huang%NULL%1,          Yufeng%Yuan%NULL%1,          Rohit%Loomba%NULL%1,          Peter P.%Liu%NULL%1,          Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,           Sandra%Santos-Martinez%NULL%1,           Diego%López-Otero%NULL%1,           Luis%Nombela-Franco%NULL%1,           Enrique%Gutiérrez-Ibanes%NULL%1,           Raquel%Del Valle%NULL%1,           Erika%Muñoz-García%NULL%1,           Víctor A.%Jiménez-Diaz%NULL%1,           Ander%Regueiro%NULL%1,           Rocío%González-Ferreiro%NULL%1,           Tomás%Benito%NULL%1,           Xoan Carlos%Sanmartin-Pena%NULL%1,           Pablo%Catalá%NULL%1,           Tania%Rodríguez-Gabella%NULL%1,           Jose Raúl%Delgado-Arana%NULL%1,           Manuel%Carrasco-Moraleja%NULL%1,           Borja%Ibañez%NULL%1,           J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,           David M.%Tehrani%NULL%1,           Soniya V.%Rabadia%NULL%1,           Marlene%Frost%NULL%1,           Rushi V.%Parikh%NULL%1,           Marcella%Calfon-Press%NULL%1,           Olcay%Aksoy%NULL%1,           Soban%Umar%NULL%1,           Reza%Ardehali%NULL%1,           Amir%Rabbani%NULL%1,           Pooya%Bokhoor%NULL%1,           Ali%Nsair%NULL%1,           Jesse%Currier%NULL%1,           Jonathan%Tobis%NULL%1,           Gregg C.%Fonarow%NULL%1,           Ravi%Dave%NULL%1,           Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,           Zeljko%Kraljevic%NULL%1,           Thomas%Searle%NULL%1,           Rebecca%Bendayan%NULL%1,           O'Gallagher%Kevin%NULL%1,           Andrew%Pickles%NULL%1,           Amos%Folarin%NULL%1,           Lukasz%Roguski%NULL%1,           Kawsar%Noor%NULL%1,           Anthony%Shek%NULL%1,           Rosita%Zakeri%NULL%1,           Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,           James T.H.%Teo%jamesteo@nhs.net%1,           Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,           Mauro%Chiarito%NULL%1,           Bernhard%Reimers%NULL%2,           Bernhard%Reimers%NULL%0,           Elena%Azzolini%NULL%1,           Giuseppe%Ferrante%NULL%1,           Ilaria%My%NULL%1,           Giacomo%Viggiani%NULL%1,           Cristina%Panico%NULL%1,           Damiano%Regazzoli%NULL%1,           Michele%Ciccarelli%NULL%1,           Antonio%Voza%NULL%1,           Alessio%Aghemo%NULL%1,           Hongliang%Li%NULL%2,           Yibin%Wang%NULL%2,           Gianluigi%Condorelli%NULL%1,           Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,           Feng%Wang%NULL%1,           Peng%Chen%NULL%1,           Jiangang%Jiang%NULL%1,           Guanglin%Cui%NULL%1,           Ning%Zhou%NULL%2,           Francesco%Moroni%NULL%1,           Javid J.%Moslehi%NULL%1,           Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,           Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,           Ming%Zhong%NULL%1,           Ya%Liu%NULL%1,           Yi%Zhang%NULL%2,           Kai%Zhang%NULL%1,           De-zhen%Su%NULL%1,           Xiao%Meng%NULL%1,           Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,           Duncan%Young%NULL%2,           Duncan%Young%NULL%0,           Carol%Coupland%NULL%1,           Keith M%Channon%NULL%1,           Pui San%Tan%NULL%1,           David A%Harrison%NULL%1,           Kathryn%Rowan%NULL%2,           Kathryn%Rowan%NULL%0,           Paul%Aveyard%NULL%1,           Ian D%Pavord%NULL%1,           Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,    Butt%Jawad H%coreGivesNoEmail%1,    Fosb\u00f8l%Emil L%coreGivesNoEmail%1,    Gerds%Thomas A%coreGivesNoEmail%1,    Gislason%Gunnar H%coreGivesNoEmail%1,    Kragholm%Kristian%coreGivesNoEmail%1,    K\u00f8ber%Lars%coreGivesNoEmail%1,    Phelps%Matthew%coreGivesNoEmail%1,    Schou%Morten%coreGivesNoEmail%1,    Selmer%Christian%coreGivesNoEmail%1,    Torp-Pedersen%Christian%coreGivesNoEmail%1,    \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,           Yue%Cai%NULL%1,           Kan%Zhang%NULL%2,           Kan%Zhang%NULL%0,           Lei%Zhou%NULL%1,           Yao%Zhang%NULL%1,           Xijing%Zhang%NULL%1,           Qi%Li%NULL%1,           Weiqin%Li%NULL%1,           Shiming%Yang%NULL%1,           Xiaoyan%Zhao%NULL%1,           Yuying%Zhao%NULL%1,           Hui%Wang%NULL%1,           Yi%Liu%NULL%2,           Zhiyong%Yin%NULL%1,           Ruining%Zhang%NULL%1,           Rutao%Wang%NULL%1,           Ming%Yang%NULL%1,           Chen%Hui%NULL%1,           William%Wijns%NULL%1,           J William%McEvoy%NULL%1,           Osama%Soliman%NULL%2,           Osama%Soliman%NULL%0,           Yoshinobu%Onuma%NULL%2,           Yoshinobu%Onuma%NULL%0,           Patrick W%Serruys%NULL%1,           Ling%Tao%lingtao@fmmu.edu.cn%1,           Fei%Li%lifei01@fmmu.edu.cn%2,           Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,           Erkan%Ekicibasi%NULL%1,           Aleks%Degirmencioglu%NULL%1,           Ashok%Paudel%NULL%1,           Refik%Erdim%NULL%1,           Hilal Kurtoglu%Gumusel%NULL%1,           Elif%Eroglu%NULL%1,           Ibrahim Halil%Tanboga%NULL%1,           Sinan%Dagdelen%NULL%1,           Nevin%Sariguzel%NULL%1,           Ceyda Erel%Kirisoglu%NULL%1,           Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,    Antonelli%M.%coreGivesNoEmail%2,    Bellani%G.%coreGivesNoEmail%2,    Bonanomi%E.%coreGivesNoEmail%2,    Cabrini%L.%coreGivesNoEmail%2,    Carlesso%E.%coreGivesNoEmail%2,    Castelli%G.%coreGivesNoEmail%2,    Cattaneo%S.%coreGivesNoEmail%2,    Cecconi%M.%coreGivesNoEmail%2,    Cereda%D.%coreGivesNoEmail%2,    Colombo%S.%coreGivesNoEmail%2,    Coluccello%A.%coreGivesNoEmail%2,    Crescini%G.%coreGivesNoEmail%2,    Forastieri%Molinari A.%coreGivesNoEmail%2,    Foti%G.%coreGivesNoEmail%2,    Fumagalli%R.%coreGivesNoEmail%2,    Grasselli%G.%coreGivesNoEmail%2,    Greco%M.%coreGivesNoEmail%2,    Iotti%G. A.%coreGivesNoEmail%2,    Langer%T.%coreGivesNoEmail%2,    Latronico%N.%coreGivesNoEmail%2,    Lorini%F. L.%coreGivesNoEmail%2,    Mojoli%F.%coreGivesNoEmail%2,    Natalini%G.%coreGivesNoEmail%2,    Pesenti%A.%coreGivesNoEmail%2,    Pessina%C. M.%coreGivesNoEmail%2,    Ranieri%V. M.%coreGivesNoEmail%2,    Rech%R.%coreGivesNoEmail%2,    Rosano%A.%coreGivesNoEmail%2,    Scudeller%L.%coreGivesNoEmail%2,    Storti%E.%coreGivesNoEmail%2,    Thompson%B. T.%coreGivesNoEmail%2,    Tirani%M.%coreGivesNoEmail%2,    Villani%P. G.%coreGivesNoEmail%2,    Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,           Jiatian%Cao%NULL%1,           Yumeng%Yao%NULL%1,           Xuejuan%Jin%NULL%1,           Zhe%Luo%NULL%1,           Yuan%Xue%NULL%1,           Chouwen%Zhu%NULL%1,           Yanan%Song%NULL%1,           Ying%Wang%NULL%1,           Yunzeng%Zou%NULL%1,           Juying%Qian%NULL%1,           Kaihuan%Yu%NULL%1,           Hui%Gong%NULL%1,           Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,           Ju-Hyun%Kim%NULL%1,           Jin-Sung%Park%NULL%1,           Min Cheol%Chang%wheel633@ynu.ac.kr%1,           Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,           Raphael Romano%Bruno%NULL%1,           Bernhard%Wernly%NULL%1,           Michael%Joannidis%NULL%1,           Sandra%Oeyen%NULL%1,           Tilemachos%Zafeiridis%NULL%1,           Brian%Marsh%NULL%1,           Finn H%Andersen%NULL%1,           Rui%Moreno%NULL%1,           Ana Margarida%Fernandes%NULL%1,           Antonio%Artigas%NULL%1,           Bernardo Bollen%Pinto%NULL%1,           Joerg%Schefold%NULL%1,           Georg%Wolff%NULL%1,           Malte%Kelm%NULL%2,           Malte%Kelm%NULL%0,           Dylan W%De Lange%NULL%1,           Bertrand%Guidet%NULL%1,           Hans%Flaatten%NULL%1,           Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,           Jae Chol%Choi%NULL%1,           Seung-Hun%You%NULL%1,           Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,           Hamish%Reed-Embleton%NULL%2,           Hamish%Reed-Embleton%NULL%0,           Jen%Lewis%NULL%2,           Jen%Lewis%NULL%0,           Pamela%Bain%NULL%1,           Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,           Kenneth W%Chow%NULL%1,           Jonathan%Vo%NULL%1,           Wei%Hou%NULL%1,           Haifang%Li%NULL%1,           Paul S%Richman%NULL%1,           Sandeep K%Mallipattu%NULL%1,           Hal A%Skopicki%NULL%1,           Adam J%Singer%NULL%1,           Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,           Julien%Moragny%NULL%2,           Julien%Moragny%NULL%0,           Youssef%Bennis%NULL%1,           Benjamin%Batteux%NULL%1,           Etienne%Brochot%NULL%1,           Jean Luc%Schmit%NULL%1,           Jean-Philippe%Lanoix%NULL%1,           Claire%Andrejak%NULL%1,           Olivier%Ganry%NULL%1,           Michel%Slama%NULL%1,           Julien%Maizel%NULL%1,           Yazine%Mahjoub%NULL%1,           Kamel%Masmoudi%NULL%1,           Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,           Yi%Liu%NULL%0,           Keliang%Chen%NULL%1,           Suying%Yan%NULL%1,           Xiangrong%Bai%NULL%1,           Juan%Li%947281063@qq.com%1,           Dong%Liu%ld2069@outlook.com%2,           Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,           Javier%López-Pais%NULL%1,           Carla Eugenia%Cacho-Antonio%NULL%1,           Pablo José%Antúnez-Muiños%NULL%1,           Teba%González-Ferrero%NULL%1,           Marta%Pérez-Poza%NULL%1,           Óscar%Otero-García%NULL%1,           Brais%Díaz-Fernández%NULL%1,           María%Bastos-Fernández%NULL%1,           Noelia%Bouzas-Cruz%NULL%1,           Xoan Carlos%Sanmartín-Pena%NULL%1,           Alfonso%Varela-Román%NULL%1,           Manuel%Portela-Romero%NULL%1,           Luis%Valdés-Cuadrado%NULL%1,           Antonio%Pose-Reino%NULL%1,           José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,           Federico%Rea%NULL%1,           Monica%Ludergnani%NULL%4,           Monica%Ludergnani%NULL%0,           Giovanni%Apolone%NULL%1,           Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,            Hisao%Ogawa%null%1,            Kazuo%Kimura%null%1,            Masaaki%Konishi%null%1,            Jin%Kirigaya%null%1,            Kazuki%Fukui%null%1,            Kengo%Tsukahara%null%1,            Hiroyuki%Shimizu%null%1,            Keisuke%Iwabuchi%null%1,            Yu%Yamada%null%1,            Kenichiro%Saka%null%1,            Ichiro%Takeuchi%null%1,            Toshio%Hirano%null%1,            Kouichi%Tamura%null%1,      Yasushi%Matsuzawa%null%1,      Hisao%Ogawa%null%1,      Kazuo%Kimura%null%1,      Masaaki%Konishi%null%1,      Jin%Kirigaya%null%1,      Kazuki%Fukui%null%1,      Kengo%Tsukahara%null%1,      Hiroyuki%Shimizu%null%1,      Keisuke%Iwabuchi%null%1,      Yu%Yamada%null%1,      Kenichiro%Saka%null%1,      Ichiro%Takeuchi%null%2,      Toshio%Hirano%null%1,      Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,           Guohui%Xiao%NULL%1,           Juanjuan%Zhang%NULL%1,           Xing%He%NULL%1,           Min%Ou%NULL%1,           Jing%Bi%NULL%1,           Rongqing%Yang%NULL%1,           Wencheng%Di%NULL%1,           Zhaoqin%Wang%NULL%1,           Zigang%Li%NULL%1,           Hong%Gao%NULL%1,           Lei%Liu%NULL%1,           Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,           Francisca%García-Iglesias%NULL%1,           Teresa%González-Alegre%NULL%1,           Francisco%Blanco%NULL%1,           Marta%Varas%NULL%1,           Clara%Hernández-Blanco%NULL%1,           Victor%Hontañón%NULL%1,           María J.%Jaras-Hernández%NULL%1,           Mónica%Martínez-Prieto%NULL%1,           Araceli%Menéndez-Saldaña%NULL%1,           María L.%Cachán%NULL%1,           Eva%Estirado%NULL%1,           Carlos%Lahoz%NULL%1,           Rosa%de Miguel%NULL%1,           Miriam%Romero%NULL%1,           Mar%Lago%NULL%1,           Cristina%García-Quero%NULL%1,           Cristina%Plaza%NULL%1,           Talía%Sainz-Costa%NULL%1,           Susana%Rivas-Vila%NULL%1,           Blanca%Sánchez%NULL%1,           Celia García%Torres%NULL%1,           Lucía%Martínez-Tobar%NULL%1,           María%Hernandez-Pérez%NULL%1,           Pablo%Racionero%NULL%1,           Patricia%Mir-Ihara%NULL%1,           Jesús%Peña-López%NULL%1,           Marta%Bautista-Barea%NULL%1,           Alexa P.%Benítez%NULL%1,           Pablo%Rodríguez-Merlos%NULL%1,           María%Barcenilla%NULL%1,           María San%Basilio%NULL%1,           María%Valencia%NULL%1,           Ricardo%Romero-Martín%NULL%1,           Ana%Boto de los Bueis%NULL%1,           Adriana%de la Hoz-Polo%NULL%1,           María%del Pino-Cidad%NULL%1,           Javier%Coca-Robinot%NULL%1,           Bárbara%González-Ferrer%NULL%1,           Pedro%Fernández-Pérez%NULL%1,           Isabel%Mogollón%NULL%1,           María S.%Montoro-Romero%NULL%1,           Isabel%Villalaín%NULL%1,           Almudena%del Hierro-Zarzuelo%NULL%1,           Irene%Hernández-Martín%NULL%1,           Javier%Domínguez%NULL%1,           Alberto%Luna%NULL%1,           Soledad%Montoro%NULL%1,           Margarita%Sánchez-Orgaz%NULL%1,           Gloria%Amorena%NULL%1,           Cosme%Lavín-Dapena%NULL%1,           Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,           Stanislas%Gleye%NULL%1,           Isabelle%Clerc Urmes%NULL%1,           Elodie%Laugel%NULL%1,           Jonas%Callet%NULL%1,           Françoise%Barbé%NULL%1,           Sophie%Orlowski%NULL%1,           Catherine%Malaplate%NULL%1,           Isabelle%Aimone-Gastin%NULL%1,           Beatrice Maatem%Caillierez%NULL%1,           Marc%Merten%NULL%1,           Elise%Jeannesson%NULL%1,           Raphaël%Kormann%NULL%1,           Jean-Luc%Olivier%NULL%1,           Rosa-Maria%Rodriguez-Guéant%NULL%1,           Farès%Namour%NULL%1,           Sybille%Bevilacqua%NULL%1,           Marie-Reine%Losser%NULL%1,           Bruno%Levy%NULL%1,           Antoine%Kimmoun%NULL%1,           Sébastien%Gibot%NULL%1,           Nathalie%Thilly%NULL%1,           Luc%Frimat%NULL%1,           Evelyne%Schvoerer%NULL%1,           Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,           Samrachana%Adhikari%NULL%1,           Claudia%Pulgarin%NULL%1,           Andrea B.%Troxel%NULL%1,           Eduardo%Iturrate%NULL%1,           Stephen B.%Johnson%NULL%1,           Anaïs%Hausvater%NULL%1,           Jonathan D.%Newman%NULL%1,           Jeffrey S.%Berger%NULL%1,           Sripal%Bangalore%NULL%1,           Stuart D.%Katz%NULL%1,           Glenn I.%Fishman%NULL%1,           Dennis%Kunichoff%NULL%1,           Yu%Chen%NULL%1,           Gbenga%Ogedegbe%NULL%1,           Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,    Becker%L.B.%coreGivesNoEmail%3,    Chelico%J.D.%coreGivesNoEmail%3,    Cohen%S.L.%coreGivesNoEmail%3,    Cookingham%J.%coreGivesNoEmail%3,    Coppa%K.%coreGivesNoEmail%3,    Crawford%J.M.%coreGivesNoEmail%3,    Davidson%K.W.%coreGivesNoEmail%3,    Diefenbach%M.A.%coreGivesNoEmail%3,    Dominello%A.J.%coreGivesNoEmail%3,    Duer-Hefele%J.%coreGivesNoEmail%3,    Falzon%L.%coreGivesNoEmail%3,    Gitlin%J.%coreGivesNoEmail%3,    Hajizadeh%N.%coreGivesNoEmail%3,    Harvin%T.G.%coreGivesNoEmail%3,    Hirsch%J.S.%coreGivesNoEmail%3,    Hirschwerk%D.A.%coreGivesNoEmail%3,    Kim%E.J.%coreGivesNoEmail%3,    Kozel%Z.M.%coreGivesNoEmail%3,    Marrast%L.M.%coreGivesNoEmail%3,    McGinn%T.%coreGivesNoEmail%3,    Mogavero%J.N.%coreGivesNoEmail%3,    Narasimhan%M.%coreGivesNoEmail%3,    Osorio%G.A.%coreGivesNoEmail%3,    Qiu%M.%coreGivesNoEmail%3,    Richardson%S.%coreGivesNoEmail%3,    Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,           Massimiliano%Marino%NULL%3,           Debora%Formisano%NULL%1,           Francesco%Venturelli%NULL%1,           Massimo%Vicentini%NULL%3,           Massimo%Vicentini%NULL%0,           Roberto%Grilli%NULL%2,           NULL%NULL%NULL%0,           Gianluigi%Forloni%NULL%8,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,           Paolo%Maggi%NULL%2,           Paolo%Maggi%NULL%0,           Vincenzo%Messina%NULL%1,           Pasquale%Iuliano%NULL%2,           Pasquale%Iuliano%NULL%0,           Antonio%Sardu%NULL%1,           Vincenzo%Iovinella%NULL%1,           Giuseppe%Paolisso%NULL%1,           Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,           Rasimcan%Meral%NULL%1,           Alpay%Medetalibeyoğlu%NULL%1,           Hilal%Konyaoğlu%NULL%1,           Murat%Köse%NULL%1,           Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,           Yun%Qiu%NULL%1,           Xiang-Bin%Xing%NULL%1,           Subrata%Ghosh%NULL%1,           Min-Hu%Chen%NULL%1,           Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,           Maddalena%Giannella%NULL%1,           Michele%Bartoletti%NULL%1,           Filippo%Trapani%NULL%1,           Marina%Tadolini%NULL%1,           Claudio%Borghi%NULL%1,           Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,           Marco%Massari%NULL%3,           Marco%Massari%NULL%0,           Roberto%Da Cas%NULL%2,           Francesca%Menniti Ippolito%NULL%2,           Janet%Sultana%NULL%2,           Salvatore%Crisafulli%NULL%2,           Paolo%Giorgi Rossi%NULL%2,           Massimiliano%Marino%NULL%0,           Manuel%Zorzi%NULL%2,           Emanuela%Bovo%NULL%2,           Olivia%Leoni%NULL%2,           Monica%Ludergnani%NULL%0,           Stefania%Spila Alegiani%stefania.spila@iss.it%2,           Stefania%Spila Alegiani%NULL%0,           Francesca%Menniti Ippolito%NULL%0,           Roberto%Da Cas%NULL%0,           Marco%Massari%NULL%0,           Giuseppe%Traversa%NULL%1,           Graziano%Onder%NULL%1,           Gianluca%Trifirò%NULL%1,           Janet%Sultana%NULL%0,           Valentina%Ientile%NULL%1,           Salvatore%Crisafulli%NULL%0,           Paolo%Giorgi Rossi%NULL%0,           Roberto%Grilli%NULL%0,           Giulio%Formoso%NULL%1,           Massimiliano%Marino%NULL%0,           Massimo%Vicentini%NULL%0,           Olivia%Leoni%NULL%0,           Monica%Ludergnani%NULL%0,           Danilo%Cereda%NULL%1,           Eliana%Ferroni%NULL%1,           Stefano%Guzzinati%NULL%1,           Emanuela%Bovo%NULL%0,           Manuel%Zorzi%NULL%0,           Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,           Chaolin%Huang%NULL%1,           Guohui%Fan%NULL%1,           Zhibo%Liu%NULL%1,           Lianhan%Shang%NULL%1,           Fei%Zhou%NULL%1,           Yeming%Wang%NULL%1,           Jiapei%Yu%NULL%1,           Luning%Yang%NULL%1,           Ke%Xie%NULL%1,           Zhisheng%Huang%NULL%1,           Lixue%Huang%NULL%1,           Xiaoying%Gu%NULL%1,           Hui%Li%NULL%1,           Yi%Zhang%NULL%0,           Yimin%Wang%NULL%1,           Frederick G.%Hayden%NULL%1,           Peter W.%Horby%NULL%1,           Bin%Cao%caobin_ben@163.com%1,           Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,           Dan%Liu%NULL%1,           Shaoqing%Zeng%NULL%1,           Siyuan%Wang%NULL%1,           Sen%Xu%NULL%1,           Ya%Wang%NULL%1,           Ruidi%Yu%NULL%1,           Yue%Gao%NULL%1,           Huayi%Li%NULL%1,           Xinxia%Feng%NULL%1,           Ning%Zhou%NULL%0,           Chunxia%Zhao%NULL%1,           Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,           Lihua%Zhu%NULL%1,           Jingjing%Cai%NULL%1,           Fang%Lei%NULL%1,           Juan-Juan%Qin%NULL%1,           Jing%Xie%NULL%1,           Ye-Mao%Liu%NULL%1,           Yan-Ci%Zhao%NULL%1,           Xuewei%Huang%NULL%1,           Lijin%Lin%NULL%1,           Meng%Xia%NULL%1,           Ming-Ming%Chen%NULL%1,           Xu%Cheng%NULL%1,           Xiao%Zhang%NULL%1,           Deliang%Guo%NULL%1,           Yuanyuan%Peng%NULL%1,           Yan-Xiao%Ji%NULL%1,           Jing%Chen%NULL%1,           Zhi-Gang%She%NULL%1,           Yibin%Wang%NULL%0,           Qingbo%Xu%NULL%1,           Renfu%Tan%NULL%1,           Haitao%Wang%NULL%1,           Jun%Lin%NULL%1,           Pengcheng%Luo%NULL%1,           Shouzhi%Fu%NULL%1,           Hongbin%Cai%NULL%1,           Ping%Ye%NULL%1,           Bing%Xiao%NULL%1,           Weiming%Mao%NULL%1,           Liming%Liu%NULL%1,           Youqin%Yan%NULL%1,           Mingyu%Liu%NULL%1,           Manhua%Chen%NULL%1,           Xiao-Jing%Zhang%NULL%1,           Xinghuan%Wang%NULL%1,           Rhian M.%Touyz%NULL%1,           Jiahong%Xia%NULL%1,           Bing-Hong%Zhang%NULL%1,           Xiaodong%Huang%NULL%1,           Yufeng%Yuan%NULL%1,           Rohit%Loomba%NULL%1,           Peter P.%Liu%NULL%1,           Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2039,7 +2522,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>372</v>
+        <v>522</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -2131,7 +2614,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>374</v>
+        <v>523</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -2177,7 +2660,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>524</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -2223,7 +2706,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>377</v>
+        <v>525</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -2269,7 +2752,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>526</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -2315,7 +2798,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>379</v>
+        <v>527</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -2407,7 +2890,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>528</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -2447,19 +2930,19 @@
         <v>2020.0</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>415</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>529</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>417</v>
       </c>
       <c r="H11" t="s">
         <v>63</v>
@@ -2499,7 +2982,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>381</v>
+        <v>530</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -2545,7 +3028,7 @@
         <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>382</v>
+        <v>531</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -2585,19 +3068,19 @@
         <v>2020.0</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>420</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>532</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>417</v>
       </c>
       <c r="H14" t="s">
         <v>63</v>
@@ -2683,7 +3166,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>384</v>
+        <v>533</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -2729,7 +3212,7 @@
         <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>385</v>
+        <v>534</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -2821,7 +3304,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>386</v>
+        <v>535</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -2867,7 +3350,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>387</v>
+        <v>536</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -2913,7 +3396,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>388</v>
+        <v>537</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -2959,7 +3442,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>389</v>
+        <v>538</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3051,7 +3534,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>390</v>
+        <v>539</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -3097,7 +3580,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>391</v>
+        <v>540</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -3143,7 +3626,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>392</v>
+        <v>541</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -3189,7 +3672,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>393</v>
+        <v>542</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -3235,7 +3718,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>394</v>
+        <v>543</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -3281,7 +3764,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>395</v>
+        <v>544</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -3327,7 +3810,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>396</v>
+        <v>545</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -3373,7 +3856,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>397</v>
+        <v>546</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -3465,7 +3948,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>398</v>
+        <v>547</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3505,19 +3988,19 @@
         <v>43943.0</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>438</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>548</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>417</v>
       </c>
       <c r="H34" t="s">
         <v>63</v>
@@ -3557,7 +4040,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>399</v>
+        <v>549</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -3603,7 +4086,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -3649,7 +4132,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>401</v>
+        <v>551</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -3741,7 +4224,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -3787,7 +4270,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>403</v>
+        <v>553</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -3833,7 +4316,7 @@
         <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>404</v>
+        <v>554</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -3879,7 +4362,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>405</v>
+        <v>555</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -3971,7 +4454,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>406</v>
+        <v>556</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -4017,7 +4500,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>407</v>
+        <v>557</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="659">
   <si>
     <t>Doi</t>
   </si>
@@ -2094,6 +2094,354 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,           Lihua%Zhu%NULL%1,           Jingjing%Cai%NULL%1,           Fang%Lei%NULL%1,           Juan-Juan%Qin%NULL%1,           Jing%Xie%NULL%1,           Ye-Mao%Liu%NULL%1,           Yan-Ci%Zhao%NULL%1,           Xuewei%Huang%NULL%1,           Lijin%Lin%NULL%1,           Meng%Xia%NULL%1,           Ming-Ming%Chen%NULL%1,           Xu%Cheng%NULL%1,           Xiao%Zhang%NULL%1,           Deliang%Guo%NULL%1,           Yuanyuan%Peng%NULL%1,           Yan-Xiao%Ji%NULL%1,           Jing%Chen%NULL%1,           Zhi-Gang%She%NULL%1,           Yibin%Wang%NULL%0,           Qingbo%Xu%NULL%1,           Renfu%Tan%NULL%1,           Haitao%Wang%NULL%1,           Jun%Lin%NULL%1,           Pengcheng%Luo%NULL%1,           Shouzhi%Fu%NULL%1,           Hongbin%Cai%NULL%1,           Ping%Ye%NULL%1,           Bing%Xiao%NULL%1,           Weiming%Mao%NULL%1,           Liming%Liu%NULL%1,           Youqin%Yan%NULL%1,           Mingyu%Liu%NULL%1,           Manhua%Chen%NULL%1,           Xiao-Jing%Zhang%NULL%1,           Xinghuan%Wang%NULL%1,           Rhian M.%Touyz%NULL%1,           Jiahong%Xia%NULL%1,           Bing-Hong%Zhang%NULL%1,           Xiaodong%Huang%NULL%1,           Yufeng%Yuan%NULL%1,           Rohit%Loomba%NULL%1,           Peter P.%Liu%NULL%1,           Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,            Sandra%Santos-Martinez%NULL%1,            Diego%López-Otero%NULL%1,            Luis%Nombela-Franco%NULL%1,            Enrique%Gutiérrez-Ibanes%NULL%1,            Raquel%Del Valle%NULL%1,            Erika%Muñoz-García%NULL%1,            Víctor A.%Jiménez-Diaz%NULL%1,            Ander%Regueiro%NULL%1,            Rocío%González-Ferreiro%NULL%1,            Tomás%Benito%NULL%1,            Xoan Carlos%Sanmartin-Pena%NULL%1,            Pablo%Catalá%NULL%1,            Tania%Rodríguez-Gabella%NULL%1,            Jose Raúl%Delgado-Arana%NULL%1,            Manuel%Carrasco-Moraleja%NULL%1,            Borja%Ibañez%NULL%1,            J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,            David M.%Tehrani%NULL%1,            Soniya V.%Rabadia%NULL%1,            Marlene%Frost%NULL%1,            Rushi V.%Parikh%NULL%1,            Marcella%Calfon-Press%NULL%1,            Olcay%Aksoy%NULL%1,            Soban%Umar%NULL%1,            Reza%Ardehali%NULL%1,            Amir%Rabbani%NULL%1,            Pooya%Bokhoor%NULL%1,            Ali%Nsair%NULL%1,            Jesse%Currier%NULL%1,            Jonathan%Tobis%NULL%1,            Gregg C.%Fonarow%NULL%1,            Ravi%Dave%NULL%1,            Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,            Zeljko%Kraljevic%NULL%1,            Thomas%Searle%NULL%1,            Rebecca%Bendayan%NULL%1,            O'Gallagher%Kevin%NULL%1,            Andrew%Pickles%NULL%1,            Amos%Folarin%NULL%1,            Lukasz%Roguski%NULL%1,            Kawsar%Noor%NULL%1,            Anthony%Shek%NULL%1,            Rosita%Zakeri%NULL%1,            Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,            James T.H.%Teo%jamesteo@nhs.net%1,            Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,            Mauro%Chiarito%NULL%1,            Bernhard%Reimers%NULL%2,            Bernhard%Reimers%NULL%0,            Elena%Azzolini%NULL%1,            Giuseppe%Ferrante%NULL%1,            Ilaria%My%NULL%1,            Giacomo%Viggiani%NULL%1,            Cristina%Panico%NULL%1,            Damiano%Regazzoli%NULL%1,            Michele%Ciccarelli%NULL%1,            Antonio%Voza%NULL%1,            Alessio%Aghemo%NULL%1,            Hongliang%Li%NULL%2,            Yibin%Wang%NULL%2,            Gianluigi%Condorelli%NULL%1,            Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,            Feng%Wang%NULL%1,            Peng%Chen%NULL%1,            Jiangang%Jiang%NULL%1,            Guanglin%Cui%NULL%1,            Ning%Zhou%NULL%2,            Francesco%Moroni%NULL%1,            Javid J.%Moslehi%NULL%1,            Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,            Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,            Ming%Zhong%NULL%1,            Ya%Liu%NULL%1,            Yi%Zhang%NULL%2,            Kai%Zhang%NULL%1,            De-zhen%Su%NULL%1,            Xiao%Meng%NULL%1,            Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Clinical Characteristics and Outcomes of Patients With Diabetes and COVID-19 in Association With Glucose-Lowering Medication"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n                  OBJECTIVE\n                  Diabetes is one of the most distinct comorbidities of COVID-19. Here, we describe the clinical characteristics of and outcomes in patients with diabetes in whom COVID-19 was confirmed or clinically diagnosed (with typical features on lung imaging and symptoms) and their association with glucose-lowering or blood pressure\u2013lowering medications.
+\n               \n               \n                  RESEARCH DESIGN AND METHODS\n                  In this retrospective study involving 904 patients with COVID-19 (136 with diabetes, mostly type 2 diabetes), clinical and laboratory characteristics were collected and compared between the group with diabetes and the group without diabetes, and between groups taking different medications.
+ Logistic regression was used to explore risk factors associated with mortality or poor prognosis.
+\n               \n               \n                  RESULTS\n                  The proportion of comorbid diabetes is similar between cases of confirmed and of clinically diagnosed COVID-19. Risk factors for higher mortality of patients with diabetes and COVID-19 were older age (adjusted odds ratio [aOR] 1.09 [95% CI 1.04, 1.15] per year increase; P = 0.001) and elevated C-reactive protein (aOR 1.12 [95% CI 1.00, 1.24]; P = 0.043).
+ Insulin usage (aOR 3.58 [95% CI 1.37, 9.35]; P = 0.009) was associated with poor prognosis.
+ Clinical outcomes of those who use an ACE inhibitor (ACEI) or angiotensin II type-I receptor blocker (ARB) were comparable with those of patients who do not use ACEI\/ARB among COVID-19 patients with diabetes and hypertension.
+\n               \n               \n                  CONCLUSIONS\n                  C-reactive protein may help to identify patients with diabetes who are at greater risk of dying during hospitalization.
+ Older patients with diabetes were prone to death related to COVID-19. Attention needs to be paid to patients with diabetes and COVID-19 who use insulin.
+ ACEI\/ARB use showed no significant impact on patients with diabetes and hypertension who have COVID-19.\n               </t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2, Dong%Yang%xref no email%2, Biao%Cheng%xref no email%2, Jian%Chen%xref no email%4, Anlin%Peng%xref no email%2, Chen%Yang%xref no email%2, Chong%Liu%xref no email%2, Mingrui%Xiong%xref no email%2, Aiping%Deng%xref no email%4, Yu%Zhang%xref no email%2, Ling%Zheng%xref no email%2, Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,            Duncan%Young%NULL%2,            Duncan%Young%NULL%0,            Carol%Coupland%NULL%1,            Keith M%Channon%NULL%1,            Pui San%Tan%NULL%1,            David A%Harrison%NULL%1,            Kathryn%Rowan%NULL%2,            Kathryn%Rowan%NULL%0,            Paul%Aveyard%NULL%1,            Ian D%Pavord%NULL%1,            Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,     Butt%Jawad H%coreGivesNoEmail%1,     Fosb\u00f8l%Emil L%coreGivesNoEmail%1,     Gerds%Thomas A%coreGivesNoEmail%1,     Gislason%Gunnar H%coreGivesNoEmail%1,     Kragholm%Kristian%coreGivesNoEmail%1,     K\u00f8ber%Lars%coreGivesNoEmail%1,     Phelps%Matthew%coreGivesNoEmail%1,     Schou%Morten%coreGivesNoEmail%1,     Selmer%Christian%coreGivesNoEmail%1,     Torp-Pedersen%Christian%coreGivesNoEmail%1,     \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,            Yue%Cai%NULL%1,            Kan%Zhang%NULL%2,            Kan%Zhang%NULL%0,            Lei%Zhou%NULL%1,            Yao%Zhang%NULL%1,            Xijing%Zhang%NULL%1,            Qi%Li%NULL%1,            Weiqin%Li%NULL%1,            Shiming%Yang%NULL%1,            Xiaoyan%Zhao%NULL%1,            Yuying%Zhao%NULL%1,            Hui%Wang%NULL%1,            Yi%Liu%NULL%2,            Zhiyong%Yin%NULL%1,            Ruining%Zhang%NULL%1,            Rutao%Wang%NULL%1,            Ming%Yang%NULL%1,            Chen%Hui%NULL%1,            William%Wijns%NULL%1,            J William%McEvoy%NULL%1,            Osama%Soliman%NULL%2,            Osama%Soliman%NULL%0,            Yoshinobu%Onuma%NULL%2,            Yoshinobu%Onuma%NULL%0,            Patrick W%Serruys%NULL%1,            Ling%Tao%lingtao@fmmu.edu.cn%1,            Fei%Li%lifei01@fmmu.edu.cn%2,            Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,            Erkan%Ekicibasi%NULL%1,            Aleks%Degirmencioglu%NULL%1,            Ashok%Paudel%NULL%1,            Refik%Erdim%NULL%1,            Hilal Kurtoglu%Gumusel%NULL%1,            Elif%Eroglu%NULL%1,            Ibrahim Halil%Tanboga%NULL%1,            Sinan%Dagdelen%NULL%1,            Nevin%Sariguzel%NULL%1,            Ceyda Erel%Kirisoglu%NULL%1,            Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,     Antonelli%M.%coreGivesNoEmail%2,     Bellani%G.%coreGivesNoEmail%2,     Bonanomi%E.%coreGivesNoEmail%2,     Cabrini%L.%coreGivesNoEmail%2,     Carlesso%E.%coreGivesNoEmail%2,     Castelli%G.%coreGivesNoEmail%2,     Cattaneo%S.%coreGivesNoEmail%2,     Cecconi%M.%coreGivesNoEmail%2,     Cereda%D.%coreGivesNoEmail%2,     Colombo%S.%coreGivesNoEmail%2,     Coluccello%A.%coreGivesNoEmail%2,     Crescini%G.%coreGivesNoEmail%2,     Forastieri%Molinari A.%coreGivesNoEmail%2,     Foti%G.%coreGivesNoEmail%2,     Fumagalli%R.%coreGivesNoEmail%2,     Grasselli%G.%coreGivesNoEmail%2,     Greco%M.%coreGivesNoEmail%2,     Iotti%G. A.%coreGivesNoEmail%2,     Langer%T.%coreGivesNoEmail%2,     Latronico%N.%coreGivesNoEmail%2,     Lorini%F. L.%coreGivesNoEmail%2,     Mojoli%F.%coreGivesNoEmail%2,     Natalini%G.%coreGivesNoEmail%2,     Pesenti%A.%coreGivesNoEmail%2,     Pessina%C. M.%coreGivesNoEmail%2,     Ranieri%V. M.%coreGivesNoEmail%2,     Rech%R.%coreGivesNoEmail%2,     Rosano%A.%coreGivesNoEmail%2,     Scudeller%L.%coreGivesNoEmail%2,     Storti%E.%coreGivesNoEmail%2,     Thompson%B. T.%coreGivesNoEmail%2,     Tirani%M.%coreGivesNoEmail%2,     Villani%P. G.%coreGivesNoEmail%2,     Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>"Decreased Mortality of COVID-19 With Renin-Angiotensin-Aldosterone System Inhibitors Therapy in Patients With Hypertension"</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1, Yueli%Zhu%xref no email%1, Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,            Jiatian%Cao%NULL%1,            Yumeng%Yao%NULL%1,            Xuejuan%Jin%NULL%1,            Zhe%Luo%NULL%1,            Yuan%Xue%NULL%1,            Chouwen%Zhu%NULL%1,            Yanan%Song%NULL%1,            Ying%Wang%NULL%1,            Yunzeng%Zou%NULL%1,            Juying%Qian%NULL%1,            Kaihuan%Yu%NULL%1,            Hui%Gong%NULL%1,            Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,            Ju-Hyun%Kim%NULL%1,            Jin-Sung%Park%NULL%1,            Min Cheol%Chang%wheel633@ynu.ac.kr%1,            Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>"Age and Multimorbidity Predict Death Among COVID-19 Patients"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n            Several factors have been proposed to explain the high death rate of the coronavirus disease 2019 (COVID-19) outbreak, including hypertension and hypertension-related treatment with Renin Angiotensin System inhibitors.
+ Also, age and multimorbidity might be confounders.
+ No sufficient data are available to demonstrate their independent role.
+ We designed a cross-sectional, observational, multicenter, nationwide survey in Italy to verify whether renin-angiotensin system inhibitors are related to COVID-19 severe outcomes.
+ We analyzed information from Italian patients diagnosed with COVID-19, admitted in 26 hospitals.
+ One thousand five hundred ninety-one charts (male, 64.1%; 66\u00b10.4 years) were recorded.
+ At least 1 preexisting condition was observed in 73.4% of patients, with hypertension being the most represented (54.9%).
+ One hundred eighty-eight deaths were recorded (11.8%; mean age, 79.6\u00b10.9 years).
+ In nonsurvivors, older age, hypertension, diabetes mellitus, chronic obstructive pulmonary disease, chronic kidney disease, coronary artery diseases, and heart failure were more represented than in survivors.
+ The Charlson Comorbidity Index was significantly higher in nonsurvivors compared with survivors (4.3\u00b10.15 versus 2.6\u00b10.05;\n            P\n            &amp;lt;0.001).
+ ACE (angiotensin-converting enzyme) inhibitors, diuretics, and \u03b2-blockers were more frequently used in nonsurvivors than in survivors.
+ After correction by multivariate analysis, only age (\n            P\n            =0.0001), diabetes mellitus (\n            P\n            =0.004), chronic obstructive pulmonary disease (\n            P\n            =0.011), and chronic kidney disease (\n            P\n            =0.004) but not hypertension predicted mortality.
+ Charlson Comorbidity Index, which cumulates age and comorbidities, predicts mortality with an exponential increase in the odds ratio by each point of score.
+ In the COVID-19 outbreak, mortality is predicted by age and the presence of comorbidities.
+ Our data do not support a significant interference of hypertension and antihypertensive therapy on COVID-19 lethality.
+\n          \n          \n            Registration\u2014\n            \n              URL:\n              https:\/\/www.
+clinicaltrials.
+gov\n              ; Unique identifier: NCT04331574.\n            \n          </t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1, Guido%Grassi%xref no email%1, Claudio%Borghi%xref no email%1, Claudio%Ferri%xref no email%1, Massimo%Salvetti%xref no email%1, Massimo%Volpe%xref no email%1, Arrigo F.G.%Cicero%xref no email%1, Pietro%Minuz%xref no email%1, Maria Lorenza%Muiesan%xref no email%1, Paolo%Mulatero%xref no email%1, Giuseppe%Mul\u00e8%xref no email%1, Giacomo%Pucci%xref no email%1, Carmine%Savoia%xref no email%1, Leonardo%Sechi%xref no email%1, Stefano%Carugo%xref no email%1, Francesco%Fallo%xref no email%1, Cristina%Giannattasio%xref no email%1, Davide%Grassi%xref no email%1, Claudio%Letizia%xref no email%1, Stefano%Perlini%xref no email%1, Damiano%Rizzoni%xref no email%1, Riccardo%Sarzani%xref no email%1, Giuliano%Tocci%xref no email%1, Franco%Veglio%xref no email%1, Claudia%Agabiti Rosei%xref no email%1, Michele%Bevilacqua%xref no email%1, Valeria%Bisogni%xref no email%1, Michele%Bombelli%xref no email%1, Luca%Bulfone%xref no email%1, Flaminia%Canichella%xref no email%1, Giovanni%Carpani%xref no email%1, Massimo%Catanuso%xref no email%1, Giulia%Chiarini%xref no email%1, Fernando%Chiumiento%xref no email%1, Rosario%Cianci%xref no email%1, Franco%Cipollini%xref no email%1, Antonio%Concistr\u00e8%xref no email%1, Andrea%Dalbeni%xref no email%1, Roberto Alberto%De Blasi%xref no email%1, Carolina%De Ciuceis%xref no email%1, Raffaella%Dell\u2019Oro%xref no email%1, Antonino%Di Guardo%xref no email%1, Santo%Di Lorenzo%xref no email%1, Monica%Di Norcia%xref no email%1, Roberto%Ervo%xref no email%1, Elisabetta%Eula%xref no email%1, Davide%Fabbricatore%xref no email%1, Elvira%Fanelli%xref no email%1, Cristiano%Fava%xref no email%1, Enzo%Grasso%xref no email%1, Alessandro%Grimaldi%xref no email%1, Maddalena%Illario%xref no email%1, Claudio%Invernizzi%xref no email%1, Elena%Iraca%xref no email%1, Federica%Liegi%xref no email%1, Paolo%Malerba%xref no email%1, Alessandro%Maloberti%xref no email%1, Costantino%Mancusi%xref no email%1, Giulia%Molinari%xref no email%1, Roberta%Mussinelli%xref no email%1, Anna%Paini%xref no email%1, Paola%Pellimassi%xref no email%1, Ornella%Piazza%xref no email%1, Roberto%Pontremoli%xref no email%1, Fosca%Quarti Tevano%xref no email%1, Franco%Rabbia%xref no email%1, Monica%Rocco%xref no email%1, Anna%Sabena%xref no email%1, Francesco%Salinaro%xref no email%1, Paola%Schiavi%xref no email%1, Maria Chiara%Sgariglia%xref no email%1, Francesco%Spannella%xref no email%1, Sara%Tedeschi%xref no email%0, Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,            Raphael Romano%Bruno%NULL%1,            Bernhard%Wernly%NULL%1,            Michael%Joannidis%NULL%1,            Sandra%Oeyen%NULL%1,            Tilemachos%Zafeiridis%NULL%1,            Brian%Marsh%NULL%1,            Finn H%Andersen%NULL%1,            Rui%Moreno%NULL%1,            Ana Margarida%Fernandes%NULL%1,            Antonio%Artigas%NULL%1,            Bernardo Bollen%Pinto%NULL%1,            Joerg%Schefold%NULL%1,            Georg%Wolff%NULL%1,            Malte%Kelm%NULL%2,            Malte%Kelm%NULL%0,            Dylan W%De Lange%NULL%1,            Bertrand%Guidet%NULL%1,            Hans%Flaatten%NULL%1,            Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,            Jae Chol%Choi%NULL%1,            Seung-Hun%You%NULL%1,            Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,            Hamish%Reed-Embleton%NULL%2,            Hamish%Reed-Embleton%NULL%0,            Jen%Lewis%NULL%2,            Jen%Lewis%NULL%0,            Pamela%Bain%NULL%1,            Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,            Kenneth W%Chow%NULL%1,            Jonathan%Vo%NULL%1,            Wei%Hou%NULL%1,            Haifang%Li%NULL%1,            Paul S%Richman%NULL%1,            Sandeep K%Mallipattu%NULL%1,            Hal A%Skopicki%NULL%1,            Adam J%Singer%NULL%1,            Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>"Association of Renin-Angiotensin System Inhibitors With Severity or Risk of Death in Patients With Hypertension Hospitalized for Coronavirus Disease 2019 (COVID-19) Infection in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2, Xiufang%Wang%xref no email%2, Jian%Chen%xref no email%0, Hongmei%Zhang%xref no email%2, Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,            Julien%Moragny%NULL%2,            Julien%Moragny%NULL%0,            Youssef%Bennis%NULL%1,            Benjamin%Batteux%NULL%1,            Etienne%Brochot%NULL%1,            Jean Luc%Schmit%NULL%1,            Jean-Philippe%Lanoix%NULL%1,            Claire%Andrejak%NULL%1,            Olivier%Ganry%NULL%1,            Michel%Slama%NULL%1,            Julien%Maizel%NULL%1,            Yazine%Mahjoub%NULL%1,            Kamel%Masmoudi%NULL%1,            Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,            Yi%Liu%NULL%0,            Keliang%Chen%NULL%1,            Suying%Yan%NULL%1,            Xiangrong%Bai%NULL%1,            Juan%Li%947281063@qq.com%1,            Dong%Liu%ld2069@outlook.com%2,            Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,            Javier%López-Pais%NULL%1,            Carla Eugenia%Cacho-Antonio%NULL%1,            Pablo José%Antúnez-Muiños%NULL%1,            Teba%González-Ferrero%NULL%1,            Marta%Pérez-Poza%NULL%1,            Óscar%Otero-García%NULL%1,            Brais%Díaz-Fernández%NULL%1,            María%Bastos-Fernández%NULL%1,            Noelia%Bouzas-Cruz%NULL%1,            Xoan Carlos%Sanmartín-Pena%NULL%1,            Alfonso%Varela-Román%NULL%1,            Manuel%Portela-Romero%NULL%1,            Luis%Valdés-Cuadrado%NULL%1,            Antonio%Pose-Reino%NULL%1,            José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,            Federico%Rea%NULL%1,            Monica%Ludergnani%NULL%4,            Monica%Ludergnani%NULL%0,            Giovanni%Apolone%NULL%1,            Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,             Hisao%Ogawa%null%1,             Kazuo%Kimura%null%1,             Masaaki%Konishi%null%1,             Jin%Kirigaya%null%1,             Kazuki%Fukui%null%1,             Kengo%Tsukahara%null%1,             Hiroyuki%Shimizu%null%1,             Keisuke%Iwabuchi%null%1,             Yu%Yamada%null%1,             Kenichiro%Saka%null%1,             Ichiro%Takeuchi%null%1,             Toshio%Hirano%null%1,             Kouichi%Tamura%null%1,       Yasushi%Matsuzawa%null%1,       Hisao%Ogawa%null%1,       Kazuo%Kimura%null%1,       Masaaki%Konishi%null%1,       Jin%Kirigaya%null%1,       Kazuki%Fukui%null%1,       Kengo%Tsukahara%null%1,       Hiroyuki%Shimizu%null%1,       Keisuke%Iwabuchi%null%1,       Yu%Yamada%null%1,       Kenichiro%Saka%null%1,       Ichiro%Takeuchi%null%1,       Toshio%Hirano%null%1,       Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,            Guohui%Xiao%NULL%1,            Juanjuan%Zhang%NULL%1,            Xing%He%NULL%1,            Min%Ou%NULL%1,            Jing%Bi%NULL%1,            Rongqing%Yang%NULL%1,            Wencheng%Di%NULL%1,            Zhaoqin%Wang%NULL%1,            Zigang%Li%NULL%1,            Hong%Gao%NULL%1,            Lei%Liu%NULL%1,            Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,            Francisca%García-Iglesias%NULL%1,            Teresa%González-Alegre%NULL%1,            Francisco%Blanco%NULL%1,            Marta%Varas%NULL%1,            Clara%Hernández-Blanco%NULL%1,            Victor%Hontañón%NULL%1,            María J.%Jaras-Hernández%NULL%1,            Mónica%Martínez-Prieto%NULL%1,            Araceli%Menéndez-Saldaña%NULL%1,            María L.%Cachán%NULL%1,            Eva%Estirado%NULL%1,            Carlos%Lahoz%NULL%1,            Rosa%de Miguel%NULL%1,            Miriam%Romero%NULL%1,            Mar%Lago%NULL%1,            Cristina%García-Quero%NULL%1,            Cristina%Plaza%NULL%1,            Talía%Sainz-Costa%NULL%1,            Susana%Rivas-Vila%NULL%1,            Blanca%Sánchez%NULL%1,            Celia García%Torres%NULL%1,            Lucía%Martínez-Tobar%NULL%1,            María%Hernandez-Pérez%NULL%1,            Pablo%Racionero%NULL%1,            Patricia%Mir-Ihara%NULL%1,            Jesús%Peña-López%NULL%1,            Marta%Bautista-Barea%NULL%1,            Alexa P.%Benítez%NULL%1,            Pablo%Rodríguez-Merlos%NULL%1,            María%Barcenilla%NULL%1,            María San%Basilio%NULL%1,            María%Valencia%NULL%1,            Ricardo%Romero-Martín%NULL%1,            Ana%Boto de los Bueis%NULL%1,            Adriana%de la Hoz-Polo%NULL%1,            María%del Pino-Cidad%NULL%1,            Javier%Coca-Robinot%NULL%1,            Bárbara%González-Ferrer%NULL%1,            Pedro%Fernández-Pérez%NULL%1,            Isabel%Mogollón%NULL%1,            María S.%Montoro-Romero%NULL%1,            Isabel%Villalaín%NULL%1,            Almudena%del Hierro-Zarzuelo%NULL%1,            Irene%Hernández-Martín%NULL%1,            Javier%Domínguez%NULL%1,            Alberto%Luna%NULL%1,            Soledad%Montoro%NULL%1,            Margarita%Sánchez-Orgaz%NULL%1,            Gloria%Amorena%NULL%1,            Cosme%Lavín-Dapena%NULL%1,            Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,            Stanislas%Gleye%NULL%1,            Isabelle%Clerc Urmes%NULL%1,            Elodie%Laugel%NULL%1,            Jonas%Callet%NULL%1,            Françoise%Barbé%NULL%1,            Sophie%Orlowski%NULL%1,            Catherine%Malaplate%NULL%1,            Isabelle%Aimone-Gastin%NULL%1,            Beatrice Maatem%Caillierez%NULL%1,            Marc%Merten%NULL%1,            Elise%Jeannesson%NULL%1,            Raphaël%Kormann%NULL%1,            Jean-Luc%Olivier%NULL%1,            Rosa-Maria%Rodriguez-Guéant%NULL%1,            Farès%Namour%NULL%1,            Sybille%Bevilacqua%NULL%1,            Marie-Reine%Losser%NULL%1,            Bruno%Levy%NULL%1,            Antoine%Kimmoun%NULL%1,            Sébastien%Gibot%NULL%1,            Nathalie%Thilly%NULL%1,            Luc%Frimat%NULL%1,            Evelyne%Schvoerer%NULL%1,            Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Clinical Features of COVID-19 in Patients With Essential Hypertension and the Impacts of Renin-angiotensin-aldosterone System Inhibitors on the Prognosis of COVID-19 Patients"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n            Hypertension is one of the most common comorbidities in patients with coronavirus disease 2019 (COVID-19).
+ This study aimed to clarify the impact of hypertension on COVID-19 and investigate whether the prior use of renin-angiotensin-aldosterone system (RAAS) inhibitors affects the prognosis of COVID-19. A total of 996 patients with COVID-19 were enrolled, including 282 patients with hypertension and 714 patients without hypertension.
+ Propensity score-matched analysis (1:1 matching) was used to adjust the imbalanced baseline variables between the 2 groups.
+ Patients with hypertension were further divided into the RAAS inhibitor group (n=41) and non-RAAS inhibitor group (n=241) according to their medication history.
+ The results showed that COVID-19 patients with hypertension had more severe secondary infections, cardiac and renal dysfunction, and depletion of CD8\n            +\n            cells on admission.
+ Patients with hypertension were more likely to have comorbidities and complications and were more likely to be classified as critically ill than those without hypertension.
+ Cox regression analysis revealed that hypertension (hazard ratio, 95% CI, unmatched cohort [1.80, 1.20\u20132.70]; matched cohort [2.24, 1.36\u20133.70]) was independently associated with all-cause mortality in patients with COVID-19. In addition, hypertensive patients with a history of RAAS inhibitor treatment had lower levels of C-reactive protein and higher levels of CD4\n            +\n            cells.
+ The mortality of patients in the RAAS inhibitor group (9.8% versus 26.1%) was significantly lower than that of patients in the non-RAAS inhibitor group.
+ In conclusion, hypertension may be an independent risk factor for all-cause mortality in patients with COVID-19. Patients who previously used RAAS inhibitors may have a better prognosis.
+\n          </t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2, Jishou%Zhang%xref no email%2, Menglong%Wang%xref no email%2, Jing%Ye%xref no email%2, Yao%Xu%xref no email%2, Bo%Shen%xref no email%2, Hua%He%xref no email%2, Zhen%Wang%xref no email%2, Di%Ye%xref no email%2, Mengmeng%Zhao%xref no email%2, Zhen%Luo%xref no email%2, Mingxiao%Liu%xref no email%2, Pingan%Zhang%xref no email%2, Jian%Gu%xref no email%2, Menglin%Liu%xref no email%2, Dan%Li%xref no email%2, Jianfang%Liu%xref no email%2, Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,            Samrachana%Adhikari%NULL%1,            Claudia%Pulgarin%NULL%1,            Andrea B.%Troxel%NULL%1,            Eduardo%Iturrate%NULL%1,            Stephen B.%Johnson%NULL%1,            Anaïs%Hausvater%NULL%1,            Jonathan D.%Newman%NULL%1,            Jeffrey S.%Berger%NULL%1,            Sripal%Bangalore%NULL%1,            Stuart D.%Katz%NULL%1,            Glenn I.%Fishman%NULL%1,            Dennis%Kunichoff%NULL%1,            Yu%Chen%NULL%1,            Gbenga%Ogedegbe%NULL%1,            Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,     Becker%L.B.%coreGivesNoEmail%3,     Chelico%J.D.%coreGivesNoEmail%3,     Cohen%S.L.%coreGivesNoEmail%3,     Cookingham%J.%coreGivesNoEmail%3,     Coppa%K.%coreGivesNoEmail%3,     Crawford%J.M.%coreGivesNoEmail%3,     Davidson%K.W.%coreGivesNoEmail%3,     Diefenbach%M.A.%coreGivesNoEmail%3,     Dominello%A.J.%coreGivesNoEmail%3,     Duer-Hefele%J.%coreGivesNoEmail%3,     Falzon%L.%coreGivesNoEmail%3,     Gitlin%J.%coreGivesNoEmail%3,     Hajizadeh%N.%coreGivesNoEmail%3,     Harvin%T.G.%coreGivesNoEmail%3,     Hirsch%J.S.%coreGivesNoEmail%3,     Hirschwerk%D.A.%coreGivesNoEmail%3,     Kim%E.J.%coreGivesNoEmail%3,     Kozel%Z.M.%coreGivesNoEmail%3,     Marrast%L.M.%coreGivesNoEmail%3,     McGinn%T.%coreGivesNoEmail%3,     Mogavero%J.N.%coreGivesNoEmail%3,     Narasimhan%M.%coreGivesNoEmail%3,     Osorio%G.A.%coreGivesNoEmail%3,     Qiu%M.%coreGivesNoEmail%3,     Richardson%S.%coreGivesNoEmail%3,     Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,            Massimiliano%Marino%NULL%3,            Debora%Formisano%NULL%1,            Francesco%Venturelli%NULL%1,            Massimo%Vicentini%NULL%3,            Massimo%Vicentini%NULL%0,            Roberto%Grilli%NULL%2,            NULL%NULL%NULL%0,            Gianluigi%Forloni%NULL%8,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,            Paolo%Maggi%NULL%2,            Paolo%Maggi%NULL%0,            Vincenzo%Messina%NULL%1,            Pasquale%Iuliano%NULL%2,            Pasquale%Iuliano%NULL%0,            Antonio%Sardu%NULL%1,            Vincenzo%Iovinella%NULL%1,            Giuseppe%Paolisso%NULL%1,            Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,            Rasimcan%Meral%NULL%1,            Alpay%Medetalibeyoğlu%NULL%1,            Hilal%Konyaoğlu%NULL%1,            Murat%Köse%NULL%1,            Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Baseline use of angiotensin-converting enzyme inhibitor\/AT1 blocker and outcomes in hospitalized coronavirus disease 2019 African-American patients"</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%0, Jack%Owens%xref no email%1, James%Franklin%xref no email%1, Yash%Jani%xref no email%1, Ashish%Kumar%xref no email%1, Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,            Yun%Qiu%NULL%1,            Xiang-Bin%Xing%NULL%1,            Subrata%Ghosh%NULL%1,            Min-Hu%Chen%NULL%1,            Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%2,            Maddalena%Giannella%NULL%1,            Michele%Bartoletti%NULL%1,            Filippo%Trapani%NULL%1,            Marina%Tadolini%NULL%1,            Claudio%Borghi%NULL%1,            Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,            Marco%Massari%NULL%3,            Marco%Massari%NULL%0,            Roberto%Da Cas%NULL%2,            Francesca%Menniti Ippolito%NULL%2,            Janet%Sultana%NULL%2,            Salvatore%Crisafulli%NULL%2,            Paolo%Giorgi Rossi%NULL%2,            Massimiliano%Marino%NULL%0,            Manuel%Zorzi%NULL%2,            Emanuela%Bovo%NULL%2,            Olivia%Leoni%NULL%2,            Monica%Ludergnani%NULL%0,            Stefania%Spila Alegiani%stefania.spila@iss.it%2,            Stefania%Spila Alegiani%NULL%0,            Francesca%Menniti Ippolito%NULL%0,            Roberto%Da Cas%NULL%0,            Marco%Massari%NULL%0,            Giuseppe%Traversa%NULL%1,            Graziano%Onder%NULL%1,            Gianluca%Trifirò%NULL%1,            Janet%Sultana%NULL%0,            Valentina%Ientile%NULL%1,            Salvatore%Crisafulli%NULL%0,            Paolo%Giorgi Rossi%NULL%0,            Roberto%Grilli%NULL%0,            Giulio%Formoso%NULL%1,            Massimiliano%Marino%NULL%0,            Massimo%Vicentini%NULL%0,            Olivia%Leoni%NULL%0,            Monica%Ludergnani%NULL%0,            Danilo%Cereda%NULL%1,            Eliana%Ferroni%NULL%1,            Stefano%Guzzinati%NULL%1,            Emanuela%Bovo%NULL%0,            Manuel%Zorzi%NULL%0,            Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,            Chaolin%Huang%NULL%1,            Guohui%Fan%NULL%1,            Zhibo%Liu%NULL%1,            Lianhan%Shang%NULL%1,            Fei%Zhou%NULL%1,            Yeming%Wang%NULL%1,            Jiapei%Yu%NULL%1,            Luning%Yang%NULL%1,            Ke%Xie%NULL%1,            Zhisheng%Huang%NULL%1,            Lixue%Huang%NULL%1,            Xiaoying%Gu%NULL%1,            Hui%Li%NULL%1,            Yi%Zhang%NULL%0,            Yimin%Wang%NULL%1,            Frederick G.%Hayden%NULL%1,            Peter W.%Horby%NULL%1,            Bin%Cao%caobin_ben@163.com%1,            Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>"Effects of Angiotensin II Receptor Blockers and ACE (Angiotensin-Converting Enzyme) Inhibitors on Virus Infection, Inflammatory Status, and Clinical Outcomes in Patients With COVID-19 and Hypertension"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n            With the capability of inducing elevated expression of ACE2 (angiotensin-converting enzyme 2), the cellular receptor for severe acute respiratory syndrome coronavirus 2, angiotensin II receptor blockers (ARBs) or ACE inhibitors treatment may have a controversial role in both facilitating virus infection and reducing pathogenic inflammation.
+ We aimed to evaluate the effects of ARBs\/ACE inhibitors on coronavirus disease 2019 (COVID-19) in a retrospective, single-center study.
+ One hundred twenty-six patients with COVID-19 and preexisting hypertension at Hubei Provincial Hospital of Traditional Chinese Medicine in Wuhan from January 5 to February 22, 2020, were retrospectively allocated to ARBs\/ACE inhibitors group (n=43) and non-ARBs\/ACE inhibitors group (n=83) according to their antihypertensive medication.
+ One hundred twenty-five age- and sex-matched patients with COVID-19 without hypertension were randomly selected as nonhypertension controls.
+ In addition, the medication history of 1942 patients with hypertension that were admitted to Hubei Provincial Hospital of Traditional Chinese Medicine from November 1 to December 31, 2019, before the COVID-19 outbreak were also reviewed for external comparison.
+ Epidemiological, demographic, clinical, and laboratory data were collected, analyzed, and compared between these groups.
+ The frequency of ARBs\/ACE inhibitors usage in patients with hypertension with or without COVID-19 were comparable.
+ Among patients with COVID-19 and hypertension, those received either ARBs\/ACE inhibitors or non-ARBs\/ACE inhibitors had comparable blood pressure.
+ However, ARBs\/ACE inhibitors group had significantly lower concentrations of hs-CRP (high-sensitivity C-reactive protein;\n            P\n            =0.049) and PCT (procalcitonin,\n            P\n            =0.008).
+ Furthermore, a lower proportion of critical patients (9.3% versus 22.9%;\n            P\n            =0.061) and a lower death rate (4.7% versus 13.3%;\n            P\n            =0.216) were observed in ARBs\/ACE inhibitors group than non-ARBs\/ACE inhibitors group, although these differences failed to reach statistical significance.
+ Our findings thus support the use of ARBs\/ACE inhibitors in patients with COVID-19 and preexisting hypertension.
+\n          </t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3, Zihu%Tan%xref no email%3, Ling%Zhou%xref no email%3, Min%Yang%xref no email%3, Lang%Peng%xref no email%3, Jinjin%Liu%xref no email%3, Jingling%Cai%xref no email%3, Ru%Yang%xref no email%3, Junyan%Han%xref no email%3, Yafei%Huang%xref no email%3, Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,            Dan%Liu%NULL%1,            Shaoqing%Zeng%NULL%1,            Siyuan%Wang%NULL%1,            Sen%Xu%NULL%1,            Ya%Wang%NULL%1,            Ruidi%Yu%NULL%1,            Yue%Gao%NULL%1,            Huayi%Li%NULL%1,            Xinxia%Feng%NULL%1,            Ning%Zhou%NULL%0,            Chunxia%Zhao%NULL%1,            Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%4,            Lihua%Zhu%NULL%1,            Jingjing%Cai%NULL%1,            Fang%Lei%NULL%1,            Juan-Juan%Qin%NULL%1,            Jing%Xie%NULL%1,            Ye-Mao%Liu%NULL%1,            Yan-Ci%Zhao%NULL%1,            Xuewei%Huang%NULL%1,            Lijin%Lin%NULL%1,            Meng%Xia%NULL%1,            Ming-Ming%Chen%NULL%1,            Xu%Cheng%NULL%1,            Xiao%Zhang%NULL%1,            Deliang%Guo%NULL%1,            Yuanyuan%Peng%NULL%1,            Yan-Xiao%Ji%NULL%1,            Jing%Chen%NULL%1,            Zhi-Gang%She%NULL%1,            Yibin%Wang%NULL%0,            Qingbo%Xu%NULL%1,            Renfu%Tan%NULL%1,            Haitao%Wang%NULL%1,            Jun%Lin%NULL%1,            Pengcheng%Luo%NULL%1,            Shouzhi%Fu%NULL%1,            Hongbin%Cai%NULL%1,            Ping%Ye%NULL%1,            Bing%Xiao%NULL%1,            Weiming%Mao%NULL%1,            Liming%Liu%NULL%1,            Youqin%Yan%NULL%1,            Mingyu%Liu%NULL%1,            Manhua%Chen%NULL%1,            Xiao-Jing%Zhang%NULL%1,            Xinghuan%Wang%NULL%1,            Rhian M.%Touyz%NULL%1,            Jiahong%Xia%NULL%1,            Bing-Hong%Zhang%NULL%1,            Xiaodong%Huang%NULL%1,            Yufeng%Yuan%NULL%1,            Rohit%Loomba%NULL%1,            Peter P.%Liu%NULL%1,            Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,             Sandra%Santos-Martinez%NULL%1,             Diego%López-Otero%NULL%1,             Luis%Nombela-Franco%NULL%1,             Enrique%Gutiérrez-Ibanes%NULL%1,             Raquel%Del Valle%NULL%1,             Erika%Muñoz-García%NULL%1,             Víctor A.%Jiménez-Diaz%NULL%1,             Ander%Regueiro%NULL%1,             Rocío%González-Ferreiro%NULL%1,             Tomás%Benito%NULL%1,             Xoan Carlos%Sanmartin-Pena%NULL%1,             Pablo%Catalá%NULL%1,             Tania%Rodríguez-Gabella%NULL%1,             Jose Raúl%Delgado-Arana%NULL%1,             Manuel%Carrasco-Moraleja%NULL%1,             Borja%Ibañez%NULL%1,             J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,             David M.%Tehrani%NULL%1,             Soniya V.%Rabadia%NULL%1,             Marlene%Frost%NULL%1,             Rushi V.%Parikh%NULL%1,             Marcella%Calfon-Press%NULL%1,             Olcay%Aksoy%NULL%1,             Soban%Umar%NULL%1,             Reza%Ardehali%NULL%1,             Amir%Rabbani%NULL%1,             Pooya%Bokhoor%NULL%1,             Ali%Nsair%NULL%1,             Jesse%Currier%NULL%1,             Jonathan%Tobis%NULL%1,             Gregg C.%Fonarow%NULL%1,             Ravi%Dave%NULL%1,             Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,             Zeljko%Kraljevic%NULL%1,             Thomas%Searle%NULL%1,             Rebecca%Bendayan%NULL%1,             O'Gallagher%Kevin%NULL%1,             Andrew%Pickles%NULL%1,             Amos%Folarin%NULL%1,             Lukasz%Roguski%NULL%1,             Kawsar%Noor%NULL%1,             Anthony%Shek%NULL%1,             Rosita%Zakeri%NULL%1,             Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,             James T.H.%Teo%jamesteo@nhs.net%1,             Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,             Mauro%Chiarito%NULL%1,             Bernhard%Reimers%NULL%2,             Bernhard%Reimers%NULL%0,             Elena%Azzolini%NULL%1,             Giuseppe%Ferrante%NULL%1,             Ilaria%My%NULL%1,             Giacomo%Viggiani%NULL%1,             Cristina%Panico%NULL%1,             Damiano%Regazzoli%NULL%1,             Michele%Ciccarelli%NULL%1,             Antonio%Voza%NULL%1,             Alessio%Aghemo%NULL%1,             Hongliang%Li%NULL%2,             Yibin%Wang%NULL%2,             Gianluigi%Condorelli%NULL%1,             Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,             Feng%Wang%NULL%1,             Peng%Chen%NULL%1,             Jiangang%Jiang%NULL%1,             Guanglin%Cui%NULL%1,             Ning%Zhou%NULL%2,             Francesco%Moroni%NULL%1,             Javid J.%Moslehi%NULL%1,             Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,             Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,             Ming%Zhong%NULL%1,             Ya%Liu%NULL%1,             Yi%Zhang%NULL%2,             Kai%Zhang%NULL%1,             De-zhen%Su%NULL%1,             Xiao%Meng%NULL%1,             Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,  Dong%Yang%xref no email%2,  Biao%Cheng%xref no email%2,  Jian%Chen%xref no email%4,  Anlin%Peng%xref no email%2,  Chen%Yang%xref no email%2,  Chong%Liu%xref no email%2,  Mingrui%Xiong%xref no email%2,  Aiping%Deng%xref no email%4,  Yu%Zhang%xref no email%2,  Ling%Zheng%xref no email%2,  Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,             Duncan%Young%NULL%2,             Duncan%Young%NULL%0,             Carol%Coupland%NULL%1,             Keith M%Channon%NULL%1,             Pui San%Tan%NULL%1,             David A%Harrison%NULL%1,             Kathryn%Rowan%NULL%2,             Kathryn%Rowan%NULL%0,             Paul%Aveyard%NULL%1,             Ian D%Pavord%NULL%1,             Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,      Butt%Jawad H%coreGivesNoEmail%1,      Fosb\u00f8l%Emil L%coreGivesNoEmail%1,      Gerds%Thomas A%coreGivesNoEmail%1,      Gislason%Gunnar H%coreGivesNoEmail%1,      Kragholm%Kristian%coreGivesNoEmail%1,      K\u00f8ber%Lars%coreGivesNoEmail%1,      Phelps%Matthew%coreGivesNoEmail%1,      Schou%Morten%coreGivesNoEmail%1,      Selmer%Christian%coreGivesNoEmail%1,      Torp-Pedersen%Christian%coreGivesNoEmail%1,      \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,             Yue%Cai%NULL%1,             Kan%Zhang%NULL%2,             Kan%Zhang%NULL%0,             Lei%Zhou%NULL%1,             Yao%Zhang%NULL%1,             Xijing%Zhang%NULL%1,             Qi%Li%NULL%1,             Weiqin%Li%NULL%1,             Shiming%Yang%NULL%1,             Xiaoyan%Zhao%NULL%1,             Yuying%Zhao%NULL%1,             Hui%Wang%NULL%1,             Yi%Liu%NULL%2,             Zhiyong%Yin%NULL%1,             Ruining%Zhang%NULL%1,             Rutao%Wang%NULL%1,             Ming%Yang%NULL%1,             Chen%Hui%NULL%1,             William%Wijns%NULL%1,             J William%McEvoy%NULL%1,             Osama%Soliman%NULL%2,             Osama%Soliman%NULL%0,             Yoshinobu%Onuma%NULL%2,             Yoshinobu%Onuma%NULL%0,             Patrick W%Serruys%NULL%1,             Ling%Tao%lingtao@fmmu.edu.cn%1,             Fei%Li%lifei01@fmmu.edu.cn%2,             Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,             Erkan%Ekicibasi%NULL%1,             Aleks%Degirmencioglu%NULL%1,             Ashok%Paudel%NULL%1,             Refik%Erdim%NULL%1,             Hilal Kurtoglu%Gumusel%NULL%1,             Elif%Eroglu%NULL%1,             Ibrahim Halil%Tanboga%NULL%1,             Sinan%Dagdelen%NULL%1,             Nevin%Sariguzel%NULL%1,             Ceyda Erel%Kirisoglu%NULL%1,             Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,      Antonelli%M.%coreGivesNoEmail%2,      Bellani%G.%coreGivesNoEmail%2,      Bonanomi%E.%coreGivesNoEmail%2,      Cabrini%L.%coreGivesNoEmail%2,      Carlesso%E.%coreGivesNoEmail%2,      Castelli%G.%coreGivesNoEmail%2,      Cattaneo%S.%coreGivesNoEmail%2,      Cecconi%M.%coreGivesNoEmail%2,      Cereda%D.%coreGivesNoEmail%2,      Colombo%S.%coreGivesNoEmail%2,      Coluccello%A.%coreGivesNoEmail%2,      Crescini%G.%coreGivesNoEmail%2,      Forastieri%Molinari A.%coreGivesNoEmail%2,      Foti%G.%coreGivesNoEmail%2,      Fumagalli%R.%coreGivesNoEmail%2,      Grasselli%G.%coreGivesNoEmail%2,      Greco%M.%coreGivesNoEmail%2,      Iotti%G. A.%coreGivesNoEmail%2,      Langer%T.%coreGivesNoEmail%2,      Latronico%N.%coreGivesNoEmail%2,      Lorini%F. L.%coreGivesNoEmail%2,      Mojoli%F.%coreGivesNoEmail%2,      Natalini%G.%coreGivesNoEmail%2,      Pesenti%A.%coreGivesNoEmail%2,      Pessina%C. M.%coreGivesNoEmail%2,      Ranieri%V. M.%coreGivesNoEmail%2,      Rech%R.%coreGivesNoEmail%2,      Rosano%A.%coreGivesNoEmail%2,      Scudeller%L.%coreGivesNoEmail%2,      Storti%E.%coreGivesNoEmail%2,      Thompson%B. T.%coreGivesNoEmail%2,      Tirani%M.%coreGivesNoEmail%2,      Villani%P. G.%coreGivesNoEmail%2,      Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,  Yueli%Zhu%xref no email%1,  Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,             Jiatian%Cao%NULL%1,             Yumeng%Yao%NULL%1,             Xuejuan%Jin%NULL%1,             Zhe%Luo%NULL%1,             Yuan%Xue%NULL%1,             Chouwen%Zhu%NULL%1,             Yanan%Song%NULL%1,             Ying%Wang%NULL%1,             Yunzeng%Zou%NULL%1,             Juying%Qian%NULL%1,             Kaihuan%Yu%NULL%1,             Hui%Gong%NULL%1,             Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,             Ju-Hyun%Kim%NULL%1,             Jin-Sung%Park%NULL%1,             Min Cheol%Chang%wheel633@ynu.ac.kr%1,             Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,  Guido%Grassi%xref no email%1,  Claudio%Borghi%xref no email%1,  Claudio%Ferri%xref no email%1,  Massimo%Salvetti%xref no email%1,  Massimo%Volpe%xref no email%1,  Arrigo F.G.%Cicero%xref no email%1,  Pietro%Minuz%xref no email%1,  Maria Lorenza%Muiesan%xref no email%1,  Paolo%Mulatero%xref no email%1,  Giuseppe%Mul\u00e8%xref no email%1,  Giacomo%Pucci%xref no email%1,  Carmine%Savoia%xref no email%1,  Leonardo%Sechi%xref no email%1,  Stefano%Carugo%xref no email%1,  Francesco%Fallo%xref no email%1,  Cristina%Giannattasio%xref no email%1,  Davide%Grassi%xref no email%1,  Claudio%Letizia%xref no email%1,  Stefano%Perlini%xref no email%1,  Damiano%Rizzoni%xref no email%1,  Riccardo%Sarzani%xref no email%1,  Giuliano%Tocci%xref no email%1,  Franco%Veglio%xref no email%1,  Claudia%Agabiti Rosei%xref no email%1,  Michele%Bevilacqua%xref no email%1,  Valeria%Bisogni%xref no email%1,  Michele%Bombelli%xref no email%1,  Luca%Bulfone%xref no email%1,  Flaminia%Canichella%xref no email%1,  Giovanni%Carpani%xref no email%1,  Massimo%Catanuso%xref no email%1,  Giulia%Chiarini%xref no email%1,  Fernando%Chiumiento%xref no email%1,  Rosario%Cianci%xref no email%1,  Franco%Cipollini%xref no email%1,  Antonio%Concistr\u00e8%xref no email%1,  Andrea%Dalbeni%xref no email%1,  Roberto Alberto%De Blasi%xref no email%1,  Carolina%De Ciuceis%xref no email%1,  Raffaella%Dell\u2019Oro%xref no email%1,  Antonino%Di Guardo%xref no email%1,  Santo%Di Lorenzo%xref no email%1,  Monica%Di Norcia%xref no email%1,  Roberto%Ervo%xref no email%1,  Elisabetta%Eula%xref no email%1,  Davide%Fabbricatore%xref no email%1,  Elvira%Fanelli%xref no email%1,  Cristiano%Fava%xref no email%1,  Enzo%Grasso%xref no email%1,  Alessandro%Grimaldi%xref no email%1,  Maddalena%Illario%xref no email%1,  Claudio%Invernizzi%xref no email%1,  Elena%Iraca%xref no email%1,  Federica%Liegi%xref no email%1,  Paolo%Malerba%xref no email%1,  Alessandro%Maloberti%xref no email%1,  Costantino%Mancusi%xref no email%1,  Giulia%Molinari%xref no email%1,  Roberta%Mussinelli%xref no email%1,  Anna%Paini%xref no email%1,  Paola%Pellimassi%xref no email%1,  Ornella%Piazza%xref no email%1,  Roberto%Pontremoli%xref no email%1,  Fosca%Quarti Tevano%xref no email%1,  Franco%Rabbia%xref no email%1,  Monica%Rocco%xref no email%1,  Anna%Sabena%xref no email%1,  Francesco%Salinaro%xref no email%1,  Paola%Schiavi%xref no email%1,  Maria Chiara%Sgariglia%xref no email%1,  Francesco%Spannella%xref no email%1,  Sara%Tedeschi%xref no email%1,  Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,             Raphael Romano%Bruno%NULL%1,             Bernhard%Wernly%NULL%1,             Michael%Joannidis%NULL%1,             Sandra%Oeyen%NULL%1,             Tilemachos%Zafeiridis%NULL%1,             Brian%Marsh%NULL%1,             Finn H%Andersen%NULL%1,             Rui%Moreno%NULL%1,             Ana Margarida%Fernandes%NULL%1,             Antonio%Artigas%NULL%1,             Bernardo Bollen%Pinto%NULL%1,             Joerg%Schefold%NULL%1,             Georg%Wolff%NULL%1,             Malte%Kelm%NULL%2,             Malte%Kelm%NULL%0,             Dylan W%De Lange%NULL%1,             Bertrand%Guidet%NULL%1,             Hans%Flaatten%NULL%1,             Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,             Jae Chol%Choi%NULL%1,             Seung-Hun%You%NULL%1,             Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,             Hamish%Reed-Embleton%NULL%2,             Hamish%Reed-Embleton%NULL%0,             Jen%Lewis%NULL%2,             Jen%Lewis%NULL%0,             Pamela%Bain%NULL%1,             Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,             Kenneth W%Chow%NULL%1,             Jonathan%Vo%NULL%1,             Wei%Hou%NULL%1,             Haifang%Li%NULL%1,             Paul S%Richman%NULL%1,             Sandeep K%Mallipattu%NULL%1,             Hal A%Skopicki%NULL%1,             Adam J%Singer%NULL%1,             Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,  Xiufang%Wang%xref no email%2,  Jian%Chen%xref no email%0,  Hongmei%Zhang%xref no email%2,  Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,             Julien%Moragny%NULL%2,             Julien%Moragny%NULL%0,             Youssef%Bennis%NULL%1,             Benjamin%Batteux%NULL%1,             Etienne%Brochot%NULL%1,             Jean Luc%Schmit%NULL%1,             Jean-Philippe%Lanoix%NULL%1,             Claire%Andrejak%NULL%1,             Olivier%Ganry%NULL%1,             Michel%Slama%NULL%1,             Julien%Maizel%NULL%1,             Yazine%Mahjoub%NULL%1,             Kamel%Masmoudi%NULL%1,             Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,             Yi%Liu%NULL%0,             Keliang%Chen%NULL%1,             Suying%Yan%NULL%1,             Xiangrong%Bai%NULL%1,             Juan%Li%947281063@qq.com%1,             Dong%Liu%ld2069@outlook.com%2,             Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,             Javier%López-Pais%NULL%1,             Carla Eugenia%Cacho-Antonio%NULL%1,             Pablo José%Antúnez-Muiños%NULL%1,             Teba%González-Ferrero%NULL%1,             Marta%Pérez-Poza%NULL%1,             Óscar%Otero-García%NULL%1,             Brais%Díaz-Fernández%NULL%1,             María%Bastos-Fernández%NULL%1,             Noelia%Bouzas-Cruz%NULL%1,             Xoan Carlos%Sanmartín-Pena%NULL%1,             Alfonso%Varela-Román%NULL%1,             Manuel%Portela-Romero%NULL%1,             Luis%Valdés-Cuadrado%NULL%1,             Antonio%Pose-Reino%NULL%1,             José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,             Federico%Rea%NULL%1,             Monica%Ludergnani%NULL%4,             Monica%Ludergnani%NULL%0,             Giovanni%Apolone%NULL%1,             Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,              Hisao%Ogawa%null%1,              Kazuo%Kimura%null%1,              Masaaki%Konishi%null%1,              Jin%Kirigaya%null%1,              Kazuki%Fukui%null%1,              Kengo%Tsukahara%null%1,              Hiroyuki%Shimizu%null%1,              Keisuke%Iwabuchi%null%1,              Yu%Yamada%null%1,              Kenichiro%Saka%null%1,              Ichiro%Takeuchi%null%1,              Toshio%Hirano%null%1,              Kouichi%Tamura%null%1,        Yasushi%Matsuzawa%null%1,        Hisao%Ogawa%null%1,        Kazuo%Kimura%null%1,        Masaaki%Konishi%null%1,        Jin%Kirigaya%null%1,        Kazuki%Fukui%null%1,        Kengo%Tsukahara%null%1,        Hiroyuki%Shimizu%null%1,        Keisuke%Iwabuchi%null%1,        Yu%Yamada%null%1,        Kenichiro%Saka%null%1,        Ichiro%Takeuchi%null%1,        Toshio%Hirano%null%1,        Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,             Guohui%Xiao%NULL%1,             Juanjuan%Zhang%NULL%1,             Xing%He%NULL%1,             Min%Ou%NULL%1,             Jing%Bi%NULL%1,             Rongqing%Yang%NULL%1,             Wencheng%Di%NULL%1,             Zhaoqin%Wang%NULL%1,             Zigang%Li%NULL%1,             Hong%Gao%NULL%1,             Lei%Liu%NULL%1,             Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,             Francisca%García-Iglesias%NULL%1,             Teresa%González-Alegre%NULL%1,             Francisco%Blanco%NULL%1,             Marta%Varas%NULL%1,             Clara%Hernández-Blanco%NULL%1,             Victor%Hontañón%NULL%1,             María J.%Jaras-Hernández%NULL%1,             Mónica%Martínez-Prieto%NULL%1,             Araceli%Menéndez-Saldaña%NULL%1,             María L.%Cachán%NULL%1,             Eva%Estirado%NULL%1,             Carlos%Lahoz%NULL%1,             Rosa%de Miguel%NULL%1,             Miriam%Romero%NULL%1,             Mar%Lago%NULL%1,             Cristina%García-Quero%NULL%1,             Cristina%Plaza%NULL%1,             Talía%Sainz-Costa%NULL%1,             Susana%Rivas-Vila%NULL%1,             Blanca%Sánchez%NULL%1,             Celia García%Torres%NULL%1,             Lucía%Martínez-Tobar%NULL%1,             María%Hernandez-Pérez%NULL%1,             Pablo%Racionero%NULL%1,             Patricia%Mir-Ihara%NULL%1,             Jesús%Peña-López%NULL%1,             Marta%Bautista-Barea%NULL%1,             Alexa P.%Benítez%NULL%1,             Pablo%Rodríguez-Merlos%NULL%1,             María%Barcenilla%NULL%1,             María San%Basilio%NULL%1,             María%Valencia%NULL%1,             Ricardo%Romero-Martín%NULL%1,             Ana%Boto de los Bueis%NULL%1,             Adriana%de la Hoz-Polo%NULL%1,             María%del Pino-Cidad%NULL%1,             Javier%Coca-Robinot%NULL%1,             Bárbara%González-Ferrer%NULL%1,             Pedro%Fernández-Pérez%NULL%1,             Isabel%Mogollón%NULL%1,             María S.%Montoro-Romero%NULL%1,             Isabel%Villalaín%NULL%1,             Almudena%del Hierro-Zarzuelo%NULL%1,             Irene%Hernández-Martín%NULL%1,             Javier%Domínguez%NULL%1,             Alberto%Luna%NULL%1,             Soledad%Montoro%NULL%1,             Margarita%Sánchez-Orgaz%NULL%1,             Gloria%Amorena%NULL%1,             Cosme%Lavín-Dapena%NULL%1,             Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,             Stanislas%Gleye%NULL%1,             Isabelle%Clerc Urmes%NULL%1,             Elodie%Laugel%NULL%1,             Jonas%Callet%NULL%1,             Françoise%Barbé%NULL%1,             Sophie%Orlowski%NULL%1,             Catherine%Malaplate%NULL%1,             Isabelle%Aimone-Gastin%NULL%1,             Beatrice Maatem%Caillierez%NULL%1,             Marc%Merten%NULL%1,             Elise%Jeannesson%NULL%1,             Raphaël%Kormann%NULL%1,             Jean-Luc%Olivier%NULL%1,             Rosa-Maria%Rodriguez-Guéant%NULL%1,             Farès%Namour%NULL%1,             Sybille%Bevilacqua%NULL%1,             Marie-Reine%Losser%NULL%1,             Bruno%Levy%NULL%1,             Antoine%Kimmoun%NULL%1,             Sébastien%Gibot%NULL%1,             Nathalie%Thilly%NULL%1,             Luc%Frimat%NULL%1,             Evelyne%Schvoerer%NULL%1,             Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,  Jishou%Zhang%xref no email%2,  Menglong%Wang%xref no email%2,  Jing%Ye%xref no email%2,  Yao%Xu%xref no email%2,  Bo%Shen%xref no email%2,  Hua%He%xref no email%2,  Zhen%Wang%xref no email%2,  Di%Ye%xref no email%2,  Mengmeng%Zhao%xref no email%2,  Zhen%Luo%xref no email%2,  Mingxiao%Liu%xref no email%2,  Pingan%Zhang%xref no email%2,  Jian%Gu%xref no email%2,  Menglin%Liu%xref no email%2,  Dan%Li%xref no email%2,  Jianfang%Liu%xref no email%2,  Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,             Samrachana%Adhikari%NULL%1,             Claudia%Pulgarin%NULL%1,             Andrea B.%Troxel%NULL%1,             Eduardo%Iturrate%NULL%1,             Stephen B.%Johnson%NULL%1,             Anaïs%Hausvater%NULL%1,             Jonathan D.%Newman%NULL%1,             Jeffrey S.%Berger%NULL%1,             Sripal%Bangalore%NULL%1,             Stuart D.%Katz%NULL%1,             Glenn I.%Fishman%NULL%1,             Dennis%Kunichoff%NULL%1,             Yu%Chen%NULL%1,             Gbenga%Ogedegbe%NULL%1,             Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,      Becker%L.B.%coreGivesNoEmail%3,      Chelico%J.D.%coreGivesNoEmail%3,      Cohen%S.L.%coreGivesNoEmail%3,      Cookingham%J.%coreGivesNoEmail%3,      Coppa%K.%coreGivesNoEmail%3,      Crawford%J.M.%coreGivesNoEmail%3,      Davidson%K.W.%coreGivesNoEmail%3,      Diefenbach%M.A.%coreGivesNoEmail%3,      Dominello%A.J.%coreGivesNoEmail%3,      Duer-Hefele%J.%coreGivesNoEmail%3,      Falzon%L.%coreGivesNoEmail%3,      Gitlin%J.%coreGivesNoEmail%3,      Hajizadeh%N.%coreGivesNoEmail%3,      Harvin%T.G.%coreGivesNoEmail%3,      Hirsch%J.S.%coreGivesNoEmail%3,      Hirschwerk%D.A.%coreGivesNoEmail%3,      Kim%E.J.%coreGivesNoEmail%3,      Kozel%Z.M.%coreGivesNoEmail%3,      Marrast%L.M.%coreGivesNoEmail%3,      McGinn%T.%coreGivesNoEmail%3,      Mogavero%J.N.%coreGivesNoEmail%3,      Narasimhan%M.%coreGivesNoEmail%3,      Osorio%G.A.%coreGivesNoEmail%3,      Qiu%M.%coreGivesNoEmail%3,      Richardson%S.%coreGivesNoEmail%3,      Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,             Massimiliano%Marino%NULL%3,             Debora%Formisano%NULL%1,             Francesco%Venturelli%NULL%1,             Massimo%Vicentini%NULL%3,             Massimo%Vicentini%NULL%0,             Roberto%Grilli%NULL%2,             NULL%NULL%NULL%0,             Gianluigi%Forloni%NULL%8,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,             Paolo%Maggi%NULL%2,             Paolo%Maggi%NULL%0,             Vincenzo%Messina%NULL%1,             Pasquale%Iuliano%NULL%2,             Pasquale%Iuliano%NULL%0,             Antonio%Sardu%NULL%1,             Vincenzo%Iovinella%NULL%1,             Giuseppe%Paolisso%NULL%1,             Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,             Rasimcan%Meral%NULL%1,             Alpay%Medetalibeyoğlu%NULL%1,             Hilal%Konyaoğlu%NULL%1,             Murat%Köse%NULL%1,             Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%2,  Jack%Owens%xref no email%1,  James%Franklin%xref no email%1,  Yash%Jani%xref no email%1,  Ashish%Kumar%xref no email%1,  Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,             Yun%Qiu%NULL%1,             Xiang-Bin%Xing%NULL%1,             Subrata%Ghosh%NULL%1,             Min-Hu%Chen%NULL%1,             Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,             Maddalena%Giannella%NULL%1,             Michele%Bartoletti%NULL%1,             Filippo%Trapani%NULL%1,             Marina%Tadolini%NULL%1,             Claudio%Borghi%NULL%1,             Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,             Marco%Massari%NULL%3,             Marco%Massari%NULL%0,             Roberto%Da Cas%NULL%2,             Francesca%Menniti Ippolito%NULL%2,             Janet%Sultana%NULL%2,             Salvatore%Crisafulli%NULL%2,             Paolo%Giorgi Rossi%NULL%2,             Massimiliano%Marino%NULL%0,             Manuel%Zorzi%NULL%2,             Emanuela%Bovo%NULL%2,             Olivia%Leoni%NULL%2,             Monica%Ludergnani%NULL%0,             Stefania%Spila Alegiani%stefania.spila@iss.it%2,             Stefania%Spila Alegiani%NULL%0,             Francesca%Menniti Ippolito%NULL%0,             Roberto%Da Cas%NULL%0,             Marco%Massari%NULL%0,             Giuseppe%Traversa%NULL%1,             Graziano%Onder%NULL%1,             Gianluca%Trifirò%NULL%1,             Janet%Sultana%NULL%0,             Valentina%Ientile%NULL%1,             Salvatore%Crisafulli%NULL%0,             Paolo%Giorgi Rossi%NULL%0,             Roberto%Grilli%NULL%0,             Giulio%Formoso%NULL%1,             Massimiliano%Marino%NULL%0,             Massimo%Vicentini%NULL%0,             Olivia%Leoni%NULL%0,             Monica%Ludergnani%NULL%0,             Danilo%Cereda%NULL%1,             Eliana%Ferroni%NULL%1,             Stefano%Guzzinati%NULL%1,             Emanuela%Bovo%NULL%0,             Manuel%Zorzi%NULL%0,             Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,             Chaolin%Huang%NULL%1,             Guohui%Fan%NULL%1,             Zhibo%Liu%NULL%1,             Lianhan%Shang%NULL%1,             Fei%Zhou%NULL%1,             Yeming%Wang%NULL%1,             Jiapei%Yu%NULL%1,             Luning%Yang%NULL%1,             Ke%Xie%NULL%1,             Zhisheng%Huang%NULL%1,             Lixue%Huang%NULL%1,             Xiaoying%Gu%NULL%1,             Hui%Li%NULL%1,             Yi%Zhang%NULL%0,             Yimin%Wang%NULL%1,             Frederick G.%Hayden%NULL%1,             Peter W.%Horby%NULL%1,             Bin%Cao%caobin_ben@163.com%1,             Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,  Zihu%Tan%xref no email%3,  Ling%Zhou%xref no email%3,  Min%Yang%xref no email%3,  Lang%Peng%xref no email%3,  Jinjin%Liu%xref no email%3,  Jingling%Cai%xref no email%3,  Ru%Yang%xref no email%3,  Junyan%Han%xref no email%3,  Yafei%Huang%xref no email%3,  Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,             Dan%Liu%NULL%1,             Shaoqing%Zeng%NULL%1,             Siyuan%Wang%NULL%1,             Sen%Xu%NULL%1,             Ya%Wang%NULL%1,             Ruidi%Yu%NULL%1,             Yue%Gao%NULL%1,             Huayi%Li%NULL%1,             Xinxia%Feng%NULL%1,             Ning%Zhou%NULL%0,             Chunxia%Zhao%NULL%1,             Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,             Lihua%Zhu%NULL%1,             Jingjing%Cai%NULL%1,             Fang%Lei%NULL%1,             Juan-Juan%Qin%NULL%1,             Jing%Xie%NULL%1,             Ye-Mao%Liu%NULL%1,             Yan-Ci%Zhao%NULL%1,             Xuewei%Huang%NULL%1,             Lijin%Lin%NULL%1,             Meng%Xia%NULL%1,             Ming-Ming%Chen%NULL%1,             Xu%Cheng%NULL%1,             Xiao%Zhang%NULL%1,             Deliang%Guo%NULL%1,             Yuanyuan%Peng%NULL%1,             Yan-Xiao%Ji%NULL%1,             Jing%Chen%NULL%1,             Zhi-Gang%She%NULL%1,             Yibin%Wang%NULL%0,             Qingbo%Xu%NULL%1,             Renfu%Tan%NULL%1,             Haitao%Wang%NULL%1,             Jun%Lin%NULL%1,             Pengcheng%Luo%NULL%1,             Shouzhi%Fu%NULL%1,             Hongbin%Cai%NULL%1,             Ping%Ye%NULL%1,             Bing%Xiao%NULL%1,             Weiming%Mao%NULL%1,             Liming%Liu%NULL%1,             Youqin%Yan%NULL%1,             Mingyu%Liu%NULL%1,             Manhua%Chen%NULL%1,             Xiao-Jing%Zhang%NULL%1,             Xinghuan%Wang%NULL%1,             Rhian M.%Touyz%NULL%1,             Jiahong%Xia%NULL%1,             Bing-Hong%Zhang%NULL%1,             Xiaodong%Huang%NULL%1,             Yufeng%Yuan%NULL%1,             Rohit%Loomba%NULL%1,             Peter P.%Liu%NULL%1,             Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2870,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -2614,7 +2962,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -2660,7 +3008,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>524</v>
+        <v>618</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -2706,7 +3054,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>525</v>
+        <v>619</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -2752,7 +3100,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -2798,7 +3146,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -2838,22 +3186,22 @@
         <v>43965.0</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>564</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>622</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>567</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>568</v>
       </c>
       <c r="I9" t="s">
         <v>74</v>
@@ -2890,7 +3238,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>528</v>
+        <v>623</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -2936,7 +3284,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>529</v>
+        <v>624</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -2982,7 +3330,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>530</v>
+        <v>625</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3028,7 +3376,7 @@
         <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>531</v>
+        <v>626</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -3074,7 +3422,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>532</v>
+        <v>627</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -3114,22 +3462,22 @@
         <v>2020.0</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>574</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>628</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>567</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>576</v>
       </c>
       <c r="I15" t="s">
         <v>74</v>
@@ -3166,7 +3514,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>533</v>
+        <v>629</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -3212,7 +3560,7 @@
         <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>534</v>
+        <v>630</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -3252,22 +3600,22 @@
         <v>2020.0</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>579</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>631</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>567</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>568</v>
       </c>
       <c r="I18" t="s">
         <v>74</v>
@@ -3304,7 +3652,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>535</v>
+        <v>632</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -3350,7 +3698,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>536</v>
+        <v>633</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -3396,7 +3744,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>537</v>
+        <v>634</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -3442,7 +3790,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>538</v>
+        <v>635</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3482,22 +3830,22 @@
         <v>43944.0</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>586</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>636</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>567</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>568</v>
       </c>
       <c r="I23" t="s">
         <v>74</v>
@@ -3534,7 +3882,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>539</v>
+        <v>637</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -3580,7 +3928,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>540</v>
+        <v>638</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -3626,7 +3974,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>541</v>
+        <v>639</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -3672,7 +4020,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>542</v>
+        <v>640</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -3718,7 +4066,7 @@
         <v>146</v>
       </c>
       <c r="E28" t="s">
-        <v>543</v>
+        <v>641</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -3764,7 +4112,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>544</v>
+        <v>642</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -3810,7 +4158,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>545</v>
+        <v>643</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -3856,7 +4204,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>546</v>
+        <v>644</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -3896,22 +4244,22 @@
         <v>2020.0</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>596</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>645</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>567</v>
       </c>
       <c r="H32" t="s">
-        <v>63</v>
+        <v>568</v>
       </c>
       <c r="I32" t="s">
         <v>74</v>
@@ -3948,7 +4296,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3994,7 +4342,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -4040,7 +4388,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>549</v>
+        <v>648</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -4086,7 +4434,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>550</v>
+        <v>649</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -4132,7 +4480,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>551</v>
+        <v>650</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -4172,22 +4520,22 @@
         <v>44166.0</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>604</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>651</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>567</v>
       </c>
       <c r="H38" t="s">
-        <v>63</v>
+        <v>606</v>
       </c>
       <c r="I38" t="s">
         <v>74</v>
@@ -4224,7 +4572,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>552</v>
+        <v>652</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -4270,7 +4618,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>553</v>
+        <v>653</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -4316,7 +4664,7 @@
         <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>554</v>
+        <v>654</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -4362,7 +4710,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>555</v>
+        <v>655</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -4402,22 +4750,22 @@
         <v>2020.0</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>611</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>656</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>567</v>
       </c>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>568</v>
       </c>
       <c r="I43" t="s">
         <v>74</v>
@@ -4454,7 +4802,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>556</v>
+        <v>657</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -4500,7 +4848,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>557</v>
+        <v>658</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4231" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="746">
   <si>
     <t>Doi</t>
   </si>
@@ -2442,6 +2442,275 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,             Lihua%Zhu%NULL%1,             Jingjing%Cai%NULL%1,             Fang%Lei%NULL%1,             Juan-Juan%Qin%NULL%1,             Jing%Xie%NULL%1,             Ye-Mao%Liu%NULL%1,             Yan-Ci%Zhao%NULL%1,             Xuewei%Huang%NULL%1,             Lijin%Lin%NULL%1,             Meng%Xia%NULL%1,             Ming-Ming%Chen%NULL%1,             Xu%Cheng%NULL%1,             Xiao%Zhang%NULL%1,             Deliang%Guo%NULL%1,             Yuanyuan%Peng%NULL%1,             Yan-Xiao%Ji%NULL%1,             Jing%Chen%NULL%1,             Zhi-Gang%She%NULL%1,             Yibin%Wang%NULL%0,             Qingbo%Xu%NULL%1,             Renfu%Tan%NULL%1,             Haitao%Wang%NULL%1,             Jun%Lin%NULL%1,             Pengcheng%Luo%NULL%1,             Shouzhi%Fu%NULL%1,             Hongbin%Cai%NULL%1,             Ping%Ye%NULL%1,             Bing%Xiao%NULL%1,             Weiming%Mao%NULL%1,             Liming%Liu%NULL%1,             Youqin%Yan%NULL%1,             Mingyu%Liu%NULL%1,             Manhua%Chen%NULL%1,             Xiao-Jing%Zhang%NULL%1,             Xinghuan%Wang%NULL%1,             Rhian M.%Touyz%NULL%1,             Jiahong%Xia%NULL%1,             Bing-Hong%Zhang%NULL%1,             Xiaodong%Huang%NULL%1,             Yufeng%Yuan%NULL%1,             Rohit%Loomba%NULL%1,             Peter P.%Liu%NULL%1,             Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,              Sandra%Santos-Martinez%NULL%1,              Diego%López-Otero%NULL%1,              Luis%Nombela-Franco%NULL%1,              Enrique%Gutiérrez-Ibanes%NULL%1,              Raquel%Del Valle%NULL%1,              Erika%Muñoz-García%NULL%1,              Víctor A.%Jiménez-Diaz%NULL%1,              Ander%Regueiro%NULL%1,              Rocío%González-Ferreiro%NULL%1,              Tomás%Benito%NULL%1,              Xoan Carlos%Sanmartin-Pena%NULL%1,              Pablo%Catalá%NULL%1,              Tania%Rodríguez-Gabella%NULL%1,              Jose Raúl%Delgado-Arana%NULL%1,              Manuel%Carrasco-Moraleja%NULL%1,              Borja%Ibañez%NULL%1,              J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,              David M.%Tehrani%NULL%1,              Soniya V.%Rabadia%NULL%1,              Marlene%Frost%NULL%1,              Rushi V.%Parikh%NULL%1,              Marcella%Calfon-Press%NULL%1,              Olcay%Aksoy%NULL%1,              Soban%Umar%NULL%1,              Reza%Ardehali%NULL%1,              Amir%Rabbani%NULL%1,              Pooya%Bokhoor%NULL%1,              Ali%Nsair%NULL%1,              Jesse%Currier%NULL%1,              Jonathan%Tobis%NULL%1,              Gregg C.%Fonarow%NULL%1,              Ravi%Dave%NULL%1,              Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,              Zeljko%Kraljevic%NULL%1,              Thomas%Searle%NULL%1,              Rebecca%Bendayan%NULL%1,              O'Gallagher%Kevin%NULL%1,              Andrew%Pickles%NULL%1,              Amos%Folarin%NULL%1,              Lukasz%Roguski%NULL%1,              Kawsar%Noor%NULL%1,              Anthony%Shek%NULL%1,              Rosita%Zakeri%NULL%1,              Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,              James T.H.%Teo%jamesteo@nhs.net%1,              Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,              Mauro%Chiarito%NULL%1,              Bernhard%Reimers%NULL%2,              Bernhard%Reimers%NULL%0,              Elena%Azzolini%NULL%1,              Giuseppe%Ferrante%NULL%1,              Ilaria%My%NULL%1,              Giacomo%Viggiani%NULL%1,              Cristina%Panico%NULL%1,              Damiano%Regazzoli%NULL%1,              Michele%Ciccarelli%NULL%1,              Antonio%Voza%NULL%1,              Alessio%Aghemo%NULL%1,              Hongliang%Li%NULL%2,              Yibin%Wang%NULL%2,              Gianluigi%Condorelli%NULL%1,              Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,              Feng%Wang%NULL%1,              Peng%Chen%NULL%1,              Jiangang%Jiang%NULL%1,              Guanglin%Cui%NULL%1,              Ning%Zhou%NULL%2,              Francesco%Moroni%NULL%1,              Javid J.%Moslehi%NULL%1,              Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,              Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,              Ming%Zhong%NULL%1,              Ya%Liu%NULL%1,              Yi%Zhang%NULL%2,              Kai%Zhang%NULL%1,              De-zhen%Su%NULL%1,              Xiao%Meng%NULL%1,              Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,   Dong%Yang%xref no email%2,   Biao%Cheng%xref no email%2,   Jian%Chen%xref no email%4,   Anlin%Peng%xref no email%2,   Chen%Yang%xref no email%2,   Chong%Liu%xref no email%2,   Mingrui%Xiong%xref no email%2,   Aiping%Deng%xref no email%4,   Yu%Zhang%xref no email%2,   Ling%Zheng%xref no email%2,   Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,              Duncan%Young%NULL%2,              Duncan%Young%NULL%0,              Carol%Coupland%NULL%1,              Keith M%Channon%NULL%1,              Pui San%Tan%NULL%1,              David A%Harrison%NULL%1,              Kathryn%Rowan%NULL%2,              Kathryn%Rowan%NULL%0,              Paul%Aveyard%NULL%1,              Ian D%Pavord%NULL%1,              Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,       Butt%Jawad H%coreGivesNoEmail%1,       Fosb\u00f8l%Emil L%coreGivesNoEmail%1,       Gerds%Thomas A%coreGivesNoEmail%1,       Gislason%Gunnar H%coreGivesNoEmail%1,       Kragholm%Kristian%coreGivesNoEmail%1,       K\u00f8ber%Lars%coreGivesNoEmail%1,       Phelps%Matthew%coreGivesNoEmail%1,       Schou%Morten%coreGivesNoEmail%1,       Selmer%Christian%coreGivesNoEmail%1,       Torp-Pedersen%Christian%coreGivesNoEmail%1,       \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,              Yue%Cai%NULL%1,              Kan%Zhang%NULL%2,              Kan%Zhang%NULL%0,              Lei%Zhou%NULL%1,              Yao%Zhang%NULL%1,              Xijing%Zhang%NULL%1,              Qi%Li%NULL%1,              Weiqin%Li%NULL%1,              Shiming%Yang%NULL%1,              Xiaoyan%Zhao%NULL%1,              Yuying%Zhao%NULL%1,              Hui%Wang%NULL%1,              Yi%Liu%NULL%2,              Zhiyong%Yin%NULL%1,              Ruining%Zhang%NULL%1,              Rutao%Wang%NULL%1,              Ming%Yang%NULL%1,              Chen%Hui%NULL%1,              William%Wijns%NULL%1,              J William%McEvoy%NULL%1,              Osama%Soliman%NULL%2,              Osama%Soliman%NULL%0,              Yoshinobu%Onuma%NULL%2,              Yoshinobu%Onuma%NULL%0,              Patrick W%Serruys%NULL%1,              Ling%Tao%lingtao@fmmu.edu.cn%1,              Fei%Li%lifei01@fmmu.edu.cn%2,              Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,              Erkan%Ekicibasi%NULL%1,              Aleks%Degirmencioglu%NULL%1,              Ashok%Paudel%NULL%1,              Refik%Erdim%NULL%1,              Hilal Kurtoglu%Gumusel%NULL%1,              Elif%Eroglu%NULL%1,              Ibrahim Halil%Tanboga%NULL%1,              Sinan%Dagdelen%NULL%1,              Nevin%Sariguzel%NULL%1,              Ceyda Erel%Kirisoglu%NULL%1,              Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,       Antonelli%M.%coreGivesNoEmail%2,       Bellani%G.%coreGivesNoEmail%2,       Bonanomi%E.%coreGivesNoEmail%2,       Cabrini%L.%coreGivesNoEmail%2,       Carlesso%E.%coreGivesNoEmail%2,       Castelli%G.%coreGivesNoEmail%2,       Cattaneo%S.%coreGivesNoEmail%2,       Cecconi%M.%coreGivesNoEmail%2,       Cereda%D.%coreGivesNoEmail%2,       Colombo%S.%coreGivesNoEmail%2,       Coluccello%A.%coreGivesNoEmail%2,       Crescini%G.%coreGivesNoEmail%2,       Forastieri%Molinari A.%coreGivesNoEmail%2,       Foti%G.%coreGivesNoEmail%2,       Fumagalli%R.%coreGivesNoEmail%2,       Grasselli%G.%coreGivesNoEmail%2,       Greco%M.%coreGivesNoEmail%2,       Iotti%G. A.%coreGivesNoEmail%2,       Langer%T.%coreGivesNoEmail%2,       Latronico%N.%coreGivesNoEmail%2,       Lorini%F. L.%coreGivesNoEmail%2,       Mojoli%F.%coreGivesNoEmail%2,       Natalini%G.%coreGivesNoEmail%2,       Pesenti%A.%coreGivesNoEmail%2,       Pessina%C. M.%coreGivesNoEmail%2,       Ranieri%V. M.%coreGivesNoEmail%2,       Rech%R.%coreGivesNoEmail%2,       Rosano%A.%coreGivesNoEmail%2,       Scudeller%L.%coreGivesNoEmail%2,       Storti%E.%coreGivesNoEmail%2,       Thompson%B. T.%coreGivesNoEmail%2,       Tirani%M.%coreGivesNoEmail%2,       Villani%P. G.%coreGivesNoEmail%2,       Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,   Yueli%Zhu%xref no email%1,   Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,              Jiatian%Cao%NULL%1,              Yumeng%Yao%NULL%1,              Xuejuan%Jin%NULL%1,              Zhe%Luo%NULL%1,              Yuan%Xue%NULL%1,              Chouwen%Zhu%NULL%1,              Yanan%Song%NULL%1,              Ying%Wang%NULL%1,              Yunzeng%Zou%NULL%1,              Juying%Qian%NULL%1,              Kaihuan%Yu%NULL%1,              Hui%Gong%NULL%1,              Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,              Ju-Hyun%Kim%NULL%1,              Jin-Sung%Park%NULL%1,              Min Cheol%Chang%wheel633@ynu.ac.kr%1,              Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,   Guido%Grassi%xref no email%1,   Claudio%Borghi%xref no email%1,   Claudio%Ferri%xref no email%1,   Massimo%Salvetti%xref no email%1,   Massimo%Volpe%xref no email%1,   Arrigo F.G.%Cicero%xref no email%1,   Pietro%Minuz%xref no email%1,   Maria Lorenza%Muiesan%xref no email%1,   Paolo%Mulatero%xref no email%1,   Giuseppe%Mul\u00e8%xref no email%1,   Giacomo%Pucci%xref no email%1,   Carmine%Savoia%xref no email%1,   Leonardo%Sechi%xref no email%1,   Stefano%Carugo%xref no email%1,   Francesco%Fallo%xref no email%1,   Cristina%Giannattasio%xref no email%1,   Davide%Grassi%xref no email%1,   Claudio%Letizia%xref no email%1,   Stefano%Perlini%xref no email%1,   Damiano%Rizzoni%xref no email%1,   Riccardo%Sarzani%xref no email%1,   Giuliano%Tocci%xref no email%1,   Franco%Veglio%xref no email%1,   Claudia%Agabiti Rosei%xref no email%1,   Michele%Bevilacqua%xref no email%1,   Valeria%Bisogni%xref no email%1,   Michele%Bombelli%xref no email%1,   Luca%Bulfone%xref no email%1,   Flaminia%Canichella%xref no email%1,   Giovanni%Carpani%xref no email%1,   Massimo%Catanuso%xref no email%1,   Giulia%Chiarini%xref no email%1,   Fernando%Chiumiento%xref no email%1,   Rosario%Cianci%xref no email%1,   Franco%Cipollini%xref no email%1,   Antonio%Concistr\u00e8%xref no email%1,   Andrea%Dalbeni%xref no email%1,   Roberto Alberto%De Blasi%xref no email%1,   Carolina%De Ciuceis%xref no email%1,   Raffaella%Dell\u2019Oro%xref no email%1,   Antonino%Di Guardo%xref no email%1,   Santo%Di Lorenzo%xref no email%1,   Monica%Di Norcia%xref no email%1,   Roberto%Ervo%xref no email%1,   Elisabetta%Eula%xref no email%1,   Davide%Fabbricatore%xref no email%1,   Elvira%Fanelli%xref no email%1,   Cristiano%Fava%xref no email%1,   Enzo%Grasso%xref no email%1,   Alessandro%Grimaldi%xref no email%1,   Maddalena%Illario%xref no email%1,   Claudio%Invernizzi%xref no email%1,   Elena%Iraca%xref no email%1,   Federica%Liegi%xref no email%1,   Paolo%Malerba%xref no email%1,   Alessandro%Maloberti%xref no email%1,   Costantino%Mancusi%xref no email%1,   Giulia%Molinari%xref no email%1,   Roberta%Mussinelli%xref no email%1,   Anna%Paini%xref no email%1,   Paola%Pellimassi%xref no email%1,   Ornella%Piazza%xref no email%1,   Roberto%Pontremoli%xref no email%1,   Fosca%Quarti Tevano%xref no email%1,   Franco%Rabbia%xref no email%1,   Monica%Rocco%xref no email%1,   Anna%Sabena%xref no email%1,   Francesco%Salinaro%xref no email%1,   Paola%Schiavi%xref no email%1,   Maria Chiara%Sgariglia%xref no email%1,   Francesco%Spannella%xref no email%1,   Sara%Tedeschi%xref no email%1,   Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,              Raphael Romano%Bruno%NULL%1,              Bernhard%Wernly%NULL%1,              Michael%Joannidis%NULL%1,              Sandra%Oeyen%NULL%1,              Tilemachos%Zafeiridis%NULL%1,              Brian%Marsh%NULL%1,              Finn H%Andersen%NULL%1,              Rui%Moreno%NULL%1,              Ana Margarida%Fernandes%NULL%1,              Antonio%Artigas%NULL%1,              Bernardo Bollen%Pinto%NULL%1,              Joerg%Schefold%NULL%1,              Georg%Wolff%NULL%1,              Malte%Kelm%NULL%2,              Malte%Kelm%NULL%0,              Dylan W%De Lange%NULL%1,              Bertrand%Guidet%NULL%1,              Hans%Flaatten%NULL%1,              Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,              Jae Chol%Choi%NULL%1,              Seung-Hun%You%NULL%1,              Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,              Hamish%Reed-Embleton%NULL%2,              Hamish%Reed-Embleton%NULL%0,              Jen%Lewis%NULL%2,              Jen%Lewis%NULL%0,              Pamela%Bain%NULL%1,              Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,              Kenneth W%Chow%NULL%1,              Jonathan%Vo%NULL%1,              Wei%Hou%NULL%1,              Haifang%Li%NULL%1,              Paul S%Richman%NULL%1,              Sandeep K%Mallipattu%NULL%1,              Hal A%Skopicki%NULL%1,              Adam J%Singer%NULL%1,              Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,   Xiufang%Wang%xref no email%2,   Jian%Chen%xref no email%0,   Hongmei%Zhang%xref no email%2,   Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,              Julien%Moragny%NULL%2,              Julien%Moragny%NULL%0,              Youssef%Bennis%NULL%1,              Benjamin%Batteux%NULL%1,              Etienne%Brochot%NULL%1,              Jean Luc%Schmit%NULL%1,              Jean-Philippe%Lanoix%NULL%1,              Claire%Andrejak%NULL%1,              Olivier%Ganry%NULL%1,              Michel%Slama%NULL%1,              Julien%Maizel%NULL%1,              Yazine%Mahjoub%NULL%1,              Kamel%Masmoudi%NULL%1,              Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,              Yi%Liu%NULL%0,              Keliang%Chen%NULL%1,              Suying%Yan%NULL%1,              Xiangrong%Bai%NULL%1,              Juan%Li%947281063@qq.com%1,              Dong%Liu%ld2069@outlook.com%2,              Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,              Javier%López-Pais%NULL%1,              Carla Eugenia%Cacho-Antonio%NULL%1,              Pablo José%Antúnez-Muiños%NULL%1,              Teba%González-Ferrero%NULL%1,              Marta%Pérez-Poza%NULL%1,              Óscar%Otero-García%NULL%1,              Brais%Díaz-Fernández%NULL%1,              María%Bastos-Fernández%NULL%1,              Noelia%Bouzas-Cruz%NULL%1,              Xoan Carlos%Sanmartín-Pena%NULL%1,              Alfonso%Varela-Román%NULL%1,              Manuel%Portela-Romero%NULL%1,              Luis%Valdés-Cuadrado%NULL%1,              Antonio%Pose-Reino%NULL%1,              José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,              Federico%Rea%NULL%1,              Monica%Ludergnani%NULL%4,              Monica%Ludergnani%NULL%0,              Giovanni%Apolone%NULL%1,              Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,               Hisao%Ogawa%null%1,               Kazuo%Kimura%null%1,               Masaaki%Konishi%null%1,               Jin%Kirigaya%null%1,               Kazuki%Fukui%null%1,               Kengo%Tsukahara%null%1,               Hiroyuki%Shimizu%null%1,               Keisuke%Iwabuchi%null%1,               Yu%Yamada%null%1,               Kenichiro%Saka%null%1,               Ichiro%Takeuchi%null%1,               Toshio%Hirano%null%1,               Kouichi%Tamura%null%1,         Yasushi%Matsuzawa%null%1,         Hisao%Ogawa%null%1,         Kazuo%Kimura%null%1,         Masaaki%Konishi%null%1,         Jin%Kirigaya%null%1,         Kazuki%Fukui%null%1,         Kengo%Tsukahara%null%1,         Hiroyuki%Shimizu%null%1,         Keisuke%Iwabuchi%null%1,         Yu%Yamada%null%1,         Kenichiro%Saka%null%1,         Ichiro%Takeuchi%null%1,         Toshio%Hirano%null%1,         Kouichi%Tamura%null%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,              Guohui%Xiao%NULL%1,              Juanjuan%Zhang%NULL%1,              Xing%He%NULL%1,              Min%Ou%NULL%1,              Jing%Bi%NULL%1,              Rongqing%Yang%NULL%1,              Wencheng%Di%NULL%1,              Zhaoqin%Wang%NULL%1,              Zigang%Li%NULL%1,              Hong%Gao%NULL%1,              Lei%Liu%NULL%1,              Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,              Francisca%García-Iglesias%NULL%1,              Teresa%González-Alegre%NULL%1,              Francisco%Blanco%NULL%1,              Marta%Varas%NULL%1,              Clara%Hernández-Blanco%NULL%1,              Victor%Hontañón%NULL%1,              María J.%Jaras-Hernández%NULL%1,              Mónica%Martínez-Prieto%NULL%1,              Araceli%Menéndez-Saldaña%NULL%1,              María L.%Cachán%NULL%1,              Eva%Estirado%NULL%1,              Carlos%Lahoz%NULL%1,              Rosa%de Miguel%NULL%1,              Miriam%Romero%NULL%1,              Mar%Lago%NULL%1,              Cristina%García-Quero%NULL%1,              Cristina%Plaza%NULL%1,              Talía%Sainz-Costa%NULL%1,              Susana%Rivas-Vila%NULL%1,              Blanca%Sánchez%NULL%1,              Celia García%Torres%NULL%1,              Lucía%Martínez-Tobar%NULL%1,              María%Hernandez-Pérez%NULL%1,              Pablo%Racionero%NULL%1,              Patricia%Mir-Ihara%NULL%1,              Jesús%Peña-López%NULL%1,              Marta%Bautista-Barea%NULL%1,              Alexa P.%Benítez%NULL%1,              Pablo%Rodríguez-Merlos%NULL%1,              María%Barcenilla%NULL%1,              María San%Basilio%NULL%1,              María%Valencia%NULL%1,              Ricardo%Romero-Martín%NULL%1,              Ana%Boto de los Bueis%NULL%1,              Adriana%de la Hoz-Polo%NULL%1,              María%del Pino-Cidad%NULL%1,              Javier%Coca-Robinot%NULL%1,              Bárbara%González-Ferrer%NULL%1,              Pedro%Fernández-Pérez%NULL%1,              Isabel%Mogollón%NULL%1,              María S.%Montoro-Romero%NULL%1,              Isabel%Villalaín%NULL%1,              Almudena%del Hierro-Zarzuelo%NULL%1,              Irene%Hernández-Martín%NULL%1,              Javier%Domínguez%NULL%1,              Alberto%Luna%NULL%1,              Soledad%Montoro%NULL%1,              Margarita%Sánchez-Orgaz%NULL%1,              Gloria%Amorena%NULL%1,              Cosme%Lavín-Dapena%NULL%1,              Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,              Stanislas%Gleye%NULL%1,              Isabelle%Clerc Urmes%NULL%1,              Elodie%Laugel%NULL%1,              Jonas%Callet%NULL%1,              Françoise%Barbé%NULL%1,              Sophie%Orlowski%NULL%1,              Catherine%Malaplate%NULL%1,              Isabelle%Aimone-Gastin%NULL%1,              Beatrice Maatem%Caillierez%NULL%1,              Marc%Merten%NULL%1,              Elise%Jeannesson%NULL%1,              Raphaël%Kormann%NULL%1,              Jean-Luc%Olivier%NULL%1,              Rosa-Maria%Rodriguez-Guéant%NULL%1,              Farès%Namour%NULL%1,              Sybille%Bevilacqua%NULL%1,              Marie-Reine%Losser%NULL%1,              Bruno%Levy%NULL%1,              Antoine%Kimmoun%NULL%1,              Sébastien%Gibot%NULL%1,              Nathalie%Thilly%NULL%1,              Luc%Frimat%NULL%1,              Evelyne%Schvoerer%NULL%1,              Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,   Jishou%Zhang%xref no email%2,   Menglong%Wang%xref no email%2,   Jing%Ye%xref no email%2,   Yao%Xu%xref no email%2,   Bo%Shen%xref no email%2,   Hua%He%xref no email%2,   Zhen%Wang%xref no email%2,   Di%Ye%xref no email%2,   Mengmeng%Zhao%xref no email%2,   Zhen%Luo%xref no email%2,   Mingxiao%Liu%xref no email%2,   Pingan%Zhang%xref no email%2,   Jian%Gu%xref no email%2,   Menglin%Liu%xref no email%2,   Dan%Li%xref no email%2,   Jianfang%Liu%xref no email%2,   Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,              Samrachana%Adhikari%NULL%1,              Claudia%Pulgarin%NULL%1,              Andrea B.%Troxel%NULL%1,              Eduardo%Iturrate%NULL%1,              Stephen B.%Johnson%NULL%1,              Anaïs%Hausvater%NULL%1,              Jonathan D.%Newman%NULL%1,              Jeffrey S.%Berger%NULL%1,              Sripal%Bangalore%NULL%1,              Stuart D.%Katz%NULL%1,              Glenn I.%Fishman%NULL%1,              Dennis%Kunichoff%NULL%1,              Yu%Chen%NULL%1,              Gbenga%Ogedegbe%NULL%1,              Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,       Becker%L.B.%coreGivesNoEmail%3,       Chelico%J.D.%coreGivesNoEmail%3,       Cohen%S.L.%coreGivesNoEmail%3,       Cookingham%J.%coreGivesNoEmail%3,       Coppa%K.%coreGivesNoEmail%3,       Crawford%J.M.%coreGivesNoEmail%3,       Davidson%K.W.%coreGivesNoEmail%3,       Diefenbach%M.A.%coreGivesNoEmail%3,       Dominello%A.J.%coreGivesNoEmail%3,       Duer-Hefele%J.%coreGivesNoEmail%3,       Falzon%L.%coreGivesNoEmail%3,       Gitlin%J.%coreGivesNoEmail%3,       Hajizadeh%N.%coreGivesNoEmail%3,       Harvin%T.G.%coreGivesNoEmail%3,       Hirsch%J.S.%coreGivesNoEmail%3,       Hirschwerk%D.A.%coreGivesNoEmail%3,       Kim%E.J.%coreGivesNoEmail%3,       Kozel%Z.M.%coreGivesNoEmail%3,       Marrast%L.M.%coreGivesNoEmail%3,       McGinn%T.%coreGivesNoEmail%3,       Mogavero%J.N.%coreGivesNoEmail%3,       Narasimhan%M.%coreGivesNoEmail%3,       Osorio%G.A.%coreGivesNoEmail%3,       Qiu%M.%coreGivesNoEmail%3,       Richardson%S.%coreGivesNoEmail%3,       Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,              Massimiliano%Marino%NULL%3,              Debora%Formisano%NULL%1,              Francesco%Venturelli%NULL%1,              Massimo%Vicentini%NULL%3,              Massimo%Vicentini%NULL%0,              Roberto%Grilli%NULL%2,              NULL%NULL%NULL%0,              Gianluigi%Forloni%NULL%8,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0,              Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,              Paolo%Maggi%NULL%2,              Paolo%Maggi%NULL%0,              Vincenzo%Messina%NULL%1,              Pasquale%Iuliano%NULL%2,              Pasquale%Iuliano%NULL%0,              Antonio%Sardu%NULL%1,              Vincenzo%Iovinella%NULL%1,              Giuseppe%Paolisso%NULL%1,              Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,              Rasimcan%Meral%NULL%1,              Alpay%Medetalibeyoğlu%NULL%1,              Hilal%Konyaoğlu%NULL%1,              Murat%Köse%NULL%1,              Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%2,   Jack%Owens%xref no email%1,   James%Franklin%xref no email%1,   Yash%Jani%xref no email%1,   Ashish%Kumar%xref no email%1,   Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,              Yun%Qiu%NULL%1,              Xiang-Bin%Xing%NULL%1,              Subrata%Ghosh%NULL%1,              Min-Hu%Chen%NULL%1,              Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,              Maddalena%Giannella%NULL%1,              Michele%Bartoletti%NULL%1,              Filippo%Trapani%NULL%1,              Marina%Tadolini%NULL%1,              Claudio%Borghi%NULL%1,              Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,              Marco%Massari%NULL%3,              Marco%Massari%NULL%0,              Roberto%Da Cas%NULL%2,              Francesca%Menniti Ippolito%NULL%2,              Janet%Sultana%NULL%2,              Salvatore%Crisafulli%NULL%2,              Paolo%Giorgi Rossi%NULL%2,              Massimiliano%Marino%NULL%0,              Manuel%Zorzi%NULL%2,              Emanuela%Bovo%NULL%2,              Olivia%Leoni%NULL%2,              Monica%Ludergnani%NULL%0,              Stefania%Spila Alegiani%stefania.spila@iss.it%2,              Stefania%Spila Alegiani%NULL%0,              Francesca%Menniti Ippolito%NULL%0,              Roberto%Da Cas%NULL%0,              Marco%Massari%NULL%0,              Giuseppe%Traversa%NULL%1,              Graziano%Onder%NULL%1,              Gianluca%Trifirò%NULL%1,              Janet%Sultana%NULL%0,              Valentina%Ientile%NULL%1,              Salvatore%Crisafulli%NULL%0,              Paolo%Giorgi Rossi%NULL%0,              Roberto%Grilli%NULL%0,              Giulio%Formoso%NULL%1,              Massimiliano%Marino%NULL%0,              Massimo%Vicentini%NULL%0,              Olivia%Leoni%NULL%0,              Monica%Ludergnani%NULL%0,              Danilo%Cereda%NULL%1,              Eliana%Ferroni%NULL%1,              Stefano%Guzzinati%NULL%1,              Emanuela%Bovo%NULL%0,              Manuel%Zorzi%NULL%0,              Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,              Chaolin%Huang%NULL%1,              Guohui%Fan%NULL%1,              Zhibo%Liu%NULL%1,              Lianhan%Shang%NULL%1,              Fei%Zhou%NULL%1,              Yeming%Wang%NULL%1,              Jiapei%Yu%NULL%1,              Luning%Yang%NULL%1,              Ke%Xie%NULL%1,              Zhisheng%Huang%NULL%1,              Lixue%Huang%NULL%1,              Xiaoying%Gu%NULL%1,              Hui%Li%NULL%1,              Yi%Zhang%NULL%0,              Yimin%Wang%NULL%1,              Frederick G.%Hayden%NULL%1,              Peter W.%Horby%NULL%1,              Bin%Cao%caobin_ben@163.com%1,              Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,   Zihu%Tan%xref no email%3,   Ling%Zhou%xref no email%3,   Min%Yang%xref no email%3,   Lang%Peng%xref no email%3,   Jinjin%Liu%xref no email%3,   Jingling%Cai%xref no email%3,   Ru%Yang%xref no email%3,   Junyan%Han%xref no email%3,   Yafei%Huang%xref no email%3,   Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,              Dan%Liu%NULL%1,              Shaoqing%Zeng%NULL%1,              Siyuan%Wang%NULL%1,              Sen%Xu%NULL%1,              Ya%Wang%NULL%1,              Ruidi%Yu%NULL%1,              Yue%Gao%NULL%1,              Huayi%Li%NULL%1,              Xinxia%Feng%NULL%1,              Ning%Zhou%NULL%0,              Chunxia%Zhao%NULL%1,              Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,              Lihua%Zhu%NULL%1,              Jingjing%Cai%NULL%1,              Fang%Lei%NULL%1,              Juan-Juan%Qin%NULL%1,              Jing%Xie%NULL%1,              Ye-Mao%Liu%NULL%1,              Yan-Ci%Zhao%NULL%1,              Xuewei%Huang%NULL%1,              Lijin%Lin%NULL%1,              Meng%Xia%NULL%1,              Ming-Ming%Chen%NULL%1,              Xu%Cheng%NULL%1,              Xiao%Zhang%NULL%1,              Deliang%Guo%NULL%1,              Yuanyuan%Peng%NULL%1,              Yan-Xiao%Ji%NULL%1,              Jing%Chen%NULL%1,              Zhi-Gang%She%NULL%1,              Yibin%Wang%NULL%0,              Qingbo%Xu%NULL%1,              Renfu%Tan%NULL%1,              Haitao%Wang%NULL%1,              Jun%Lin%NULL%1,              Pengcheng%Luo%NULL%1,              Shouzhi%Fu%NULL%1,              Hongbin%Cai%NULL%1,              Ping%Ye%NULL%1,              Bing%Xiao%NULL%1,              Weiming%Mao%NULL%1,              Liming%Liu%NULL%1,              Youqin%Yan%NULL%1,              Mingyu%Liu%NULL%1,              Manhua%Chen%NULL%1,              Xiao-Jing%Zhang%NULL%1,              Xinghuan%Wang%NULL%1,              Rhian M.%Touyz%NULL%1,              Jiahong%Xia%NULL%1,              Bing-Hong%Zhang%NULL%1,              Xiaodong%Huang%NULL%1,              Yufeng%Yuan%NULL%1,              Rohit%Loomba%NULL%1,              Peter P.%Liu%NULL%1,              Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,               Sandra%Santos-Martinez%NULL%1,               Diego%López-Otero%NULL%1,               Luis%Nombela-Franco%NULL%1,               Enrique%Gutiérrez-Ibanes%NULL%1,               Raquel%Del Valle%NULL%1,               Erika%Muñoz-García%NULL%1,               Víctor A.%Jiménez-Diaz%NULL%1,               Ander%Regueiro%NULL%1,               Rocío%González-Ferreiro%NULL%1,               Tomás%Benito%NULL%1,               Xoan Carlos%Sanmartin-Pena%NULL%1,               Pablo%Catalá%NULL%1,               Tania%Rodríguez-Gabella%NULL%1,               Jose Raúl%Delgado-Arana%NULL%1,               Manuel%Carrasco-Moraleja%NULL%1,               Borja%Ibañez%NULL%1,               J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,               David M.%Tehrani%NULL%1,               Soniya V.%Rabadia%NULL%1,               Marlene%Frost%NULL%1,               Rushi V.%Parikh%NULL%1,               Marcella%Calfon-Press%NULL%1,               Olcay%Aksoy%NULL%1,               Soban%Umar%NULL%1,               Reza%Ardehali%NULL%1,               Amir%Rabbani%NULL%1,               Pooya%Bokhoor%NULL%1,               Ali%Nsair%NULL%1,               Jesse%Currier%NULL%1,               Jonathan%Tobis%NULL%1,               Gregg C.%Fonarow%NULL%1,               Ravi%Dave%NULL%1,               Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,               Zeljko%Kraljevic%NULL%1,               Thomas%Searle%NULL%1,               Rebecca%Bendayan%NULL%1,               O'Gallagher%Kevin%NULL%1,               Andrew%Pickles%NULL%1,               Amos%Folarin%NULL%1,               Lukasz%Roguski%NULL%1,               Kawsar%Noor%NULL%1,               Anthony%Shek%NULL%1,               Rosita%Zakeri%NULL%1,               Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,               James T.H.%Teo%jamesteo@nhs.net%1,               Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,               Mauro%Chiarito%NULL%1,               Bernhard%Reimers%NULL%2,               Bernhard%Reimers%NULL%0,               Elena%Azzolini%NULL%1,               Giuseppe%Ferrante%NULL%1,               Ilaria%My%NULL%1,               Giacomo%Viggiani%NULL%1,               Cristina%Panico%NULL%1,               Damiano%Regazzoli%NULL%1,               Michele%Ciccarelli%NULL%1,               Antonio%Voza%NULL%1,               Alessio%Aghemo%NULL%1,               Hongliang%Li%NULL%2,               Yibin%Wang%NULL%2,               Gianluigi%Condorelli%NULL%1,               Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,               Feng%Wang%NULL%1,               Peng%Chen%NULL%1,               Jiangang%Jiang%NULL%1,               Guanglin%Cui%NULL%1,               Ning%Zhou%NULL%2,               Francesco%Moroni%NULL%1,               Javid J.%Moslehi%NULL%1,               Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,               Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,               Ming%Zhong%NULL%1,               Ya%Liu%NULL%1,               Yi%Zhang%NULL%2,               Kai%Zhang%NULL%1,               De-zhen%Su%NULL%1,               Xiao%Meng%NULL%1,               Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,    Dong%Yang%xref no email%2,    Biao%Cheng%xref no email%2,    Jian%Chen%xref no email%4,    Anlin%Peng%xref no email%2,    Chen%Yang%xref no email%2,    Chong%Liu%xref no email%2,    Mingrui%Xiong%xref no email%2,    Aiping%Deng%xref no email%4,    Yu%Zhang%xref no email%2,    Ling%Zheng%xref no email%2,    Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,               Duncan%Young%NULL%2,               Duncan%Young%NULL%0,               Carol%Coupland%NULL%1,               Keith M%Channon%NULL%1,               Pui San%Tan%NULL%1,               David A%Harrison%NULL%1,               Kathryn%Rowan%NULL%2,               Kathryn%Rowan%NULL%0,               Paul%Aveyard%NULL%1,               Ian D%Pavord%NULL%1,               Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,        Butt%Jawad H%coreGivesNoEmail%1,        Fosb\u00f8l%Emil L%coreGivesNoEmail%1,        Gerds%Thomas A%coreGivesNoEmail%1,        Gislason%Gunnar H%coreGivesNoEmail%1,        Kragholm%Kristian%coreGivesNoEmail%1,        K\u00f8ber%Lars%coreGivesNoEmail%1,        Phelps%Matthew%coreGivesNoEmail%1,        Schou%Morten%coreGivesNoEmail%1,        Selmer%Christian%coreGivesNoEmail%1,        Torp-Pedersen%Christian%coreGivesNoEmail%1,        \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,               Yue%Cai%NULL%1,               Kan%Zhang%NULL%2,               Kan%Zhang%NULL%0,               Lei%Zhou%NULL%1,               Yao%Zhang%NULL%1,               Xijing%Zhang%NULL%1,               Qi%Li%NULL%1,               Weiqin%Li%NULL%1,               Shiming%Yang%NULL%1,               Xiaoyan%Zhao%NULL%1,               Yuying%Zhao%NULL%1,               Hui%Wang%NULL%1,               Yi%Liu%NULL%2,               Zhiyong%Yin%NULL%1,               Ruining%Zhang%NULL%1,               Rutao%Wang%NULL%1,               Ming%Yang%NULL%1,               Chen%Hui%NULL%1,               William%Wijns%NULL%1,               J William%McEvoy%NULL%1,               Osama%Soliman%NULL%2,               Osama%Soliman%NULL%0,               Yoshinobu%Onuma%NULL%2,               Yoshinobu%Onuma%NULL%0,               Patrick W%Serruys%NULL%1,               Ling%Tao%lingtao@fmmu.edu.cn%1,               Fei%Li%lifei01@fmmu.edu.cn%2,               Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,               Erkan%Ekicibasi%NULL%1,               Aleks%Degirmencioglu%NULL%1,               Ashok%Paudel%NULL%1,               Refik%Erdim%NULL%1,               Hilal Kurtoglu%Gumusel%NULL%1,               Elif%Eroglu%NULL%1,               Ibrahim Halil%Tanboga%NULL%1,               Sinan%Dagdelen%NULL%1,               Nevin%Sariguzel%NULL%1,               Ceyda Erel%Kirisoglu%NULL%1,               Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,        Antonelli%M.%coreGivesNoEmail%2,        Bellani%G.%coreGivesNoEmail%2,        Bonanomi%E.%coreGivesNoEmail%2,        Cabrini%L.%coreGivesNoEmail%2,        Carlesso%E.%coreGivesNoEmail%2,        Castelli%G.%coreGivesNoEmail%2,        Cattaneo%S.%coreGivesNoEmail%2,        Cecconi%M.%coreGivesNoEmail%2,        Cereda%D.%coreGivesNoEmail%2,        Colombo%S.%coreGivesNoEmail%2,        Coluccello%A.%coreGivesNoEmail%2,        Crescini%G.%coreGivesNoEmail%2,        Forastieri%Molinari A.%coreGivesNoEmail%2,        Foti%G.%coreGivesNoEmail%2,        Fumagalli%R.%coreGivesNoEmail%2,        Grasselli%G.%coreGivesNoEmail%2,        Greco%M.%coreGivesNoEmail%2,        Iotti%G. A.%coreGivesNoEmail%2,        Langer%T.%coreGivesNoEmail%2,        Latronico%N.%coreGivesNoEmail%2,        Lorini%F. L.%coreGivesNoEmail%2,        Mojoli%F.%coreGivesNoEmail%2,        Natalini%G.%coreGivesNoEmail%2,        Pesenti%A.%coreGivesNoEmail%2,        Pessina%C. M.%coreGivesNoEmail%2,        Ranieri%V. M.%coreGivesNoEmail%2,        Rech%R.%coreGivesNoEmail%2,        Rosano%A.%coreGivesNoEmail%2,        Scudeller%L.%coreGivesNoEmail%2,        Storti%E.%coreGivesNoEmail%2,        Thompson%B. T.%coreGivesNoEmail%2,        Tirani%M.%coreGivesNoEmail%2,        Villani%P. G.%coreGivesNoEmail%2,        Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,    Yueli%Zhu%xref no email%1,    Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,               Jiatian%Cao%NULL%1,               Yumeng%Yao%NULL%1,               Xuejuan%Jin%NULL%1,               Zhe%Luo%NULL%1,               Yuan%Xue%NULL%1,               Chouwen%Zhu%NULL%1,               Yanan%Song%NULL%1,               Ying%Wang%NULL%1,               Yunzeng%Zou%NULL%1,               Juying%Qian%NULL%1,               Kaihuan%Yu%NULL%1,               Hui%Gong%NULL%1,               Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,               Ju-Hyun%Kim%NULL%1,               Jin-Sung%Park%NULL%1,               Min Cheol%Chang%wheel633@ynu.ac.kr%1,               Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,    Guido%Grassi%xref no email%1,    Claudio%Borghi%xref no email%1,    Claudio%Ferri%xref no email%1,    Massimo%Salvetti%xref no email%1,    Massimo%Volpe%xref no email%1,    Arrigo F.G.%Cicero%xref no email%1,    Pietro%Minuz%xref no email%1,    Maria Lorenza%Muiesan%xref no email%1,    Paolo%Mulatero%xref no email%1,    Giuseppe%Mul\u00e8%xref no email%1,    Giacomo%Pucci%xref no email%1,    Carmine%Savoia%xref no email%1,    Leonardo%Sechi%xref no email%1,    Stefano%Carugo%xref no email%1,    Francesco%Fallo%xref no email%1,    Cristina%Giannattasio%xref no email%1,    Davide%Grassi%xref no email%1,    Claudio%Letizia%xref no email%1,    Stefano%Perlini%xref no email%1,    Damiano%Rizzoni%xref no email%1,    Riccardo%Sarzani%xref no email%1,    Giuliano%Tocci%xref no email%1,    Franco%Veglio%xref no email%1,    Claudia%Agabiti Rosei%xref no email%1,    Michele%Bevilacqua%xref no email%1,    Valeria%Bisogni%xref no email%1,    Michele%Bombelli%xref no email%1,    Luca%Bulfone%xref no email%1,    Flaminia%Canichella%xref no email%1,    Giovanni%Carpani%xref no email%1,    Massimo%Catanuso%xref no email%1,    Giulia%Chiarini%xref no email%1,    Fernando%Chiumiento%xref no email%1,    Rosario%Cianci%xref no email%1,    Franco%Cipollini%xref no email%1,    Antonio%Concistr\u00e8%xref no email%1,    Andrea%Dalbeni%xref no email%1,    Roberto Alberto%De Blasi%xref no email%1,    Carolina%De Ciuceis%xref no email%1,    Raffaella%Dell\u2019Oro%xref no email%1,    Antonino%Di Guardo%xref no email%1,    Santo%Di Lorenzo%xref no email%1,    Monica%Di Norcia%xref no email%1,    Roberto%Ervo%xref no email%1,    Elisabetta%Eula%xref no email%1,    Davide%Fabbricatore%xref no email%1,    Elvira%Fanelli%xref no email%1,    Cristiano%Fava%xref no email%1,    Enzo%Grasso%xref no email%1,    Alessandro%Grimaldi%xref no email%1,    Maddalena%Illario%xref no email%1,    Claudio%Invernizzi%xref no email%1,    Elena%Iraca%xref no email%1,    Federica%Liegi%xref no email%1,    Paolo%Malerba%xref no email%1,    Alessandro%Maloberti%xref no email%1,    Costantino%Mancusi%xref no email%1,    Giulia%Molinari%xref no email%1,    Roberta%Mussinelli%xref no email%1,    Anna%Paini%xref no email%1,    Paola%Pellimassi%xref no email%1,    Ornella%Piazza%xref no email%1,    Roberto%Pontremoli%xref no email%1,    Fosca%Quarti Tevano%xref no email%1,    Franco%Rabbia%xref no email%1,    Monica%Rocco%xref no email%1,    Anna%Sabena%xref no email%1,    Francesco%Salinaro%xref no email%1,    Paola%Schiavi%xref no email%1,    Maria Chiara%Sgariglia%xref no email%1,    Francesco%Spannella%xref no email%1,    Sara%Tedeschi%xref no email%1,    Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,               Raphael Romano%Bruno%NULL%1,               Bernhard%Wernly%NULL%1,               Michael%Joannidis%NULL%1,               Sandra%Oeyen%NULL%1,               Tilemachos%Zafeiridis%NULL%1,               Brian%Marsh%NULL%1,               Finn H%Andersen%NULL%1,               Rui%Moreno%NULL%1,               Ana Margarida%Fernandes%NULL%1,               Antonio%Artigas%NULL%1,               Bernardo Bollen%Pinto%NULL%1,               Joerg%Schefold%NULL%1,               Georg%Wolff%NULL%1,               Malte%Kelm%NULL%2,               Malte%Kelm%NULL%0,               Dylan W%De Lange%NULL%1,               Bertrand%Guidet%NULL%1,               Hans%Flaatten%NULL%1,               Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,               Jae Chol%Choi%NULL%1,               Seung-Hun%You%NULL%1,               Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,               Hamish%Reed-Embleton%NULL%2,               Hamish%Reed-Embleton%NULL%0,               Jen%Lewis%NULL%2,               Jen%Lewis%NULL%0,               Pamela%Bain%NULL%1,               Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,               Kenneth W%Chow%NULL%1,               Jonathan%Vo%NULL%1,               Wei%Hou%NULL%1,               Haifang%Li%NULL%1,               Paul S%Richman%NULL%1,               Sandeep K%Mallipattu%NULL%1,               Hal A%Skopicki%NULL%1,               Adam J%Singer%NULL%1,               Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,    Xiufang%Wang%xref no email%2,    Jian%Chen%xref no email%0,    Hongmei%Zhang%xref no email%2,    Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,               Julien%Moragny%NULL%2,               Julien%Moragny%NULL%0,               Youssef%Bennis%NULL%1,               Benjamin%Batteux%NULL%1,               Etienne%Brochot%NULL%1,               Jean Luc%Schmit%NULL%1,               Jean-Philippe%Lanoix%NULL%1,               Claire%Andrejak%NULL%1,               Olivier%Ganry%NULL%1,               Michel%Slama%NULL%1,               Julien%Maizel%NULL%1,               Yazine%Mahjoub%NULL%1,               Kamel%Masmoudi%NULL%1,               Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,               Yi%Liu%NULL%0,               Keliang%Chen%NULL%1,               Suying%Yan%NULL%1,               Xiangrong%Bai%NULL%1,               Juan%Li%947281063@qq.com%1,               Dong%Liu%ld2069@outlook.com%2,               Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,               Javier%López-Pais%NULL%1,               Carla Eugenia%Cacho-Antonio%NULL%1,               Pablo José%Antúnez-Muiños%NULL%1,               Teba%González-Ferrero%NULL%1,               Marta%Pérez-Poza%NULL%1,               Óscar%Otero-García%NULL%1,               Brais%Díaz-Fernández%NULL%1,               María%Bastos-Fernández%NULL%1,               Noelia%Bouzas-Cruz%NULL%1,               Xoan Carlos%Sanmartín-Pena%NULL%1,               Alfonso%Varela-Román%NULL%1,               Manuel%Portela-Romero%NULL%1,               Luis%Valdés-Cuadrado%NULL%1,               Antonio%Pose-Reino%NULL%1,               José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,               Federico%Rea%NULL%1,               Monica%Ludergnani%NULL%4,               Monica%Ludergnani%NULL%0,               Giovanni%Apolone%NULL%1,               Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Since the beginning of the coronavirus disease 2019 (COVID-19) outbreak initiated on the Diamond Princess Cruise Ship at Yokohama harbor in February 2020, we have been doing our best to treat COVID-19 patients.
+ In animal experiments, angiotensin converting enzyme inhibitors (ACEIs) and angiotensin II type-1 receptor blockers (ARBs) are reported to suppress the downregulation of angiotensin converting enzyme 2 (ACE2), and they may inhibit the worsening of pathological conditions.
+ We aimed to examine whether preceding use of ACEIs and ARBs affected the clinical manifestations and prognosis of COVID-19 patients.
+ One hundred fifty-one consecutive patients (mean age 60 ± 19 years) with polymerase-chain-reaction proven severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection who were admitted to six hospitals in Kanagawa Prefecture, Japan, were analyzed in this multicenter retrospective observational study.
+ Among all COVID-19 patients, in the multiple regression analysis, older age (age ≥ 65 years) was significantly associated with the primary composite outcome (odds ratio (OR) 6.63, 95% confidence interval (CI) 2.28–22.78, P &amp;lt; 0.001), which consisted of (i) in-hospital death, (ii) extracorporeal membrane oxygenation, (iii) mechanical ventilation, including invasive and noninvasive methods, and (iv) admission to the intensive care unit.
+ In COVID-19 patients with hypertension, preceding ACEI/ARB use was significantly associated with a lower occurrence of new-onset or worsening mental confusion (OR 0.06, 95% CI 0.002–0.69, P = 0.02), which was defined by the confusion criterion, which included mild disorientation or hallucination with an estimation of medical history of mental status, after adjustment for age, sex, and diabetes.
+ In conclusion, older age was a significant contributor to a worse prognosis in COVID-19 patients, and ACEIs/ARBs could be beneficial for the prevention of confusion in COVID-19 patients with hypertension.
+</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%0,  Hisao%Ogawa%null%2,  Kazuo%Kimura%null%2,  Masaaki%Konishi%null%2,  Jin%Kirigaya%null%2,  Kazuki%Fukui%null%2,  Kengo%Tsukahara%null%2,  Hiroyuki%Shimizu%null%2,  Keisuke%Iwabuchi%null%2,  Yu%Yamada%null%2,  Kenichiro%Saka%null%2,  Ichiro%Takeuchi%null%2,  Toshio%Hirano%null%2,  Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,               Guohui%Xiao%NULL%1,               Juanjuan%Zhang%NULL%1,               Xing%He%NULL%1,               Min%Ou%NULL%1,               Jing%Bi%NULL%1,               Rongqing%Yang%NULL%1,               Wencheng%Di%NULL%1,               Zhaoqin%Wang%NULL%1,               Zigang%Li%NULL%1,               Hong%Gao%NULL%1,               Lei%Liu%NULL%1,               Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,               Francisca%García-Iglesias%NULL%1,               Teresa%González-Alegre%NULL%1,               Francisco%Blanco%NULL%1,               Marta%Varas%NULL%1,               Clara%Hernández-Blanco%NULL%1,               Victor%Hontañón%NULL%1,               María J.%Jaras-Hernández%NULL%1,               Mónica%Martínez-Prieto%NULL%1,               Araceli%Menéndez-Saldaña%NULL%1,               María L.%Cachán%NULL%1,               Eva%Estirado%NULL%1,               Carlos%Lahoz%NULL%1,               Rosa%de Miguel%NULL%1,               Miriam%Romero%NULL%1,               Mar%Lago%NULL%1,               Cristina%García-Quero%NULL%1,               Cristina%Plaza%NULL%1,               Talía%Sainz-Costa%NULL%1,               Susana%Rivas-Vila%NULL%1,               Blanca%Sánchez%NULL%1,               Celia García%Torres%NULL%1,               Lucía%Martínez-Tobar%NULL%1,               María%Hernandez-Pérez%NULL%1,               Pablo%Racionero%NULL%1,               Patricia%Mir-Ihara%NULL%1,               Jesús%Peña-López%NULL%1,               Marta%Bautista-Barea%NULL%1,               Alexa P.%Benítez%NULL%1,               Pablo%Rodríguez-Merlos%NULL%1,               María%Barcenilla%NULL%1,               María San%Basilio%NULL%1,               María%Valencia%NULL%1,               Ricardo%Romero-Martín%NULL%1,               Ana%Boto de los Bueis%NULL%1,               Adriana%de la Hoz-Polo%NULL%1,               María%del Pino-Cidad%NULL%1,               Javier%Coca-Robinot%NULL%1,               Bárbara%González-Ferrer%NULL%1,               Pedro%Fernández-Pérez%NULL%1,               Isabel%Mogollón%NULL%1,               María S.%Montoro-Romero%NULL%1,               Isabel%Villalaín%NULL%1,               Almudena%del Hierro-Zarzuelo%NULL%1,               Irene%Hernández-Martín%NULL%1,               Javier%Domínguez%NULL%1,               Alberto%Luna%NULL%1,               Soledad%Montoro%NULL%1,               Margarita%Sánchez-Orgaz%NULL%1,               Gloria%Amorena%NULL%1,               Cosme%Lavín-Dapena%NULL%1,               Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,               Stanislas%Gleye%NULL%1,               Isabelle%Clerc Urmes%NULL%1,               Elodie%Laugel%NULL%1,               Jonas%Callet%NULL%1,               Françoise%Barbé%NULL%1,               Sophie%Orlowski%NULL%1,               Catherine%Malaplate%NULL%1,               Isabelle%Aimone-Gastin%NULL%1,               Beatrice Maatem%Caillierez%NULL%1,               Marc%Merten%NULL%1,               Elise%Jeannesson%NULL%1,               Raphaël%Kormann%NULL%1,               Jean-Luc%Olivier%NULL%1,               Rosa-Maria%Rodriguez-Guéant%NULL%1,               Farès%Namour%NULL%1,               Sybille%Bevilacqua%NULL%1,               Marie-Reine%Losser%NULL%1,               Bruno%Levy%NULL%1,               Antoine%Kimmoun%NULL%1,               Sébastien%Gibot%NULL%1,               Nathalie%Thilly%NULL%1,               Luc%Frimat%NULL%1,               Evelyne%Schvoerer%NULL%1,               Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,    Jishou%Zhang%xref no email%2,    Menglong%Wang%xref no email%2,    Jing%Ye%xref no email%2,    Yao%Xu%xref no email%2,    Bo%Shen%xref no email%2,    Hua%He%xref no email%2,    Zhen%Wang%xref no email%2,    Di%Ye%xref no email%2,    Mengmeng%Zhao%xref no email%2,    Zhen%Luo%xref no email%2,    Mingxiao%Liu%xref no email%2,    Pingan%Zhang%xref no email%2,    Jian%Gu%xref no email%2,    Menglin%Liu%xref no email%2,    Dan%Li%xref no email%2,    Jianfang%Liu%xref no email%2,    Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,               Samrachana%Adhikari%NULL%1,               Claudia%Pulgarin%NULL%1,               Andrea B.%Troxel%NULL%1,               Eduardo%Iturrate%NULL%1,               Stephen B.%Johnson%NULL%1,               Anaïs%Hausvater%NULL%1,               Jonathan D.%Newman%NULL%1,               Jeffrey S.%Berger%NULL%1,               Sripal%Bangalore%NULL%1,               Stuart D.%Katz%NULL%1,               Glenn I.%Fishman%NULL%1,               Dennis%Kunichoff%NULL%1,               Yu%Chen%NULL%1,               Gbenga%Ogedegbe%NULL%1,               Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,        Becker%L.B.%coreGivesNoEmail%3,        Chelico%J.D.%coreGivesNoEmail%3,        Cohen%S.L.%coreGivesNoEmail%3,        Cookingham%J.%coreGivesNoEmail%3,        Coppa%K.%coreGivesNoEmail%3,        Crawford%J.M.%coreGivesNoEmail%3,        Davidson%K.W.%coreGivesNoEmail%3,        Diefenbach%M.A.%coreGivesNoEmail%3,        Dominello%A.J.%coreGivesNoEmail%3,        Duer-Hefele%J.%coreGivesNoEmail%3,        Falzon%L.%coreGivesNoEmail%3,        Gitlin%J.%coreGivesNoEmail%3,        Hajizadeh%N.%coreGivesNoEmail%3,        Harvin%T.G.%coreGivesNoEmail%3,        Hirsch%J.S.%coreGivesNoEmail%3,        Hirschwerk%D.A.%coreGivesNoEmail%3,        Kim%E.J.%coreGivesNoEmail%3,        Kozel%Z.M.%coreGivesNoEmail%3,        Marrast%L.M.%coreGivesNoEmail%3,        McGinn%T.%coreGivesNoEmail%3,        Mogavero%J.N.%coreGivesNoEmail%3,        Narasimhan%M.%coreGivesNoEmail%3,        Osorio%G.A.%coreGivesNoEmail%3,        Qiu%M.%coreGivesNoEmail%3,        Richardson%S.%coreGivesNoEmail%3,        Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,               Massimiliano%Marino%NULL%3,               Debora%Formisano%NULL%1,               Francesco%Venturelli%NULL%1,               Massimo%Vicentini%NULL%3,               Massimo%Vicentini%NULL%0,               Roberto%Grilli%NULL%2,               NULL%NULL%NULL%0,               Gianluigi%Forloni%NULL%8,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0,               Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,               Paolo%Maggi%NULL%2,               Paolo%Maggi%NULL%0,               Vincenzo%Messina%NULL%1,               Pasquale%Iuliano%NULL%2,               Pasquale%Iuliano%NULL%0,               Antonio%Sardu%NULL%1,               Vincenzo%Iovinella%NULL%1,               Giuseppe%Paolisso%NULL%1,               Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,               Rasimcan%Meral%NULL%1,               Alpay%Medetalibeyoğlu%NULL%1,               Hilal%Konyaoğlu%NULL%1,               Murat%Köse%NULL%1,               Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%2,    Jack%Owens%xref no email%1,    James%Franklin%xref no email%1,    Yash%Jani%xref no email%1,    Ashish%Kumar%xref no email%2,    Rajkumar%Doshi%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,               Yun%Qiu%NULL%1,               Xiang-Bin%Xing%NULL%1,               Subrata%Ghosh%NULL%1,               Min-Hu%Chen%NULL%1,               Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,               Maddalena%Giannella%NULL%1,               Michele%Bartoletti%NULL%1,               Filippo%Trapani%NULL%1,               Marina%Tadolini%NULL%1,               Claudio%Borghi%NULL%1,               Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,               Marco%Massari%NULL%3,               Marco%Massari%NULL%0,               Roberto%Da Cas%NULL%2,               Francesca%Menniti Ippolito%NULL%2,               Janet%Sultana%NULL%2,               Salvatore%Crisafulli%NULL%2,               Paolo%Giorgi Rossi%NULL%2,               Massimiliano%Marino%NULL%0,               Manuel%Zorzi%NULL%2,               Emanuela%Bovo%NULL%2,               Olivia%Leoni%NULL%2,               Monica%Ludergnani%NULL%0,               Stefania%Spila Alegiani%stefania.spila@iss.it%2,               Stefania%Spila Alegiani%NULL%0,               Francesca%Menniti Ippolito%NULL%0,               Roberto%Da Cas%NULL%0,               Marco%Massari%NULL%0,               Giuseppe%Traversa%NULL%1,               Graziano%Onder%NULL%1,               Gianluca%Trifirò%NULL%1,               Janet%Sultana%NULL%0,               Valentina%Ientile%NULL%1,               Salvatore%Crisafulli%NULL%0,               Paolo%Giorgi Rossi%NULL%0,               Roberto%Grilli%NULL%0,               Giulio%Formoso%NULL%1,               Massimiliano%Marino%NULL%0,               Massimo%Vicentini%NULL%0,               Olivia%Leoni%NULL%0,               Monica%Ludergnani%NULL%0,               Danilo%Cereda%NULL%1,               Eliana%Ferroni%NULL%1,               Stefano%Guzzinati%NULL%1,               Emanuela%Bovo%NULL%0,               Manuel%Zorzi%NULL%0,               Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,               Chaolin%Huang%NULL%1,               Guohui%Fan%NULL%1,               Zhibo%Liu%NULL%1,               Lianhan%Shang%NULL%1,               Fei%Zhou%NULL%1,               Yeming%Wang%NULL%1,               Jiapei%Yu%NULL%1,               Luning%Yang%NULL%1,               Ke%Xie%NULL%1,               Zhisheng%Huang%NULL%1,               Lixue%Huang%NULL%1,               Xiaoying%Gu%NULL%1,               Hui%Li%NULL%1,               Yi%Zhang%NULL%0,               Yimin%Wang%NULL%1,               Frederick G.%Hayden%NULL%1,               Peter W.%Horby%NULL%1,               Bin%Cao%caobin_ben@163.com%1,               Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,    Zihu%Tan%xref no email%3,    Ling%Zhou%xref no email%3,    Min%Yang%xref no email%3,    Lang%Peng%xref no email%3,    Jinjin%Liu%xref no email%3,    Jingling%Cai%xref no email%3,    Ru%Yang%xref no email%3,    Junyan%Han%xref no email%3,    Yafei%Huang%xref no email%3,    Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,               Dan%Liu%NULL%1,               Shaoqing%Zeng%NULL%1,               Siyuan%Wang%NULL%1,               Sen%Xu%NULL%1,               Ya%Wang%NULL%1,               Ruidi%Yu%NULL%1,               Yue%Gao%NULL%1,               Huayi%Li%NULL%1,               Xinxia%Feng%NULL%1,               Ning%Zhou%NULL%0,               Chunxia%Zhao%NULL%1,               Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,               Lihua%Zhu%NULL%1,               Jingjing%Cai%NULL%1,               Fang%Lei%NULL%1,               Juan-Juan%Qin%NULL%1,               Jing%Xie%NULL%1,               Ye-Mao%Liu%NULL%1,               Yan-Ci%Zhao%NULL%1,               Xuewei%Huang%NULL%1,               Lijin%Lin%NULL%1,               Meng%Xia%NULL%1,               Ming-Ming%Chen%NULL%1,               Xu%Cheng%NULL%1,               Xiao%Zhang%NULL%1,               Deliang%Guo%NULL%1,               Yuanyuan%Peng%NULL%1,               Yan-Xiao%Ji%NULL%1,               Jing%Chen%NULL%1,               Zhi-Gang%She%NULL%1,               Yibin%Wang%NULL%0,               Qingbo%Xu%NULL%1,               Renfu%Tan%NULL%1,               Haitao%Wang%NULL%1,               Jun%Lin%NULL%1,               Pengcheng%Luo%NULL%1,               Shouzhi%Fu%NULL%1,               Hongbin%Cai%NULL%1,               Ping%Ye%NULL%1,               Bing%Xiao%NULL%1,               Weiming%Mao%NULL%1,               Liming%Liu%NULL%1,               Youqin%Yan%NULL%1,               Mingyu%Liu%NULL%1,               Manhua%Chen%NULL%1,               Xiao-Jing%Zhang%NULL%1,               Xinghuan%Wang%NULL%1,               Rhian M.%Touyz%NULL%1,               Jiahong%Xia%NULL%1,               Bing-Hong%Zhang%NULL%1,               Xiaodong%Huang%NULL%1,               Yufeng%Yuan%NULL%1,               Rohit%Loomba%NULL%1,               Peter P.%Liu%NULL%1,               Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2870,7 +3139,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>616</v>
+        <v>702</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -2962,7 +3231,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>617</v>
+        <v>703</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3008,7 +3277,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>618</v>
+        <v>704</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -3054,7 +3323,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>619</v>
+        <v>705</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -3100,7 +3369,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>620</v>
+        <v>706</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -3146,7 +3415,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>621</v>
+        <v>707</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -3192,7 +3461,7 @@
         <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>622</v>
+        <v>708</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -3238,7 +3507,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>623</v>
+        <v>709</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -3284,7 +3553,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>624</v>
+        <v>710</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3330,7 +3599,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>625</v>
+        <v>711</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3376,7 +3645,7 @@
         <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>626</v>
+        <v>712</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -3422,7 +3691,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>627</v>
+        <v>713</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -3468,7 +3737,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>628</v>
+        <v>714</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -3514,7 +3783,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>629</v>
+        <v>715</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -3560,7 +3829,7 @@
         <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>630</v>
+        <v>716</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -3606,7 +3875,7 @@
         <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>631</v>
+        <v>717</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3652,7 +3921,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>632</v>
+        <v>718</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -3698,7 +3967,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>633</v>
+        <v>719</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -3744,7 +4013,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>634</v>
+        <v>720</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -3790,7 +4059,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -3836,7 +4105,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -3882,7 +4151,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -3928,7 +4197,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -3974,7 +4243,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>639</v>
+        <v>725</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -4020,7 +4289,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>640</v>
+        <v>726</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -4063,10 +4332,10 @@
         <v>145</v>
       </c>
       <c r="D28" t="s">
-        <v>146</v>
+        <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>641</v>
+        <v>728</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -4112,7 +4381,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>642</v>
+        <v>729</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -4158,7 +4427,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>643</v>
+        <v>730</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -4204,7 +4473,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>644</v>
+        <v>731</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -4250,7 +4519,7 @@
         <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>645</v>
+        <v>732</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -4296,7 +4565,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>646</v>
+        <v>733</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -4342,7 +4611,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>647</v>
+        <v>734</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -4388,7 +4657,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>648</v>
+        <v>735</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -4434,7 +4703,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>649</v>
+        <v>736</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -4480,7 +4749,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>650</v>
+        <v>737</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -4526,7 +4795,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>651</v>
+        <v>738</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -4572,7 +4841,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>652</v>
+        <v>739</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -4618,7 +4887,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>653</v>
+        <v>740</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -4664,7 +4933,7 @@
         <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>654</v>
+        <v>741</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -4710,7 +4979,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>655</v>
+        <v>742</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -4756,7 +5025,7 @@
         <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>656</v>
+        <v>743</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -4802,7 +5071,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>657</v>
+        <v>744</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -4848,7 +5117,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>658</v>
+        <v>745</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4861" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5491" uniqueCount="835">
   <si>
     <t>Doi</t>
   </si>
@@ -2711,6 +2711,318 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,               Lihua%Zhu%NULL%1,               Jingjing%Cai%NULL%1,               Fang%Lei%NULL%1,               Juan-Juan%Qin%NULL%1,               Jing%Xie%NULL%1,               Ye-Mao%Liu%NULL%1,               Yan-Ci%Zhao%NULL%1,               Xuewei%Huang%NULL%1,               Lijin%Lin%NULL%1,               Meng%Xia%NULL%1,               Ming-Ming%Chen%NULL%1,               Xu%Cheng%NULL%1,               Xiao%Zhang%NULL%1,               Deliang%Guo%NULL%1,               Yuanyuan%Peng%NULL%1,               Yan-Xiao%Ji%NULL%1,               Jing%Chen%NULL%1,               Zhi-Gang%She%NULL%1,               Yibin%Wang%NULL%0,               Qingbo%Xu%NULL%1,               Renfu%Tan%NULL%1,               Haitao%Wang%NULL%1,               Jun%Lin%NULL%1,               Pengcheng%Luo%NULL%1,               Shouzhi%Fu%NULL%1,               Hongbin%Cai%NULL%1,               Ping%Ye%NULL%1,               Bing%Xiao%NULL%1,               Weiming%Mao%NULL%1,               Liming%Liu%NULL%1,               Youqin%Yan%NULL%1,               Mingyu%Liu%NULL%1,               Manhua%Chen%NULL%1,               Xiao-Jing%Zhang%NULL%1,               Xinghuan%Wang%NULL%1,               Rhian M.%Touyz%NULL%1,               Jiahong%Xia%NULL%1,               Bing-Hong%Zhang%NULL%1,               Xiaodong%Huang%NULL%1,               Yufeng%Yuan%NULL%1,               Rohit%Loomba%NULL%1,               Peter P.%Liu%NULL%1,               Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                Sandra%Santos-Martinez%NULL%1,                Diego%López-Otero%NULL%1,                Luis%Nombela-Franco%NULL%1,                Enrique%Gutiérrez-Ibanes%NULL%1,                Raquel%Del Valle%NULL%1,                Erika%Muñoz-García%NULL%1,                Víctor A.%Jiménez-Diaz%NULL%1,                Ander%Regueiro%NULL%1,                Rocío%González-Ferreiro%NULL%1,                Tomás%Benito%NULL%1,                Xoan Carlos%Sanmartin-Pena%NULL%1,                Pablo%Catalá%NULL%1,                Tania%Rodríguez-Gabella%NULL%1,                Jose Raúl%Delgado-Arana%NULL%1,                Manuel%Carrasco-Moraleja%NULL%1,                Borja%Ibañez%NULL%1,                J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                David M.%Tehrani%NULL%1,                Soniya V.%Rabadia%NULL%1,                Marlene%Frost%NULL%1,                Rushi V.%Parikh%NULL%1,                Marcella%Calfon-Press%NULL%1,                Olcay%Aksoy%NULL%1,                Soban%Umar%NULL%1,                Reza%Ardehali%NULL%1,                Amir%Rabbani%NULL%1,                Pooya%Bokhoor%NULL%1,                Ali%Nsair%NULL%1,                Jesse%Currier%NULL%1,                Jonathan%Tobis%NULL%1,                Gregg C.%Fonarow%NULL%1,                Ravi%Dave%NULL%1,                Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                Zeljko%Kraljevic%NULL%1,                Thomas%Searle%NULL%1,                Rebecca%Bendayan%NULL%1,                O'Gallagher%Kevin%NULL%1,                Andrew%Pickles%NULL%1,                Amos%Folarin%NULL%1,                Lukasz%Roguski%NULL%1,                Kawsar%Noor%NULL%1,                Anthony%Shek%NULL%1,                Rosita%Zakeri%NULL%1,                Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                James T.H.%Teo%jamesteo@nhs.net%1,                Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                Mauro%Chiarito%NULL%1,                Bernhard%Reimers%NULL%2,                Bernhard%Reimers%NULL%0,                Elena%Azzolini%NULL%1,                Giuseppe%Ferrante%NULL%1,                Ilaria%My%NULL%1,                Giacomo%Viggiani%NULL%1,                Cristina%Panico%NULL%1,                Damiano%Regazzoli%NULL%1,                Michele%Ciccarelli%NULL%1,                Antonio%Voza%NULL%1,                Alessio%Aghemo%NULL%1,                Hongliang%Li%NULL%2,                Yibin%Wang%NULL%2,                Gianluigi%Condorelli%NULL%1,                Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                Feng%Wang%NULL%1,                Peng%Chen%NULL%1,                Jiangang%Jiang%NULL%1,                Guanglin%Cui%NULL%1,                Ning%Zhou%NULL%2,                Francesco%Moroni%NULL%1,                Javid J.%Moslehi%NULL%1,                Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                Ming%Zhong%NULL%1,                Ya%Liu%NULL%1,                Yi%Zhang%NULL%2,                Kai%Zhang%NULL%1,                De-zhen%Su%NULL%1,                Xiao%Meng%NULL%1,                Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,     Dong%Yang%xref no email%2,     Biao%Cheng%xref no email%2,     Jian%Chen%xref no email%4,     Anlin%Peng%xref no email%2,     Chen%Yang%xref no email%2,     Chong%Liu%xref no email%2,     Mingrui%Xiong%xref no email%2,     Aiping%Deng%xref no email%4,     Yu%Zhang%xref no email%2,     Ling%Zheng%xref no email%2,     Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                Duncan%Young%NULL%2,                Duncan%Young%NULL%0,                Carol%Coupland%NULL%1,                Keith M%Channon%NULL%1,                Pui San%Tan%NULL%1,                David A%Harrison%NULL%1,                Kathryn%Rowan%NULL%2,                Kathryn%Rowan%NULL%0,                Paul%Aveyard%NULL%1,                Ian D%Pavord%NULL%1,                Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,         Butt%Jawad H%coreGivesNoEmail%1,         Fosb\u00f8l%Emil L%coreGivesNoEmail%1,         Gerds%Thomas A%coreGivesNoEmail%1,         Gislason%Gunnar H%coreGivesNoEmail%1,         Kragholm%Kristian%coreGivesNoEmail%1,         K\u00f8ber%Lars%coreGivesNoEmail%1,         Phelps%Matthew%coreGivesNoEmail%1,         Schou%Morten%coreGivesNoEmail%1,         Selmer%Christian%coreGivesNoEmail%1,         Torp-Pedersen%Christian%coreGivesNoEmail%1,         \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                Yue%Cai%NULL%1,                Kan%Zhang%NULL%2,                Kan%Zhang%NULL%0,                Lei%Zhou%NULL%1,                Yao%Zhang%NULL%1,                Xijing%Zhang%NULL%1,                Qi%Li%NULL%1,                Weiqin%Li%NULL%1,                Shiming%Yang%NULL%1,                Xiaoyan%Zhao%NULL%1,                Yuying%Zhao%NULL%1,                Hui%Wang%NULL%1,                Yi%Liu%NULL%2,                Zhiyong%Yin%NULL%1,                Ruining%Zhang%NULL%1,                Rutao%Wang%NULL%1,                Ming%Yang%NULL%1,                Chen%Hui%NULL%1,                William%Wijns%NULL%1,                J William%McEvoy%NULL%1,                Osama%Soliman%NULL%2,                Osama%Soliman%NULL%0,                Yoshinobu%Onuma%NULL%2,                Yoshinobu%Onuma%NULL%0,                Patrick W%Serruys%NULL%1,                Ling%Tao%lingtao@fmmu.edu.cn%1,                Fei%Li%lifei01@fmmu.edu.cn%2,                Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The aim of this study was to investigate the possible relationship between worse clinical outcomes and the use of angiotensin-converting enzyme inhibitors (ACEIs) or angiotensin receptor blockers (ARBs) in hospitalized COVID-19 patients.
+ A total of 247 adult patients (154 males, 93 females; mean age: 51.3 ± 14.2 years) hospitalized for COVID-19 as confirmed by polymerase chain reaction (PCR) were retrospectively reviewed.
+ Demographic and clinical characteristics and laboratory parameters were analyzed using various statistical modeling.
+ Primary outcomes were defined as the need for intensive care unit (ICU), mechanical ventilation, or occurrence of death.
+ Of the patients, 48 were treated in the ICU with a high flow oxygen/noninvasive mechanical ventilation (NIMV, n = 12) or mechanical ventilation (n = 36).
+ Median length of ICU stay was 13 (range, 7–18) days.
+ Mortality was seen in four of the ICU patients.
+ Other patients were followed in the COVID-19 services for a median of 7 days.
+ There was no significant correlation between the primary outcomes and use of ACEIs/ARBs (frequentist OR = 0.82, 95% confidence interval (CI) 0.29–2.34, p = 0.715 and Bayesian posterior median OR = 0.80, 95% CI 0.31–2.02) and presence of hypertension (frequentist OR = 1.23, 95% CI 0.52–2.92, p = 0.631 and Bayesian posterior median OR = 1.25, 95% CI 0.58–2.60).
+ Neutrophil-to-lymphocyte ratio (NLR) and D-dimer levels were strongly associated with primary outcomes.
+ In conclusion, the presence of hypertension and use of ACEIs/ARBs were not significantly associated with poor primary clinical outcomes; however, NLR and D-dimer levels were strong predictors of clinical worsening.
+</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                Erkan%Ekicibasi%NULL%1,                Aleks%Degirmencioglu%NULL%1,                Ashok%Paudel%NULL%1,                Refik%Erdim%NULL%1,                Hilal Kurtoglu%Gumusel%NULL%1,                Elif%Eroglu%NULL%1,                Ibrahim Halil%Tanboga%NULL%1,                Sinan%Dagdelen%NULL%1,                Nevin%Sariguzel%NULL%1,                Ceyda Erel%Kirisoglu%NULL%1,                Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,         Antonelli%M.%coreGivesNoEmail%2,         Bellani%G.%coreGivesNoEmail%2,         Bonanomi%E.%coreGivesNoEmail%2,         Cabrini%L.%coreGivesNoEmail%2,         Carlesso%E.%coreGivesNoEmail%2,         Castelli%G.%coreGivesNoEmail%2,         Cattaneo%S.%coreGivesNoEmail%2,         Cecconi%M.%coreGivesNoEmail%2,         Cereda%D.%coreGivesNoEmail%2,         Colombo%S.%coreGivesNoEmail%2,         Coluccello%A.%coreGivesNoEmail%2,         Crescini%G.%coreGivesNoEmail%2,         Forastieri%Molinari A.%coreGivesNoEmail%2,         Foti%G.%coreGivesNoEmail%2,         Fumagalli%R.%coreGivesNoEmail%2,         Grasselli%G.%coreGivesNoEmail%2,         Greco%M.%coreGivesNoEmail%2,         Iotti%G. A.%coreGivesNoEmail%2,         Langer%T.%coreGivesNoEmail%2,         Latronico%N.%coreGivesNoEmail%2,         Lorini%F. L.%coreGivesNoEmail%2,         Mojoli%F.%coreGivesNoEmail%2,         Natalini%G.%coreGivesNoEmail%2,         Pesenti%A.%coreGivesNoEmail%2,         Pessina%C. M.%coreGivesNoEmail%2,         Ranieri%V. M.%coreGivesNoEmail%2,         Rech%R.%coreGivesNoEmail%2,         Rosano%A.%coreGivesNoEmail%2,         Scudeller%L.%coreGivesNoEmail%2,         Storti%E.%coreGivesNoEmail%2,         Thompson%B. T.%coreGivesNoEmail%2,         Tirani%M.%coreGivesNoEmail%2,         Villani%P. G.%coreGivesNoEmail%2,         Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,     Yueli%Zhu%xref no email%1,     Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                Jiatian%Cao%NULL%1,                Yumeng%Yao%NULL%1,                Xuejuan%Jin%NULL%1,                Zhe%Luo%NULL%1,                Yuan%Xue%NULL%1,                Chouwen%Zhu%NULL%1,                Yanan%Song%NULL%1,                Ying%Wang%NULL%1,                Yunzeng%Zou%NULL%1,                Juying%Qian%NULL%1,                Kaihuan%Yu%NULL%1,                Hui%Gong%NULL%1,                Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+In the current study, we evaluated factors that increase the coronavirus disease (COVID-19) patient death rate by analyzing the data from two cohort hospitals.
+ In addition, we studied whether underlying neurological diseases are risk factors for death.
+Methods
+In this retrospective cohort study, we included 103 adult inpatients (aged ≥ 18 years).
+ We evaluated differences in demographic data between surviving and non-surviving COVID-19 patients.
+Results
+In a multivariate logistic analysis, age and the presence of chronic lung disease and Alzheimer’s dementia (AD) were the only significant parameters for predicting COVID-19 non-survival (p &amp;lt; 0.05).
+ However, hypertension, coronary vascular disease, dyslipidemia, chronic kidney disease, diabetes, and history of taking angiotensin II receptor blockers (ARBs) or angiotensin-converting enzyme (ACE) inhibitors, as well as nonsteroidal anti-inflammatory drugs (NSAIDs), were not significantly associated with the death of COVID-19 patients.
+ The optimal cutoff value obtained from the maximum Youden index was 70 (sensitivity, 80.77%; specificity, 61.04%), and the odds ratio of non-survival increased 1.055 fold for every year of age.
+Conclusions
+Clinicians should closely monitor and manage the symptoms of COVID-19 patients who are over the age of 70 years or have chronic lung disease or AD.
+</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                Ju-Hyun%Kim%NULL%1,                Jin-Sung%Park%NULL%1,                Min Cheol%Chang%wheel633@ynu.ac.kr%1,                Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,     Guido%Grassi%xref no email%1,     Claudio%Borghi%xref no email%1,     Claudio%Ferri%xref no email%1,     Massimo%Salvetti%xref no email%1,     Massimo%Volpe%xref no email%1,     Arrigo F.G.%Cicero%xref no email%1,     Pietro%Minuz%xref no email%1,     Maria Lorenza%Muiesan%xref no email%1,     Paolo%Mulatero%xref no email%1,     Giuseppe%Mul\u00e8%xref no email%1,     Giacomo%Pucci%xref no email%1,     Carmine%Savoia%xref no email%1,     Leonardo%Sechi%xref no email%1,     Stefano%Carugo%xref no email%1,     Francesco%Fallo%xref no email%1,     Cristina%Giannattasio%xref no email%1,     Davide%Grassi%xref no email%1,     Claudio%Letizia%xref no email%1,     Stefano%Perlini%xref no email%1,     Damiano%Rizzoni%xref no email%1,     Riccardo%Sarzani%xref no email%1,     Giuliano%Tocci%xref no email%1,     Franco%Veglio%xref no email%1,     Claudia%Agabiti Rosei%xref no email%1,     Michele%Bevilacqua%xref no email%1,     Valeria%Bisogni%xref no email%1,     Michele%Bombelli%xref no email%1,     Luca%Bulfone%xref no email%1,     Flaminia%Canichella%xref no email%1,     Giovanni%Carpani%xref no email%1,     Massimo%Catanuso%xref no email%1,     Giulia%Chiarini%xref no email%1,     Fernando%Chiumiento%xref no email%1,     Rosario%Cianci%xref no email%1,     Franco%Cipollini%xref no email%1,     Antonio%Concistr\u00e8%xref no email%1,     Andrea%Dalbeni%xref no email%1,     Roberto Alberto%De Blasi%xref no email%1,     Carolina%De Ciuceis%xref no email%1,     Raffaella%Dell\u2019Oro%xref no email%1,     Antonino%Di Guardo%xref no email%1,     Santo%Di Lorenzo%xref no email%1,     Monica%Di Norcia%xref no email%1,     Roberto%Ervo%xref no email%1,     Elisabetta%Eula%xref no email%1,     Davide%Fabbricatore%xref no email%1,     Elvira%Fanelli%xref no email%1,     Cristiano%Fava%xref no email%1,     Enzo%Grasso%xref no email%1,     Alessandro%Grimaldi%xref no email%1,     Maddalena%Illario%xref no email%1,     Claudio%Invernizzi%xref no email%1,     Elena%Iraca%xref no email%1,     Federica%Liegi%xref no email%1,     Paolo%Malerba%xref no email%1,     Alessandro%Maloberti%xref no email%1,     Costantino%Mancusi%xref no email%1,     Giulia%Molinari%xref no email%1,     Roberta%Mussinelli%xref no email%1,     Anna%Paini%xref no email%1,     Paola%Pellimassi%xref no email%1,     Ornella%Piazza%xref no email%1,     Roberto%Pontremoli%xref no email%1,     Fosca%Quarti Tevano%xref no email%1,     Franco%Rabbia%xref no email%1,     Monica%Rocco%xref no email%1,     Anna%Sabena%xref no email%1,     Francesco%Salinaro%xref no email%1,     Paola%Schiavi%xref no email%1,     Maria Chiara%Sgariglia%xref no email%1,     Francesco%Spannella%xref no email%1,     Sara%Tedeschi%xref no email%1,     Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                Raphael Romano%Bruno%NULL%1,                Bernhard%Wernly%NULL%1,                Michael%Joannidis%NULL%1,                Sandra%Oeyen%NULL%1,                Tilemachos%Zafeiridis%NULL%1,                Brian%Marsh%NULL%1,                Finn H%Andersen%NULL%1,                Rui%Moreno%NULL%1,                Ana Margarida%Fernandes%NULL%1,                Antonio%Artigas%NULL%1,                Bernardo Bollen%Pinto%NULL%1,                Joerg%Schefold%NULL%1,                Georg%Wolff%NULL%1,                Malte%Kelm%NULL%2,                Malte%Kelm%NULL%0,                Dylan W%De Lange%NULL%1,                Bertrand%Guidet%NULL%1,                Hans%Flaatten%NULL%1,                Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                Jae Chol%Choi%NULL%1,                Seung-Hun%You%NULL%1,                Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                Hamish%Reed-Embleton%NULL%2,                Hamish%Reed-Embleton%NULL%0,                Jen%Lewis%NULL%2,                Jen%Lewis%NULL%0,                Pamela%Bain%NULL%1,                Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                Kenneth W%Chow%NULL%1,                Jonathan%Vo%NULL%1,                Wei%Hou%NULL%1,                Haifang%Li%NULL%1,                Paul S%Richman%NULL%1,                Sandeep K%Mallipattu%NULL%1,                Hal A%Skopicki%NULL%1,                Adam J%Singer%NULL%1,                Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,     Xiufang%Wang%xref no email%2,     Jian%Chen%xref no email%0,     Hongmei%Zhang%xref no email%2,     Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                Julien%Moragny%NULL%2,                Julien%Moragny%NULL%0,                Youssef%Bennis%NULL%1,                Benjamin%Batteux%NULL%1,                Etienne%Brochot%NULL%1,                Jean Luc%Schmit%NULL%1,                Jean-Philippe%Lanoix%NULL%1,                Claire%Andrejak%NULL%1,                Olivier%Ganry%NULL%1,                Michel%Slama%NULL%1,                Julien%Maizel%NULL%1,                Yazine%Mahjoub%NULL%1,                Kamel%Masmoudi%NULL%1,                Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                Yi%Liu%NULL%0,                Keliang%Chen%NULL%1,                Suying%Yan%NULL%1,                Xiangrong%Bai%NULL%1,                Juan%Li%947281063@qq.com%1,                Dong%Liu%ld2069@outlook.com%2,                Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                Javier%López-Pais%NULL%1,                Carla Eugenia%Cacho-Antonio%NULL%1,                Pablo José%Antúnez-Muiños%NULL%1,                Teba%González-Ferrero%NULL%1,                Marta%Pérez-Poza%NULL%1,                Óscar%Otero-García%NULL%1,                Brais%Díaz-Fernández%NULL%1,                María%Bastos-Fernández%NULL%1,                Noelia%Bouzas-Cruz%NULL%1,                Xoan Carlos%Sanmartín-Pena%NULL%1,                Alfonso%Varela-Román%NULL%1,                Manuel%Portela-Romero%NULL%1,                Luis%Valdés-Cuadrado%NULL%1,                Antonio%Pose-Reino%NULL%1,                José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                Federico%Rea%NULL%1,                Monica%Ludergnani%NULL%4,                Monica%Ludergnani%NULL%0,                Giovanni%Apolone%NULL%1,                Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,   Hisao%Ogawa%null%2,   Kazuo%Kimura%null%2,   Masaaki%Konishi%null%2,   Jin%Kirigaya%null%2,   Kazuki%Fukui%null%2,   Kengo%Tsukahara%null%2,   Hiroyuki%Shimizu%null%2,   Keisuke%Iwabuchi%null%2,   Yu%Yamada%null%2,   Kenichiro%Saka%null%2,   Ichiro%Takeuchi%null%2,   Toshio%Hirano%null%2,   Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                Guohui%Xiao%NULL%1,                Juanjuan%Zhang%NULL%1,                Xing%He%NULL%1,                Min%Ou%NULL%1,                Jing%Bi%NULL%1,                Rongqing%Yang%NULL%1,                Wencheng%Di%NULL%1,                Zhaoqin%Wang%NULL%1,                Zigang%Li%NULL%1,                Hong%Gao%NULL%1,                Lei%Liu%NULL%1,                Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                Francisca%García-Iglesias%NULL%1,                Teresa%González-Alegre%NULL%1,                Francisco%Blanco%NULL%1,                Marta%Varas%NULL%1,                Clara%Hernández-Blanco%NULL%1,                Victor%Hontañón%NULL%1,                María J.%Jaras-Hernández%NULL%1,                Mónica%Martínez-Prieto%NULL%1,                Araceli%Menéndez-Saldaña%NULL%1,                María L.%Cachán%NULL%1,                Eva%Estirado%NULL%1,                Carlos%Lahoz%NULL%1,                Rosa%de Miguel%NULL%1,                Miriam%Romero%NULL%1,                Mar%Lago%NULL%1,                Cristina%García-Quero%NULL%1,                Cristina%Plaza%NULL%1,                Talía%Sainz-Costa%NULL%1,                Susana%Rivas-Vila%NULL%1,                Blanca%Sánchez%NULL%1,                Celia García%Torres%NULL%1,                Lucía%Martínez-Tobar%NULL%1,                María%Hernandez-Pérez%NULL%1,                Pablo%Racionero%NULL%1,                Patricia%Mir-Ihara%NULL%1,                Jesús%Peña-López%NULL%1,                Marta%Bautista-Barea%NULL%1,                Alexa P.%Benítez%NULL%1,                Pablo%Rodríguez-Merlos%NULL%1,                María%Barcenilla%NULL%1,                María San%Basilio%NULL%1,                María%Valencia%NULL%1,                Ricardo%Romero-Martín%NULL%1,                Ana%Boto de los Bueis%NULL%1,                Adriana%de la Hoz-Polo%NULL%1,                María%del Pino-Cidad%NULL%1,                Javier%Coca-Robinot%NULL%1,                Bárbara%González-Ferrer%NULL%1,                Pedro%Fernández-Pérez%NULL%1,                Isabel%Mogollón%NULL%1,                María S.%Montoro-Romero%NULL%1,                Isabel%Villalaín%NULL%1,                Almudena%del Hierro-Zarzuelo%NULL%1,                Irene%Hernández-Martín%NULL%1,                Javier%Domínguez%NULL%1,                Alberto%Luna%NULL%1,                Soledad%Montoro%NULL%1,                Margarita%Sánchez-Orgaz%NULL%1,                Gloria%Amorena%NULL%1,                Cosme%Lavín-Dapena%NULL%1,                Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                Stanislas%Gleye%NULL%1,                Isabelle%Clerc Urmes%NULL%1,                Elodie%Laugel%NULL%1,                Jonas%Callet%NULL%1,                Françoise%Barbé%NULL%1,                Sophie%Orlowski%NULL%1,                Catherine%Malaplate%NULL%1,                Isabelle%Aimone-Gastin%NULL%1,                Beatrice Maatem%Caillierez%NULL%1,                Marc%Merten%NULL%1,                Elise%Jeannesson%NULL%1,                Raphaël%Kormann%NULL%1,                Jean-Luc%Olivier%NULL%1,                Rosa-Maria%Rodriguez-Guéant%NULL%1,                Farès%Namour%NULL%1,                Sybille%Bevilacqua%NULL%1,                Marie-Reine%Losser%NULL%1,                Bruno%Levy%NULL%1,                Antoine%Kimmoun%NULL%1,                Sébastien%Gibot%NULL%1,                Nathalie%Thilly%NULL%1,                Luc%Frimat%NULL%1,                Evelyne%Schvoerer%NULL%1,                Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,     Jishou%Zhang%xref no email%2,     Menglong%Wang%xref no email%2,     Jing%Ye%xref no email%2,     Yao%Xu%xref no email%2,     Bo%Shen%xref no email%2,     Hua%He%xref no email%2,     Zhen%Wang%xref no email%2,     Di%Ye%xref no email%2,     Mengmeng%Zhao%xref no email%2,     Zhen%Luo%xref no email%2,     Mingxiao%Liu%xref no email%2,     Pingan%Zhang%xref no email%2,     Jian%Gu%xref no email%2,     Menglin%Liu%xref no email%2,     Dan%Li%xref no email%2,     Jianfang%Liu%xref no email%2,     Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                Samrachana%Adhikari%NULL%1,                Claudia%Pulgarin%NULL%1,                Andrea B.%Troxel%NULL%1,                Eduardo%Iturrate%NULL%1,                Stephen B.%Johnson%NULL%1,                Anaïs%Hausvater%NULL%1,                Jonathan D.%Newman%NULL%1,                Jeffrey S.%Berger%NULL%1,                Sripal%Bangalore%NULL%1,                Stuart D.%Katz%NULL%1,                Glenn I.%Fishman%NULL%1,                Dennis%Kunichoff%NULL%1,                Yu%Chen%NULL%1,                Gbenga%Ogedegbe%NULL%1,                Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,         Becker%L.B.%coreGivesNoEmail%3,         Chelico%J.D.%coreGivesNoEmail%3,         Cohen%S.L.%coreGivesNoEmail%3,         Cookingham%J.%coreGivesNoEmail%3,         Coppa%K.%coreGivesNoEmail%3,         Crawford%J.M.%coreGivesNoEmail%3,         Davidson%K.W.%coreGivesNoEmail%3,         Diefenbach%M.A.%coreGivesNoEmail%3,         Dominello%A.J.%coreGivesNoEmail%3,         Duer-Hefele%J.%coreGivesNoEmail%3,         Falzon%L.%coreGivesNoEmail%3,         Gitlin%J.%coreGivesNoEmail%3,         Hajizadeh%N.%coreGivesNoEmail%3,         Harvin%T.G.%coreGivesNoEmail%3,         Hirsch%J.S.%coreGivesNoEmail%3,         Hirschwerk%D.A.%coreGivesNoEmail%3,         Kim%E.J.%coreGivesNoEmail%3,         Kozel%Z.M.%coreGivesNoEmail%3,         Marrast%L.M.%coreGivesNoEmail%3,         McGinn%T.%coreGivesNoEmail%3,         Mogavero%J.N.%coreGivesNoEmail%3,         Narasimhan%M.%coreGivesNoEmail%3,         Osorio%G.A.%coreGivesNoEmail%3,         Qiu%M.%coreGivesNoEmail%3,         Richardson%S.%coreGivesNoEmail%3,         Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                Massimiliano%Marino%NULL%3,                Debora%Formisano%NULL%1,                Francesco%Venturelli%NULL%1,                Massimo%Vicentini%NULL%3,                Massimo%Vicentini%NULL%0,                Roberto%Grilli%NULL%2,                NULL%NULL%NULL%0,                Gianluigi%Forloni%NULL%8,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0,                Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                Paolo%Maggi%NULL%2,                Paolo%Maggi%NULL%0,                Vincenzo%Messina%NULL%1,                Pasquale%Iuliano%NULL%2,                Pasquale%Iuliano%NULL%0,                Antonio%Sardu%NULL%1,                Vincenzo%Iovinella%NULL%1,                Giuseppe%Paolisso%NULL%1,                Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                Rasimcan%Meral%NULL%1,                Alpay%Medetalibeyoğlu%NULL%1,                Hilal%Konyaoğlu%NULL%1,                Murat%Köse%NULL%1,                Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%2,     Jack%Owens%xref no email%1,     James%Franklin%xref no email%1,     Yash%Jani%xref no email%1,     Ashish%Kumar%xref no email%1,     Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                Yun%Qiu%NULL%1,                Xiang-Bin%Xing%NULL%1,                Subrata%Ghosh%NULL%1,                Min-Hu%Chen%NULL%1,                Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                Maddalena%Giannella%NULL%1,                Michele%Bartoletti%NULL%1,                Filippo%Trapani%NULL%1,                Marina%Tadolini%NULL%1,                Claudio%Borghi%NULL%1,                Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction
+The epidemic due to severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection has been spreading globally, raising increasing concerns.
+ There are several controversial hypotheses on the potentially harmful or beneficial effects of antihypertensive drugs acting on the renin–angiotensin–aldosterone system (RAAS) in coronavirus disease 2019 (COVID-19).
+ Furthermore, there is accumulating evidence, based on several observational studies, that angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin receptor blockers (ARBs) do not increase the risk of contracting SARS-CoV-2 infection.
+ On the other hand, conflicting findings regarding the role of ACEIs/ARBs as prognosis modifiers in COVID-19 hospitalised patients have been reported.
+Objective
+The aim of this large-scale, retrospective cohort study was to investigate whether prior exposure to ACEIs and/or ARBs was associated with all-cause mortality among over 40,000 hospitalised COVID-19 patients compared with calcium channel blockers (CCBs), a potential therapeutic alternative.
+Methods
+This study was conducted using COVID-19 registries linked to claims databases from Lombardy, Veneto and Reggio Emilia (overall, 25% of Italian population).
+ Overall, 42,926 patients hospitalised between 21 February and 21 April 2020 with a diagnosis of COVID-19 confirmed by real-time polymerase chain reaction tests were included in this study.
+ All-cause mortality occurring in or out of hospital, as reported in the COVID-19 registry, was estimated.
+ Using Cox models, adjusted hazard ratios (HRs) of all-cause mortality (along with 95% confidence intervals [CIs]) were estimated separately for ACEIs/ARBs and other antihypertensives versus CCBs and non-use.
+Results
+Overall, 11,205 in- and out-of-hospital deaths occurred over a median of 24 days of follow-up after hospital admission due to COVID-19. Compared with CCBs, adjusted analyses showed no difference in the risk of death among ACEI (HR 0.97, 95% CI 0.89–1.06) or ARB (HR 0.98, 95% CI 0.89–1.06) users.
+ When non-use of antihypertensives was considered as a comparator, a modest statistically significant increase in mortality risk was observed for any antihypertensive use.
+ However, when restricting to drugs with antihypertensive indications only, these marginal increases disappeared.
+ Sensitivity and subgroup analyses confirmed our main findings.
+Conclusions
+ACEI/ARB use is not associated with either an increased or decreased risk of all-cause mortality, compared with CCB use, in the largest cohort of hospitalised COVID-19 patients exposed to these drugs studied to date.
+ The use of these drugs therefore does not affect the prognosis of COVID-19. This finding strengthens recommendations of international regulatory agencies about not withdrawing/switching ACEI/ARB treatments to modify COVID-19 prognosis.
+Electronic supplementary material
+The online version of this article (10.1007/s40264-020-00994-5) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                Marco%Massari%NULL%3,                Marco%Massari%NULL%0,                Roberto%Da Cas%NULL%2,                Francesca%Menniti Ippolito%NULL%2,                Janet%Sultana%NULL%2,                Salvatore%Crisafulli%NULL%2,                Paolo%Giorgi Rossi%NULL%2,                Massimiliano%Marino%NULL%0,                Manuel%Zorzi%NULL%2,                Emanuela%Bovo%NULL%2,                Olivia%Leoni%NULL%2,                Monica%Ludergnani%NULL%0,                Stefania%Spila Alegiani%stefania.spila@iss.it%2,                Stefania%Spila Alegiani%NULL%0,                Francesca%Menniti Ippolito%NULL%0,                Roberto%Da Cas%NULL%0,                Marco%Massari%NULL%0,                Giuseppe%Traversa%NULL%1,                Graziano%Onder%NULL%1,                Gianluca%Trifirò%NULL%1,                Janet%Sultana%NULL%0,                Valentina%Ientile%NULL%1,                Salvatore%Crisafulli%NULL%0,                Paolo%Giorgi Rossi%NULL%0,                Roberto%Grilli%NULL%0,                Giulio%Formoso%NULL%1,                Massimiliano%Marino%NULL%0,                Massimo%Vicentini%NULL%0,                Olivia%Leoni%NULL%0,                Monica%Ludergnani%NULL%0,                Danilo%Cereda%NULL%1,                Eliana%Ferroni%NULL%1,                Stefano%Guzzinati%NULL%1,                Emanuela%Bovo%NULL%0,                Manuel%Zorzi%NULL%0,                Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                Chaolin%Huang%NULL%1,                Guohui%Fan%NULL%1,                Zhibo%Liu%NULL%1,                Lianhan%Shang%NULL%1,                Fei%Zhou%NULL%1,                Yeming%Wang%NULL%1,                Jiapei%Yu%NULL%1,                Luning%Yang%NULL%1,                Ke%Xie%NULL%1,                Zhisheng%Huang%NULL%1,                Lixue%Huang%NULL%1,                Xiaoying%Gu%NULL%1,                Hui%Li%NULL%1,                Yi%Zhang%NULL%0,                Yimin%Wang%NULL%1,                Frederick G.%Hayden%NULL%1,                Peter W.%Horby%NULL%1,                Bin%Cao%caobin_ben@163.com%1,                Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,     Zihu%Tan%xref no email%3,     Ling%Zhou%xref no email%3,     Min%Yang%xref no email%3,     Lang%Peng%xref no email%3,     Jinjin%Liu%xref no email%3,     Jingling%Cai%xref no email%3,     Ru%Yang%xref no email%3,     Junyan%Han%xref no email%3,     Yafei%Huang%xref no email%3,     Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                Dan%Liu%NULL%1,                Shaoqing%Zeng%NULL%1,                Siyuan%Wang%NULL%1,                Sen%Xu%NULL%1,                Ya%Wang%NULL%1,                Ruidi%Yu%NULL%1,                Yue%Gao%NULL%1,                Huayi%Li%NULL%1,                Xinxia%Feng%NULL%1,                Ning%Zhou%NULL%0,                Chunxia%Zhao%NULL%1,                Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                Lihua%Zhu%NULL%1,                Jingjing%Cai%NULL%1,                Fang%Lei%NULL%1,                Juan-Juan%Qin%NULL%1,                Jing%Xie%NULL%1,                Ye-Mao%Liu%NULL%1,                Yan-Ci%Zhao%NULL%1,                Xuewei%Huang%NULL%1,                Lijin%Lin%NULL%1,                Meng%Xia%NULL%1,                Ming-Ming%Chen%NULL%1,                Xu%Cheng%NULL%1,                Xiao%Zhang%NULL%1,                Deliang%Guo%NULL%1,                Yuanyuan%Peng%NULL%1,                Yan-Xiao%Ji%NULL%1,                Jing%Chen%NULL%1,                Zhi-Gang%She%NULL%1,                Yibin%Wang%NULL%0,                Qingbo%Xu%NULL%1,                Renfu%Tan%NULL%1,                Haitao%Wang%NULL%1,                Jun%Lin%NULL%1,                Pengcheng%Luo%NULL%1,                Shouzhi%Fu%NULL%1,                Hongbin%Cai%NULL%1,                Ping%Ye%NULL%1,                Bing%Xiao%NULL%1,                Weiming%Mao%NULL%1,                Liming%Liu%NULL%1,                Youqin%Yan%NULL%1,                Mingyu%Liu%NULL%1,                Manhua%Chen%NULL%1,                Xiao-Jing%Zhang%NULL%1,                Xinghuan%Wang%NULL%1,                Rhian M.%Touyz%NULL%1,                Jiahong%Xia%NULL%1,                Bing-Hong%Zhang%NULL%1,                Xiaodong%Huang%NULL%1,                Yufeng%Yuan%NULL%1,                Rohit%Loomba%NULL%1,                Peter P.%Liu%NULL%1,                Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                 Sandra%Santos-Martinez%NULL%1,                 Diego%López-Otero%NULL%1,                 Luis%Nombela-Franco%NULL%1,                 Enrique%Gutiérrez-Ibanes%NULL%1,                 Raquel%Del Valle%NULL%1,                 Erika%Muñoz-García%NULL%1,                 Víctor A.%Jiménez-Diaz%NULL%1,                 Ander%Regueiro%NULL%1,                 Rocío%González-Ferreiro%NULL%1,                 Tomás%Benito%NULL%1,                 Xoan Carlos%Sanmartin-Pena%NULL%1,                 Pablo%Catalá%NULL%1,                 Tania%Rodríguez-Gabella%NULL%1,                 Jose Raúl%Delgado-Arana%NULL%1,                 Manuel%Carrasco-Moraleja%NULL%1,                 Borja%Ibañez%NULL%1,                 J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                 David M.%Tehrani%NULL%1,                 Soniya V.%Rabadia%NULL%1,                 Marlene%Frost%NULL%1,                 Rushi V.%Parikh%NULL%1,                 Marcella%Calfon-Press%NULL%1,                 Olcay%Aksoy%NULL%1,                 Soban%Umar%NULL%1,                 Reza%Ardehali%NULL%1,                 Amir%Rabbani%NULL%1,                 Pooya%Bokhoor%NULL%1,                 Ali%Nsair%NULL%1,                 Jesse%Currier%NULL%1,                 Jonathan%Tobis%NULL%1,                 Gregg C.%Fonarow%NULL%1,                 Ravi%Dave%NULL%1,                 Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                 Zeljko%Kraljevic%NULL%1,                 Thomas%Searle%NULL%1,                 Rebecca%Bendayan%NULL%1,                 O'Gallagher%Kevin%NULL%1,                 Andrew%Pickles%NULL%1,                 Amos%Folarin%NULL%1,                 Lukasz%Roguski%NULL%1,                 Kawsar%Noor%NULL%1,                 Anthony%Shek%NULL%1,                 Rosita%Zakeri%NULL%1,                 Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                 James T.H.%Teo%jamesteo@nhs.net%1,                 Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                 Mauro%Chiarito%NULL%1,                 Bernhard%Reimers%NULL%2,                 Bernhard%Reimers%NULL%0,                 Elena%Azzolini%NULL%1,                 Giuseppe%Ferrante%NULL%1,                 Ilaria%My%NULL%1,                 Giacomo%Viggiani%NULL%1,                 Cristina%Panico%NULL%1,                 Damiano%Regazzoli%NULL%1,                 Michele%Ciccarelli%NULL%1,                 Antonio%Voza%NULL%1,                 Alessio%Aghemo%NULL%1,                 Hongliang%Li%NULL%2,                 Yibin%Wang%NULL%2,                 Gianluigi%Condorelli%NULL%1,                 Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                 Feng%Wang%NULL%1,                 Peng%Chen%NULL%1,                 Jiangang%Jiang%NULL%1,                 Guanglin%Cui%NULL%1,                 Ning%Zhou%NULL%2,                 Francesco%Moroni%NULL%1,                 Javid J.%Moslehi%NULL%1,                 Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                 Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                 Ming%Zhong%NULL%1,                 Ya%Liu%NULL%1,                 Yi%Zhang%NULL%2,                 Kai%Zhang%NULL%1,                 De-zhen%Su%NULL%1,                 Xiao%Meng%NULL%1,                 Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,      Dong%Yang%xref no email%2,      Biao%Cheng%xref no email%2,      Jian%Chen%xref no email%4,      Anlin%Peng%xref no email%2,      Chen%Yang%xref no email%2,      Chong%Liu%xref no email%2,      Mingrui%Xiong%xref no email%2,      Aiping%Deng%xref no email%4,      Yu%Zhang%xref no email%2,      Ling%Zheng%xref no email%2,      Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                 Duncan%Young%NULL%2,                 Duncan%Young%NULL%0,                 Carol%Coupland%NULL%1,                 Keith M%Channon%NULL%1,                 Pui San%Tan%NULL%1,                 David A%Harrison%NULL%1,                 Kathryn%Rowan%NULL%2,                 Kathryn%Rowan%NULL%0,                 Paul%Aveyard%NULL%1,                 Ian D%Pavord%NULL%1,                 Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,          Butt%Jawad H%coreGivesNoEmail%1,          Fosb\u00f8l%Emil L%coreGivesNoEmail%1,          Gerds%Thomas A%coreGivesNoEmail%1,          Gislason%Gunnar H%coreGivesNoEmail%1,          Kragholm%Kristian%coreGivesNoEmail%1,          K\u00f8ber%Lars%coreGivesNoEmail%1,          Phelps%Matthew%coreGivesNoEmail%1,          Schou%Morten%coreGivesNoEmail%1,          Selmer%Christian%coreGivesNoEmail%1,          Torp-Pedersen%Christian%coreGivesNoEmail%1,          \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                 Yue%Cai%NULL%1,                 Kan%Zhang%NULL%2,                 Kan%Zhang%NULL%0,                 Lei%Zhou%NULL%1,                 Yao%Zhang%NULL%1,                 Xijing%Zhang%NULL%1,                 Qi%Li%NULL%1,                 Weiqin%Li%NULL%1,                 Shiming%Yang%NULL%1,                 Xiaoyan%Zhao%NULL%1,                 Yuying%Zhao%NULL%1,                 Hui%Wang%NULL%1,                 Yi%Liu%NULL%2,                 Zhiyong%Yin%NULL%1,                 Ruining%Zhang%NULL%1,                 Rutao%Wang%NULL%1,                 Ming%Yang%NULL%1,                 Chen%Hui%NULL%1,                 William%Wijns%NULL%1,                 J William%McEvoy%NULL%1,                 Osama%Soliman%NULL%2,                 Osama%Soliman%NULL%0,                 Yoshinobu%Onuma%NULL%2,                 Yoshinobu%Onuma%NULL%0,                 Patrick W%Serruys%NULL%1,                 Ling%Tao%lingtao@fmmu.edu.cn%1,                 Fei%Li%lifei01@fmmu.edu.cn%2,                 Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                 Erkan%Ekicibasi%NULL%1,                 Aleks%Degirmencioglu%NULL%1,                 Ashok%Paudel%NULL%1,                 Refik%Erdim%NULL%1,                 Hilal Kurtoglu%Gumusel%NULL%1,                 Elif%Eroglu%NULL%1,                 Ibrahim Halil%Tanboga%NULL%1,                 Sinan%Dagdelen%NULL%1,                 Nevin%Sariguzel%NULL%1,                 Ceyda Erel%Kirisoglu%NULL%1,                 Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,          Antonelli%M.%coreGivesNoEmail%2,          Bellani%G.%coreGivesNoEmail%2,          Bonanomi%E.%coreGivesNoEmail%2,          Cabrini%L.%coreGivesNoEmail%2,          Carlesso%E.%coreGivesNoEmail%2,          Castelli%G.%coreGivesNoEmail%2,          Cattaneo%S.%coreGivesNoEmail%2,          Cecconi%M.%coreGivesNoEmail%2,          Cereda%D.%coreGivesNoEmail%2,          Colombo%S.%coreGivesNoEmail%2,          Coluccello%A.%coreGivesNoEmail%2,          Crescini%G.%coreGivesNoEmail%2,          Forastieri%Molinari A.%coreGivesNoEmail%2,          Foti%G.%coreGivesNoEmail%2,          Fumagalli%R.%coreGivesNoEmail%2,          Grasselli%G.%coreGivesNoEmail%2,          Greco%M.%coreGivesNoEmail%2,          Iotti%G. A.%coreGivesNoEmail%2,          Langer%T.%coreGivesNoEmail%2,          Latronico%N.%coreGivesNoEmail%2,          Lorini%F. L.%coreGivesNoEmail%2,          Mojoli%F.%coreGivesNoEmail%2,          Natalini%G.%coreGivesNoEmail%2,          Pesenti%A.%coreGivesNoEmail%2,          Pessina%C. M.%coreGivesNoEmail%2,          Ranieri%V. M.%coreGivesNoEmail%2,          Rech%R.%coreGivesNoEmail%2,          Rosano%A.%coreGivesNoEmail%2,          Scudeller%L.%coreGivesNoEmail%2,          Storti%E.%coreGivesNoEmail%2,          Thompson%B. T.%coreGivesNoEmail%2,          Tirani%M.%coreGivesNoEmail%2,          Villani%P. G.%coreGivesNoEmail%2,          Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,      Yueli%Zhu%xref no email%1,      Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                 Jiatian%Cao%NULL%1,                 Yumeng%Yao%NULL%1,                 Xuejuan%Jin%NULL%1,                 Zhe%Luo%NULL%1,                 Yuan%Xue%NULL%1,                 Chouwen%Zhu%NULL%1,                 Yanan%Song%NULL%1,                 Ying%Wang%NULL%1,                 Yunzeng%Zou%NULL%1,                 Juying%Qian%NULL%1,                 Kaihuan%Yu%NULL%1,                 Hui%Gong%NULL%1,                 Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                 Ju-Hyun%Kim%NULL%1,                 Jin-Sung%Park%NULL%1,                 Min Cheol%Chang%wheel633@ynu.ac.kr%1,                 Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,      Guido%Grassi%xref no email%1,      Claudio%Borghi%xref no email%1,      Claudio%Ferri%xref no email%1,      Massimo%Salvetti%xref no email%1,      Massimo%Volpe%xref no email%1,      Arrigo F.G.%Cicero%xref no email%1,      Pietro%Minuz%xref no email%1,      Maria Lorenza%Muiesan%xref no email%1,      Paolo%Mulatero%xref no email%1,      Giuseppe%Mul\u00e8%xref no email%1,      Giacomo%Pucci%xref no email%1,      Carmine%Savoia%xref no email%1,      Leonardo%Sechi%xref no email%1,      Stefano%Carugo%xref no email%1,      Francesco%Fallo%xref no email%1,      Cristina%Giannattasio%xref no email%1,      Davide%Grassi%xref no email%1,      Claudio%Letizia%xref no email%1,      Stefano%Perlini%xref no email%1,      Damiano%Rizzoni%xref no email%1,      Riccardo%Sarzani%xref no email%1,      Giuliano%Tocci%xref no email%1,      Franco%Veglio%xref no email%1,      Claudia%Agabiti Rosei%xref no email%1,      Michele%Bevilacqua%xref no email%1,      Valeria%Bisogni%xref no email%1,      Michele%Bombelli%xref no email%1,      Luca%Bulfone%xref no email%1,      Flaminia%Canichella%xref no email%1,      Giovanni%Carpani%xref no email%1,      Massimo%Catanuso%xref no email%1,      Giulia%Chiarini%xref no email%1,      Fernando%Chiumiento%xref no email%1,      Rosario%Cianci%xref no email%1,      Franco%Cipollini%xref no email%1,      Antonio%Concistr\u00e8%xref no email%1,      Andrea%Dalbeni%xref no email%1,      Roberto Alberto%De Blasi%xref no email%1,      Carolina%De Ciuceis%xref no email%1,      Raffaella%Dell\u2019Oro%xref no email%1,      Antonino%Di Guardo%xref no email%1,      Santo%Di Lorenzo%xref no email%1,      Monica%Di Norcia%xref no email%1,      Roberto%Ervo%xref no email%1,      Elisabetta%Eula%xref no email%1,      Davide%Fabbricatore%xref no email%1,      Elvira%Fanelli%xref no email%1,      Cristiano%Fava%xref no email%1,      Enzo%Grasso%xref no email%1,      Alessandro%Grimaldi%xref no email%1,      Maddalena%Illario%xref no email%1,      Claudio%Invernizzi%xref no email%1,      Elena%Iraca%xref no email%1,      Federica%Liegi%xref no email%1,      Paolo%Malerba%xref no email%1,      Alessandro%Maloberti%xref no email%1,      Costantino%Mancusi%xref no email%1,      Giulia%Molinari%xref no email%1,      Roberta%Mussinelli%xref no email%1,      Anna%Paini%xref no email%1,      Paola%Pellimassi%xref no email%1,      Ornella%Piazza%xref no email%1,      Roberto%Pontremoli%xref no email%1,      Fosca%Quarti Tevano%xref no email%1,      Franco%Rabbia%xref no email%1,      Monica%Rocco%xref no email%1,      Anna%Sabena%xref no email%1,      Francesco%Salinaro%xref no email%1,      Paola%Schiavi%xref no email%1,      Maria Chiara%Sgariglia%xref no email%1,      Francesco%Spannella%xref no email%1,      Sara%Tedeschi%xref no email%1,      Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                 Raphael Romano%Bruno%NULL%1,                 Bernhard%Wernly%NULL%1,                 Michael%Joannidis%NULL%1,                 Sandra%Oeyen%NULL%1,                 Tilemachos%Zafeiridis%NULL%1,                 Brian%Marsh%NULL%1,                 Finn H%Andersen%NULL%1,                 Rui%Moreno%NULL%1,                 Ana Margarida%Fernandes%NULL%1,                 Antonio%Artigas%NULL%1,                 Bernardo Bollen%Pinto%NULL%1,                 Joerg%Schefold%NULL%1,                 Georg%Wolff%NULL%1,                 Malte%Kelm%NULL%2,                 Malte%Kelm%NULL%0,                 Dylan W%De Lange%NULL%1,                 Bertrand%Guidet%NULL%1,                 Hans%Flaatten%NULL%1,                 Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                 Jae Chol%Choi%NULL%1,                 Seung-Hun%You%NULL%1,                 Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                 Hamish%Reed-Embleton%NULL%2,                 Hamish%Reed-Embleton%NULL%0,                 Jen%Lewis%NULL%2,                 Jen%Lewis%NULL%0,                 Pamela%Bain%NULL%1,                 Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                 Kenneth W%Chow%NULL%1,                 Jonathan%Vo%NULL%1,                 Wei%Hou%NULL%1,                 Haifang%Li%NULL%1,                 Paul S%Richman%NULL%1,                 Sandeep K%Mallipattu%NULL%1,                 Hal A%Skopicki%NULL%1,                 Adam J%Singer%NULL%1,                 Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,      Xiufang%Wang%xref no email%2,      Jian%Chen%xref no email%0,      Hongmei%Zhang%xref no email%2,      Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                 Julien%Moragny%NULL%2,                 Julien%Moragny%NULL%0,                 Youssef%Bennis%NULL%1,                 Benjamin%Batteux%NULL%1,                 Etienne%Brochot%NULL%1,                 Jean Luc%Schmit%NULL%1,                 Jean-Philippe%Lanoix%NULL%1,                 Claire%Andrejak%NULL%1,                 Olivier%Ganry%NULL%1,                 Michel%Slama%NULL%1,                 Julien%Maizel%NULL%1,                 Yazine%Mahjoub%NULL%1,                 Kamel%Masmoudi%NULL%1,                 Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                 Yi%Liu%NULL%0,                 Keliang%Chen%NULL%1,                 Suying%Yan%NULL%1,                 Xiangrong%Bai%NULL%1,                 Juan%Li%947281063@qq.com%1,                 Dong%Liu%ld2069@outlook.com%2,                 Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                 Javier%López-Pais%NULL%1,                 Carla Eugenia%Cacho-Antonio%NULL%1,                 Pablo José%Antúnez-Muiños%NULL%1,                 Teba%González-Ferrero%NULL%1,                 Marta%Pérez-Poza%NULL%1,                 Óscar%Otero-García%NULL%1,                 Brais%Díaz-Fernández%NULL%1,                 María%Bastos-Fernández%NULL%1,                 Noelia%Bouzas-Cruz%NULL%1,                 Xoan Carlos%Sanmartín-Pena%NULL%1,                 Alfonso%Varela-Román%NULL%1,                 Manuel%Portela-Romero%NULL%1,                 Luis%Valdés-Cuadrado%NULL%1,                 Antonio%Pose-Reino%NULL%1,                 José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                 Federico%Rea%NULL%1,                 Monica%Ludergnani%NULL%4,                 Monica%Ludergnani%NULL%0,                 Giovanni%Apolone%NULL%1,                 Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,    Hisao%Ogawa%null%2,    Kazuo%Kimura%null%2,    Masaaki%Konishi%null%2,    Jin%Kirigaya%null%2,    Kazuki%Fukui%null%2,    Kengo%Tsukahara%null%2,    Hiroyuki%Shimizu%null%2,    Keisuke%Iwabuchi%null%2,    Yu%Yamada%null%2,    Kenichiro%Saka%null%2,    Ichiro%Takeuchi%null%2,    Toshio%Hirano%null%2,    Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                 Guohui%Xiao%NULL%1,                 Juanjuan%Zhang%NULL%1,                 Xing%He%NULL%1,                 Min%Ou%NULL%1,                 Jing%Bi%NULL%1,                 Rongqing%Yang%NULL%1,                 Wencheng%Di%NULL%1,                 Zhaoqin%Wang%NULL%1,                 Zigang%Li%NULL%1,                 Hong%Gao%NULL%1,                 Lei%Liu%NULL%1,                 Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                 Francisca%García-Iglesias%NULL%1,                 Teresa%González-Alegre%NULL%1,                 Francisco%Blanco%NULL%1,                 Marta%Varas%NULL%1,                 Clara%Hernández-Blanco%NULL%1,                 Victor%Hontañón%NULL%1,                 María J.%Jaras-Hernández%NULL%1,                 Mónica%Martínez-Prieto%NULL%1,                 Araceli%Menéndez-Saldaña%NULL%1,                 María L.%Cachán%NULL%1,                 Eva%Estirado%NULL%1,                 Carlos%Lahoz%NULL%1,                 Rosa%de Miguel%NULL%1,                 Miriam%Romero%NULL%1,                 Mar%Lago%NULL%1,                 Cristina%García-Quero%NULL%1,                 Cristina%Plaza%NULL%1,                 Talía%Sainz-Costa%NULL%1,                 Susana%Rivas-Vila%NULL%1,                 Blanca%Sánchez%NULL%1,                 Celia García%Torres%NULL%1,                 Lucía%Martínez-Tobar%NULL%1,                 María%Hernandez-Pérez%NULL%1,                 Pablo%Racionero%NULL%1,                 Patricia%Mir-Ihara%NULL%1,                 Jesús%Peña-López%NULL%1,                 Marta%Bautista-Barea%NULL%1,                 Alexa P.%Benítez%NULL%1,                 Pablo%Rodríguez-Merlos%NULL%1,                 María%Barcenilla%NULL%1,                 María San%Basilio%NULL%1,                 María%Valencia%NULL%1,                 Ricardo%Romero-Martín%NULL%1,                 Ana%Boto de los Bueis%NULL%1,                 Adriana%de la Hoz-Polo%NULL%1,                 María%del Pino-Cidad%NULL%1,                 Javier%Coca-Robinot%NULL%1,                 Bárbara%González-Ferrer%NULL%1,                 Pedro%Fernández-Pérez%NULL%1,                 Isabel%Mogollón%NULL%1,                 María S.%Montoro-Romero%NULL%1,                 Isabel%Villalaín%NULL%1,                 Almudena%del Hierro-Zarzuelo%NULL%1,                 Irene%Hernández-Martín%NULL%1,                 Javier%Domínguez%NULL%1,                 Alberto%Luna%NULL%1,                 Soledad%Montoro%NULL%1,                 Margarita%Sánchez-Orgaz%NULL%1,                 Gloria%Amorena%NULL%1,                 Cosme%Lavín-Dapena%NULL%1,                 Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                 Stanislas%Gleye%NULL%1,                 Isabelle%Clerc Urmes%NULL%1,                 Elodie%Laugel%NULL%1,                 Jonas%Callet%NULL%1,                 Françoise%Barbé%NULL%1,                 Sophie%Orlowski%NULL%1,                 Catherine%Malaplate%NULL%1,                 Isabelle%Aimone-Gastin%NULL%1,                 Beatrice Maatem%Caillierez%NULL%1,                 Marc%Merten%NULL%1,                 Elise%Jeannesson%NULL%1,                 Raphaël%Kormann%NULL%1,                 Jean-Luc%Olivier%NULL%1,                 Rosa-Maria%Rodriguez-Guéant%NULL%1,                 Farès%Namour%NULL%1,                 Sybille%Bevilacqua%NULL%1,                 Marie-Reine%Losser%NULL%1,                 Bruno%Levy%NULL%1,                 Antoine%Kimmoun%NULL%1,                 Sébastien%Gibot%NULL%1,                 Nathalie%Thilly%NULL%1,                 Luc%Frimat%NULL%1,                 Evelyne%Schvoerer%NULL%1,                 Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,      Jishou%Zhang%xref no email%2,      Menglong%Wang%xref no email%2,      Jing%Ye%xref no email%2,      Yao%Xu%xref no email%2,      Bo%Shen%xref no email%2,      Hua%He%xref no email%2,      Zhen%Wang%xref no email%2,      Di%Ye%xref no email%2,      Mengmeng%Zhao%xref no email%2,      Zhen%Luo%xref no email%2,      Mingxiao%Liu%xref no email%2,      Pingan%Zhang%xref no email%2,      Jian%Gu%xref no email%2,      Menglin%Liu%xref no email%2,      Dan%Li%xref no email%2,      Jianfang%Liu%xref no email%2,      Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                 Samrachana%Adhikari%NULL%1,                 Claudia%Pulgarin%NULL%1,                 Andrea B.%Troxel%NULL%1,                 Eduardo%Iturrate%NULL%1,                 Stephen B.%Johnson%NULL%1,                 Anaïs%Hausvater%NULL%1,                 Jonathan D.%Newman%NULL%1,                 Jeffrey S.%Berger%NULL%1,                 Sripal%Bangalore%NULL%1,                 Stuart D.%Katz%NULL%1,                 Glenn I.%Fishman%NULL%1,                 Dennis%Kunichoff%NULL%1,                 Yu%Chen%NULL%1,                 Gbenga%Ogedegbe%NULL%1,                 Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,          Becker%L.B.%coreGivesNoEmail%3,          Chelico%J.D.%coreGivesNoEmail%3,          Cohen%S.L.%coreGivesNoEmail%3,          Cookingham%J.%coreGivesNoEmail%3,          Coppa%K.%coreGivesNoEmail%3,          Crawford%J.M.%coreGivesNoEmail%3,          Davidson%K.W.%coreGivesNoEmail%3,          Diefenbach%M.A.%coreGivesNoEmail%3,          Dominello%A.J.%coreGivesNoEmail%3,          Duer-Hefele%J.%coreGivesNoEmail%3,          Falzon%L.%coreGivesNoEmail%3,          Gitlin%J.%coreGivesNoEmail%3,          Hajizadeh%N.%coreGivesNoEmail%3,          Harvin%T.G.%coreGivesNoEmail%3,          Hirsch%J.S.%coreGivesNoEmail%3,          Hirschwerk%D.A.%coreGivesNoEmail%3,          Kim%E.J.%coreGivesNoEmail%3,          Kozel%Z.M.%coreGivesNoEmail%3,          Marrast%L.M.%coreGivesNoEmail%3,          McGinn%T.%coreGivesNoEmail%3,          Mogavero%J.N.%coreGivesNoEmail%3,          Narasimhan%M.%coreGivesNoEmail%3,          Osorio%G.A.%coreGivesNoEmail%3,          Qiu%M.%coreGivesNoEmail%3,          Richardson%S.%coreGivesNoEmail%3,          Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                 Massimiliano%Marino%NULL%3,                 Debora%Formisano%NULL%1,                 Francesco%Venturelli%NULL%1,                 Massimo%Vicentini%NULL%3,                 Massimo%Vicentini%NULL%0,                 Roberto%Grilli%NULL%2,                 NULL%NULL%NULL%0,                 Gianluigi%Forloni%NULL%8,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0,                 Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                 Paolo%Maggi%NULL%2,                 Paolo%Maggi%NULL%0,                 Vincenzo%Messina%NULL%1,                 Pasquale%Iuliano%NULL%2,                 Pasquale%Iuliano%NULL%0,                 Antonio%Sardu%NULL%1,                 Vincenzo%Iovinella%NULL%1,                 Giuseppe%Paolisso%NULL%1,                 Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                 Rasimcan%Meral%NULL%1,                 Alpay%Medetalibeyoğlu%NULL%1,                 Hilal%Konyaoğlu%NULL%1,                 Murat%Köse%NULL%1,                 Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%2,      Jack%Owens%xref no email%1,      James%Franklin%xref no email%1,      Yash%Jani%xref no email%1,      Ashish%Kumar%xref no email%1,      Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                 Yun%Qiu%NULL%1,                 Xiang-Bin%Xing%NULL%1,                 Subrata%Ghosh%NULL%1,                 Min-Hu%Chen%NULL%1,                 Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                 Maddalena%Giannella%NULL%1,                 Michele%Bartoletti%NULL%1,                 Filippo%Trapani%NULL%1,                 Marina%Tadolini%NULL%1,                 Claudio%Borghi%NULL%1,                 Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                 Marco%Massari%NULL%3,                 Marco%Massari%NULL%0,                 Roberto%Da Cas%NULL%2,                 Francesca%Menniti Ippolito%NULL%2,                 Janet%Sultana%NULL%2,                 Salvatore%Crisafulli%NULL%2,                 Paolo%Giorgi Rossi%NULL%2,                 Massimiliano%Marino%NULL%0,                 Manuel%Zorzi%NULL%2,                 Emanuela%Bovo%NULL%2,                 Olivia%Leoni%NULL%2,                 Monica%Ludergnani%NULL%0,                 Stefania%Spila Alegiani%stefania.spila@iss.it%2,                 Stefania%Spila Alegiani%NULL%0,                 Francesca%Menniti Ippolito%NULL%0,                 Roberto%Da Cas%NULL%0,                 Marco%Massari%NULL%0,                 Giuseppe%Traversa%NULL%1,                 Graziano%Onder%NULL%1,                 Gianluca%Trifirò%NULL%1,                 Janet%Sultana%NULL%0,                 Valentina%Ientile%NULL%1,                 Salvatore%Crisafulli%NULL%0,                 Paolo%Giorgi Rossi%NULL%0,                 Roberto%Grilli%NULL%0,                 Giulio%Formoso%NULL%1,                 Massimiliano%Marino%NULL%0,                 Massimo%Vicentini%NULL%0,                 Olivia%Leoni%NULL%0,                 Monica%Ludergnani%NULL%0,                 Danilo%Cereda%NULL%1,                 Eliana%Ferroni%NULL%1,                 Stefano%Guzzinati%NULL%1,                 Emanuela%Bovo%NULL%0,                 Manuel%Zorzi%NULL%0,                 Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                 Chaolin%Huang%NULL%1,                 Guohui%Fan%NULL%1,                 Zhibo%Liu%NULL%1,                 Lianhan%Shang%NULL%1,                 Fei%Zhou%NULL%1,                 Yeming%Wang%NULL%1,                 Jiapei%Yu%NULL%1,                 Luning%Yang%NULL%1,                 Ke%Xie%NULL%1,                 Zhisheng%Huang%NULL%1,                 Lixue%Huang%NULL%1,                 Xiaoying%Gu%NULL%1,                 Hui%Li%NULL%1,                 Yi%Zhang%NULL%0,                 Yimin%Wang%NULL%1,                 Frederick G.%Hayden%NULL%1,                 Peter W.%Horby%NULL%1,                 Bin%Cao%caobin_ben@163.com%1,                 Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,      Zihu%Tan%xref no email%3,      Ling%Zhou%xref no email%3,      Min%Yang%xref no email%3,      Lang%Peng%xref no email%3,      Jinjin%Liu%xref no email%3,      Jingling%Cai%xref no email%3,      Ru%Yang%xref no email%3,      Junyan%Han%xref no email%3,      Yafei%Huang%xref no email%3,      Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                 Dan%Liu%NULL%1,                 Shaoqing%Zeng%NULL%1,                 Siyuan%Wang%NULL%1,                 Sen%Xu%NULL%1,                 Ya%Wang%NULL%1,                 Ruidi%Yu%NULL%1,                 Yue%Gao%NULL%1,                 Huayi%Li%NULL%1,                 Xinxia%Feng%NULL%1,                 Ning%Zhou%NULL%0,                 Chunxia%Zhao%NULL%1,                 Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                 Lihua%Zhu%NULL%1,                 Jingjing%Cai%NULL%1,                 Fang%Lei%NULL%1,                 Juan-Juan%Qin%NULL%1,                 Jing%Xie%NULL%1,                 Ye-Mao%Liu%NULL%1,                 Yan-Ci%Zhao%NULL%1,                 Xuewei%Huang%NULL%1,                 Lijin%Lin%NULL%1,                 Meng%Xia%NULL%1,                 Ming-Ming%Chen%NULL%1,                 Xu%Cheng%NULL%1,                 Xiao%Zhang%NULL%1,                 Deliang%Guo%NULL%1,                 Yuanyuan%Peng%NULL%1,                 Yan-Xiao%Ji%NULL%1,                 Jing%Chen%NULL%1,                 Zhi-Gang%She%NULL%1,                 Yibin%Wang%NULL%0,                 Qingbo%Xu%NULL%1,                 Renfu%Tan%NULL%1,                 Haitao%Wang%NULL%1,                 Jun%Lin%NULL%1,                 Pengcheng%Luo%NULL%1,                 Shouzhi%Fu%NULL%1,                 Hongbin%Cai%NULL%1,                 Ping%Ye%NULL%1,                 Bing%Xiao%NULL%1,                 Weiming%Mao%NULL%1,                 Liming%Liu%NULL%1,                 Youqin%Yan%NULL%1,                 Mingyu%Liu%NULL%1,                 Manhua%Chen%NULL%1,                 Xiao-Jing%Zhang%NULL%1,                 Xinghuan%Wang%NULL%1,                 Rhian M.%Touyz%NULL%1,                 Jiahong%Xia%NULL%1,                 Bing-Hong%Zhang%NULL%1,                 Xiaodong%Huang%NULL%1,                 Yufeng%Yuan%NULL%1,                 Rohit%Loomba%NULL%1,                 Peter P.%Liu%NULL%1,                 Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3139,7 +3451,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>702</v>
+        <v>792</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -3231,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>703</v>
+        <v>793</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3277,7 +3589,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>704</v>
+        <v>794</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -3323,7 +3635,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>705</v>
+        <v>795</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -3369,7 +3681,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>706</v>
+        <v>796</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -3415,7 +3727,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>707</v>
+        <v>797</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -3461,7 +3773,7 @@
         <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>708</v>
+        <v>798</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -3507,7 +3819,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -3553,7 +3865,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3599,7 +3911,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>711</v>
+        <v>801</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3642,10 +3954,10 @@
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>756</v>
       </c>
       <c r="E13" t="s">
-        <v>712</v>
+        <v>802</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -3691,7 +4003,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>713</v>
+        <v>803</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -3737,7 +4049,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>714</v>
+        <v>804</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -3783,7 +4095,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>715</v>
+        <v>805</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -3826,10 +4138,10 @@
         <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -3875,7 +4187,7 @@
         <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>717</v>
+        <v>807</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3921,7 +4233,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -3967,7 +4279,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -4013,7 +4325,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -4059,7 +4371,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -4105,7 +4417,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -4151,7 +4463,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>723</v>
+        <v>813</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -4197,7 +4509,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>724</v>
+        <v>814</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -4243,7 +4555,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>725</v>
+        <v>815</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -4289,7 +4601,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -4335,7 +4647,7 @@
         <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -4381,7 +4693,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -4427,7 +4739,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -4473,7 +4785,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -4519,7 +4831,7 @@
         <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -4565,7 +4877,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -4611,7 +4923,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -4657,7 +4969,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>735</v>
+        <v>824</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -4703,7 +5015,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>736</v>
+        <v>825</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -4749,7 +5061,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>737</v>
+        <v>826</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -4795,7 +5107,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>738</v>
+        <v>827</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -4841,7 +5153,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>739</v>
+        <v>828</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -4887,7 +5199,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>740</v>
+        <v>829</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -4930,10 +5242,10 @@
         <v>188</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>786</v>
       </c>
       <c r="E41" t="s">
-        <v>741</v>
+        <v>830</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -4979,7 +5291,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>742</v>
+        <v>831</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -5025,7 +5337,7 @@
         <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>743</v>
+        <v>832</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -5071,7 +5383,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>744</v>
+        <v>833</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -5117,7 +5429,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>745</v>
+        <v>834</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5491" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5806" uniqueCount="878">
   <si>
     <t>Doi</t>
   </si>
@@ -3023,6 +3023,135 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,                 Lihua%Zhu%NULL%1,                 Jingjing%Cai%NULL%1,                 Fang%Lei%NULL%1,                 Juan-Juan%Qin%NULL%1,                 Jing%Xie%NULL%1,                 Ye-Mao%Liu%NULL%1,                 Yan-Ci%Zhao%NULL%1,                 Xuewei%Huang%NULL%1,                 Lijin%Lin%NULL%1,                 Meng%Xia%NULL%1,                 Ming-Ming%Chen%NULL%1,                 Xu%Cheng%NULL%1,                 Xiao%Zhang%NULL%1,                 Deliang%Guo%NULL%1,                 Yuanyuan%Peng%NULL%1,                 Yan-Xiao%Ji%NULL%1,                 Jing%Chen%NULL%1,                 Zhi-Gang%She%NULL%1,                 Yibin%Wang%NULL%0,                 Qingbo%Xu%NULL%1,                 Renfu%Tan%NULL%1,                 Haitao%Wang%NULL%1,                 Jun%Lin%NULL%1,                 Pengcheng%Luo%NULL%1,                 Shouzhi%Fu%NULL%1,                 Hongbin%Cai%NULL%1,                 Ping%Ye%NULL%1,                 Bing%Xiao%NULL%1,                 Weiming%Mao%NULL%1,                 Liming%Liu%NULL%1,                 Youqin%Yan%NULL%1,                 Mingyu%Liu%NULL%1,                 Manhua%Chen%NULL%1,                 Xiao-Jing%Zhang%NULL%1,                 Xinghuan%Wang%NULL%1,                 Rhian M.%Touyz%NULL%1,                 Jiahong%Xia%NULL%1,                 Bing-Hong%Zhang%NULL%1,                 Xiaodong%Huang%NULL%1,                 Yufeng%Yuan%NULL%1,                 Rohit%Loomba%NULL%1,                 Peter P.%Liu%NULL%1,                 Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                  Sandra%Santos-Martinez%NULL%1,                  Diego%López-Otero%NULL%1,                  Luis%Nombela-Franco%NULL%1,                  Enrique%Gutiérrez-Ibanes%NULL%1,                  Raquel%Del Valle%NULL%1,                  Erika%Muñoz-García%NULL%1,                  Víctor A.%Jiménez-Diaz%NULL%1,                  Ander%Regueiro%NULL%1,                  Rocío%González-Ferreiro%NULL%1,                  Tomás%Benito%NULL%1,                  Xoan Carlos%Sanmartin-Pena%NULL%1,                  Pablo%Catalá%NULL%1,                  Tania%Rodríguez-Gabella%NULL%1,                  Jose Raúl%Delgado-Arana%NULL%1,                  Manuel%Carrasco-Moraleja%NULL%1,                  Borja%Ibañez%NULL%1,                  J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                  David M.%Tehrani%NULL%1,                  Soniya V.%Rabadia%NULL%1,                  Marlene%Frost%NULL%1,                  Rushi V.%Parikh%NULL%1,                  Marcella%Calfon-Press%NULL%1,                  Olcay%Aksoy%NULL%1,                  Soban%Umar%NULL%1,                  Reza%Ardehali%NULL%1,                  Amir%Rabbani%NULL%1,                  Pooya%Bokhoor%NULL%1,                  Ali%Nsair%NULL%1,                  Jesse%Currier%NULL%1,                  Jonathan%Tobis%NULL%1,                  Gregg C.%Fonarow%NULL%1,                  Ravi%Dave%NULL%1,                  Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                  Zeljko%Kraljevic%NULL%1,                  Thomas%Searle%NULL%1,                  Rebecca%Bendayan%NULL%1,                  O'Gallagher%Kevin%NULL%1,                  Andrew%Pickles%NULL%1,                  Amos%Folarin%NULL%1,                  Lukasz%Roguski%NULL%1,                  Kawsar%Noor%NULL%1,                  Anthony%Shek%NULL%1,                  Rosita%Zakeri%NULL%1,                  Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                  James T.H.%Teo%jamesteo@nhs.net%1,                  Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                  Mauro%Chiarito%NULL%1,                  Bernhard%Reimers%NULL%2,                  Bernhard%Reimers%NULL%0,                  Elena%Azzolini%NULL%1,                  Giuseppe%Ferrante%NULL%1,                  Ilaria%My%NULL%1,                  Giacomo%Viggiani%NULL%1,                  Cristina%Panico%NULL%1,                  Damiano%Regazzoli%NULL%1,                  Michele%Ciccarelli%NULL%1,                  Antonio%Voza%NULL%1,                  Alessio%Aghemo%NULL%1,                  Hongliang%Li%NULL%2,                  Yibin%Wang%NULL%2,                  Gianluigi%Condorelli%NULL%1,                  Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                  Feng%Wang%NULL%1,                  Peng%Chen%NULL%1,                  Jiangang%Jiang%NULL%1,                  Guanglin%Cui%NULL%1,                  Ning%Zhou%NULL%2,                  Francesco%Moroni%NULL%1,                  Javid J.%Moslehi%NULL%1,                  Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                  Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                  Ming%Zhong%NULL%1,                  Ya%Liu%NULL%1,                  Yi%Zhang%NULL%2,                  Kai%Zhang%NULL%1,                  De-zhen%Su%NULL%1,                  Xiao%Meng%NULL%1,                  Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,       Dong%Yang%xref no email%2,       Biao%Cheng%xref no email%2,       Jian%Chen%xref no email%4,       Anlin%Peng%xref no email%2,       Chen%Yang%xref no email%2,       Chong%Liu%xref no email%2,       Mingrui%Xiong%xref no email%2,       Aiping%Deng%xref no email%4,       Yu%Zhang%xref no email%2,       Ling%Zheng%xref no email%2,       Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                  Duncan%Young%NULL%2,                  Duncan%Young%NULL%0,                  Carol%Coupland%NULL%1,                  Keith M%Channon%NULL%1,                  Pui San%Tan%NULL%1,                  David A%Harrison%NULL%1,                  Kathryn%Rowan%NULL%2,                  Kathryn%Rowan%NULL%0,                  Paul%Aveyard%NULL%1,                  Ian D%Pavord%NULL%1,                  Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,           Butt%Jawad H%coreGivesNoEmail%1,           Fosb\u00f8l%Emil L%coreGivesNoEmail%1,           Gerds%Thomas A%coreGivesNoEmail%1,           Gislason%Gunnar H%coreGivesNoEmail%1,           Kragholm%Kristian%coreGivesNoEmail%1,           K\u00f8ber%Lars%coreGivesNoEmail%1,           Phelps%Matthew%coreGivesNoEmail%1,           Schou%Morten%coreGivesNoEmail%1,           Selmer%Christian%coreGivesNoEmail%1,           Torp-Pedersen%Christian%coreGivesNoEmail%1,           \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                  Yue%Cai%NULL%1,                  Kan%Zhang%NULL%2,                  Kan%Zhang%NULL%0,                  Lei%Zhou%NULL%1,                  Yao%Zhang%NULL%1,                  Xijing%Zhang%NULL%1,                  Qi%Li%NULL%1,                  Weiqin%Li%NULL%1,                  Shiming%Yang%NULL%1,                  Xiaoyan%Zhao%NULL%1,                  Yuying%Zhao%NULL%1,                  Hui%Wang%NULL%1,                  Yi%Liu%NULL%2,                  Zhiyong%Yin%NULL%1,                  Ruining%Zhang%NULL%1,                  Rutao%Wang%NULL%1,                  Ming%Yang%NULL%1,                  Chen%Hui%NULL%1,                  William%Wijns%NULL%1,                  J William%McEvoy%NULL%1,                  Osama%Soliman%NULL%2,                  Osama%Soliman%NULL%0,                  Yoshinobu%Onuma%NULL%2,                  Yoshinobu%Onuma%NULL%0,                  Patrick W%Serruys%NULL%1,                  Ling%Tao%lingtao@fmmu.edu.cn%1,                  Fei%Li%lifei01@fmmu.edu.cn%2,                  Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                  Erkan%Ekicibasi%NULL%1,                  Aleks%Degirmencioglu%NULL%1,                  Ashok%Paudel%NULL%1,                  Refik%Erdim%NULL%1,                  Hilal Kurtoglu%Gumusel%NULL%1,                  Elif%Eroglu%NULL%1,                  Ibrahim Halil%Tanboga%NULL%1,                  Sinan%Dagdelen%NULL%1,                  Nevin%Sariguzel%NULL%1,                  Ceyda Erel%Kirisoglu%NULL%1,                  Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,           Antonelli%M.%coreGivesNoEmail%2,           Bellani%G.%coreGivesNoEmail%2,           Bonanomi%E.%coreGivesNoEmail%2,           Cabrini%L.%coreGivesNoEmail%2,           Carlesso%E.%coreGivesNoEmail%2,           Castelli%G.%coreGivesNoEmail%2,           Cattaneo%S.%coreGivesNoEmail%2,           Cecconi%M.%coreGivesNoEmail%2,           Cereda%D.%coreGivesNoEmail%2,           Colombo%S.%coreGivesNoEmail%2,           Coluccello%A.%coreGivesNoEmail%2,           Crescini%G.%coreGivesNoEmail%2,           Forastieri%Molinari A.%coreGivesNoEmail%2,           Foti%G.%coreGivesNoEmail%2,           Fumagalli%R.%coreGivesNoEmail%2,           Grasselli%G.%coreGivesNoEmail%2,           Greco%M.%coreGivesNoEmail%2,           Iotti%G. A.%coreGivesNoEmail%2,           Langer%T.%coreGivesNoEmail%2,           Latronico%N.%coreGivesNoEmail%2,           Lorini%F. L.%coreGivesNoEmail%2,           Mojoli%F.%coreGivesNoEmail%2,           Natalini%G.%coreGivesNoEmail%2,           Pesenti%A.%coreGivesNoEmail%2,           Pessina%C. M.%coreGivesNoEmail%2,           Ranieri%V. M.%coreGivesNoEmail%2,           Rech%R.%coreGivesNoEmail%2,           Rosano%A.%coreGivesNoEmail%2,           Scudeller%L.%coreGivesNoEmail%2,           Storti%E.%coreGivesNoEmail%2,           Thompson%B. T.%coreGivesNoEmail%2,           Tirani%M.%coreGivesNoEmail%2,           Villani%P. G.%coreGivesNoEmail%2,           Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,       Yueli%Zhu%xref no email%1,       Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                  Jiatian%Cao%NULL%1,                  Yumeng%Yao%NULL%1,                  Xuejuan%Jin%NULL%1,                  Zhe%Luo%NULL%1,                  Yuan%Xue%NULL%1,                  Chouwen%Zhu%NULL%1,                  Yanan%Song%NULL%1,                  Ying%Wang%NULL%1,                  Yunzeng%Zou%NULL%1,                  Juying%Qian%NULL%1,                  Kaihuan%Yu%NULL%1,                  Hui%Gong%NULL%1,                  Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                  Ju-Hyun%Kim%NULL%1,                  Jin-Sung%Park%NULL%1,                  Min Cheol%Chang%wheel633@ynu.ac.kr%1,                  Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,       Guido%Grassi%xref no email%1,       Claudio%Borghi%xref no email%1,       Claudio%Ferri%xref no email%1,       Massimo%Salvetti%xref no email%1,       Massimo%Volpe%xref no email%1,       Arrigo F.G.%Cicero%xref no email%1,       Pietro%Minuz%xref no email%1,       Maria Lorenza%Muiesan%xref no email%1,       Paolo%Mulatero%xref no email%1,       Giuseppe%Mul\u00e8%xref no email%1,       Giacomo%Pucci%xref no email%1,       Carmine%Savoia%xref no email%1,       Leonardo%Sechi%xref no email%1,       Stefano%Carugo%xref no email%1,       Francesco%Fallo%xref no email%1,       Cristina%Giannattasio%xref no email%1,       Davide%Grassi%xref no email%1,       Claudio%Letizia%xref no email%1,       Stefano%Perlini%xref no email%1,       Damiano%Rizzoni%xref no email%1,       Riccardo%Sarzani%xref no email%1,       Giuliano%Tocci%xref no email%1,       Franco%Veglio%xref no email%1,       Claudia%Agabiti Rosei%xref no email%1,       Michele%Bevilacqua%xref no email%1,       Valeria%Bisogni%xref no email%1,       Michele%Bombelli%xref no email%1,       Luca%Bulfone%xref no email%1,       Flaminia%Canichella%xref no email%1,       Giovanni%Carpani%xref no email%1,       Massimo%Catanuso%xref no email%1,       Giulia%Chiarini%xref no email%1,       Fernando%Chiumiento%xref no email%1,       Rosario%Cianci%xref no email%1,       Franco%Cipollini%xref no email%1,       Antonio%Concistr\u00e8%xref no email%1,       Andrea%Dalbeni%xref no email%1,       Roberto Alberto%De Blasi%xref no email%1,       Carolina%De Ciuceis%xref no email%1,       Raffaella%Dell\u2019Oro%xref no email%1,       Antonino%Di Guardo%xref no email%1,       Santo%Di Lorenzo%xref no email%1,       Monica%Di Norcia%xref no email%1,       Roberto%Ervo%xref no email%1,       Elisabetta%Eula%xref no email%1,       Davide%Fabbricatore%xref no email%1,       Elvira%Fanelli%xref no email%1,       Cristiano%Fava%xref no email%1,       Enzo%Grasso%xref no email%1,       Alessandro%Grimaldi%xref no email%1,       Maddalena%Illario%xref no email%1,       Claudio%Invernizzi%xref no email%1,       Elena%Iraca%xref no email%1,       Federica%Liegi%xref no email%1,       Paolo%Malerba%xref no email%1,       Alessandro%Maloberti%xref no email%1,       Costantino%Mancusi%xref no email%1,       Giulia%Molinari%xref no email%1,       Roberta%Mussinelli%xref no email%1,       Anna%Paini%xref no email%1,       Paola%Pellimassi%xref no email%1,       Ornella%Piazza%xref no email%1,       Roberto%Pontremoli%xref no email%1,       Fosca%Quarti Tevano%xref no email%1,       Franco%Rabbia%xref no email%1,       Monica%Rocco%xref no email%1,       Anna%Sabena%xref no email%1,       Francesco%Salinaro%xref no email%1,       Paola%Schiavi%xref no email%1,       Maria Chiara%Sgariglia%xref no email%1,       Francesco%Spannella%xref no email%1,       Sara%Tedeschi%xref no email%1,       Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                  Raphael Romano%Bruno%NULL%1,                  Bernhard%Wernly%NULL%1,                  Michael%Joannidis%NULL%1,                  Sandra%Oeyen%NULL%1,                  Tilemachos%Zafeiridis%NULL%1,                  Brian%Marsh%NULL%1,                  Finn H%Andersen%NULL%1,                  Rui%Moreno%NULL%1,                  Ana Margarida%Fernandes%NULL%1,                  Antonio%Artigas%NULL%1,                  Bernardo Bollen%Pinto%NULL%1,                  Joerg%Schefold%NULL%1,                  Georg%Wolff%NULL%1,                  Malte%Kelm%NULL%2,                  Malte%Kelm%NULL%0,                  Dylan W%De Lange%NULL%1,                  Bertrand%Guidet%NULL%1,                  Hans%Flaatten%NULL%1,                  Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                  Jae Chol%Choi%NULL%1,                  Seung-Hun%You%NULL%1,                  Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                  Hamish%Reed-Embleton%NULL%2,                  Hamish%Reed-Embleton%NULL%0,                  Jen%Lewis%NULL%2,                  Jen%Lewis%NULL%0,                  Pamela%Bain%NULL%1,                  Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                  Kenneth W%Chow%NULL%1,                  Jonathan%Vo%NULL%1,                  Wei%Hou%NULL%1,                  Haifang%Li%NULL%1,                  Paul S%Richman%NULL%1,                  Sandeep K%Mallipattu%NULL%1,                  Hal A%Skopicki%NULL%1,                  Adam J%Singer%NULL%1,                  Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,       Xiufang%Wang%xref no email%2,       Jian%Chen%xref no email%0,       Hongmei%Zhang%xref no email%2,       Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                  Julien%Moragny%NULL%2,                  Julien%Moragny%NULL%0,                  Youssef%Bennis%NULL%1,                  Benjamin%Batteux%NULL%1,                  Etienne%Brochot%NULL%1,                  Jean Luc%Schmit%NULL%1,                  Jean-Philippe%Lanoix%NULL%1,                  Claire%Andrejak%NULL%1,                  Olivier%Ganry%NULL%1,                  Michel%Slama%NULL%1,                  Julien%Maizel%NULL%1,                  Yazine%Mahjoub%NULL%1,                  Kamel%Masmoudi%NULL%1,                  Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                  Yi%Liu%NULL%0,                  Keliang%Chen%NULL%1,                  Suying%Yan%NULL%1,                  Xiangrong%Bai%NULL%1,                  Juan%Li%947281063@qq.com%1,                  Dong%Liu%ld2069@outlook.com%2,                  Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                  Javier%López-Pais%NULL%1,                  Carla Eugenia%Cacho-Antonio%NULL%1,                  Pablo José%Antúnez-Muiños%NULL%1,                  Teba%González-Ferrero%NULL%1,                  Marta%Pérez-Poza%NULL%1,                  Óscar%Otero-García%NULL%1,                  Brais%Díaz-Fernández%NULL%1,                  María%Bastos-Fernández%NULL%1,                  Noelia%Bouzas-Cruz%NULL%1,                  Xoan Carlos%Sanmartín-Pena%NULL%1,                  Alfonso%Varela-Román%NULL%1,                  Manuel%Portela-Romero%NULL%1,                  Luis%Valdés-Cuadrado%NULL%1,                  Antonio%Pose-Reino%NULL%1,                  José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                  Federico%Rea%NULL%1,                  Monica%Ludergnani%NULL%4,                  Monica%Ludergnani%NULL%0,                  Giovanni%Apolone%NULL%1,                  Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,     Hisao%Ogawa%null%2,     Kazuo%Kimura%null%2,     Masaaki%Konishi%null%2,     Jin%Kirigaya%null%2,     Kazuki%Fukui%null%2,     Kengo%Tsukahara%null%2,     Hiroyuki%Shimizu%null%2,     Keisuke%Iwabuchi%null%2,     Yu%Yamada%null%2,     Kenichiro%Saka%null%2,     Ichiro%Takeuchi%null%2,     Toshio%Hirano%null%2,     Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                  Guohui%Xiao%NULL%1,                  Juanjuan%Zhang%NULL%1,                  Xing%He%NULL%1,                  Min%Ou%NULL%1,                  Jing%Bi%NULL%1,                  Rongqing%Yang%NULL%1,                  Wencheng%Di%NULL%1,                  Zhaoqin%Wang%NULL%1,                  Zigang%Li%NULL%1,                  Hong%Gao%NULL%1,                  Lei%Liu%NULL%1,                  Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                  Francisca%García-Iglesias%NULL%1,                  Teresa%González-Alegre%NULL%1,                  Francisco%Blanco%NULL%1,                  Marta%Varas%NULL%1,                  Clara%Hernández-Blanco%NULL%1,                  Victor%Hontañón%NULL%1,                  María J.%Jaras-Hernández%NULL%1,                  Mónica%Martínez-Prieto%NULL%1,                  Araceli%Menéndez-Saldaña%NULL%1,                  María L.%Cachán%NULL%1,                  Eva%Estirado%NULL%1,                  Carlos%Lahoz%NULL%1,                  Rosa%de Miguel%NULL%1,                  Miriam%Romero%NULL%1,                  Mar%Lago%NULL%1,                  Cristina%García-Quero%NULL%1,                  Cristina%Plaza%NULL%1,                  Talía%Sainz-Costa%NULL%1,                  Susana%Rivas-Vila%NULL%1,                  Blanca%Sánchez%NULL%1,                  Celia García%Torres%NULL%1,                  Lucía%Martínez-Tobar%NULL%1,                  María%Hernandez-Pérez%NULL%1,                  Pablo%Racionero%NULL%1,                  Patricia%Mir-Ihara%NULL%1,                  Jesús%Peña-López%NULL%1,                  Marta%Bautista-Barea%NULL%1,                  Alexa P.%Benítez%NULL%1,                  Pablo%Rodríguez-Merlos%NULL%1,                  María%Barcenilla%NULL%1,                  María San%Basilio%NULL%1,                  María%Valencia%NULL%1,                  Ricardo%Romero-Martín%NULL%1,                  Ana%Boto de los Bueis%NULL%1,                  Adriana%de la Hoz-Polo%NULL%1,                  María%del Pino-Cidad%NULL%1,                  Javier%Coca-Robinot%NULL%1,                  Bárbara%González-Ferrer%NULL%1,                  Pedro%Fernández-Pérez%NULL%1,                  Isabel%Mogollón%NULL%1,                  María S.%Montoro-Romero%NULL%1,                  Isabel%Villalaín%NULL%1,                  Almudena%del Hierro-Zarzuelo%NULL%1,                  Irene%Hernández-Martín%NULL%1,                  Javier%Domínguez%NULL%1,                  Alberto%Luna%NULL%1,                  Soledad%Montoro%NULL%1,                  Margarita%Sánchez-Orgaz%NULL%1,                  Gloria%Amorena%NULL%1,                  Cosme%Lavín-Dapena%NULL%1,                  Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                  Stanislas%Gleye%NULL%1,                  Isabelle%Clerc Urmes%NULL%1,                  Elodie%Laugel%NULL%1,                  Jonas%Callet%NULL%1,                  Françoise%Barbé%NULL%1,                  Sophie%Orlowski%NULL%1,                  Catherine%Malaplate%NULL%1,                  Isabelle%Aimone-Gastin%NULL%1,                  Beatrice Maatem%Caillierez%NULL%1,                  Marc%Merten%NULL%1,                  Elise%Jeannesson%NULL%1,                  Raphaël%Kormann%NULL%1,                  Jean-Luc%Olivier%NULL%1,                  Rosa-Maria%Rodriguez-Guéant%NULL%1,                  Farès%Namour%NULL%1,                  Sybille%Bevilacqua%NULL%1,                  Marie-Reine%Losser%NULL%1,                  Bruno%Levy%NULL%1,                  Antoine%Kimmoun%NULL%1,                  Sébastien%Gibot%NULL%1,                  Nathalie%Thilly%NULL%1,                  Luc%Frimat%NULL%1,                  Evelyne%Schvoerer%NULL%1,                  Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,       Jishou%Zhang%xref no email%2,       Menglong%Wang%xref no email%2,       Jing%Ye%xref no email%2,       Yao%Xu%xref no email%2,       Bo%Shen%xref no email%2,       Hua%He%xref no email%2,       Zhen%Wang%xref no email%2,       Di%Ye%xref no email%2,       Mengmeng%Zhao%xref no email%2,       Zhen%Luo%xref no email%2,       Mingxiao%Liu%xref no email%2,       Pingan%Zhang%xref no email%2,       Jian%Gu%xref no email%2,       Menglin%Liu%xref no email%2,       Dan%Li%xref no email%2,       Jianfang%Liu%xref no email%2,       Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                  Samrachana%Adhikari%NULL%1,                  Claudia%Pulgarin%NULL%1,                  Andrea B.%Troxel%NULL%1,                  Eduardo%Iturrate%NULL%1,                  Stephen B.%Johnson%NULL%1,                  Anaïs%Hausvater%NULL%1,                  Jonathan D.%Newman%NULL%1,                  Jeffrey S.%Berger%NULL%1,                  Sripal%Bangalore%NULL%1,                  Stuart D.%Katz%NULL%1,                  Glenn I.%Fishman%NULL%1,                  Dennis%Kunichoff%NULL%1,                  Yu%Chen%NULL%1,                  Gbenga%Ogedegbe%NULL%1,                  Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,           Becker%L.B.%coreGivesNoEmail%3,           Chelico%J.D.%coreGivesNoEmail%3,           Cohen%S.L.%coreGivesNoEmail%3,           Cookingham%J.%coreGivesNoEmail%3,           Coppa%K.%coreGivesNoEmail%3,           Crawford%J.M.%coreGivesNoEmail%3,           Davidson%K.W.%coreGivesNoEmail%3,           Diefenbach%M.A.%coreGivesNoEmail%3,           Dominello%A.J.%coreGivesNoEmail%3,           Duer-Hefele%J.%coreGivesNoEmail%3,           Falzon%L.%coreGivesNoEmail%3,           Gitlin%J.%coreGivesNoEmail%3,           Hajizadeh%N.%coreGivesNoEmail%3,           Harvin%T.G.%coreGivesNoEmail%3,           Hirsch%J.S.%coreGivesNoEmail%3,           Hirschwerk%D.A.%coreGivesNoEmail%3,           Kim%E.J.%coreGivesNoEmail%3,           Kozel%Z.M.%coreGivesNoEmail%3,           Marrast%L.M.%coreGivesNoEmail%3,           McGinn%T.%coreGivesNoEmail%3,           Mogavero%J.N.%coreGivesNoEmail%3,           Narasimhan%M.%coreGivesNoEmail%3,           Osorio%G.A.%coreGivesNoEmail%3,           Qiu%M.%coreGivesNoEmail%3,           Richardson%S.%coreGivesNoEmail%3,           Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                  Massimiliano%Marino%NULL%3,                  Debora%Formisano%NULL%1,                  Francesco%Venturelli%NULL%1,                  Massimo%Vicentini%NULL%3,                  Massimo%Vicentini%NULL%0,                  Roberto%Grilli%NULL%2,                  NULL%NULL%NULL%0,                  Gianluigi%Forloni%NULL%8,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0,                  Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                  Paolo%Maggi%NULL%2,                  Paolo%Maggi%NULL%0,                  Vincenzo%Messina%NULL%1,                  Pasquale%Iuliano%NULL%2,                  Pasquale%Iuliano%NULL%0,                  Antonio%Sardu%NULL%1,                  Vincenzo%Iovinella%NULL%1,                  Giuseppe%Paolisso%NULL%1,                  Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                  Rasimcan%Meral%NULL%1,                  Alpay%Medetalibeyoğlu%NULL%1,                  Hilal%Konyaoğlu%NULL%1,                  Murat%Köse%NULL%1,                  Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%2,       Jack%Owens%xref no email%1,       James%Franklin%xref no email%1,       Yash%Jani%xref no email%1,       Ashish%Kumar%xref no email%1,       Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                  Yun%Qiu%NULL%1,                  Xiang-Bin%Xing%NULL%1,                  Subrata%Ghosh%NULL%1,                  Min-Hu%Chen%NULL%1,                  Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                  Maddalena%Giannella%NULL%1,                  Michele%Bartoletti%NULL%1,                  Filippo%Trapani%NULL%1,                  Marina%Tadolini%NULL%1,                  Claudio%Borghi%NULL%1,                  Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                  Marco%Massari%NULL%3,                  Marco%Massari%NULL%0,                  Roberto%Da Cas%NULL%2,                  Francesca%Menniti Ippolito%NULL%2,                  Janet%Sultana%NULL%2,                  Salvatore%Crisafulli%NULL%2,                  Paolo%Giorgi Rossi%NULL%2,                  Massimiliano%Marino%NULL%0,                  Manuel%Zorzi%NULL%2,                  Emanuela%Bovo%NULL%2,                  Olivia%Leoni%NULL%2,                  Monica%Ludergnani%NULL%0,                  Stefania%Spila Alegiani%stefania.spila@iss.it%2,                  Stefania%Spila Alegiani%NULL%0,                  Francesca%Menniti Ippolito%NULL%0,                  Roberto%Da Cas%NULL%0,                  Marco%Massari%NULL%0,                  Giuseppe%Traversa%NULL%1,                  Graziano%Onder%NULL%1,                  Gianluca%Trifirò%NULL%1,                  Janet%Sultana%NULL%0,                  Valentina%Ientile%NULL%1,                  Salvatore%Crisafulli%NULL%0,                  Paolo%Giorgi Rossi%NULL%0,                  Roberto%Grilli%NULL%0,                  Giulio%Formoso%NULL%1,                  Massimiliano%Marino%NULL%0,                  Massimo%Vicentini%NULL%0,                  Olivia%Leoni%NULL%0,                  Monica%Ludergnani%NULL%0,                  Danilo%Cereda%NULL%1,                  Eliana%Ferroni%NULL%1,                  Stefano%Guzzinati%NULL%1,                  Emanuela%Bovo%NULL%0,                  Manuel%Zorzi%NULL%0,                  Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                  Chaolin%Huang%NULL%1,                  Guohui%Fan%NULL%1,                  Zhibo%Liu%NULL%1,                  Lianhan%Shang%NULL%1,                  Fei%Zhou%NULL%1,                  Yeming%Wang%NULL%1,                  Jiapei%Yu%NULL%1,                  Luning%Yang%NULL%1,                  Ke%Xie%NULL%1,                  Zhisheng%Huang%NULL%1,                  Lixue%Huang%NULL%1,                  Xiaoying%Gu%NULL%1,                  Hui%Li%NULL%1,                  Yi%Zhang%NULL%0,                  Yimin%Wang%NULL%1,                  Frederick G.%Hayden%NULL%1,                  Peter W.%Horby%NULL%1,                  Bin%Cao%caobin_ben@163.com%1,                  Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,       Zihu%Tan%xref no email%3,       Ling%Zhou%xref no email%3,       Min%Yang%xref no email%3,       Lang%Peng%xref no email%3,       Jinjin%Liu%xref no email%3,       Jingling%Cai%xref no email%3,       Ru%Yang%xref no email%3,       Junyan%Han%xref no email%3,       Yafei%Huang%xref no email%3,       Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                  Dan%Liu%NULL%1,                  Shaoqing%Zeng%NULL%1,                  Siyuan%Wang%NULL%1,                  Sen%Xu%NULL%1,                  Ya%Wang%NULL%1,                  Ruidi%Yu%NULL%1,                  Yue%Gao%NULL%1,                  Huayi%Li%NULL%1,                  Xinxia%Feng%NULL%1,                  Ning%Zhou%NULL%0,                  Chunxia%Zhao%NULL%1,                  Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                  Lihua%Zhu%NULL%1,                  Jingjing%Cai%NULL%1,                  Fang%Lei%NULL%1,                  Juan-Juan%Qin%NULL%1,                  Jing%Xie%NULL%1,                  Ye-Mao%Liu%NULL%1,                  Yan-Ci%Zhao%NULL%1,                  Xuewei%Huang%NULL%1,                  Lijin%Lin%NULL%1,                  Meng%Xia%NULL%1,                  Ming-Ming%Chen%NULL%1,                  Xu%Cheng%NULL%1,                  Xiao%Zhang%NULL%1,                  Deliang%Guo%NULL%1,                  Yuanyuan%Peng%NULL%1,                  Yan-Xiao%Ji%NULL%1,                  Jing%Chen%NULL%1,                  Zhi-Gang%She%NULL%1,                  Yibin%Wang%NULL%0,                  Qingbo%Xu%NULL%1,                  Renfu%Tan%NULL%1,                  Haitao%Wang%NULL%1,                  Jun%Lin%NULL%1,                  Pengcheng%Luo%NULL%1,                  Shouzhi%Fu%NULL%1,                  Hongbin%Cai%NULL%1,                  Ping%Ye%NULL%1,                  Bing%Xiao%NULL%1,                  Weiming%Mao%NULL%1,                  Liming%Liu%NULL%1,                  Youqin%Yan%NULL%1,                  Mingyu%Liu%NULL%1,                  Manhua%Chen%NULL%1,                  Xiao-Jing%Zhang%NULL%1,                  Xinghuan%Wang%NULL%1,                  Rhian M.%Touyz%NULL%1,                  Jiahong%Xia%NULL%1,                  Bing-Hong%Zhang%NULL%1,                  Xiaodong%Huang%NULL%1,                  Yufeng%Yuan%NULL%1,                  Rohit%Loomba%NULL%1,                  Peter P.%Liu%NULL%1,                  Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3451,7 +3580,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>792</v>
+        <v>835</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -3543,7 +3672,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>793</v>
+        <v>836</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3589,7 +3718,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>794</v>
+        <v>837</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -3635,7 +3764,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>795</v>
+        <v>838</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -3681,7 +3810,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>796</v>
+        <v>839</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -3727,7 +3856,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>797</v>
+        <v>840</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -3773,7 +3902,7 @@
         <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>798</v>
+        <v>841</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -3819,7 +3948,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -3865,7 +3994,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>800</v>
+        <v>843</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3911,7 +4040,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3957,7 +4086,7 @@
         <v>756</v>
       </c>
       <c r="E13" t="s">
-        <v>802</v>
+        <v>845</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -4003,7 +4132,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>803</v>
+        <v>846</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -4049,7 +4178,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>804</v>
+        <v>847</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -4095,7 +4224,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>805</v>
+        <v>848</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -4141,7 +4270,7 @@
         <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>806</v>
+        <v>849</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -4187,7 +4316,7 @@
         <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>807</v>
+        <v>850</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4233,7 +4362,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>808</v>
+        <v>851</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -4279,7 +4408,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>809</v>
+        <v>852</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -4325,7 +4454,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>810</v>
+        <v>853</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -4371,7 +4500,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>811</v>
+        <v>854</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -4417,7 +4546,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>812</v>
+        <v>855</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -4463,7 +4592,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>813</v>
+        <v>856</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -4509,7 +4638,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>814</v>
+        <v>857</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -4555,7 +4684,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>815</v>
+        <v>858</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -4601,7 +4730,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>816</v>
+        <v>859</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -4647,7 +4776,7 @@
         <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>817</v>
+        <v>860</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -4693,7 +4822,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -4739,7 +4868,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -4785,7 +4914,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>820</v>
+        <v>863</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -4831,7 +4960,7 @@
         <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>821</v>
+        <v>864</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -4877,7 +5006,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>822</v>
+        <v>865</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -4923,7 +5052,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>823</v>
+        <v>866</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -4969,7 +5098,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>824</v>
+        <v>867</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -5015,7 +5144,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>825</v>
+        <v>868</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -5061,7 +5190,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>826</v>
+        <v>869</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -5107,7 +5236,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>827</v>
+        <v>870</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -5153,7 +5282,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>828</v>
+        <v>871</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -5199,7 +5328,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>829</v>
+        <v>872</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -5245,7 +5374,7 @@
         <v>786</v>
       </c>
       <c r="E41" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -5291,7 +5420,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>831</v>
+        <v>874</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -5337,7 +5466,7 @@
         <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>832</v>
+        <v>875</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -5383,7 +5512,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>833</v>
+        <v>876</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -5429,7 +5558,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>834</v>
+        <v>877</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5806" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6121" uniqueCount="921">
   <si>
     <t>Doi</t>
   </si>
@@ -3152,6 +3152,135 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,                  Lihua%Zhu%NULL%1,                  Jingjing%Cai%NULL%1,                  Fang%Lei%NULL%1,                  Juan-Juan%Qin%NULL%1,                  Jing%Xie%NULL%1,                  Ye-Mao%Liu%NULL%1,                  Yan-Ci%Zhao%NULL%1,                  Xuewei%Huang%NULL%1,                  Lijin%Lin%NULL%1,                  Meng%Xia%NULL%1,                  Ming-Ming%Chen%NULL%1,                  Xu%Cheng%NULL%1,                  Xiao%Zhang%NULL%1,                  Deliang%Guo%NULL%1,                  Yuanyuan%Peng%NULL%1,                  Yan-Xiao%Ji%NULL%1,                  Jing%Chen%NULL%1,                  Zhi-Gang%She%NULL%1,                  Yibin%Wang%NULL%0,                  Qingbo%Xu%NULL%1,                  Renfu%Tan%NULL%1,                  Haitao%Wang%NULL%1,                  Jun%Lin%NULL%1,                  Pengcheng%Luo%NULL%1,                  Shouzhi%Fu%NULL%1,                  Hongbin%Cai%NULL%1,                  Ping%Ye%NULL%1,                  Bing%Xiao%NULL%1,                  Weiming%Mao%NULL%1,                  Liming%Liu%NULL%1,                  Youqin%Yan%NULL%1,                  Mingyu%Liu%NULL%1,                  Manhua%Chen%NULL%1,                  Xiao-Jing%Zhang%NULL%1,                  Xinghuan%Wang%NULL%1,                  Rhian M.%Touyz%NULL%1,                  Jiahong%Xia%NULL%1,                  Bing-Hong%Zhang%NULL%1,                  Xiaodong%Huang%NULL%1,                  Yufeng%Yuan%NULL%1,                  Rohit%Loomba%NULL%1,                  Peter P.%Liu%NULL%1,                  Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                   Sandra%Santos-Martinez%NULL%1,                   Diego%López-Otero%NULL%1,                   Luis%Nombela-Franco%NULL%1,                   Enrique%Gutiérrez-Ibanes%NULL%1,                   Raquel%Del Valle%NULL%1,                   Erika%Muñoz-García%NULL%1,                   Víctor A.%Jiménez-Diaz%NULL%1,                   Ander%Regueiro%NULL%1,                   Rocío%González-Ferreiro%NULL%1,                   Tomás%Benito%NULL%1,                   Xoan Carlos%Sanmartin-Pena%NULL%1,                   Pablo%Catalá%NULL%1,                   Tania%Rodríguez-Gabella%NULL%1,                   Jose Raúl%Delgado-Arana%NULL%1,                   Manuel%Carrasco-Moraleja%NULL%1,                   Borja%Ibañez%NULL%1,                   J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                   David M.%Tehrani%NULL%1,                   Soniya V.%Rabadia%NULL%1,                   Marlene%Frost%NULL%1,                   Rushi V.%Parikh%NULL%1,                   Marcella%Calfon-Press%NULL%1,                   Olcay%Aksoy%NULL%1,                   Soban%Umar%NULL%1,                   Reza%Ardehali%NULL%1,                   Amir%Rabbani%NULL%1,                   Pooya%Bokhoor%NULL%1,                   Ali%Nsair%NULL%1,                   Jesse%Currier%NULL%1,                   Jonathan%Tobis%NULL%1,                   Gregg C.%Fonarow%NULL%1,                   Ravi%Dave%NULL%1,                   Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                   Zeljko%Kraljevic%NULL%1,                   Thomas%Searle%NULL%1,                   Rebecca%Bendayan%NULL%1,                   O'Gallagher%Kevin%NULL%1,                   Andrew%Pickles%NULL%1,                   Amos%Folarin%NULL%1,                   Lukasz%Roguski%NULL%1,                   Kawsar%Noor%NULL%1,                   Anthony%Shek%NULL%1,                   Rosita%Zakeri%NULL%1,                   Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                   James T.H.%Teo%jamesteo@nhs.net%1,                   Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                   Mauro%Chiarito%NULL%1,                   Bernhard%Reimers%NULL%2,                   Bernhard%Reimers%NULL%0,                   Elena%Azzolini%NULL%1,                   Giuseppe%Ferrante%NULL%1,                   Ilaria%My%NULL%1,                   Giacomo%Viggiani%NULL%1,                   Cristina%Panico%NULL%1,                   Damiano%Regazzoli%NULL%1,                   Michele%Ciccarelli%NULL%1,                   Antonio%Voza%NULL%1,                   Alessio%Aghemo%NULL%1,                   Hongliang%Li%NULL%2,                   Yibin%Wang%NULL%2,                   Gianluigi%Condorelli%NULL%1,                   Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                   Feng%Wang%NULL%1,                   Peng%Chen%NULL%1,                   Jiangang%Jiang%NULL%1,                   Guanglin%Cui%NULL%1,                   Ning%Zhou%NULL%2,                   Francesco%Moroni%NULL%1,                   Javid J.%Moslehi%NULL%1,                   Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                   Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                   Ming%Zhong%NULL%1,                   Ya%Liu%NULL%1,                   Yi%Zhang%NULL%2,                   Kai%Zhang%NULL%1,                   De-zhen%Su%NULL%1,                   Xiao%Meng%NULL%1,                   Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,        Dong%Yang%xref no email%2,        Biao%Cheng%xref no email%2,        Jian%Chen%xref no email%4,        Anlin%Peng%xref no email%2,        Chen%Yang%xref no email%2,        Chong%Liu%xref no email%2,        Mingrui%Xiong%xref no email%2,        Aiping%Deng%xref no email%4,        Yu%Zhang%xref no email%2,        Ling%Zheng%xref no email%2,        Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                   Duncan%Young%NULL%2,                   Duncan%Young%NULL%0,                   Carol%Coupland%NULL%1,                   Keith M%Channon%NULL%1,                   Pui San%Tan%NULL%1,                   David A%Harrison%NULL%1,                   Kathryn%Rowan%NULL%2,                   Kathryn%Rowan%NULL%0,                   Paul%Aveyard%NULL%1,                   Ian D%Pavord%NULL%1,                   Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,            Butt%Jawad H%coreGivesNoEmail%1,            Fosb\u00f8l%Emil L%coreGivesNoEmail%1,            Gerds%Thomas A%coreGivesNoEmail%1,            Gislason%Gunnar H%coreGivesNoEmail%1,            Kragholm%Kristian%coreGivesNoEmail%1,            K\u00f8ber%Lars%coreGivesNoEmail%1,            Phelps%Matthew%coreGivesNoEmail%1,            Schou%Morten%coreGivesNoEmail%1,            Selmer%Christian%coreGivesNoEmail%1,            Torp-Pedersen%Christian%coreGivesNoEmail%1,            \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                   Yue%Cai%NULL%1,                   Kan%Zhang%NULL%2,                   Kan%Zhang%NULL%0,                   Lei%Zhou%NULL%1,                   Yao%Zhang%NULL%1,                   Xijing%Zhang%NULL%1,                   Qi%Li%NULL%1,                   Weiqin%Li%NULL%1,                   Shiming%Yang%NULL%1,                   Xiaoyan%Zhao%NULL%1,                   Yuying%Zhao%NULL%1,                   Hui%Wang%NULL%1,                   Yi%Liu%NULL%2,                   Zhiyong%Yin%NULL%1,                   Ruining%Zhang%NULL%1,                   Rutao%Wang%NULL%1,                   Ming%Yang%NULL%1,                   Chen%Hui%NULL%1,                   William%Wijns%NULL%1,                   J William%McEvoy%NULL%1,                   Osama%Soliman%NULL%2,                   Osama%Soliman%NULL%0,                   Yoshinobu%Onuma%NULL%2,                   Yoshinobu%Onuma%NULL%0,                   Patrick W%Serruys%NULL%1,                   Ling%Tao%lingtao@fmmu.edu.cn%1,                   Fei%Li%lifei01@fmmu.edu.cn%2,                   Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                   Erkan%Ekicibasi%NULL%1,                   Aleks%Degirmencioglu%NULL%1,                   Ashok%Paudel%NULL%1,                   Refik%Erdim%NULL%1,                   Hilal Kurtoglu%Gumusel%NULL%1,                   Elif%Eroglu%NULL%1,                   Ibrahim Halil%Tanboga%NULL%1,                   Sinan%Dagdelen%NULL%1,                   Nevin%Sariguzel%NULL%1,                   Ceyda Erel%Kirisoglu%NULL%1,                   Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,            Antonelli%M.%coreGivesNoEmail%2,            Bellani%G.%coreGivesNoEmail%2,            Bonanomi%E.%coreGivesNoEmail%2,            Cabrini%L.%coreGivesNoEmail%2,            Carlesso%E.%coreGivesNoEmail%2,            Castelli%G.%coreGivesNoEmail%2,            Cattaneo%S.%coreGivesNoEmail%2,            Cecconi%M.%coreGivesNoEmail%2,            Cereda%D.%coreGivesNoEmail%2,            Colombo%S.%coreGivesNoEmail%2,            Coluccello%A.%coreGivesNoEmail%2,            Crescini%G.%coreGivesNoEmail%2,            Forastieri%Molinari A.%coreGivesNoEmail%2,            Foti%G.%coreGivesNoEmail%2,            Fumagalli%R.%coreGivesNoEmail%2,            Grasselli%G.%coreGivesNoEmail%2,            Greco%M.%coreGivesNoEmail%2,            Iotti%G. A.%coreGivesNoEmail%2,            Langer%T.%coreGivesNoEmail%2,            Latronico%N.%coreGivesNoEmail%2,            Lorini%F. L.%coreGivesNoEmail%2,            Mojoli%F.%coreGivesNoEmail%2,            Natalini%G.%coreGivesNoEmail%2,            Pesenti%A.%coreGivesNoEmail%2,            Pessina%C. M.%coreGivesNoEmail%2,            Ranieri%V. M.%coreGivesNoEmail%2,            Rech%R.%coreGivesNoEmail%2,            Rosano%A.%coreGivesNoEmail%2,            Scudeller%L.%coreGivesNoEmail%2,            Storti%E.%coreGivesNoEmail%2,            Thompson%B. T.%coreGivesNoEmail%2,            Tirani%M.%coreGivesNoEmail%2,            Villani%P. G.%coreGivesNoEmail%2,            Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,        Yueli%Zhu%xref no email%1,        Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                   Jiatian%Cao%NULL%1,                   Yumeng%Yao%NULL%1,                   Xuejuan%Jin%NULL%1,                   Zhe%Luo%NULL%1,                   Yuan%Xue%NULL%1,                   Chouwen%Zhu%NULL%1,                   Yanan%Song%NULL%1,                   Ying%Wang%NULL%1,                   Yunzeng%Zou%NULL%1,                   Juying%Qian%NULL%1,                   Kaihuan%Yu%NULL%1,                   Hui%Gong%NULL%1,                   Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                   Ju-Hyun%Kim%NULL%1,                   Jin-Sung%Park%NULL%1,                   Min Cheol%Chang%wheel633@ynu.ac.kr%1,                   Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,        Guido%Grassi%xref no email%1,        Claudio%Borghi%xref no email%1,        Claudio%Ferri%xref no email%1,        Massimo%Salvetti%xref no email%1,        Massimo%Volpe%xref no email%1,        Arrigo F.G.%Cicero%xref no email%1,        Pietro%Minuz%xref no email%1,        Maria Lorenza%Muiesan%xref no email%1,        Paolo%Mulatero%xref no email%1,        Giuseppe%Mul\u00e8%xref no email%1,        Giacomo%Pucci%xref no email%1,        Carmine%Savoia%xref no email%1,        Leonardo%Sechi%xref no email%1,        Stefano%Carugo%xref no email%1,        Francesco%Fallo%xref no email%1,        Cristina%Giannattasio%xref no email%1,        Davide%Grassi%xref no email%1,        Claudio%Letizia%xref no email%1,        Stefano%Perlini%xref no email%1,        Damiano%Rizzoni%xref no email%1,        Riccardo%Sarzani%xref no email%1,        Giuliano%Tocci%xref no email%1,        Franco%Veglio%xref no email%1,        Claudia%Agabiti Rosei%xref no email%1,        Michele%Bevilacqua%xref no email%1,        Valeria%Bisogni%xref no email%1,        Michele%Bombelli%xref no email%1,        Luca%Bulfone%xref no email%1,        Flaminia%Canichella%xref no email%1,        Giovanni%Carpani%xref no email%1,        Massimo%Catanuso%xref no email%1,        Giulia%Chiarini%xref no email%1,        Fernando%Chiumiento%xref no email%1,        Rosario%Cianci%xref no email%1,        Franco%Cipollini%xref no email%1,        Antonio%Concistr\u00e8%xref no email%1,        Andrea%Dalbeni%xref no email%1,        Roberto Alberto%De Blasi%xref no email%1,        Carolina%De Ciuceis%xref no email%1,        Raffaella%Dell\u2019Oro%xref no email%1,        Antonino%Di Guardo%xref no email%1,        Santo%Di Lorenzo%xref no email%1,        Monica%Di Norcia%xref no email%1,        Roberto%Ervo%xref no email%1,        Elisabetta%Eula%xref no email%1,        Davide%Fabbricatore%xref no email%1,        Elvira%Fanelli%xref no email%1,        Cristiano%Fava%xref no email%1,        Enzo%Grasso%xref no email%1,        Alessandro%Grimaldi%xref no email%1,        Maddalena%Illario%xref no email%1,        Claudio%Invernizzi%xref no email%1,        Elena%Iraca%xref no email%1,        Federica%Liegi%xref no email%1,        Paolo%Malerba%xref no email%1,        Alessandro%Maloberti%xref no email%1,        Costantino%Mancusi%xref no email%1,        Giulia%Molinari%xref no email%1,        Roberta%Mussinelli%xref no email%1,        Anna%Paini%xref no email%1,        Paola%Pellimassi%xref no email%1,        Ornella%Piazza%xref no email%1,        Roberto%Pontremoli%xref no email%1,        Fosca%Quarti Tevano%xref no email%1,        Franco%Rabbia%xref no email%1,        Monica%Rocco%xref no email%1,        Anna%Sabena%xref no email%1,        Francesco%Salinaro%xref no email%1,        Paola%Schiavi%xref no email%1,        Maria Chiara%Sgariglia%xref no email%1,        Francesco%Spannella%xref no email%1,        Sara%Tedeschi%xref no email%1,        Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                   Raphael Romano%Bruno%NULL%1,                   Bernhard%Wernly%NULL%1,                   Michael%Joannidis%NULL%1,                   Sandra%Oeyen%NULL%1,                   Tilemachos%Zafeiridis%NULL%1,                   Brian%Marsh%NULL%1,                   Finn H%Andersen%NULL%1,                   Rui%Moreno%NULL%1,                   Ana Margarida%Fernandes%NULL%1,                   Antonio%Artigas%NULL%1,                   Bernardo Bollen%Pinto%NULL%1,                   Joerg%Schefold%NULL%1,                   Georg%Wolff%NULL%1,                   Malte%Kelm%NULL%2,                   Malte%Kelm%NULL%0,                   Dylan W%De Lange%NULL%1,                   Bertrand%Guidet%NULL%1,                   Hans%Flaatten%NULL%1,                   Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                   Jae Chol%Choi%NULL%1,                   Seung-Hun%You%NULL%1,                   Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                   Hamish%Reed-Embleton%NULL%2,                   Hamish%Reed-Embleton%NULL%0,                   Jen%Lewis%NULL%2,                   Jen%Lewis%NULL%0,                   Pamela%Bain%NULL%1,                   Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                   Kenneth W%Chow%NULL%1,                   Jonathan%Vo%NULL%1,                   Wei%Hou%NULL%1,                   Haifang%Li%NULL%1,                   Paul S%Richman%NULL%1,                   Sandeep K%Mallipattu%NULL%1,                   Hal A%Skopicki%NULL%1,                   Adam J%Singer%NULL%1,                   Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,        Xiufang%Wang%xref no email%2,        Jian%Chen%xref no email%0,        Hongmei%Zhang%xref no email%2,        Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                   Julien%Moragny%NULL%2,                   Julien%Moragny%NULL%0,                   Youssef%Bennis%NULL%1,                   Benjamin%Batteux%NULL%1,                   Etienne%Brochot%NULL%1,                   Jean Luc%Schmit%NULL%1,                   Jean-Philippe%Lanoix%NULL%1,                   Claire%Andrejak%NULL%1,                   Olivier%Ganry%NULL%1,                   Michel%Slama%NULL%1,                   Julien%Maizel%NULL%1,                   Yazine%Mahjoub%NULL%1,                   Kamel%Masmoudi%NULL%1,                   Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                   Yi%Liu%NULL%0,                   Keliang%Chen%NULL%1,                   Suying%Yan%NULL%1,                   Xiangrong%Bai%NULL%1,                   Juan%Li%947281063@qq.com%1,                   Dong%Liu%ld2069@outlook.com%2,                   Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                   Javier%López-Pais%NULL%1,                   Carla Eugenia%Cacho-Antonio%NULL%1,                   Pablo José%Antúnez-Muiños%NULL%1,                   Teba%González-Ferrero%NULL%1,                   Marta%Pérez-Poza%NULL%1,                   Óscar%Otero-García%NULL%1,                   Brais%Díaz-Fernández%NULL%1,                   María%Bastos-Fernández%NULL%1,                   Noelia%Bouzas-Cruz%NULL%1,                   Xoan Carlos%Sanmartín-Pena%NULL%1,                   Alfonso%Varela-Román%NULL%1,                   Manuel%Portela-Romero%NULL%1,                   Luis%Valdés-Cuadrado%NULL%1,                   Antonio%Pose-Reino%NULL%1,                   José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                   Federico%Rea%NULL%1,                   Monica%Ludergnani%NULL%4,                   Monica%Ludergnani%NULL%0,                   Giovanni%Apolone%NULL%1,                   Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,      Hisao%Ogawa%null%2,      Kazuo%Kimura%null%2,      Masaaki%Konishi%null%2,      Jin%Kirigaya%null%2,      Kazuki%Fukui%null%2,      Kengo%Tsukahara%null%2,      Hiroyuki%Shimizu%null%2,      Keisuke%Iwabuchi%null%2,      Yu%Yamada%null%2,      Kenichiro%Saka%null%2,      Ichiro%Takeuchi%null%2,      Toshio%Hirano%null%2,      Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                   Guohui%Xiao%NULL%1,                   Juanjuan%Zhang%NULL%1,                   Xing%He%NULL%1,                   Min%Ou%NULL%1,                   Jing%Bi%NULL%1,                   Rongqing%Yang%NULL%1,                   Wencheng%Di%NULL%1,                   Zhaoqin%Wang%NULL%1,                   Zigang%Li%NULL%1,                   Hong%Gao%NULL%1,                   Lei%Liu%NULL%1,                   Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                   Francisca%García-Iglesias%NULL%1,                   Teresa%González-Alegre%NULL%1,                   Francisco%Blanco%NULL%1,                   Marta%Varas%NULL%1,                   Clara%Hernández-Blanco%NULL%1,                   Victor%Hontañón%NULL%1,                   María J.%Jaras-Hernández%NULL%1,                   Mónica%Martínez-Prieto%NULL%1,                   Araceli%Menéndez-Saldaña%NULL%1,                   María L.%Cachán%NULL%1,                   Eva%Estirado%NULL%1,                   Carlos%Lahoz%NULL%1,                   Rosa%de Miguel%NULL%1,                   Miriam%Romero%NULL%1,                   Mar%Lago%NULL%1,                   Cristina%García-Quero%NULL%1,                   Cristina%Plaza%NULL%1,                   Talía%Sainz-Costa%NULL%1,                   Susana%Rivas-Vila%NULL%1,                   Blanca%Sánchez%NULL%1,                   Celia García%Torres%NULL%1,                   Lucía%Martínez-Tobar%NULL%1,                   María%Hernandez-Pérez%NULL%1,                   Pablo%Racionero%NULL%1,                   Patricia%Mir-Ihara%NULL%1,                   Jesús%Peña-López%NULL%1,                   Marta%Bautista-Barea%NULL%1,                   Alexa P.%Benítez%NULL%1,                   Pablo%Rodríguez-Merlos%NULL%1,                   María%Barcenilla%NULL%1,                   María San%Basilio%NULL%1,                   María%Valencia%NULL%1,                   Ricardo%Romero-Martín%NULL%1,                   Ana%Boto de los Bueis%NULL%1,                   Adriana%de la Hoz-Polo%NULL%1,                   María%del Pino-Cidad%NULL%1,                   Javier%Coca-Robinot%NULL%1,                   Bárbara%González-Ferrer%NULL%1,                   Pedro%Fernández-Pérez%NULL%1,                   Isabel%Mogollón%NULL%1,                   María S.%Montoro-Romero%NULL%1,                   Isabel%Villalaín%NULL%1,                   Almudena%del Hierro-Zarzuelo%NULL%1,                   Irene%Hernández-Martín%NULL%1,                   Javier%Domínguez%NULL%1,                   Alberto%Luna%NULL%1,                   Soledad%Montoro%NULL%1,                   Margarita%Sánchez-Orgaz%NULL%1,                   Gloria%Amorena%NULL%1,                   Cosme%Lavín-Dapena%NULL%1,                   Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                   Stanislas%Gleye%NULL%1,                   Isabelle%Clerc Urmes%NULL%1,                   Elodie%Laugel%NULL%1,                   Jonas%Callet%NULL%1,                   Françoise%Barbé%NULL%1,                   Sophie%Orlowski%NULL%1,                   Catherine%Malaplate%NULL%1,                   Isabelle%Aimone-Gastin%NULL%1,                   Beatrice Maatem%Caillierez%NULL%1,                   Marc%Merten%NULL%1,                   Elise%Jeannesson%NULL%1,                   Raphaël%Kormann%NULL%1,                   Jean-Luc%Olivier%NULL%1,                   Rosa-Maria%Rodriguez-Guéant%NULL%1,                   Farès%Namour%NULL%1,                   Sybille%Bevilacqua%NULL%1,                   Marie-Reine%Losser%NULL%1,                   Bruno%Levy%NULL%1,                   Antoine%Kimmoun%NULL%1,                   Sébastien%Gibot%NULL%1,                   Nathalie%Thilly%NULL%1,                   Luc%Frimat%NULL%1,                   Evelyne%Schvoerer%NULL%1,                   Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,        Jishou%Zhang%xref no email%2,        Menglong%Wang%xref no email%2,        Jing%Ye%xref no email%2,        Yao%Xu%xref no email%2,        Bo%Shen%xref no email%2,        Hua%He%xref no email%2,        Zhen%Wang%xref no email%2,        Di%Ye%xref no email%2,        Mengmeng%Zhao%xref no email%2,        Zhen%Luo%xref no email%2,        Mingxiao%Liu%xref no email%2,        Pingan%Zhang%xref no email%2,        Jian%Gu%xref no email%2,        Menglin%Liu%xref no email%2,        Dan%Li%xref no email%2,        Jianfang%Liu%xref no email%2,        Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                   Samrachana%Adhikari%NULL%1,                   Claudia%Pulgarin%NULL%1,                   Andrea B.%Troxel%NULL%1,                   Eduardo%Iturrate%NULL%1,                   Stephen B.%Johnson%NULL%1,                   Anaïs%Hausvater%NULL%1,                   Jonathan D.%Newman%NULL%1,                   Jeffrey S.%Berger%NULL%1,                   Sripal%Bangalore%NULL%1,                   Stuart D.%Katz%NULL%1,                   Glenn I.%Fishman%NULL%1,                   Dennis%Kunichoff%NULL%1,                   Yu%Chen%NULL%1,                   Gbenga%Ogedegbe%NULL%1,                   Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,            Becker%L.B.%coreGivesNoEmail%3,            Chelico%J.D.%coreGivesNoEmail%3,            Cohen%S.L.%coreGivesNoEmail%3,            Cookingham%J.%coreGivesNoEmail%3,            Coppa%K.%coreGivesNoEmail%3,            Crawford%J.M.%coreGivesNoEmail%3,            Davidson%K.W.%coreGivesNoEmail%3,            Diefenbach%M.A.%coreGivesNoEmail%3,            Dominello%A.J.%coreGivesNoEmail%3,            Duer-Hefele%J.%coreGivesNoEmail%3,            Falzon%L.%coreGivesNoEmail%3,            Gitlin%J.%coreGivesNoEmail%3,            Hajizadeh%N.%coreGivesNoEmail%3,            Harvin%T.G.%coreGivesNoEmail%3,            Hirsch%J.S.%coreGivesNoEmail%3,            Hirschwerk%D.A.%coreGivesNoEmail%3,            Kim%E.J.%coreGivesNoEmail%3,            Kozel%Z.M.%coreGivesNoEmail%3,            Marrast%L.M.%coreGivesNoEmail%3,            McGinn%T.%coreGivesNoEmail%3,            Mogavero%J.N.%coreGivesNoEmail%3,            Narasimhan%M.%coreGivesNoEmail%3,            Osorio%G.A.%coreGivesNoEmail%3,            Qiu%M.%coreGivesNoEmail%3,            Richardson%S.%coreGivesNoEmail%3,            Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                   Massimiliano%Marino%NULL%3,                   Debora%Formisano%NULL%1,                   Francesco%Venturelli%NULL%1,                   Massimo%Vicentini%NULL%3,                   Massimo%Vicentini%NULL%0,                   Roberto%Grilli%NULL%2,                   NULL%NULL%NULL%0,                   Gianluigi%Forloni%NULL%8,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0,                   Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                   Paolo%Maggi%NULL%2,                   Paolo%Maggi%NULL%0,                   Vincenzo%Messina%NULL%1,                   Pasquale%Iuliano%NULL%2,                   Pasquale%Iuliano%NULL%0,                   Antonio%Sardu%NULL%1,                   Vincenzo%Iovinella%NULL%1,                   Giuseppe%Paolisso%NULL%1,                   Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                   Rasimcan%Meral%NULL%1,                   Alpay%Medetalibeyoğlu%NULL%1,                   Hilal%Konyaoğlu%NULL%1,                   Murat%Köse%NULL%1,                   Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%2,        Jack%Owens%xref no email%1,        James%Franklin%xref no email%1,        Yash%Jani%xref no email%1,        Ashish%Kumar%xref no email%1,        Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                   Yun%Qiu%NULL%1,                   Xiang-Bin%Xing%NULL%1,                   Subrata%Ghosh%NULL%1,                   Min-Hu%Chen%NULL%1,                   Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                   Maddalena%Giannella%NULL%1,                   Michele%Bartoletti%NULL%1,                   Filippo%Trapani%NULL%1,                   Marina%Tadolini%NULL%1,                   Claudio%Borghi%NULL%1,                   Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                   Marco%Massari%NULL%3,                   Marco%Massari%NULL%0,                   Roberto%Da Cas%NULL%2,                   Francesca%Menniti Ippolito%NULL%2,                   Janet%Sultana%NULL%2,                   Salvatore%Crisafulli%NULL%2,                   Paolo%Giorgi Rossi%NULL%2,                   Massimiliano%Marino%NULL%0,                   Manuel%Zorzi%NULL%2,                   Emanuela%Bovo%NULL%2,                   Olivia%Leoni%NULL%2,                   Monica%Ludergnani%NULL%0,                   Stefania%Spila Alegiani%stefania.spila@iss.it%2,                   Stefania%Spila Alegiani%NULL%0,                   Francesca%Menniti Ippolito%NULL%0,                   Roberto%Da Cas%NULL%0,                   Marco%Massari%NULL%0,                   Giuseppe%Traversa%NULL%1,                   Graziano%Onder%NULL%1,                   Gianluca%Trifirò%NULL%1,                   Janet%Sultana%NULL%0,                   Valentina%Ientile%NULL%1,                   Salvatore%Crisafulli%NULL%0,                   Paolo%Giorgi Rossi%NULL%0,                   Roberto%Grilli%NULL%0,                   Giulio%Formoso%NULL%1,                   Massimiliano%Marino%NULL%0,                   Massimo%Vicentini%NULL%0,                   Olivia%Leoni%NULL%0,                   Monica%Ludergnani%NULL%0,                   Danilo%Cereda%NULL%1,                   Eliana%Ferroni%NULL%1,                   Stefano%Guzzinati%NULL%1,                   Emanuela%Bovo%NULL%0,                   Manuel%Zorzi%NULL%0,                   Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                   Chaolin%Huang%NULL%1,                   Guohui%Fan%NULL%1,                   Zhibo%Liu%NULL%1,                   Lianhan%Shang%NULL%1,                   Fei%Zhou%NULL%1,                   Yeming%Wang%NULL%1,                   Jiapei%Yu%NULL%1,                   Luning%Yang%NULL%1,                   Ke%Xie%NULL%1,                   Zhisheng%Huang%NULL%1,                   Lixue%Huang%NULL%1,                   Xiaoying%Gu%NULL%1,                   Hui%Li%NULL%1,                   Yi%Zhang%NULL%0,                   Yimin%Wang%NULL%1,                   Frederick G.%Hayden%NULL%1,                   Peter W.%Horby%NULL%1,                   Bin%Cao%caobin_ben@163.com%1,                   Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,        Zihu%Tan%xref no email%3,        Ling%Zhou%xref no email%3,        Min%Yang%xref no email%3,        Lang%Peng%xref no email%3,        Jinjin%Liu%xref no email%3,        Jingling%Cai%xref no email%3,        Ru%Yang%xref no email%3,        Junyan%Han%xref no email%3,        Yafei%Huang%xref no email%3,        Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                   Dan%Liu%NULL%1,                   Shaoqing%Zeng%NULL%1,                   Siyuan%Wang%NULL%1,                   Sen%Xu%NULL%1,                   Ya%Wang%NULL%1,                   Ruidi%Yu%NULL%1,                   Yue%Gao%NULL%1,                   Huayi%Li%NULL%1,                   Xinxia%Feng%NULL%1,                   Ning%Zhou%NULL%0,                   Chunxia%Zhao%NULL%1,                   Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                   Lihua%Zhu%NULL%1,                   Jingjing%Cai%NULL%1,                   Fang%Lei%NULL%1,                   Juan-Juan%Qin%NULL%1,                   Jing%Xie%NULL%1,                   Ye-Mao%Liu%NULL%1,                   Yan-Ci%Zhao%NULL%1,                   Xuewei%Huang%NULL%1,                   Lijin%Lin%NULL%1,                   Meng%Xia%NULL%1,                   Ming-Ming%Chen%NULL%1,                   Xu%Cheng%NULL%1,                   Xiao%Zhang%NULL%1,                   Deliang%Guo%NULL%1,                   Yuanyuan%Peng%NULL%1,                   Yan-Xiao%Ji%NULL%1,                   Jing%Chen%NULL%1,                   Zhi-Gang%She%NULL%1,                   Yibin%Wang%NULL%0,                   Qingbo%Xu%NULL%1,                   Renfu%Tan%NULL%1,                   Haitao%Wang%NULL%1,                   Jun%Lin%NULL%1,                   Pengcheng%Luo%NULL%1,                   Shouzhi%Fu%NULL%1,                   Hongbin%Cai%NULL%1,                   Ping%Ye%NULL%1,                   Bing%Xiao%NULL%1,                   Weiming%Mao%NULL%1,                   Liming%Liu%NULL%1,                   Youqin%Yan%NULL%1,                   Mingyu%Liu%NULL%1,                   Manhua%Chen%NULL%1,                   Xiao-Jing%Zhang%NULL%1,                   Xinghuan%Wang%NULL%1,                   Rhian M.%Touyz%NULL%1,                   Jiahong%Xia%NULL%1,                   Bing-Hong%Zhang%NULL%1,                   Xiaodong%Huang%NULL%1,                   Yufeng%Yuan%NULL%1,                   Rohit%Loomba%NULL%1,                   Peter P.%Liu%NULL%1,                   Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3580,7 +3709,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>835</v>
+        <v>878</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -3672,7 +3801,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>836</v>
+        <v>879</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3718,7 +3847,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>837</v>
+        <v>880</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -3764,7 +3893,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>838</v>
+        <v>881</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -3810,7 +3939,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>839</v>
+        <v>882</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -3856,7 +3985,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>840</v>
+        <v>883</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -3902,7 +4031,7 @@
         <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>841</v>
+        <v>884</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -3948,7 +4077,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>842</v>
+        <v>885</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -3994,7 +4123,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>843</v>
+        <v>886</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4040,7 +4169,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>844</v>
+        <v>887</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -4086,7 +4215,7 @@
         <v>756</v>
       </c>
       <c r="E13" t="s">
-        <v>845</v>
+        <v>888</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -4132,7 +4261,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>846</v>
+        <v>889</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -4178,7 +4307,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>847</v>
+        <v>890</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -4224,7 +4353,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>848</v>
+        <v>891</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -4270,7 +4399,7 @@
         <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>849</v>
+        <v>892</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -4316,7 +4445,7 @@
         <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>850</v>
+        <v>893</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4362,7 +4491,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>851</v>
+        <v>894</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -4408,7 +4537,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>852</v>
+        <v>895</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -4454,7 +4583,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>853</v>
+        <v>896</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -4500,7 +4629,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>854</v>
+        <v>897</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -4546,7 +4675,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>855</v>
+        <v>898</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -4592,7 +4721,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>856</v>
+        <v>899</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -4638,7 +4767,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>857</v>
+        <v>900</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -4684,7 +4813,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>858</v>
+        <v>901</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -4730,7 +4859,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>859</v>
+        <v>902</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -4776,7 +4905,7 @@
         <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>860</v>
+        <v>903</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -4822,7 +4951,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>861</v>
+        <v>904</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -4868,7 +4997,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>862</v>
+        <v>905</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -4914,7 +5043,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>863</v>
+        <v>906</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -4960,7 +5089,7 @@
         <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>864</v>
+        <v>907</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -5006,7 +5135,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>865</v>
+        <v>908</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -5052,7 +5181,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>866</v>
+        <v>909</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -5098,7 +5227,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>867</v>
+        <v>910</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -5144,7 +5273,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>868</v>
+        <v>911</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -5190,7 +5319,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>869</v>
+        <v>912</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -5236,7 +5365,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>870</v>
+        <v>913</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -5282,7 +5411,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>871</v>
+        <v>914</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -5328,7 +5457,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>872</v>
+        <v>915</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -5374,7 +5503,7 @@
         <v>786</v>
       </c>
       <c r="E41" t="s">
-        <v>873</v>
+        <v>916</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -5420,7 +5549,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>874</v>
+        <v>917</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -5466,7 +5595,7 @@
         <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>875</v>
+        <v>918</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -5512,7 +5641,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>876</v>
+        <v>919</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -5558,7 +5687,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>877</v>
+        <v>920</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6121" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="1007">
   <si>
     <t>Doi</t>
   </si>
@@ -3281,6 +3281,264 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,                   Lihua%Zhu%NULL%1,                   Jingjing%Cai%NULL%1,                   Fang%Lei%NULL%1,                   Juan-Juan%Qin%NULL%1,                   Jing%Xie%NULL%1,                   Ye-Mao%Liu%NULL%1,                   Yan-Ci%Zhao%NULL%1,                   Xuewei%Huang%NULL%1,                   Lijin%Lin%NULL%1,                   Meng%Xia%NULL%1,                   Ming-Ming%Chen%NULL%1,                   Xu%Cheng%NULL%1,                   Xiao%Zhang%NULL%1,                   Deliang%Guo%NULL%1,                   Yuanyuan%Peng%NULL%1,                   Yan-Xiao%Ji%NULL%1,                   Jing%Chen%NULL%1,                   Zhi-Gang%She%NULL%1,                   Yibin%Wang%NULL%0,                   Qingbo%Xu%NULL%1,                   Renfu%Tan%NULL%1,                   Haitao%Wang%NULL%1,                   Jun%Lin%NULL%1,                   Pengcheng%Luo%NULL%1,                   Shouzhi%Fu%NULL%1,                   Hongbin%Cai%NULL%1,                   Ping%Ye%NULL%1,                   Bing%Xiao%NULL%1,                   Weiming%Mao%NULL%1,                   Liming%Liu%NULL%1,                   Youqin%Yan%NULL%1,                   Mingyu%Liu%NULL%1,                   Manhua%Chen%NULL%1,                   Xiao-Jing%Zhang%NULL%1,                   Xinghuan%Wang%NULL%1,                   Rhian M.%Touyz%NULL%1,                   Jiahong%Xia%NULL%1,                   Bing-Hong%Zhang%NULL%1,                   Xiaodong%Huang%NULL%1,                   Yufeng%Yuan%NULL%1,                   Rohit%Loomba%NULL%1,                   Peter P.%Liu%NULL%1,                   Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                    Sandra%Santos-Martinez%NULL%1,                    Diego%López-Otero%NULL%1,                    Luis%Nombela-Franco%NULL%1,                    Enrique%Gutiérrez-Ibanes%NULL%1,                    Raquel%Del Valle%NULL%1,                    Erika%Muñoz-García%NULL%1,                    Víctor A.%Jiménez-Diaz%NULL%1,                    Ander%Regueiro%NULL%1,                    Rocío%González-Ferreiro%NULL%1,                    Tomás%Benito%NULL%1,                    Xoan Carlos%Sanmartin-Pena%NULL%1,                    Pablo%Catalá%NULL%1,                    Tania%Rodríguez-Gabella%NULL%1,                    Jose Raúl%Delgado-Arana%NULL%1,                    Manuel%Carrasco-Moraleja%NULL%1,                    Borja%Ibañez%NULL%1,                    J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                    David M.%Tehrani%NULL%1,                    Soniya V.%Rabadia%NULL%1,                    Marlene%Frost%NULL%1,                    Rushi V.%Parikh%NULL%1,                    Marcella%Calfon-Press%NULL%1,                    Olcay%Aksoy%NULL%1,                    Soban%Umar%NULL%1,                    Reza%Ardehali%NULL%1,                    Amir%Rabbani%NULL%1,                    Pooya%Bokhoor%NULL%1,                    Ali%Nsair%NULL%1,                    Jesse%Currier%NULL%1,                    Jonathan%Tobis%NULL%1,                    Gregg C.%Fonarow%NULL%1,                    Ravi%Dave%NULL%1,                    Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                    Zeljko%Kraljevic%NULL%1,                    Thomas%Searle%NULL%1,                    Rebecca%Bendayan%NULL%1,                    O'Gallagher%Kevin%NULL%1,                    Andrew%Pickles%NULL%1,                    Amos%Folarin%NULL%1,                    Lukasz%Roguski%NULL%1,                    Kawsar%Noor%NULL%1,                    Anthony%Shek%NULL%1,                    Rosita%Zakeri%NULL%1,                    Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                    James T.H.%Teo%jamesteo@nhs.net%1,                    Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                    Mauro%Chiarito%NULL%1,                    Bernhard%Reimers%NULL%2,                    Bernhard%Reimers%NULL%0,                    Elena%Azzolini%NULL%1,                    Giuseppe%Ferrante%NULL%1,                    Ilaria%My%NULL%1,                    Giacomo%Viggiani%NULL%1,                    Cristina%Panico%NULL%1,                    Damiano%Regazzoli%NULL%1,                    Michele%Ciccarelli%NULL%1,                    Antonio%Voza%NULL%1,                    Alessio%Aghemo%NULL%1,                    Hongliang%Li%NULL%2,                    Yibin%Wang%NULL%2,                    Gianluigi%Condorelli%NULL%1,                    Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                    Feng%Wang%NULL%1,                    Peng%Chen%NULL%1,                    Jiangang%Jiang%NULL%1,                    Guanglin%Cui%NULL%1,                    Ning%Zhou%NULL%2,                    Francesco%Moroni%NULL%1,                    Javid J.%Moslehi%NULL%1,                    Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                    Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                    Ming%Zhong%NULL%1,                    Ya%Liu%NULL%1,                    Yi%Zhang%NULL%2,                    Kai%Zhang%NULL%1,                    De-zhen%Su%NULL%1,                    Xiao%Meng%NULL%1,                    Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,         Dong%Yang%xref no email%2,         Biao%Cheng%xref no email%2,         Jian%Chen%xref no email%4,         Anlin%Peng%xref no email%2,         Chen%Yang%xref no email%2,         Chong%Liu%xref no email%2,         Mingrui%Xiong%xref no email%2,         Aiping%Deng%xref no email%4,         Yu%Zhang%xref no email%2,         Ling%Zheng%xref no email%2,         Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                    Duncan%Young%NULL%2,                    Duncan%Young%NULL%0,                    Carol%Coupland%NULL%1,                    Keith M%Channon%NULL%1,                    Pui San%Tan%NULL%1,                    David A%Harrison%NULL%1,                    Kathryn%Rowan%NULL%2,                    Kathryn%Rowan%NULL%0,                    Paul%Aveyard%NULL%1,                    Ian D%Pavord%NULL%1,                    Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,             Butt%Jawad H%coreGivesNoEmail%1,             Fosb\u00f8l%Emil L%coreGivesNoEmail%1,             Gerds%Thomas A%coreGivesNoEmail%1,             Gislason%Gunnar H%coreGivesNoEmail%1,             Kragholm%Kristian%coreGivesNoEmail%1,             K\u00f8ber%Lars%coreGivesNoEmail%1,             Phelps%Matthew%coreGivesNoEmail%1,             Schou%Morten%coreGivesNoEmail%1,             Selmer%Christian%coreGivesNoEmail%1,             Torp-Pedersen%Christian%coreGivesNoEmail%1,             \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                    Yue%Cai%NULL%1,                    Kan%Zhang%NULL%2,                    Kan%Zhang%NULL%0,                    Lei%Zhou%NULL%1,                    Yao%Zhang%NULL%1,                    Xijing%Zhang%NULL%1,                    Qi%Li%NULL%1,                    Weiqin%Li%NULL%1,                    Shiming%Yang%NULL%1,                    Xiaoyan%Zhao%NULL%1,                    Yuying%Zhao%NULL%1,                    Hui%Wang%NULL%1,                    Yi%Liu%NULL%2,                    Zhiyong%Yin%NULL%1,                    Ruining%Zhang%NULL%1,                    Rutao%Wang%NULL%1,                    Ming%Yang%NULL%1,                    Chen%Hui%NULL%1,                    William%Wijns%NULL%1,                    J William%McEvoy%NULL%1,                    Osama%Soliman%NULL%2,                    Osama%Soliman%NULL%0,                    Yoshinobu%Onuma%NULL%2,                    Yoshinobu%Onuma%NULL%0,                    Patrick W%Serruys%NULL%1,                    Ling%Tao%lingtao@fmmu.edu.cn%1,                    Fei%Li%lifei01@fmmu.edu.cn%2,                    Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                    Erkan%Ekicibasi%NULL%1,                    Aleks%Degirmencioglu%NULL%1,                    Ashok%Paudel%NULL%1,                    Refik%Erdim%NULL%1,                    Hilal Kurtoglu%Gumusel%NULL%1,                    Elif%Eroglu%NULL%1,                    Ibrahim Halil%Tanboga%NULL%1,                    Sinan%Dagdelen%NULL%1,                    Nevin%Sariguzel%NULL%1,                    Ceyda Erel%Kirisoglu%NULL%1,                    Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,             Antonelli%M.%coreGivesNoEmail%2,             Bellani%G.%coreGivesNoEmail%2,             Bonanomi%E.%coreGivesNoEmail%2,             Cabrini%L.%coreGivesNoEmail%2,             Carlesso%E.%coreGivesNoEmail%2,             Castelli%G.%coreGivesNoEmail%2,             Cattaneo%S.%coreGivesNoEmail%2,             Cecconi%M.%coreGivesNoEmail%2,             Cereda%D.%coreGivesNoEmail%2,             Colombo%S.%coreGivesNoEmail%2,             Coluccello%A.%coreGivesNoEmail%2,             Crescini%G.%coreGivesNoEmail%2,             Forastieri%Molinari A.%coreGivesNoEmail%2,             Foti%G.%coreGivesNoEmail%2,             Fumagalli%R.%coreGivesNoEmail%2,             Grasselli%G.%coreGivesNoEmail%2,             Greco%M.%coreGivesNoEmail%2,             Iotti%G. A.%coreGivesNoEmail%2,             Langer%T.%coreGivesNoEmail%2,             Latronico%N.%coreGivesNoEmail%2,             Lorini%F. L.%coreGivesNoEmail%2,             Mojoli%F.%coreGivesNoEmail%2,             Natalini%G.%coreGivesNoEmail%2,             Pesenti%A.%coreGivesNoEmail%2,             Pessina%C. M.%coreGivesNoEmail%2,             Ranieri%V. M.%coreGivesNoEmail%2,             Rech%R.%coreGivesNoEmail%2,             Rosano%A.%coreGivesNoEmail%2,             Scudeller%L.%coreGivesNoEmail%2,             Storti%E.%coreGivesNoEmail%2,             Thompson%B. T.%coreGivesNoEmail%2,             Tirani%M.%coreGivesNoEmail%2,             Villani%P. G.%coreGivesNoEmail%2,             Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,         Yueli%Zhu%xref no email%1,         Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                    Jiatian%Cao%NULL%1,                    Yumeng%Yao%NULL%1,                    Xuejuan%Jin%NULL%1,                    Zhe%Luo%NULL%1,                    Yuan%Xue%NULL%1,                    Chouwen%Zhu%NULL%1,                    Yanan%Song%NULL%1,                    Ying%Wang%NULL%1,                    Yunzeng%Zou%NULL%1,                    Juying%Qian%NULL%1,                    Kaihuan%Yu%NULL%1,                    Hui%Gong%NULL%1,                    Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                    Ju-Hyun%Kim%NULL%1,                    Jin-Sung%Park%NULL%1,                    Min Cheol%Chang%wheel633@ynu.ac.kr%1,                    Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,         Guido%Grassi%xref no email%1,         Claudio%Borghi%xref no email%1,         Claudio%Ferri%xref no email%1,         Massimo%Salvetti%xref no email%1,         Massimo%Volpe%xref no email%1,         Arrigo F.G.%Cicero%xref no email%1,         Pietro%Minuz%xref no email%1,         Maria Lorenza%Muiesan%xref no email%1,         Paolo%Mulatero%xref no email%1,         Giuseppe%Mul\u00e8%xref no email%1,         Giacomo%Pucci%xref no email%1,         Carmine%Savoia%xref no email%1,         Leonardo%Sechi%xref no email%1,         Stefano%Carugo%xref no email%1,         Francesco%Fallo%xref no email%1,         Cristina%Giannattasio%xref no email%1,         Davide%Grassi%xref no email%1,         Claudio%Letizia%xref no email%1,         Stefano%Perlini%xref no email%1,         Damiano%Rizzoni%xref no email%1,         Riccardo%Sarzani%xref no email%1,         Giuliano%Tocci%xref no email%1,         Franco%Veglio%xref no email%1,         Claudia%Agabiti Rosei%xref no email%1,         Michele%Bevilacqua%xref no email%1,         Valeria%Bisogni%xref no email%1,         Michele%Bombelli%xref no email%1,         Luca%Bulfone%xref no email%1,         Flaminia%Canichella%xref no email%1,         Giovanni%Carpani%xref no email%1,         Massimo%Catanuso%xref no email%1,         Giulia%Chiarini%xref no email%1,         Fernando%Chiumiento%xref no email%1,         Rosario%Cianci%xref no email%1,         Franco%Cipollini%xref no email%1,         Antonio%Concistr\u00e8%xref no email%1,         Andrea%Dalbeni%xref no email%1,         Roberto Alberto%De Blasi%xref no email%1,         Carolina%De Ciuceis%xref no email%1,         Raffaella%Dell\u2019Oro%xref no email%1,         Antonino%Di Guardo%xref no email%1,         Santo%Di Lorenzo%xref no email%1,         Monica%Di Norcia%xref no email%1,         Roberto%Ervo%xref no email%1,         Elisabetta%Eula%xref no email%1,         Davide%Fabbricatore%xref no email%1,         Elvira%Fanelli%xref no email%1,         Cristiano%Fava%xref no email%1,         Enzo%Grasso%xref no email%1,         Alessandro%Grimaldi%xref no email%1,         Maddalena%Illario%xref no email%1,         Claudio%Invernizzi%xref no email%1,         Elena%Iraca%xref no email%1,         Federica%Liegi%xref no email%1,         Paolo%Malerba%xref no email%1,         Alessandro%Maloberti%xref no email%1,         Costantino%Mancusi%xref no email%1,         Giulia%Molinari%xref no email%1,         Roberta%Mussinelli%xref no email%1,         Anna%Paini%xref no email%1,         Paola%Pellimassi%xref no email%1,         Ornella%Piazza%xref no email%1,         Roberto%Pontremoli%xref no email%1,         Fosca%Quarti Tevano%xref no email%1,         Franco%Rabbia%xref no email%1,         Monica%Rocco%xref no email%1,         Anna%Sabena%xref no email%1,         Francesco%Salinaro%xref no email%1,         Paola%Schiavi%xref no email%1,         Maria Chiara%Sgariglia%xref no email%1,         Francesco%Spannella%xref no email%1,         Sara%Tedeschi%xref no email%1,         Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                    Raphael Romano%Bruno%NULL%1,                    Bernhard%Wernly%NULL%1,                    Michael%Joannidis%NULL%1,                    Sandra%Oeyen%NULL%1,                    Tilemachos%Zafeiridis%NULL%1,                    Brian%Marsh%NULL%1,                    Finn H%Andersen%NULL%1,                    Rui%Moreno%NULL%1,                    Ana Margarida%Fernandes%NULL%1,                    Antonio%Artigas%NULL%1,                    Bernardo Bollen%Pinto%NULL%1,                    Joerg%Schefold%NULL%1,                    Georg%Wolff%NULL%1,                    Malte%Kelm%NULL%2,                    Malte%Kelm%NULL%0,                    Dylan W%De Lange%NULL%1,                    Bertrand%Guidet%NULL%1,                    Hans%Flaatten%NULL%1,                    Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                    Jae Chol%Choi%NULL%1,                    Seung-Hun%You%NULL%1,                    Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                    Hamish%Reed-Embleton%NULL%2,                    Hamish%Reed-Embleton%NULL%0,                    Jen%Lewis%NULL%2,                    Jen%Lewis%NULL%0,                    Pamela%Bain%NULL%1,                    Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                    Kenneth W%Chow%NULL%1,                    Jonathan%Vo%NULL%1,                    Wei%Hou%NULL%1,                    Haifang%Li%NULL%1,                    Paul S%Richman%NULL%1,                    Sandeep K%Mallipattu%NULL%1,                    Hal A%Skopicki%NULL%1,                    Adam J%Singer%NULL%1,                    Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,         Xiufang%Wang%xref no email%2,         Jian%Chen%xref no email%0,         Hongmei%Zhang%xref no email%2,         Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                    Julien%Moragny%NULL%2,                    Julien%Moragny%NULL%0,                    Youssef%Bennis%NULL%1,                    Benjamin%Batteux%NULL%1,                    Etienne%Brochot%NULL%1,                    Jean Luc%Schmit%NULL%1,                    Jean-Philippe%Lanoix%NULL%1,                    Claire%Andrejak%NULL%1,                    Olivier%Ganry%NULL%1,                    Michel%Slama%NULL%1,                    Julien%Maizel%NULL%1,                    Yazine%Mahjoub%NULL%1,                    Kamel%Masmoudi%NULL%1,                    Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                    Yi%Liu%NULL%0,                    Keliang%Chen%NULL%1,                    Suying%Yan%NULL%1,                    Xiangrong%Bai%NULL%1,                    Juan%Li%947281063@qq.com%1,                    Dong%Liu%ld2069@outlook.com%2,                    Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                    Javier%López-Pais%NULL%1,                    Carla Eugenia%Cacho-Antonio%NULL%1,                    Pablo José%Antúnez-Muiños%NULL%1,                    Teba%González-Ferrero%NULL%1,                    Marta%Pérez-Poza%NULL%1,                    Óscar%Otero-García%NULL%1,                    Brais%Díaz-Fernández%NULL%1,                    María%Bastos-Fernández%NULL%1,                    Noelia%Bouzas-Cruz%NULL%1,                    Xoan Carlos%Sanmartín-Pena%NULL%1,                    Alfonso%Varela-Román%NULL%1,                    Manuel%Portela-Romero%NULL%1,                    Luis%Valdés-Cuadrado%NULL%1,                    Antonio%Pose-Reino%NULL%1,                    José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                    Federico%Rea%NULL%1,                    Monica%Ludergnani%NULL%4,                    Monica%Ludergnani%NULL%0,                    Giovanni%Apolone%NULL%1,                    Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,       Hisao%Ogawa%null%2,       Kazuo%Kimura%null%2,       Masaaki%Konishi%null%2,       Jin%Kirigaya%null%2,       Kazuki%Fukui%null%2,       Kengo%Tsukahara%null%2,       Hiroyuki%Shimizu%null%2,       Keisuke%Iwabuchi%null%2,       Yu%Yamada%null%2,       Kenichiro%Saka%null%2,       Ichiro%Takeuchi%null%2,       Toshio%Hirano%null%2,       Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                    Guohui%Xiao%NULL%1,                    Juanjuan%Zhang%NULL%1,                    Xing%He%NULL%1,                    Min%Ou%NULL%1,                    Jing%Bi%NULL%1,                    Rongqing%Yang%NULL%1,                    Wencheng%Di%NULL%1,                    Zhaoqin%Wang%NULL%1,                    Zigang%Li%NULL%1,                    Hong%Gao%NULL%1,                    Lei%Liu%NULL%1,                    Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                    Francisca%García-Iglesias%NULL%1,                    Teresa%González-Alegre%NULL%1,                    Francisco%Blanco%NULL%1,                    Marta%Varas%NULL%1,                    Clara%Hernández-Blanco%NULL%1,                    Victor%Hontañón%NULL%1,                    María J.%Jaras-Hernández%NULL%1,                    Mónica%Martínez-Prieto%NULL%1,                    Araceli%Menéndez-Saldaña%NULL%1,                    María L.%Cachán%NULL%1,                    Eva%Estirado%NULL%1,                    Carlos%Lahoz%NULL%1,                    Rosa%de Miguel%NULL%1,                    Miriam%Romero%NULL%1,                    Mar%Lago%NULL%1,                    Cristina%García-Quero%NULL%1,                    Cristina%Plaza%NULL%1,                    Talía%Sainz-Costa%NULL%1,                    Susana%Rivas-Vila%NULL%1,                    Blanca%Sánchez%NULL%1,                    Celia García%Torres%NULL%1,                    Lucía%Martínez-Tobar%NULL%1,                    María%Hernandez-Pérez%NULL%1,                    Pablo%Racionero%NULL%1,                    Patricia%Mir-Ihara%NULL%1,                    Jesús%Peña-López%NULL%1,                    Marta%Bautista-Barea%NULL%1,                    Alexa P.%Benítez%NULL%1,                    Pablo%Rodríguez-Merlos%NULL%1,                    María%Barcenilla%NULL%1,                    María San%Basilio%NULL%1,                    María%Valencia%NULL%1,                    Ricardo%Romero-Martín%NULL%1,                    Ana%Boto de los Bueis%NULL%1,                    Adriana%de la Hoz-Polo%NULL%1,                    María%del Pino-Cidad%NULL%1,                    Javier%Coca-Robinot%NULL%1,                    Bárbara%González-Ferrer%NULL%1,                    Pedro%Fernández-Pérez%NULL%1,                    Isabel%Mogollón%NULL%1,                    María S.%Montoro-Romero%NULL%1,                    Isabel%Villalaín%NULL%1,                    Almudena%del Hierro-Zarzuelo%NULL%1,                    Irene%Hernández-Martín%NULL%1,                    Javier%Domínguez%NULL%1,                    Alberto%Luna%NULL%1,                    Soledad%Montoro%NULL%1,                    Margarita%Sánchez-Orgaz%NULL%1,                    Gloria%Amorena%NULL%1,                    Cosme%Lavín-Dapena%NULL%1,                    Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                    Stanislas%Gleye%NULL%1,                    Isabelle%Clerc Urmes%NULL%1,                    Elodie%Laugel%NULL%1,                    Jonas%Callet%NULL%1,                    Françoise%Barbé%NULL%1,                    Sophie%Orlowski%NULL%1,                    Catherine%Malaplate%NULL%1,                    Isabelle%Aimone-Gastin%NULL%1,                    Beatrice Maatem%Caillierez%NULL%1,                    Marc%Merten%NULL%1,                    Elise%Jeannesson%NULL%1,                    Raphaël%Kormann%NULL%1,                    Jean-Luc%Olivier%NULL%1,                    Rosa-Maria%Rodriguez-Guéant%NULL%1,                    Farès%Namour%NULL%1,                    Sybille%Bevilacqua%NULL%1,                    Marie-Reine%Losser%NULL%1,                    Bruno%Levy%NULL%1,                    Antoine%Kimmoun%NULL%1,                    Sébastien%Gibot%NULL%1,                    Nathalie%Thilly%NULL%1,                    Luc%Frimat%NULL%1,                    Evelyne%Schvoerer%NULL%1,                    Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,         Jishou%Zhang%xref no email%2,         Menglong%Wang%xref no email%2,         Jing%Ye%xref no email%2,         Yao%Xu%xref no email%2,         Bo%Shen%xref no email%2,         Hua%He%xref no email%2,         Zhen%Wang%xref no email%2,         Di%Ye%xref no email%2,         Mengmeng%Zhao%xref no email%2,         Zhen%Luo%xref no email%2,         Mingxiao%Liu%xref no email%2,         Pingan%Zhang%xref no email%2,         Jian%Gu%xref no email%2,         Menglin%Liu%xref no email%2,         Dan%Li%xref no email%2,         Jianfang%Liu%xref no email%2,         Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                    Samrachana%Adhikari%NULL%1,                    Claudia%Pulgarin%NULL%1,                    Andrea B.%Troxel%NULL%1,                    Eduardo%Iturrate%NULL%1,                    Stephen B.%Johnson%NULL%1,                    Anaïs%Hausvater%NULL%1,                    Jonathan D.%Newman%NULL%1,                    Jeffrey S.%Berger%NULL%1,                    Sripal%Bangalore%NULL%1,                    Stuart D.%Katz%NULL%1,                    Glenn I.%Fishman%NULL%1,                    Dennis%Kunichoff%NULL%1,                    Yu%Chen%NULL%1,                    Gbenga%Ogedegbe%NULL%1,                    Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,             Becker%L.B.%coreGivesNoEmail%3,             Chelico%J.D.%coreGivesNoEmail%3,             Cohen%S.L.%coreGivesNoEmail%3,             Cookingham%J.%coreGivesNoEmail%3,             Coppa%K.%coreGivesNoEmail%3,             Crawford%J.M.%coreGivesNoEmail%3,             Davidson%K.W.%coreGivesNoEmail%3,             Diefenbach%M.A.%coreGivesNoEmail%3,             Dominello%A.J.%coreGivesNoEmail%3,             Duer-Hefele%J.%coreGivesNoEmail%3,             Falzon%L.%coreGivesNoEmail%3,             Gitlin%J.%coreGivesNoEmail%3,             Hajizadeh%N.%coreGivesNoEmail%3,             Harvin%T.G.%coreGivesNoEmail%3,             Hirsch%J.S.%coreGivesNoEmail%3,             Hirschwerk%D.A.%coreGivesNoEmail%3,             Kim%E.J.%coreGivesNoEmail%3,             Kozel%Z.M.%coreGivesNoEmail%3,             Marrast%L.M.%coreGivesNoEmail%3,             McGinn%T.%coreGivesNoEmail%3,             Mogavero%J.N.%coreGivesNoEmail%3,             Narasimhan%M.%coreGivesNoEmail%3,             Osorio%G.A.%coreGivesNoEmail%3,             Qiu%M.%coreGivesNoEmail%3,             Richardson%S.%coreGivesNoEmail%3,             Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                    Massimiliano%Marino%NULL%3,                    Debora%Formisano%NULL%1,                    Francesco%Venturelli%NULL%1,                    Massimo%Vicentini%NULL%3,                    Massimo%Vicentini%NULL%0,                    Roberto%Grilli%NULL%2,                    NULL%NULL%NULL%0,                    Gianluigi%Forloni%NULL%8,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0,                    Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                    Paolo%Maggi%NULL%2,                    Paolo%Maggi%NULL%0,                    Vincenzo%Messina%NULL%1,                    Pasquale%Iuliano%NULL%2,                    Pasquale%Iuliano%NULL%0,                    Antonio%Sardu%NULL%1,                    Vincenzo%Iovinella%NULL%1,                    Giuseppe%Paolisso%NULL%1,                    Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                    Rasimcan%Meral%NULL%1,                    Alpay%Medetalibeyoğlu%NULL%1,                    Hilal%Konyaoğlu%NULL%1,                    Murat%Köse%NULL%1,                    Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%2,         Jack%Owens%xref no email%1,         James%Franklin%xref no email%1,         Yash%Jani%xref no email%1,         Ashish%Kumar%xref no email%1,         Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                    Yun%Qiu%NULL%1,                    Xiang-Bin%Xing%NULL%1,                    Subrata%Ghosh%NULL%1,                    Min-Hu%Chen%NULL%1,                    Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                    Maddalena%Giannella%NULL%1,                    Michele%Bartoletti%NULL%1,                    Filippo%Trapani%NULL%1,                    Marina%Tadolini%NULL%1,                    Claudio%Borghi%NULL%1,                    Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                    Marco%Massari%NULL%3,                    Marco%Massari%NULL%0,                    Roberto%Da Cas%NULL%2,                    Francesca%Menniti Ippolito%NULL%2,                    Janet%Sultana%NULL%2,                    Salvatore%Crisafulli%NULL%2,                    Paolo%Giorgi Rossi%NULL%2,                    Massimiliano%Marino%NULL%0,                    Manuel%Zorzi%NULL%2,                    Emanuela%Bovo%NULL%2,                    Olivia%Leoni%NULL%2,                    Monica%Ludergnani%NULL%0,                    Stefania%Spila Alegiani%stefania.spila@iss.it%2,                    Stefania%Spila Alegiani%NULL%0,                    Francesca%Menniti Ippolito%NULL%0,                    Roberto%Da Cas%NULL%0,                    Marco%Massari%NULL%0,                    Giuseppe%Traversa%NULL%1,                    Graziano%Onder%NULL%1,                    Gianluca%Trifirò%NULL%1,                    Janet%Sultana%NULL%0,                    Valentina%Ientile%NULL%1,                    Salvatore%Crisafulli%NULL%0,                    Paolo%Giorgi Rossi%NULL%0,                    Roberto%Grilli%NULL%0,                    Giulio%Formoso%NULL%1,                    Massimiliano%Marino%NULL%0,                    Massimo%Vicentini%NULL%0,                    Olivia%Leoni%NULL%0,                    Monica%Ludergnani%NULL%0,                    Danilo%Cereda%NULL%1,                    Eliana%Ferroni%NULL%1,                    Stefano%Guzzinati%NULL%1,                    Emanuela%Bovo%NULL%0,                    Manuel%Zorzi%NULL%0,                    Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                    Chaolin%Huang%NULL%1,                    Guohui%Fan%NULL%1,                    Zhibo%Liu%NULL%1,                    Lianhan%Shang%NULL%1,                    Fei%Zhou%NULL%1,                    Yeming%Wang%NULL%1,                    Jiapei%Yu%NULL%1,                    Luning%Yang%NULL%1,                    Ke%Xie%NULL%1,                    Zhisheng%Huang%NULL%1,                    Lixue%Huang%NULL%1,                    Xiaoying%Gu%NULL%1,                    Hui%Li%NULL%1,                    Yi%Zhang%NULL%0,                    Yimin%Wang%NULL%1,                    Frederick G.%Hayden%NULL%1,                    Peter W.%Horby%NULL%1,                    Bin%Cao%caobin_ben@163.com%1,                    Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,         Zihu%Tan%xref no email%3,         Ling%Zhou%xref no email%3,         Min%Yang%xref no email%3,         Lang%Peng%xref no email%3,         Jinjin%Liu%xref no email%3,         Jingling%Cai%xref no email%3,         Ru%Yang%xref no email%3,         Junyan%Han%xref no email%3,         Yafei%Huang%xref no email%3,         Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                    Dan%Liu%NULL%1,                    Shaoqing%Zeng%NULL%1,                    Siyuan%Wang%NULL%1,                    Sen%Xu%NULL%1,                    Ya%Wang%NULL%1,                    Ruidi%Yu%NULL%1,                    Yue%Gao%NULL%1,                    Huayi%Li%NULL%1,                    Xinxia%Feng%NULL%1,                    Ning%Zhou%NULL%0,                    Chunxia%Zhao%NULL%1,                    Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                    Lihua%Zhu%NULL%1,                    Jingjing%Cai%NULL%1,                    Fang%Lei%NULL%1,                    Juan-Juan%Qin%NULL%1,                    Jing%Xie%NULL%1,                    Ye-Mao%Liu%NULL%1,                    Yan-Ci%Zhao%NULL%1,                    Xuewei%Huang%NULL%1,                    Lijin%Lin%NULL%1,                    Meng%Xia%NULL%1,                    Ming-Ming%Chen%NULL%1,                    Xu%Cheng%NULL%1,                    Xiao%Zhang%NULL%1,                    Deliang%Guo%NULL%1,                    Yuanyuan%Peng%NULL%1,                    Yan-Xiao%Ji%NULL%1,                    Jing%Chen%NULL%1,                    Zhi-Gang%She%NULL%1,                    Yibin%Wang%NULL%0,                    Qingbo%Xu%NULL%1,                    Renfu%Tan%NULL%1,                    Haitao%Wang%NULL%1,                    Jun%Lin%NULL%1,                    Pengcheng%Luo%NULL%1,                    Shouzhi%Fu%NULL%1,                    Hongbin%Cai%NULL%1,                    Ping%Ye%NULL%1,                    Bing%Xiao%NULL%1,                    Weiming%Mao%NULL%1,                    Liming%Liu%NULL%1,                    Youqin%Yan%NULL%1,                    Mingyu%Liu%NULL%1,                    Manhua%Chen%NULL%1,                    Xiao-Jing%Zhang%NULL%1,                    Xinghuan%Wang%NULL%1,                    Rhian M.%Touyz%NULL%1,                    Jiahong%Xia%NULL%1,                    Bing-Hong%Zhang%NULL%1,                    Xiaodong%Huang%NULL%1,                    Yufeng%Yuan%NULL%1,                    Rohit%Loomba%NULL%1,                    Peter P.%Liu%NULL%1,                    Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                     Sandra%Santos-Martinez%NULL%1,                     Diego%López-Otero%NULL%1,                     Luis%Nombela-Franco%NULL%1,                     Enrique%Gutiérrez-Ibanes%NULL%1,                     Raquel%Del Valle%NULL%1,                     Erika%Muñoz-García%NULL%1,                     Víctor A.%Jiménez-Diaz%NULL%1,                     Ander%Regueiro%NULL%1,                     Rocío%González-Ferreiro%NULL%1,                     Tomás%Benito%NULL%1,                     Xoan Carlos%Sanmartin-Pena%NULL%1,                     Pablo%Catalá%NULL%1,                     Tania%Rodríguez-Gabella%NULL%1,                     Jose Raúl%Delgado-Arana%NULL%1,                     Manuel%Carrasco-Moraleja%NULL%1,                     Borja%Ibañez%NULL%1,                     J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                     David M.%Tehrani%NULL%1,                     Soniya V.%Rabadia%NULL%1,                     Marlene%Frost%NULL%1,                     Rushi V.%Parikh%NULL%1,                     Marcella%Calfon-Press%NULL%1,                     Olcay%Aksoy%NULL%1,                     Soban%Umar%NULL%1,                     Reza%Ardehali%NULL%1,                     Amir%Rabbani%NULL%1,                     Pooya%Bokhoor%NULL%1,                     Ali%Nsair%NULL%1,                     Jesse%Currier%NULL%1,                     Jonathan%Tobis%NULL%1,                     Gregg C.%Fonarow%NULL%1,                     Ravi%Dave%NULL%1,                     Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                     Zeljko%Kraljevic%NULL%1,                     Thomas%Searle%NULL%1,                     Rebecca%Bendayan%NULL%1,                     O'Gallagher%Kevin%NULL%1,                     Andrew%Pickles%NULL%1,                     Amos%Folarin%NULL%1,                     Lukasz%Roguski%NULL%1,                     Kawsar%Noor%NULL%1,                     Anthony%Shek%NULL%1,                     Rosita%Zakeri%NULL%1,                     Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                     James T.H.%Teo%jamesteo@nhs.net%1,                     Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                     Mauro%Chiarito%NULL%1,                     Bernhard%Reimers%NULL%2,                     Bernhard%Reimers%NULL%0,                     Elena%Azzolini%NULL%1,                     Giuseppe%Ferrante%NULL%1,                     Ilaria%My%NULL%1,                     Giacomo%Viggiani%NULL%1,                     Cristina%Panico%NULL%1,                     Damiano%Regazzoli%NULL%1,                     Michele%Ciccarelli%NULL%1,                     Antonio%Voza%NULL%1,                     Alessio%Aghemo%NULL%1,                     Hongliang%Li%NULL%2,                     Yibin%Wang%NULL%2,                     Gianluigi%Condorelli%NULL%1,                     Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                     Feng%Wang%NULL%1,                     Peng%Chen%NULL%1,                     Jiangang%Jiang%NULL%1,                     Guanglin%Cui%NULL%1,                     Ning%Zhou%NULL%2,                     Francesco%Moroni%NULL%1,                     Javid J.%Moslehi%NULL%1,                     Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                     Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                     Ming%Zhong%NULL%1,                     Ya%Liu%NULL%1,                     Yi%Zhang%NULL%2,                     Kai%Zhang%NULL%1,                     De-zhen%Su%NULL%1,                     Xiao%Meng%NULL%1,                     Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,          Dong%Yang%xref no email%2,          Biao%Cheng%xref no email%2,          Jian%Chen%xref no email%4,          Anlin%Peng%xref no email%2,          Chen%Yang%xref no email%2,          Chong%Liu%xref no email%2,          Mingrui%Xiong%xref no email%2,          Aiping%Deng%xref no email%4,          Yu%Zhang%xref no email%2,          Ling%Zheng%xref no email%2,          Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                     Duncan%Young%NULL%2,                     Duncan%Young%NULL%0,                     Carol%Coupland%NULL%1,                     Keith M%Channon%NULL%1,                     Pui San%Tan%NULL%1,                     David A%Harrison%NULL%1,                     Kathryn%Rowan%NULL%2,                     Kathryn%Rowan%NULL%0,                     Paul%Aveyard%NULL%1,                     Ian D%Pavord%NULL%1,                     Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,              Butt%Jawad H%coreGivesNoEmail%1,              Fosb\u00f8l%Emil L%coreGivesNoEmail%1,              Gerds%Thomas A%coreGivesNoEmail%1,              Gislason%Gunnar H%coreGivesNoEmail%1,              Kragholm%Kristian%coreGivesNoEmail%1,              K\u00f8ber%Lars%coreGivesNoEmail%1,              Phelps%Matthew%coreGivesNoEmail%1,              Schou%Morten%coreGivesNoEmail%1,              Selmer%Christian%coreGivesNoEmail%1,              Torp-Pedersen%Christian%coreGivesNoEmail%1,              \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                     Yue%Cai%NULL%1,                     Kan%Zhang%NULL%2,                     Kan%Zhang%NULL%0,                     Lei%Zhou%NULL%1,                     Yao%Zhang%NULL%1,                     Xijing%Zhang%NULL%1,                     Qi%Li%NULL%1,                     Weiqin%Li%NULL%1,                     Shiming%Yang%NULL%1,                     Xiaoyan%Zhao%NULL%1,                     Yuying%Zhao%NULL%1,                     Hui%Wang%NULL%1,                     Yi%Liu%NULL%2,                     Zhiyong%Yin%NULL%1,                     Ruining%Zhang%NULL%1,                     Rutao%Wang%NULL%1,                     Ming%Yang%NULL%1,                     Chen%Hui%NULL%1,                     William%Wijns%NULL%1,                     J William%McEvoy%NULL%1,                     Osama%Soliman%NULL%2,                     Osama%Soliman%NULL%0,                     Yoshinobu%Onuma%NULL%2,                     Yoshinobu%Onuma%NULL%0,                     Patrick W%Serruys%NULL%1,                     Ling%Tao%lingtao@fmmu.edu.cn%1,                     Fei%Li%lifei01@fmmu.edu.cn%2,                     Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                     Erkan%Ekicibasi%NULL%1,                     Aleks%Degirmencioglu%NULL%1,                     Ashok%Paudel%NULL%1,                     Refik%Erdim%NULL%1,                     Hilal Kurtoglu%Gumusel%NULL%1,                     Elif%Eroglu%NULL%1,                     Ibrahim Halil%Tanboga%NULL%1,                     Sinan%Dagdelen%NULL%1,                     Nevin%Sariguzel%NULL%1,                     Ceyda Erel%Kirisoglu%NULL%1,                     Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,              Antonelli%M.%coreGivesNoEmail%2,              Bellani%G.%coreGivesNoEmail%2,              Bonanomi%E.%coreGivesNoEmail%2,              Cabrini%L.%coreGivesNoEmail%2,              Carlesso%E.%coreGivesNoEmail%2,              Castelli%G.%coreGivesNoEmail%2,              Cattaneo%S.%coreGivesNoEmail%2,              Cecconi%M.%coreGivesNoEmail%2,              Cereda%D.%coreGivesNoEmail%2,              Colombo%S.%coreGivesNoEmail%2,              Coluccello%A.%coreGivesNoEmail%2,              Crescini%G.%coreGivesNoEmail%2,              Forastieri%Molinari A.%coreGivesNoEmail%2,              Foti%G.%coreGivesNoEmail%2,              Fumagalli%R.%coreGivesNoEmail%2,              Grasselli%G.%coreGivesNoEmail%2,              Greco%M.%coreGivesNoEmail%2,              Iotti%G. A.%coreGivesNoEmail%2,              Langer%T.%coreGivesNoEmail%2,              Latronico%N.%coreGivesNoEmail%2,              Lorini%F. L.%coreGivesNoEmail%2,              Mojoli%F.%coreGivesNoEmail%2,              Natalini%G.%coreGivesNoEmail%2,              Pesenti%A.%coreGivesNoEmail%2,              Pessina%C. M.%coreGivesNoEmail%2,              Ranieri%V. M.%coreGivesNoEmail%2,              Rech%R.%coreGivesNoEmail%2,              Rosano%A.%coreGivesNoEmail%2,              Scudeller%L.%coreGivesNoEmail%2,              Storti%E.%coreGivesNoEmail%2,              Thompson%B. T.%coreGivesNoEmail%2,              Tirani%M.%coreGivesNoEmail%2,              Villani%P. G.%coreGivesNoEmail%2,              Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,          Yueli%Zhu%xref no email%1,          Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                     Jiatian%Cao%NULL%1,                     Yumeng%Yao%NULL%1,                     Xuejuan%Jin%NULL%1,                     Zhe%Luo%NULL%1,                     Yuan%Xue%NULL%1,                     Chouwen%Zhu%NULL%1,                     Yanan%Song%NULL%1,                     Ying%Wang%NULL%1,                     Yunzeng%Zou%NULL%1,                     Juying%Qian%NULL%1,                     Kaihuan%Yu%NULL%1,                     Hui%Gong%NULL%1,                     Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                     Ju-Hyun%Kim%NULL%1,                     Jin-Sung%Park%NULL%1,                     Min Cheol%Chang%wheel633@ynu.ac.kr%1,                     Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,          Guido%Grassi%xref no email%1,          Claudio%Borghi%xref no email%1,          Claudio%Ferri%xref no email%1,          Massimo%Salvetti%xref no email%1,          Massimo%Volpe%xref no email%1,          Arrigo F.G.%Cicero%xref no email%1,          Pietro%Minuz%xref no email%1,          Maria Lorenza%Muiesan%xref no email%1,          Paolo%Mulatero%xref no email%1,          Giuseppe%Mul\u00e8%xref no email%1,          Giacomo%Pucci%xref no email%1,          Carmine%Savoia%xref no email%1,          Leonardo%Sechi%xref no email%1,          Stefano%Carugo%xref no email%1,          Francesco%Fallo%xref no email%1,          Cristina%Giannattasio%xref no email%1,          Davide%Grassi%xref no email%1,          Claudio%Letizia%xref no email%1,          Stefano%Perlini%xref no email%1,          Damiano%Rizzoni%xref no email%1,          Riccardo%Sarzani%xref no email%1,          Giuliano%Tocci%xref no email%1,          Franco%Veglio%xref no email%1,          Claudia%Agabiti Rosei%xref no email%1,          Michele%Bevilacqua%xref no email%1,          Valeria%Bisogni%xref no email%1,          Michele%Bombelli%xref no email%1,          Luca%Bulfone%xref no email%1,          Flaminia%Canichella%xref no email%1,          Giovanni%Carpani%xref no email%1,          Massimo%Catanuso%xref no email%1,          Giulia%Chiarini%xref no email%1,          Fernando%Chiumiento%xref no email%1,          Rosario%Cianci%xref no email%1,          Franco%Cipollini%xref no email%1,          Antonio%Concistr\u00e8%xref no email%1,          Andrea%Dalbeni%xref no email%1,          Roberto Alberto%De Blasi%xref no email%1,          Carolina%De Ciuceis%xref no email%1,          Raffaella%Dell\u2019Oro%xref no email%1,          Antonino%Di Guardo%xref no email%1,          Santo%Di Lorenzo%xref no email%1,          Monica%Di Norcia%xref no email%1,          Roberto%Ervo%xref no email%1,          Elisabetta%Eula%xref no email%1,          Davide%Fabbricatore%xref no email%1,          Elvira%Fanelli%xref no email%1,          Cristiano%Fava%xref no email%1,          Enzo%Grasso%xref no email%1,          Alessandro%Grimaldi%xref no email%1,          Maddalena%Illario%xref no email%1,          Claudio%Invernizzi%xref no email%1,          Elena%Iraca%xref no email%1,          Federica%Liegi%xref no email%1,          Paolo%Malerba%xref no email%1,          Alessandro%Maloberti%xref no email%1,          Costantino%Mancusi%xref no email%1,          Giulia%Molinari%xref no email%1,          Roberta%Mussinelli%xref no email%1,          Anna%Paini%xref no email%1,          Paola%Pellimassi%xref no email%1,          Ornella%Piazza%xref no email%1,          Roberto%Pontremoli%xref no email%1,          Fosca%Quarti Tevano%xref no email%1,          Franco%Rabbia%xref no email%1,          Monica%Rocco%xref no email%1,          Anna%Sabena%xref no email%1,          Francesco%Salinaro%xref no email%1,          Paola%Schiavi%xref no email%1,          Maria Chiara%Sgariglia%xref no email%1,          Francesco%Spannella%xref no email%1,          Sara%Tedeschi%xref no email%1,          Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                     Raphael Romano%Bruno%NULL%1,                     Bernhard%Wernly%NULL%1,                     Michael%Joannidis%NULL%1,                     Sandra%Oeyen%NULL%1,                     Tilemachos%Zafeiridis%NULL%1,                     Brian%Marsh%NULL%1,                     Finn H%Andersen%NULL%1,                     Rui%Moreno%NULL%1,                     Ana Margarida%Fernandes%NULL%1,                     Antonio%Artigas%NULL%1,                     Bernardo Bollen%Pinto%NULL%1,                     Joerg%Schefold%NULL%1,                     Georg%Wolff%NULL%1,                     Malte%Kelm%NULL%2,                     Malte%Kelm%NULL%0,                     Dylan W%De Lange%NULL%1,                     Bertrand%Guidet%NULL%1,                     Hans%Flaatten%NULL%1,                     Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                     Jae Chol%Choi%NULL%1,                     Seung-Hun%You%NULL%1,                     Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                     Hamish%Reed-Embleton%NULL%2,                     Hamish%Reed-Embleton%NULL%0,                     Jen%Lewis%NULL%2,                     Jen%Lewis%NULL%0,                     Pamela%Bain%NULL%1,                     Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                     Kenneth W%Chow%NULL%1,                     Jonathan%Vo%NULL%1,                     Wei%Hou%NULL%1,                     Haifang%Li%NULL%1,                     Paul S%Richman%NULL%1,                     Sandeep K%Mallipattu%NULL%1,                     Hal A%Skopicki%NULL%1,                     Adam J%Singer%NULL%1,                     Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,          Xiufang%Wang%xref no email%2,          Jian%Chen%xref no email%0,          Hongmei%Zhang%xref no email%2,          Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                     Julien%Moragny%NULL%2,                     Julien%Moragny%NULL%0,                     Youssef%Bennis%NULL%1,                     Benjamin%Batteux%NULL%1,                     Etienne%Brochot%NULL%1,                     Jean Luc%Schmit%NULL%1,                     Jean-Philippe%Lanoix%NULL%1,                     Claire%Andrejak%NULL%1,                     Olivier%Ganry%NULL%1,                     Michel%Slama%NULL%1,                     Julien%Maizel%NULL%1,                     Yazine%Mahjoub%NULL%1,                     Kamel%Masmoudi%NULL%1,                     Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                     Yi%Liu%NULL%0,                     Keliang%Chen%NULL%1,                     Suying%Yan%NULL%1,                     Xiangrong%Bai%NULL%1,                     Juan%Li%947281063@qq.com%1,                     Dong%Liu%ld2069@outlook.com%2,                     Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                     Javier%López-Pais%NULL%1,                     Carla Eugenia%Cacho-Antonio%NULL%1,                     Pablo José%Antúnez-Muiños%NULL%1,                     Teba%González-Ferrero%NULL%1,                     Marta%Pérez-Poza%NULL%1,                     Óscar%Otero-García%NULL%1,                     Brais%Díaz-Fernández%NULL%1,                     María%Bastos-Fernández%NULL%1,                     Noelia%Bouzas-Cruz%NULL%1,                     Xoan Carlos%Sanmartín-Pena%NULL%1,                     Alfonso%Varela-Román%NULL%1,                     Manuel%Portela-Romero%NULL%1,                     Luis%Valdés-Cuadrado%NULL%1,                     Antonio%Pose-Reino%NULL%1,                     José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                     Federico%Rea%NULL%1,                     Monica%Ludergnani%NULL%4,                     Monica%Ludergnani%NULL%0,                     Giovanni%Apolone%NULL%1,                     Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,        Hisao%Ogawa%null%2,        Kazuo%Kimura%null%2,        Masaaki%Konishi%null%2,        Jin%Kirigaya%null%2,        Kazuki%Fukui%null%2,        Kengo%Tsukahara%null%2,        Hiroyuki%Shimizu%null%2,        Keisuke%Iwabuchi%null%2,        Yu%Yamada%null%2,        Kenichiro%Saka%null%2,        Ichiro%Takeuchi%null%2,        Toshio%Hirano%null%2,        Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                     Guohui%Xiao%NULL%1,                     Juanjuan%Zhang%NULL%1,                     Xing%He%NULL%1,                     Min%Ou%NULL%1,                     Jing%Bi%NULL%1,                     Rongqing%Yang%NULL%1,                     Wencheng%Di%NULL%1,                     Zhaoqin%Wang%NULL%1,                     Zigang%Li%NULL%1,                     Hong%Gao%NULL%1,                     Lei%Liu%NULL%1,                     Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                     Francisca%García-Iglesias%NULL%1,                     Teresa%González-Alegre%NULL%1,                     Francisco%Blanco%NULL%1,                     Marta%Varas%NULL%1,                     Clara%Hernández-Blanco%NULL%1,                     Victor%Hontañón%NULL%1,                     María J.%Jaras-Hernández%NULL%1,                     Mónica%Martínez-Prieto%NULL%1,                     Araceli%Menéndez-Saldaña%NULL%1,                     María L.%Cachán%NULL%1,                     Eva%Estirado%NULL%1,                     Carlos%Lahoz%NULL%1,                     Rosa%de Miguel%NULL%1,                     Miriam%Romero%NULL%1,                     Mar%Lago%NULL%1,                     Cristina%García-Quero%NULL%1,                     Cristina%Plaza%NULL%1,                     Talía%Sainz-Costa%NULL%1,                     Susana%Rivas-Vila%NULL%1,                     Blanca%Sánchez%NULL%1,                     Celia García%Torres%NULL%1,                     Lucía%Martínez-Tobar%NULL%1,                     María%Hernandez-Pérez%NULL%1,                     Pablo%Racionero%NULL%1,                     Patricia%Mir-Ihara%NULL%1,                     Jesús%Peña-López%NULL%1,                     Marta%Bautista-Barea%NULL%1,                     Alexa P.%Benítez%NULL%1,                     Pablo%Rodríguez-Merlos%NULL%1,                     María%Barcenilla%NULL%1,                     María San%Basilio%NULL%1,                     María%Valencia%NULL%1,                     Ricardo%Romero-Martín%NULL%1,                     Ana%Boto de los Bueis%NULL%1,                     Adriana%de la Hoz-Polo%NULL%1,                     María%del Pino-Cidad%NULL%1,                     Javier%Coca-Robinot%NULL%1,                     Bárbara%González-Ferrer%NULL%1,                     Pedro%Fernández-Pérez%NULL%1,                     Isabel%Mogollón%NULL%1,                     María S.%Montoro-Romero%NULL%1,                     Isabel%Villalaín%NULL%1,                     Almudena%del Hierro-Zarzuelo%NULL%1,                     Irene%Hernández-Martín%NULL%1,                     Javier%Domínguez%NULL%1,                     Alberto%Luna%NULL%1,                     Soledad%Montoro%NULL%1,                     Margarita%Sánchez-Orgaz%NULL%1,                     Gloria%Amorena%NULL%1,                     Cosme%Lavín-Dapena%NULL%1,                     Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                     Stanislas%Gleye%NULL%1,                     Isabelle%Clerc Urmes%NULL%1,                     Elodie%Laugel%NULL%1,                     Jonas%Callet%NULL%1,                     Françoise%Barbé%NULL%1,                     Sophie%Orlowski%NULL%1,                     Catherine%Malaplate%NULL%1,                     Isabelle%Aimone-Gastin%NULL%1,                     Beatrice Maatem%Caillierez%NULL%1,                     Marc%Merten%NULL%1,                     Elise%Jeannesson%NULL%1,                     Raphaël%Kormann%NULL%1,                     Jean-Luc%Olivier%NULL%1,                     Rosa-Maria%Rodriguez-Guéant%NULL%1,                     Farès%Namour%NULL%1,                     Sybille%Bevilacqua%NULL%1,                     Marie-Reine%Losser%NULL%1,                     Bruno%Levy%NULL%1,                     Antoine%Kimmoun%NULL%1,                     Sébastien%Gibot%NULL%1,                     Nathalie%Thilly%NULL%1,                     Luc%Frimat%NULL%1,                     Evelyne%Schvoerer%NULL%1,                     Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,          Jishou%Zhang%xref no email%2,          Menglong%Wang%xref no email%2,          Jing%Ye%xref no email%2,          Yao%Xu%xref no email%2,          Bo%Shen%xref no email%2,          Hua%He%xref no email%2,          Zhen%Wang%xref no email%2,          Di%Ye%xref no email%2,          Mengmeng%Zhao%xref no email%2,          Zhen%Luo%xref no email%2,          Mingxiao%Liu%xref no email%2,          Pingan%Zhang%xref no email%2,          Jian%Gu%xref no email%2,          Menglin%Liu%xref no email%2,          Dan%Li%xref no email%2,          Jianfang%Liu%xref no email%2,          Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                     Samrachana%Adhikari%NULL%1,                     Claudia%Pulgarin%NULL%1,                     Andrea B.%Troxel%NULL%1,                     Eduardo%Iturrate%NULL%1,                     Stephen B.%Johnson%NULL%1,                     Anaïs%Hausvater%NULL%1,                     Jonathan D.%Newman%NULL%1,                     Jeffrey S.%Berger%NULL%1,                     Sripal%Bangalore%NULL%1,                     Stuart D.%Katz%NULL%1,                     Glenn I.%Fishman%NULL%1,                     Dennis%Kunichoff%NULL%1,                     Yu%Chen%NULL%1,                     Gbenga%Ogedegbe%NULL%1,                     Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,              Becker%L.B.%coreGivesNoEmail%3,              Chelico%J.D.%coreGivesNoEmail%3,              Cohen%S.L.%coreGivesNoEmail%3,              Cookingham%J.%coreGivesNoEmail%3,              Coppa%K.%coreGivesNoEmail%3,              Crawford%J.M.%coreGivesNoEmail%3,              Davidson%K.W.%coreGivesNoEmail%3,              Diefenbach%M.A.%coreGivesNoEmail%3,              Dominello%A.J.%coreGivesNoEmail%3,              Duer-Hefele%J.%coreGivesNoEmail%3,              Falzon%L.%coreGivesNoEmail%3,              Gitlin%J.%coreGivesNoEmail%3,              Hajizadeh%N.%coreGivesNoEmail%3,              Harvin%T.G.%coreGivesNoEmail%3,              Hirsch%J.S.%coreGivesNoEmail%3,              Hirschwerk%D.A.%coreGivesNoEmail%3,              Kim%E.J.%coreGivesNoEmail%3,              Kozel%Z.M.%coreGivesNoEmail%3,              Marrast%L.M.%coreGivesNoEmail%3,              McGinn%T.%coreGivesNoEmail%3,              Mogavero%J.N.%coreGivesNoEmail%3,              Narasimhan%M.%coreGivesNoEmail%3,              Osorio%G.A.%coreGivesNoEmail%3,              Qiu%M.%coreGivesNoEmail%3,              Richardson%S.%coreGivesNoEmail%3,              Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                     Massimiliano%Marino%NULL%3,                     Debora%Formisano%NULL%1,                     Francesco%Venturelli%NULL%1,                     Massimo%Vicentini%NULL%3,                     Massimo%Vicentini%NULL%0,                     Roberto%Grilli%NULL%2,                     NULL%NULL%NULL%0,                     Gianluigi%Forloni%NULL%8,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0,                     Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                     Paolo%Maggi%NULL%2,                     Paolo%Maggi%NULL%0,                     Vincenzo%Messina%NULL%1,                     Pasquale%Iuliano%NULL%2,                     Pasquale%Iuliano%NULL%0,                     Antonio%Sardu%NULL%1,                     Vincenzo%Iovinella%NULL%1,                     Giuseppe%Paolisso%NULL%1,                     Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                     Rasimcan%Meral%NULL%1,                     Alpay%Medetalibeyoğlu%NULL%1,                     Hilal%Konyaoğlu%NULL%1,                     Murat%Köse%NULL%1,                     Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%2,          Jack%Owens%xref no email%1,          James%Franklin%xref no email%1,          Yash%Jani%xref no email%1,          Ashish%Kumar%xref no email%1,          Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                     Yun%Qiu%NULL%1,                     Xiang-Bin%Xing%NULL%1,                     Subrata%Ghosh%NULL%1,                     Min-Hu%Chen%NULL%1,                     Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                     Maddalena%Giannella%NULL%1,                     Michele%Bartoletti%NULL%1,                     Filippo%Trapani%NULL%1,                     Marina%Tadolini%NULL%1,                     Claudio%Borghi%NULL%1,                     Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                     Marco%Massari%NULL%3,                     Marco%Massari%NULL%0,                     Roberto%Da Cas%NULL%2,                     Francesca%Menniti Ippolito%NULL%2,                     Janet%Sultana%NULL%2,                     Salvatore%Crisafulli%NULL%2,                     Paolo%Giorgi Rossi%NULL%2,                     Massimiliano%Marino%NULL%0,                     Manuel%Zorzi%NULL%2,                     Emanuela%Bovo%NULL%2,                     Olivia%Leoni%NULL%2,                     Monica%Ludergnani%NULL%0,                     Stefania%Spila Alegiani%stefania.spila@iss.it%2,                     Stefania%Spila Alegiani%NULL%0,                     Francesca%Menniti Ippolito%NULL%0,                     Roberto%Da Cas%NULL%0,                     Marco%Massari%NULL%0,                     Giuseppe%Traversa%NULL%1,                     Graziano%Onder%NULL%1,                     Gianluca%Trifirò%NULL%1,                     Janet%Sultana%NULL%0,                     Valentina%Ientile%NULL%1,                     Salvatore%Crisafulli%NULL%0,                     Paolo%Giorgi Rossi%NULL%0,                     Roberto%Grilli%NULL%0,                     Giulio%Formoso%NULL%1,                     Massimiliano%Marino%NULL%0,                     Massimo%Vicentini%NULL%0,                     Olivia%Leoni%NULL%0,                     Monica%Ludergnani%NULL%0,                     Danilo%Cereda%NULL%1,                     Eliana%Ferroni%NULL%1,                     Stefano%Guzzinati%NULL%1,                     Emanuela%Bovo%NULL%0,                     Manuel%Zorzi%NULL%0,                     Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                     Chaolin%Huang%NULL%1,                     Guohui%Fan%NULL%1,                     Zhibo%Liu%NULL%1,                     Lianhan%Shang%NULL%1,                     Fei%Zhou%NULL%1,                     Yeming%Wang%NULL%1,                     Jiapei%Yu%NULL%1,                     Luning%Yang%NULL%1,                     Ke%Xie%NULL%1,                     Zhisheng%Huang%NULL%1,                     Lixue%Huang%NULL%1,                     Xiaoying%Gu%NULL%1,                     Hui%Li%NULL%1,                     Yi%Zhang%NULL%0,                     Yimin%Wang%NULL%1,                     Frederick G.%Hayden%NULL%1,                     Peter W.%Horby%NULL%1,                     Bin%Cao%caobin_ben@163.com%1,                     Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,          Zihu%Tan%xref no email%3,          Ling%Zhou%xref no email%3,          Min%Yang%xref no email%3,          Lang%Peng%xref no email%3,          Jinjin%Liu%xref no email%3,          Jingling%Cai%xref no email%3,          Ru%Yang%xref no email%3,          Junyan%Han%xref no email%3,          Yafei%Huang%xref no email%3,          Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                     Dan%Liu%NULL%1,                     Shaoqing%Zeng%NULL%1,                     Siyuan%Wang%NULL%1,                     Sen%Xu%NULL%1,                     Ya%Wang%NULL%1,                     Ruidi%Yu%NULL%1,                     Yue%Gao%NULL%1,                     Huayi%Li%NULL%1,                     Xinxia%Feng%NULL%1,                     Ning%Zhou%NULL%0,                     Chunxia%Zhao%NULL%1,                     Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                     Lihua%Zhu%NULL%1,                     Jingjing%Cai%NULL%1,                     Fang%Lei%NULL%1,                     Juan-Juan%Qin%NULL%1,                     Jing%Xie%NULL%1,                     Ye-Mao%Liu%NULL%1,                     Yan-Ci%Zhao%NULL%1,                     Xuewei%Huang%NULL%1,                     Lijin%Lin%NULL%1,                     Meng%Xia%NULL%1,                     Ming-Ming%Chen%NULL%1,                     Xu%Cheng%NULL%1,                     Xiao%Zhang%NULL%1,                     Deliang%Guo%NULL%1,                     Yuanyuan%Peng%NULL%1,                     Yan-Xiao%Ji%NULL%1,                     Jing%Chen%NULL%1,                     Zhi-Gang%She%NULL%1,                     Yibin%Wang%NULL%0,                     Qingbo%Xu%NULL%1,                     Renfu%Tan%NULL%1,                     Haitao%Wang%NULL%1,                     Jun%Lin%NULL%1,                     Pengcheng%Luo%NULL%1,                     Shouzhi%Fu%NULL%1,                     Hongbin%Cai%NULL%1,                     Ping%Ye%NULL%1,                     Bing%Xiao%NULL%1,                     Weiming%Mao%NULL%1,                     Liming%Liu%NULL%1,                     Youqin%Yan%NULL%1,                     Mingyu%Liu%NULL%1,                     Manhua%Chen%NULL%1,                     Xiao-Jing%Zhang%NULL%1,                     Xinghuan%Wang%NULL%1,                     Rhian M.%Touyz%NULL%1,                     Jiahong%Xia%NULL%1,                     Bing-Hong%Zhang%NULL%1,                     Xiaodong%Huang%NULL%1,                     Yufeng%Yuan%NULL%1,                     Rohit%Loomba%NULL%1,                     Peter P.%Liu%NULL%1,                     Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3709,7 +3967,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>878</v>
+        <v>964</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -3801,7 +4059,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>879</v>
+        <v>965</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3847,7 +4105,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>880</v>
+        <v>966</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -3893,7 +4151,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>881</v>
+        <v>967</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -3939,7 +4197,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>882</v>
+        <v>968</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -3985,7 +4243,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>883</v>
+        <v>969</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -4031,7 +4289,7 @@
         <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>884</v>
+        <v>970</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -4077,7 +4335,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>885</v>
+        <v>971</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -4123,7 +4381,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>886</v>
+        <v>972</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4169,7 +4427,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>887</v>
+        <v>973</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -4215,7 +4473,7 @@
         <v>756</v>
       </c>
       <c r="E13" t="s">
-        <v>888</v>
+        <v>974</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -4261,7 +4519,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>889</v>
+        <v>975</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -4307,7 +4565,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>890</v>
+        <v>976</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -4353,7 +4611,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>891</v>
+        <v>977</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -4399,7 +4657,7 @@
         <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>892</v>
+        <v>978</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -4445,7 +4703,7 @@
         <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>893</v>
+        <v>979</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4491,7 +4749,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>894</v>
+        <v>980</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -4537,7 +4795,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>895</v>
+        <v>981</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -4583,7 +4841,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>896</v>
+        <v>982</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -4629,7 +4887,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>897</v>
+        <v>983</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -4675,7 +4933,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>898</v>
+        <v>984</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -4721,7 +4979,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>899</v>
+        <v>985</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -4767,7 +5025,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>900</v>
+        <v>986</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -4813,7 +5071,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>901</v>
+        <v>987</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -4859,7 +5117,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>902</v>
+        <v>988</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -4905,7 +5163,7 @@
         <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>903</v>
+        <v>989</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -4951,7 +5209,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>904</v>
+        <v>990</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -4997,7 +5255,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>905</v>
+        <v>991</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -5043,7 +5301,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>906</v>
+        <v>992</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -5089,7 +5347,7 @@
         <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>907</v>
+        <v>993</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -5135,7 +5393,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>908</v>
+        <v>994</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -5181,7 +5439,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>909</v>
+        <v>995</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -5227,7 +5485,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>910</v>
+        <v>996</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -5273,7 +5531,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>911</v>
+        <v>997</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -5319,7 +5577,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>912</v>
+        <v>998</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -5365,7 +5623,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>913</v>
+        <v>999</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -5411,7 +5669,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>914</v>
+        <v>1000</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -5457,7 +5715,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>915</v>
+        <v>1001</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -5503,7 +5761,7 @@
         <v>786</v>
       </c>
       <c r="E41" t="s">
-        <v>916</v>
+        <v>1002</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -5549,7 +5807,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>917</v>
+        <v>1003</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -5595,7 +5853,7 @@
         <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>918</v>
+        <v>1004</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -5641,7 +5899,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>919</v>
+        <v>1005</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -5687,7 +5945,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>920</v>
+        <v>1006</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6751" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7066" uniqueCount="1050">
   <si>
     <t>Doi</t>
   </si>
@@ -3539,6 +3539,135 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,                     Lihua%Zhu%NULL%1,                     Jingjing%Cai%NULL%1,                     Fang%Lei%NULL%1,                     Juan-Juan%Qin%NULL%1,                     Jing%Xie%NULL%1,                     Ye-Mao%Liu%NULL%1,                     Yan-Ci%Zhao%NULL%1,                     Xuewei%Huang%NULL%1,                     Lijin%Lin%NULL%1,                     Meng%Xia%NULL%1,                     Ming-Ming%Chen%NULL%1,                     Xu%Cheng%NULL%1,                     Xiao%Zhang%NULL%1,                     Deliang%Guo%NULL%1,                     Yuanyuan%Peng%NULL%1,                     Yan-Xiao%Ji%NULL%1,                     Jing%Chen%NULL%1,                     Zhi-Gang%She%NULL%1,                     Yibin%Wang%NULL%0,                     Qingbo%Xu%NULL%1,                     Renfu%Tan%NULL%1,                     Haitao%Wang%NULL%1,                     Jun%Lin%NULL%1,                     Pengcheng%Luo%NULL%1,                     Shouzhi%Fu%NULL%1,                     Hongbin%Cai%NULL%1,                     Ping%Ye%NULL%1,                     Bing%Xiao%NULL%1,                     Weiming%Mao%NULL%1,                     Liming%Liu%NULL%1,                     Youqin%Yan%NULL%1,                     Mingyu%Liu%NULL%1,                     Manhua%Chen%NULL%1,                     Xiao-Jing%Zhang%NULL%1,                     Xinghuan%Wang%NULL%1,                     Rhian M.%Touyz%NULL%1,                     Jiahong%Xia%NULL%1,                     Bing-Hong%Zhang%NULL%1,                     Xiaodong%Huang%NULL%1,                     Yufeng%Yuan%NULL%1,                     Rohit%Loomba%NULL%1,                     Peter P.%Liu%NULL%1,                     Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                      Sandra%Santos-Martinez%NULL%1,                      Diego%López-Otero%NULL%1,                      Luis%Nombela-Franco%NULL%1,                      Enrique%Gutiérrez-Ibanes%NULL%1,                      Raquel%Del Valle%NULL%1,                      Erika%Muñoz-García%NULL%1,                      Víctor A.%Jiménez-Diaz%NULL%1,                      Ander%Regueiro%NULL%1,                      Rocío%González-Ferreiro%NULL%1,                      Tomás%Benito%NULL%1,                      Xoan Carlos%Sanmartin-Pena%NULL%1,                      Pablo%Catalá%NULL%1,                      Tania%Rodríguez-Gabella%NULL%1,                      Jose Raúl%Delgado-Arana%NULL%1,                      Manuel%Carrasco-Moraleja%NULL%1,                      Borja%Ibañez%NULL%1,                      J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                      David M.%Tehrani%NULL%1,                      Soniya V.%Rabadia%NULL%1,                      Marlene%Frost%NULL%1,                      Rushi V.%Parikh%NULL%1,                      Marcella%Calfon-Press%NULL%1,                      Olcay%Aksoy%NULL%1,                      Soban%Umar%NULL%1,                      Reza%Ardehali%NULL%1,                      Amir%Rabbani%NULL%1,                      Pooya%Bokhoor%NULL%1,                      Ali%Nsair%NULL%1,                      Jesse%Currier%NULL%1,                      Jonathan%Tobis%NULL%1,                      Gregg C.%Fonarow%NULL%1,                      Ravi%Dave%NULL%1,                      Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                      Zeljko%Kraljevic%NULL%1,                      Thomas%Searle%NULL%1,                      Rebecca%Bendayan%NULL%1,                      O'Gallagher%Kevin%NULL%1,                      Andrew%Pickles%NULL%1,                      Amos%Folarin%NULL%1,                      Lukasz%Roguski%NULL%1,                      Kawsar%Noor%NULL%1,                      Anthony%Shek%NULL%1,                      Rosita%Zakeri%NULL%1,                      Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                      James T.H.%Teo%jamesteo@nhs.net%1,                      Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                      Mauro%Chiarito%NULL%1,                      Bernhard%Reimers%NULL%2,                      Bernhard%Reimers%NULL%0,                      Elena%Azzolini%NULL%1,                      Giuseppe%Ferrante%NULL%1,                      Ilaria%My%NULL%1,                      Giacomo%Viggiani%NULL%1,                      Cristina%Panico%NULL%1,                      Damiano%Regazzoli%NULL%1,                      Michele%Ciccarelli%NULL%1,                      Antonio%Voza%NULL%1,                      Alessio%Aghemo%NULL%1,                      Hongliang%Li%NULL%2,                      Yibin%Wang%NULL%2,                      Gianluigi%Condorelli%NULL%1,                      Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                      Feng%Wang%NULL%1,                      Peng%Chen%NULL%1,                      Jiangang%Jiang%NULL%1,                      Guanglin%Cui%NULL%1,                      Ning%Zhou%NULL%2,                      Francesco%Moroni%NULL%1,                      Javid J.%Moslehi%NULL%1,                      Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                      Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                      Ming%Zhong%NULL%1,                      Ya%Liu%NULL%1,                      Yi%Zhang%NULL%2,                      Kai%Zhang%NULL%1,                      De-zhen%Su%NULL%1,                      Xiao%Meng%NULL%1,                      Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,           Dong%Yang%xref no email%2,           Biao%Cheng%xref no email%2,           Jian%Chen%xref no email%4,           Anlin%Peng%xref no email%2,           Chen%Yang%xref no email%2,           Chong%Liu%xref no email%2,           Mingrui%Xiong%xref no email%2,           Aiping%Deng%xref no email%4,           Yu%Zhang%xref no email%2,           Ling%Zheng%xref no email%2,           Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                      Duncan%Young%NULL%2,                      Duncan%Young%NULL%0,                      Carol%Coupland%NULL%1,                      Keith M%Channon%NULL%1,                      Pui San%Tan%NULL%1,                      David A%Harrison%NULL%1,                      Kathryn%Rowan%NULL%2,                      Kathryn%Rowan%NULL%0,                      Paul%Aveyard%NULL%1,                      Ian D%Pavord%NULL%1,                      Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,               Butt%Jawad H%coreGivesNoEmail%1,               Fosb\u00f8l%Emil L%coreGivesNoEmail%1,               Gerds%Thomas A%coreGivesNoEmail%1,               Gislason%Gunnar H%coreGivesNoEmail%1,               Kragholm%Kristian%coreGivesNoEmail%1,               K\u00f8ber%Lars%coreGivesNoEmail%1,               Phelps%Matthew%coreGivesNoEmail%1,               Schou%Morten%coreGivesNoEmail%1,               Selmer%Christian%coreGivesNoEmail%1,               Torp-Pedersen%Christian%coreGivesNoEmail%1,               \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                      Yue%Cai%NULL%1,                      Kan%Zhang%NULL%2,                      Kan%Zhang%NULL%0,                      Lei%Zhou%NULL%1,                      Yao%Zhang%NULL%1,                      Xijing%Zhang%NULL%1,                      Qi%Li%NULL%1,                      Weiqin%Li%NULL%1,                      Shiming%Yang%NULL%1,                      Xiaoyan%Zhao%NULL%1,                      Yuying%Zhao%NULL%1,                      Hui%Wang%NULL%1,                      Yi%Liu%NULL%2,                      Zhiyong%Yin%NULL%1,                      Ruining%Zhang%NULL%1,                      Rutao%Wang%NULL%1,                      Ming%Yang%NULL%1,                      Chen%Hui%NULL%1,                      William%Wijns%NULL%1,                      J William%McEvoy%NULL%1,                      Osama%Soliman%NULL%2,                      Osama%Soliman%NULL%0,                      Yoshinobu%Onuma%NULL%2,                      Yoshinobu%Onuma%NULL%0,                      Patrick W%Serruys%NULL%1,                      Ling%Tao%lingtao@fmmu.edu.cn%1,                      Fei%Li%lifei01@fmmu.edu.cn%2,                      Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                      Erkan%Ekicibasi%NULL%1,                      Aleks%Degirmencioglu%NULL%1,                      Ashok%Paudel%NULL%1,                      Refik%Erdim%NULL%1,                      Hilal Kurtoglu%Gumusel%NULL%1,                      Elif%Eroglu%NULL%1,                      Ibrahim Halil%Tanboga%NULL%1,                      Sinan%Dagdelen%NULL%1,                      Nevin%Sariguzel%NULL%1,                      Ceyda Erel%Kirisoglu%NULL%1,                      Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,               Antonelli%M.%coreGivesNoEmail%2,               Bellani%G.%coreGivesNoEmail%2,               Bonanomi%E.%coreGivesNoEmail%2,               Cabrini%L.%coreGivesNoEmail%2,               Carlesso%E.%coreGivesNoEmail%2,               Castelli%G.%coreGivesNoEmail%2,               Cattaneo%S.%coreGivesNoEmail%2,               Cecconi%M.%coreGivesNoEmail%2,               Cereda%D.%coreGivesNoEmail%2,               Colombo%S.%coreGivesNoEmail%2,               Coluccello%A.%coreGivesNoEmail%2,               Crescini%G.%coreGivesNoEmail%2,               Forastieri%Molinari A.%coreGivesNoEmail%2,               Foti%G.%coreGivesNoEmail%2,               Fumagalli%R.%coreGivesNoEmail%2,               Grasselli%G.%coreGivesNoEmail%2,               Greco%M.%coreGivesNoEmail%2,               Iotti%G. A.%coreGivesNoEmail%2,               Langer%T.%coreGivesNoEmail%2,               Latronico%N.%coreGivesNoEmail%2,               Lorini%F. L.%coreGivesNoEmail%2,               Mojoli%F.%coreGivesNoEmail%2,               Natalini%G.%coreGivesNoEmail%2,               Pesenti%A.%coreGivesNoEmail%2,               Pessina%C. M.%coreGivesNoEmail%2,               Ranieri%V. M.%coreGivesNoEmail%2,               Rech%R.%coreGivesNoEmail%2,               Rosano%A.%coreGivesNoEmail%2,               Scudeller%L.%coreGivesNoEmail%2,               Storti%E.%coreGivesNoEmail%2,               Thompson%B. T.%coreGivesNoEmail%2,               Tirani%M.%coreGivesNoEmail%2,               Villani%P. G.%coreGivesNoEmail%2,               Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,           Yueli%Zhu%xref no email%1,           Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                      Jiatian%Cao%NULL%1,                      Yumeng%Yao%NULL%1,                      Xuejuan%Jin%NULL%1,                      Zhe%Luo%NULL%1,                      Yuan%Xue%NULL%1,                      Chouwen%Zhu%NULL%1,                      Yanan%Song%NULL%1,                      Ying%Wang%NULL%1,                      Yunzeng%Zou%NULL%1,                      Juying%Qian%NULL%1,                      Kaihuan%Yu%NULL%1,                      Hui%Gong%NULL%1,                      Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                      Ju-Hyun%Kim%NULL%1,                      Jin-Sung%Park%NULL%1,                      Min Cheol%Chang%wheel633@ynu.ac.kr%1,                      Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,           Guido%Grassi%xref no email%1,           Claudio%Borghi%xref no email%1,           Claudio%Ferri%xref no email%1,           Massimo%Salvetti%xref no email%1,           Massimo%Volpe%xref no email%1,           Arrigo F.G.%Cicero%xref no email%1,           Pietro%Minuz%xref no email%1,           Maria Lorenza%Muiesan%xref no email%1,           Paolo%Mulatero%xref no email%1,           Giuseppe%Mul\u00e8%xref no email%1,           Giacomo%Pucci%xref no email%1,           Carmine%Savoia%xref no email%1,           Leonardo%Sechi%xref no email%1,           Stefano%Carugo%xref no email%1,           Francesco%Fallo%xref no email%1,           Cristina%Giannattasio%xref no email%1,           Davide%Grassi%xref no email%1,           Claudio%Letizia%xref no email%1,           Stefano%Perlini%xref no email%1,           Damiano%Rizzoni%xref no email%1,           Riccardo%Sarzani%xref no email%1,           Giuliano%Tocci%xref no email%1,           Franco%Veglio%xref no email%1,           Claudia%Agabiti Rosei%xref no email%1,           Michele%Bevilacqua%xref no email%1,           Valeria%Bisogni%xref no email%1,           Michele%Bombelli%xref no email%1,           Luca%Bulfone%xref no email%1,           Flaminia%Canichella%xref no email%1,           Giovanni%Carpani%xref no email%1,           Massimo%Catanuso%xref no email%1,           Giulia%Chiarini%xref no email%1,           Fernando%Chiumiento%xref no email%1,           Rosario%Cianci%xref no email%1,           Franco%Cipollini%xref no email%1,           Antonio%Concistr\u00e8%xref no email%1,           Andrea%Dalbeni%xref no email%1,           Roberto Alberto%De Blasi%xref no email%1,           Carolina%De Ciuceis%xref no email%1,           Raffaella%Dell\u2019Oro%xref no email%1,           Antonino%Di Guardo%xref no email%1,           Santo%Di Lorenzo%xref no email%1,           Monica%Di Norcia%xref no email%1,           Roberto%Ervo%xref no email%1,           Elisabetta%Eula%xref no email%1,           Davide%Fabbricatore%xref no email%1,           Elvira%Fanelli%xref no email%1,           Cristiano%Fava%xref no email%1,           Enzo%Grasso%xref no email%1,           Alessandro%Grimaldi%xref no email%1,           Maddalena%Illario%xref no email%1,           Claudio%Invernizzi%xref no email%1,           Elena%Iraca%xref no email%1,           Federica%Liegi%xref no email%1,           Paolo%Malerba%xref no email%1,           Alessandro%Maloberti%xref no email%1,           Costantino%Mancusi%xref no email%1,           Giulia%Molinari%xref no email%1,           Roberta%Mussinelli%xref no email%1,           Anna%Paini%xref no email%1,           Paola%Pellimassi%xref no email%1,           Ornella%Piazza%xref no email%1,           Roberto%Pontremoli%xref no email%1,           Fosca%Quarti Tevano%xref no email%1,           Franco%Rabbia%xref no email%1,           Monica%Rocco%xref no email%1,           Anna%Sabena%xref no email%1,           Francesco%Salinaro%xref no email%1,           Paola%Schiavi%xref no email%1,           Maria Chiara%Sgariglia%xref no email%1,           Francesco%Spannella%xref no email%1,           Sara%Tedeschi%xref no email%1,           Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                      Raphael Romano%Bruno%NULL%1,                      Bernhard%Wernly%NULL%1,                      Michael%Joannidis%NULL%1,                      Sandra%Oeyen%NULL%1,                      Tilemachos%Zafeiridis%NULL%1,                      Brian%Marsh%NULL%1,                      Finn H%Andersen%NULL%1,                      Rui%Moreno%NULL%1,                      Ana Margarida%Fernandes%NULL%1,                      Antonio%Artigas%NULL%1,                      Bernardo Bollen%Pinto%NULL%1,                      Joerg%Schefold%NULL%1,                      Georg%Wolff%NULL%1,                      Malte%Kelm%NULL%2,                      Malte%Kelm%NULL%0,                      Dylan W%De Lange%NULL%1,                      Bertrand%Guidet%NULL%1,                      Hans%Flaatten%NULL%1,                      Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                      Jae Chol%Choi%NULL%1,                      Seung-Hun%You%NULL%1,                      Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                      Hamish%Reed-Embleton%NULL%2,                      Hamish%Reed-Embleton%NULL%0,                      Jen%Lewis%NULL%2,                      Jen%Lewis%NULL%0,                      Pamela%Bain%NULL%1,                      Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                      Kenneth W%Chow%NULL%1,                      Jonathan%Vo%NULL%1,                      Wei%Hou%NULL%1,                      Haifang%Li%NULL%1,                      Paul S%Richman%NULL%1,                      Sandeep K%Mallipattu%NULL%1,                      Hal A%Skopicki%NULL%1,                      Adam J%Singer%NULL%1,                      Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,           Xiufang%Wang%xref no email%2,           Jian%Chen%xref no email%0,           Hongmei%Zhang%xref no email%2,           Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                      Julien%Moragny%NULL%2,                      Julien%Moragny%NULL%0,                      Youssef%Bennis%NULL%1,                      Benjamin%Batteux%NULL%1,                      Etienne%Brochot%NULL%1,                      Jean Luc%Schmit%NULL%1,                      Jean-Philippe%Lanoix%NULL%1,                      Claire%Andrejak%NULL%1,                      Olivier%Ganry%NULL%1,                      Michel%Slama%NULL%1,                      Julien%Maizel%NULL%1,                      Yazine%Mahjoub%NULL%1,                      Kamel%Masmoudi%NULL%1,                      Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                      Yi%Liu%NULL%0,                      Keliang%Chen%NULL%1,                      Suying%Yan%NULL%1,                      Xiangrong%Bai%NULL%1,                      Juan%Li%947281063@qq.com%1,                      Dong%Liu%ld2069@outlook.com%2,                      Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                      Javier%López-Pais%NULL%1,                      Carla Eugenia%Cacho-Antonio%NULL%1,                      Pablo José%Antúnez-Muiños%NULL%1,                      Teba%González-Ferrero%NULL%1,                      Marta%Pérez-Poza%NULL%1,                      Óscar%Otero-García%NULL%1,                      Brais%Díaz-Fernández%NULL%1,                      María%Bastos-Fernández%NULL%1,                      Noelia%Bouzas-Cruz%NULL%1,                      Xoan Carlos%Sanmartín-Pena%NULL%1,                      Alfonso%Varela-Román%NULL%1,                      Manuel%Portela-Romero%NULL%1,                      Luis%Valdés-Cuadrado%NULL%1,                      Antonio%Pose-Reino%NULL%1,                      José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                      Federico%Rea%NULL%1,                      Monica%Ludergnani%NULL%4,                      Monica%Ludergnani%NULL%0,                      Giovanni%Apolone%NULL%1,                      Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,         Hisao%Ogawa%null%2,         Kazuo%Kimura%null%2,         Masaaki%Konishi%null%2,         Jin%Kirigaya%null%2,         Kazuki%Fukui%null%2,         Kengo%Tsukahara%null%2,         Hiroyuki%Shimizu%null%2,         Keisuke%Iwabuchi%null%2,         Yu%Yamada%null%2,         Kenichiro%Saka%null%2,         Ichiro%Takeuchi%null%2,         Toshio%Hirano%null%2,         Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                      Guohui%Xiao%NULL%1,                      Juanjuan%Zhang%NULL%1,                      Xing%He%NULL%1,                      Min%Ou%NULL%1,                      Jing%Bi%NULL%1,                      Rongqing%Yang%NULL%1,                      Wencheng%Di%NULL%1,                      Zhaoqin%Wang%NULL%1,                      Zigang%Li%NULL%1,                      Hong%Gao%NULL%1,                      Lei%Liu%NULL%1,                      Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                      Francisca%García-Iglesias%NULL%1,                      Teresa%González-Alegre%NULL%1,                      Francisco%Blanco%NULL%1,                      Marta%Varas%NULL%1,                      Clara%Hernández-Blanco%NULL%1,                      Victor%Hontañón%NULL%1,                      María J.%Jaras-Hernández%NULL%1,                      Mónica%Martínez-Prieto%NULL%1,                      Araceli%Menéndez-Saldaña%NULL%1,                      María L.%Cachán%NULL%1,                      Eva%Estirado%NULL%1,                      Carlos%Lahoz%NULL%1,                      Rosa%de Miguel%NULL%1,                      Miriam%Romero%NULL%1,                      Mar%Lago%NULL%1,                      Cristina%García-Quero%NULL%1,                      Cristina%Plaza%NULL%1,                      Talía%Sainz-Costa%NULL%1,                      Susana%Rivas-Vila%NULL%1,                      Blanca%Sánchez%NULL%1,                      Celia García%Torres%NULL%1,                      Lucía%Martínez-Tobar%NULL%1,                      María%Hernandez-Pérez%NULL%1,                      Pablo%Racionero%NULL%1,                      Patricia%Mir-Ihara%NULL%1,                      Jesús%Peña-López%NULL%1,                      Marta%Bautista-Barea%NULL%1,                      Alexa P.%Benítez%NULL%1,                      Pablo%Rodríguez-Merlos%NULL%1,                      María%Barcenilla%NULL%1,                      María San%Basilio%NULL%1,                      María%Valencia%NULL%1,                      Ricardo%Romero-Martín%NULL%1,                      Ana%Boto de los Bueis%NULL%1,                      Adriana%de la Hoz-Polo%NULL%1,                      María%del Pino-Cidad%NULL%1,                      Javier%Coca-Robinot%NULL%1,                      Bárbara%González-Ferrer%NULL%1,                      Pedro%Fernández-Pérez%NULL%1,                      Isabel%Mogollón%NULL%1,                      María S.%Montoro-Romero%NULL%1,                      Isabel%Villalaín%NULL%1,                      Almudena%del Hierro-Zarzuelo%NULL%1,                      Irene%Hernández-Martín%NULL%1,                      Javier%Domínguez%NULL%1,                      Alberto%Luna%NULL%1,                      Soledad%Montoro%NULL%1,                      Margarita%Sánchez-Orgaz%NULL%1,                      Gloria%Amorena%NULL%1,                      Cosme%Lavín-Dapena%NULL%1,                      Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                      Stanislas%Gleye%NULL%1,                      Isabelle%Clerc Urmes%NULL%1,                      Elodie%Laugel%NULL%1,                      Jonas%Callet%NULL%1,                      Françoise%Barbé%NULL%1,                      Sophie%Orlowski%NULL%1,                      Catherine%Malaplate%NULL%1,                      Isabelle%Aimone-Gastin%NULL%1,                      Beatrice Maatem%Caillierez%NULL%1,                      Marc%Merten%NULL%1,                      Elise%Jeannesson%NULL%1,                      Raphaël%Kormann%NULL%1,                      Jean-Luc%Olivier%NULL%1,                      Rosa-Maria%Rodriguez-Guéant%NULL%1,                      Farès%Namour%NULL%1,                      Sybille%Bevilacqua%NULL%1,                      Marie-Reine%Losser%NULL%1,                      Bruno%Levy%NULL%1,                      Antoine%Kimmoun%NULL%1,                      Sébastien%Gibot%NULL%1,                      Nathalie%Thilly%NULL%1,                      Luc%Frimat%NULL%1,                      Evelyne%Schvoerer%NULL%1,                      Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,           Jishou%Zhang%xref no email%2,           Menglong%Wang%xref no email%2,           Jing%Ye%xref no email%2,           Yao%Xu%xref no email%2,           Bo%Shen%xref no email%3,           Hua%He%xref no email%2,           Zhen%Wang%xref no email%2,           Di%Ye%xref no email%2,           Mengmeng%Zhao%xref no email%2,           Zhen%Luo%xref no email%2,           Mingxiao%Liu%xref no email%2,           Pingan%Zhang%xref no email%2,           Jian%Gu%xref no email%2,           Menglin%Liu%xref no email%2,           Dan%Li%xref no email%2,           Jianfang%Liu%xref no email%2,           Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                      Samrachana%Adhikari%NULL%1,                      Claudia%Pulgarin%NULL%1,                      Andrea B.%Troxel%NULL%1,                      Eduardo%Iturrate%NULL%1,                      Stephen B.%Johnson%NULL%1,                      Anaïs%Hausvater%NULL%1,                      Jonathan D.%Newman%NULL%1,                      Jeffrey S.%Berger%NULL%1,                      Sripal%Bangalore%NULL%1,                      Stuart D.%Katz%NULL%1,                      Glenn I.%Fishman%NULL%1,                      Dennis%Kunichoff%NULL%1,                      Yu%Chen%NULL%1,                      Gbenga%Ogedegbe%NULL%1,                      Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,               Becker%L.B.%coreGivesNoEmail%3,               Chelico%J.D.%coreGivesNoEmail%3,               Cohen%S.L.%coreGivesNoEmail%3,               Cookingham%J.%coreGivesNoEmail%3,               Coppa%K.%coreGivesNoEmail%3,               Crawford%J.M.%coreGivesNoEmail%3,               Davidson%K.W.%coreGivesNoEmail%3,               Diefenbach%M.A.%coreGivesNoEmail%3,               Dominello%A.J.%coreGivesNoEmail%3,               Duer-Hefele%J.%coreGivesNoEmail%3,               Falzon%L.%coreGivesNoEmail%3,               Gitlin%J.%coreGivesNoEmail%3,               Hajizadeh%N.%coreGivesNoEmail%3,               Harvin%T.G.%coreGivesNoEmail%3,               Hirsch%J.S.%coreGivesNoEmail%3,               Hirschwerk%D.A.%coreGivesNoEmail%3,               Kim%E.J.%coreGivesNoEmail%3,               Kozel%Z.M.%coreGivesNoEmail%3,               Marrast%L.M.%coreGivesNoEmail%3,               McGinn%T.%coreGivesNoEmail%3,               Mogavero%J.N.%coreGivesNoEmail%3,               Narasimhan%M.%coreGivesNoEmail%3,               Osorio%G.A.%coreGivesNoEmail%3,               Qiu%M.%coreGivesNoEmail%3,               Richardson%S.%coreGivesNoEmail%3,               Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                      Massimiliano%Marino%NULL%3,                      Debora%Formisano%NULL%1,                      Francesco%Venturelli%NULL%1,                      Massimo%Vicentini%NULL%3,                      Massimo%Vicentini%NULL%0,                      Roberto%Grilli%NULL%2,                      NULL%NULL%NULL%0,                      Gianluigi%Forloni%NULL%8,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0,                      Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                      Paolo%Maggi%NULL%2,                      Paolo%Maggi%NULL%0,                      Vincenzo%Messina%NULL%1,                      Pasquale%Iuliano%NULL%2,                      Pasquale%Iuliano%NULL%0,                      Antonio%Sardu%NULL%1,                      Vincenzo%Iovinella%NULL%1,                      Giuseppe%Paolisso%NULL%1,                      Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                      Rasimcan%Meral%NULL%1,                      Alpay%Medetalibeyoğlu%NULL%1,                      Hilal%Konyaoğlu%NULL%1,                      Murat%Köse%NULL%1,                      Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%2,           Jack%Owens%xref no email%1,           James%Franklin%xref no email%1,           Yash%Jani%xref no email%1,           Ashish%Kumar%xref no email%1,           Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                      Yun%Qiu%NULL%1,                      Xiang-Bin%Xing%NULL%1,                      Subrata%Ghosh%NULL%1,                      Min-Hu%Chen%NULL%1,                      Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                      Maddalena%Giannella%NULL%1,                      Michele%Bartoletti%NULL%1,                      Filippo%Trapani%NULL%1,                      Marina%Tadolini%NULL%1,                      Claudio%Borghi%NULL%1,                      Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                      Marco%Massari%NULL%3,                      Marco%Massari%NULL%0,                      Roberto%Da Cas%NULL%2,                      Francesca%Menniti Ippolito%NULL%2,                      Janet%Sultana%NULL%2,                      Salvatore%Crisafulli%NULL%2,                      Paolo%Giorgi Rossi%NULL%2,                      Massimiliano%Marino%NULL%0,                      Manuel%Zorzi%NULL%2,                      Emanuela%Bovo%NULL%2,                      Olivia%Leoni%NULL%2,                      Monica%Ludergnani%NULL%0,                      Stefania%Spila Alegiani%stefania.spila@iss.it%2,                      Stefania%Spila Alegiani%NULL%0,                      Francesca%Menniti Ippolito%NULL%0,                      Roberto%Da Cas%NULL%0,                      Marco%Massari%NULL%0,                      Giuseppe%Traversa%NULL%1,                      Graziano%Onder%NULL%1,                      Gianluca%Trifirò%NULL%1,                      Janet%Sultana%NULL%0,                      Valentina%Ientile%NULL%1,                      Salvatore%Crisafulli%NULL%0,                      Paolo%Giorgi Rossi%NULL%0,                      Roberto%Grilli%NULL%0,                      Giulio%Formoso%NULL%1,                      Massimiliano%Marino%NULL%0,                      Massimo%Vicentini%NULL%0,                      Olivia%Leoni%NULL%0,                      Monica%Ludergnani%NULL%0,                      Danilo%Cereda%NULL%1,                      Eliana%Ferroni%NULL%1,                      Stefano%Guzzinati%NULL%1,                      Emanuela%Bovo%NULL%0,                      Manuel%Zorzi%NULL%0,                      Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%3,                      Chaolin%Huang%NULL%1,                      Guohui%Fan%NULL%1,                      Zhibo%Liu%NULL%1,                      Lianhan%Shang%NULL%1,                      Fei%Zhou%NULL%1,                      Yeming%Wang%NULL%1,                      Jiapei%Yu%NULL%1,                      Luning%Yang%NULL%1,                      Ke%Xie%NULL%1,                      Zhisheng%Huang%NULL%1,                      Lixue%Huang%NULL%1,                      Xiaoying%Gu%NULL%1,                      Hui%Li%NULL%1,                      Yi%Zhang%NULL%0,                      Yimin%Wang%NULL%1,                      Frederick G.%Hayden%NULL%1,                      Peter W.%Horby%NULL%1,                      Bin%Cao%caobin_ben@163.com%1,                      Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,           Zihu%Tan%xref no email%3,           Ling%Zhou%xref no email%5,           Min%Yang%xref no email%3,           Lang%Peng%xref no email%3,           Jinjin%Liu%xref no email%3,           Jingling%Cai%xref no email%3,           Ru%Yang%xref no email%3,           Junyan%Han%xref no email%3,           Yafei%Huang%xref no email%3,           Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                      Dan%Liu%NULL%1,                      Shaoqing%Zeng%NULL%1,                      Siyuan%Wang%NULL%1,                      Sen%Xu%NULL%1,                      Ya%Wang%NULL%1,                      Ruidi%Yu%NULL%1,                      Yue%Gao%NULL%1,                      Huayi%Li%NULL%1,                      Xinxia%Feng%NULL%1,                      Ning%Zhou%NULL%0,                      Chunxia%Zhao%NULL%1,                      Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                      Lihua%Zhu%NULL%1,                      Jingjing%Cai%NULL%1,                      Fang%Lei%NULL%1,                      Juan-Juan%Qin%NULL%1,                      Jing%Xie%NULL%1,                      Ye-Mao%Liu%NULL%1,                      Yan-Ci%Zhao%NULL%1,                      Xuewei%Huang%NULL%1,                      Lijin%Lin%NULL%1,                      Meng%Xia%NULL%1,                      Ming-Ming%Chen%NULL%1,                      Xu%Cheng%NULL%1,                      Xiao%Zhang%NULL%1,                      Deliang%Guo%NULL%1,                      Yuanyuan%Peng%NULL%1,                      Yan-Xiao%Ji%NULL%1,                      Jing%Chen%NULL%1,                      Zhi-Gang%She%NULL%1,                      Yibin%Wang%NULL%0,                      Qingbo%Xu%NULL%1,                      Renfu%Tan%NULL%1,                      Haitao%Wang%NULL%1,                      Jun%Lin%NULL%1,                      Pengcheng%Luo%NULL%1,                      Shouzhi%Fu%NULL%1,                      Hongbin%Cai%NULL%1,                      Ping%Ye%NULL%1,                      Bing%Xiao%NULL%1,                      Weiming%Mao%NULL%1,                      Liming%Liu%NULL%1,                      Youqin%Yan%NULL%1,                      Mingyu%Liu%NULL%1,                      Manhua%Chen%NULL%1,                      Xiao-Jing%Zhang%NULL%1,                      Xinghuan%Wang%NULL%1,                      Rhian M.%Touyz%NULL%1,                      Jiahong%Xia%NULL%1,                      Bing-Hong%Zhang%NULL%1,                      Xiaodong%Huang%NULL%1,                      Yufeng%Yuan%NULL%1,                      Rohit%Loomba%NULL%1,                      Peter P.%Liu%NULL%1,                      Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3967,7 +4096,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>964</v>
+        <v>1007</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -4059,7 +4188,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>965</v>
+        <v>1008</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -4105,7 +4234,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>966</v>
+        <v>1009</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -4151,7 +4280,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>967</v>
+        <v>1010</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -4197,7 +4326,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>968</v>
+        <v>1011</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -4243,7 +4372,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>969</v>
+        <v>1012</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -4289,7 +4418,7 @@
         <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>970</v>
+        <v>1013</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -4335,7 +4464,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>971</v>
+        <v>1014</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -4381,7 +4510,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>972</v>
+        <v>1015</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4427,7 +4556,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>973</v>
+        <v>1016</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -4473,7 +4602,7 @@
         <v>756</v>
       </c>
       <c r="E13" t="s">
-        <v>974</v>
+        <v>1017</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -4519,7 +4648,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>975</v>
+        <v>1018</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -4565,7 +4694,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>976</v>
+        <v>1019</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -4611,7 +4740,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>977</v>
+        <v>1020</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -4657,7 +4786,7 @@
         <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>978</v>
+        <v>1021</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -4703,7 +4832,7 @@
         <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>979</v>
+        <v>1022</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4749,7 +4878,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>980</v>
+        <v>1023</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -4795,7 +4924,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>981</v>
+        <v>1024</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -4841,7 +4970,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>982</v>
+        <v>1025</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -4887,7 +5016,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>983</v>
+        <v>1026</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -4933,7 +5062,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>984</v>
+        <v>1027</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -4979,7 +5108,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>985</v>
+        <v>1028</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -5025,7 +5154,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>986</v>
+        <v>1029</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -5071,7 +5200,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>987</v>
+        <v>1030</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -5117,7 +5246,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>988</v>
+        <v>1031</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -5163,7 +5292,7 @@
         <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>989</v>
+        <v>1032</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -5209,7 +5338,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>990</v>
+        <v>1033</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -5255,7 +5384,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>991</v>
+        <v>1034</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -5301,7 +5430,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>992</v>
+        <v>1035</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -5347,7 +5476,7 @@
         <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>993</v>
+        <v>1036</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -5393,7 +5522,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>994</v>
+        <v>1037</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -5439,7 +5568,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>995</v>
+        <v>1038</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -5485,7 +5614,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>996</v>
+        <v>1039</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -5531,7 +5660,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>997</v>
+        <v>1040</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -5577,7 +5706,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>998</v>
+        <v>1041</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -5623,7 +5752,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>999</v>
+        <v>1042</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -5669,7 +5798,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>1000</v>
+        <v>1043</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -5715,7 +5844,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>1001</v>
+        <v>1044</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -5761,7 +5890,7 @@
         <v>786</v>
       </c>
       <c r="E41" t="s">
-        <v>1002</v>
+        <v>1045</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -5807,7 +5936,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>1003</v>
+        <v>1046</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -5853,7 +5982,7 @@
         <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>1004</v>
+        <v>1047</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -5899,7 +6028,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>1005</v>
+        <v>1048</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -5945,7 +6074,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>1006</v>
+        <v>1049</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7066" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7381" uniqueCount="1097">
   <si>
     <t>Doi</t>
   </si>
@@ -3668,6 +3668,147 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,                      Lihua%Zhu%NULL%1,                      Jingjing%Cai%NULL%1,                      Fang%Lei%NULL%1,                      Juan-Juan%Qin%NULL%1,                      Jing%Xie%NULL%1,                      Ye-Mao%Liu%NULL%1,                      Yan-Ci%Zhao%NULL%1,                      Xuewei%Huang%NULL%1,                      Lijin%Lin%NULL%1,                      Meng%Xia%NULL%1,                      Ming-Ming%Chen%NULL%1,                      Xu%Cheng%NULL%1,                      Xiao%Zhang%NULL%1,                      Deliang%Guo%NULL%1,                      Yuanyuan%Peng%NULL%1,                      Yan-Xiao%Ji%NULL%1,                      Jing%Chen%NULL%1,                      Zhi-Gang%She%NULL%1,                      Yibin%Wang%NULL%0,                      Qingbo%Xu%NULL%1,                      Renfu%Tan%NULL%1,                      Haitao%Wang%NULL%1,                      Jun%Lin%NULL%1,                      Pengcheng%Luo%NULL%1,                      Shouzhi%Fu%NULL%1,                      Hongbin%Cai%NULL%1,                      Ping%Ye%NULL%1,                      Bing%Xiao%NULL%1,                      Weiming%Mao%NULL%1,                      Liming%Liu%NULL%1,                      Youqin%Yan%NULL%1,                      Mingyu%Liu%NULL%1,                      Manhua%Chen%NULL%1,                      Xiao-Jing%Zhang%NULL%1,                      Xinghuan%Wang%NULL%1,                      Rhian M.%Touyz%NULL%1,                      Jiahong%Xia%NULL%1,                      Bing-Hong%Zhang%NULL%1,                      Xiaodong%Huang%NULL%1,                      Yufeng%Yuan%NULL%1,                      Rohit%Loomba%NULL%1,                      Peter P.%Liu%NULL%1,                      Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                       Sandra%Santos-Martinez%NULL%1,                       Diego%López-Otero%NULL%1,                       Luis%Nombela-Franco%NULL%1,                       Enrique%Gutiérrez-Ibanes%NULL%1,                       Raquel%Del Valle%NULL%1,                       Erika%Muñoz-García%NULL%1,                       Víctor A.%Jiménez-Diaz%NULL%1,                       Ander%Regueiro%NULL%1,                       Rocío%González-Ferreiro%NULL%1,                       Tomás%Benito%NULL%1,                       Xoan Carlos%Sanmartin-Pena%NULL%1,                       Pablo%Catalá%NULL%1,                       Tania%Rodríguez-Gabella%NULL%1,                       Jose Raúl%Delgado-Arana%NULL%1,                       Manuel%Carrasco-Moraleja%NULL%1,                       Borja%Ibañez%NULL%1,                       J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                       David M.%Tehrani%NULL%1,                       Soniya V.%Rabadia%NULL%1,                       Marlene%Frost%NULL%1,                       Rushi V.%Parikh%NULL%1,                       Marcella%Calfon-Press%NULL%1,                       Olcay%Aksoy%NULL%1,                       Soban%Umar%NULL%1,                       Reza%Ardehali%NULL%1,                       Amir%Rabbani%NULL%1,                       Pooya%Bokhoor%NULL%1,                       Ali%Nsair%NULL%1,                       Jesse%Currier%NULL%1,                       Jonathan%Tobis%NULL%1,                       Gregg C.%Fonarow%NULL%1,                       Ravi%Dave%NULL%1,                       Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                       Zeljko%Kraljevic%NULL%1,                       Thomas%Searle%NULL%1,                       Rebecca%Bendayan%NULL%1,                       O'Gallagher%Kevin%NULL%1,                       Andrew%Pickles%NULL%1,                       Amos%Folarin%NULL%1,                       Lukasz%Roguski%NULL%1,                       Kawsar%Noor%NULL%1,                       Anthony%Shek%NULL%1,                       Rosita%Zakeri%NULL%1,                       Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                       James T.H.%Teo%jamesteo@nhs.net%1,                       Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                       Mauro%Chiarito%NULL%1,                       Bernhard%Reimers%NULL%2,                       Bernhard%Reimers%NULL%0,                       Elena%Azzolini%NULL%1,                       Giuseppe%Ferrante%NULL%1,                       Ilaria%My%NULL%1,                       Giacomo%Viggiani%NULL%1,                       Cristina%Panico%NULL%1,                       Damiano%Regazzoli%NULL%1,                       Michele%Ciccarelli%NULL%1,                       Antonio%Voza%NULL%1,                       Alessio%Aghemo%NULL%1,                       Hongliang%Li%NULL%2,                       Yibin%Wang%NULL%2,                       Gianluigi%Condorelli%NULL%1,                       Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                       Feng%Wang%NULL%1,                       Peng%Chen%NULL%1,                       Jiangang%Jiang%NULL%1,                       Guanglin%Cui%NULL%1,                       Ning%Zhou%NULL%2,                       Francesco%Moroni%NULL%1,                       Javid J.%Moslehi%NULL%1,                       Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                       Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                       Ming%Zhong%NULL%1,                       Ya%Liu%NULL%1,                       Yi%Zhang%NULL%2,                       Kai%Zhang%NULL%1,                       De-zhen%Su%NULL%1,                       Xiao%Meng%NULL%1,                       Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,            Dong%Yang%xref no email%2,            Biao%Cheng%xref no email%2,            Jian%Chen%xref no email%4,            Anlin%Peng%xref no email%2,            Chen%Yang%xref no email%2,            Chong%Liu%xref no email%2,            Mingrui%Xiong%xref no email%2,            Aiping%Deng%xref no email%4,            Yu%Zhang%xref no email%2,            Ling%Zheng%xref no email%2,            Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                       Duncan%Young%NULL%2,                       Duncan%Young%NULL%0,                       Carol%Coupland%NULL%1,                       Keith M%Channon%NULL%1,                       Pui San%Tan%NULL%1,                       David A%Harrison%NULL%1,                       Kathryn%Rowan%NULL%2,                       Kathryn%Rowan%NULL%0,                       Paul%Aveyard%NULL%1,                       Ian D%Pavord%NULL%1,                       Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,                Butt%Jawad H%coreGivesNoEmail%1,                Fosb\u00f8l%Emil L%coreGivesNoEmail%1,                Gerds%Thomas A%coreGivesNoEmail%1,                Gislason%Gunnar H%coreGivesNoEmail%1,                Kragholm%Kristian%coreGivesNoEmail%1,                K\u00f8ber%Lars%coreGivesNoEmail%1,                Phelps%Matthew%coreGivesNoEmail%1,                Schou%Morten%coreGivesNoEmail%1,                Selmer%Christian%coreGivesNoEmail%1,                Torp-Pedersen%Christian%coreGivesNoEmail%1,                \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                       Yue%Cai%NULL%1,                       Kan%Zhang%NULL%2,                       Kan%Zhang%NULL%0,                       Lei%Zhou%NULL%1,                       Yao%Zhang%NULL%1,                       Xijing%Zhang%NULL%1,                       Qi%Li%NULL%1,                       Weiqin%Li%NULL%1,                       Shiming%Yang%NULL%1,                       Xiaoyan%Zhao%NULL%1,                       Yuying%Zhao%NULL%1,                       Hui%Wang%NULL%1,                       Yi%Liu%NULL%2,                       Zhiyong%Yin%NULL%1,                       Ruining%Zhang%NULL%1,                       Rutao%Wang%NULL%1,                       Ming%Yang%NULL%1,                       Chen%Hui%NULL%1,                       William%Wijns%NULL%1,                       J William%McEvoy%NULL%1,                       Osama%Soliman%NULL%2,                       Osama%Soliman%NULL%0,                       Yoshinobu%Onuma%NULL%2,                       Yoshinobu%Onuma%NULL%0,                       Patrick W%Serruys%NULL%1,                       Ling%Tao%lingtao@fmmu.edu.cn%1,                       Fei%Li%lifei01@fmmu.edu.cn%2,                       Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                       Erkan%Ekicibasi%NULL%1,                       Aleks%Degirmencioglu%NULL%1,                       Ashok%Paudel%NULL%1,                       Refik%Erdim%NULL%1,                       Hilal Kurtoglu%Gumusel%NULL%1,                       Elif%Eroglu%NULL%1,                       Ibrahim Halil%Tanboga%NULL%1,                       Sinan%Dagdelen%NULL%1,                       Nevin%Sariguzel%NULL%1,                       Ceyda Erel%Kirisoglu%NULL%1,                       Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,                Antonelli%M.%coreGivesNoEmail%2,                Bellani%G.%coreGivesNoEmail%2,                Bonanomi%E.%coreGivesNoEmail%2,                Cabrini%L.%coreGivesNoEmail%2,                Carlesso%E.%coreGivesNoEmail%2,                Castelli%G.%coreGivesNoEmail%2,                Cattaneo%S.%coreGivesNoEmail%2,                Cecconi%M.%coreGivesNoEmail%2,                Cereda%D.%coreGivesNoEmail%2,                Colombo%S.%coreGivesNoEmail%2,                Coluccello%A.%coreGivesNoEmail%2,                Crescini%G.%coreGivesNoEmail%2,                Forastieri%Molinari A.%coreGivesNoEmail%2,                Foti%G.%coreGivesNoEmail%2,                Fumagalli%R.%coreGivesNoEmail%2,                Grasselli%G.%coreGivesNoEmail%2,                Greco%M.%coreGivesNoEmail%2,                Iotti%G. A.%coreGivesNoEmail%2,                Langer%T.%coreGivesNoEmail%2,                Latronico%N.%coreGivesNoEmail%2,                Lorini%F. L.%coreGivesNoEmail%2,                Mojoli%F.%coreGivesNoEmail%2,                Natalini%G.%coreGivesNoEmail%2,                Pesenti%A.%coreGivesNoEmail%2,                Pessina%C. M.%coreGivesNoEmail%2,                Ranieri%V. M.%coreGivesNoEmail%2,                Rech%R.%coreGivesNoEmail%2,                Rosano%A.%coreGivesNoEmail%2,                Scudeller%L.%coreGivesNoEmail%2,                Storti%E.%coreGivesNoEmail%2,                Thompson%B. T.%coreGivesNoEmail%2,                Tirani%M.%coreGivesNoEmail%2,                Villani%P. G.%coreGivesNoEmail%2,                Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,            Yueli%Zhu%xref no email%1,            Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                       Jiatian%Cao%NULL%1,                       Yumeng%Yao%NULL%1,                       Xuejuan%Jin%NULL%1,                       Zhe%Luo%NULL%1,                       Yuan%Xue%NULL%1,                       Chouwen%Zhu%NULL%1,                       Yanan%Song%NULL%1,                       Ying%Wang%NULL%1,                       Yunzeng%Zou%NULL%1,                       Juying%Qian%NULL%1,                       Kaihuan%Yu%NULL%1,                       Hui%Gong%NULL%1,                       Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                       Ju-Hyun%Kim%NULL%1,                       Jin-Sung%Park%NULL%1,                       Min Cheol%Chang%wheel633@ynu.ac.kr%1,                       Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,            Guido%Grassi%xref no email%1,            Claudio%Borghi%xref no email%1,            Claudio%Ferri%xref no email%1,            Massimo%Salvetti%xref no email%1,            Massimo%Volpe%xref no email%1,            Arrigo F.G.%Cicero%xref no email%1,            Pietro%Minuz%xref no email%1,            Maria Lorenza%Muiesan%xref no email%1,            Paolo%Mulatero%xref no email%1,            Giuseppe%Mul\u00e8%xref no email%1,            Giacomo%Pucci%xref no email%1,            Carmine%Savoia%xref no email%1,            Leonardo%Sechi%xref no email%1,            Stefano%Carugo%xref no email%1,            Francesco%Fallo%xref no email%1,            Cristina%Giannattasio%xref no email%1,            Davide%Grassi%xref no email%1,            Claudio%Letizia%xref no email%1,            Stefano%Perlini%xref no email%1,            Damiano%Rizzoni%xref no email%1,            Riccardo%Sarzani%xref no email%1,            Giuliano%Tocci%xref no email%1,            Franco%Veglio%xref no email%1,            Claudia%Agabiti Rosei%xref no email%1,            Michele%Bevilacqua%xref no email%1,            Valeria%Bisogni%xref no email%1,            Michele%Bombelli%xref no email%1,            Luca%Bulfone%xref no email%1,            Flaminia%Canichella%xref no email%1,            Giovanni%Carpani%xref no email%1,            Massimo%Catanuso%xref no email%1,            Giulia%Chiarini%xref no email%1,            Fernando%Chiumiento%xref no email%1,            Rosario%Cianci%xref no email%1,            Franco%Cipollini%xref no email%1,            Antonio%Concistr\u00e8%xref no email%1,            Andrea%Dalbeni%xref no email%1,            Roberto Alberto%De Blasi%xref no email%1,            Carolina%De Ciuceis%xref no email%1,            Raffaella%Dell\u2019Oro%xref no email%1,            Antonino%Di Guardo%xref no email%1,            Santo%Di Lorenzo%xref no email%1,            Monica%Di Norcia%xref no email%1,            Roberto%Ervo%xref no email%1,            Elisabetta%Eula%xref no email%1,            Davide%Fabbricatore%xref no email%1,            Elvira%Fanelli%xref no email%1,            Cristiano%Fava%xref no email%1,            Enzo%Grasso%xref no email%1,            Alessandro%Grimaldi%xref no email%1,            Maddalena%Illario%xref no email%1,            Claudio%Invernizzi%xref no email%1,            Elena%Iraca%xref no email%1,            Federica%Liegi%xref no email%1,            Paolo%Malerba%xref no email%1,            Alessandro%Maloberti%xref no email%1,            Costantino%Mancusi%xref no email%1,            Giulia%Molinari%xref no email%1,            Roberta%Mussinelli%xref no email%1,            Anna%Paini%xref no email%1,            Paola%Pellimassi%xref no email%1,            Ornella%Piazza%xref no email%1,            Roberto%Pontremoli%xref no email%1,            Fosca%Quarti Tevano%xref no email%1,            Franco%Rabbia%xref no email%1,            Monica%Rocco%xref no email%1,            Anna%Sabena%xref no email%1,            Francesco%Salinaro%xref no email%1,            Paola%Schiavi%xref no email%1,            Maria Chiara%Sgariglia%xref no email%1,            Francesco%Spannella%xref no email%1,            Sara%Tedeschi%xref no email%1,            Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                       Raphael Romano%Bruno%NULL%1,                       Bernhard%Wernly%NULL%1,                       Michael%Joannidis%NULL%1,                       Sandra%Oeyen%NULL%1,                       Tilemachos%Zafeiridis%NULL%1,                       Brian%Marsh%NULL%1,                       Finn H%Andersen%NULL%1,                       Rui%Moreno%NULL%1,                       Ana Margarida%Fernandes%NULL%1,                       Antonio%Artigas%NULL%1,                       Bernardo Bollen%Pinto%NULL%1,                       Joerg%Schefold%NULL%1,                       Georg%Wolff%NULL%1,                       Malte%Kelm%NULL%2,                       Malte%Kelm%NULL%0,                       Dylan W%De Lange%NULL%1,                       Bertrand%Guidet%NULL%1,                       Hans%Flaatten%NULL%1,                       Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                       Jae Chol%Choi%NULL%1,                       Seung-Hun%You%NULL%1,                       Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                       Hamish%Reed-Embleton%NULL%2,                       Hamish%Reed-Embleton%NULL%0,                       Jen%Lewis%NULL%2,                       Jen%Lewis%NULL%0,                       Pamela%Bain%NULL%1,                       Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                       Kenneth W%Chow%NULL%1,                       Jonathan%Vo%NULL%1,                       Wei%Hou%NULL%1,                       Haifang%Li%NULL%1,                       Paul S%Richman%NULL%1,                       Sandeep K%Mallipattu%NULL%1,                       Hal A%Skopicki%NULL%1,                       Adam J%Singer%NULL%1,                       Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,            Xiufang%Wang%xref no email%2,            Jian%Chen%xref no email%0,            Hongmei%Zhang%xref no email%2,            Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                       Julien%Moragny%NULL%2,                       Julien%Moragny%NULL%0,                       Youssef%Bennis%NULL%1,                       Benjamin%Batteux%NULL%1,                       Etienne%Brochot%NULL%1,                       Jean Luc%Schmit%NULL%1,                       Jean-Philippe%Lanoix%NULL%1,                       Claire%Andrejak%NULL%1,                       Olivier%Ganry%NULL%1,                       Michel%Slama%NULL%1,                       Julien%Maizel%NULL%1,                       Yazine%Mahjoub%NULL%1,                       Kamel%Masmoudi%NULL%1,                       Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                       Yi%Liu%NULL%0,                       Keliang%Chen%NULL%1,                       Suying%Yan%NULL%1,                       Xiangrong%Bai%NULL%1,                       Juan%Li%947281063@qq.com%1,                       Dong%Liu%ld2069@outlook.com%2,                       Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                       Javier%López-Pais%NULL%1,                       Carla Eugenia%Cacho-Antonio%NULL%1,                       Pablo José%Antúnez-Muiños%NULL%1,                       Teba%González-Ferrero%NULL%1,                       Marta%Pérez-Poza%NULL%1,                       Óscar%Otero-García%NULL%1,                       Brais%Díaz-Fernández%NULL%1,                       María%Bastos-Fernández%NULL%1,                       Noelia%Bouzas-Cruz%NULL%1,                       Xoan Carlos%Sanmartín-Pena%NULL%1,                       Alfonso%Varela-Román%NULL%1,                       Manuel%Portela-Romero%NULL%1,                       Luis%Valdés-Cuadrado%NULL%1,                       Antonio%Pose-Reino%NULL%1,                       José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                       Federico%Rea%NULL%1,                       Monica%Ludergnani%NULL%4,                       Monica%Ludergnani%NULL%0,                       Giovanni%Apolone%NULL%1,                       Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,          Hisao%Ogawa%null%2,          Kazuo%Kimura%null%2,          Masaaki%Konishi%null%2,          Jin%Kirigaya%null%2,          Kazuki%Fukui%null%2,          Kengo%Tsukahara%null%2,          Hiroyuki%Shimizu%null%2,          Keisuke%Iwabuchi%null%2,          Yu%Yamada%null%2,          Kenichiro%Saka%null%2,          Ichiro%Takeuchi%null%2,          Toshio%Hirano%null%2,          Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                       Guohui%Xiao%NULL%1,                       Juanjuan%Zhang%NULL%1,                       Xing%He%NULL%1,                       Min%Ou%NULL%1,                       Jing%Bi%NULL%1,                       Rongqing%Yang%NULL%1,                       Wencheng%Di%NULL%1,                       Zhaoqin%Wang%NULL%1,                       Zigang%Li%NULL%1,                       Hong%Gao%NULL%1,                       Lei%Liu%NULL%1,                       Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                       Francisca%García-Iglesias%NULL%1,                       Teresa%González-Alegre%NULL%1,                       Francisco%Blanco%NULL%1,                       Marta%Varas%NULL%1,                       Clara%Hernández-Blanco%NULL%1,                       Victor%Hontañón%NULL%1,                       María J.%Jaras-Hernández%NULL%1,                       Mónica%Martínez-Prieto%NULL%1,                       Araceli%Menéndez-Saldaña%NULL%1,                       María L.%Cachán%NULL%1,                       Eva%Estirado%NULL%1,                       Carlos%Lahoz%NULL%1,                       Rosa%de Miguel%NULL%1,                       Miriam%Romero%NULL%1,                       Mar%Lago%NULL%1,                       Cristina%García-Quero%NULL%1,                       Cristina%Plaza%NULL%1,                       Talía%Sainz-Costa%NULL%1,                       Susana%Rivas-Vila%NULL%1,                       Blanca%Sánchez%NULL%1,                       Celia García%Torres%NULL%1,                       Lucía%Martínez-Tobar%NULL%1,                       María%Hernandez-Pérez%NULL%1,                       Pablo%Racionero%NULL%1,                       Patricia%Mir-Ihara%NULL%1,                       Jesús%Peña-López%NULL%1,                       Marta%Bautista-Barea%NULL%1,                       Alexa P.%Benítez%NULL%1,                       Pablo%Rodríguez-Merlos%NULL%1,                       María%Barcenilla%NULL%1,                       María San%Basilio%NULL%1,                       María%Valencia%NULL%1,                       Ricardo%Romero-Martín%NULL%1,                       Ana%Boto de los Bueis%NULL%1,                       Adriana%de la Hoz-Polo%NULL%1,                       María%del Pino-Cidad%NULL%1,                       Javier%Coca-Robinot%NULL%1,                       Bárbara%González-Ferrer%NULL%1,                       Pedro%Fernández-Pérez%NULL%1,                       Isabel%Mogollón%NULL%1,                       María S.%Montoro-Romero%NULL%1,                       Isabel%Villalaín%NULL%1,                       Almudena%del Hierro-Zarzuelo%NULL%1,                       Irene%Hernández-Martín%NULL%1,                       Javier%Domínguez%NULL%1,                       Alberto%Luna%NULL%1,                       Soledad%Montoro%NULL%1,                       Margarita%Sánchez-Orgaz%NULL%1,                       Gloria%Amorena%NULL%1,                       Cosme%Lavín-Dapena%NULL%1,                       Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                       Stanislas%Gleye%NULL%1,                       Isabelle%Clerc Urmes%NULL%1,                       Elodie%Laugel%NULL%1,                       Jonas%Callet%NULL%1,                       Françoise%Barbé%NULL%1,                       Sophie%Orlowski%NULL%1,                       Catherine%Malaplate%NULL%1,                       Isabelle%Aimone-Gastin%NULL%1,                       Beatrice Maatem%Caillierez%NULL%1,                       Marc%Merten%NULL%1,                       Elise%Jeannesson%NULL%1,                       Raphaël%Kormann%NULL%1,                       Jean-Luc%Olivier%NULL%1,                       Rosa-Maria%Rodriguez-Guéant%NULL%1,                       Farès%Namour%NULL%1,                       Sybille%Bevilacqua%NULL%1,                       Marie-Reine%Losser%NULL%1,                       Bruno%Levy%NULL%1,                       Antoine%Kimmoun%NULL%1,                       Sébastien%Gibot%NULL%1,                       Nathalie%Thilly%NULL%1,                       Luc%Frimat%NULL%1,                       Evelyne%Schvoerer%NULL%1,                       Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,            Jishou%Zhang%xref no email%2,            Menglong%Wang%xref no email%2,            Jing%Ye%xref no email%2,            Yao%Xu%xref no email%2,            Bo%Shen%xref no email%2,            Hua%He%xref no email%2,            Zhen%Wang%xref no email%2,            Di%Ye%xref no email%2,            Mengmeng%Zhao%xref no email%2,            Zhen%Luo%xref no email%2,            Mingxiao%Liu%xref no email%2,            Pingan%Zhang%xref no email%2,            Jian%Gu%xref no email%2,            Menglin%Liu%xref no email%2,            Dan%Li%xref no email%2,            Jianfang%Liu%xref no email%2,            Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                       Samrachana%Adhikari%NULL%1,                       Claudia%Pulgarin%NULL%1,                       Andrea B.%Troxel%NULL%1,                       Eduardo%Iturrate%NULL%1,                       Stephen B.%Johnson%NULL%1,                       Anaïs%Hausvater%NULL%1,                       Jonathan D.%Newman%NULL%1,                       Jeffrey S.%Berger%NULL%1,                       Sripal%Bangalore%NULL%1,                       Stuart D.%Katz%NULL%1,                       Glenn I.%Fishman%NULL%1,                       Dennis%Kunichoff%NULL%1,                       Yu%Chen%NULL%1,                       Gbenga%Ogedegbe%NULL%1,                       Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,                Becker%L.B.%coreGivesNoEmail%3,                Chelico%J.D.%coreGivesNoEmail%3,                Cohen%S.L.%coreGivesNoEmail%3,                Cookingham%J.%coreGivesNoEmail%3,                Coppa%K.%coreGivesNoEmail%3,                Crawford%J.M.%coreGivesNoEmail%3,                Davidson%K.W.%coreGivesNoEmail%3,                Diefenbach%M.A.%coreGivesNoEmail%3,                Dominello%A.J.%coreGivesNoEmail%3,                Duer-Hefele%J.%coreGivesNoEmail%3,                Falzon%L.%coreGivesNoEmail%3,                Gitlin%J.%coreGivesNoEmail%3,                Hajizadeh%N.%coreGivesNoEmail%3,                Harvin%T.G.%coreGivesNoEmail%3,                Hirsch%J.S.%coreGivesNoEmail%3,                Hirschwerk%D.A.%coreGivesNoEmail%3,                Kim%E.J.%coreGivesNoEmail%3,                Kozel%Z.M.%coreGivesNoEmail%3,                Marrast%L.M.%coreGivesNoEmail%3,                McGinn%T.%coreGivesNoEmail%3,                Mogavero%J.N.%coreGivesNoEmail%3,                Narasimhan%M.%coreGivesNoEmail%3,                Osorio%G.A.%coreGivesNoEmail%3,                Qiu%M.%coreGivesNoEmail%3,                Richardson%S.%coreGivesNoEmail%3,                Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                       Massimiliano%Marino%NULL%3,                       Debora%Formisano%NULL%1,                       Francesco%Venturelli%NULL%1,                       Massimo%Vicentini%NULL%3,                       Massimo%Vicentini%NULL%0,                       Roberto%Grilli%NULL%2,                       NULL%NULL%NULL%0,                       Gianluigi%Forloni%NULL%8,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0,                       Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                       Paolo%Maggi%NULL%2,                       Paolo%Maggi%NULL%0,                       Vincenzo%Messina%NULL%1,                       Pasquale%Iuliano%NULL%2,                       Pasquale%Iuliano%NULL%0,                       Antonio%Sardu%NULL%1,                       Vincenzo%Iovinella%NULL%1,                       Giuseppe%Paolisso%NULL%1,                       Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                       Rasimcan%Meral%NULL%1,                       Alpay%Medetalibeyoğlu%NULL%1,                       Hilal%Konyaoğlu%NULL%1,                       Murat%Köse%NULL%1,                       Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%4,            Jack%Owens%xref no email%1,            James%Franklin%xref no email%1,            Yash%Jani%xref no email%1,            Ashish%Kumar%xref no email%1,            Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                       Yun%Qiu%NULL%1,                       Xiang-Bin%Xing%NULL%1,                       Subrata%Ghosh%NULL%1,                       Min-Hu%Chen%NULL%1,                       Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                       Maddalena%Giannella%NULL%1,                       Michele%Bartoletti%NULL%1,                       Filippo%Trapani%NULL%1,                       Marina%Tadolini%NULL%1,                       Claudio%Borghi%NULL%1,                       Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                       Marco%Massari%NULL%3,                       Marco%Massari%NULL%0,                       Roberto%Da Cas%NULL%2,                       Francesca%Menniti Ippolito%NULL%2,                       Janet%Sultana%NULL%2,                       Salvatore%Crisafulli%NULL%2,                       Paolo%Giorgi Rossi%NULL%2,                       Massimiliano%Marino%NULL%0,                       Manuel%Zorzi%NULL%2,                       Emanuela%Bovo%NULL%2,                       Olivia%Leoni%NULL%2,                       Monica%Ludergnani%NULL%0,                       Stefania%Spila Alegiani%stefania.spila@iss.it%2,                       Stefania%Spila Alegiani%NULL%0,                       Francesca%Menniti Ippolito%NULL%0,                       Roberto%Da Cas%NULL%0,                       Marco%Massari%NULL%0,                       Giuseppe%Traversa%NULL%1,                       Graziano%Onder%NULL%1,                       Gianluca%Trifirò%NULL%1,                       Janet%Sultana%NULL%0,                       Valentina%Ientile%NULL%1,                       Salvatore%Crisafulli%NULL%0,                       Paolo%Giorgi Rossi%NULL%0,                       Roberto%Grilli%NULL%0,                       Giulio%Formoso%NULL%1,                       Massimiliano%Marino%NULL%0,                       Massimo%Vicentini%NULL%0,                       Olivia%Leoni%NULL%0,                       Monica%Ludergnani%NULL%0,                       Danilo%Cereda%NULL%1,                       Eliana%Ferroni%NULL%1,                       Stefano%Guzzinati%NULL%1,                       Emanuela%Bovo%NULL%0,                       Manuel%Zorzi%NULL%0,                       Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                       Chaolin%Huang%NULL%1,                       Guohui%Fan%NULL%1,                       Zhibo%Liu%NULL%1,                       Lianhan%Shang%NULL%1,                       Fei%Zhou%NULL%1,                       Yeming%Wang%NULL%1,                       Jiapei%Yu%NULL%1,                       Luning%Yang%NULL%1,                       Ke%Xie%NULL%1,                       Zhisheng%Huang%NULL%1,                       Lixue%Huang%NULL%1,                       Xiaoying%Gu%NULL%1,                       Hui%Li%NULL%1,                       Yi%Zhang%NULL%0,                       Yimin%Wang%NULL%1,                       Frederick G.%Hayden%NULL%1,                       Peter W.%Horby%NULL%1,                       Bin%Cao%caobin_ben@163.com%1,                       Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,            Zihu%Tan%xref no email%3,            Ling%Zhou%xref no email%3,            Min%Yang%xref no email%3,            Lang%Peng%xref no email%3,            Jinjin%Liu%xref no email%3,            Jingling%Cai%xref no email%3,            Ru%Yang%xref no email%3,            Junyan%Han%xref no email%3,            Yafei%Huang%xref no email%3,            Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                       Dan%Liu%NULL%1,                       Shaoqing%Zeng%NULL%1,                       Siyuan%Wang%NULL%1,                       Sen%Xu%NULL%1,                       Ya%Wang%NULL%1,                       Ruidi%Yu%NULL%1,                       Yue%Gao%NULL%1,                       Huayi%Li%NULL%1,                       Xinxia%Feng%NULL%1,                       Ning%Zhou%NULL%0,                       Chunxia%Zhao%NULL%1,                       Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                       Lihua%Zhu%NULL%1,                       Jingjing%Cai%NULL%1,                       Fang%Lei%NULL%1,                       Juan-Juan%Qin%NULL%1,                       Jing%Xie%NULL%1,                       Ye-Mao%Liu%NULL%1,                       Yan-Ci%Zhao%NULL%1,                       Xuewei%Huang%NULL%1,                       Lijin%Lin%NULL%1,                       Meng%Xia%NULL%1,                       Ming-Ming%Chen%NULL%1,                       Xu%Cheng%NULL%1,                       Xiao%Zhang%NULL%1,                       Deliang%Guo%NULL%1,                       Yuanyuan%Peng%NULL%1,                       Yan-Xiao%Ji%NULL%1,                       Jing%Chen%NULL%1,                       Zhi-Gang%She%NULL%1,                       Yibin%Wang%NULL%0,                       Qingbo%Xu%NULL%1,                       Renfu%Tan%NULL%1,                       Haitao%Wang%NULL%1,                       Jun%Lin%NULL%1,                       Pengcheng%Luo%NULL%1,                       Shouzhi%Fu%NULL%1,                       Hongbin%Cai%NULL%1,                       Ping%Ye%NULL%1,                       Bing%Xiao%NULL%1,                       Weiming%Mao%NULL%1,                       Liming%Liu%NULL%1,                       Youqin%Yan%NULL%1,                       Mingyu%Liu%NULL%1,                       Manhua%Chen%NULL%1,                       Xiao-Jing%Zhang%NULL%1,                       Xinghuan%Wang%NULL%1,                       Rhian M.%Touyz%NULL%1,                       Jiahong%Xia%NULL%1,                       Bing-Hong%Zhang%NULL%1,                       Xiaodong%Huang%NULL%1,                       Yufeng%Yuan%NULL%1,                       Rohit%Loomba%NULL%1,                       Peter P.%Liu%NULL%1,                       Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4096,7 +4237,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>1007</v>
+        <v>1050</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -4108,7 +4249,7 @@
         <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>373</v>
+        <v>1051</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -4188,7 +4329,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>1008</v>
+        <v>1052</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -4200,7 +4341,7 @@
         <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>373</v>
+        <v>1051</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -4234,7 +4375,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>1009</v>
+        <v>1053</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -4246,7 +4387,7 @@
         <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -4280,7 +4421,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>1010</v>
+        <v>1055</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -4292,7 +4433,7 @@
         <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -4326,7 +4467,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>1011</v>
+        <v>1056</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -4338,7 +4479,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -4372,7 +4513,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>1012</v>
+        <v>1057</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -4384,7 +4525,7 @@
         <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>373</v>
+        <v>1051</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -4418,7 +4559,7 @@
         <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>1013</v>
+        <v>1058</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -4430,7 +4571,7 @@
         <v>568</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -4464,7 +4605,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>1014</v>
+        <v>1060</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -4476,7 +4617,7 @@
         <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -4510,7 +4651,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>1015</v>
+        <v>1061</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4522,7 +4663,7 @@
         <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -4556,7 +4697,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>1016</v>
+        <v>1062</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -4568,7 +4709,7 @@
         <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -4602,7 +4743,7 @@
         <v>756</v>
       </c>
       <c r="E13" t="s">
-        <v>1017</v>
+        <v>1063</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -4614,7 +4755,7 @@
         <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>383</v>
+        <v>1064</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -4648,7 +4789,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>1018</v>
+        <v>1065</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -4660,7 +4801,7 @@
         <v>63</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -4694,7 +4835,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>1019</v>
+        <v>1066</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -4706,7 +4847,7 @@
         <v>576</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -4740,7 +4881,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>1020</v>
+        <v>1067</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -4752,7 +4893,7 @@
         <v>104</v>
       </c>
       <c r="I16" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -4786,7 +4927,7 @@
         <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>1021</v>
+        <v>1068</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -4798,7 +4939,7 @@
         <v>109</v>
       </c>
       <c r="I17" t="s">
-        <v>383</v>
+        <v>1064</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -4832,7 +4973,7 @@
         <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>1022</v>
+        <v>1069</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4844,7 +4985,7 @@
         <v>568</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -4878,7 +5019,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>1023</v>
+        <v>1070</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -4890,7 +5031,7 @@
         <v>113</v>
       </c>
       <c r="I19" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -4924,7 +5065,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>1024</v>
+        <v>1071</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -4936,7 +5077,7 @@
         <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -4970,7 +5111,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>1025</v>
+        <v>1072</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -4982,7 +5123,7 @@
         <v>63</v>
       </c>
       <c r="I21" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -5016,7 +5157,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>1026</v>
+        <v>1073</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -5028,7 +5169,7 @@
         <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -5062,7 +5203,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>1027</v>
+        <v>1074</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -5074,7 +5215,7 @@
         <v>568</v>
       </c>
       <c r="I23" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -5108,7 +5249,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>1028</v>
+        <v>1075</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -5120,7 +5261,7 @@
         <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -5154,7 +5295,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>1029</v>
+        <v>1076</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -5166,7 +5307,7 @@
         <v>136</v>
       </c>
       <c r="I25" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -5200,7 +5341,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>1030</v>
+        <v>1077</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -5212,7 +5353,7 @@
         <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>373</v>
+        <v>1051</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -5246,7 +5387,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>1031</v>
+        <v>1078</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -5258,7 +5399,7 @@
         <v>63</v>
       </c>
       <c r="I27" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -5292,7 +5433,7 @@
         <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>1032</v>
+        <v>1079</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -5304,7 +5445,7 @@
         <v>149</v>
       </c>
       <c r="I28" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -5338,7 +5479,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>1033</v>
+        <v>1080</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -5350,7 +5491,7 @@
         <v>154</v>
       </c>
       <c r="I29" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -5384,7 +5525,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>1034</v>
+        <v>1081</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -5396,7 +5537,7 @@
         <v>159</v>
       </c>
       <c r="I30" t="s">
-        <v>373</v>
+        <v>1051</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -5430,7 +5571,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>1035</v>
+        <v>1082</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -5442,7 +5583,7 @@
         <v>131</v>
       </c>
       <c r="I31" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -5476,7 +5617,7 @@
         <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>1036</v>
+        <v>1083</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -5488,7 +5629,7 @@
         <v>568</v>
       </c>
       <c r="I32" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -5522,7 +5663,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>1037</v>
+        <v>1084</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -5534,7 +5675,7 @@
         <v>63</v>
       </c>
       <c r="I33" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -5568,7 +5709,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>1038</v>
+        <v>1085</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -5580,7 +5721,7 @@
         <v>63</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -5614,7 +5755,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>1039</v>
+        <v>1086</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -5626,7 +5767,7 @@
         <v>172</v>
       </c>
       <c r="I35" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -5660,7 +5801,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>1040</v>
+        <v>1087</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -5672,7 +5813,7 @@
         <v>113</v>
       </c>
       <c r="I36" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -5706,7 +5847,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>1041</v>
+        <v>1088</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -5718,7 +5859,7 @@
         <v>181</v>
       </c>
       <c r="I37" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -5752,7 +5893,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>1042</v>
+        <v>1089</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -5764,7 +5905,7 @@
         <v>606</v>
       </c>
       <c r="I38" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -5798,7 +5939,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>1043</v>
+        <v>1090</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -5810,7 +5951,7 @@
         <v>63</v>
       </c>
       <c r="I39" t="s">
-        <v>373</v>
+        <v>1051</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -5844,7 +5985,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>1044</v>
+        <v>1091</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -5856,7 +5997,7 @@
         <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -5890,7 +6031,7 @@
         <v>786</v>
       </c>
       <c r="E41" t="s">
-        <v>1045</v>
+        <v>1092</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -5902,7 +6043,7 @@
         <v>63</v>
       </c>
       <c r="I41" t="s">
-        <v>383</v>
+        <v>1064</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -5936,7 +6077,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>1046</v>
+        <v>1093</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -5948,7 +6089,7 @@
         <v>196</v>
       </c>
       <c r="I42" t="s">
-        <v>383</v>
+        <v>1064</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -5982,7 +6123,7 @@
         <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>1047</v>
+        <v>1094</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -5994,7 +6135,7 @@
         <v>568</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
+        <v>1059</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -6028,7 +6169,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>1048</v>
+        <v>1095</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -6040,7 +6181,7 @@
         <v>200</v>
       </c>
       <c r="I44" t="s">
-        <v>373</v>
+        <v>1051</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -6074,7 +6215,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>1049</v>
+        <v>1096</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>
@@ -6086,7 +6227,7 @@
         <v>205</v>
       </c>
       <c r="I45" t="s">
-        <v>376</v>
+        <v>1054</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7381" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7696" uniqueCount="1140">
   <si>
     <t>Doi</t>
   </si>
@@ -3809,6 +3809,135 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,                       Lihua%Zhu%NULL%1,                       Jingjing%Cai%NULL%1,                       Fang%Lei%NULL%1,                       Juan-Juan%Qin%NULL%1,                       Jing%Xie%NULL%1,                       Ye-Mao%Liu%NULL%1,                       Yan-Ci%Zhao%NULL%1,                       Xuewei%Huang%NULL%1,                       Lijin%Lin%NULL%1,                       Meng%Xia%NULL%1,                       Ming-Ming%Chen%NULL%1,                       Xu%Cheng%NULL%1,                       Xiao%Zhang%NULL%1,                       Deliang%Guo%NULL%1,                       Yuanyuan%Peng%NULL%1,                       Yan-Xiao%Ji%NULL%1,                       Jing%Chen%NULL%1,                       Zhi-Gang%She%NULL%1,                       Yibin%Wang%NULL%0,                       Qingbo%Xu%NULL%1,                       Renfu%Tan%NULL%1,                       Haitao%Wang%NULL%1,                       Jun%Lin%NULL%1,                       Pengcheng%Luo%NULL%1,                       Shouzhi%Fu%NULL%1,                       Hongbin%Cai%NULL%1,                       Ping%Ye%NULL%1,                       Bing%Xiao%NULL%1,                       Weiming%Mao%NULL%1,                       Liming%Liu%NULL%1,                       Youqin%Yan%NULL%1,                       Mingyu%Liu%NULL%1,                       Manhua%Chen%NULL%1,                       Xiao-Jing%Zhang%NULL%1,                       Xinghuan%Wang%NULL%1,                       Rhian M.%Touyz%NULL%1,                       Jiahong%Xia%NULL%1,                       Bing-Hong%Zhang%NULL%1,                       Xiaodong%Huang%NULL%1,                       Yufeng%Yuan%NULL%1,                       Rohit%Loomba%NULL%1,                       Peter P.%Liu%NULL%1,                       Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                        Sandra%Santos-Martinez%NULL%1,                        Diego%López-Otero%NULL%1,                        Luis%Nombela-Franco%NULL%1,                        Enrique%Gutiérrez-Ibanes%NULL%1,                        Raquel%Del Valle%NULL%1,                        Erika%Muñoz-García%NULL%1,                        Víctor A.%Jiménez-Diaz%NULL%1,                        Ander%Regueiro%NULL%1,                        Rocío%González-Ferreiro%NULL%1,                        Tomás%Benito%NULL%1,                        Xoan Carlos%Sanmartin-Pena%NULL%1,                        Pablo%Catalá%NULL%1,                        Tania%Rodríguez-Gabella%NULL%1,                        Jose Raúl%Delgado-Arana%NULL%1,                        Manuel%Carrasco-Moraleja%NULL%1,                        Borja%Ibañez%NULL%1,                        J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                        David M.%Tehrani%NULL%1,                        Soniya V.%Rabadia%NULL%1,                        Marlene%Frost%NULL%1,                        Rushi V.%Parikh%NULL%1,                        Marcella%Calfon-Press%NULL%1,                        Olcay%Aksoy%NULL%1,                        Soban%Umar%NULL%1,                        Reza%Ardehali%NULL%1,                        Amir%Rabbani%NULL%1,                        Pooya%Bokhoor%NULL%1,                        Ali%Nsair%NULL%1,                        Jesse%Currier%NULL%1,                        Jonathan%Tobis%NULL%1,                        Gregg C.%Fonarow%NULL%1,                        Ravi%Dave%NULL%1,                        Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                        Zeljko%Kraljevic%NULL%1,                        Thomas%Searle%NULL%1,                        Rebecca%Bendayan%NULL%1,                        O'Gallagher%Kevin%NULL%1,                        Andrew%Pickles%NULL%1,                        Amos%Folarin%NULL%1,                        Lukasz%Roguski%NULL%1,                        Kawsar%Noor%NULL%1,                        Anthony%Shek%NULL%1,                        Rosita%Zakeri%NULL%1,                        Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                        James T.H.%Teo%jamesteo@nhs.net%1,                        Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                        Mauro%Chiarito%NULL%1,                        Bernhard%Reimers%NULL%2,                        Bernhard%Reimers%NULL%0,                        Elena%Azzolini%NULL%1,                        Giuseppe%Ferrante%NULL%1,                        Ilaria%My%NULL%1,                        Giacomo%Viggiani%NULL%1,                        Cristina%Panico%NULL%1,                        Damiano%Regazzoli%NULL%1,                        Michele%Ciccarelli%NULL%1,                        Antonio%Voza%NULL%1,                        Alessio%Aghemo%NULL%1,                        Hongliang%Li%NULL%2,                        Yibin%Wang%NULL%2,                        Gianluigi%Condorelli%NULL%1,                        Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                        Feng%Wang%NULL%1,                        Peng%Chen%NULL%1,                        Jiangang%Jiang%NULL%1,                        Guanglin%Cui%NULL%1,                        Ning%Zhou%NULL%2,                        Francesco%Moroni%NULL%1,                        Javid J.%Moslehi%NULL%1,                        Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                        Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                        Ming%Zhong%NULL%1,                        Ya%Liu%NULL%1,                        Yi%Zhang%NULL%2,                        Kai%Zhang%NULL%1,                        De-zhen%Su%NULL%1,                        Xiao%Meng%NULL%1,                        Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%2,             Dong%Yang%xref no email%2,             Biao%Cheng%xref no email%2,             Jian%Chen%xref no email%4,             Anlin%Peng%xref no email%2,             Chen%Yang%xref no email%2,             Chong%Liu%xref no email%2,             Mingrui%Xiong%xref no email%2,             Aiping%Deng%xref no email%4,             Yu%Zhang%xref no email%2,             Ling%Zheng%xref no email%2,             Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                        Duncan%Young%NULL%2,                        Duncan%Young%NULL%0,                        Carol%Coupland%NULL%1,                        Keith M%Channon%NULL%1,                        Pui San%Tan%NULL%1,                        David A%Harrison%NULL%1,                        Kathryn%Rowan%NULL%2,                        Kathryn%Rowan%NULL%0,                        Paul%Aveyard%NULL%1,                        Ian D%Pavord%NULL%1,                        Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,                 Butt%Jawad H%coreGivesNoEmail%1,                 Fosb\u00f8l%Emil L%coreGivesNoEmail%1,                 Gerds%Thomas A%coreGivesNoEmail%1,                 Gislason%Gunnar H%coreGivesNoEmail%1,                 Kragholm%Kristian%coreGivesNoEmail%1,                 K\u00f8ber%Lars%coreGivesNoEmail%1,                 Phelps%Matthew%coreGivesNoEmail%1,                 Schou%Morten%coreGivesNoEmail%1,                 Selmer%Christian%coreGivesNoEmail%1,                 Torp-Pedersen%Christian%coreGivesNoEmail%1,                 \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                        Yue%Cai%NULL%1,                        Kan%Zhang%NULL%2,                        Kan%Zhang%NULL%0,                        Lei%Zhou%NULL%1,                        Yao%Zhang%NULL%1,                        Xijing%Zhang%NULL%1,                        Qi%Li%NULL%1,                        Weiqin%Li%NULL%1,                        Shiming%Yang%NULL%1,                        Xiaoyan%Zhao%NULL%1,                        Yuying%Zhao%NULL%1,                        Hui%Wang%NULL%1,                        Yi%Liu%NULL%2,                        Zhiyong%Yin%NULL%1,                        Ruining%Zhang%NULL%1,                        Rutao%Wang%NULL%1,                        Ming%Yang%NULL%1,                        Chen%Hui%NULL%1,                        William%Wijns%NULL%1,                        J William%McEvoy%NULL%1,                        Osama%Soliman%NULL%2,                        Osama%Soliman%NULL%0,                        Yoshinobu%Onuma%NULL%2,                        Yoshinobu%Onuma%NULL%0,                        Patrick W%Serruys%NULL%1,                        Ling%Tao%lingtao@fmmu.edu.cn%1,                        Fei%Li%lifei01@fmmu.edu.cn%2,                        Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                        Erkan%Ekicibasi%NULL%1,                        Aleks%Degirmencioglu%NULL%1,                        Ashok%Paudel%NULL%1,                        Refik%Erdim%NULL%1,                        Hilal Kurtoglu%Gumusel%NULL%1,                        Elif%Eroglu%NULL%1,                        Ibrahim Halil%Tanboga%NULL%1,                        Sinan%Dagdelen%NULL%1,                        Nevin%Sariguzel%NULL%1,                        Ceyda Erel%Kirisoglu%NULL%1,                        Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,                 Antonelli%M.%coreGivesNoEmail%2,                 Bellani%G.%coreGivesNoEmail%2,                 Bonanomi%E.%coreGivesNoEmail%2,                 Cabrini%L.%coreGivesNoEmail%2,                 Carlesso%E.%coreGivesNoEmail%2,                 Castelli%G.%coreGivesNoEmail%2,                 Cattaneo%S.%coreGivesNoEmail%2,                 Cecconi%M.%coreGivesNoEmail%2,                 Cereda%D.%coreGivesNoEmail%2,                 Colombo%S.%coreGivesNoEmail%2,                 Coluccello%A.%coreGivesNoEmail%2,                 Crescini%G.%coreGivesNoEmail%2,                 Forastieri%Molinari A.%coreGivesNoEmail%2,                 Foti%G.%coreGivesNoEmail%2,                 Fumagalli%R.%coreGivesNoEmail%2,                 Grasselli%G.%coreGivesNoEmail%2,                 Greco%M.%coreGivesNoEmail%2,                 Iotti%G. A.%coreGivesNoEmail%2,                 Langer%T.%coreGivesNoEmail%2,                 Latronico%N.%coreGivesNoEmail%2,                 Lorini%F. L.%coreGivesNoEmail%2,                 Mojoli%F.%coreGivesNoEmail%2,                 Natalini%G.%coreGivesNoEmail%2,                 Pesenti%A.%coreGivesNoEmail%2,                 Pessina%C. M.%coreGivesNoEmail%2,                 Ranieri%V. M.%coreGivesNoEmail%2,                 Rech%R.%coreGivesNoEmail%2,                 Rosano%A.%coreGivesNoEmail%2,                 Scudeller%L.%coreGivesNoEmail%2,                 Storti%E.%coreGivesNoEmail%2,                 Thompson%B. T.%coreGivesNoEmail%2,                 Tirani%M.%coreGivesNoEmail%2,                 Villani%P. G.%coreGivesNoEmail%2,                 Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%1,             Yueli%Zhu%xref no email%1,             Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                        Jiatian%Cao%NULL%1,                        Yumeng%Yao%NULL%1,                        Xuejuan%Jin%NULL%1,                        Zhe%Luo%NULL%1,                        Yuan%Xue%NULL%1,                        Chouwen%Zhu%NULL%1,                        Yanan%Song%NULL%1,                        Ying%Wang%NULL%1,                        Yunzeng%Zou%NULL%1,                        Juying%Qian%NULL%1,                        Kaihuan%Yu%NULL%1,                        Hui%Gong%NULL%1,                        Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                        Ju-Hyun%Kim%NULL%1,                        Jin-Sung%Park%NULL%1,                        Min Cheol%Chang%wheel633@ynu.ac.kr%1,                        Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%1,             Guido%Grassi%xref no email%1,             Claudio%Borghi%xref no email%1,             Claudio%Ferri%xref no email%1,             Massimo%Salvetti%xref no email%1,             Massimo%Volpe%xref no email%1,             Arrigo F.G.%Cicero%xref no email%1,             Pietro%Minuz%xref no email%1,             Maria Lorenza%Muiesan%xref no email%1,             Paolo%Mulatero%xref no email%1,             Giuseppe%Mul\u00e8%xref no email%1,             Giacomo%Pucci%xref no email%1,             Carmine%Savoia%xref no email%1,             Leonardo%Sechi%xref no email%1,             Stefano%Carugo%xref no email%1,             Francesco%Fallo%xref no email%1,             Cristina%Giannattasio%xref no email%1,             Davide%Grassi%xref no email%1,             Claudio%Letizia%xref no email%1,             Stefano%Perlini%xref no email%1,             Damiano%Rizzoni%xref no email%1,             Riccardo%Sarzani%xref no email%1,             Giuliano%Tocci%xref no email%1,             Franco%Veglio%xref no email%1,             Claudia%Agabiti Rosei%xref no email%1,             Michele%Bevilacqua%xref no email%1,             Valeria%Bisogni%xref no email%1,             Michele%Bombelli%xref no email%1,             Luca%Bulfone%xref no email%1,             Flaminia%Canichella%xref no email%1,             Giovanni%Carpani%xref no email%1,             Massimo%Catanuso%xref no email%1,             Giulia%Chiarini%xref no email%1,             Fernando%Chiumiento%xref no email%1,             Rosario%Cianci%xref no email%1,             Franco%Cipollini%xref no email%1,             Antonio%Concistr\u00e8%xref no email%1,             Andrea%Dalbeni%xref no email%1,             Roberto Alberto%De Blasi%xref no email%1,             Carolina%De Ciuceis%xref no email%1,             Raffaella%Dell\u2019Oro%xref no email%1,             Antonino%Di Guardo%xref no email%1,             Santo%Di Lorenzo%xref no email%1,             Monica%Di Norcia%xref no email%1,             Roberto%Ervo%xref no email%1,             Elisabetta%Eula%xref no email%1,             Davide%Fabbricatore%xref no email%1,             Elvira%Fanelli%xref no email%1,             Cristiano%Fava%xref no email%1,             Enzo%Grasso%xref no email%1,             Alessandro%Grimaldi%xref no email%1,             Maddalena%Illario%xref no email%1,             Claudio%Invernizzi%xref no email%1,             Elena%Iraca%xref no email%1,             Federica%Liegi%xref no email%1,             Paolo%Malerba%xref no email%1,             Alessandro%Maloberti%xref no email%1,             Costantino%Mancusi%xref no email%1,             Giulia%Molinari%xref no email%1,             Roberta%Mussinelli%xref no email%1,             Anna%Paini%xref no email%1,             Paola%Pellimassi%xref no email%1,             Ornella%Piazza%xref no email%1,             Roberto%Pontremoli%xref no email%1,             Fosca%Quarti Tevano%xref no email%1,             Franco%Rabbia%xref no email%1,             Monica%Rocco%xref no email%1,             Anna%Sabena%xref no email%1,             Francesco%Salinaro%xref no email%1,             Paola%Schiavi%xref no email%1,             Maria Chiara%Sgariglia%xref no email%1,             Francesco%Spannella%xref no email%1,             Sara%Tedeschi%xref no email%1,             Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                        Raphael Romano%Bruno%NULL%1,                        Bernhard%Wernly%NULL%1,                        Michael%Joannidis%NULL%1,                        Sandra%Oeyen%NULL%1,                        Tilemachos%Zafeiridis%NULL%1,                        Brian%Marsh%NULL%1,                        Finn H%Andersen%NULL%1,                        Rui%Moreno%NULL%1,                        Ana Margarida%Fernandes%NULL%1,                        Antonio%Artigas%NULL%1,                        Bernardo Bollen%Pinto%NULL%1,                        Joerg%Schefold%NULL%1,                        Georg%Wolff%NULL%1,                        Malte%Kelm%NULL%2,                        Malte%Kelm%NULL%0,                        Dylan W%De Lange%NULL%1,                        Bertrand%Guidet%NULL%1,                        Hans%Flaatten%NULL%1,                        Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                        Jae Chol%Choi%NULL%1,                        Seung-Hun%You%NULL%1,                        Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                        Hamish%Reed-Embleton%NULL%2,                        Hamish%Reed-Embleton%NULL%0,                        Jen%Lewis%NULL%2,                        Jen%Lewis%NULL%0,                        Pamela%Bain%NULL%1,                        Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                        Kenneth W%Chow%NULL%1,                        Jonathan%Vo%NULL%1,                        Wei%Hou%NULL%1,                        Haifang%Li%NULL%1,                        Paul S%Richman%NULL%1,                        Sandeep K%Mallipattu%NULL%1,                        Hal A%Skopicki%NULL%1,                        Adam J%Singer%NULL%1,                        Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%2,             Xiufang%Wang%xref no email%2,             Jian%Chen%xref no email%0,             Hongmei%Zhang%xref no email%2,             Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                        Julien%Moragny%NULL%2,                        Julien%Moragny%NULL%0,                        Youssef%Bennis%NULL%1,                        Benjamin%Batteux%NULL%1,                        Etienne%Brochot%NULL%1,                        Jean Luc%Schmit%NULL%1,                        Jean-Philippe%Lanoix%NULL%1,                        Claire%Andrejak%NULL%1,                        Olivier%Ganry%NULL%1,                        Michel%Slama%NULL%1,                        Julien%Maizel%NULL%1,                        Yazine%Mahjoub%NULL%1,                        Kamel%Masmoudi%NULL%1,                        Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                        Yi%Liu%NULL%0,                        Keliang%Chen%NULL%1,                        Suying%Yan%NULL%1,                        Xiangrong%Bai%NULL%1,                        Juan%Li%947281063@qq.com%1,                        Dong%Liu%ld2069@outlook.com%2,                        Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                        Javier%López-Pais%NULL%1,                        Carla Eugenia%Cacho-Antonio%NULL%1,                        Pablo José%Antúnez-Muiños%NULL%1,                        Teba%González-Ferrero%NULL%1,                        Marta%Pérez-Poza%NULL%1,                        Óscar%Otero-García%NULL%1,                        Brais%Díaz-Fernández%NULL%1,                        María%Bastos-Fernández%NULL%1,                        Noelia%Bouzas-Cruz%NULL%1,                        Xoan Carlos%Sanmartín-Pena%NULL%1,                        Alfonso%Varela-Román%NULL%1,                        Manuel%Portela-Romero%NULL%1,                        Luis%Valdés-Cuadrado%NULL%1,                        Antonio%Pose-Reino%NULL%1,                        José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                        Federico%Rea%NULL%1,                        Monica%Ludergnani%NULL%4,                        Monica%Ludergnani%NULL%0,                        Giovanni%Apolone%NULL%1,                        Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,           Hisao%Ogawa%null%2,           Kazuo%Kimura%null%2,           Masaaki%Konishi%null%2,           Jin%Kirigaya%null%2,           Kazuki%Fukui%null%2,           Kengo%Tsukahara%null%2,           Hiroyuki%Shimizu%null%2,           Keisuke%Iwabuchi%null%2,           Yu%Yamada%null%2,           Kenichiro%Saka%null%2,           Ichiro%Takeuchi%null%2,           Toshio%Hirano%null%2,           Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                        Guohui%Xiao%NULL%1,                        Juanjuan%Zhang%NULL%1,                        Xing%He%NULL%1,                        Min%Ou%NULL%1,                        Jing%Bi%NULL%1,                        Rongqing%Yang%NULL%1,                        Wencheng%Di%NULL%1,                        Zhaoqin%Wang%NULL%1,                        Zigang%Li%NULL%1,                        Hong%Gao%NULL%1,                        Lei%Liu%NULL%1,                        Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                        Francisca%García-Iglesias%NULL%1,                        Teresa%González-Alegre%NULL%1,                        Francisco%Blanco%NULL%1,                        Marta%Varas%NULL%1,                        Clara%Hernández-Blanco%NULL%1,                        Victor%Hontañón%NULL%1,                        María J.%Jaras-Hernández%NULL%1,                        Mónica%Martínez-Prieto%NULL%1,                        Araceli%Menéndez-Saldaña%NULL%1,                        María L.%Cachán%NULL%1,                        Eva%Estirado%NULL%1,                        Carlos%Lahoz%NULL%1,                        Rosa%de Miguel%NULL%1,                        Miriam%Romero%NULL%1,                        Mar%Lago%NULL%1,                        Cristina%García-Quero%NULL%1,                        Cristina%Plaza%NULL%1,                        Talía%Sainz-Costa%NULL%1,                        Susana%Rivas-Vila%NULL%1,                        Blanca%Sánchez%NULL%1,                        Celia García%Torres%NULL%1,                        Lucía%Martínez-Tobar%NULL%1,                        María%Hernandez-Pérez%NULL%1,                        Pablo%Racionero%NULL%1,                        Patricia%Mir-Ihara%NULL%1,                        Jesús%Peña-López%NULL%1,                        Marta%Bautista-Barea%NULL%1,                        Alexa P.%Benítez%NULL%1,                        Pablo%Rodríguez-Merlos%NULL%1,                        María%Barcenilla%NULL%1,                        María San%Basilio%NULL%1,                        María%Valencia%NULL%1,                        Ricardo%Romero-Martín%NULL%1,                        Ana%Boto de los Bueis%NULL%1,                        Adriana%de la Hoz-Polo%NULL%1,                        María%del Pino-Cidad%NULL%1,                        Javier%Coca-Robinot%NULL%1,                        Bárbara%González-Ferrer%NULL%1,                        Pedro%Fernández-Pérez%NULL%1,                        Isabel%Mogollón%NULL%1,                        María S.%Montoro-Romero%NULL%1,                        Isabel%Villalaín%NULL%1,                        Almudena%del Hierro-Zarzuelo%NULL%1,                        Irene%Hernández-Martín%NULL%1,                        Javier%Domínguez%NULL%1,                        Alberto%Luna%NULL%1,                        Soledad%Montoro%NULL%1,                        Margarita%Sánchez-Orgaz%NULL%1,                        Gloria%Amorena%NULL%1,                        Cosme%Lavín-Dapena%NULL%1,                        Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                        Stanislas%Gleye%NULL%1,                        Isabelle%Clerc Urmes%NULL%1,                        Elodie%Laugel%NULL%1,                        Jonas%Callet%NULL%1,                        Françoise%Barbé%NULL%1,                        Sophie%Orlowski%NULL%1,                        Catherine%Malaplate%NULL%1,                        Isabelle%Aimone-Gastin%NULL%1,                        Beatrice Maatem%Caillierez%NULL%1,                        Marc%Merten%NULL%1,                        Elise%Jeannesson%NULL%1,                        Raphaël%Kormann%NULL%1,                        Jean-Luc%Olivier%NULL%1,                        Rosa-Maria%Rodriguez-Guéant%NULL%1,                        Farès%Namour%NULL%1,                        Sybille%Bevilacqua%NULL%1,                        Marie-Reine%Losser%NULL%1,                        Bruno%Levy%NULL%1,                        Antoine%Kimmoun%NULL%1,                        Sébastien%Gibot%NULL%1,                        Nathalie%Thilly%NULL%1,                        Luc%Frimat%NULL%1,                        Evelyne%Schvoerer%NULL%1,                        Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%2,             Jishou%Zhang%xref no email%2,             Menglong%Wang%xref no email%2,             Jing%Ye%xref no email%2,             Yao%Xu%xref no email%2,             Bo%Shen%xref no email%2,             Hua%He%xref no email%2,             Zhen%Wang%xref no email%2,             Di%Ye%xref no email%2,             Mengmeng%Zhao%xref no email%2,             Zhen%Luo%xref no email%2,             Mingxiao%Liu%xref no email%2,             Pingan%Zhang%xref no email%2,             Jian%Gu%xref no email%2,             Menglin%Liu%xref no email%2,             Dan%Li%xref no email%2,             Jianfang%Liu%xref no email%2,             Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                        Samrachana%Adhikari%NULL%1,                        Claudia%Pulgarin%NULL%1,                        Andrea B.%Troxel%NULL%1,                        Eduardo%Iturrate%NULL%1,                        Stephen B.%Johnson%NULL%1,                        Anaïs%Hausvater%NULL%1,                        Jonathan D.%Newman%NULL%1,                        Jeffrey S.%Berger%NULL%1,                        Sripal%Bangalore%NULL%1,                        Stuart D.%Katz%NULL%1,                        Glenn I.%Fishman%NULL%1,                        Dennis%Kunichoff%NULL%1,                        Yu%Chen%NULL%1,                        Gbenga%Ogedegbe%NULL%1,                        Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,                 Becker%L.B.%coreGivesNoEmail%3,                 Chelico%J.D.%coreGivesNoEmail%3,                 Cohen%S.L.%coreGivesNoEmail%3,                 Cookingham%J.%coreGivesNoEmail%3,                 Coppa%K.%coreGivesNoEmail%3,                 Crawford%J.M.%coreGivesNoEmail%3,                 Davidson%K.W.%coreGivesNoEmail%3,                 Diefenbach%M.A.%coreGivesNoEmail%3,                 Dominello%A.J.%coreGivesNoEmail%3,                 Duer-Hefele%J.%coreGivesNoEmail%3,                 Falzon%L.%coreGivesNoEmail%3,                 Gitlin%J.%coreGivesNoEmail%3,                 Hajizadeh%N.%coreGivesNoEmail%3,                 Harvin%T.G.%coreGivesNoEmail%3,                 Hirsch%J.S.%coreGivesNoEmail%3,                 Hirschwerk%D.A.%coreGivesNoEmail%3,                 Kim%E.J.%coreGivesNoEmail%3,                 Kozel%Z.M.%coreGivesNoEmail%3,                 Marrast%L.M.%coreGivesNoEmail%3,                 McGinn%T.%coreGivesNoEmail%3,                 Mogavero%J.N.%coreGivesNoEmail%3,                 Narasimhan%M.%coreGivesNoEmail%3,                 Osorio%G.A.%coreGivesNoEmail%3,                 Qiu%M.%coreGivesNoEmail%3,                 Richardson%S.%coreGivesNoEmail%3,                 Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                        Massimiliano%Marino%NULL%3,                        Debora%Formisano%NULL%1,                        Francesco%Venturelli%NULL%1,                        Massimo%Vicentini%NULL%3,                        Massimo%Vicentini%NULL%0,                        Roberto%Grilli%NULL%2,                        NULL%NULL%NULL%0,                        Gianluigi%Forloni%NULL%8,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0,                        Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                        Paolo%Maggi%NULL%2,                        Paolo%Maggi%NULL%0,                        Vincenzo%Messina%NULL%1,                        Pasquale%Iuliano%NULL%2,                        Pasquale%Iuliano%NULL%0,                        Antonio%Sardu%NULL%1,                        Vincenzo%Iovinella%NULL%1,                        Giuseppe%Paolisso%NULL%1,                        Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                        Rasimcan%Meral%NULL%1,                        Alpay%Medetalibeyoğlu%NULL%1,                        Hilal%Konyaoğlu%NULL%1,                        Murat%Köse%NULL%1,                        Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%4,             Jack%Owens%xref no email%1,             James%Franklin%xref no email%1,             Yash%Jani%xref no email%1,             Ashish%Kumar%xref no email%1,             Rajkumar%Doshi%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                        Yun%Qiu%NULL%1,                        Xiang-Bin%Xing%NULL%1,                        Subrata%Ghosh%NULL%1,                        Min-Hu%Chen%NULL%1,                        Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                        Maddalena%Giannella%NULL%1,                        Michele%Bartoletti%NULL%1,                        Filippo%Trapani%NULL%1,                        Marina%Tadolini%NULL%1,                        Claudio%Borghi%NULL%1,                        Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                        Marco%Massari%NULL%3,                        Marco%Massari%NULL%0,                        Roberto%Da Cas%NULL%2,                        Francesca%Menniti Ippolito%NULL%2,                        Janet%Sultana%NULL%2,                        Salvatore%Crisafulli%NULL%2,                        Paolo%Giorgi Rossi%NULL%2,                        Massimiliano%Marino%NULL%0,                        Manuel%Zorzi%NULL%2,                        Emanuela%Bovo%NULL%2,                        Olivia%Leoni%NULL%2,                        Monica%Ludergnani%NULL%0,                        Stefania%Spila Alegiani%stefania.spila@iss.it%2,                        Stefania%Spila Alegiani%NULL%0,                        Francesca%Menniti Ippolito%NULL%0,                        Roberto%Da Cas%NULL%0,                        Marco%Massari%NULL%0,                        Giuseppe%Traversa%NULL%1,                        Graziano%Onder%NULL%1,                        Gianluca%Trifirò%NULL%1,                        Janet%Sultana%NULL%0,                        Valentina%Ientile%NULL%1,                        Salvatore%Crisafulli%NULL%0,                        Paolo%Giorgi Rossi%NULL%0,                        Roberto%Grilli%NULL%0,                        Giulio%Formoso%NULL%1,                        Massimiliano%Marino%NULL%0,                        Massimo%Vicentini%NULL%0,                        Olivia%Leoni%NULL%0,                        Monica%Ludergnani%NULL%0,                        Danilo%Cereda%NULL%1,                        Eliana%Ferroni%NULL%1,                        Stefano%Guzzinati%NULL%1,                        Emanuela%Bovo%NULL%0,                        Manuel%Zorzi%NULL%0,                        Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                        Chaolin%Huang%NULL%1,                        Guohui%Fan%NULL%1,                        Zhibo%Liu%NULL%1,                        Lianhan%Shang%NULL%1,                        Fei%Zhou%NULL%1,                        Yeming%Wang%NULL%1,                        Jiapei%Yu%NULL%1,                        Luning%Yang%NULL%1,                        Ke%Xie%NULL%1,                        Zhisheng%Huang%NULL%1,                        Lixue%Huang%NULL%1,                        Xiaoying%Gu%NULL%1,                        Hui%Li%NULL%1,                        Yi%Zhang%NULL%0,                        Yimin%Wang%NULL%1,                        Frederick G.%Hayden%NULL%1,                        Peter W.%Horby%NULL%1,                        Bin%Cao%caobin_ben@163.com%1,                        Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%3,             Zihu%Tan%xref no email%3,             Ling%Zhou%xref no email%3,             Min%Yang%xref no email%3,             Lang%Peng%xref no email%3,             Jinjin%Liu%xref no email%3,             Jingling%Cai%xref no email%3,             Ru%Yang%xref no email%3,             Junyan%Han%xref no email%3,             Yafei%Huang%xref no email%3,             Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                        Dan%Liu%NULL%1,                        Shaoqing%Zeng%NULL%1,                        Siyuan%Wang%NULL%1,                        Sen%Xu%NULL%1,                        Ya%Wang%NULL%1,                        Ruidi%Yu%NULL%1,                        Yue%Gao%NULL%1,                        Huayi%Li%NULL%1,                        Xinxia%Feng%NULL%1,                        Ning%Zhou%NULL%0,                        Chunxia%Zhao%NULL%1,                        Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                        Lihua%Zhu%NULL%1,                        Jingjing%Cai%NULL%1,                        Fang%Lei%NULL%1,                        Juan-Juan%Qin%NULL%1,                        Jing%Xie%NULL%1,                        Ye-Mao%Liu%NULL%1,                        Yan-Ci%Zhao%NULL%1,                        Xuewei%Huang%NULL%1,                        Lijin%Lin%NULL%1,                        Meng%Xia%NULL%1,                        Ming-Ming%Chen%NULL%1,                        Xu%Cheng%NULL%1,                        Xiao%Zhang%NULL%1,                        Deliang%Guo%NULL%1,                        Yuanyuan%Peng%NULL%1,                        Yan-Xiao%Ji%NULL%1,                        Jing%Chen%NULL%1,                        Zhi-Gang%She%NULL%1,                        Yibin%Wang%NULL%0,                        Qingbo%Xu%NULL%1,                        Renfu%Tan%NULL%1,                        Haitao%Wang%NULL%1,                        Jun%Lin%NULL%1,                        Pengcheng%Luo%NULL%1,                        Shouzhi%Fu%NULL%1,                        Hongbin%Cai%NULL%1,                        Ping%Ye%NULL%1,                        Bing%Xiao%NULL%1,                        Weiming%Mao%NULL%1,                        Liming%Liu%NULL%1,                        Youqin%Yan%NULL%1,                        Mingyu%Liu%NULL%1,                        Manhua%Chen%NULL%1,                        Xiao-Jing%Zhang%NULL%1,                        Xinghuan%Wang%NULL%1,                        Rhian M.%Touyz%NULL%1,                        Jiahong%Xia%NULL%1,                        Bing-Hong%Zhang%NULL%1,                        Xiaodong%Huang%NULL%1,                        Yufeng%Yuan%NULL%1,                        Rohit%Loomba%NULL%1,                        Peter P.%Liu%NULL%1,                        Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4237,7 +4366,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>1050</v>
+        <v>1097</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -4329,7 +4458,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>1052</v>
+        <v>1098</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -4375,7 +4504,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>1053</v>
+        <v>1099</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -4421,7 +4550,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>1055</v>
+        <v>1100</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -4467,7 +4596,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>1056</v>
+        <v>1101</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -4513,7 +4642,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>1057</v>
+        <v>1102</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -4559,7 +4688,7 @@
         <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>1058</v>
+        <v>1103</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -4605,7 +4734,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>1060</v>
+        <v>1104</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -4651,7 +4780,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>1061</v>
+        <v>1105</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4697,7 +4826,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>1062</v>
+        <v>1106</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -4743,7 +4872,7 @@
         <v>756</v>
       </c>
       <c r="E13" t="s">
-        <v>1063</v>
+        <v>1107</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -4789,7 +4918,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>1065</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -4835,7 +4964,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>1066</v>
+        <v>1109</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -4881,7 +5010,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>1067</v>
+        <v>1110</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -4927,7 +5056,7 @@
         <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>1068</v>
+        <v>1111</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -4973,7 +5102,7 @@
         <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>1069</v>
+        <v>1112</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5019,7 +5148,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>1070</v>
+        <v>1113</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -5065,7 +5194,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>1071</v>
+        <v>1114</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -5111,7 +5240,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>1072</v>
+        <v>1115</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -5157,7 +5286,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>1073</v>
+        <v>1116</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -5203,7 +5332,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>1074</v>
+        <v>1117</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -5249,7 +5378,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>1075</v>
+        <v>1118</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -5295,7 +5424,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>1076</v>
+        <v>1119</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -5341,7 +5470,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>1077</v>
+        <v>1120</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -5387,7 +5516,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>1078</v>
+        <v>1121</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -5433,7 +5562,7 @@
         <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>1079</v>
+        <v>1122</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -5479,7 +5608,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>1080</v>
+        <v>1123</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -5525,7 +5654,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>1081</v>
+        <v>1124</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -5571,7 +5700,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>1082</v>
+        <v>1125</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -5617,7 +5746,7 @@
         <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>1083</v>
+        <v>1126</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -5663,7 +5792,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>1084</v>
+        <v>1127</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -5709,7 +5838,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>1085</v>
+        <v>1128</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -5755,7 +5884,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>1086</v>
+        <v>1129</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -5801,7 +5930,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>1087</v>
+        <v>1130</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -5847,7 +5976,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>1088</v>
+        <v>1131</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -5893,7 +6022,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>1089</v>
+        <v>1132</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -5939,7 +6068,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>1090</v>
+        <v>1133</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -5985,7 +6114,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>1091</v>
+        <v>1134</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -6031,7 +6160,7 @@
         <v>786</v>
       </c>
       <c r="E41" t="s">
-        <v>1092</v>
+        <v>1135</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -6077,7 +6206,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>1093</v>
+        <v>1136</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -6123,7 +6252,7 @@
         <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>1094</v>
+        <v>1137</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -6169,7 +6298,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>1095</v>
+        <v>1138</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -6215,7 +6344,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>1096</v>
+        <v>1139</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7696" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9496" uniqueCount="1339">
   <si>
     <t>Doi</t>
   </si>
@@ -3938,6 +3938,603 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,                        Lihua%Zhu%NULL%1,                        Jingjing%Cai%NULL%1,                        Fang%Lei%NULL%1,                        Juan-Juan%Qin%NULL%1,                        Jing%Xie%NULL%1,                        Ye-Mao%Liu%NULL%1,                        Yan-Ci%Zhao%NULL%1,                        Xuewei%Huang%NULL%1,                        Lijin%Lin%NULL%1,                        Meng%Xia%NULL%1,                        Ming-Ming%Chen%NULL%1,                        Xu%Cheng%NULL%1,                        Xiao%Zhang%NULL%1,                        Deliang%Guo%NULL%1,                        Yuanyuan%Peng%NULL%1,                        Yan-Xiao%Ji%NULL%1,                        Jing%Chen%NULL%1,                        Zhi-Gang%She%NULL%1,                        Yibin%Wang%NULL%0,                        Qingbo%Xu%NULL%1,                        Renfu%Tan%NULL%1,                        Haitao%Wang%NULL%1,                        Jun%Lin%NULL%1,                        Pengcheng%Luo%NULL%1,                        Shouzhi%Fu%NULL%1,                        Hongbin%Cai%NULL%1,                        Ping%Ye%NULL%1,                        Bing%Xiao%NULL%1,                        Weiming%Mao%NULL%1,                        Liming%Liu%NULL%1,                        Youqin%Yan%NULL%1,                        Mingyu%Liu%NULL%1,                        Manhua%Chen%NULL%1,                        Xiao-Jing%Zhang%NULL%1,                        Xinghuan%Wang%NULL%1,                        Rhian M.%Touyz%NULL%1,                        Jiahong%Xia%NULL%1,                        Bing-Hong%Zhang%NULL%1,                        Xiaodong%Huang%NULL%1,                        Yufeng%Yuan%NULL%1,                        Rohit%Loomba%NULL%1,                        Peter P.%Liu%NULL%1,                        Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                         Sandra%Santos-Martinez%NULL%1,                         Diego%López-Otero%NULL%1,                         Luis%Nombela-Franco%NULL%1,                         Enrique%Gutiérrez-Ibanes%NULL%1,                         Raquel%Del Valle%NULL%1,                         Erika%Muñoz-García%NULL%1,                         Víctor A.%Jiménez-Diaz%NULL%1,                         Ander%Regueiro%NULL%1,                         Rocío%González-Ferreiro%NULL%1,                         Tomás%Benito%NULL%1,                         Xoan Carlos%Sanmartin-Pena%NULL%1,                         Pablo%Catalá%NULL%1,                         Tania%Rodríguez-Gabella%NULL%1,                         Jose Raúl%Delgado-Arana%NULL%1,                         Manuel%Carrasco-Moraleja%NULL%1,                         Borja%Ibañez%NULL%1,                         J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                         David M.%Tehrani%NULL%1,                         Soniya V.%Rabadia%NULL%1,                         Marlene%Frost%NULL%1,                         Rushi V.%Parikh%NULL%1,                         Marcella%Calfon-Press%NULL%1,                         Olcay%Aksoy%NULL%1,                         Soban%Umar%NULL%1,                         Reza%Ardehali%NULL%1,                         Amir%Rabbani%NULL%1,                         Pooya%Bokhoor%NULL%1,                         Ali%Nsair%NULL%1,                         Jesse%Currier%NULL%1,                         Jonathan%Tobis%NULL%1,                         Gregg C.%Fonarow%NULL%1,                         Ravi%Dave%NULL%1,                         Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                         Zeljko%Kraljevic%NULL%1,                         Thomas%Searle%NULL%1,                         Rebecca%Bendayan%NULL%1,                         O'Gallagher%Kevin%NULL%1,                         Andrew%Pickles%NULL%1,                         Amos%Folarin%NULL%1,                         Lukasz%Roguski%NULL%1,                         Kawsar%Noor%NULL%1,                         Anthony%Shek%NULL%1,                         Rosita%Zakeri%NULL%1,                         Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                         James T.H.%Teo%jamesteo@nhs.net%1,                         Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                         Mauro%Chiarito%NULL%1,                         Bernhard%Reimers%NULL%2,                         Bernhard%Reimers%NULL%0,                         Elena%Azzolini%NULL%1,                         Giuseppe%Ferrante%NULL%1,                         Ilaria%My%NULL%1,                         Giacomo%Viggiani%NULL%1,                         Cristina%Panico%NULL%1,                         Damiano%Regazzoli%NULL%1,                         Michele%Ciccarelli%NULL%1,                         Antonio%Voza%NULL%1,                         Alessio%Aghemo%NULL%1,                         Hongliang%Li%NULL%2,                         Yibin%Wang%NULL%2,                         Gianluigi%Condorelli%NULL%1,                         Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                         Feng%Wang%NULL%1,                         Peng%Chen%NULL%1,                         Jiangang%Jiang%NULL%1,                         Guanglin%Cui%NULL%1,                         Ning%Zhou%NULL%2,                         Francesco%Moroni%NULL%1,                         Javid J.%Moslehi%NULL%1,                         Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                         Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                         Ming%Zhong%NULL%1,                         Ya%Liu%NULL%1,                         Yi%Zhang%NULL%2,                         Kai%Zhang%NULL%1,                         De-zhen%Su%NULL%1,                         Xiao%Meng%NULL%1,                         Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0, Dong%Yang%xref no email%2, Biao%Cheng%xref no email%2, Jian%Chen%xref no email%4, Anlin%Peng%xref no email%2, Chen%Yang%xref no email%2, Chong%Liu%xref no email%2, Mingrui%Xiong%xref no email%2, Aiping%Deng%xref no email%4, Yu%Zhang%xref no email%2, Ling%Zheng%xref no email%2, Kun%Huang%xref no email%2]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Diabetes Association</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                         Duncan%Young%NULL%2,                         Duncan%Young%NULL%0,                         Carol%Coupland%NULL%1,                         Keith M%Channon%NULL%1,                         Pui San%Tan%NULL%1,                         David A%Harrison%NULL%1,                         Kathryn%Rowan%NULL%2,                         Kathryn%Rowan%NULL%0,                         Paul%Aveyard%NULL%1,                         Ian D%Pavord%NULL%1,                         Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,                  Butt%Jawad H%coreGivesNoEmail%1,                  Fosb\u00f8l%Emil L%coreGivesNoEmail%1,                  Gerds%Thomas A%coreGivesNoEmail%1,                  Gislason%Gunnar H%coreGivesNoEmail%1,                  Kragholm%Kristian%coreGivesNoEmail%1,                  K\u00f8ber%Lars%coreGivesNoEmail%1,                  Phelps%Matthew%coreGivesNoEmail%1,                  Schou%Morten%coreGivesNoEmail%1,                  Selmer%Christian%coreGivesNoEmail%1,                  Torp-Pedersen%Christian%coreGivesNoEmail%1,                  \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                         Yue%Cai%NULL%1,                         Kan%Zhang%NULL%2,                         Kan%Zhang%NULL%0,                         Lei%Zhou%NULL%1,                         Yao%Zhang%NULL%1,                         Xijing%Zhang%NULL%1,                         Qi%Li%NULL%1,                         Weiqin%Li%NULL%1,                         Shiming%Yang%NULL%1,                         Xiaoyan%Zhao%NULL%1,                         Yuying%Zhao%NULL%1,                         Hui%Wang%NULL%1,                         Yi%Liu%NULL%2,                         Zhiyong%Yin%NULL%1,                         Ruining%Zhang%NULL%1,                         Rutao%Wang%NULL%1,                         Ming%Yang%NULL%1,                         Chen%Hui%NULL%1,                         William%Wijns%NULL%1,                         J William%McEvoy%NULL%1,                         Osama%Soliman%NULL%2,                         Osama%Soliman%NULL%0,                         Yoshinobu%Onuma%NULL%2,                         Yoshinobu%Onuma%NULL%0,                         Patrick W%Serruys%NULL%1,                         Ling%Tao%lingtao@fmmu.edu.cn%1,                         Fei%Li%lifei01@fmmu.edu.cn%2,                         Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                         Erkan%Ekicibasi%NULL%1,                         Aleks%Degirmencioglu%NULL%1,                         Ashok%Paudel%NULL%1,                         Refik%Erdim%NULL%1,                         Hilal Kurtoglu%Gumusel%NULL%1,                         Elif%Eroglu%NULL%1,                         Ibrahim Halil%Tanboga%NULL%1,                         Sinan%Dagdelen%NULL%1,                         Nevin%Sariguzel%NULL%1,                         Ceyda Erel%Kirisoglu%NULL%1,                         Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,                  Antonelli%M.%coreGivesNoEmail%2,                  Bellani%G.%coreGivesNoEmail%2,                  Bonanomi%E.%coreGivesNoEmail%2,                  Cabrini%L.%coreGivesNoEmail%2,                  Carlesso%E.%coreGivesNoEmail%2,                  Castelli%G.%coreGivesNoEmail%2,                  Cattaneo%S.%coreGivesNoEmail%2,                  Cecconi%M.%coreGivesNoEmail%2,                  Cereda%D.%coreGivesNoEmail%2,                  Colombo%S.%coreGivesNoEmail%2,                  Coluccello%A.%coreGivesNoEmail%2,                  Crescini%G.%coreGivesNoEmail%2,                  Forastieri%Molinari A.%coreGivesNoEmail%2,                  Foti%G.%coreGivesNoEmail%2,                  Fumagalli%R.%coreGivesNoEmail%2,                  Grasselli%G.%coreGivesNoEmail%2,                  Greco%M.%coreGivesNoEmail%2,                  Iotti%G. A.%coreGivesNoEmail%2,                  Langer%T.%coreGivesNoEmail%2,                  Latronico%N.%coreGivesNoEmail%2,                  Lorini%F. L.%coreGivesNoEmail%2,                  Mojoli%F.%coreGivesNoEmail%2,                  Natalini%G.%coreGivesNoEmail%2,                  Pesenti%A.%coreGivesNoEmail%2,                  Pessina%C. M.%coreGivesNoEmail%2,                  Ranieri%V. M.%coreGivesNoEmail%2,                  Rech%R.%coreGivesNoEmail%2,                  Rosano%A.%coreGivesNoEmail%2,                  Scudeller%L.%coreGivesNoEmail%2,                  Storti%E.%coreGivesNoEmail%2,                  Thompson%B. T.%coreGivesNoEmail%2,                  Tirani%M.%coreGivesNoEmail%2,                  Villani%P. G.%coreGivesNoEmail%2,                  Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Xiaoming%Guo%xref no email%0, Yueli%Zhu%xref no email%1, Yuan%Hong%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Ovid Technologies (Wolters Kluwer Health)</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                         Jiatian%Cao%NULL%1,                         Yumeng%Yao%NULL%1,                         Xuejuan%Jin%NULL%1,                         Zhe%Luo%NULL%1,                         Yuan%Xue%NULL%1,                         Chouwen%Zhu%NULL%1,                         Yanan%Song%NULL%1,                         Ying%Wang%NULL%1,                         Yunzeng%Zou%NULL%1,                         Juying%Qian%NULL%1,                         Kaihuan%Yu%NULL%1,                         Hui%Gong%NULL%1,                         Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                         Ju-Hyun%Kim%NULL%1,                         Jin-Sung%Park%NULL%1,                         Min Cheol%Chang%wheel633@ynu.ac.kr%1,                         Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Guido%Iaccarino%xref no email%0, Guido%Grassi%xref no email%1, Claudio%Borghi%xref no email%1, Claudio%Ferri%xref no email%1, Massimo%Salvetti%xref no email%1, Massimo%Volpe%xref no email%1, Arrigo F.G.%Cicero%xref no email%1, Pietro%Minuz%xref no email%1, Maria Lorenza%Muiesan%xref no email%1, Paolo%Mulatero%xref no email%1, Giuseppe%Mul\u00e8%xref no email%1, Giacomo%Pucci%xref no email%1, Carmine%Savoia%xref no email%1, Leonardo%Sechi%xref no email%1, Stefano%Carugo%xref no email%1, Francesco%Fallo%xref no email%1, Cristina%Giannattasio%xref no email%1, Davide%Grassi%xref no email%1, Claudio%Letizia%xref no email%1, Stefano%Perlini%xref no email%1, Damiano%Rizzoni%xref no email%1, Riccardo%Sarzani%xref no email%1, Giuliano%Tocci%xref no email%1, Franco%Veglio%xref no email%1, Claudia%Agabiti Rosei%xref no email%1, Michele%Bevilacqua%xref no email%1, Valeria%Bisogni%xref no email%1, Michele%Bombelli%xref no email%1, Luca%Bulfone%xref no email%1, Flaminia%Canichella%xref no email%1, Giovanni%Carpani%xref no email%1, Massimo%Catanuso%xref no email%1, Giulia%Chiarini%xref no email%1, Fernando%Chiumiento%xref no email%1, Rosario%Cianci%xref no email%1, Franco%Cipollini%xref no email%1, Antonio%Concistr\u00e8%xref no email%1, Andrea%Dalbeni%xref no email%1, Roberto Alberto%De Blasi%xref no email%1, Carolina%De Ciuceis%xref no email%1, Raffaella%Dell\u2019Oro%xref no email%1, Antonino%Di Guardo%xref no email%1, Santo%Di Lorenzo%xref no email%1, Monica%Di Norcia%xref no email%1, Roberto%Ervo%xref no email%1, Elisabetta%Eula%xref no email%1, Davide%Fabbricatore%xref no email%1, Elvira%Fanelli%xref no email%1, Cristiano%Fava%xref no email%1, Enzo%Grasso%xref no email%1, Alessandro%Grimaldi%xref no email%1, Maddalena%Illario%xref no email%1, Claudio%Invernizzi%xref no email%1, Elena%Iraca%xref no email%1, Federica%Liegi%xref no email%1, Paolo%Malerba%xref no email%1, Alessandro%Maloberti%xref no email%1, Costantino%Mancusi%xref no email%1, Giulia%Molinari%xref no email%1, Roberta%Mussinelli%xref no email%1, Anna%Paini%xref no email%1, Paola%Pellimassi%xref no email%1, Ornella%Piazza%xref no email%1, Roberto%Pontremoli%xref no email%1, Fosca%Quarti Tevano%xref no email%1, Franco%Rabbia%xref no email%1, Monica%Rocco%xref no email%1, Anna%Sabena%xref no email%1, Francesco%Salinaro%xref no email%1, Paola%Schiavi%xref no email%1, Maria Chiara%Sgariglia%xref no email%1, Francesco%Spannella%xref no email%1, Sara%Tedeschi%xref no email%0, Pierluigi%Viale%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                         Raphael Romano%Bruno%NULL%1,                         Bernhard%Wernly%NULL%1,                         Michael%Joannidis%NULL%1,                         Sandra%Oeyen%NULL%1,                         Tilemachos%Zafeiridis%NULL%1,                         Brian%Marsh%NULL%1,                         Finn H%Andersen%NULL%1,                         Rui%Moreno%NULL%1,                         Ana Margarida%Fernandes%NULL%1,                         Antonio%Artigas%NULL%1,                         Bernardo Bollen%Pinto%NULL%1,                         Joerg%Schefold%NULL%1,                         Georg%Wolff%NULL%1,                         Malte%Kelm%NULL%2,                         Malte%Kelm%NULL%0,                         Dylan W%De Lange%NULL%1,                         Bertrand%Guidet%NULL%1,                         Hans%Flaatten%NULL%1,                         Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                         Jae Chol%Choi%NULL%1,                         Seung-Hun%You%NULL%1,                         Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                         Hamish%Reed-Embleton%NULL%2,                         Hamish%Reed-Embleton%NULL%0,                         Jen%Lewis%NULL%2,                         Jen%Lewis%NULL%0,                         Pamela%Bain%NULL%1,                         Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                         Kenneth W%Chow%NULL%1,                         Jonathan%Vo%NULL%1,                         Wei%Hou%NULL%1,                         Haifang%Li%NULL%1,                         Paul S%Richman%NULL%1,                         Sandeep K%Mallipattu%NULL%1,                         Hal A%Skopicki%NULL%1,                         Adam J%Singer%NULL%1,                         Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Juyi%Li%xref no email%0, Xiufang%Wang%xref no email%2, Jian%Chen%xref no email%0, Hongmei%Zhang%xref no email%2, Aiping%Deng%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                         Julien%Moragny%NULL%2,                         Julien%Moragny%NULL%0,                         Youssef%Bennis%NULL%1,                         Benjamin%Batteux%NULL%1,                         Etienne%Brochot%NULL%1,                         Jean Luc%Schmit%NULL%1,                         Jean-Philippe%Lanoix%NULL%1,                         Claire%Andrejak%NULL%1,                         Olivier%Ganry%NULL%1,                         Michel%Slama%NULL%1,                         Julien%Maizel%NULL%1,                         Yazine%Mahjoub%NULL%1,                         Kamel%Masmoudi%NULL%1,                         Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                         Yi%Liu%NULL%0,                         Keliang%Chen%NULL%1,                         Suying%Yan%NULL%1,                         Xiangrong%Bai%NULL%1,                         Juan%Li%947281063@qq.com%1,                         Dong%Liu%ld2069@outlook.com%2,                         Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                         Javier%López-Pais%NULL%1,                         Carla Eugenia%Cacho-Antonio%NULL%1,                         Pablo José%Antúnez-Muiños%NULL%1,                         Teba%González-Ferrero%NULL%1,                         Marta%Pérez-Poza%NULL%1,                         Óscar%Otero-García%NULL%1,                         Brais%Díaz-Fernández%NULL%1,                         María%Bastos-Fernández%NULL%1,                         Noelia%Bouzas-Cruz%NULL%1,                         Xoan Carlos%Sanmartín-Pena%NULL%1,                         Alfonso%Varela-Román%NULL%1,                         Manuel%Portela-Romero%NULL%1,                         Luis%Valdés-Cuadrado%NULL%1,                         Antonio%Pose-Reino%NULL%1,                         José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                         Federico%Rea%NULL%1,                         Monica%Ludergnani%NULL%4,                         Monica%Ludergnani%NULL%0,                         Giovanni%Apolone%NULL%1,                         Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,            Hisao%Ogawa%null%2,            Kazuo%Kimura%null%2,            Masaaki%Konishi%null%2,            Jin%Kirigaya%null%2,            Kazuki%Fukui%null%2,            Kengo%Tsukahara%null%2,            Hiroyuki%Shimizu%null%2,            Keisuke%Iwabuchi%null%2,            Yu%Yamada%null%2,            Kenichiro%Saka%null%2,            Ichiro%Takeuchi%null%2,            Toshio%Hirano%null%2,            Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                         Guohui%Xiao%NULL%1,                         Juanjuan%Zhang%NULL%1,                         Xing%He%NULL%1,                         Min%Ou%NULL%1,                         Jing%Bi%NULL%1,                         Rongqing%Yang%NULL%1,                         Wencheng%Di%NULL%1,                         Zhaoqin%Wang%NULL%1,                         Zigang%Li%NULL%1,                         Hong%Gao%NULL%1,                         Lei%Liu%NULL%1,                         Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                         Francisca%García-Iglesias%NULL%1,                         Teresa%González-Alegre%NULL%1,                         Francisco%Blanco%NULL%1,                         Marta%Varas%NULL%1,                         Clara%Hernández-Blanco%NULL%1,                         Victor%Hontañón%NULL%1,                         María J.%Jaras-Hernández%NULL%1,                         Mónica%Martínez-Prieto%NULL%1,                         Araceli%Menéndez-Saldaña%NULL%1,                         María L.%Cachán%NULL%1,                         Eva%Estirado%NULL%1,                         Carlos%Lahoz%NULL%1,                         Rosa%de Miguel%NULL%1,                         Miriam%Romero%NULL%1,                         Mar%Lago%NULL%1,                         Cristina%García-Quero%NULL%1,                         Cristina%Plaza%NULL%1,                         Talía%Sainz-Costa%NULL%1,                         Susana%Rivas-Vila%NULL%1,                         Blanca%Sánchez%NULL%1,                         Celia García%Torres%NULL%1,                         Lucía%Martínez-Tobar%NULL%1,                         María%Hernandez-Pérez%NULL%1,                         Pablo%Racionero%NULL%1,                         Patricia%Mir-Ihara%NULL%1,                         Jesús%Peña-López%NULL%1,                         Marta%Bautista-Barea%NULL%1,                         Alexa P.%Benítez%NULL%1,                         Pablo%Rodríguez-Merlos%NULL%1,                         María%Barcenilla%NULL%1,                         María San%Basilio%NULL%1,                         María%Valencia%NULL%1,                         Ricardo%Romero-Martín%NULL%1,                         Ana%Boto de los Bueis%NULL%1,                         Adriana%de la Hoz-Polo%NULL%1,                         María%del Pino-Cidad%NULL%1,                         Javier%Coca-Robinot%NULL%1,                         Bárbara%González-Ferrer%NULL%1,                         Pedro%Fernández-Pérez%NULL%1,                         Isabel%Mogollón%NULL%1,                         María S.%Montoro-Romero%NULL%1,                         Isabel%Villalaín%NULL%1,                         Almudena%del Hierro-Zarzuelo%NULL%1,                         Irene%Hernández-Martín%NULL%1,                         Javier%Domínguez%NULL%1,                         Alberto%Luna%NULL%1,                         Soledad%Montoro%NULL%1,                         Margarita%Sánchez-Orgaz%NULL%1,                         Gloria%Amorena%NULL%1,                         Cosme%Lavín-Dapena%NULL%1,                         Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                         Stanislas%Gleye%NULL%1,                         Isabelle%Clerc Urmes%NULL%1,                         Elodie%Laugel%NULL%1,                         Jonas%Callet%NULL%1,                         Françoise%Barbé%NULL%1,                         Sophie%Orlowski%NULL%1,                         Catherine%Malaplate%NULL%1,                         Isabelle%Aimone-Gastin%NULL%1,                         Beatrice Maatem%Caillierez%NULL%1,                         Marc%Merten%NULL%1,                         Elise%Jeannesson%NULL%1,                         Raphaël%Kormann%NULL%1,                         Jean-Luc%Olivier%NULL%1,                         Rosa-Maria%Rodriguez-Guéant%NULL%1,                         Farès%Namour%NULL%1,                         Sybille%Bevilacqua%NULL%1,                         Marie-Reine%Losser%NULL%1,                         Bruno%Levy%NULL%1,                         Antoine%Kimmoun%NULL%1,                         Sébastien%Gibot%NULL%1,                         Nathalie%Thilly%NULL%1,                         Luc%Frimat%NULL%1,                         Evelyne%Schvoerer%NULL%1,                         Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei%Pan%xref no email%0, Jishou%Zhang%xref no email%2, Menglong%Wang%xref no email%2, Jing%Ye%xref no email%2, Yao%Xu%xref no email%2, Bo%Shen%xref no email%2, Hua%He%xref no email%2, Zhen%Wang%xref no email%2, Di%Ye%xref no email%2, Mengmeng%Zhao%xref no email%2, Zhen%Luo%xref no email%2, Mingxiao%Liu%xref no email%2, Pingan%Zhang%xref no email%2, Jian%Gu%xref no email%2, Menglin%Liu%xref no email%2, Dan%Li%xref no email%2, Jianfang%Liu%xref no email%2, Jun%Wan%xref no email%2]</t>
+  </si>
+  <si>
+    <t>2023-05-31</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                         Samrachana%Adhikari%NULL%1,                         Claudia%Pulgarin%NULL%1,                         Andrea B.%Troxel%NULL%1,                         Eduardo%Iturrate%NULL%1,                         Stephen B.%Johnson%NULL%1,                         Anaïs%Hausvater%NULL%1,                         Jonathan D.%Newman%NULL%1,                         Jeffrey S.%Berger%NULL%1,                         Sripal%Bangalore%NULL%1,                         Stuart D.%Katz%NULL%1,                         Glenn I.%Fishman%NULL%1,                         Dennis%Kunichoff%NULL%1,                         Yu%Chen%NULL%1,                         Gbenga%Ogedegbe%NULL%1,                         Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,                  Becker%L.B.%coreGivesNoEmail%3,                  Chelico%J.D.%coreGivesNoEmail%3,                  Cohen%S.L.%coreGivesNoEmail%3,                  Cookingham%J.%coreGivesNoEmail%3,                  Coppa%K.%coreGivesNoEmail%3,                  Crawford%J.M.%coreGivesNoEmail%3,                  Davidson%K.W.%coreGivesNoEmail%3,                  Diefenbach%M.A.%coreGivesNoEmail%3,                  Dominello%A.J.%coreGivesNoEmail%3,                  Duer-Hefele%J.%coreGivesNoEmail%3,                  Falzon%L.%coreGivesNoEmail%3,                  Gitlin%J.%coreGivesNoEmail%3,                  Hajizadeh%N.%coreGivesNoEmail%3,                  Harvin%T.G.%coreGivesNoEmail%3,                  Hirsch%J.S.%coreGivesNoEmail%3,                  Hirschwerk%D.A.%coreGivesNoEmail%3,                  Kim%E.J.%coreGivesNoEmail%3,                  Kozel%Z.M.%coreGivesNoEmail%3,                  Marrast%L.M.%coreGivesNoEmail%3,                  McGinn%T.%coreGivesNoEmail%3,                  Mogavero%J.N.%coreGivesNoEmail%3,                  Narasimhan%M.%coreGivesNoEmail%3,                  Osorio%G.A.%coreGivesNoEmail%3,                  Qiu%M.%coreGivesNoEmail%3,                  Richardson%S.%coreGivesNoEmail%3,                  Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                         Massimiliano%Marino%NULL%3,                         Debora%Formisano%NULL%1,                         Francesco%Venturelli%NULL%1,                         Massimo%Vicentini%NULL%3,                         Massimo%Vicentini%NULL%0,                         Roberto%Grilli%NULL%2,                         NULL%NULL%NULL%0,                         Gianluigi%Forloni%NULL%8,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0,                         Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                         Paolo%Maggi%NULL%2,                         Paolo%Maggi%NULL%0,                         Vincenzo%Messina%NULL%1,                         Pasquale%Iuliano%NULL%2,                         Pasquale%Iuliano%NULL%0,                         Antonio%Sardu%NULL%1,                         Vincenzo%Iovinella%NULL%1,                         Giuseppe%Paolisso%NULL%1,                         Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                         Rasimcan%Meral%NULL%1,                         Alpay%Medetalibeyoğlu%NULL%1,                         Hilal%Konyaoğlu%NULL%1,                         Murat%Köse%NULL%1,                         Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%0, Jack%Owens%xref no email%3, James%Franklin%xref no email%3, Yash%Jani%xref no email%1, Ashish%Kumar%xref no email%1, Rajkumar%Doshi%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                         Yun%Qiu%NULL%1,                         Xiang-Bin%Xing%NULL%1,                         Subrata%Ghosh%NULL%1,                         Min-Hu%Chen%NULL%1,                         Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%2,                         Maddalena%Giannella%NULL%1,                         Michele%Bartoletti%NULL%1,                         Filippo%Trapani%NULL%1,                         Marina%Tadolini%NULL%1,                         Claudio%Borghi%NULL%1,                         Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                         Marco%Massari%NULL%3,                         Marco%Massari%NULL%0,                         Roberto%Da Cas%NULL%2,                         Francesca%Menniti Ippolito%NULL%2,                         Janet%Sultana%NULL%2,                         Salvatore%Crisafulli%NULL%2,                         Paolo%Giorgi Rossi%NULL%2,                         Massimiliano%Marino%NULL%0,                         Manuel%Zorzi%NULL%2,                         Emanuela%Bovo%NULL%2,                         Olivia%Leoni%NULL%2,                         Monica%Ludergnani%NULL%0,                         Stefania%Spila Alegiani%stefania.spila@iss.it%2,                         Stefania%Spila Alegiani%NULL%0,                         Francesca%Menniti Ippolito%NULL%0,                         Roberto%Da Cas%NULL%0,                         Marco%Massari%NULL%0,                         Giuseppe%Traversa%NULL%1,                         Graziano%Onder%NULL%1,                         Gianluca%Trifirò%NULL%1,                         Janet%Sultana%NULL%0,                         Valentina%Ientile%NULL%1,                         Salvatore%Crisafulli%NULL%0,                         Paolo%Giorgi Rossi%NULL%0,                         Roberto%Grilli%NULL%0,                         Giulio%Formoso%NULL%1,                         Massimiliano%Marino%NULL%0,                         Massimo%Vicentini%NULL%0,                         Olivia%Leoni%NULL%0,                         Monica%Ludergnani%NULL%0,                         Danilo%Cereda%NULL%1,                         Eliana%Ferroni%NULL%1,                         Stefano%Guzzinati%NULL%1,                         Emanuela%Bovo%NULL%0,                         Manuel%Zorzi%NULL%0,                         Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                         Chaolin%Huang%NULL%1,                         Guohui%Fan%NULL%1,                         Zhibo%Liu%NULL%1,                         Lianhan%Shang%NULL%1,                         Fei%Zhou%NULL%1,                         Yeming%Wang%NULL%1,                         Jiapei%Yu%NULL%1,                         Luning%Yang%NULL%1,                         Ke%Xie%NULL%1,                         Zhisheng%Huang%NULL%1,                         Lixue%Huang%NULL%1,                         Xiaoying%Gu%NULL%1,                         Hui%Li%NULL%1,                         Yi%Zhang%NULL%0,                         Yimin%Wang%NULL%1,                         Frederick G.%Hayden%NULL%1,                         Peter W.%Horby%NULL%1,                         Bin%Cao%caobin_ben@163.com%1,                         Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Guang%Yang%xref no email%0, Zihu%Tan%xref no email%3, Ling%Zhou%xref no email%3, Min%Yang%xref no email%3, Lang%Peng%xref no email%3, Jinjin%Liu%xref no email%3, Jingling%Cai%xref no email%3, Ru%Yang%xref no email%3, Junyan%Han%xref no email%3, Yafei%Huang%xref no email%3, Shaobin%He%xref no email%3]</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                         Dan%Liu%NULL%1,                         Shaoqing%Zeng%NULL%1,                         Siyuan%Wang%NULL%1,                         Sen%Xu%NULL%1,                         Ya%Wang%NULL%1,                         Ruidi%Yu%NULL%1,                         Yue%Gao%NULL%1,                         Huayi%Li%NULL%1,                         Xinxia%Feng%NULL%1,                         Ning%Zhou%NULL%0,                         Chunxia%Zhao%NULL%1,                         Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%4,                         Lihua%Zhu%NULL%1,                         Jingjing%Cai%NULL%1,                         Fang%Lei%NULL%1,                         Juan-Juan%Qin%NULL%1,                         Jing%Xie%NULL%1,                         Ye-Mao%Liu%NULL%1,                         Yan-Ci%Zhao%NULL%1,                         Xuewei%Huang%NULL%1,                         Lijin%Lin%NULL%1,                         Meng%Xia%NULL%1,                         Ming-Ming%Chen%NULL%1,                         Xu%Cheng%NULL%1,                         Xiao%Zhang%NULL%1,                         Deliang%Guo%NULL%1,                         Yuanyuan%Peng%NULL%1,                         Yan-Xiao%Ji%NULL%1,                         Jing%Chen%NULL%1,                         Zhi-Gang%She%NULL%1,                         Yibin%Wang%NULL%0,                         Qingbo%Xu%NULL%1,                         Renfu%Tan%NULL%1,                         Haitao%Wang%NULL%1,                         Jun%Lin%NULL%1,                         Pengcheng%Luo%NULL%1,                         Shouzhi%Fu%NULL%1,                         Hongbin%Cai%NULL%1,                         Ping%Ye%NULL%1,                         Bing%Xiao%NULL%1,                         Weiming%Mao%NULL%1,                         Liming%Liu%NULL%1,                         Youqin%Yan%NULL%1,                         Mingyu%Liu%NULL%1,                         Manhua%Chen%NULL%1,                         Xiao-Jing%Zhang%NULL%1,                         Xinghuan%Wang%NULL%1,                         Rhian M.%Touyz%NULL%1,                         Jiahong%Xia%NULL%1,                         Bing-Hong%Zhang%NULL%1,                         Xiaodong%Huang%NULL%1,                         Yufeng%Yuan%NULL%1,                         Rohit%Loomba%NULL%1,                         Peter P.%Liu%NULL%1,                         Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                          Sandra%Santos-Martinez%NULL%1,                          Diego%López-Otero%NULL%1,                          Luis%Nombela-Franco%NULL%1,                          Enrique%Gutiérrez-Ibanes%NULL%1,                          Raquel%Del Valle%NULL%1,                          Erika%Muñoz-García%NULL%1,                          Víctor A.%Jiménez-Diaz%NULL%1,                          Ander%Regueiro%NULL%1,                          Rocío%González-Ferreiro%NULL%1,                          Tomás%Benito%NULL%1,                          Xoan Carlos%Sanmartin-Pena%NULL%1,                          Pablo%Catalá%NULL%1,                          Tania%Rodríguez-Gabella%NULL%1,                          Jose Raúl%Delgado-Arana%NULL%1,                          Manuel%Carrasco-Moraleja%NULL%1,                          Borja%Ibañez%NULL%1,                          J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                          David M.%Tehrani%NULL%1,                          Soniya V.%Rabadia%NULL%1,                          Marlene%Frost%NULL%1,                          Rushi V.%Parikh%NULL%1,                          Marcella%Calfon-Press%NULL%1,                          Olcay%Aksoy%NULL%1,                          Soban%Umar%NULL%1,                          Reza%Ardehali%NULL%1,                          Amir%Rabbani%NULL%1,                          Pooya%Bokhoor%NULL%1,                          Ali%Nsair%NULL%1,                          Jesse%Currier%NULL%1,                          Jonathan%Tobis%NULL%1,                          Gregg C.%Fonarow%NULL%1,                          Ravi%Dave%NULL%1,                          Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                          Zeljko%Kraljevic%NULL%1,                          Thomas%Searle%NULL%1,                          Rebecca%Bendayan%NULL%1,                          O'Gallagher%Kevin%NULL%1,                          Andrew%Pickles%NULL%1,                          Amos%Folarin%NULL%1,                          Lukasz%Roguski%NULL%1,                          Kawsar%Noor%NULL%1,                          Anthony%Shek%NULL%1,                          Rosita%Zakeri%NULL%1,                          Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                          James T.H.%Teo%jamesteo@nhs.net%1,                          Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                          Mauro%Chiarito%NULL%1,                          Bernhard%Reimers%NULL%2,                          Bernhard%Reimers%NULL%0,                          Elena%Azzolini%NULL%1,                          Giuseppe%Ferrante%NULL%1,                          Ilaria%My%NULL%1,                          Giacomo%Viggiani%NULL%1,                          Cristina%Panico%NULL%1,                          Damiano%Regazzoli%NULL%1,                          Michele%Ciccarelli%NULL%1,                          Antonio%Voza%NULL%1,                          Alessio%Aghemo%NULL%1,                          Hongliang%Li%NULL%2,                          Yibin%Wang%NULL%2,                          Gianluigi%Condorelli%NULL%1,                          Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                          Feng%Wang%NULL%1,                          Peng%Chen%NULL%1,                          Jiangang%Jiang%NULL%1,                          Guanglin%Cui%NULL%1,                          Ning%Zhou%NULL%2,                          Francesco%Moroni%NULL%1,                          Javid J.%Moslehi%NULL%1,                          Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                          Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                          Ming%Zhong%NULL%1,                          Ya%Liu%NULL%1,                          Yi%Zhang%NULL%2,                          Kai%Zhang%NULL%1,                          De-zhen%Su%NULL%1,                          Xiao%Meng%NULL%1,                          Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                          Duncan%Young%NULL%2,                          Duncan%Young%NULL%0,                          Carol%Coupland%NULL%1,                          Keith M%Channon%NULL%1,                          Pui San%Tan%NULL%1,                          David A%Harrison%NULL%1,                          Kathryn%Rowan%NULL%2,                          Kathryn%Rowan%NULL%0,                          Paul%Aveyard%NULL%1,                          Ian D%Pavord%NULL%1,                          Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,                   Butt%Jawad H%coreGivesNoEmail%1,                   Fosb\u00f8l%Emil L%coreGivesNoEmail%1,                   Gerds%Thomas A%coreGivesNoEmail%1,                   Gislason%Gunnar H%coreGivesNoEmail%1,                   Kragholm%Kristian%coreGivesNoEmail%1,                   K\u00f8ber%Lars%coreGivesNoEmail%1,                   Phelps%Matthew%coreGivesNoEmail%1,                   Schou%Morten%coreGivesNoEmail%1,                   Selmer%Christian%coreGivesNoEmail%1,                   Torp-Pedersen%Christian%coreGivesNoEmail%1,                   \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                          Yue%Cai%NULL%1,                          Kan%Zhang%NULL%2,                          Kan%Zhang%NULL%0,                          Lei%Zhou%NULL%1,                          Yao%Zhang%NULL%1,                          Xijing%Zhang%NULL%1,                          Qi%Li%NULL%1,                          Weiqin%Li%NULL%1,                          Shiming%Yang%NULL%1,                          Xiaoyan%Zhao%NULL%1,                          Yuying%Zhao%NULL%1,                          Hui%Wang%NULL%1,                          Yi%Liu%NULL%2,                          Zhiyong%Yin%NULL%1,                          Ruining%Zhang%NULL%1,                          Rutao%Wang%NULL%1,                          Ming%Yang%NULL%1,                          Chen%Hui%NULL%1,                          William%Wijns%NULL%1,                          J William%McEvoy%NULL%1,                          Osama%Soliman%NULL%2,                          Osama%Soliman%NULL%0,                          Yoshinobu%Onuma%NULL%2,                          Yoshinobu%Onuma%NULL%0,                          Patrick W%Serruys%NULL%1,                          Ling%Tao%lingtao@fmmu.edu.cn%1,                          Fei%Li%lifei01@fmmu.edu.cn%2,                          Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                          Erkan%Ekicibasi%NULL%1,                          Aleks%Degirmencioglu%NULL%1,                          Ashok%Paudel%NULL%1,                          Refik%Erdim%NULL%1,                          Hilal Kurtoglu%Gumusel%NULL%1,                          Elif%Eroglu%NULL%1,                          Ibrahim Halil%Tanboga%NULL%1,                          Sinan%Dagdelen%NULL%1,                          Nevin%Sariguzel%NULL%1,                          Ceyda Erel%Kirisoglu%NULL%1,                          Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,                   Antonelli%M.%coreGivesNoEmail%2,                   Bellani%G.%coreGivesNoEmail%2,                   Bonanomi%E.%coreGivesNoEmail%2,                   Cabrini%L.%coreGivesNoEmail%2,                   Carlesso%E.%coreGivesNoEmail%2,                   Castelli%G.%coreGivesNoEmail%2,                   Cattaneo%S.%coreGivesNoEmail%2,                   Cecconi%M.%coreGivesNoEmail%2,                   Cereda%D.%coreGivesNoEmail%2,                   Colombo%S.%coreGivesNoEmail%2,                   Coluccello%A.%coreGivesNoEmail%2,                   Crescini%G.%coreGivesNoEmail%2,                   Forastieri%Molinari A.%coreGivesNoEmail%2,                   Foti%G.%coreGivesNoEmail%2,                   Fumagalli%R.%coreGivesNoEmail%2,                   Grasselli%G.%coreGivesNoEmail%2,                   Greco%M.%coreGivesNoEmail%2,                   Iotti%G. A.%coreGivesNoEmail%2,                   Langer%T.%coreGivesNoEmail%2,                   Latronico%N.%coreGivesNoEmail%2,                   Lorini%F. L.%coreGivesNoEmail%2,                   Mojoli%F.%coreGivesNoEmail%2,                   Natalini%G.%coreGivesNoEmail%2,                   Pesenti%A.%coreGivesNoEmail%2,                   Pessina%C. M.%coreGivesNoEmail%2,                   Ranieri%V. M.%coreGivesNoEmail%2,                   Rech%R.%coreGivesNoEmail%2,                   Rosano%A.%coreGivesNoEmail%2,                   Scudeller%L.%coreGivesNoEmail%2,                   Storti%E.%coreGivesNoEmail%2,                   Thompson%B. T.%coreGivesNoEmail%2,                   Tirani%M.%coreGivesNoEmail%2,                   Villani%P. G.%coreGivesNoEmail%2,                   Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                          Jiatian%Cao%NULL%1,                          Yumeng%Yao%NULL%1,                          Xuejuan%Jin%NULL%1,                          Zhe%Luo%NULL%1,                          Yuan%Xue%NULL%1,                          Chouwen%Zhu%NULL%1,                          Yanan%Song%NULL%1,                          Ying%Wang%NULL%1,                          Yunzeng%Zou%NULL%1,                          Juying%Qian%NULL%1,                          Kaihuan%Yu%NULL%1,                          Hui%Gong%NULL%1,                          Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                          Ju-Hyun%Kim%NULL%1,                          Jin-Sung%Park%NULL%1,                          Min Cheol%Chang%wheel633@ynu.ac.kr%1,                          Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                          Raphael Romano%Bruno%NULL%1,                          Bernhard%Wernly%NULL%1,                          Michael%Joannidis%NULL%1,                          Sandra%Oeyen%NULL%1,                          Tilemachos%Zafeiridis%NULL%1,                          Brian%Marsh%NULL%1,                          Finn H%Andersen%NULL%1,                          Rui%Moreno%NULL%1,                          Ana Margarida%Fernandes%NULL%1,                          Antonio%Artigas%NULL%1,                          Bernardo Bollen%Pinto%NULL%1,                          Joerg%Schefold%NULL%1,                          Georg%Wolff%NULL%1,                          Malte%Kelm%NULL%2,                          Malte%Kelm%NULL%0,                          Dylan W%De Lange%NULL%1,                          Bertrand%Guidet%NULL%1,                          Hans%Flaatten%NULL%1,                          Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                          Jae Chol%Choi%NULL%1,                          Seung-Hun%You%NULL%1,                          Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                          Hamish%Reed-Embleton%NULL%2,                          Hamish%Reed-Embleton%NULL%0,                          Jen%Lewis%NULL%2,                          Jen%Lewis%NULL%0,                          Pamela%Bain%NULL%1,                          Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                          Kenneth W%Chow%NULL%1,                          Jonathan%Vo%NULL%1,                          Wei%Hou%NULL%1,                          Haifang%Li%NULL%1,                          Paul S%Richman%NULL%1,                          Sandeep K%Mallipattu%NULL%1,                          Hal A%Skopicki%NULL%1,                          Adam J%Singer%NULL%1,                          Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                          Julien%Moragny%NULL%2,                          Julien%Moragny%NULL%0,                          Youssef%Bennis%NULL%1,                          Benjamin%Batteux%NULL%1,                          Etienne%Brochot%NULL%1,                          Jean Luc%Schmit%NULL%1,                          Jean-Philippe%Lanoix%NULL%1,                          Claire%Andrejak%NULL%1,                          Olivier%Ganry%NULL%1,                          Michel%Slama%NULL%1,                          Julien%Maizel%NULL%1,                          Yazine%Mahjoub%NULL%1,                          Kamel%Masmoudi%NULL%1,                          Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                          Yi%Liu%NULL%0,                          Keliang%Chen%NULL%1,                          Suying%Yan%NULL%1,                          Xiangrong%Bai%NULL%1,                          Juan%Li%947281063@qq.com%1,                          Dong%Liu%ld2069@outlook.com%2,                          Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                          Javier%López-Pais%NULL%1,                          Carla Eugenia%Cacho-Antonio%NULL%1,                          Pablo José%Antúnez-Muiños%NULL%1,                          Teba%González-Ferrero%NULL%1,                          Marta%Pérez-Poza%NULL%1,                          Óscar%Otero-García%NULL%1,                          Brais%Díaz-Fernández%NULL%1,                          María%Bastos-Fernández%NULL%1,                          Noelia%Bouzas-Cruz%NULL%1,                          Xoan Carlos%Sanmartín-Pena%NULL%1,                          Alfonso%Varela-Román%NULL%1,                          Manuel%Portela-Romero%NULL%1,                          Luis%Valdés-Cuadrado%NULL%1,                          Antonio%Pose-Reino%NULL%1,                          José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                          Federico%Rea%NULL%1,                          Monica%Ludergnani%NULL%4,                          Monica%Ludergnani%NULL%0,                          Giovanni%Apolone%NULL%1,                          Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,             Hisao%Ogawa%null%2,             Kazuo%Kimura%null%2,             Masaaki%Konishi%null%2,             Jin%Kirigaya%null%2,             Kazuki%Fukui%null%2,             Kengo%Tsukahara%null%2,             Hiroyuki%Shimizu%null%2,             Keisuke%Iwabuchi%null%2,             Yu%Yamada%null%2,             Kenichiro%Saka%null%2,             Ichiro%Takeuchi%null%2,             Toshio%Hirano%null%2,             Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                          Guohui%Xiao%NULL%1,                          Juanjuan%Zhang%NULL%1,                          Xing%He%NULL%1,                          Min%Ou%NULL%1,                          Jing%Bi%NULL%1,                          Rongqing%Yang%NULL%1,                          Wencheng%Di%NULL%1,                          Zhaoqin%Wang%NULL%1,                          Zigang%Li%NULL%1,                          Hong%Gao%NULL%1,                          Lei%Liu%NULL%1,                          Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                          Francisca%García-Iglesias%NULL%1,                          Teresa%González-Alegre%NULL%1,                          Francisco%Blanco%NULL%1,                          Marta%Varas%NULL%1,                          Clara%Hernández-Blanco%NULL%1,                          Victor%Hontañón%NULL%1,                          María J.%Jaras-Hernández%NULL%1,                          Mónica%Martínez-Prieto%NULL%1,                          Araceli%Menéndez-Saldaña%NULL%1,                          María L.%Cachán%NULL%1,                          Eva%Estirado%NULL%1,                          Carlos%Lahoz%NULL%1,                          Rosa%de Miguel%NULL%1,                          Miriam%Romero%NULL%1,                          Mar%Lago%NULL%1,                          Cristina%García-Quero%NULL%1,                          Cristina%Plaza%NULL%1,                          Talía%Sainz-Costa%NULL%1,                          Susana%Rivas-Vila%NULL%1,                          Blanca%Sánchez%NULL%1,                          Celia García%Torres%NULL%1,                          Lucía%Martínez-Tobar%NULL%1,                          María%Hernandez-Pérez%NULL%1,                          Pablo%Racionero%NULL%1,                          Patricia%Mir-Ihara%NULL%1,                          Jesús%Peña-López%NULL%1,                          Marta%Bautista-Barea%NULL%1,                          Alexa P.%Benítez%NULL%1,                          Pablo%Rodríguez-Merlos%NULL%1,                          María%Barcenilla%NULL%1,                          María San%Basilio%NULL%1,                          María%Valencia%NULL%1,                          Ricardo%Romero-Martín%NULL%1,                          Ana%Boto de los Bueis%NULL%1,                          Adriana%de la Hoz-Polo%NULL%1,                          María%del Pino-Cidad%NULL%1,                          Javier%Coca-Robinot%NULL%1,                          Bárbara%González-Ferrer%NULL%1,                          Pedro%Fernández-Pérez%NULL%1,                          Isabel%Mogollón%NULL%1,                          María S.%Montoro-Romero%NULL%1,                          Isabel%Villalaín%NULL%1,                          Almudena%del Hierro-Zarzuelo%NULL%1,                          Irene%Hernández-Martín%NULL%1,                          Javier%Domínguez%NULL%1,                          Alberto%Luna%NULL%1,                          Soledad%Montoro%NULL%1,                          Margarita%Sánchez-Orgaz%NULL%1,                          Gloria%Amorena%NULL%1,                          Cosme%Lavín-Dapena%NULL%1,                          Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                          Stanislas%Gleye%NULL%1,                          Isabelle%Clerc Urmes%NULL%1,                          Elodie%Laugel%NULL%1,                          Jonas%Callet%NULL%1,                          Françoise%Barbé%NULL%1,                          Sophie%Orlowski%NULL%1,                          Catherine%Malaplate%NULL%1,                          Isabelle%Aimone-Gastin%NULL%1,                          Beatrice Maatem%Caillierez%NULL%1,                          Marc%Merten%NULL%1,                          Elise%Jeannesson%NULL%1,                          Raphaël%Kormann%NULL%1,                          Jean-Luc%Olivier%NULL%1,                          Rosa-Maria%Rodriguez-Guéant%NULL%1,                          Farès%Namour%NULL%1,                          Sybille%Bevilacqua%NULL%1,                          Marie-Reine%Losser%NULL%1,                          Bruno%Levy%NULL%1,                          Antoine%Kimmoun%NULL%1,                          Sébastien%Gibot%NULL%1,                          Nathalie%Thilly%NULL%1,                          Luc%Frimat%NULL%1,                          Evelyne%Schvoerer%NULL%1,                          Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                          Samrachana%Adhikari%NULL%1,                          Claudia%Pulgarin%NULL%1,                          Andrea B.%Troxel%NULL%1,                          Eduardo%Iturrate%NULL%1,                          Stephen B.%Johnson%NULL%1,                          Anaïs%Hausvater%NULL%1,                          Jonathan D.%Newman%NULL%1,                          Jeffrey S.%Berger%NULL%1,                          Sripal%Bangalore%NULL%1,                          Stuart D.%Katz%NULL%1,                          Glenn I.%Fishman%NULL%1,                          Dennis%Kunichoff%NULL%1,                          Yu%Chen%NULL%1,                          Gbenga%Ogedegbe%NULL%1,                          Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,                   Becker%L.B.%coreGivesNoEmail%3,                   Chelico%J.D.%coreGivesNoEmail%3,                   Cohen%S.L.%coreGivesNoEmail%3,                   Cookingham%J.%coreGivesNoEmail%3,                   Coppa%K.%coreGivesNoEmail%3,                   Crawford%J.M.%coreGivesNoEmail%3,                   Davidson%K.W.%coreGivesNoEmail%3,                   Diefenbach%M.A.%coreGivesNoEmail%3,                   Dominello%A.J.%coreGivesNoEmail%3,                   Duer-Hefele%J.%coreGivesNoEmail%3,                   Falzon%L.%coreGivesNoEmail%3,                   Gitlin%J.%coreGivesNoEmail%3,                   Hajizadeh%N.%coreGivesNoEmail%3,                   Harvin%T.G.%coreGivesNoEmail%3,                   Hirsch%J.S.%coreGivesNoEmail%3,                   Hirschwerk%D.A.%coreGivesNoEmail%3,                   Kim%E.J.%coreGivesNoEmail%3,                   Kozel%Z.M.%coreGivesNoEmail%3,                   Marrast%L.M.%coreGivesNoEmail%3,                   McGinn%T.%coreGivesNoEmail%3,                   Mogavero%J.N.%coreGivesNoEmail%3,                   Narasimhan%M.%coreGivesNoEmail%3,                   Osorio%G.A.%coreGivesNoEmail%3,                   Qiu%M.%coreGivesNoEmail%3,                   Richardson%S.%coreGivesNoEmail%3,                   Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                          Massimiliano%Marino%NULL%3,                          Debora%Formisano%NULL%1,                          Francesco%Venturelli%NULL%1,                          Massimo%Vicentini%NULL%3,                          Massimo%Vicentini%NULL%0,                          Roberto%Grilli%NULL%2,                          NULL%NULL%NULL%0,                          Gianluigi%Forloni%NULL%8,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0,                          Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                          Paolo%Maggi%NULL%2,                          Paolo%Maggi%NULL%0,                          Vincenzo%Messina%NULL%1,                          Pasquale%Iuliano%NULL%2,                          Pasquale%Iuliano%NULL%0,                          Antonio%Sardu%NULL%1,                          Vincenzo%Iovinella%NULL%1,                          Giuseppe%Paolisso%NULL%1,                          Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                          Rasimcan%Meral%NULL%1,                          Alpay%Medetalibeyoğlu%NULL%1,                          Hilal%Konyaoğlu%NULL%1,                          Murat%Köse%NULL%1,                          Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%4,  Jack%Owens%xref no email%3,  James%Franklin%xref no email%3,  Yash%Jani%xref no email%1,  Ashish%Kumar%xref no email%1,  Rajkumar%Doshi%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                          Yun%Qiu%NULL%1,                          Xiang-Bin%Xing%NULL%1,                          Subrata%Ghosh%NULL%1,                          Min-Hu%Chen%NULL%1,                          Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                          Maddalena%Giannella%NULL%1,                          Michele%Bartoletti%NULL%1,                          Filippo%Trapani%NULL%1,                          Marina%Tadolini%NULL%1,                          Claudio%Borghi%NULL%1,                          Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                          Marco%Massari%NULL%3,                          Marco%Massari%NULL%0,                          Roberto%Da Cas%NULL%2,                          Francesca%Menniti Ippolito%NULL%2,                          Janet%Sultana%NULL%2,                          Salvatore%Crisafulli%NULL%2,                          Paolo%Giorgi Rossi%NULL%2,                          Massimiliano%Marino%NULL%0,                          Manuel%Zorzi%NULL%2,                          Emanuela%Bovo%NULL%2,                          Olivia%Leoni%NULL%2,                          Monica%Ludergnani%NULL%0,                          Stefania%Spila Alegiani%stefania.spila@iss.it%2,                          Stefania%Spila Alegiani%NULL%0,                          Francesca%Menniti Ippolito%NULL%0,                          Roberto%Da Cas%NULL%0,                          Marco%Massari%NULL%0,                          Giuseppe%Traversa%NULL%1,                          Graziano%Onder%NULL%1,                          Gianluca%Trifirò%NULL%1,                          Janet%Sultana%NULL%0,                          Valentina%Ientile%NULL%1,                          Salvatore%Crisafulli%NULL%0,                          Paolo%Giorgi Rossi%NULL%0,                          Roberto%Grilli%NULL%0,                          Giulio%Formoso%NULL%1,                          Massimiliano%Marino%NULL%0,                          Massimo%Vicentini%NULL%0,                          Olivia%Leoni%NULL%0,                          Monica%Ludergnani%NULL%0,                          Danilo%Cereda%NULL%1,                          Eliana%Ferroni%NULL%1,                          Stefano%Guzzinati%NULL%1,                          Emanuela%Bovo%NULL%0,                          Manuel%Zorzi%NULL%0,                          Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                          Chaolin%Huang%NULL%1,                          Guohui%Fan%NULL%1,                          Zhibo%Liu%NULL%1,                          Lianhan%Shang%NULL%1,                          Fei%Zhou%NULL%1,                          Yeming%Wang%NULL%1,                          Jiapei%Yu%NULL%1,                          Luning%Yang%NULL%1,                          Ke%Xie%NULL%1,                          Zhisheng%Huang%NULL%1,                          Lixue%Huang%NULL%1,                          Xiaoying%Gu%NULL%1,                          Hui%Li%NULL%1,                          Yi%Zhang%NULL%0,                          Yimin%Wang%NULL%1,                          Frederick G.%Hayden%NULL%1,                          Peter W.%Horby%NULL%1,                          Bin%Cao%caobin_ben@163.com%1,                          Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                          Dan%Liu%NULL%1,                          Shaoqing%Zeng%NULL%1,                          Siyuan%Wang%NULL%1,                          Sen%Xu%NULL%1,                          Ya%Wang%NULL%1,                          Ruidi%Yu%NULL%1,                          Yue%Gao%NULL%1,                          Huayi%Li%NULL%1,                          Xinxia%Feng%NULL%1,                          Ning%Zhou%NULL%0,                          Chunxia%Zhao%NULL%1,                          Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                          Lihua%Zhu%NULL%1,                          Jingjing%Cai%NULL%1,                          Fang%Lei%NULL%1,                          Juan-Juan%Qin%NULL%1,                          Jing%Xie%NULL%1,                          Ye-Mao%Liu%NULL%1,                          Yan-Ci%Zhao%NULL%1,                          Xuewei%Huang%NULL%1,                          Lijin%Lin%NULL%1,                          Meng%Xia%NULL%1,                          Ming-Ming%Chen%NULL%1,                          Xu%Cheng%NULL%1,                          Xiao%Zhang%NULL%1,                          Deliang%Guo%NULL%1,                          Yuanyuan%Peng%NULL%1,                          Yan-Xiao%Ji%NULL%1,                          Jing%Chen%NULL%1,                          Zhi-Gang%She%NULL%1,                          Yibin%Wang%NULL%0,                          Qingbo%Xu%NULL%1,                          Renfu%Tan%NULL%1,                          Haitao%Wang%NULL%1,                          Jun%Lin%NULL%1,                          Pengcheng%Luo%NULL%1,                          Shouzhi%Fu%NULL%1,                          Hongbin%Cai%NULL%1,                          Ping%Ye%NULL%1,                          Bing%Xiao%NULL%1,                          Weiming%Mao%NULL%1,                          Liming%Liu%NULL%1,                          Youqin%Yan%NULL%1,                          Mingyu%Liu%NULL%1,                          Manhua%Chen%NULL%1,                          Xiao-Jing%Zhang%NULL%1,                          Xinghuan%Wang%NULL%1,                          Rhian M.%Touyz%NULL%1,                          Jiahong%Xia%NULL%1,                          Bing-Hong%Zhang%NULL%1,                          Xiaodong%Huang%NULL%1,                          Yufeng%Yuan%NULL%1,                          Rohit%Loomba%NULL%1,                          Peter P.%Liu%NULL%1,                          Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                           Sandra%Santos-Martinez%NULL%1,                           Diego%López-Otero%NULL%1,                           Luis%Nombela-Franco%NULL%1,                           Enrique%Gutiérrez-Ibanes%NULL%1,                           Raquel%Del Valle%NULL%1,                           Erika%Muñoz-García%NULL%1,                           Víctor A.%Jiménez-Diaz%NULL%1,                           Ander%Regueiro%NULL%1,                           Rocío%González-Ferreiro%NULL%1,                           Tomás%Benito%NULL%1,                           Xoan Carlos%Sanmartin-Pena%NULL%1,                           Pablo%Catalá%NULL%1,                           Tania%Rodríguez-Gabella%NULL%1,                           Jose Raúl%Delgado-Arana%NULL%1,                           Manuel%Carrasco-Moraleja%NULL%1,                           Borja%Ibañez%NULL%1,                           J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                           David M.%Tehrani%NULL%1,                           Soniya V.%Rabadia%NULL%1,                           Marlene%Frost%NULL%1,                           Rushi V.%Parikh%NULL%1,                           Marcella%Calfon-Press%NULL%1,                           Olcay%Aksoy%NULL%1,                           Soban%Umar%NULL%1,                           Reza%Ardehali%NULL%1,                           Amir%Rabbani%NULL%1,                           Pooya%Bokhoor%NULL%1,                           Ali%Nsair%NULL%1,                           Jesse%Currier%NULL%1,                           Jonathan%Tobis%NULL%1,                           Gregg C.%Fonarow%NULL%1,                           Ravi%Dave%NULL%1,                           Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                           Zeljko%Kraljevic%NULL%1,                           Thomas%Searle%NULL%1,                           Rebecca%Bendayan%NULL%1,                           O'Gallagher%Kevin%NULL%1,                           Andrew%Pickles%NULL%1,                           Amos%Folarin%NULL%1,                           Lukasz%Roguski%NULL%1,                           Kawsar%Noor%NULL%1,                           Anthony%Shek%NULL%1,                           Rosita%Zakeri%NULL%1,                           Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                           James T.H.%Teo%jamesteo@nhs.net%1,                           Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                           Mauro%Chiarito%NULL%1,                           Bernhard%Reimers%NULL%2,                           Bernhard%Reimers%NULL%0,                           Elena%Azzolini%NULL%1,                           Giuseppe%Ferrante%NULL%1,                           Ilaria%My%NULL%1,                           Giacomo%Viggiani%NULL%1,                           Cristina%Panico%NULL%1,                           Damiano%Regazzoli%NULL%1,                           Michele%Ciccarelli%NULL%1,                           Antonio%Voza%NULL%1,                           Alessio%Aghemo%NULL%1,                           Hongliang%Li%NULL%2,                           Yibin%Wang%NULL%2,                           Gianluigi%Condorelli%NULL%1,                           Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                           Feng%Wang%NULL%1,                           Peng%Chen%NULL%1,                           Jiangang%Jiang%NULL%1,                           Guanglin%Cui%NULL%1,                           Ning%Zhou%NULL%2,                           Francesco%Moroni%NULL%1,                           Javid J.%Moslehi%NULL%1,                           Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                           Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                           Ming%Zhong%NULL%1,                           Ya%Liu%NULL%1,                           Yi%Zhang%NULL%2,                           Kai%Zhang%NULL%1,                           De-zhen%Su%NULL%1,                           Xiao%Meng%NULL%1,                           Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                           Duncan%Young%NULL%2,                           Duncan%Young%NULL%0,                           Carol%Coupland%NULL%1,                           Keith M%Channon%NULL%1,                           Pui San%Tan%NULL%1,                           David A%Harrison%NULL%1,                           Kathryn%Rowan%NULL%2,                           Kathryn%Rowan%NULL%0,                           Paul%Aveyard%NULL%1,                           Ian D%Pavord%NULL%1,                           Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,                    Butt%Jawad H%coreGivesNoEmail%1,                    Fosb\u00f8l%Emil L%coreGivesNoEmail%1,                    Gerds%Thomas A%coreGivesNoEmail%1,                    Gislason%Gunnar H%coreGivesNoEmail%1,                    Kragholm%Kristian%coreGivesNoEmail%1,                    K\u00f8ber%Lars%coreGivesNoEmail%1,                    Phelps%Matthew%coreGivesNoEmail%1,                    Schou%Morten%coreGivesNoEmail%1,                    Selmer%Christian%coreGivesNoEmail%1,                    Torp-Pedersen%Christian%coreGivesNoEmail%1,                    \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                           Yue%Cai%NULL%1,                           Kan%Zhang%NULL%2,                           Kan%Zhang%NULL%0,                           Lei%Zhou%NULL%1,                           Yao%Zhang%NULL%1,                           Xijing%Zhang%NULL%1,                           Qi%Li%NULL%1,                           Weiqin%Li%NULL%1,                           Shiming%Yang%NULL%1,                           Xiaoyan%Zhao%NULL%1,                           Yuying%Zhao%NULL%1,                           Hui%Wang%NULL%1,                           Yi%Liu%NULL%2,                           Zhiyong%Yin%NULL%1,                           Ruining%Zhang%NULL%1,                           Rutao%Wang%NULL%1,                           Ming%Yang%NULL%1,                           Chen%Hui%NULL%1,                           William%Wijns%NULL%1,                           J William%McEvoy%NULL%1,                           Osama%Soliman%NULL%2,                           Osama%Soliman%NULL%0,                           Yoshinobu%Onuma%NULL%2,                           Yoshinobu%Onuma%NULL%0,                           Patrick W%Serruys%NULL%1,                           Ling%Tao%lingtao@fmmu.edu.cn%1,                           Fei%Li%lifei01@fmmu.edu.cn%2,                           Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                           Erkan%Ekicibasi%NULL%1,                           Aleks%Degirmencioglu%NULL%1,                           Ashok%Paudel%NULL%1,                           Refik%Erdim%NULL%1,                           Hilal Kurtoglu%Gumusel%NULL%1,                           Elif%Eroglu%NULL%1,                           Ibrahim Halil%Tanboga%NULL%1,                           Sinan%Dagdelen%NULL%1,                           Nevin%Sariguzel%NULL%1,                           Ceyda Erel%Kirisoglu%NULL%1,                           Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,                    Antonelli%M.%coreGivesNoEmail%2,                    Bellani%G.%coreGivesNoEmail%2,                    Bonanomi%E.%coreGivesNoEmail%2,                    Cabrini%L.%coreGivesNoEmail%2,                    Carlesso%E.%coreGivesNoEmail%2,                    Castelli%G.%coreGivesNoEmail%2,                    Cattaneo%S.%coreGivesNoEmail%2,                    Cecconi%M.%coreGivesNoEmail%2,                    Cereda%D.%coreGivesNoEmail%2,                    Colombo%S.%coreGivesNoEmail%2,                    Coluccello%A.%coreGivesNoEmail%2,                    Crescini%G.%coreGivesNoEmail%2,                    Forastieri%Molinari A.%coreGivesNoEmail%2,                    Foti%G.%coreGivesNoEmail%2,                    Fumagalli%R.%coreGivesNoEmail%2,                    Grasselli%G.%coreGivesNoEmail%2,                    Greco%M.%coreGivesNoEmail%2,                    Iotti%G. A.%coreGivesNoEmail%2,                    Langer%T.%coreGivesNoEmail%2,                    Latronico%N.%coreGivesNoEmail%2,                    Lorini%F. L.%coreGivesNoEmail%2,                    Mojoli%F.%coreGivesNoEmail%2,                    Natalini%G.%coreGivesNoEmail%2,                    Pesenti%A.%coreGivesNoEmail%2,                    Pessina%C. M.%coreGivesNoEmail%2,                    Ranieri%V. M.%coreGivesNoEmail%2,                    Rech%R.%coreGivesNoEmail%2,                    Rosano%A.%coreGivesNoEmail%2,                    Scudeller%L.%coreGivesNoEmail%2,                    Storti%E.%coreGivesNoEmail%2,                    Thompson%B. T.%coreGivesNoEmail%2,                    Tirani%M.%coreGivesNoEmail%2,                    Villani%P. G.%coreGivesNoEmail%2,                    Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                           Jiatian%Cao%NULL%1,                           Yumeng%Yao%NULL%1,                           Xuejuan%Jin%NULL%1,                           Zhe%Luo%NULL%1,                           Yuan%Xue%NULL%1,                           Chouwen%Zhu%NULL%1,                           Yanan%Song%NULL%1,                           Ying%Wang%NULL%1,                           Yunzeng%Zou%NULL%1,                           Juying%Qian%NULL%1,                           Kaihuan%Yu%NULL%1,                           Hui%Gong%NULL%1,                           Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                           Ju-Hyun%Kim%NULL%1,                           Jin-Sung%Park%NULL%1,                           Min Cheol%Chang%wheel633@ynu.ac.kr%1,                           Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                           Raphael Romano%Bruno%NULL%1,                           Bernhard%Wernly%NULL%1,                           Michael%Joannidis%NULL%1,                           Sandra%Oeyen%NULL%1,                           Tilemachos%Zafeiridis%NULL%1,                           Brian%Marsh%NULL%1,                           Finn H%Andersen%NULL%1,                           Rui%Moreno%NULL%1,                           Ana Margarida%Fernandes%NULL%1,                           Antonio%Artigas%NULL%1,                           Bernardo Bollen%Pinto%NULL%1,                           Joerg%Schefold%NULL%1,                           Georg%Wolff%NULL%1,                           Malte%Kelm%NULL%2,                           Malte%Kelm%NULL%0,                           Dylan W%De Lange%NULL%1,                           Bertrand%Guidet%NULL%1,                           Hans%Flaatten%NULL%1,                           Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                           Jae Chol%Choi%NULL%1,                           Seung-Hun%You%NULL%1,                           Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                           Hamish%Reed-Embleton%NULL%2,                           Hamish%Reed-Embleton%NULL%0,                           Jen%Lewis%NULL%2,                           Jen%Lewis%NULL%0,                           Pamela%Bain%NULL%1,                           Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                           Kenneth W%Chow%NULL%1,                           Jonathan%Vo%NULL%1,                           Wei%Hou%NULL%1,                           Haifang%Li%NULL%1,                           Paul S%Richman%NULL%1,                           Sandeep K%Mallipattu%NULL%1,                           Hal A%Skopicki%NULL%1,                           Adam J%Singer%NULL%1,                           Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                           Julien%Moragny%NULL%2,                           Julien%Moragny%NULL%0,                           Youssef%Bennis%NULL%1,                           Benjamin%Batteux%NULL%1,                           Etienne%Brochot%NULL%1,                           Jean Luc%Schmit%NULL%1,                           Jean-Philippe%Lanoix%NULL%1,                           Claire%Andrejak%NULL%1,                           Olivier%Ganry%NULL%1,                           Michel%Slama%NULL%1,                           Julien%Maizel%NULL%1,                           Yazine%Mahjoub%NULL%1,                           Kamel%Masmoudi%NULL%1,                           Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                           Yi%Liu%NULL%0,                           Keliang%Chen%NULL%1,                           Suying%Yan%NULL%1,                           Xiangrong%Bai%NULL%1,                           Juan%Li%947281063@qq.com%1,                           Dong%Liu%ld2069@outlook.com%2,                           Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                           Javier%López-Pais%NULL%1,                           Carla Eugenia%Cacho-Antonio%NULL%1,                           Pablo José%Antúnez-Muiños%NULL%1,                           Teba%González-Ferrero%NULL%1,                           Marta%Pérez-Poza%NULL%1,                           Óscar%Otero-García%NULL%1,                           Brais%Díaz-Fernández%NULL%1,                           María%Bastos-Fernández%NULL%1,                           Noelia%Bouzas-Cruz%NULL%1,                           Xoan Carlos%Sanmartín-Pena%NULL%1,                           Alfonso%Varela-Román%NULL%1,                           Manuel%Portela-Romero%NULL%1,                           Luis%Valdés-Cuadrado%NULL%1,                           Antonio%Pose-Reino%NULL%1,                           José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                           Federico%Rea%NULL%1,                           Monica%Ludergnani%NULL%4,                           Monica%Ludergnani%NULL%0,                           Giovanni%Apolone%NULL%1,                           Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,              Hisao%Ogawa%null%2,              Kazuo%Kimura%null%2,              Masaaki%Konishi%null%2,              Jin%Kirigaya%null%2,              Kazuki%Fukui%null%2,              Kengo%Tsukahara%null%2,              Hiroyuki%Shimizu%null%2,              Keisuke%Iwabuchi%null%2,              Yu%Yamada%null%2,              Kenichiro%Saka%null%2,              Ichiro%Takeuchi%null%2,              Toshio%Hirano%null%2,              Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                           Guohui%Xiao%NULL%1,                           Juanjuan%Zhang%NULL%1,                           Xing%He%NULL%1,                           Min%Ou%NULL%1,                           Jing%Bi%NULL%1,                           Rongqing%Yang%NULL%1,                           Wencheng%Di%NULL%1,                           Zhaoqin%Wang%NULL%1,                           Zigang%Li%NULL%1,                           Hong%Gao%NULL%1,                           Lei%Liu%NULL%1,                           Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                           Francisca%García-Iglesias%NULL%1,                           Teresa%González-Alegre%NULL%1,                           Francisco%Blanco%NULL%1,                           Marta%Varas%NULL%1,                           Clara%Hernández-Blanco%NULL%1,                           Victor%Hontañón%NULL%1,                           María J.%Jaras-Hernández%NULL%1,                           Mónica%Martínez-Prieto%NULL%1,                           Araceli%Menéndez-Saldaña%NULL%1,                           María L.%Cachán%NULL%1,                           Eva%Estirado%NULL%1,                           Carlos%Lahoz%NULL%1,                           Rosa%de Miguel%NULL%1,                           Miriam%Romero%NULL%1,                           Mar%Lago%NULL%1,                           Cristina%García-Quero%NULL%1,                           Cristina%Plaza%NULL%1,                           Talía%Sainz-Costa%NULL%1,                           Susana%Rivas-Vila%NULL%1,                           Blanca%Sánchez%NULL%1,                           Celia García%Torres%NULL%1,                           Lucía%Martínez-Tobar%NULL%1,                           María%Hernandez-Pérez%NULL%1,                           Pablo%Racionero%NULL%1,                           Patricia%Mir-Ihara%NULL%1,                           Jesús%Peña-López%NULL%1,                           Marta%Bautista-Barea%NULL%1,                           Alexa P.%Benítez%NULL%1,                           Pablo%Rodríguez-Merlos%NULL%1,                           María%Barcenilla%NULL%1,                           María San%Basilio%NULL%1,                           María%Valencia%NULL%1,                           Ricardo%Romero-Martín%NULL%1,                           Ana%Boto de los Bueis%NULL%1,                           Adriana%de la Hoz-Polo%NULL%1,                           María%del Pino-Cidad%NULL%1,                           Javier%Coca-Robinot%NULL%1,                           Bárbara%González-Ferrer%NULL%1,                           Pedro%Fernández-Pérez%NULL%1,                           Isabel%Mogollón%NULL%1,                           María S.%Montoro-Romero%NULL%1,                           Isabel%Villalaín%NULL%1,                           Almudena%del Hierro-Zarzuelo%NULL%1,                           Irene%Hernández-Martín%NULL%1,                           Javier%Domínguez%NULL%1,                           Alberto%Luna%NULL%1,                           Soledad%Montoro%NULL%1,                           Margarita%Sánchez-Orgaz%NULL%1,                           Gloria%Amorena%NULL%1,                           Cosme%Lavín-Dapena%NULL%1,                           Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                           Stanislas%Gleye%NULL%1,                           Isabelle%Clerc Urmes%NULL%1,                           Elodie%Laugel%NULL%1,                           Jonas%Callet%NULL%1,                           Françoise%Barbé%NULL%1,                           Sophie%Orlowski%NULL%1,                           Catherine%Malaplate%NULL%1,                           Isabelle%Aimone-Gastin%NULL%1,                           Beatrice Maatem%Caillierez%NULL%1,                           Marc%Merten%NULL%1,                           Elise%Jeannesson%NULL%1,                           Raphaël%Kormann%NULL%1,                           Jean-Luc%Olivier%NULL%1,                           Rosa-Maria%Rodriguez-Guéant%NULL%1,                           Farès%Namour%NULL%1,                           Sybille%Bevilacqua%NULL%1,                           Marie-Reine%Losser%NULL%1,                           Bruno%Levy%NULL%1,                           Antoine%Kimmoun%NULL%1,                           Sébastien%Gibot%NULL%1,                           Nathalie%Thilly%NULL%1,                           Luc%Frimat%NULL%1,                           Evelyne%Schvoerer%NULL%1,                           Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                           Samrachana%Adhikari%NULL%1,                           Claudia%Pulgarin%NULL%1,                           Andrea B.%Troxel%NULL%1,                           Eduardo%Iturrate%NULL%1,                           Stephen B.%Johnson%NULL%1,                           Anaïs%Hausvater%NULL%1,                           Jonathan D.%Newman%NULL%1,                           Jeffrey S.%Berger%NULL%1,                           Sripal%Bangalore%NULL%1,                           Stuart D.%Katz%NULL%1,                           Glenn I.%Fishman%NULL%1,                           Dennis%Kunichoff%NULL%1,                           Yu%Chen%NULL%1,                           Gbenga%Ogedegbe%NULL%1,                           Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,                    Becker%L.B.%coreGivesNoEmail%3,                    Chelico%J.D.%coreGivesNoEmail%3,                    Cohen%S.L.%coreGivesNoEmail%3,                    Cookingham%J.%coreGivesNoEmail%3,                    Coppa%K.%coreGivesNoEmail%3,                    Crawford%J.M.%coreGivesNoEmail%3,                    Davidson%K.W.%coreGivesNoEmail%3,                    Diefenbach%M.A.%coreGivesNoEmail%3,                    Dominello%A.J.%coreGivesNoEmail%3,                    Duer-Hefele%J.%coreGivesNoEmail%3,                    Falzon%L.%coreGivesNoEmail%3,                    Gitlin%J.%coreGivesNoEmail%3,                    Hajizadeh%N.%coreGivesNoEmail%3,                    Harvin%T.G.%coreGivesNoEmail%3,                    Hirsch%J.S.%coreGivesNoEmail%3,                    Hirschwerk%D.A.%coreGivesNoEmail%3,                    Kim%E.J.%coreGivesNoEmail%3,                    Kozel%Z.M.%coreGivesNoEmail%3,                    Marrast%L.M.%coreGivesNoEmail%3,                    McGinn%T.%coreGivesNoEmail%3,                    Mogavero%J.N.%coreGivesNoEmail%3,                    Narasimhan%M.%coreGivesNoEmail%3,                    Osorio%G.A.%coreGivesNoEmail%3,                    Qiu%M.%coreGivesNoEmail%3,                    Richardson%S.%coreGivesNoEmail%3,                    Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                           Massimiliano%Marino%NULL%3,                           Debora%Formisano%NULL%1,                           Francesco%Venturelli%NULL%1,                           Massimo%Vicentini%NULL%3,                           Massimo%Vicentini%NULL%0,                           Roberto%Grilli%NULL%2,                           NULL%NULL%NULL%0,                           Gianluigi%Forloni%NULL%8,                           Gianluigi%Forloni%NULL%0,                           Gianluigi%Forloni%NULL%0,                           Gianluigi%Forloni%NULL%0,                           Gianluigi%Forloni%NULL%0,                           Gianluigi%Forloni%NULL%0,                           Gianluigi%Forloni%NULL%0,                           Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                           Paolo%Maggi%NULL%2,                           Paolo%Maggi%NULL%0,                           Vincenzo%Messina%NULL%1,                           Pasquale%Iuliano%NULL%2,                           Pasquale%Iuliano%NULL%0,                           Antonio%Sardu%NULL%1,                           Vincenzo%Iovinella%NULL%1,                           Giuseppe%Paolisso%NULL%1,                           Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                           Rasimcan%Meral%NULL%1,                           Alpay%Medetalibeyoğlu%NULL%1,                           Hilal%Konyaoğlu%NULL%1,                           Murat%Köse%NULL%1,                           Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%4,   Jack%Owens%xref no email%3,   James%Franklin%xref no email%3,   Yash%Jani%xref no email%1,   Ashish%Kumar%xref no email%1,   Rajkumar%Doshi%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                           Yun%Qiu%NULL%1,                           Xiang-Bin%Xing%NULL%1,                           Subrata%Ghosh%NULL%1,                           Min-Hu%Chen%NULL%1,                           Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                           Maddalena%Giannella%NULL%1,                           Michele%Bartoletti%NULL%1,                           Filippo%Trapani%NULL%1,                           Marina%Tadolini%NULL%1,                           Claudio%Borghi%NULL%1,                           Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                           Marco%Massari%NULL%3,                           Marco%Massari%NULL%0,                           Roberto%Da Cas%NULL%2,                           Francesca%Menniti Ippolito%NULL%2,                           Janet%Sultana%NULL%2,                           Salvatore%Crisafulli%NULL%2,                           Paolo%Giorgi Rossi%NULL%2,                           Massimiliano%Marino%NULL%0,                           Manuel%Zorzi%NULL%2,                           Emanuela%Bovo%NULL%2,                           Olivia%Leoni%NULL%2,                           Monica%Ludergnani%NULL%0,                           Stefania%Spila Alegiani%stefania.spila@iss.it%2,                           Stefania%Spila Alegiani%NULL%0,                           Francesca%Menniti Ippolito%NULL%0,                           Roberto%Da Cas%NULL%0,                           Marco%Massari%NULL%0,                           Giuseppe%Traversa%NULL%1,                           Graziano%Onder%NULL%1,                           Gianluca%Trifirò%NULL%1,                           Janet%Sultana%NULL%0,                           Valentina%Ientile%NULL%1,                           Salvatore%Crisafulli%NULL%0,                           Paolo%Giorgi Rossi%NULL%0,                           Roberto%Grilli%NULL%0,                           Giulio%Formoso%NULL%1,                           Massimiliano%Marino%NULL%0,                           Massimo%Vicentini%NULL%0,                           Olivia%Leoni%NULL%0,                           Monica%Ludergnani%NULL%0,                           Danilo%Cereda%NULL%1,                           Eliana%Ferroni%NULL%1,                           Stefano%Guzzinati%NULL%1,                           Emanuela%Bovo%NULL%0,                           Manuel%Zorzi%NULL%0,                           Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                           Chaolin%Huang%NULL%1,                           Guohui%Fan%NULL%1,                           Zhibo%Liu%NULL%1,                           Lianhan%Shang%NULL%1,                           Fei%Zhou%NULL%1,                           Yeming%Wang%NULL%1,                           Jiapei%Yu%NULL%1,                           Luning%Yang%NULL%1,                           Ke%Xie%NULL%1,                           Zhisheng%Huang%NULL%1,                           Lixue%Huang%NULL%1,                           Xiaoying%Gu%NULL%1,                           Hui%Li%NULL%1,                           Yi%Zhang%NULL%0,                           Yimin%Wang%NULL%1,                           Frederick G.%Hayden%NULL%1,                           Peter W.%Horby%NULL%1,                           Bin%Cao%caobin_ben@163.com%1,                           Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                           Dan%Liu%NULL%1,                           Shaoqing%Zeng%NULL%1,                           Siyuan%Wang%NULL%1,                           Sen%Xu%NULL%1,                           Ya%Wang%NULL%1,                           Ruidi%Yu%NULL%1,                           Yue%Gao%NULL%1,                           Huayi%Li%NULL%1,                           Xinxia%Feng%NULL%1,                           Ning%Zhou%NULL%0,                           Chunxia%Zhao%NULL%1,                           Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                           Lihua%Zhu%NULL%1,                           Jingjing%Cai%NULL%1,                           Fang%Lei%NULL%1,                           Juan-Juan%Qin%NULL%1,                           Jing%Xie%NULL%1,                           Ye-Mao%Liu%NULL%1,                           Yan-Ci%Zhao%NULL%1,                           Xuewei%Huang%NULL%1,                           Lijin%Lin%NULL%1,                           Meng%Xia%NULL%1,                           Ming-Ming%Chen%NULL%1,                           Xu%Cheng%NULL%1,                           Xiao%Zhang%NULL%1,                           Deliang%Guo%NULL%1,                           Yuanyuan%Peng%NULL%1,                           Yan-Xiao%Ji%NULL%1,                           Jing%Chen%NULL%1,                           Zhi-Gang%She%NULL%1,                           Yibin%Wang%NULL%0,                           Qingbo%Xu%NULL%1,                           Renfu%Tan%NULL%1,                           Haitao%Wang%NULL%1,                           Jun%Lin%NULL%1,                           Pengcheng%Luo%NULL%1,                           Shouzhi%Fu%NULL%1,                           Hongbin%Cai%NULL%1,                           Ping%Ye%NULL%1,                           Bing%Xiao%NULL%1,                           Weiming%Mao%NULL%1,                           Liming%Liu%NULL%1,                           Youqin%Yan%NULL%1,                           Mingyu%Liu%NULL%1,                           Manhua%Chen%NULL%1,                           Xiao-Jing%Zhang%NULL%1,                           Xinghuan%Wang%NULL%1,                           Rhian M.%Touyz%NULL%1,                           Jiahong%Xia%NULL%1,                           Bing-Hong%Zhang%NULL%1,                           Xiaodong%Huang%NULL%1,                           Yufeng%Yuan%NULL%1,                           Rohit%Loomba%NULL%1,                           Peter P.%Liu%NULL%1,                           Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                            Sandra%Santos-Martinez%NULL%1,                            Diego%López-Otero%NULL%1,                            Luis%Nombela-Franco%NULL%1,                            Enrique%Gutiérrez-Ibanes%NULL%1,                            Raquel%Del Valle%NULL%1,                            Erika%Muñoz-García%NULL%1,                            Víctor A.%Jiménez-Diaz%NULL%1,                            Ander%Regueiro%NULL%1,                            Rocío%González-Ferreiro%NULL%1,                            Tomás%Benito%NULL%1,                            Xoan Carlos%Sanmartin-Pena%NULL%1,                            Pablo%Catalá%NULL%1,                            Tania%Rodríguez-Gabella%NULL%1,                            Jose Raúl%Delgado-Arana%NULL%1,                            Manuel%Carrasco-Moraleja%NULL%1,                            Borja%Ibañez%NULL%1,                            J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                            David M.%Tehrani%NULL%1,                            Soniya V.%Rabadia%NULL%1,                            Marlene%Frost%NULL%1,                            Rushi V.%Parikh%NULL%1,                            Marcella%Calfon-Press%NULL%1,                            Olcay%Aksoy%NULL%1,                            Soban%Umar%NULL%1,                            Reza%Ardehali%NULL%1,                            Amir%Rabbani%NULL%1,                            Pooya%Bokhoor%NULL%1,                            Ali%Nsair%NULL%1,                            Jesse%Currier%NULL%1,                            Jonathan%Tobis%NULL%1,                            Gregg C.%Fonarow%NULL%1,                            Ravi%Dave%NULL%1,                            Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                            Zeljko%Kraljevic%NULL%1,                            Thomas%Searle%NULL%1,                            Rebecca%Bendayan%NULL%1,                            O'Gallagher%Kevin%NULL%1,                            Andrew%Pickles%NULL%1,                            Amos%Folarin%NULL%1,                            Lukasz%Roguski%NULL%1,                            Kawsar%Noor%NULL%1,                            Anthony%Shek%NULL%1,                            Rosita%Zakeri%NULL%1,                            Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                            James T.H.%Teo%jamesteo@nhs.net%1,                            Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                            Mauro%Chiarito%NULL%1,                            Bernhard%Reimers%NULL%2,                            Bernhard%Reimers%NULL%0,                            Elena%Azzolini%NULL%1,                            Giuseppe%Ferrante%NULL%1,                            Ilaria%My%NULL%1,                            Giacomo%Viggiani%NULL%1,                            Cristina%Panico%NULL%1,                            Damiano%Regazzoli%NULL%1,                            Michele%Ciccarelli%NULL%1,                            Antonio%Voza%NULL%1,                            Alessio%Aghemo%NULL%1,                            Hongliang%Li%NULL%2,                            Yibin%Wang%NULL%2,                            Gianluigi%Condorelli%NULL%1,                            Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                            Feng%Wang%NULL%1,                            Peng%Chen%NULL%1,                            Jiangang%Jiang%NULL%1,                            Guanglin%Cui%NULL%1,                            Ning%Zhou%NULL%2,                            Francesco%Moroni%NULL%1,                            Javid J.%Moslehi%NULL%1,                            Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                            Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                            Ming%Zhong%NULL%1,                            Ya%Liu%NULL%1,                            Yi%Zhang%NULL%2,                            Kai%Zhang%NULL%1,                            De-zhen%Su%NULL%1,                            Xiao%Meng%NULL%1,                            Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                            Duncan%Young%NULL%2,                            Duncan%Young%NULL%0,                            Carol%Coupland%NULL%1,                            Keith M%Channon%NULL%1,                            Pui San%Tan%NULL%1,                            David A%Harrison%NULL%1,                            Kathryn%Rowan%NULL%2,                            Kathryn%Rowan%NULL%0,                            Paul%Aveyard%NULL%1,                            Ian D%Pavord%NULL%1,                            Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,                     Butt%Jawad H%coreGivesNoEmail%1,                     Fosb\u00f8l%Emil L%coreGivesNoEmail%1,                     Gerds%Thomas A%coreGivesNoEmail%1,                     Gislason%Gunnar H%coreGivesNoEmail%1,                     Kragholm%Kristian%coreGivesNoEmail%1,                     K\u00f8ber%Lars%coreGivesNoEmail%1,                     Phelps%Matthew%coreGivesNoEmail%1,                     Schou%Morten%coreGivesNoEmail%1,                     Selmer%Christian%coreGivesNoEmail%1,                     Torp-Pedersen%Christian%coreGivesNoEmail%1,                     \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                            Yue%Cai%NULL%1,                            Kan%Zhang%NULL%2,                            Kan%Zhang%NULL%0,                            Lei%Zhou%NULL%1,                            Yao%Zhang%NULL%1,                            Xijing%Zhang%NULL%1,                            Qi%Li%NULL%1,                            Weiqin%Li%NULL%1,                            Shiming%Yang%NULL%1,                            Xiaoyan%Zhao%NULL%1,                            Yuying%Zhao%NULL%1,                            Hui%Wang%NULL%1,                            Yi%Liu%NULL%2,                            Zhiyong%Yin%NULL%1,                            Ruining%Zhang%NULL%1,                            Rutao%Wang%NULL%1,                            Ming%Yang%NULL%1,                            Chen%Hui%NULL%1,                            William%Wijns%NULL%1,                            J William%McEvoy%NULL%1,                            Osama%Soliman%NULL%2,                            Osama%Soliman%NULL%0,                            Yoshinobu%Onuma%NULL%2,                            Yoshinobu%Onuma%NULL%0,                            Patrick W%Serruys%NULL%1,                            Ling%Tao%lingtao@fmmu.edu.cn%1,                            Fei%Li%lifei01@fmmu.edu.cn%2,                            Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                            Erkan%Ekicibasi%NULL%1,                            Aleks%Degirmencioglu%NULL%1,                            Ashok%Paudel%NULL%1,                            Refik%Erdim%NULL%1,                            Hilal Kurtoglu%Gumusel%NULL%1,                            Elif%Eroglu%NULL%1,                            Ibrahim Halil%Tanboga%NULL%1,                            Sinan%Dagdelen%NULL%1,                            Nevin%Sariguzel%NULL%1,                            Ceyda Erel%Kirisoglu%NULL%1,                            Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,                     Antonelli%M.%coreGivesNoEmail%2,                     Bellani%G.%coreGivesNoEmail%2,                     Bonanomi%E.%coreGivesNoEmail%2,                     Cabrini%L.%coreGivesNoEmail%2,                     Carlesso%E.%coreGivesNoEmail%2,                     Castelli%G.%coreGivesNoEmail%2,                     Cattaneo%S.%coreGivesNoEmail%2,                     Cecconi%M.%coreGivesNoEmail%2,                     Cereda%D.%coreGivesNoEmail%2,                     Colombo%S.%coreGivesNoEmail%2,                     Coluccello%A.%coreGivesNoEmail%2,                     Crescini%G.%coreGivesNoEmail%2,                     Forastieri%Molinari A.%coreGivesNoEmail%2,                     Foti%G.%coreGivesNoEmail%2,                     Fumagalli%R.%coreGivesNoEmail%2,                     Grasselli%G.%coreGivesNoEmail%2,                     Greco%M.%coreGivesNoEmail%2,                     Iotti%G. A.%coreGivesNoEmail%2,                     Langer%T.%coreGivesNoEmail%2,                     Latronico%N.%coreGivesNoEmail%2,                     Lorini%F. L.%coreGivesNoEmail%2,                     Mojoli%F.%coreGivesNoEmail%2,                     Natalini%G.%coreGivesNoEmail%2,                     Pesenti%A.%coreGivesNoEmail%2,                     Pessina%C. M.%coreGivesNoEmail%2,                     Ranieri%V. M.%coreGivesNoEmail%2,                     Rech%R.%coreGivesNoEmail%2,                     Rosano%A.%coreGivesNoEmail%2,                     Scudeller%L.%coreGivesNoEmail%2,                     Storti%E.%coreGivesNoEmail%2,                     Thompson%B. T.%coreGivesNoEmail%2,                     Tirani%M.%coreGivesNoEmail%2,                     Villani%P. G.%coreGivesNoEmail%2,                     Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                            Jiatian%Cao%NULL%1,                            Yumeng%Yao%NULL%1,                            Xuejuan%Jin%NULL%1,                            Zhe%Luo%NULL%1,                            Yuan%Xue%NULL%1,                            Chouwen%Zhu%NULL%1,                            Yanan%Song%NULL%1,                            Ying%Wang%NULL%1,                            Yunzeng%Zou%NULL%1,                            Juying%Qian%NULL%1,                            Kaihuan%Yu%NULL%1,                            Hui%Gong%NULL%1,                            Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                            Ju-Hyun%Kim%NULL%1,                            Jin-Sung%Park%NULL%1,                            Min Cheol%Chang%wheel633@ynu.ac.kr%1,                            Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                            Raphael Romano%Bruno%NULL%1,                            Bernhard%Wernly%NULL%1,                            Michael%Joannidis%NULL%1,                            Sandra%Oeyen%NULL%1,                            Tilemachos%Zafeiridis%NULL%1,                            Brian%Marsh%NULL%1,                            Finn H%Andersen%NULL%1,                            Rui%Moreno%NULL%1,                            Ana Margarida%Fernandes%NULL%1,                            Antonio%Artigas%NULL%1,                            Bernardo Bollen%Pinto%NULL%1,                            Joerg%Schefold%NULL%1,                            Georg%Wolff%NULL%1,                            Malte%Kelm%NULL%2,                            Malte%Kelm%NULL%0,                            Dylan W%De Lange%NULL%1,                            Bertrand%Guidet%NULL%1,                            Hans%Flaatten%NULL%1,                            Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                            Jae Chol%Choi%NULL%1,                            Seung-Hun%You%NULL%1,                            Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                            Hamish%Reed-Embleton%NULL%2,                            Hamish%Reed-Embleton%NULL%0,                            Jen%Lewis%NULL%2,                            Jen%Lewis%NULL%0,                            Pamela%Bain%NULL%1,                            Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                            Kenneth W%Chow%NULL%1,                            Jonathan%Vo%NULL%1,                            Wei%Hou%NULL%1,                            Haifang%Li%NULL%1,                            Paul S%Richman%NULL%1,                            Sandeep K%Mallipattu%NULL%1,                            Hal A%Skopicki%NULL%1,                            Adam J%Singer%NULL%1,                            Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                            Julien%Moragny%NULL%2,                            Julien%Moragny%NULL%0,                            Youssef%Bennis%NULL%1,                            Benjamin%Batteux%NULL%1,                            Etienne%Brochot%NULL%1,                            Jean Luc%Schmit%NULL%1,                            Jean-Philippe%Lanoix%NULL%1,                            Claire%Andrejak%NULL%1,                            Olivier%Ganry%NULL%1,                            Michel%Slama%NULL%1,                            Julien%Maizel%NULL%1,                            Yazine%Mahjoub%NULL%1,                            Kamel%Masmoudi%NULL%1,                            Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                            Yi%Liu%NULL%0,                            Keliang%Chen%NULL%1,                            Suying%Yan%NULL%1,                            Xiangrong%Bai%NULL%1,                            Juan%Li%947281063@qq.com%1,                            Dong%Liu%ld2069@outlook.com%2,                            Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                            Javier%López-Pais%NULL%1,                            Carla Eugenia%Cacho-Antonio%NULL%1,                            Pablo José%Antúnez-Muiños%NULL%1,                            Teba%González-Ferrero%NULL%1,                            Marta%Pérez-Poza%NULL%1,                            Óscar%Otero-García%NULL%1,                            Brais%Díaz-Fernández%NULL%1,                            María%Bastos-Fernández%NULL%1,                            Noelia%Bouzas-Cruz%NULL%1,                            Xoan Carlos%Sanmartín-Pena%NULL%1,                            Alfonso%Varela-Román%NULL%1,                            Manuel%Portela-Romero%NULL%1,                            Luis%Valdés-Cuadrado%NULL%1,                            Antonio%Pose-Reino%NULL%1,                            José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                            Federico%Rea%NULL%1,                            Monica%Ludergnani%NULL%4,                            Monica%Ludergnani%NULL%0,                            Giovanni%Apolone%NULL%1,                            Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,               Hisao%Ogawa%null%2,               Kazuo%Kimura%null%2,               Masaaki%Konishi%null%2,               Jin%Kirigaya%null%2,               Kazuki%Fukui%null%2,               Kengo%Tsukahara%null%2,               Hiroyuki%Shimizu%null%2,               Keisuke%Iwabuchi%null%2,               Yu%Yamada%null%2,               Kenichiro%Saka%null%2,               Ichiro%Takeuchi%null%2,               Toshio%Hirano%null%2,               Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                            Guohui%Xiao%NULL%1,                            Juanjuan%Zhang%NULL%1,                            Xing%He%NULL%1,                            Min%Ou%NULL%1,                            Jing%Bi%NULL%1,                            Rongqing%Yang%NULL%1,                            Wencheng%Di%NULL%1,                            Zhaoqin%Wang%NULL%1,                            Zigang%Li%NULL%1,                            Hong%Gao%NULL%1,                            Lei%Liu%NULL%1,                            Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                            Francisca%García-Iglesias%NULL%1,                            Teresa%González-Alegre%NULL%1,                            Francisco%Blanco%NULL%1,                            Marta%Varas%NULL%1,                            Clara%Hernández-Blanco%NULL%1,                            Victor%Hontañón%NULL%1,                            María J.%Jaras-Hernández%NULL%1,                            Mónica%Martínez-Prieto%NULL%1,                            Araceli%Menéndez-Saldaña%NULL%1,                            María L.%Cachán%NULL%1,                            Eva%Estirado%NULL%1,                            Carlos%Lahoz%NULL%1,                            Rosa%de Miguel%NULL%1,                            Miriam%Romero%NULL%1,                            Mar%Lago%NULL%1,                            Cristina%García-Quero%NULL%1,                            Cristina%Plaza%NULL%1,                            Talía%Sainz-Costa%NULL%1,                            Susana%Rivas-Vila%NULL%1,                            Blanca%Sánchez%NULL%1,                            Celia García%Torres%NULL%1,                            Lucía%Martínez-Tobar%NULL%1,                            María%Hernandez-Pérez%NULL%1,                            Pablo%Racionero%NULL%1,                            Patricia%Mir-Ihara%NULL%1,                            Jesús%Peña-López%NULL%1,                            Marta%Bautista-Barea%NULL%1,                            Alexa P.%Benítez%NULL%1,                            Pablo%Rodríguez-Merlos%NULL%1,                            María%Barcenilla%NULL%1,                            María San%Basilio%NULL%1,                            María%Valencia%NULL%1,                            Ricardo%Romero-Martín%NULL%1,                            Ana%Boto de los Bueis%NULL%1,                            Adriana%de la Hoz-Polo%NULL%1,                            María%del Pino-Cidad%NULL%1,                            Javier%Coca-Robinot%NULL%1,                            Bárbara%González-Ferrer%NULL%1,                            Pedro%Fernández-Pérez%NULL%1,                            Isabel%Mogollón%NULL%1,                            María S.%Montoro-Romero%NULL%1,                            Isabel%Villalaín%NULL%1,                            Almudena%del Hierro-Zarzuelo%NULL%1,                            Irene%Hernández-Martín%NULL%1,                            Javier%Domínguez%NULL%1,                            Alberto%Luna%NULL%1,                            Soledad%Montoro%NULL%1,                            Margarita%Sánchez-Orgaz%NULL%1,                            Gloria%Amorena%NULL%1,                            Cosme%Lavín-Dapena%NULL%1,                            Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                            Stanislas%Gleye%NULL%1,                            Isabelle%Clerc Urmes%NULL%1,                            Elodie%Laugel%NULL%1,                            Jonas%Callet%NULL%1,                            Françoise%Barbé%NULL%1,                            Sophie%Orlowski%NULL%1,                            Catherine%Malaplate%NULL%1,                            Isabelle%Aimone-Gastin%NULL%1,                            Beatrice Maatem%Caillierez%NULL%1,                            Marc%Merten%NULL%1,                            Elise%Jeannesson%NULL%1,                            Raphaël%Kormann%NULL%1,                            Jean-Luc%Olivier%NULL%1,                            Rosa-Maria%Rodriguez-Guéant%NULL%1,                            Farès%Namour%NULL%1,                            Sybille%Bevilacqua%NULL%1,                            Marie-Reine%Losser%NULL%1,                            Bruno%Levy%NULL%1,                            Antoine%Kimmoun%NULL%1,                            Sébastien%Gibot%NULL%1,                            Nathalie%Thilly%NULL%1,                            Luc%Frimat%NULL%1,                            Evelyne%Schvoerer%NULL%1,                            Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                            Samrachana%Adhikari%NULL%1,                            Claudia%Pulgarin%NULL%1,                            Andrea B.%Troxel%NULL%1,                            Eduardo%Iturrate%NULL%1,                            Stephen B.%Johnson%NULL%1,                            Anaïs%Hausvater%NULL%1,                            Jonathan D.%Newman%NULL%1,                            Jeffrey S.%Berger%NULL%1,                            Sripal%Bangalore%NULL%1,                            Stuart D.%Katz%NULL%1,                            Glenn I.%Fishman%NULL%1,                            Dennis%Kunichoff%NULL%1,                            Yu%Chen%NULL%1,                            Gbenga%Ogedegbe%NULL%1,                            Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,                     Becker%L.B.%coreGivesNoEmail%3,                     Chelico%J.D.%coreGivesNoEmail%3,                     Cohen%S.L.%coreGivesNoEmail%3,                     Cookingham%J.%coreGivesNoEmail%3,                     Coppa%K.%coreGivesNoEmail%3,                     Crawford%J.M.%coreGivesNoEmail%3,                     Davidson%K.W.%coreGivesNoEmail%3,                     Diefenbach%M.A.%coreGivesNoEmail%3,                     Dominello%A.J.%coreGivesNoEmail%3,                     Duer-Hefele%J.%coreGivesNoEmail%3,                     Falzon%L.%coreGivesNoEmail%3,                     Gitlin%J.%coreGivesNoEmail%3,                     Hajizadeh%N.%coreGivesNoEmail%3,                     Harvin%T.G.%coreGivesNoEmail%3,                     Hirsch%J.S.%coreGivesNoEmail%3,                     Hirschwerk%D.A.%coreGivesNoEmail%3,                     Kim%E.J.%coreGivesNoEmail%3,                     Kozel%Z.M.%coreGivesNoEmail%3,                     Marrast%L.M.%coreGivesNoEmail%3,                     McGinn%T.%coreGivesNoEmail%3,                     Mogavero%J.N.%coreGivesNoEmail%3,                     Narasimhan%M.%coreGivesNoEmail%3,                     Osorio%G.A.%coreGivesNoEmail%3,                     Qiu%M.%coreGivesNoEmail%3,                     Richardson%S.%coreGivesNoEmail%3,                     Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                            Massimiliano%Marino%NULL%3,                            Debora%Formisano%NULL%1,                            Francesco%Venturelli%NULL%1,                            Massimo%Vicentini%NULL%3,                            Massimo%Vicentini%NULL%0,                            Roberto%Grilli%NULL%2,                            NULL%NULL%NULL%0,                            Gianluigi%Forloni%NULL%8,                            Gianluigi%Forloni%NULL%0,                            Gianluigi%Forloni%NULL%0,                            Gianluigi%Forloni%NULL%0,                            Gianluigi%Forloni%NULL%0,                            Gianluigi%Forloni%NULL%0,                            Gianluigi%Forloni%NULL%0,                            Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                            Paolo%Maggi%NULL%2,                            Paolo%Maggi%NULL%0,                            Vincenzo%Messina%NULL%1,                            Pasquale%Iuliano%NULL%2,                            Pasquale%Iuliano%NULL%0,                            Antonio%Sardu%NULL%1,                            Vincenzo%Iovinella%NULL%1,                            Giuseppe%Paolisso%NULL%1,                            Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                            Rasimcan%Meral%NULL%1,                            Alpay%Medetalibeyoğlu%NULL%1,                            Hilal%Konyaoğlu%NULL%1,                            Murat%Köse%NULL%1,                            Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%4,    Jack%Owens%xref no email%3,    James%Franklin%xref no email%3,    Yash%Jani%xref no email%1,    Ashish%Kumar%xref no email%2,    Rajkumar%Doshi%xref no email%4]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                            Yun%Qiu%NULL%1,                            Xiang-Bin%Xing%NULL%1,                            Subrata%Ghosh%NULL%1,                            Min-Hu%Chen%NULL%1,                            Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                            Maddalena%Giannella%NULL%1,                            Michele%Bartoletti%NULL%1,                            Filippo%Trapani%NULL%1,                            Marina%Tadolini%NULL%1,                            Claudio%Borghi%NULL%1,                            Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                            Marco%Massari%NULL%3,                            Marco%Massari%NULL%0,                            Roberto%Da Cas%NULL%2,                            Francesca%Menniti Ippolito%NULL%2,                            Janet%Sultana%NULL%2,                            Salvatore%Crisafulli%NULL%2,                            Paolo%Giorgi Rossi%NULL%2,                            Massimiliano%Marino%NULL%0,                            Manuel%Zorzi%NULL%2,                            Emanuela%Bovo%NULL%2,                            Olivia%Leoni%NULL%2,                            Monica%Ludergnani%NULL%0,                            Stefania%Spila Alegiani%stefania.spila@iss.it%2,                            Stefania%Spila Alegiani%NULL%0,                            Francesca%Menniti Ippolito%NULL%0,                            Roberto%Da Cas%NULL%0,                            Marco%Massari%NULL%0,                            Giuseppe%Traversa%NULL%1,                            Graziano%Onder%NULL%1,                            Gianluca%Trifirò%NULL%1,                            Janet%Sultana%NULL%0,                            Valentina%Ientile%NULL%1,                            Salvatore%Crisafulli%NULL%0,                            Paolo%Giorgi Rossi%NULL%0,                            Roberto%Grilli%NULL%0,                            Giulio%Formoso%NULL%1,                            Massimiliano%Marino%NULL%0,                            Massimo%Vicentini%NULL%0,                            Olivia%Leoni%NULL%0,                            Monica%Ludergnani%NULL%0,                            Danilo%Cereda%NULL%1,                            Eliana%Ferroni%NULL%1,                            Stefano%Guzzinati%NULL%1,                            Emanuela%Bovo%NULL%0,                            Manuel%Zorzi%NULL%0,                            Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                            Chaolin%Huang%NULL%1,                            Guohui%Fan%NULL%1,                            Zhibo%Liu%NULL%1,                            Lianhan%Shang%NULL%1,                            Fei%Zhou%NULL%1,                            Yeming%Wang%NULL%1,                            Jiapei%Yu%NULL%1,                            Luning%Yang%NULL%1,                            Ke%Xie%NULL%1,                            Zhisheng%Huang%NULL%1,                            Lixue%Huang%NULL%1,                            Xiaoying%Gu%NULL%1,                            Hui%Li%NULL%1,                            Yi%Zhang%NULL%0,                            Yimin%Wang%NULL%1,                            Frederick G.%Hayden%NULL%1,                            Peter W.%Horby%NULL%1,                            Bin%Cao%caobin_ben@163.com%1,                            Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                            Dan%Liu%NULL%1,                            Shaoqing%Zeng%NULL%1,                            Siyuan%Wang%NULL%1,                            Sen%Xu%NULL%1,                            Ya%Wang%NULL%1,                            Ruidi%Yu%NULL%1,                            Yue%Gao%NULL%1,                            Huayi%Li%NULL%1,                            Xinxia%Feng%NULL%1,                            Ning%Zhou%NULL%0,                            Chunxia%Zhao%NULL%1,                            Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                            Lihua%Zhu%NULL%1,                            Jingjing%Cai%NULL%1,                            Fang%Lei%NULL%1,                            Juan-Juan%Qin%NULL%1,                            Jing%Xie%NULL%1,                            Ye-Mao%Liu%NULL%1,                            Yan-Ci%Zhao%NULL%1,                            Xuewei%Huang%NULL%1,                            Lijin%Lin%NULL%1,                            Meng%Xia%NULL%1,                            Ming-Ming%Chen%NULL%1,                            Xu%Cheng%NULL%1,                            Xiao%Zhang%NULL%1,                            Deliang%Guo%NULL%1,                            Yuanyuan%Peng%NULL%1,                            Yan-Xiao%Ji%NULL%1,                            Jing%Chen%NULL%1,                            Zhi-Gang%She%NULL%1,                            Yibin%Wang%NULL%0,                            Qingbo%Xu%NULL%1,                            Renfu%Tan%NULL%1,                            Haitao%Wang%NULL%1,                            Jun%Lin%NULL%1,                            Pengcheng%Luo%NULL%1,                            Shouzhi%Fu%NULL%1,                            Hongbin%Cai%NULL%1,                            Ping%Ye%NULL%1,                            Bing%Xiao%NULL%1,                            Weiming%Mao%NULL%1,                            Liming%Liu%NULL%1,                            Youqin%Yan%NULL%1,                            Mingyu%Liu%NULL%1,                            Manhua%Chen%NULL%1,                            Xiao-Jing%Zhang%NULL%1,                            Xinghuan%Wang%NULL%1,                            Rhian M.%Touyz%NULL%1,                            Jiahong%Xia%NULL%1,                            Bing-Hong%Zhang%NULL%1,                            Xiaodong%Huang%NULL%1,                            Yufeng%Yuan%NULL%1,                            Rohit%Loomba%NULL%1,                            Peter P.%Liu%NULL%1,                            Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                             Sandra%Santos-Martinez%NULL%1,                             Diego%López-Otero%NULL%1,                             Luis%Nombela-Franco%NULL%1,                             Enrique%Gutiérrez-Ibanes%NULL%1,                             Raquel%Del Valle%NULL%1,                             Erika%Muñoz-García%NULL%1,                             Víctor A.%Jiménez-Diaz%NULL%1,                             Ander%Regueiro%NULL%1,                             Rocío%González-Ferreiro%NULL%1,                             Tomás%Benito%NULL%1,                             Xoan Carlos%Sanmartin-Pena%NULL%1,                             Pablo%Catalá%NULL%1,                             Tania%Rodríguez-Gabella%NULL%1,                             Jose Raúl%Delgado-Arana%NULL%1,                             Manuel%Carrasco-Moraleja%NULL%1,                             Borja%Ibañez%NULL%1,                             J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                             David M.%Tehrani%NULL%1,                             Soniya V.%Rabadia%NULL%1,                             Marlene%Frost%NULL%1,                             Rushi V.%Parikh%NULL%1,                             Marcella%Calfon-Press%NULL%1,                             Olcay%Aksoy%NULL%1,                             Soban%Umar%NULL%1,                             Reza%Ardehali%NULL%1,                             Amir%Rabbani%NULL%1,                             Pooya%Bokhoor%NULL%1,                             Ali%Nsair%NULL%1,                             Jesse%Currier%NULL%1,                             Jonathan%Tobis%NULL%1,                             Gregg C.%Fonarow%NULL%1,                             Ravi%Dave%NULL%1,                             Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                             Zeljko%Kraljevic%NULL%1,                             Thomas%Searle%NULL%1,                             Rebecca%Bendayan%NULL%1,                             O'Gallagher%Kevin%NULL%1,                             Andrew%Pickles%NULL%1,                             Amos%Folarin%NULL%1,                             Lukasz%Roguski%NULL%1,                             Kawsar%Noor%NULL%1,                             Anthony%Shek%NULL%1,                             Rosita%Zakeri%NULL%1,                             Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                             James T.H.%Teo%jamesteo@nhs.net%1,                             Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                             Mauro%Chiarito%NULL%1,                             Bernhard%Reimers%NULL%2,                             Bernhard%Reimers%NULL%0,                             Elena%Azzolini%NULL%1,                             Giuseppe%Ferrante%NULL%1,                             Ilaria%My%NULL%1,                             Giacomo%Viggiani%NULL%1,                             Cristina%Panico%NULL%1,                             Damiano%Regazzoli%NULL%1,                             Michele%Ciccarelli%NULL%1,                             Antonio%Voza%NULL%1,                             Alessio%Aghemo%NULL%1,                             Hongliang%Li%NULL%2,                             Yibin%Wang%NULL%2,                             Gianluigi%Condorelli%NULL%1,                             Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                             Feng%Wang%NULL%1,                             Peng%Chen%NULL%1,                             Jiangang%Jiang%NULL%1,                             Guanglin%Cui%NULL%1,                             Ning%Zhou%NULL%2,                             Francesco%Moroni%NULL%1,                             Javid J.%Moslehi%NULL%1,                             Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                             Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                             Ming%Zhong%NULL%1,                             Ya%Liu%NULL%1,                             Yi%Zhang%NULL%2,                             Kai%Zhang%NULL%1,                             De-zhen%Su%NULL%1,                             Xiao%Meng%NULL%1,                             Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                             Duncan%Young%NULL%2,                             Duncan%Young%NULL%0,                             Carol%Coupland%NULL%1,                             Keith M%Channon%NULL%1,                             Pui San%Tan%NULL%1,                             David A%Harrison%NULL%1,                             Kathryn%Rowan%NULL%2,                             Kathryn%Rowan%NULL%0,                             Paul%Aveyard%NULL%1,                             Ian D%Pavord%NULL%1,                             Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,                      Butt%Jawad H%coreGivesNoEmail%1,                      Fosb\u00f8l%Emil L%coreGivesNoEmail%1,                      Gerds%Thomas A%coreGivesNoEmail%1,                      Gislason%Gunnar H%coreGivesNoEmail%1,                      Kragholm%Kristian%coreGivesNoEmail%1,                      K\u00f8ber%Lars%coreGivesNoEmail%1,                      Phelps%Matthew%coreGivesNoEmail%1,                      Schou%Morten%coreGivesNoEmail%1,                      Selmer%Christian%coreGivesNoEmail%1,                      Torp-Pedersen%Christian%coreGivesNoEmail%1,                      \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                             Yue%Cai%NULL%1,                             Kan%Zhang%NULL%2,                             Kan%Zhang%NULL%0,                             Lei%Zhou%NULL%1,                             Yao%Zhang%NULL%1,                             Xijing%Zhang%NULL%1,                             Qi%Li%NULL%1,                             Weiqin%Li%NULL%1,                             Shiming%Yang%NULL%1,                             Xiaoyan%Zhao%NULL%1,                             Yuying%Zhao%NULL%1,                             Hui%Wang%NULL%1,                             Yi%Liu%NULL%2,                             Zhiyong%Yin%NULL%1,                             Ruining%Zhang%NULL%1,                             Rutao%Wang%NULL%1,                             Ming%Yang%NULL%1,                             Chen%Hui%NULL%1,                             William%Wijns%NULL%1,                             J William%McEvoy%NULL%1,                             Osama%Soliman%NULL%2,                             Osama%Soliman%NULL%0,                             Yoshinobu%Onuma%NULL%2,                             Yoshinobu%Onuma%NULL%0,                             Patrick W%Serruys%NULL%1,                             Ling%Tao%lingtao@fmmu.edu.cn%1,                             Fei%Li%lifei01@fmmu.edu.cn%2,                             Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                             Erkan%Ekicibasi%NULL%1,                             Aleks%Degirmencioglu%NULL%1,                             Ashok%Paudel%NULL%1,                             Refik%Erdim%NULL%1,                             Hilal Kurtoglu%Gumusel%NULL%1,                             Elif%Eroglu%NULL%1,                             Ibrahim Halil%Tanboga%NULL%1,                             Sinan%Dagdelen%NULL%1,                             Nevin%Sariguzel%NULL%1,                             Ceyda Erel%Kirisoglu%NULL%1,                             Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,                      Antonelli%M.%coreGivesNoEmail%2,                      Bellani%G.%coreGivesNoEmail%2,                      Bonanomi%E.%coreGivesNoEmail%2,                      Cabrini%L.%coreGivesNoEmail%2,                      Carlesso%E.%coreGivesNoEmail%2,                      Castelli%G.%coreGivesNoEmail%2,                      Cattaneo%S.%coreGivesNoEmail%2,                      Cecconi%M.%coreGivesNoEmail%2,                      Cereda%D.%coreGivesNoEmail%2,                      Colombo%S.%coreGivesNoEmail%2,                      Coluccello%A.%coreGivesNoEmail%2,                      Crescini%G.%coreGivesNoEmail%2,                      Forastieri%Molinari A.%coreGivesNoEmail%2,                      Foti%G.%coreGivesNoEmail%2,                      Fumagalli%R.%coreGivesNoEmail%2,                      Grasselli%G.%coreGivesNoEmail%2,                      Greco%M.%coreGivesNoEmail%2,                      Iotti%G. A.%coreGivesNoEmail%2,                      Langer%T.%coreGivesNoEmail%2,                      Latronico%N.%coreGivesNoEmail%2,                      Lorini%F. L.%coreGivesNoEmail%2,                      Mojoli%F.%coreGivesNoEmail%2,                      Natalini%G.%coreGivesNoEmail%2,                      Pesenti%A.%coreGivesNoEmail%2,                      Pessina%C. M.%coreGivesNoEmail%2,                      Ranieri%V. M.%coreGivesNoEmail%2,                      Rech%R.%coreGivesNoEmail%2,                      Rosano%A.%coreGivesNoEmail%2,                      Scudeller%L.%coreGivesNoEmail%2,                      Storti%E.%coreGivesNoEmail%2,                      Thompson%B. T.%coreGivesNoEmail%2,                      Tirani%M.%coreGivesNoEmail%2,                      Villani%P. G.%coreGivesNoEmail%2,                      Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                             Jiatian%Cao%NULL%1,                             Yumeng%Yao%NULL%1,                             Xuejuan%Jin%NULL%1,                             Zhe%Luo%NULL%1,                             Yuan%Xue%NULL%1,                             Chouwen%Zhu%NULL%1,                             Yanan%Song%NULL%1,                             Ying%Wang%NULL%1,                             Yunzeng%Zou%NULL%1,                             Juying%Qian%NULL%1,                             Kaihuan%Yu%NULL%1,                             Hui%Gong%NULL%1,                             Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                             Ju-Hyun%Kim%NULL%1,                             Jin-Sung%Park%NULL%1,                             Min Cheol%Chang%wheel633@ynu.ac.kr%1,                             Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                             Raphael Romano%Bruno%NULL%1,                             Bernhard%Wernly%NULL%1,                             Michael%Joannidis%NULL%1,                             Sandra%Oeyen%NULL%1,                             Tilemachos%Zafeiridis%NULL%1,                             Brian%Marsh%NULL%1,                             Finn H%Andersen%NULL%1,                             Rui%Moreno%NULL%1,                             Ana Margarida%Fernandes%NULL%1,                             Antonio%Artigas%NULL%1,                             Bernardo Bollen%Pinto%NULL%1,                             Joerg%Schefold%NULL%1,                             Georg%Wolff%NULL%1,                             Malte%Kelm%NULL%2,                             Malte%Kelm%NULL%0,                             Dylan W%De Lange%NULL%1,                             Bertrand%Guidet%NULL%1,                             Hans%Flaatten%NULL%1,                             Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                             Jae Chol%Choi%NULL%1,                             Seung-Hun%You%NULL%1,                             Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                             Hamish%Reed-Embleton%NULL%2,                             Hamish%Reed-Embleton%NULL%0,                             Jen%Lewis%NULL%2,                             Jen%Lewis%NULL%0,                             Pamela%Bain%NULL%1,                             Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                             Kenneth W%Chow%NULL%1,                             Jonathan%Vo%NULL%1,                             Wei%Hou%NULL%1,                             Haifang%Li%NULL%1,                             Paul S%Richman%NULL%1,                             Sandeep K%Mallipattu%NULL%1,                             Hal A%Skopicki%NULL%1,                             Adam J%Singer%NULL%1,                             Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                             Julien%Moragny%NULL%2,                             Julien%Moragny%NULL%0,                             Youssef%Bennis%NULL%1,                             Benjamin%Batteux%NULL%1,                             Etienne%Brochot%NULL%1,                             Jean Luc%Schmit%NULL%1,                             Jean-Philippe%Lanoix%NULL%1,                             Claire%Andrejak%NULL%1,                             Olivier%Ganry%NULL%1,                             Michel%Slama%NULL%1,                             Julien%Maizel%NULL%1,                             Yazine%Mahjoub%NULL%1,                             Kamel%Masmoudi%NULL%1,                             Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                             Yi%Liu%NULL%0,                             Keliang%Chen%NULL%1,                             Suying%Yan%NULL%1,                             Xiangrong%Bai%NULL%1,                             Juan%Li%947281063@qq.com%1,                             Dong%Liu%ld2069@outlook.com%2,                             Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                             Javier%López-Pais%NULL%1,                             Carla Eugenia%Cacho-Antonio%NULL%1,                             Pablo José%Antúnez-Muiños%NULL%1,                             Teba%González-Ferrero%NULL%1,                             Marta%Pérez-Poza%NULL%1,                             Óscar%Otero-García%NULL%1,                             Brais%Díaz-Fernández%NULL%1,                             María%Bastos-Fernández%NULL%1,                             Noelia%Bouzas-Cruz%NULL%1,                             Xoan Carlos%Sanmartín-Pena%NULL%1,                             Alfonso%Varela-Román%NULL%1,                             Manuel%Portela-Romero%NULL%1,                             Luis%Valdés-Cuadrado%NULL%1,                             Antonio%Pose-Reino%NULL%1,                             José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                             Federico%Rea%NULL%1,                             Monica%Ludergnani%NULL%4,                             Monica%Ludergnani%NULL%0,                             Giovanni%Apolone%NULL%1,                             Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,                Hisao%Ogawa%null%2,                Kazuo%Kimura%null%2,                Masaaki%Konishi%null%2,                Jin%Kirigaya%null%2,                Kazuki%Fukui%null%2,                Kengo%Tsukahara%null%2,                Hiroyuki%Shimizu%null%2,                Keisuke%Iwabuchi%null%2,                Yu%Yamada%null%2,                Kenichiro%Saka%null%2,                Ichiro%Takeuchi%null%2,                Toshio%Hirano%null%2,                Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                             Guohui%Xiao%NULL%1,                             Juanjuan%Zhang%NULL%1,                             Xing%He%NULL%1,                             Min%Ou%NULL%1,                             Jing%Bi%NULL%1,                             Rongqing%Yang%NULL%1,                             Wencheng%Di%NULL%1,                             Zhaoqin%Wang%NULL%1,                             Zigang%Li%NULL%1,                             Hong%Gao%NULL%1,                             Lei%Liu%NULL%1,                             Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                             Francisca%García-Iglesias%NULL%1,                             Teresa%González-Alegre%NULL%1,                             Francisco%Blanco%NULL%1,                             Marta%Varas%NULL%1,                             Clara%Hernández-Blanco%NULL%1,                             Victor%Hontañón%NULL%1,                             María J.%Jaras-Hernández%NULL%1,                             Mónica%Martínez-Prieto%NULL%1,                             Araceli%Menéndez-Saldaña%NULL%1,                             María L.%Cachán%NULL%1,                             Eva%Estirado%NULL%1,                             Carlos%Lahoz%NULL%1,                             Rosa%de Miguel%NULL%1,                             Miriam%Romero%NULL%1,                             Mar%Lago%NULL%1,                             Cristina%García-Quero%NULL%1,                             Cristina%Plaza%NULL%1,                             Talía%Sainz-Costa%NULL%1,                             Susana%Rivas-Vila%NULL%1,                             Blanca%Sánchez%NULL%1,                             Celia García%Torres%NULL%1,                             Lucía%Martínez-Tobar%NULL%1,                             María%Hernandez-Pérez%NULL%1,                             Pablo%Racionero%NULL%1,                             Patricia%Mir-Ihara%NULL%1,                             Jesús%Peña-López%NULL%1,                             Marta%Bautista-Barea%NULL%1,                             Alexa P.%Benítez%NULL%1,                             Pablo%Rodríguez-Merlos%NULL%1,                             María%Barcenilla%NULL%1,                             María San%Basilio%NULL%1,                             María%Valencia%NULL%1,                             Ricardo%Romero-Martín%NULL%1,                             Ana%Boto de los Bueis%NULL%1,                             Adriana%de la Hoz-Polo%NULL%1,                             María%del Pino-Cidad%NULL%1,                             Javier%Coca-Robinot%NULL%1,                             Bárbara%González-Ferrer%NULL%1,                             Pedro%Fernández-Pérez%NULL%1,                             Isabel%Mogollón%NULL%1,                             María S.%Montoro-Romero%NULL%1,                             Isabel%Villalaín%NULL%1,                             Almudena%del Hierro-Zarzuelo%NULL%1,                             Irene%Hernández-Martín%NULL%1,                             Javier%Domínguez%NULL%1,                             Alberto%Luna%NULL%1,                             Soledad%Montoro%NULL%1,                             Margarita%Sánchez-Orgaz%NULL%1,                             Gloria%Amorena%NULL%1,                             Cosme%Lavín-Dapena%NULL%1,                             Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                             Stanislas%Gleye%NULL%1,                             Isabelle%Clerc Urmes%NULL%1,                             Elodie%Laugel%NULL%1,                             Jonas%Callet%NULL%1,                             Françoise%Barbé%NULL%1,                             Sophie%Orlowski%NULL%1,                             Catherine%Malaplate%NULL%1,                             Isabelle%Aimone-Gastin%NULL%1,                             Beatrice Maatem%Caillierez%NULL%1,                             Marc%Merten%NULL%1,                             Elise%Jeannesson%NULL%1,                             Raphaël%Kormann%NULL%1,                             Jean-Luc%Olivier%NULL%1,                             Rosa-Maria%Rodriguez-Guéant%NULL%1,                             Farès%Namour%NULL%1,                             Sybille%Bevilacqua%NULL%1,                             Marie-Reine%Losser%NULL%1,                             Bruno%Levy%NULL%1,                             Antoine%Kimmoun%NULL%1,                             Sébastien%Gibot%NULL%1,                             Nathalie%Thilly%NULL%1,                             Luc%Frimat%NULL%1,                             Evelyne%Schvoerer%NULL%1,                             Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                             Samrachana%Adhikari%NULL%1,                             Claudia%Pulgarin%NULL%1,                             Andrea B.%Troxel%NULL%1,                             Eduardo%Iturrate%NULL%1,                             Stephen B.%Johnson%NULL%1,                             Anaïs%Hausvater%NULL%1,                             Jonathan D.%Newman%NULL%1,                             Jeffrey S.%Berger%NULL%1,                             Sripal%Bangalore%NULL%1,                             Stuart D.%Katz%NULL%1,                             Glenn I.%Fishman%NULL%1,                             Dennis%Kunichoff%NULL%1,                             Yu%Chen%NULL%1,                             Gbenga%Ogedegbe%NULL%1,                             Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,                      Becker%L.B.%coreGivesNoEmail%3,                      Chelico%J.D.%coreGivesNoEmail%3,                      Cohen%S.L.%coreGivesNoEmail%3,                      Cookingham%J.%coreGivesNoEmail%3,                      Coppa%K.%coreGivesNoEmail%3,                      Crawford%J.M.%coreGivesNoEmail%3,                      Davidson%K.W.%coreGivesNoEmail%3,                      Diefenbach%M.A.%coreGivesNoEmail%3,                      Dominello%A.J.%coreGivesNoEmail%3,                      Duer-Hefele%J.%coreGivesNoEmail%3,                      Falzon%L.%coreGivesNoEmail%3,                      Gitlin%J.%coreGivesNoEmail%3,                      Hajizadeh%N.%coreGivesNoEmail%3,                      Harvin%T.G.%coreGivesNoEmail%3,                      Hirsch%J.S.%coreGivesNoEmail%3,                      Hirschwerk%D.A.%coreGivesNoEmail%3,                      Kim%E.J.%coreGivesNoEmail%3,                      Kozel%Z.M.%coreGivesNoEmail%3,                      Marrast%L.M.%coreGivesNoEmail%3,                      McGinn%T.%coreGivesNoEmail%3,                      Mogavero%J.N.%coreGivesNoEmail%3,                      Narasimhan%M.%coreGivesNoEmail%3,                      Osorio%G.A.%coreGivesNoEmail%3,                      Qiu%M.%coreGivesNoEmail%3,                      Richardson%S.%coreGivesNoEmail%3,                      Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                             Massimiliano%Marino%NULL%3,                             Debora%Formisano%NULL%1,                             Francesco%Venturelli%NULL%1,                             Massimo%Vicentini%NULL%3,                             Massimo%Vicentini%NULL%0,                             Roberto%Grilli%NULL%2,                             NULL%NULL%NULL%0,                             Gianluigi%Forloni%NULL%8,                             Gianluigi%Forloni%NULL%0,                             Gianluigi%Forloni%NULL%0,                             Gianluigi%Forloni%NULL%0,                             Gianluigi%Forloni%NULL%0,                             Gianluigi%Forloni%NULL%0,                             Gianluigi%Forloni%NULL%0,                             Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                             Paolo%Maggi%NULL%2,                             Paolo%Maggi%NULL%0,                             Vincenzo%Messina%NULL%1,                             Pasquale%Iuliano%NULL%2,                             Pasquale%Iuliano%NULL%0,                             Antonio%Sardu%NULL%1,                             Vincenzo%Iovinella%NULL%1,                             Giuseppe%Paolisso%NULL%1,                             Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                             Rasimcan%Meral%NULL%1,                             Alpay%Medetalibeyoğlu%NULL%1,                             Hilal%Konyaoğlu%NULL%1,                             Murat%Köse%NULL%1,                             Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%4,     Jack%Owens%xref no email%3,     James%Franklin%xref no email%3,     Yash%Jani%xref no email%1,     Ashish%Kumar%xref no email%1,     Rajkumar%Doshi%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                             Yun%Qiu%NULL%1,                             Xiang-Bin%Xing%NULL%1,                             Subrata%Ghosh%NULL%1,                             Min-Hu%Chen%NULL%1,                             Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                             Maddalena%Giannella%NULL%1,                             Michele%Bartoletti%NULL%1,                             Filippo%Trapani%NULL%1,                             Marina%Tadolini%NULL%1,                             Claudio%Borghi%NULL%1,                             Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                             Marco%Massari%NULL%3,                             Marco%Massari%NULL%0,                             Roberto%Da Cas%NULL%2,                             Francesca%Menniti Ippolito%NULL%2,                             Janet%Sultana%NULL%2,                             Salvatore%Crisafulli%NULL%2,                             Paolo%Giorgi Rossi%NULL%2,                             Massimiliano%Marino%NULL%0,                             Manuel%Zorzi%NULL%2,                             Emanuela%Bovo%NULL%2,                             Olivia%Leoni%NULL%2,                             Monica%Ludergnani%NULL%0,                             Stefania%Spila Alegiani%stefania.spila@iss.it%2,                             Stefania%Spila Alegiani%NULL%0,                             Francesca%Menniti Ippolito%NULL%0,                             Roberto%Da Cas%NULL%0,                             Marco%Massari%NULL%0,                             Giuseppe%Traversa%NULL%1,                             Graziano%Onder%NULL%1,                             Gianluca%Trifirò%NULL%1,                             Janet%Sultana%NULL%0,                             Valentina%Ientile%NULL%1,                             Salvatore%Crisafulli%NULL%0,                             Paolo%Giorgi Rossi%NULL%0,                             Roberto%Grilli%NULL%0,                             Giulio%Formoso%NULL%1,                             Massimiliano%Marino%NULL%0,                             Massimo%Vicentini%NULL%0,                             Olivia%Leoni%NULL%0,                             Monica%Ludergnani%NULL%0,                             Danilo%Cereda%NULL%1,                             Eliana%Ferroni%NULL%1,                             Stefano%Guzzinati%NULL%1,                             Emanuela%Bovo%NULL%0,                             Manuel%Zorzi%NULL%0,                             Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                             Chaolin%Huang%NULL%1,                             Guohui%Fan%NULL%1,                             Zhibo%Liu%NULL%1,                             Lianhan%Shang%NULL%1,                             Fei%Zhou%NULL%1,                             Yeming%Wang%NULL%1,                             Jiapei%Yu%NULL%1,                             Luning%Yang%NULL%1,                             Ke%Xie%NULL%1,                             Zhisheng%Huang%NULL%1,                             Lixue%Huang%NULL%1,                             Xiaoying%Gu%NULL%1,                             Hui%Li%NULL%1,                             Yi%Zhang%NULL%0,                             Yimin%Wang%NULL%1,                             Frederick G.%Hayden%NULL%1,                             Peter W.%Horby%NULL%1,                             Bin%Cao%caobin_ben@163.com%1,                             Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                             Dan%Liu%NULL%1,                             Shaoqing%Zeng%NULL%1,                             Siyuan%Wang%NULL%1,                             Sen%Xu%NULL%1,                             Ya%Wang%NULL%1,                             Ruidi%Yu%NULL%1,                             Yue%Gao%NULL%1,                             Huayi%Li%NULL%1,                             Xinxia%Feng%NULL%1,                             Ning%Zhou%NULL%0,                             Chunxia%Zhao%NULL%1,                             Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                             Lihua%Zhu%NULL%1,                             Jingjing%Cai%NULL%1,                             Fang%Lei%NULL%1,                             Juan-Juan%Qin%NULL%1,                             Jing%Xie%NULL%1,                             Ye-Mao%Liu%NULL%1,                             Yan-Ci%Zhao%NULL%1,                             Xuewei%Huang%NULL%1,                             Lijin%Lin%NULL%1,                             Meng%Xia%NULL%1,                             Ming-Ming%Chen%NULL%1,                             Xu%Cheng%NULL%1,                             Xiao%Zhang%NULL%1,                             Deliang%Guo%NULL%1,                             Yuanyuan%Peng%NULL%1,                             Yan-Xiao%Ji%NULL%1,                             Jing%Chen%NULL%1,                             Zhi-Gang%She%NULL%1,                             Yibin%Wang%NULL%0,                             Qingbo%Xu%NULL%1,                             Renfu%Tan%NULL%1,                             Haitao%Wang%NULL%1,                             Jun%Lin%NULL%1,                             Pengcheng%Luo%NULL%1,                             Shouzhi%Fu%NULL%1,                             Hongbin%Cai%NULL%1,                             Ping%Ye%NULL%1,                             Bing%Xiao%NULL%1,                             Weiming%Mao%NULL%1,                             Liming%Liu%NULL%1,                             Youqin%Yan%NULL%1,                             Mingyu%Liu%NULL%1,                             Manhua%Chen%NULL%1,                             Xiao-Jing%Zhang%NULL%1,                             Xinghuan%Wang%NULL%1,                             Rhian M.%Touyz%NULL%1,                             Jiahong%Xia%NULL%1,                             Bing-Hong%Zhang%NULL%1,                             Xiaodong%Huang%NULL%1,                             Yufeng%Yuan%NULL%1,                             Rohit%Loomba%NULL%1,                             Peter P.%Liu%NULL%1,                             Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4334,7 +4931,9 @@
       <c r="I1" t="s">
         <v>371</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" t="s">
+        <v>1140</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -4366,7 +4965,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>1097</v>
+        <v>1302</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -4380,7 +4979,9 @@
       <c r="I2" t="s">
         <v>1051</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -4426,7 +5027,9 @@
       <c r="I3" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -4458,7 +5061,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>1098</v>
+        <v>1303</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -4472,7 +5075,9 @@
       <c r="I4" t="s">
         <v>1051</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -4504,7 +5109,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>1099</v>
+        <v>1304</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -4518,7 +5123,9 @@
       <c r="I5" t="s">
         <v>1054</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -4550,7 +5157,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>1100</v>
+        <v>1305</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -4564,7 +5171,9 @@
       <c r="I6" t="s">
         <v>1054</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -4596,7 +5205,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>1101</v>
+        <v>1306</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -4610,7 +5219,9 @@
       <c r="I7" t="s">
         <v>1054</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -4642,7 +5253,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>1102</v>
+        <v>1307</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -4656,7 +5267,9 @@
       <c r="I8" t="s">
         <v>1051</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -4688,7 +5301,7 @@
         <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>1103</v>
+        <v>752</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -4697,12 +5310,14 @@
         <v>567</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>1148</v>
       </c>
       <c r="I9" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1149</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -4734,7 +5349,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>1104</v>
+        <v>1308</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -4748,7 +5363,9 @@
       <c r="I10" t="s">
         <v>1054</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -4780,7 +5397,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>1105</v>
+        <v>1309</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4794,7 +5411,9 @@
       <c r="I11" t="s">
         <v>1059</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -4826,7 +5445,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>1106</v>
+        <v>1310</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -4840,7 +5459,9 @@
       <c r="I12" t="s">
         <v>1054</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" t="s">
+        <v>74</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -4872,7 +5493,7 @@
         <v>756</v>
       </c>
       <c r="E13" t="s">
-        <v>1107</v>
+        <v>1311</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -4886,7 +5507,9 @@
       <c r="I13" t="s">
         <v>1064</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -4918,7 +5541,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>1108</v>
+        <v>1312</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -4932,7 +5555,9 @@
       <c r="I14" t="s">
         <v>1059</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" t="s">
+        <v>74</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -4964,7 +5589,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>1109</v>
+        <v>759</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -4976,9 +5601,11 @@
         <v>576</v>
       </c>
       <c r="I15" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J15" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1156</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -5010,7 +5637,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>1110</v>
+        <v>1313</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -5024,7 +5651,9 @@
       <c r="I16" t="s">
         <v>1054</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -5056,7 +5685,7 @@
         <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>1111</v>
+        <v>1314</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -5070,7 +5699,9 @@
       <c r="I17" t="s">
         <v>1064</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -5102,7 +5733,7 @@
         <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>1112</v>
+        <v>763</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5111,12 +5742,14 @@
         <v>567</v>
       </c>
       <c r="H18" t="s">
-        <v>568</v>
+        <v>1148</v>
       </c>
       <c r="I18" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1156</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -5148,7 +5781,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>1113</v>
+        <v>1315</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -5162,7 +5795,9 @@
       <c r="I19" t="s">
         <v>1054</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" t="s">
+        <v>74</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -5194,7 +5829,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>1114</v>
+        <v>1316</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -5208,7 +5843,9 @@
       <c r="I20" t="s">
         <v>1054</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" t="s">
+        <v>74</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -5240,7 +5877,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>1115</v>
+        <v>1317</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -5254,7 +5891,9 @@
       <c r="I21" t="s">
         <v>1054</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" t="s">
+        <v>74</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -5286,7 +5925,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>1116</v>
+        <v>1318</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -5300,7 +5939,9 @@
       <c r="I22" t="s">
         <v>1054</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" t="s">
+        <v>74</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -5332,7 +5973,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>1117</v>
+        <v>768</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -5341,12 +5982,14 @@
         <v>567</v>
       </c>
       <c r="H23" t="s">
-        <v>568</v>
+        <v>1165</v>
       </c>
       <c r="I23" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1166</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -5378,7 +6021,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>1118</v>
+        <v>1319</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -5392,7 +6035,9 @@
       <c r="I24" t="s">
         <v>1054</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" t="s">
+        <v>74</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -5424,7 +6069,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>1119</v>
+        <v>1320</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -5438,7 +6083,9 @@
       <c r="I25" t="s">
         <v>1054</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" t="s">
+        <v>74</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -5470,7 +6117,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>1120</v>
+        <v>1321</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -5484,7 +6131,9 @@
       <c r="I26" t="s">
         <v>1051</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" t="s">
+        <v>74</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -5516,7 +6165,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>1121</v>
+        <v>1322</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -5530,7 +6179,9 @@
       <c r="I27" t="s">
         <v>1054</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" t="s">
+        <v>74</v>
+      </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -5562,7 +6213,7 @@
         <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>1122</v>
+        <v>1323</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -5576,7 +6227,9 @@
       <c r="I28" t="s">
         <v>1059</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" t="s">
+        <v>74</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -5608,7 +6261,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>1123</v>
+        <v>1324</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -5622,7 +6275,9 @@
       <c r="I29" t="s">
         <v>1054</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" t="s">
+        <v>74</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -5654,7 +6309,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>1124</v>
+        <v>1325</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -5668,7 +6323,9 @@
       <c r="I30" t="s">
         <v>1051</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" t="s">
+        <v>74</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -5700,7 +6357,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>1125</v>
+        <v>1326</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -5714,7 +6371,9 @@
       <c r="I31" t="s">
         <v>1054</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" t="s">
+        <v>74</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -5746,7 +6405,7 @@
         <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>1126</v>
+        <v>777</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -5755,12 +6414,14 @@
         <v>567</v>
       </c>
       <c r="H32" t="s">
-        <v>568</v>
+        <v>1176</v>
       </c>
       <c r="I32" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J32" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1156</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -5792,7 +6453,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>1127</v>
+        <v>1327</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -5806,7 +6467,9 @@
       <c r="I33" t="s">
         <v>1054</v>
       </c>
-      <c r="J33" s="2"/>
+      <c r="J33" t="s">
+        <v>74</v>
+      </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -5838,7 +6501,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>1128</v>
+        <v>1328</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -5852,7 +6515,9 @@
       <c r="I34" t="s">
         <v>1059</v>
       </c>
-      <c r="J34" s="2"/>
+      <c r="J34" t="s">
+        <v>74</v>
+      </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -5884,7 +6549,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>1129</v>
+        <v>1329</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -5898,7 +6563,9 @@
       <c r="I35" t="s">
         <v>1054</v>
       </c>
-      <c r="J35" s="2"/>
+      <c r="J35" t="s">
+        <v>74</v>
+      </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -5930,7 +6597,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>1130</v>
+        <v>1330</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -5944,7 +6611,9 @@
       <c r="I36" t="s">
         <v>1054</v>
       </c>
-      <c r="J36" s="2"/>
+      <c r="J36" t="s">
+        <v>74</v>
+      </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -5976,7 +6645,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>1131</v>
+        <v>1331</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -5990,7 +6659,9 @@
       <c r="I37" t="s">
         <v>1054</v>
       </c>
-      <c r="J37" s="2"/>
+      <c r="J37" t="s">
+        <v>74</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -6022,7 +6693,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>1132</v>
+        <v>1332</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -6034,9 +6705,11 @@
         <v>606</v>
       </c>
       <c r="I38" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J38" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1156</v>
+      </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -6068,7 +6741,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>1133</v>
+        <v>1333</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -6082,7 +6755,9 @@
       <c r="I39" t="s">
         <v>1051</v>
       </c>
-      <c r="J39" s="2"/>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -6114,7 +6789,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>1134</v>
+        <v>1334</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -6128,7 +6803,9 @@
       <c r="I40" t="s">
         <v>1054</v>
       </c>
-      <c r="J40" s="2"/>
+      <c r="J40" t="s">
+        <v>74</v>
+      </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -6160,7 +6837,7 @@
         <v>786</v>
       </c>
       <c r="E41" t="s">
-        <v>1135</v>
+        <v>1335</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -6174,7 +6851,9 @@
       <c r="I41" t="s">
         <v>1064</v>
       </c>
-      <c r="J41" s="2"/>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -6206,7 +6885,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>1136</v>
+        <v>1336</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -6220,7 +6899,9 @@
       <c r="I42" t="s">
         <v>1064</v>
       </c>
-      <c r="J42" s="2"/>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -6252,7 +6933,7 @@
         <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>1137</v>
+        <v>789</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -6261,12 +6942,14 @@
         <v>567</v>
       </c>
       <c r="H43" t="s">
-        <v>568</v>
+        <v>1188</v>
       </c>
       <c r="I43" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J43" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1156</v>
+      </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -6298,7 +6981,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>1138</v>
+        <v>1337</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -6312,7 +6995,9 @@
       <c r="I44" t="s">
         <v>1051</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -6344,7 +7029,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>1139</v>
+        <v>1338</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>
@@ -6358,7 +7043,9 @@
       <c r="I45" t="s">
         <v>1054</v>
       </c>
-      <c r="J45" s="2"/>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>

--- a/Covid_19_Dataset_and_References/References/8.xlsx
+++ b/Covid_19_Dataset_and_References/References/8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9496" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10216" uniqueCount="1413">
   <si>
     <t>Doi</t>
   </si>
@@ -4535,6 +4535,228 @@
   </si>
   <si>
     <t>[Peng%Zhang%NULL%3,                             Lihua%Zhu%NULL%1,                             Jingjing%Cai%NULL%1,                             Fang%Lei%NULL%1,                             Juan-Juan%Qin%NULL%1,                             Jing%Xie%NULL%1,                             Ye-Mao%Liu%NULL%1,                             Yan-Ci%Zhao%NULL%1,                             Xuewei%Huang%NULL%1,                             Lijin%Lin%NULL%1,                             Meng%Xia%NULL%1,                             Ming-Ming%Chen%NULL%1,                             Xu%Cheng%NULL%1,                             Xiao%Zhang%NULL%1,                             Deliang%Guo%NULL%1,                             Yuanyuan%Peng%NULL%1,                             Yan-Xiao%Ji%NULL%1,                             Jing%Chen%NULL%1,                             Zhi-Gang%She%NULL%1,                             Yibin%Wang%NULL%0,                             Qingbo%Xu%NULL%1,                             Renfu%Tan%NULL%1,                             Haitao%Wang%NULL%1,                             Jun%Lin%NULL%1,                             Pengcheng%Luo%NULL%1,                             Shouzhi%Fu%NULL%1,                             Hongbin%Cai%NULL%1,                             Ping%Ye%NULL%1,                             Bing%Xiao%NULL%1,                             Weiming%Mao%NULL%1,                             Liming%Liu%NULL%1,                             Youqin%Yan%NULL%1,                             Mingyu%Liu%NULL%1,                             Manhua%Chen%NULL%1,                             Xiao-Jing%Zhang%NULL%1,                             Xinghuan%Wang%NULL%1,                             Rhian M.%Touyz%NULL%1,                             Jiahong%Xia%NULL%1,                             Bing-Hong%Zhang%NULL%1,                             Xiaodong%Huang%NULL%1,                             Yufeng%Yuan%NULL%1,                             Rohit%Loomba%NULL%1,                             Peter P.%Liu%NULL%1,                             Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                              Sandra%Santos-Martinez%NULL%1,                              Diego%López-Otero%NULL%1,                              Luis%Nombela-Franco%NULL%1,                              Enrique%Gutiérrez-Ibanes%NULL%1,                              Raquel%Del Valle%NULL%1,                              Erika%Muñoz-García%NULL%1,                              Víctor A.%Jiménez-Diaz%NULL%1,                              Ander%Regueiro%NULL%1,                              Rocío%González-Ferreiro%NULL%1,                              Tomás%Benito%NULL%1,                              Xoan Carlos%Sanmartin-Pena%NULL%1,                              Pablo%Catalá%NULL%1,                              Tania%Rodríguez-Gabella%NULL%1,                              Jose Raúl%Delgado-Arana%NULL%1,                              Manuel%Carrasco-Moraleja%NULL%1,                              Borja%Ibañez%NULL%1,                              J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                              David M.%Tehrani%NULL%1,                              Soniya V.%Rabadia%NULL%1,                              Marlene%Frost%NULL%1,                              Rushi V.%Parikh%NULL%1,                              Marcella%Calfon-Press%NULL%1,                              Olcay%Aksoy%NULL%1,                              Soban%Umar%NULL%1,                              Reza%Ardehali%NULL%1,                              Amir%Rabbani%NULL%1,                              Pooya%Bokhoor%NULL%1,                              Ali%Nsair%NULL%1,                              Jesse%Currier%NULL%1,                              Jonathan%Tobis%NULL%1,                              Gregg C.%Fonarow%NULL%1,                              Ravi%Dave%NULL%1,                              Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                              Zeljko%Kraljevic%NULL%1,                              Thomas%Searle%NULL%1,                              Rebecca%Bendayan%NULL%1,                              O'Gallagher%Kevin%NULL%1,                              Andrew%Pickles%NULL%1,                              Amos%Folarin%NULL%1,                              Lukasz%Roguski%NULL%1,                              Kawsar%Noor%NULL%1,                              Anthony%Shek%NULL%1,                              Rosita%Zakeri%NULL%1,                              Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                              James T.H.%Teo%jamesteo@nhs.net%1,                              Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                              Mauro%Chiarito%NULL%1,                              Bernhard%Reimers%NULL%2,                              Bernhard%Reimers%NULL%0,                              Elena%Azzolini%NULL%1,                              Giuseppe%Ferrante%NULL%1,                              Ilaria%My%NULL%1,                              Giacomo%Viggiani%NULL%1,                              Cristina%Panico%NULL%1,                              Damiano%Regazzoli%NULL%1,                              Michele%Ciccarelli%NULL%1,                              Antonio%Voza%NULL%1,                              Alessio%Aghemo%NULL%1,                              Hongliang%Li%NULL%2,                              Yibin%Wang%NULL%2,                              Gianluigi%Condorelli%NULL%1,                              Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                              Feng%Wang%NULL%1,                              Peng%Chen%NULL%1,                              Jiangang%Jiang%NULL%1,                              Guanglin%Cui%NULL%1,                              Ning%Zhou%NULL%2,                              Francesco%Moroni%NULL%1,                              Javid J.%Moslehi%NULL%1,                              Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                              Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                              Ming%Zhong%NULL%1,                              Ya%Liu%NULL%1,                              Yi%Zhang%NULL%2,                              Kai%Zhang%NULL%1,                              De-zhen%Su%NULL%1,                              Xiao%Meng%NULL%1,                              Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                              Duncan%Young%NULL%2,                              Duncan%Young%NULL%0,                              Carol%Coupland%NULL%1,                              Keith M%Channon%NULL%1,                              Pui San%Tan%NULL%1,                              David A%Harrison%NULL%1,                              Kathryn%Rowan%NULL%2,                              Kathryn%Rowan%NULL%0,                              Paul%Aveyard%NULL%1,                              Ian D%Pavord%NULL%1,                              Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,                       Butt%Jawad H%coreGivesNoEmail%1,                       Fosb\u00f8l%Emil L%coreGivesNoEmail%1,                       Gerds%Thomas A%coreGivesNoEmail%1,                       Gislason%Gunnar H%coreGivesNoEmail%1,                       Kragholm%Kristian%coreGivesNoEmail%1,                       K\u00f8ber%Lars%coreGivesNoEmail%1,                       Phelps%Matthew%coreGivesNoEmail%1,                       Schou%Morten%coreGivesNoEmail%1,                       Selmer%Christian%coreGivesNoEmail%1,                       Torp-Pedersen%Christian%coreGivesNoEmail%1,                       \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                              Yue%Cai%NULL%1,                              Kan%Zhang%NULL%2,                              Kan%Zhang%NULL%0,                              Lei%Zhou%NULL%1,                              Yao%Zhang%NULL%1,                              Xijing%Zhang%NULL%1,                              Qi%Li%NULL%1,                              Weiqin%Li%NULL%1,                              Shiming%Yang%NULL%1,                              Xiaoyan%Zhao%NULL%1,                              Yuying%Zhao%NULL%1,                              Hui%Wang%NULL%1,                              Yi%Liu%NULL%2,                              Zhiyong%Yin%NULL%1,                              Ruining%Zhang%NULL%1,                              Rutao%Wang%NULL%1,                              Ming%Yang%NULL%1,                              Chen%Hui%NULL%1,                              William%Wijns%NULL%1,                              J William%McEvoy%NULL%1,                              Osama%Soliman%NULL%2,                              Osama%Soliman%NULL%0,                              Yoshinobu%Onuma%NULL%2,                              Yoshinobu%Onuma%NULL%0,                              Patrick W%Serruys%NULL%1,                              Ling%Tao%lingtao@fmmu.edu.cn%1,                              Fei%Li%lifei01@fmmu.edu.cn%2,                              Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                              Erkan%Ekicibasi%NULL%1,                              Aleks%Degirmencioglu%NULL%1,                              Ashok%Paudel%NULL%1,                              Refik%Erdim%NULL%1,                              Hilal Kurtoglu%Gumusel%NULL%1,                              Elif%Eroglu%NULL%1,                              Ibrahim Halil%Tanboga%NULL%1,                              Sinan%Dagdelen%NULL%1,                              Nevin%Sariguzel%NULL%1,                              Ceyda Erel%Kirisoglu%NULL%1,                              Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,                       Antonelli%M.%coreGivesNoEmail%2,                       Bellani%G.%coreGivesNoEmail%2,                       Bonanomi%E.%coreGivesNoEmail%2,                       Cabrini%L.%coreGivesNoEmail%2,                       Carlesso%E.%coreGivesNoEmail%2,                       Castelli%G.%coreGivesNoEmail%2,                       Cattaneo%S.%coreGivesNoEmail%2,                       Cecconi%M.%coreGivesNoEmail%2,                       Cereda%D.%coreGivesNoEmail%2,                       Colombo%S.%coreGivesNoEmail%2,                       Coluccello%A.%coreGivesNoEmail%2,                       Crescini%G.%coreGivesNoEmail%2,                       Forastieri%Molinari A.%coreGivesNoEmail%2,                       Foti%G.%coreGivesNoEmail%2,                       Fumagalli%R.%coreGivesNoEmail%2,                       Grasselli%G.%coreGivesNoEmail%2,                       Greco%M.%coreGivesNoEmail%2,                       Iotti%G. A.%coreGivesNoEmail%2,                       Langer%T.%coreGivesNoEmail%2,                       Latronico%N.%coreGivesNoEmail%2,                       Lorini%F. L.%coreGivesNoEmail%2,                       Mojoli%F.%coreGivesNoEmail%2,                       Natalini%G.%coreGivesNoEmail%2,                       Pesenti%A.%coreGivesNoEmail%2,                       Pessina%C. M.%coreGivesNoEmail%2,                       Ranieri%V. M.%coreGivesNoEmail%2,                       Rech%R.%coreGivesNoEmail%2,                       Rosano%A.%coreGivesNoEmail%2,                       Scudeller%L.%coreGivesNoEmail%2,                       Storti%E.%coreGivesNoEmail%2,                       Thompson%B. T.%coreGivesNoEmail%2,                       Tirani%M.%coreGivesNoEmail%2,                       Villani%P. G.%coreGivesNoEmail%2,                       Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                              Jiatian%Cao%NULL%1,                              Yumeng%Yao%NULL%1,                              Xuejuan%Jin%NULL%1,                              Zhe%Luo%NULL%1,                              Yuan%Xue%NULL%1,                              Chouwen%Zhu%NULL%1,                              Yanan%Song%NULL%1,                              Ying%Wang%NULL%1,                              Yunzeng%Zou%NULL%1,                              Juying%Qian%NULL%1,                              Kaihuan%Yu%NULL%1,                              Hui%Gong%NULL%1,                              Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                              Ju-Hyun%Kim%NULL%1,                              Jin-Sung%Park%NULL%1,                              Min Cheol%Chang%wheel633@ynu.ac.kr%1,                              Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                              Raphael Romano%Bruno%NULL%1,                              Bernhard%Wernly%NULL%1,                              Michael%Joannidis%NULL%1,                              Sandra%Oeyen%NULL%1,                              Tilemachos%Zafeiridis%NULL%1,                              Brian%Marsh%NULL%1,                              Finn H%Andersen%NULL%1,                              Rui%Moreno%NULL%1,                              Ana Margarida%Fernandes%NULL%1,                              Antonio%Artigas%NULL%1,                              Bernardo Bollen%Pinto%NULL%1,                              Joerg%Schefold%NULL%1,                              Georg%Wolff%NULL%1,                              Malte%Kelm%NULL%2,                              Malte%Kelm%NULL%0,                              Dylan W%De Lange%NULL%1,                              Bertrand%Guidet%NULL%1,                              Hans%Flaatten%NULL%1,                              Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                              Jae Chol%Choi%NULL%1,                              Seung-Hun%You%NULL%1,                              Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                              Hamish%Reed-Embleton%NULL%2,                              Hamish%Reed-Embleton%NULL%0,                              Jen%Lewis%NULL%2,                              Jen%Lewis%NULL%0,                              Pamela%Bain%NULL%1,                              Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                              Kenneth W%Chow%NULL%1,                              Jonathan%Vo%NULL%1,                              Wei%Hou%NULL%1,                              Haifang%Li%NULL%1,                              Paul S%Richman%NULL%1,                              Sandeep K%Mallipattu%NULL%1,                              Hal A%Skopicki%NULL%1,                              Adam J%Singer%NULL%1,                              Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                              Julien%Moragny%NULL%2,                              Julien%Moragny%NULL%0,                              Youssef%Bennis%NULL%1,                              Benjamin%Batteux%NULL%1,                              Etienne%Brochot%NULL%1,                              Jean Luc%Schmit%NULL%1,                              Jean-Philippe%Lanoix%NULL%1,                              Claire%Andrejak%NULL%1,                              Olivier%Ganry%NULL%1,                              Michel%Slama%NULL%1,                              Julien%Maizel%NULL%1,                              Yazine%Mahjoub%NULL%1,                              Kamel%Masmoudi%NULL%1,                              Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                              Yi%Liu%NULL%0,                              Keliang%Chen%NULL%1,                              Suying%Yan%NULL%1,                              Xiangrong%Bai%NULL%1,                              Juan%Li%947281063@qq.com%1,                              Dong%Liu%ld2069@outlook.com%2,                              Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                              Javier%López-Pais%NULL%1,                              Carla Eugenia%Cacho-Antonio%NULL%1,                              Pablo José%Antúnez-Muiños%NULL%1,                              Teba%González-Ferrero%NULL%1,                              Marta%Pérez-Poza%NULL%1,                              Óscar%Otero-García%NULL%1,                              Brais%Díaz-Fernández%NULL%1,                              María%Bastos-Fernández%NULL%1,                              Noelia%Bouzas-Cruz%NULL%1,                              Xoan Carlos%Sanmartín-Pena%NULL%1,                              Alfonso%Varela-Román%NULL%1,                              Manuel%Portela-Romero%NULL%1,                              Luis%Valdés-Cuadrado%NULL%1,                              Antonio%Pose-Reino%NULL%1,                              José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                              Federico%Rea%NULL%1,                              Monica%Ludergnani%NULL%4,                              Monica%Ludergnani%NULL%0,                              Giovanni%Apolone%NULL%1,                              Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,                 Hisao%Ogawa%null%2,                 Kazuo%Kimura%null%2,                 Masaaki%Konishi%null%2,                 Jin%Kirigaya%null%2,                 Kazuki%Fukui%null%2,                 Kengo%Tsukahara%null%2,                 Hiroyuki%Shimizu%null%2,                 Keisuke%Iwabuchi%null%2,                 Yu%Yamada%null%2,                 Kenichiro%Saka%null%2,                 Ichiro%Takeuchi%null%2,                 Toshio%Hirano%null%2,                 Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                              Guohui%Xiao%NULL%1,                              Juanjuan%Zhang%NULL%1,                              Xing%He%NULL%1,                              Min%Ou%NULL%1,                              Jing%Bi%NULL%1,                              Rongqing%Yang%NULL%1,                              Wencheng%Di%NULL%1,                              Zhaoqin%Wang%NULL%1,                              Zigang%Li%NULL%1,                              Hong%Gao%NULL%1,                              Lei%Liu%NULL%1,                              Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                              Francisca%García-Iglesias%NULL%1,                              Teresa%González-Alegre%NULL%1,                              Francisco%Blanco%NULL%1,                              Marta%Varas%NULL%1,                              Clara%Hernández-Blanco%NULL%1,                              Victor%Hontañón%NULL%1,                              María J.%Jaras-Hernández%NULL%1,                              Mónica%Martínez-Prieto%NULL%1,                              Araceli%Menéndez-Saldaña%NULL%1,                              María L.%Cachán%NULL%1,                              Eva%Estirado%NULL%1,                              Carlos%Lahoz%NULL%1,                              Rosa%de Miguel%NULL%1,                              Miriam%Romero%NULL%1,                              Mar%Lago%NULL%1,                              Cristina%García-Quero%NULL%1,                              Cristina%Plaza%NULL%1,                              Talía%Sainz-Costa%NULL%1,                              Susana%Rivas-Vila%NULL%1,                              Blanca%Sánchez%NULL%1,                              Celia García%Torres%NULL%1,                              Lucía%Martínez-Tobar%NULL%1,                              María%Hernandez-Pérez%NULL%1,                              Pablo%Racionero%NULL%1,                              Patricia%Mir-Ihara%NULL%1,                              Jesús%Peña-López%NULL%1,                              Marta%Bautista-Barea%NULL%1,                              Alexa P.%Benítez%NULL%1,                              Pablo%Rodríguez-Merlos%NULL%1,                              María%Barcenilla%NULL%1,                              María San%Basilio%NULL%1,                              María%Valencia%NULL%1,                              Ricardo%Romero-Martín%NULL%1,                              Ana%Boto de los Bueis%NULL%1,                              Adriana%de la Hoz-Polo%NULL%1,                              María%del Pino-Cidad%NULL%1,                              Javier%Coca-Robinot%NULL%1,                              Bárbara%González-Ferrer%NULL%1,                              Pedro%Fernández-Pérez%NULL%1,                              Isabel%Mogollón%NULL%1,                              María S.%Montoro-Romero%NULL%1,                              Isabel%Villalaín%NULL%1,                              Almudena%del Hierro-Zarzuelo%NULL%1,                              Irene%Hernández-Martín%NULL%1,                              Javier%Domínguez%NULL%1,                              Alberto%Luna%NULL%1,                              Soledad%Montoro%NULL%1,                              Margarita%Sánchez-Orgaz%NULL%1,                              Gloria%Amorena%NULL%1,                              Cosme%Lavín-Dapena%NULL%1,                              Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                              Stanislas%Gleye%NULL%1,                              Isabelle%Clerc Urmes%NULL%1,                              Elodie%Laugel%NULL%1,                              Jonas%Callet%NULL%1,                              Françoise%Barbé%NULL%1,                              Sophie%Orlowski%NULL%1,                              Catherine%Malaplate%NULL%1,                              Isabelle%Aimone-Gastin%NULL%1,                              Beatrice Maatem%Caillierez%NULL%1,                              Marc%Merten%NULL%1,                              Elise%Jeannesson%NULL%1,                              Raphaël%Kormann%NULL%1,                              Jean-Luc%Olivier%NULL%1,                              Rosa-Maria%Rodriguez-Guéant%NULL%1,                              Farès%Namour%NULL%1,                              Sybille%Bevilacqua%NULL%1,                              Marie-Reine%Losser%NULL%1,                              Bruno%Levy%NULL%1,                              Antoine%Kimmoun%NULL%1,                              Sébastien%Gibot%NULL%1,                              Nathalie%Thilly%NULL%1,                              Luc%Frimat%NULL%1,                              Evelyne%Schvoerer%NULL%1,                              Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                              Samrachana%Adhikari%NULL%1,                              Claudia%Pulgarin%NULL%1,                              Andrea B.%Troxel%NULL%1,                              Eduardo%Iturrate%NULL%1,                              Stephen B.%Johnson%NULL%1,                              Anaïs%Hausvater%NULL%1,                              Jonathan D.%Newman%NULL%1,                              Jeffrey S.%Berger%NULL%1,                              Sripal%Bangalore%NULL%1,                              Stuart D.%Katz%NULL%1,                              Glenn I.%Fishman%NULL%1,                              Dennis%Kunichoff%NULL%1,                              Yu%Chen%NULL%1,                              Gbenga%Ogedegbe%NULL%1,                              Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,                       Becker%L.B.%coreGivesNoEmail%3,                       Chelico%J.D.%coreGivesNoEmail%3,                       Cohen%S.L.%coreGivesNoEmail%3,                       Cookingham%J.%coreGivesNoEmail%3,                       Coppa%K.%coreGivesNoEmail%3,                       Crawford%J.M.%coreGivesNoEmail%3,                       Davidson%K.W.%coreGivesNoEmail%3,                       Diefenbach%M.A.%coreGivesNoEmail%3,                       Dominello%A.J.%coreGivesNoEmail%3,                       Duer-Hefele%J.%coreGivesNoEmail%3,                       Falzon%L.%coreGivesNoEmail%3,                       Gitlin%J.%coreGivesNoEmail%3,                       Hajizadeh%N.%coreGivesNoEmail%3,                       Harvin%T.G.%coreGivesNoEmail%3,                       Hirsch%J.S.%coreGivesNoEmail%3,                       Hirschwerk%D.A.%coreGivesNoEmail%3,                       Kim%E.J.%coreGivesNoEmail%3,                       Kozel%Z.M.%coreGivesNoEmail%3,                       Marrast%L.M.%coreGivesNoEmail%3,                       McGinn%T.%coreGivesNoEmail%3,                       Mogavero%J.N.%coreGivesNoEmail%3,                       Narasimhan%M.%coreGivesNoEmail%3,                       Osorio%G.A.%coreGivesNoEmail%3,                       Qiu%M.%coreGivesNoEmail%3,                       Richardson%S.%coreGivesNoEmail%3,                       Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                              Massimiliano%Marino%NULL%3,                              Debora%Formisano%NULL%1,                              Francesco%Venturelli%NULL%1,                              Massimo%Vicentini%NULL%3,                              Massimo%Vicentini%NULL%0,                              Roberto%Grilli%NULL%2,                              NULL%NULL%NULL%0,                              Gianluigi%Forloni%NULL%8,                              Gianluigi%Forloni%NULL%0,                              Gianluigi%Forloni%NULL%0,                              Gianluigi%Forloni%NULL%0,                              Gianluigi%Forloni%NULL%0,                              Gianluigi%Forloni%NULL%0,                              Gianluigi%Forloni%NULL%0,                              Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                              Paolo%Maggi%NULL%2,                              Paolo%Maggi%NULL%0,                              Vincenzo%Messina%NULL%1,                              Pasquale%Iuliano%NULL%2,                              Pasquale%Iuliano%NULL%0,                              Antonio%Sardu%NULL%1,                              Vincenzo%Iovinella%NULL%1,                              Giuseppe%Paolisso%NULL%1,                              Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                              Rasimcan%Meral%NULL%1,                              Alpay%Medetalibeyoğlu%NULL%1,                              Hilal%Konyaoğlu%NULL%1,                              Murat%Köse%NULL%1,                              Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%4,      Jack%Owens%xref no email%3,      James%Franklin%xref no email%3,      Yash%Jani%xref no email%1,      Ashish%Kumar%xref no email%1,      Rajkumar%Doshi%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                              Yun%Qiu%NULL%1,                              Xiang-Bin%Xing%NULL%1,                              Subrata%Ghosh%NULL%1,                              Min-Hu%Chen%NULL%1,                              Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                              Maddalena%Giannella%NULL%1,                              Michele%Bartoletti%NULL%1,                              Filippo%Trapani%NULL%1,                              Marina%Tadolini%NULL%1,                              Claudio%Borghi%NULL%1,                              Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                              Marco%Massari%NULL%3,                              Marco%Massari%NULL%0,                              Roberto%Da Cas%NULL%2,                              Francesca%Menniti Ippolito%NULL%2,                              Janet%Sultana%NULL%2,                              Salvatore%Crisafulli%NULL%2,                              Paolo%Giorgi Rossi%NULL%2,                              Massimiliano%Marino%NULL%0,                              Manuel%Zorzi%NULL%2,                              Emanuela%Bovo%NULL%2,                              Olivia%Leoni%NULL%2,                              Monica%Ludergnani%NULL%0,                              Stefania%Spila Alegiani%stefania.spila@iss.it%2,                              Stefania%Spila Alegiani%NULL%0,                              Francesca%Menniti Ippolito%NULL%0,                              Roberto%Da Cas%NULL%0,                              Marco%Massari%NULL%0,                              Giuseppe%Traversa%NULL%1,                              Graziano%Onder%NULL%1,                              Gianluca%Trifirò%NULL%1,                              Janet%Sultana%NULL%0,                              Valentina%Ientile%NULL%1,                              Salvatore%Crisafulli%NULL%0,                              Paolo%Giorgi Rossi%NULL%0,                              Roberto%Grilli%NULL%0,                              Giulio%Formoso%NULL%1,                              Massimiliano%Marino%NULL%0,                              Massimo%Vicentini%NULL%0,                              Olivia%Leoni%NULL%0,                              Monica%Ludergnani%NULL%0,                              Danilo%Cereda%NULL%1,                              Eliana%Ferroni%NULL%1,                              Stefano%Guzzinati%NULL%1,                              Emanuela%Bovo%NULL%0,                              Manuel%Zorzi%NULL%0,                              Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                              Chaolin%Huang%NULL%1,                              Guohui%Fan%NULL%1,                              Zhibo%Liu%NULL%1,                              Lianhan%Shang%NULL%1,                              Fei%Zhou%NULL%1,                              Yeming%Wang%NULL%1,                              Jiapei%Yu%NULL%1,                              Luning%Yang%NULL%1,                              Ke%Xie%NULL%1,                              Zhisheng%Huang%NULL%1,                              Lixue%Huang%NULL%1,                              Xiaoying%Gu%NULL%1,                              Hui%Li%NULL%1,                              Yi%Zhang%NULL%0,                              Yimin%Wang%NULL%1,                              Frederick G.%Hayden%NULL%1,                              Peter W.%Horby%NULL%1,                              Bin%Cao%caobin_ben@163.com%1,                              Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                              Dan%Liu%NULL%1,                              Shaoqing%Zeng%NULL%1,                              Siyuan%Wang%NULL%1,                              Sen%Xu%NULL%1,                              Ya%Wang%NULL%1,                              Ruidi%Yu%NULL%1,                              Yue%Gao%NULL%1,                              Huayi%Li%NULL%1,                              Xinxia%Feng%NULL%1,                              Ning%Zhou%NULL%0,                              Chunxia%Zhao%NULL%1,                              Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                              Lihua%Zhu%NULL%1,                              Jingjing%Cai%NULL%1,                              Fang%Lei%NULL%1,                              Juan-Juan%Qin%NULL%1,                              Jing%Xie%NULL%1,                              Ye-Mao%Liu%NULL%1,                              Yan-Ci%Zhao%NULL%1,                              Xuewei%Huang%NULL%1,                              Lijin%Lin%NULL%1,                              Meng%Xia%NULL%1,                              Ming-Ming%Chen%NULL%1,                              Xu%Cheng%NULL%1,                              Xiao%Zhang%NULL%1,                              Deliang%Guo%NULL%1,                              Yuanyuan%Peng%NULL%1,                              Yan-Xiao%Ji%NULL%1,                              Jing%Chen%NULL%1,                              Zhi-Gang%She%NULL%1,                              Yibin%Wang%NULL%0,                              Qingbo%Xu%NULL%1,                              Renfu%Tan%NULL%1,                              Haitao%Wang%NULL%1,                              Jun%Lin%NULL%1,                              Pengcheng%Luo%NULL%1,                              Shouzhi%Fu%NULL%1,                              Hongbin%Cai%NULL%1,                              Ping%Ye%NULL%1,                              Bing%Xiao%NULL%1,                              Weiming%Mao%NULL%1,                              Liming%Liu%NULL%1,                              Youqin%Yan%NULL%1,                              Mingyu%Liu%NULL%1,                              Manhua%Chen%NULL%1,                              Xiao-Jing%Zhang%NULL%1,                              Xinghuan%Wang%NULL%1,                              Rhian M.%Touyz%NULL%1,                              Jiahong%Xia%NULL%1,                              Bing-Hong%Zhang%NULL%1,                              Xiaodong%Huang%NULL%1,                              Yufeng%Yuan%NULL%1,                              Rohit%Loomba%NULL%1,                              Peter P.%Liu%NULL%1,                              Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ignacio J.%Amat-Santos%ijamat@gmail.com%1,                               Sandra%Santos-Martinez%NULL%1,                               Diego%López-Otero%NULL%1,                               Luis%Nombela-Franco%NULL%1,                               Enrique%Gutiérrez-Ibanes%NULL%1,                               Raquel%Del Valle%NULL%1,                               Erika%Muñoz-García%NULL%1,                               Víctor A.%Jiménez-Diaz%NULL%1,                               Ander%Regueiro%NULL%1,                               Rocío%González-Ferreiro%NULL%1,                               Tomás%Benito%NULL%1,                               Xoan Carlos%Sanmartin-Pena%NULL%1,                               Pablo%Catalá%NULL%1,                               Tania%Rodríguez-Gabella%NULL%1,                               Jose Raúl%Delgado-Arana%NULL%1,                               Manuel%Carrasco-Moraleja%NULL%1,                               Borja%Ibañez%NULL%1,                               J. Alberto%San Román%NULL%1]</t>
+  </si>
+  <si>
+    <t>[David J.%Bae%NULL%1,                               David M.%Tehrani%NULL%1,                               Soniya V.%Rabadia%NULL%1,                               Marlene%Frost%NULL%1,                               Rushi V.%Parikh%NULL%1,                               Marcella%Calfon-Press%NULL%1,                               Olcay%Aksoy%NULL%1,                               Soban%Umar%NULL%1,                               Reza%Ardehali%NULL%1,                               Amir%Rabbani%NULL%1,                               Pooya%Bokhoor%NULL%1,                               Ali%Nsair%NULL%1,                               Jesse%Currier%NULL%1,                               Jonathan%Tobis%NULL%1,                               Gregg C.%Fonarow%NULL%1,                               Ravi%Dave%NULL%1,                               Asim M.%Rafique%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%2,                               Zeljko%Kraljevic%NULL%1,                               Thomas%Searle%NULL%1,                               Rebecca%Bendayan%NULL%1,                               O'Gallagher%Kevin%NULL%1,                               Andrew%Pickles%NULL%1,                               Amos%Folarin%NULL%1,                               Lukasz%Roguski%NULL%1,                               Kawsar%Noor%NULL%1,                               Anthony%Shek%NULL%1,                               Rosita%Zakeri%NULL%1,                               Ajay M.%Shah%ajay.shah@kcl.ac.uk%1,                               James T.H.%Teo%jamesteo@nhs.net%1,                               Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Francesco%Cannata%NULL%1,                               Mauro%Chiarito%NULL%1,                               Bernhard%Reimers%NULL%2,                               Bernhard%Reimers%NULL%0,                               Elena%Azzolini%NULL%1,                               Giuseppe%Ferrante%NULL%1,                               Ilaria%My%NULL%1,                               Giacomo%Viggiani%NULL%1,                               Cristina%Panico%NULL%1,                               Damiano%Regazzoli%NULL%1,                               Michele%Ciccarelli%NULL%1,                               Antonio%Voza%NULL%1,                               Alessio%Aghemo%NULL%1,                               Hongliang%Li%NULL%2,                               Yibin%Wang%NULL%2,                               Gianluigi%Condorelli%NULL%1,                               Giulio G%Stefanini%giulio.stefanini@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Chen%Chen%NULL%2,                               Feng%Wang%NULL%1,                               Peng%Chen%NULL%1,                               Jiangang%Jiang%NULL%1,                               Guanglin%Cui%NULL%1,                               Ning%Zhou%NULL%2,                               Francesco%Moroni%NULL%1,                               Javid J.%Moslehi%NULL%1,                               Enrico%Ammirati%enrico.ammirati@ospedaleniguarda.it%1,                               Dao Wen%Wang%dwwang@tjh.tjmu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Fang-fang%Chen%NULL%1,                               Ming%Zhong%NULL%1,                               Ya%Liu%NULL%1,                               Yi%Zhang%NULL%2,                               Kai%Zhang%NULL%1,                               De-zhen%Su%NULL%1,                               Xiao%Meng%NULL%1,                               Yun%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Julia%Hippisley-Cox%NULL%1,                               Duncan%Young%NULL%2,                               Duncan%Young%NULL%0,                               Carol%Coupland%NULL%1,                               Keith M%Channon%NULL%1,                               Pui San%Tan%NULL%1,                               David A%Harrison%NULL%1,                               Kathryn%Rowan%NULL%2,                               Kathryn%Rowan%NULL%0,                               Paul%Aveyard%NULL%1,                               Ian D%Pavord%NULL%1,                               Peter J%Watkinson%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andersson%Charlotte%coreGivesNoEmail%1,                        Butt%Jawad H%coreGivesNoEmail%1,                        Fosb\u00f8l%Emil L%coreGivesNoEmail%1,                        Gerds%Thomas A%coreGivesNoEmail%1,                        Gislason%Gunnar H%coreGivesNoEmail%1,                        Kragholm%Kristian%coreGivesNoEmail%1,                        K\u00f8ber%Lars%coreGivesNoEmail%1,                        Phelps%Matthew%coreGivesNoEmail%1,                        Schou%Morten%coreGivesNoEmail%1,                        Selmer%Christian%coreGivesNoEmail%1,                        Torp-Pedersen%Christian%coreGivesNoEmail%1,                        \u00d8stergaard%Lauge%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Chao%Gao%NULL%1,                               Yue%Cai%NULL%1,                               Kan%Zhang%NULL%2,                               Kan%Zhang%NULL%0,                               Lei%Zhou%NULL%1,                               Yao%Zhang%NULL%1,                               Xijing%Zhang%NULL%1,                               Qi%Li%NULL%1,                               Weiqin%Li%NULL%1,                               Shiming%Yang%NULL%1,                               Xiaoyan%Zhao%NULL%1,                               Yuying%Zhao%NULL%1,                               Hui%Wang%NULL%1,                               Yi%Liu%NULL%2,                               Zhiyong%Yin%NULL%1,                               Ruining%Zhang%NULL%1,                               Rutao%Wang%NULL%1,                               Ming%Yang%NULL%1,                               Chen%Hui%NULL%1,                               William%Wijns%NULL%1,                               J William%McEvoy%NULL%1,                               Osama%Soliman%NULL%2,                               Osama%Soliman%NULL%0,                               Yoshinobu%Onuma%NULL%2,                               Yoshinobu%Onuma%NULL%0,                               Patrick W%Serruys%NULL%1,                               Ling%Tao%lingtao@fmmu.edu.cn%1,                               Fei%Li%lifei01@fmmu.edu.cn%2,                               Fei%Li%lifei01@fmmu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Selcuk%Gormez%NULL%1,                               Erkan%Ekicibasi%NULL%1,                               Aleks%Degirmencioglu%NULL%1,                               Ashok%Paudel%NULL%1,                               Refik%Erdim%NULL%1,                               Hilal Kurtoglu%Gumusel%NULL%1,                               Elif%Eroglu%NULL%1,                               Ibrahim Halil%Tanboga%NULL%1,                               Sinan%Dagdelen%NULL%1,                               Nevin%Sariguzel%NULL%1,                               Ceyda Erel%Kirisoglu%NULL%1,                               Burak%Pamukcu%burak.pamukcu@acibadem.edu.tr%1]</t>
+  </si>
+  <si>
+    <t>[Albano%G.%coreGivesNoEmail%3,                        Antonelli%M.%coreGivesNoEmail%2,                        Bellani%G.%coreGivesNoEmail%2,                        Bonanomi%E.%coreGivesNoEmail%2,                        Cabrini%L.%coreGivesNoEmail%2,                        Carlesso%E.%coreGivesNoEmail%2,                        Castelli%G.%coreGivesNoEmail%2,                        Cattaneo%S.%coreGivesNoEmail%2,                        Cecconi%M.%coreGivesNoEmail%2,                        Cereda%D.%coreGivesNoEmail%2,                        Colombo%S.%coreGivesNoEmail%2,                        Coluccello%A.%coreGivesNoEmail%2,                        Crescini%G.%coreGivesNoEmail%2,                        Forastieri%Molinari A.%coreGivesNoEmail%2,                        Foti%G.%coreGivesNoEmail%2,                        Fumagalli%R.%coreGivesNoEmail%2,                        Grasselli%G.%coreGivesNoEmail%2,                        Greco%M.%coreGivesNoEmail%2,                        Iotti%G. A.%coreGivesNoEmail%2,                        Langer%T.%coreGivesNoEmail%2,                        Latronico%N.%coreGivesNoEmail%2,                        Lorini%F. L.%coreGivesNoEmail%2,                        Mojoli%F.%coreGivesNoEmail%2,                        Natalini%G.%coreGivesNoEmail%2,                        Pesenti%A.%coreGivesNoEmail%2,                        Pessina%C. M.%coreGivesNoEmail%2,                        Ranieri%V. M.%coreGivesNoEmail%2,                        Rech%R.%coreGivesNoEmail%2,                        Rosano%A.%coreGivesNoEmail%2,                        Scudeller%L.%coreGivesNoEmail%2,                        Storti%E.%coreGivesNoEmail%2,                        Thompson%B. T.%coreGivesNoEmail%2,                        Tirani%M.%coreGivesNoEmail%2,                        Villani%P. G.%coreGivesNoEmail%2,                        Zanella%A.%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Zheyong%Huang%NULL%2,                               Jiatian%Cao%NULL%1,                               Yumeng%Yao%NULL%1,                               Xuejuan%Jin%NULL%1,                               Zhe%Luo%NULL%1,                               Yuan%Xue%NULL%1,                               Chouwen%Zhu%NULL%1,                               Yanan%Song%NULL%1,                               Ying%Wang%NULL%1,                               Yunzeng%Zou%NULL%1,                               Juying%Qian%NULL%1,                               Kaihuan%Yu%NULL%1,                               Hui%Gong%NULL%1,                               Junbo%Ge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jong-moon%Hwang%NULL%4,                               Ju-Hyun%Kim%NULL%1,                               Jin-Sung%Park%NULL%1,                               Min Cheol%Chang%wheel633@ynu.ac.kr%1,                               Donghwi%Park%bdome@hanmail.net%1]</t>
+  </si>
+  <si>
+    <t>[Christian%Jung%christian.jung@med.uni-duesseldorf.de%1,                               Raphael Romano%Bruno%NULL%1,                               Bernhard%Wernly%NULL%1,                               Michael%Joannidis%NULL%1,                               Sandra%Oeyen%NULL%1,                               Tilemachos%Zafeiridis%NULL%1,                               Brian%Marsh%NULL%1,                               Finn H%Andersen%NULL%1,                               Rui%Moreno%NULL%1,                               Ana Margarida%Fernandes%NULL%1,                               Antonio%Artigas%NULL%1,                               Bernardo Bollen%Pinto%NULL%1,                               Joerg%Schefold%NULL%1,                               Georg%Wolff%NULL%1,                               Malte%Kelm%NULL%2,                               Malte%Kelm%NULL%0,                               Dylan W%De Lange%NULL%1,                               Bertrand%Guidet%NULL%1,                               Hans%Flaatten%NULL%1,                               Jesper%Fjølner%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sun-Young%Jung%NULL%1,                               Jae Chol%Choi%NULL%1,                               Seung-Hun%You%NULL%1,                               Won-Young%Kim%wykim81@cau.ac.kr%1]</t>
+  </si>
+  <si>
+    <t>[Khurram Shahzad%Khan%NULL%1,                               Hamish%Reed-Embleton%NULL%2,                               Hamish%Reed-Embleton%NULL%0,                               Jen%Lewis%NULL%2,                               Jen%Lewis%NULL%0,                               Pamela%Bain%NULL%1,                               Sajid%Mahmud%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Katherine W%Lam%NULL%2,                               Kenneth W%Chow%NULL%1,                               Jonathan%Vo%NULL%1,                               Wei%Hou%NULL%1,                               Haifang%Li%NULL%1,                               Paul S%Richman%NULL%1,                               Sandeep K%Mallipattu%NULL%1,                               Hal A%Skopicki%NULL%1,                               Adam J%Singer%NULL%1,                               Tim Q%Duong%tim.duong@stonybrook.edu%1]</t>
+  </si>
+  <si>
+    <t>[Sophie%Liabeuf%liabeuf.sophie@chu-amiens.fr%1,                               Julien%Moragny%NULL%2,                               Julien%Moragny%NULL%0,                               Youssef%Bennis%NULL%1,                               Benjamin%Batteux%NULL%1,                               Etienne%Brochot%NULL%1,                               Jean Luc%Schmit%NULL%1,                               Jean-Philippe%Lanoix%NULL%1,                               Claire%Andrejak%NULL%1,                               Olivier%Ganry%NULL%1,                               Michel%Slama%NULL%1,                               Julien%Maizel%NULL%1,                               Yazine%Mahjoub%NULL%1,                               Kamel%Masmoudi%NULL%1,                               Valérie%Gras-Champel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiulan%Liu%NULL%2,                               Yi%Liu%NULL%0,                               Keliang%Chen%NULL%1,                               Suying%Yan%NULL%1,                               Xiangrong%Bai%NULL%1,                               Juan%Li%947281063@qq.com%1,                               Dong%Liu%ld2069@outlook.com%2,                               Dong%Liu%ld2069@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Diego%López-Otero%NULL%1,                               Javier%López-Pais%NULL%1,                               Carla Eugenia%Cacho-Antonio%NULL%1,                               Pablo José%Antúnez-Muiños%NULL%1,                               Teba%González-Ferrero%NULL%1,                               Marta%Pérez-Poza%NULL%1,                               Óscar%Otero-García%NULL%1,                               Brais%Díaz-Fernández%NULL%1,                               María%Bastos-Fernández%NULL%1,                               Noelia%Bouzas-Cruz%NULL%1,                               Xoan Carlos%Sanmartín-Pena%NULL%1,                               Alfonso%Varela-Román%NULL%1,                               Manuel%Portela-Romero%NULL%1,                               Luis%Valdés-Cuadrado%NULL%1,                               Antonio%Pose-Reino%NULL%1,                               José Ramón%González-Juanatey%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%2,                               Federico%Rea%NULL%1,                               Monica%Ludergnani%NULL%4,                               Monica%Ludergnani%NULL%0,                               Giovanni%Apolone%NULL%1,                               Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Yasushi%Matsuzawa%null%2,                  Hisao%Ogawa%null%2,                  Kazuo%Kimura%null%2,                  Masaaki%Konishi%null%2,                  Jin%Kirigaya%null%2,                  Kazuki%Fukui%null%2,                  Kengo%Tsukahara%null%2,                  Hiroyuki%Shimizu%null%2,                  Keisuke%Iwabuchi%null%2,                  Yu%Yamada%null%2,                  Kenichiro%Saka%null%2,                  Ichiro%Takeuchi%null%2,                  Toshio%Hirano%null%2,                  Kouichi%Tamura%null%2]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%3,                               Guohui%Xiao%NULL%1,                               Juanjuan%Zhang%NULL%1,                               Xing%He%NULL%1,                               Min%Ou%NULL%1,                               Jing%Bi%NULL%1,                               Rongqing%Yang%NULL%1,                               Wencheng%Di%NULL%1,                               Zhaoqin%Wang%NULL%1,                               Zigang%Li%NULL%1,                               Hong%Gao%NULL%1,                               Lei%Liu%NULL%1,                               Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jose M.%Mostaza%NULL%1,                               Francisca%García-Iglesias%NULL%1,                               Teresa%González-Alegre%NULL%1,                               Francisco%Blanco%NULL%1,                               Marta%Varas%NULL%1,                               Clara%Hernández-Blanco%NULL%1,                               Victor%Hontañón%NULL%1,                               María J.%Jaras-Hernández%NULL%1,                               Mónica%Martínez-Prieto%NULL%1,                               Araceli%Menéndez-Saldaña%NULL%1,                               María L.%Cachán%NULL%1,                               Eva%Estirado%NULL%1,                               Carlos%Lahoz%NULL%1,                               Rosa%de Miguel%NULL%1,                               Miriam%Romero%NULL%1,                               Mar%Lago%NULL%1,                               Cristina%García-Quero%NULL%1,                               Cristina%Plaza%NULL%1,                               Talía%Sainz-Costa%NULL%1,                               Susana%Rivas-Vila%NULL%1,                               Blanca%Sánchez%NULL%1,                               Celia García%Torres%NULL%1,                               Lucía%Martínez-Tobar%NULL%1,                               María%Hernandez-Pérez%NULL%1,                               Pablo%Racionero%NULL%1,                               Patricia%Mir-Ihara%NULL%1,                               Jesús%Peña-López%NULL%1,                               Marta%Bautista-Barea%NULL%1,                               Alexa P.%Benítez%NULL%1,                               Pablo%Rodríguez-Merlos%NULL%1,                               María%Barcenilla%NULL%1,                               María San%Basilio%NULL%1,                               María%Valencia%NULL%1,                               Ricardo%Romero-Martín%NULL%1,                               Ana%Boto de los Bueis%NULL%1,                               Adriana%de la Hoz-Polo%NULL%1,                               María%del Pino-Cidad%NULL%1,                               Javier%Coca-Robinot%NULL%1,                               Bárbara%González-Ferrer%NULL%1,                               Pedro%Fernández-Pérez%NULL%1,                               Isabel%Mogollón%NULL%1,                               María S.%Montoro-Romero%NULL%1,                               Isabel%Villalaín%NULL%1,                               Almudena%del Hierro-Zarzuelo%NULL%1,                               Irene%Hernández-Martín%NULL%1,                               Javier%Domínguez%NULL%1,                               Alberto%Luna%NULL%1,                               Soledad%Montoro%NULL%1,                               Margarita%Sánchez-Orgaz%NULL%1,                               Gloria%Amorena%NULL%1,                               Cosme%Lavín-Dapena%NULL%1,                               Aaron Zapata%Negreiros%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Abderrahim%Oussalah%abderrahim.oussalah@univ-lorraine.fr%1,                               Stanislas%Gleye%NULL%1,                               Isabelle%Clerc Urmes%NULL%1,                               Elodie%Laugel%NULL%1,                               Jonas%Callet%NULL%1,                               Françoise%Barbé%NULL%1,                               Sophie%Orlowski%NULL%1,                               Catherine%Malaplate%NULL%1,                               Isabelle%Aimone-Gastin%NULL%1,                               Beatrice Maatem%Caillierez%NULL%1,                               Marc%Merten%NULL%1,                               Elise%Jeannesson%NULL%1,                               Raphaël%Kormann%NULL%1,                               Jean-Luc%Olivier%NULL%1,                               Rosa-Maria%Rodriguez-Guéant%NULL%1,                               Farès%Namour%NULL%1,                               Sybille%Bevilacqua%NULL%1,                               Marie-Reine%Losser%NULL%1,                               Bruno%Levy%NULL%1,                               Antoine%Kimmoun%NULL%1,                               Sébastien%Gibot%NULL%1,                               Nathalie%Thilly%NULL%1,                               Luc%Frimat%NULL%1,                               Evelyne%Schvoerer%NULL%1,                               Jean-Louis%Guéant%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%2,                               Samrachana%Adhikari%NULL%1,                               Claudia%Pulgarin%NULL%1,                               Andrea B.%Troxel%NULL%1,                               Eduardo%Iturrate%NULL%1,                               Stephen B.%Johnson%NULL%1,                               Anaïs%Hausvater%NULL%1,                               Jonathan D.%Newman%NULL%1,                               Jeffrey S.%Berger%NULL%1,                               Sripal%Bangalore%NULL%1,                               Stuart D.%Katz%NULL%1,                               Glenn I.%Fishman%NULL%1,                               Dennis%Kunichoff%NULL%1,                               Yu%Chen%NULL%1,                               Gbenga%Ogedegbe%NULL%1,                               Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%9,                        Becker%L.B.%coreGivesNoEmail%3,                        Chelico%J.D.%coreGivesNoEmail%3,                        Cohen%S.L.%coreGivesNoEmail%3,                        Cookingham%J.%coreGivesNoEmail%3,                        Coppa%K.%coreGivesNoEmail%3,                        Crawford%J.M.%coreGivesNoEmail%3,                        Davidson%K.W.%coreGivesNoEmail%3,                        Diefenbach%M.A.%coreGivesNoEmail%3,                        Dominello%A.J.%coreGivesNoEmail%3,                        Duer-Hefele%J.%coreGivesNoEmail%3,                        Falzon%L.%coreGivesNoEmail%3,                        Gitlin%J.%coreGivesNoEmail%3,                        Hajizadeh%N.%coreGivesNoEmail%3,                        Harvin%T.G.%coreGivesNoEmail%3,                        Hirsch%J.S.%coreGivesNoEmail%3,                        Hirschwerk%D.A.%coreGivesNoEmail%3,                        Kim%E.J.%coreGivesNoEmail%3,                        Kozel%Z.M.%coreGivesNoEmail%3,                        Marrast%L.M.%coreGivesNoEmail%3,                        McGinn%T.%coreGivesNoEmail%3,                        Mogavero%J.N.%coreGivesNoEmail%3,                        Narasimhan%M.%coreGivesNoEmail%3,                        Osorio%G.A.%coreGivesNoEmail%3,                        Qiu%M.%coreGivesNoEmail%3,                        Richardson%S.%coreGivesNoEmail%3,                        Zanos%T.P.%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%3,                               Massimiliano%Marino%NULL%3,                               Debora%Formisano%NULL%1,                               Francesco%Venturelli%NULL%1,                               Massimo%Vicentini%NULL%3,                               Massimo%Vicentini%NULL%0,                               Roberto%Grilli%NULL%2,                               NULL%NULL%NULL%0,                               Gianluigi%Forloni%NULL%8,                               Gianluigi%Forloni%NULL%0,                               Gianluigi%Forloni%NULL%0,                               Gianluigi%Forloni%NULL%0,                               Gianluigi%Forloni%NULL%0,                               Gianluigi%Forloni%NULL%0,                               Gianluigi%Forloni%NULL%0,                               Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Celestino%Sardu%drsarducele@gmail.com%2,                               Paolo%Maggi%NULL%2,                               Paolo%Maggi%NULL%0,                               Vincenzo%Messina%NULL%1,                               Pasquale%Iuliano%NULL%2,                               Pasquale%Iuliano%NULL%0,                               Antonio%Sardu%NULL%1,                               Vincenzo%Iovinella%NULL%1,                               Giuseppe%Paolisso%NULL%1,                               Raffaele%Marfella%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Naci%Şenkal%NULL%2,                               Rasimcan%Meral%NULL%1,                               Alpay%Medetalibeyoğlu%NULL%1,                               Hilal%Konyaoğlu%NULL%1,                               Murat%Köse%NULL%1,                               Tufan%Tükek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Priyank%Shah%xref no email%4,       Jack%Owens%xref no email%3,       James%Franklin%xref no email%3,       Yash%Jani%xref no email%1,       Ashish%Kumar%xref no email%1,       Rajkumar%Doshi%xref no email%3]</t>
+  </si>
+  <si>
+    <t>[Nian-Di%Tan%NULL%1,                               Yun%Qiu%NULL%1,                               Xiang-Bin%Xing%NULL%1,                               Subrata%Ghosh%NULL%1,                               Min-Hu%Chen%NULL%1,                               Ren%Mao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara%Tedeschi%sara.tedeschi@aosp.bo.it%1,                               Maddalena%Giannella%NULL%1,                               Michele%Bartoletti%NULL%1,                               Filippo%Trapani%NULL%1,                               Marina%Tadolini%NULL%1,                               Claudio%Borghi%NULL%1,                               Pierluigi%Viale%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Gianluca%Trifirò%NULL%1,                               Marco%Massari%NULL%3,                               Marco%Massari%NULL%0,                               Roberto%Da Cas%NULL%2,                               Francesca%Menniti Ippolito%NULL%2,                               Janet%Sultana%NULL%2,                               Salvatore%Crisafulli%NULL%2,                               Paolo%Giorgi Rossi%NULL%2,                               Massimiliano%Marino%NULL%0,                               Manuel%Zorzi%NULL%2,                               Emanuela%Bovo%NULL%2,                               Olivia%Leoni%NULL%2,                               Monica%Ludergnani%NULL%0,                               Stefania%Spila Alegiani%stefania.spila@iss.it%2,                               Stefania%Spila Alegiani%NULL%0,                               Francesca%Menniti Ippolito%NULL%0,                               Roberto%Da Cas%NULL%0,                               Marco%Massari%NULL%0,                               Giuseppe%Traversa%NULL%1,                               Graziano%Onder%NULL%1,                               Gianluca%Trifirò%NULL%1,                               Janet%Sultana%NULL%0,                               Valentina%Ientile%NULL%1,                               Salvatore%Crisafulli%NULL%0,                               Paolo%Giorgi Rossi%NULL%0,                               Roberto%Grilli%NULL%0,                               Giulio%Formoso%NULL%1,                               Massimiliano%Marino%NULL%0,                               Massimo%Vicentini%NULL%0,                               Olivia%Leoni%NULL%0,                               Monica%Ludergnani%NULL%0,                               Danilo%Cereda%NULL%1,                               Eliana%Ferroni%NULL%1,                               Stefano%Guzzinati%NULL%1,                               Emanuela%Bovo%NULL%0,                               Manuel%Zorzi%NULL%0,                               Massimo%Gion%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiuyang%Xu%NULL%1,                               Chaolin%Huang%NULL%1,                               Guohui%Fan%NULL%1,                               Zhibo%Liu%NULL%1,                               Lianhan%Shang%NULL%1,                               Fei%Zhou%NULL%1,                               Yeming%Wang%NULL%1,                               Jiapei%Yu%NULL%1,                               Luning%Yang%NULL%1,                               Ke%Xie%NULL%1,                               Zhisheng%Huang%NULL%1,                               Lixue%Huang%NULL%1,                               Xiaoying%Gu%NULL%1,                               Hui%Li%NULL%1,                               Yi%Zhang%NULL%0,                               Yimin%Wang%NULL%1,                               Frederick G.%Hayden%NULL%1,                               Peter W.%Horby%NULL%1,                               Bin%Cao%caobin_ben@163.com%1,                               Chen%Wang%wangchen@pumc.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yuan%NULL%2,                               Dan%Liu%NULL%1,                               Shaoqing%Zeng%NULL%1,                               Siyuan%Wang%NULL%1,                               Sen%Xu%NULL%1,                               Ya%Wang%NULL%1,                               Ruidi%Yu%NULL%1,                               Yue%Gao%NULL%1,                               Huayi%Li%NULL%1,                               Xinxia%Feng%NULL%1,                               Ning%Zhou%NULL%0,                               Chunxia%Zhao%NULL%1,                               Qinglei%Gao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%3,                               Lihua%Zhu%NULL%1,                               Jingjing%Cai%NULL%1,                               Fang%Lei%NULL%1,                               Juan-Juan%Qin%NULL%1,                               Jing%Xie%NULL%1,                               Ye-Mao%Liu%NULL%1,                               Yan-Ci%Zhao%NULL%1,                               Xuewei%Huang%NULL%1,                               Lijin%Lin%NULL%1,                               Meng%Xia%NULL%1,                               Ming-Ming%Chen%NULL%1,                               Xu%Cheng%NULL%1,                               Xiao%Zhang%NULL%1,                               Deliang%Guo%NULL%1,                               Yuanyuan%Peng%NULL%1,                               Yan-Xiao%Ji%NULL%1,                               Jing%Chen%NULL%1,                               Zhi-Gang%She%NULL%1,                               Yibin%Wang%NULL%0,                               Qingbo%Xu%NULL%1,                               Renfu%Tan%NULL%1,                               Haitao%Wang%NULL%1,                               Jun%Lin%NULL%1,                               Pengcheng%Luo%NULL%1,                               Shouzhi%Fu%NULL%1,                               Hongbin%Cai%NULL%1,                               Ping%Ye%NULL%1,                               Bing%Xiao%NULL%1,                               Weiming%Mao%NULL%1,                               Liming%Liu%NULL%1,                               Youqin%Yan%NULL%1,                               Mingyu%Liu%NULL%1,                               Manhua%Chen%NULL%1,                               Xiao-Jing%Zhang%NULL%1,                               Xinghuan%Wang%NULL%1,                               Rhian M.%Touyz%NULL%1,                               Jiahong%Xia%NULL%1,                               Bing-Hong%Zhang%NULL%1,                               Xiaodong%Huang%NULL%1,                               Yufeng%Yuan%NULL%1,                               Rohit%Loomba%NULL%1,                               Peter P.%Liu%NULL%1,                               Hongliang%Li%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4965,7 +5187,7 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>1302</v>
+        <v>1376</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -5061,7 +5283,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>1303</v>
+        <v>1377</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -5109,7 +5331,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>1304</v>
+        <v>1378</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -5157,7 +5379,7 @@
         <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>1305</v>
+        <v>1379</v>
       </c>
       <c r="F6" t="s">
         <v>76</v>
@@ -5205,7 +5427,7 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>1306</v>
+        <v>1380</v>
       </c>
       <c r="F7" t="s">
         <v>80</v>
@@ -5253,7 +5475,7 @@
         <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>1307</v>
+        <v>1381</v>
       </c>
       <c r="F8" t="s">
         <v>84</v>
@@ -5301,7 +5523,7 @@
         <v>565</v>
       </c>
       <c r="E9" t="s">
-        <v>752</v>
+        <v>841</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -5349,7 +5571,7 @@
         <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>1308</v>
+        <v>1382</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -5397,7 +5619,7 @@
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>1309</v>
+        <v>1383</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -5445,7 +5667,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>1310</v>
+        <v>1384</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -5493,7 +5715,7 @@
         <v>756</v>
       </c>
       <c r="E13" t="s">
-        <v>1311</v>
+        <v>1385</v>
       </c>
       <c r="F13" t="s">
         <v>98</v>
@@ -5541,7 +5763,7 @@
         <v>421</v>
       </c>
       <c r="E14" t="s">
-        <v>1312</v>
+        <v>1386</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -5589,7 +5811,7 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>759</v>
+        <v>847</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -5637,7 +5859,7 @@
         <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>1313</v>
+        <v>1387</v>
       </c>
       <c r="F16" t="s">
         <v>103</v>
@@ -5685,7 +5907,7 @@
         <v>761</v>
       </c>
       <c r="E17" t="s">
-        <v>1314</v>
+        <v>1388</v>
       </c>
       <c r="F17" t="s">
         <v>108</v>
@@ -5733,7 +5955,7 @@
         <v>580</v>
       </c>
       <c r="E18" t="s">
-        <v>763</v>
+        <v>850</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -5781,7 +6003,7 @@
         <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>1315</v>
+        <v>1389</v>
       </c>
       <c r="F19" t="s">
         <v>112</v>
@@ -5829,7 +6051,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>1316</v>
+        <v>1390</v>
       </c>
       <c r="F20" t="s">
         <v>117</v>
@@ -5877,7 +6099,7 @@
         <v>119</v>
       </c>
       <c r="E21" t="s">
-        <v>1317</v>
+        <v>1391</v>
       </c>
       <c r="F21" t="s">
         <v>121</v>
@@ -5925,7 +6147,7 @@
         <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>1318</v>
+        <v>1392</v>
       </c>
       <c r="F22" t="s">
         <v>125</v>
@@ -5973,7 +6195,7 @@
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>768</v>
+        <v>855</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
@@ -6021,7 +6243,7 @@
         <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>1319</v>
+        <v>1393</v>
       </c>
       <c r="F24" t="s">
         <v>130</v>
@@ -6069,7 +6291,7 @@
         <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>1320</v>
+        <v>1394</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -6117,7 +6339,7 @@
         <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>1321</v>
+        <v>1395</v>
       </c>
       <c r="F26" t="s">
         <v>140</v>
@@ -6165,7 +6387,7 @@
         <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>1322</v>
+        <v>1396</v>
       </c>
       <c r="F27" t="s">
         <v>144</v>
@@ -6213,7 +6435,7 @@
         <v>727</v>
       </c>
       <c r="E28" t="s">
-        <v>1323</v>
+        <v>1397</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -6261,7 +6483,7 @@
         <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>1324</v>
+        <v>1398</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -6309,7 +6531,7 @@
         <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>1325</v>
+        <v>1399</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -6357,7 +6579,7 @@
         <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>1326</v>
+        <v>1400</v>
       </c>
       <c r="F31" t="s">
         <v>163</v>
@@ -6405,7 +6627,7 @@
         <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>777</v>
+        <v>864</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -6453,7 +6675,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>1327</v>
+        <v>1401</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -6501,7 +6723,7 @@
         <v>439</v>
       </c>
       <c r="E34" t="s">
-        <v>1328</v>
+        <v>1402</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -6549,7 +6771,7 @@
         <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>1329</v>
+        <v>1403</v>
       </c>
       <c r="F35" t="s">
         <v>171</v>
@@ -6597,7 +6819,7 @@
         <v>174</v>
       </c>
       <c r="E36" t="s">
-        <v>1330</v>
+        <v>1404</v>
       </c>
       <c r="F36" t="s">
         <v>176</v>
@@ -6645,7 +6867,7 @@
         <v>178</v>
       </c>
       <c r="E37" t="s">
-        <v>1331</v>
+        <v>1405</v>
       </c>
       <c r="F37" t="s">
         <v>180</v>
@@ -6693,7 +6915,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>1332</v>
+        <v>1406</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -6741,7 +6963,7 @@
         <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>1333</v>
+        <v>1407</v>
       </c>
       <c r="F39" t="s">
         <v>184</v>
@@ -6789,7 +7011,7 @@
         <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>1334</v>
+        <v>1408</v>
       </c>
       <c r="F40" t="s">
         <v>187</v>
@@ -6837,7 +7059,7 @@
         <v>786</v>
       </c>
       <c r="E41" t="s">
-        <v>1335</v>
+        <v>1409</v>
       </c>
       <c r="F41" t="s">
         <v>191</v>
@@ -6885,7 +7107,7 @@
         <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>1336</v>
+        <v>1410</v>
       </c>
       <c r="F42" t="s">
         <v>195</v>
@@ -6933,7 +7155,7 @@
         <v>612</v>
       </c>
       <c r="E43" t="s">
-        <v>789</v>
+        <v>875</v>
       </c>
       <c r="F43" t="s">
         <v>43</v>
@@ -6981,7 +7203,7 @@
         <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>1337</v>
+        <v>1411</v>
       </c>
       <c r="F44" t="s">
         <v>199</v>
@@ -7029,7 +7251,7 @@
         <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>1338</v>
+        <v>1412</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>
